--- a/data/WordStudy.xlsx
+++ b/data/WordStudy.xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
     <sheet name="Update_ea9e" sheetId="2" r:id="rId2"/>
+    <sheet name="Update_3987" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -398,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -429,7 +430,7 @@
     <row r="2">
       <c r="A2" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>e9589940-742b-43f2-ac65-fc45bb80e027</v>
+        <v>2855e402-1dfa-4dc2-8840-cebd848fa19c</v>
       </c>
       <c r="B2">
         <v>26</v>
@@ -450,7 +451,7 @@
     <row r="3">
       <c r="A3" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>df96699a-5763-442b-95fc-cbb91f19f173</v>
+        <v>d90b062b-c464-4c5c-bf4d-2d250fee42b4</v>
       </c>
       <c r="B3">
         <v>26</v>
@@ -471,7 +472,7 @@
     <row r="4">
       <c r="A4" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>b404c93e-c748-4648-9faf-190a9ad5dba8</v>
+        <v>d670b0d5-a0f9-4e3d-be7e-7539b709f4bf</v>
       </c>
       <c r="B4">
         <v>26</v>
@@ -492,7 +493,7 @@
     <row r="5">
       <c r="A5" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>7c8e0bd5-ee8c-41f0-bdc6-7d308bfa4ab5</v>
+        <v>0b08724a-3034-4e5c-9eed-a809189bff3a</v>
       </c>
       <c r="B5">
         <v>26</v>
@@ -513,7 +514,7 @@
     <row r="6">
       <c r="A6" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>9f86076e-64fe-4a74-aaba-1d8f05735eac</v>
+        <v>4152b846-3f6e-4b76-b48c-320c8d9bf98d</v>
       </c>
       <c r="B6">
         <v>26</v>
@@ -534,7 +535,7 @@
     <row r="7">
       <c r="A7" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>559fe9af-e60b-4194-83d4-fc1806e45563</v>
+        <v>f9c612cb-22a0-4f9d-a949-c179e45f0655</v>
       </c>
       <c r="B7">
         <v>26</v>
@@ -555,7 +556,7 @@
     <row r="8">
       <c r="A8" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>4b845d2c-e2c1-4fdd-8548-32d690072f4e</v>
+        <v>53af5326-467e-4e15-a189-ec4723760626</v>
       </c>
       <c r="B8">
         <v>26</v>
@@ -576,7 +577,7 @@
     <row r="9">
       <c r="A9" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>9d47ec42-31eb-4357-bfc0-45d200872d21</v>
+        <v>faab9a2e-d127-4a38-abf1-879e33beef60</v>
       </c>
       <c r="B9">
         <v>26</v>
@@ -597,7 +598,7 @@
     <row r="10">
       <c r="A10" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>4ff90ae3-5e15-4a78-94f0-735775606ffa</v>
+        <v>da3b1816-173a-4493-ad15-7beb97e72ba5</v>
       </c>
       <c r="B10">
         <v>26</v>
@@ -618,7 +619,7 @@
     <row r="11">
       <c r="A11" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>a71d8989-9fc3-4461-9b1c-aee9819e51f1</v>
+        <v>e98b5079-2952-47db-afac-31e8e8b2ded1</v>
       </c>
       <c r="B11">
         <v>26</v>
@@ -639,7 +640,7 @@
     <row r="12">
       <c r="A12" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>28ba2cea-e9b7-444f-bf0c-5f414436bfba</v>
+        <v>6834a067-2935-4767-b07e-7e28c2af50bc</v>
       </c>
       <c r="B12">
         <v>26</v>
@@ -660,7 +661,7 @@
     <row r="13">
       <c r="A13" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>8aa2c4b0-1c7c-4945-82fa-8382cdf4ab6f</v>
+        <v>eec73fe0-6f13-4d23-b16e-304b453fd1eb</v>
       </c>
       <c r="B13">
         <v>26</v>
@@ -681,7 +682,7 @@
     <row r="14">
       <c r="A14" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>2cb14656-58ab-4802-975a-080e7e9be699</v>
+        <v>d82e9755-cb4a-4e76-b2d1-c22e9bbd3e4a</v>
       </c>
       <c r="B14">
         <v>26</v>
@@ -702,7 +703,7 @@
     <row r="15">
       <c r="A15" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>7acaa11d-729f-42b7-9f09-0955a4f7d42c</v>
+        <v>80af4f65-e319-4276-abc7-c4b93cfb684f</v>
       </c>
       <c r="B15">
         <v>26</v>
@@ -723,7 +724,7 @@
     <row r="16">
       <c r="A16" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>1b1a8ac3-85cf-492c-8008-e9953d15f894</v>
+        <v>66eb9a3b-e5cf-4572-af26-c0ced46a6a41</v>
       </c>
       <c r="B16">
         <v>26</v>
@@ -744,7 +745,7 @@
     <row r="17">
       <c r="A17" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>c128256f-c15c-4d39-8060-be37724208b0</v>
+        <v>6d66f4e3-1575-453b-9c56-b2e35ae6f572</v>
       </c>
       <c r="B17">
         <v>26</v>
@@ -765,7 +766,7 @@
     <row r="18">
       <c r="A18" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>38610c4a-fe8b-4d51-8168-17aa92f7ff9d</v>
+        <v>c61cf54e-76e9-4c4f-a546-be16ad5e5bcf</v>
       </c>
       <c r="B18">
         <v>26</v>
@@ -786,7 +787,7 @@
     <row r="19">
       <c r="A19" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>9f62ae08-61be-4094-804d-cc8013c0a33e</v>
+        <v>75d97f77-6607-497c-a34c-c08e4276bc76</v>
       </c>
       <c r="B19">
         <v>26</v>
@@ -807,7 +808,7 @@
     <row r="20">
       <c r="A20" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>63b355e6-86e1-4e37-9a68-1b9447be1780</v>
+        <v>e2745e17-f355-4999-984f-246339ace9e7</v>
       </c>
       <c r="B20">
         <v>26</v>
@@ -828,7 +829,7 @@
     <row r="21">
       <c r="A21" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>d7aeac52-22a8-48c9-b3dc-9c983249b645</v>
+        <v>d883b560-e598-4399-b67a-fbd255f88070</v>
       </c>
       <c r="B21">
         <v>26</v>
@@ -849,7 +850,7 @@
     <row r="22">
       <c r="A22" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>52a8de1b-1439-4e9f-8889-7ca55f5db9d4</v>
+        <v>861042fb-7382-4b86-b5dc-6f8a0f267c2b</v>
       </c>
       <c r="B22">
         <v>26</v>
@@ -870,7 +871,7 @@
     <row r="23">
       <c r="A23" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>acf897b0-c82a-4b38-a0ec-7b014ca4e7f1</v>
+        <v>2c327c19-447e-45c6-8278-14aa65293f96</v>
       </c>
       <c r="B23">
         <v>26</v>
@@ -891,7 +892,7 @@
     <row r="24">
       <c r="A24" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>e802aafa-29e6-435e-ac76-b39e6011f747</v>
+        <v>1c7e5e1d-737d-4a0f-9124-6e6415aaab50</v>
       </c>
       <c r="B24">
         <v>26</v>
@@ -912,7 +913,7 @@
     <row r="25">
       <c r="A25" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>43076760-6d75-4fe1-a6a3-dbf273a1ed69</v>
+        <v>046efda8-e3b4-4698-a754-cacebf1c90e0</v>
       </c>
       <c r="B25">
         <v>26</v>
@@ -933,7 +934,7 @@
     <row r="26">
       <c r="A26" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>15049f9d-7c2c-4f70-b7dd-d6fcb78f6f94</v>
+        <v>7040324e-e5a2-44f4-9535-b2cc9cbdb924</v>
       </c>
       <c r="B26">
         <v>26</v>
@@ -954,7 +955,7 @@
     <row r="27">
       <c r="A27" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>0f3bd34e-ee98-4fee-b98b-23644a117b3c</v>
+        <v>988a2983-945c-4cf0-ba48-152e92f249c4</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -975,7 +976,7 @@
     <row r="28">
       <c r="A28" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>04388592-876e-4575-adcd-e0fe1be365b3</v>
+        <v>928cac87-df35-4693-90eb-0b7ac9ba4f7c</v>
       </c>
       <c r="B28">
         <v>26</v>
@@ -996,7 +997,7 @@
     <row r="29">
       <c r="A29" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>7344acb7-f1a2-4fc1-b76e-94122a109c7a</v>
+        <v>470241db-5ef4-4605-923a-0f067329f20f</v>
       </c>
       <c r="B29">
         <v>26</v>
@@ -1017,7 +1018,7 @@
     <row r="30">
       <c r="A30" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>5677ba8e-838f-4b4f-b705-0df492ebdf1b</v>
+        <v>972036e4-0ba9-4393-b01e-adb398bcbf0c</v>
       </c>
       <c r="B30">
         <v>26</v>
@@ -1038,7 +1039,7 @@
     <row r="31">
       <c r="A31" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>e36b0ed5-6805-48e8-ad47-328b2dfa37ec</v>
+        <v>fefbe098-b8f8-40ef-87d2-ea757ae401e2</v>
       </c>
       <c r="B31">
         <v>26</v>
@@ -1059,7 +1060,7 @@
     <row r="32">
       <c r="A32" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>3208a29f-cd43-40f0-a981-777899ce22c0</v>
+        <v>7ced7a2e-75de-4804-ac90-20e3e958d965</v>
       </c>
       <c r="B32">
         <v>27</v>
@@ -1080,7 +1081,7 @@
     <row r="33">
       <c r="A33" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>ee5e822f-b746-4dcf-8c93-863f4fcf61f0</v>
+        <v>4b5d71f1-69c8-4d40-917c-56ed60fa341a</v>
       </c>
       <c r="B33">
         <v>27</v>
@@ -1101,7 +1102,7 @@
     <row r="34">
       <c r="A34" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>19720a6e-bfec-46ab-a32d-98ff082191a7</v>
+        <v>f249b615-9ce7-490b-aeb1-e7fb50956f75</v>
       </c>
       <c r="B34">
         <v>27</v>
@@ -1122,7 +1123,7 @@
     <row r="35">
       <c r="A35" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>fdc92382-011c-40e3-a9c5-499c24fccbae</v>
+        <v>33645007-d97b-4e05-9fbb-18ce6453df08</v>
       </c>
       <c r="B35">
         <v>27</v>
@@ -1143,7 +1144,7 @@
     <row r="36">
       <c r="A36" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>94ad9cc2-958c-450f-820f-10508e3e81c3</v>
+        <v>c1f5fd98-6823-4cd2-8332-437b40d1cdbb</v>
       </c>
       <c r="B36">
         <v>27</v>
@@ -1164,7 +1165,7 @@
     <row r="37">
       <c r="A37" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>77310ddb-be92-4c78-8912-8012f9026c38</v>
+        <v>9e32b63e-6f9b-484a-a3cf-03b2554b0c81</v>
       </c>
       <c r="B37">
         <v>27</v>
@@ -1185,7 +1186,7 @@
     <row r="38">
       <c r="A38" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>a800480b-6b2f-4c5f-9279-9ac2416d7189</v>
+        <v>3af0b7f7-7574-4b56-bf9b-afbdc9d94496</v>
       </c>
       <c r="B38">
         <v>27</v>
@@ -1206,7 +1207,7 @@
     <row r="39">
       <c r="A39" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>c2ea6b48-2f8f-420f-9655-6b55b0e784d6</v>
+        <v>cd2a5828-bdf8-445c-81a1-3926ae9be2da</v>
       </c>
       <c r="B39">
         <v>27</v>
@@ -1227,7 +1228,7 @@
     <row r="40">
       <c r="A40" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>961ae097-bbd2-4be2-b313-094621395203</v>
+        <v>123fb41c-f345-498c-a994-9a9b27e98bf8</v>
       </c>
       <c r="B40">
         <v>27</v>
@@ -1248,7 +1249,7 @@
     <row r="41">
       <c r="A41" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>880b0225-c9b1-4bdd-8ed7-93e6220d7346</v>
+        <v>87d2b191-c73b-403f-96bc-6f392d27e7b2</v>
       </c>
       <c r="B41">
         <v>27</v>
@@ -1269,7 +1270,7 @@
     <row r="42">
       <c r="A42" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>d288a6d6-a293-416d-8b1f-4f3d01131e7f</v>
+        <v>5a4867f1-271f-4ee0-865d-7d7eb2b42d5d</v>
       </c>
       <c r="B42">
         <v>27</v>
@@ -1290,7 +1291,7 @@
     <row r="43">
       <c r="A43" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>c9daf53e-22ab-4e9d-8eb3-d36471ceb17f</v>
+        <v>3423a5df-5518-4d10-9006-6b46aef0c92f</v>
       </c>
       <c r="B43">
         <v>27</v>
@@ -1311,7 +1312,7 @@
     <row r="44">
       <c r="A44" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>4077b92e-d763-449e-accf-f4cf450bddb8</v>
+        <v>dac664bf-4d84-4185-9955-6184e4705180</v>
       </c>
       <c r="B44">
         <v>27</v>
@@ -1332,7 +1333,7 @@
     <row r="45">
       <c r="A45" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>ff459de3-e4f7-413a-821d-8205032383d7</v>
+        <v>8d87d414-5e8f-41e4-8024-820fa8e2834f</v>
       </c>
       <c r="B45">
         <v>27</v>
@@ -1353,7 +1354,7 @@
     <row r="46">
       <c r="A46" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>3ab2b1c9-7355-4d3c-9b89-8797da83a013</v>
+        <v>999e1a08-f844-4088-a0eb-d43b316c22f6</v>
       </c>
       <c r="B46">
         <v>27</v>
@@ -1374,7 +1375,7 @@
     <row r="47">
       <c r="A47" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>8f6ad1e1-0aa4-409c-a69f-5bacf2a68b0a</v>
+        <v>f3268128-5bfc-4b77-b848-87fd19d76a2d</v>
       </c>
       <c r="B47">
         <v>27</v>
@@ -1395,7 +1396,7 @@
     <row r="48">
       <c r="A48" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>5b58d634-aaa6-406c-9146-9a2ade88aed4</v>
+        <v>abf03747-d6bf-4469-9f81-fdf87f96dce3</v>
       </c>
       <c r="B48">
         <v>27</v>
@@ -1416,7 +1417,7 @@
     <row r="49">
       <c r="A49" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>6e8ad717-d117-427e-9279-a45e9219729c</v>
+        <v>cba5a361-0281-4457-a39e-8fff93b461df</v>
       </c>
       <c r="B49">
         <v>27</v>
@@ -1437,7 +1438,7 @@
     <row r="50">
       <c r="A50" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>c456e86d-ec7c-4d45-bcb7-3274a394c455</v>
+        <v>ba407704-b048-4ddc-b6ff-92559d5fe029</v>
       </c>
       <c r="B50">
         <v>27</v>
@@ -1458,7 +1459,7 @@
     <row r="51">
       <c r="A51" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>84f34f22-2fc4-42a9-a379-016b2d32bd27</v>
+        <v>a23819c9-7af3-4246-a061-633cfade115b</v>
       </c>
       <c r="B51">
         <v>27</v>
@@ -1479,7 +1480,7 @@
     <row r="52">
       <c r="A52" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>e4a3eb62-d8da-43d9-ad02-2381e98beeb0</v>
+        <v>bacb314f-3d07-4d2c-ad43-ee564b779903</v>
       </c>
       <c r="B52">
         <v>27</v>
@@ -1500,7 +1501,7 @@
     <row r="53">
       <c r="A53" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>249f29dc-63c9-4c07-958a-715d411f0fa1</v>
+        <v>a499a65c-f6a4-43bf-b3af-7414b2c94310</v>
       </c>
       <c r="B53">
         <v>27</v>
@@ -1521,7 +1522,7 @@
     <row r="54">
       <c r="A54" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>ed08c637-8021-49df-b96e-11b99461fd79</v>
+        <v>48d3d3eb-d568-4c77-8488-43c41b7afbf5</v>
       </c>
       <c r="B54">
         <v>27</v>
@@ -1542,7 +1543,7 @@
     <row r="55">
       <c r="A55" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>fd1e295f-870f-4951-a3d2-338a4c66acee</v>
+        <v>0aa13e64-c9da-42cf-98a6-ea7b261bfbc8</v>
       </c>
       <c r="B55">
         <v>27</v>
@@ -1563,7 +1564,7 @@
     <row r="56">
       <c r="A56" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>72cfa590-d7e9-4a64-830a-a29b0527af30</v>
+        <v>200b047e-f499-4d66-99d8-fbca132dfb75</v>
       </c>
       <c r="B56">
         <v>27</v>
@@ -1584,7 +1585,7 @@
     <row r="57">
       <c r="A57" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>4abb9347-8561-40c4-9763-175c5bd472f2</v>
+        <v>3b253e28-0230-47de-a666-91be77248828</v>
       </c>
       <c r="B57">
         <v>27</v>
@@ -1605,7 +1606,7 @@
     <row r="58">
       <c r="A58" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>6ecb16e9-54fc-4a3b-ba96-4c22542beefa</v>
+        <v>4334038f-c1b7-49a5-98f1-62b1237f3ab0</v>
       </c>
       <c r="B58">
         <v>27</v>
@@ -1626,7 +1627,7 @@
     <row r="59">
       <c r="A59" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>d09efba9-808b-404a-899c-686f3af486b3</v>
+        <v>5d8f29ff-7d1d-4e1e-82e1-34512516151c</v>
       </c>
       <c r="B59">
         <v>27</v>
@@ -1647,7 +1648,7 @@
     <row r="60">
       <c r="A60" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>f91e3b67-dc1a-448b-b69a-f6cf708fc839</v>
+        <v>85f0b61e-0ab3-4e0f-a3ef-060ce867161f</v>
       </c>
       <c r="B60">
         <v>27</v>
@@ -1668,7 +1669,7 @@
     <row r="61">
       <c r="A61" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>b1e22646-acd3-4f2c-b655-0c647a0b88f2</v>
+        <v>575c63cd-6cd4-43a1-b29d-d6b8960530e0</v>
       </c>
       <c r="B61">
         <v>27</v>
@@ -1689,7 +1690,7 @@
     <row r="62">
       <c r="A62" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>7537ced0-edd5-41b1-9372-2001d3458cd8</v>
+        <v>fb90b861-646a-4dd4-b647-a4cc017bc8aa</v>
       </c>
       <c r="B62">
         <v>28</v>
@@ -1710,7 +1711,7 @@
     <row r="63">
       <c r="A63" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>27ffff20-c05d-4bd9-adba-beb4139629a5</v>
+        <v>cbb60ea8-e319-4ef2-a23f-3d0a72e8a76d</v>
       </c>
       <c r="B63">
         <v>28</v>
@@ -1731,7 +1732,7 @@
     <row r="64">
       <c r="A64" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>3a2594b0-4677-4970-8022-74fc6b86aa9b</v>
+        <v>6567b1a7-ce1d-4054-873f-8febe4c8c136</v>
       </c>
       <c r="B64">
         <v>28</v>
@@ -1752,7 +1753,7 @@
     <row r="65">
       <c r="A65" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>2714de7f-867b-4a2d-bd49-32627164a79f</v>
+        <v>f0d6988c-f4a0-484b-b07f-71769fed5a9d</v>
       </c>
       <c r="B65">
         <v>28</v>
@@ -1773,7 +1774,7 @@
     <row r="66">
       <c r="A66" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>ce6c5dd8-b42c-47cb-93b4-df482a6f7f63</v>
+        <v>8b0ee883-6437-4353-b875-c394855058aa</v>
       </c>
       <c r="B66">
         <v>28</v>
@@ -1794,7 +1795,7 @@
     <row r="67">
       <c r="A67" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>a7887bd5-fea2-4053-9659-2996e7912f5f</v>
+        <v>f4140d64-523c-47a1-a31d-a55a487858ad</v>
       </c>
       <c r="B67">
         <v>28</v>
@@ -1815,7 +1816,7 @@
     <row r="68">
       <c r="A68" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>9fa0f6e5-eab4-49d8-903c-5a5d5e9b9fe6</v>
+        <v>e1e7a71f-4e39-419e-a77b-86d1a1e534e9</v>
       </c>
       <c r="B68">
         <v>28</v>
@@ -1836,7 +1837,7 @@
     <row r="69">
       <c r="A69" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>dab81130-0d84-4c31-92fa-61fe23ce815e</v>
+        <v>7ec6e054-a925-4b6d-868e-7edae103be2d</v>
       </c>
       <c r="B69">
         <v>28</v>
@@ -1857,7 +1858,7 @@
     <row r="70">
       <c r="A70" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>6c50b6c3-429d-4ea8-b0b7-577239200ebd</v>
+        <v>baac48ef-2267-4932-b04b-f8b85153bcf8</v>
       </c>
       <c r="B70">
         <v>28</v>
@@ -1878,7 +1879,7 @@
     <row r="71">
       <c r="A71" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>67ea425c-c978-46ff-b6ca-1fb5e78fc9f4</v>
+        <v>b3a79e76-a9ed-453a-affb-d11df6cb336e</v>
       </c>
       <c r="B71">
         <v>28</v>
@@ -1899,7 +1900,7 @@
     <row r="72">
       <c r="A72" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>fef2d6ba-22e3-4581-90b9-007f05b11c58</v>
+        <v>74975ac4-5195-4360-a509-f8abcd51c71d</v>
       </c>
       <c r="B72">
         <v>28</v>
@@ -1920,7 +1921,7 @@
     <row r="73">
       <c r="A73" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>8bbb0350-9bdb-49c0-87b5-9f1a4cc59ba4</v>
+        <v>8af0b848-c984-475f-af71-c73c9cf77b8b</v>
       </c>
       <c r="B73">
         <v>28</v>
@@ -1935,7 +1936,7 @@
     <row r="74">
       <c r="A74" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>b5f240ec-c5f0-413b-a02f-f1938c8ba8c8</v>
+        <v>b631dad9-b82c-47b5-b18e-a505891c7e86</v>
       </c>
       <c r="B74">
         <v>28</v>
@@ -1956,7 +1957,7 @@
     <row r="75">
       <c r="A75" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>b3b854ea-ae11-4e9f-a8fd-64994ac9dbbf</v>
+        <v>d7be64cc-0840-44db-9e09-27cf029efff2</v>
       </c>
       <c r="B75">
         <v>28</v>
@@ -1977,7 +1978,7 @@
     <row r="76">
       <c r="A76" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>28a056a6-afc8-4573-b795-129679e826fd</v>
+        <v>7c51af5a-2c08-40d7-9b59-971579e83fcd</v>
       </c>
       <c r="B76">
         <v>28</v>
@@ -1998,7 +1999,7 @@
     <row r="77">
       <c r="A77" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>a83f5781-c10b-4059-b678-f5017c3bfd91</v>
+        <v>f9d5999c-a156-41b9-800c-a7802ca98ea5</v>
       </c>
       <c r="B77">
         <v>28</v>
@@ -2019,7 +2020,7 @@
     <row r="78">
       <c r="A78" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>c851cfa6-da17-4115-bfba-e73ad76bad11</v>
+        <v>c8a1854a-ae84-41f5-a5d4-a1d0aa910d2c</v>
       </c>
       <c r="B78">
         <v>28</v>
@@ -2037,7 +2038,7 @@
     <row r="79">
       <c r="A79" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>7df8e698-06b4-4ed7-be9e-55f134bd1398</v>
+        <v>e3abb703-a37a-4308-96b6-b20859e2a6aa</v>
       </c>
       <c r="B79">
         <v>28</v>
@@ -2058,7 +2059,7 @@
     <row r="80">
       <c r="A80" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>158fe7a4-efef-4a53-b28c-89efeb6d300a</v>
+        <v>dfa9fc23-b0d1-4e81-865b-13d53416db11</v>
       </c>
       <c r="B80">
         <v>28</v>
@@ -2079,7 +2080,7 @@
     <row r="81">
       <c r="A81" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>98d438f9-e8b5-470e-9413-e9da43789b60</v>
+        <v>e9792faa-117f-408c-8aa4-bb141f602092</v>
       </c>
       <c r="B81">
         <v>28</v>
@@ -2100,7 +2101,7 @@
     <row r="82">
       <c r="A82" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>0ef71b05-a9f0-4c83-96d8-ef620421699f</v>
+        <v>9c9784a3-bc25-46fe-99fb-cb54224c9f86</v>
       </c>
       <c r="B82">
         <v>28</v>
@@ -2121,7 +2122,7 @@
     <row r="83">
       <c r="A83" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>bf37e4d2-1ace-45b0-92fa-c09b9579ba53</v>
+        <v>6842266a-c5ab-4119-a535-872c36da4757</v>
       </c>
       <c r="B83">
         <v>28</v>
@@ -2142,7 +2143,7 @@
     <row r="84">
       <c r="A84" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>282ee767-dd0b-456f-8e48-a59f2ec0ada4</v>
+        <v>d2a15da2-9ea7-48ec-ac1c-31958d2a9169</v>
       </c>
       <c r="B84">
         <v>28</v>
@@ -2163,7 +2164,7 @@
     <row r="85">
       <c r="A85" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>4b5365bb-45cc-471f-93f9-fdd6365503db</v>
+        <v>2c2dbe0d-943c-43ab-ba45-c532ffa886ae</v>
       </c>
       <c r="B85">
         <v>28</v>
@@ -2184,7 +2185,7 @@
     <row r="86">
       <c r="A86" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>d170c824-40b3-4d23-85bc-dac94d473ef6</v>
+        <v>41542f1d-741d-4a47-8a81-a1d09a9a966b</v>
       </c>
       <c r="B86">
         <v>28</v>
@@ -2205,7 +2206,7 @@
     <row r="87">
       <c r="A87" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>6bc2356b-925a-4b5e-a5f8-d18885512916</v>
+        <v>6e66b3ef-3ec5-4743-9860-7418a93dce27</v>
       </c>
       <c r="B87">
         <v>28</v>
@@ -2226,7 +2227,7 @@
     <row r="88">
       <c r="A88" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>deaadcab-99d2-4f62-9991-d8ea1255331a</v>
+        <v>1188e571-d666-4bf9-81ee-46334eabd388</v>
       </c>
       <c r="B88">
         <v>28</v>
@@ -2247,7 +2248,7 @@
     <row r="89">
       <c r="A89" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>aaeea09b-0891-4adf-a60a-f1b9819850d7</v>
+        <v>c8f79e81-dc8c-4f22-805d-0f1945deadcd</v>
       </c>
       <c r="B89">
         <v>28</v>
@@ -2268,7 +2269,7 @@
     <row r="90">
       <c r="A90" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>a72056af-f2b4-47fa-99d4-23d65d468706</v>
+        <v>df9891a5-2a7a-4754-91d7-ff7fffc40477</v>
       </c>
       <c r="B90">
         <v>28</v>
@@ -2289,7 +2290,7 @@
     <row r="91">
       <c r="A91" t="str">
         <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>649d019d-0852-4490-94ad-2d14e1e266f1</v>
+        <v>f1186873-4969-486d-bd89-9a0695b5388f</v>
       </c>
       <c r="B91">
         <v>28</v>
@@ -2305,12 +2306,642 @@
       </c>
       <c r="F91" t="str">
         <v>prefer something to something</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
+        <v>a2b1778e-1bde-4f07-8efc-386e9629f6dc</v>
+      </c>
+      <c r="B92">
+        <v>29</v>
+      </c>
+      <c r="C92" t="str">
+        <v>Câu cá</v>
+      </c>
+      <c r="D92" t="str">
+        <v>Fishing</v>
+      </c>
+      <c r="E92" t="str">
+        <v>My dad and I go fishing every day</v>
+      </c>
+      <c r="F92" t="str">
+        <v>Go fishing</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
+        <v>cf990805-78a4-450b-9080-8d1407d56334</v>
+      </c>
+      <c r="B93">
+        <v>29</v>
+      </c>
+      <c r="C93" t="str">
+        <v>Vận động viên</v>
+      </c>
+      <c r="D93" t="str">
+        <v>Athlete</v>
+      </c>
+      <c r="E93" t="str">
+        <v>Olumpic athletes train hard to complete</v>
+      </c>
+      <c r="F93" t="str">
+        <v>An Olympic athlete</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
+        <v>b6a3f27f-b5f1-4f59-a13a-5a3b1d198402</v>
+      </c>
+      <c r="B94">
+        <v>29</v>
+      </c>
+      <c r="C94" t="str">
+        <v>Môn đấu vật</v>
+      </c>
+      <c r="D94" t="str">
+        <v>Wrestling</v>
+      </c>
+      <c r="E94" t="str">
+        <v>Wrestling matches are popular in the US</v>
+      </c>
+      <c r="F94" t="str">
+        <v>a wrestling match</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
+        <v>f903164f-992c-4ff7-bdd0-9796bb39e5eb</v>
+      </c>
+      <c r="B95">
+        <v>29</v>
+      </c>
+      <c r="C95" t="str">
+        <v>Chuyên nghiệp</v>
+      </c>
+      <c r="D95" t="str">
+        <v>Professional</v>
+      </c>
+      <c r="E95" t="str">
+        <v>He was a professional soccer player</v>
+      </c>
+      <c r="F95" t="str">
+        <v>a professional soccer player</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
+        <v>f38ea113-6eed-41a7-864c-9fd8eb997c46</v>
+      </c>
+      <c r="B96">
+        <v>29</v>
+      </c>
+      <c r="C96" t="str">
+        <v>Hàng năm</v>
+      </c>
+      <c r="D96" t="str">
+        <v>Annual</v>
+      </c>
+      <c r="E96" t="str">
+        <v>The company has annual meetings for us</v>
+      </c>
+      <c r="F96" t="str">
+        <v>an annual meeting</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
+        <v>cec821bf-15bc-4c73-85e6-328b2b004fd1</v>
+      </c>
+      <c r="B97">
+        <v>29</v>
+      </c>
+      <c r="C97" t="str">
+        <v>Giải đấu</v>
+      </c>
+      <c r="D97" t="str">
+        <v>Tournament</v>
+      </c>
+      <c r="E97" t="str">
+        <v>What an exciting soccer tournament!</v>
+      </c>
+      <c r="F97" t="str">
+        <v>A soccer tournament</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
+        <v>ddae4d17-2487-4c91-b15b-62ec664e7e93</v>
+      </c>
+      <c r="B98">
+        <v>29</v>
+      </c>
+      <c r="C98" t="str">
+        <v>Huấn luyện viên</v>
+      </c>
+      <c r="D98" t="str">
+        <v>Coach</v>
+      </c>
+      <c r="E98" t="str">
+        <v>The team coach trains us hard</v>
+      </c>
+      <c r="F98" t="str">
+        <v>the team coach</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
+        <v>9c573cff-4ddd-4aec-83ca-2f88d870993e</v>
+      </c>
+      <c r="B99">
+        <v>29</v>
+      </c>
+      <c r="C99" t="str">
+        <v>Trận đấu</v>
+      </c>
+      <c r="D99" t="str">
+        <v>Match</v>
+      </c>
+      <c r="E99" t="str">
+        <v>There is a soccer match tonight</v>
+      </c>
+      <c r="F99" t="str">
+        <v>a soccer match</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
+        <v>dd72f5c5-8548-436c-bd33-79ddb20c7437</v>
+      </c>
+      <c r="B100">
+        <v>29</v>
+      </c>
+      <c r="C100" t="str">
+        <v>Đánh bại</v>
+      </c>
+      <c r="D100" t="str">
+        <v>Beat</v>
+      </c>
+      <c r="E100" t="str">
+        <v>They beat their opponents in the first round</v>
+      </c>
+      <c r="F100" t="str">
+        <v>beat something or somebody</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
+        <v>b1892029-56ff-4cbe-984a-c7dab29a9977</v>
+      </c>
+      <c r="B101">
+        <v>29</v>
+      </c>
+      <c r="C101" t="str">
+        <v>Đối thủ</v>
+      </c>
+      <c r="D101" t="str">
+        <v>opponent</v>
+      </c>
+      <c r="E101" t="str">
+        <v>She is my opponent in chess</v>
+      </c>
+      <c r="F101" t="str">
+        <v>one's oppponent in something</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
+        <v>1e190ed8-33a8-4e71-b7b2-fa84c7c02941</v>
+      </c>
+      <c r="B102">
+        <v>29</v>
+      </c>
+      <c r="C102" t="str">
+        <v>Môn thể thao</v>
+      </c>
+      <c r="D102" t="str">
+        <v>Athletics</v>
+      </c>
+      <c r="E102" t="str">
+        <v>Football, soccer, and baseball are types of atheletics</v>
+      </c>
+      <c r="F102" t="str">
+        <v>Types of athletics</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
+        <v>d38353fc-5f4f-472c-ac04-668987f0a4a7</v>
+      </c>
+      <c r="B103">
+        <v>29</v>
+      </c>
+      <c r="C103" t="str">
+        <v>Bóng rỗ</v>
+      </c>
+      <c r="D103" t="str">
+        <v>Basketball</v>
+      </c>
+      <c r="E103" t="str">
+        <v>I am the captain of the basketball team</v>
+      </c>
+      <c r="F103" t="str">
+        <v>a basketball team</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
+        <v>ef65ce51-588d-4574-aabf-54d79f5fccc8</v>
+      </c>
+      <c r="B104">
+        <v>29</v>
+      </c>
+      <c r="C104" t="str">
+        <v>Người chơi</v>
+      </c>
+      <c r="D104" t="str">
+        <v>Player</v>
+      </c>
+      <c r="E104" t="str">
+        <v>he is the best soccer player here</v>
+      </c>
+      <c r="F104" t="str">
+        <v>a soccer player</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
+        <v>b7c13a10-8f6b-4bc0-adf4-4efd66aa87fc</v>
+      </c>
+      <c r="B105">
+        <v>29</v>
+      </c>
+      <c r="C105" t="str">
+        <v xml:space="preserve">Liên đoàn </v>
+      </c>
+      <c r="D105" t="str">
+        <v>League</v>
+      </c>
+      <c r="E105" t="str">
+        <v>My sone plays for a soccer league</v>
+      </c>
+      <c r="F105" t="str">
+        <v>A soccer league</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
+        <v>cbf03296-0921-4040-90d4-199fd9d5c23b</v>
+      </c>
+      <c r="B106">
+        <v>29</v>
+      </c>
+      <c r="C106" t="str">
+        <v>Giải vô địch</v>
+      </c>
+      <c r="D106" t="str">
+        <v>Championship</v>
+      </c>
+      <c r="E106" t="str">
+        <v>Are you ready for the basketball championship</v>
+      </c>
+      <c r="F106" t="str">
+        <v>a basketball championship</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
+        <v>5029497b-8c66-41b8-8d0a-4bfe381c4286</v>
+      </c>
+      <c r="B107">
+        <v>29</v>
+      </c>
+      <c r="C107" t="str">
+        <v>Đội trưởng</v>
+      </c>
+      <c r="D107" t="str">
+        <v>Captain</v>
+      </c>
+      <c r="E107" t="str">
+        <v>we vote for a team camtain</v>
+      </c>
+      <c r="F107" t="str">
+        <v>team captain</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
+        <v>c2fb9123-f320-4cc1-a7fa-d38da99a5fc1</v>
+      </c>
+      <c r="B108">
+        <v>29</v>
+      </c>
+      <c r="C108" t="str">
+        <v>Ghi điểm</v>
+      </c>
+      <c r="D108" t="str">
+        <v>score</v>
+      </c>
+      <c r="E108" t="str">
+        <v>He scored a goal for the team</v>
+      </c>
+      <c r="F108" t="str">
+        <v>score a goal</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
+        <v>a52a7a35-9823-4ea9-87c9-6dec37ecf622</v>
+      </c>
+      <c r="B109">
+        <v>29</v>
+      </c>
+      <c r="C109" t="str">
+        <v>Danh hiệu</v>
+      </c>
+      <c r="D109" t="str">
+        <v>Title</v>
+      </c>
+      <c r="E109" t="str">
+        <v>The team won the title with a goal in the last minute</v>
+      </c>
+      <c r="F109" t="str">
+        <v>win the title</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
+        <v>916d379b-cba3-40d9-a67f-a71d48b74a2f</v>
+      </c>
+      <c r="B110">
+        <v>29</v>
+      </c>
+      <c r="C110" t="str">
+        <v>Lưới</v>
+      </c>
+      <c r="D110" t="str">
+        <v>net</v>
+      </c>
+      <c r="E110" t="str">
+        <v>The fishing net has holes in it</v>
+      </c>
+      <c r="F110" t="str">
+        <v>a fishing net</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
+        <v>463b16e3-432e-446b-bea0-a0f2b3da5f06</v>
+      </c>
+      <c r="B111">
+        <v>29</v>
+      </c>
+      <c r="C111" t="str">
+        <v>Anh hùng</v>
+      </c>
+      <c r="D111" t="str">
+        <v>hero</v>
+      </c>
+      <c r="E111" t="str">
+        <v>The fireman became a local hero</v>
+      </c>
+      <c r="F111" t="str">
+        <v>a local hero</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
+        <v>39de71b0-d5b5-48c9-8f4d-95b2e2f50af6</v>
+      </c>
+      <c r="B112">
+        <v>29</v>
+      </c>
+      <c r="C112" t="str">
+        <v>Môn đạp xe</v>
+      </c>
+      <c r="D112" t="str">
+        <v>Cycling</v>
+      </c>
+      <c r="E112" t="str">
+        <v>She went cycling down the hill</v>
+      </c>
+      <c r="F112" t="str">
+        <v>go cycling</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
+        <v>aae25fe9-c463-44f6-8403-64b3ab4901df</v>
+      </c>
+      <c r="B113">
+        <v>29</v>
+      </c>
+      <c r="C113" t="str">
+        <v>Sân vận động</v>
+      </c>
+      <c r="D113" t="str">
+        <v>Stadium</v>
+      </c>
+      <c r="E113" t="str">
+        <v>Where is the biggest sports stadium in hanoi</v>
+      </c>
+      <c r="F113" t="str">
+        <v>A sport stadium</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
+        <v>a8bd58e5-0590-4ebb-9b28-1b10efe4f691</v>
+      </c>
+      <c r="B114">
+        <v>29</v>
+      </c>
+      <c r="C114" t="str">
+        <v>Người thắng cuộc</v>
+      </c>
+      <c r="D114" t="str">
+        <v>Winner</v>
+      </c>
+      <c r="E114" t="str">
+        <v>The actor is an award winner</v>
+      </c>
+      <c r="F114" t="str">
+        <v>an award winer</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
+        <v>b553acc6-a0c9-417a-b2d9-d77e5fd33909</v>
+      </c>
+      <c r="B115">
+        <v>29</v>
+      </c>
+      <c r="C115" t="str">
+        <v>Môn đánh golf</v>
+      </c>
+      <c r="D115" t="str">
+        <v>Golf</v>
+      </c>
+      <c r="E115" t="str">
+        <v>Businessmen love to play golf</v>
+      </c>
+      <c r="F115" t="str">
+        <v>play golf</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
+        <v>c9b2d631-4c95-4cbf-b5c6-51760a9800c8</v>
+      </c>
+      <c r="B116">
+        <v>29</v>
+      </c>
+      <c r="C116" t="str">
+        <v>Đánh</v>
+      </c>
+      <c r="D116" t="str">
+        <v>Strike</v>
+      </c>
+      <c r="E116" t="str">
+        <v>He strikes the golf ball perfectly</v>
+      </c>
+      <c r="F116" t="str">
+        <v>strike the ball</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
+        <v>6c846374-0b04-4261-a1fc-abb952bde9d0</v>
+      </c>
+      <c r="B117">
+        <v>29</v>
+      </c>
+      <c r="C117" t="str">
+        <v>Đích, mục tiêu</v>
+      </c>
+      <c r="D117" t="str">
+        <v>target</v>
+      </c>
+      <c r="E117" t="str">
+        <v>He shot the arrow and hit the target</v>
+      </c>
+      <c r="F117" t="str">
+        <v>hit the target</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
+        <v>7c39a7bf-0223-4d67-bf19-bc70d6260a4c</v>
+      </c>
+      <c r="B118">
+        <v>29</v>
+      </c>
+      <c r="C118" t="str">
+        <v>Tối đa</v>
+      </c>
+      <c r="D118" t="str">
+        <v>maximum</v>
+      </c>
+      <c r="E118" t="str">
+        <v>The maximum amount for storage is 256GB</v>
+      </c>
+      <c r="F118" t="str">
+        <v>the maximum amount</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
+        <v>727a487b-ea11-4357-8b3a-cfd78069fedb</v>
+      </c>
+      <c r="B119">
+        <v>29</v>
+      </c>
+      <c r="C119" t="str">
+        <v>Lướt</v>
+      </c>
+      <c r="D119" t="str">
+        <v>Surf</v>
+      </c>
+      <c r="E119" t="str">
+        <v>In hawaii, you must surf the waves</v>
+      </c>
+      <c r="F119" t="str">
+        <v>surf the wave</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
+        <v>86cb971a-bdd1-45d0-9169-17ef0fb2990e</v>
+      </c>
+      <c r="B120">
+        <v>29</v>
+      </c>
+      <c r="C120" t="str">
+        <v>Không may</v>
+      </c>
+      <c r="D120" t="str">
+        <v>unfortunately</v>
+      </c>
+      <c r="E120" t="str">
+        <v>Unfortunately, I won't be able to attend the meeting</v>
+      </c>
+      <c r="F120" t="str">
+        <v>unfortunately, I won't</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <f>LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
+        <v>2805d4a5-2450-4193-92b7-19d2357bd4d9</v>
+      </c>
+      <c r="B121">
+        <v>29</v>
+      </c>
+      <c r="C121" t="str">
+        <v>Trân trọng, đánh giá cao</v>
+      </c>
+      <c r="D121" t="str">
+        <v>Appreciate</v>
+      </c>
+      <c r="E121" t="str">
+        <v>I appreciate the help you gave me</v>
+      </c>
+      <c r="F121" t="str">
+        <v>appreciate somebody or something</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G91"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G121"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4143,8 +4774,2443 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:F91"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F121"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>unitId</v>
+      </c>
+      <c r="C1" t="str">
+        <v>word</v>
+      </c>
+      <c r="D1" t="str">
+        <v>answers</v>
+      </c>
+      <c r="E1" t="str">
+        <v>sentences</v>
+      </c>
+      <c r="F1" t="str">
+        <v>phrases</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>2855e402-1dfa-4dc2-8840-cebd848fa19c</v>
+      </c>
+      <c r="B2">
+        <v>26</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Chương trình</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Show</v>
+      </c>
+      <c r="E2" t="str">
+        <v>I watch TV shows on my television</v>
+      </c>
+      <c r="F2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>d90b062b-c464-4c5c-bf4d-2d250fee42b4</v>
+      </c>
+      <c r="B3">
+        <v>26</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Cảnh</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Scene</v>
+      </c>
+      <c r="E3" t="str">
+        <v>The crew needs to film a scene</v>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>d670b0d5-a0f9-4e3d-be7e-7539b709f4bf</v>
+      </c>
+      <c r="B4">
+        <v>26</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Nam diễn viên</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Actor</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Who is the lead actor in titanic</v>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>0b08724a-3034-4e5c-9eed-a809189bff3a</v>
+      </c>
+      <c r="B5">
+        <v>26</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Thuộc âm nhạc</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Musical</v>
+      </c>
+      <c r="E5" t="str">
+        <v xml:space="preserve">The audience loved the musical performance </v>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>4152b846-3f6e-4b76-b48c-320c8d9bf98d</v>
+      </c>
+      <c r="B6">
+        <v>26</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Nhạc phim</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Soundtrack</v>
+      </c>
+      <c r="E6" t="str">
+        <v>The soundtrack of this movie is great</v>
+      </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>f9c612cb-22a0-4f9d-a949-c179e45f0655</v>
+      </c>
+      <c r="B7">
+        <v>26</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Thuộc lịch sử</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Historical</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Albert Einstein is an important historical figure</v>
+      </c>
+      <c r="F7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>53af5326-467e-4e15-a189-ec4723760626</v>
+      </c>
+      <c r="B8">
+        <v>26</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Bí ẩn</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Mystery</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Nobody can solve the mystery of the Bermuda triangle</v>
+      </c>
+      <c r="F8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>faab9a2e-d127-4a38-abf1-879e33beef60</v>
+      </c>
+      <c r="B9">
+        <v>26</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Tội ác</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Crime</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Stealing money is a serious crime</v>
+      </c>
+      <c r="F9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>da3b1816-173a-4493-ad15-7beb97e72ba5</v>
+      </c>
+      <c r="B10">
+        <v>26</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Đoạn kết</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Ending</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Fairy tales have happy endings</v>
+      </c>
+      <c r="F10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>e98b5079-2952-47db-afac-31e8e8b2ded1</v>
+      </c>
+      <c r="B11">
+        <v>26</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Tiết lộ</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Reveal</v>
+      </c>
+      <c r="E11" t="str">
+        <v>The magician never reveals the truth</v>
+      </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>6834a067-2935-4767-b07e-7e28c2af50bc</v>
+      </c>
+      <c r="B12">
+        <v>26</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Phim giật gân</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Thriller</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Thriller movies are scary</v>
+      </c>
+      <c r="F12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>eec73fe0-6f13-4d23-b16e-304b453fd1eb</v>
+      </c>
+      <c r="B13">
+        <v>26</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Xưởng, không gian sáng tạo</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Studio</v>
+      </c>
+      <c r="E13" t="str">
+        <v>She teaches us at her dance studio</v>
+      </c>
+      <c r="F13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>d82e9755-cb4a-4e76-b2d1-c22e9bbd3e4a</v>
+      </c>
+      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Bối cảnh, khung cảnh</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Setting</v>
+      </c>
+      <c r="E14" t="str">
+        <v xml:space="preserve">What a beautiful setting this city is </v>
+      </c>
+      <c r="F14" t="str">
+        <v>A beautiful setting</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>80af4f65-e319-4276-abc7-c4b93cfb684f</v>
+      </c>
+      <c r="B15">
+        <v>26</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Điều viễn tưởng</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Fiction</v>
+      </c>
+      <c r="E15" t="str">
+        <v>She wrote fiction on aliens and love</v>
+      </c>
+      <c r="F15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>66eb9a3b-e5cf-4572-af26-c0ced46a6a41</v>
+      </c>
+      <c r="B16">
+        <v>26</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Sự việc kịch tính</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Drama</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Teens like to watch drama series</v>
+      </c>
+      <c r="F16" t="str">
+        <v>A drama series</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>6d66f4e3-1575-453b-9c56-b2e35ae6f572</v>
+      </c>
+      <c r="B17">
+        <v>26</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Đạo diễn</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Director</v>
+      </c>
+      <c r="E17" t="str">
+        <v>The young film director deserves our recognition</v>
+      </c>
+      <c r="F17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>c61cf54e-76e9-4c4f-a546-be16ad5e5bcf</v>
+      </c>
+      <c r="B18">
+        <v>26</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Ra mắt</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Come out</v>
+      </c>
+      <c r="E18" t="str">
+        <v>When is her album coming out?</v>
+      </c>
+      <c r="F18" t="str">
+        <v>Something new comes out</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>75d97f77-6607-497c-a34c-c08e4276bc76</v>
+      </c>
+      <c r="B19">
+        <v>26</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Nhân vật</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Character</v>
+      </c>
+      <c r="E19" t="str">
+        <v>The main character in "Batman" is mysterious</v>
+      </c>
+      <c r="F19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>e2745e17-f355-4999-984f-246339ace9e7</v>
+      </c>
+      <c r="B20">
+        <v>26</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Nữ diễn viên</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Actress</v>
+      </c>
+      <c r="E20" t="str">
+        <v>She was a good actress back then</v>
+      </c>
+      <c r="F20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>d883b560-e598-4399-b67a-fbd255f88070</v>
+      </c>
+      <c r="B21">
+        <v>26</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Kỳ lạ, kỳ quặc</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Odd</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Hanging out with odd people is fun</v>
+      </c>
+      <c r="F21" t="str">
+        <v>An odd person</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>861042fb-7382-4b86-b5dc-6f8a0f267c2b</v>
+      </c>
+      <c r="B22">
+        <v>26</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Màn hình</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Screen</v>
+      </c>
+      <c r="E22" t="str">
+        <v>The laptop has a big computer screen</v>
+      </c>
+      <c r="F22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>2c327c19-447e-45c6-8278-14aa65293f96</v>
+      </c>
+      <c r="B23">
+        <v>26</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Hành động</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Action</v>
+      </c>
+      <c r="E23" t="str">
+        <v>My favorite action movie is Fast and Furious</v>
+      </c>
+      <c r="F23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>1c7e5e1d-737d-4a0f-9124-6e6415aaab50</v>
+      </c>
+      <c r="B24">
+        <v>26</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Chuyến phiêu lưu</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Adventure</v>
+      </c>
+      <c r="E24" t="str">
+        <v>I seek an adventure of a lifetime</v>
+      </c>
+      <c r="F24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>046efda8-e3b4-4698-a754-cacebf1c90e0</v>
+      </c>
+      <c r="B25">
+        <v>26</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Phim tài liệu</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Documentary</v>
+      </c>
+      <c r="E25" t="str">
+        <v>I watched that documentary film on Netflix</v>
+      </c>
+      <c r="F25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>7040324e-e5a2-44f4-9535-b2cc9cbdb924</v>
+      </c>
+      <c r="B26">
+        <v>26</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Góc</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Angle</v>
+      </c>
+      <c r="E26" t="str">
+        <v>Tilt your head to a 45 angle</v>
+      </c>
+      <c r="F26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>988a2983-945c-4cf0-ba48-152e92f249c4</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Thấy khó hiểu</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Confused</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Are you confused about the instructions?</v>
+      </c>
+      <c r="F27" t="str">
+        <v>Confused about something</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>928cac87-df35-4693-90eb-0b7ac9ba4f7c</v>
+      </c>
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Cuộc hội thoại, lời thoại</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Dialogue</v>
+      </c>
+      <c r="E28" t="str">
+        <v>The dialogue with my therapist helped me</v>
+      </c>
+      <c r="F28" t="str">
+        <v>Dialogue with somebody</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>470241db-5ef4-4605-923a-0f067329f20f</v>
+      </c>
+      <c r="B29">
+        <v>26</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Tác phẩm thành công</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Hit</v>
+      </c>
+      <c r="E29" t="str">
+        <v>His book became a big hit</v>
+      </c>
+      <c r="F29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>972036e4-0ba9-4393-b01e-adb398bcbf0c</v>
+      </c>
+      <c r="B30">
+        <v>26</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Tuyệt vời</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Wonderful</v>
+      </c>
+      <c r="E30" t="str">
+        <v>I am grateful for the wonderful opportunity</v>
+      </c>
+      <c r="F30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>fefbe098-b8f8-40ef-87d2-ea757ae401e2</v>
+      </c>
+      <c r="B31">
+        <v>26</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Tài giỏi, tuyệt vời</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Brilliant</v>
+      </c>
+      <c r="E31" t="str">
+        <v>Thank you for the brilliant idea</v>
+      </c>
+      <c r="F31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>7ced7a2e-75de-4804-ac90-20e3e958d965</v>
+      </c>
+      <c r="B32">
+        <v>27</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Khiêm tốn</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Modest</v>
+      </c>
+      <c r="E32" t="str">
+        <v>You are too modest! You are gifted.</v>
+      </c>
+      <c r="F32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>4b5d71f1-69c8-4d40-917c-56ed60fa341a</v>
+      </c>
+      <c r="B33">
+        <v>27</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Có năng khiếu</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Gifted</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Do you consider yourself a gifted musican?</v>
+      </c>
+      <c r="F33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>f249b615-9ce7-490b-aeb1-e7fb50956f75</v>
+      </c>
+      <c r="B34">
+        <v>27</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Ngành giải trí</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Showbiz</v>
+      </c>
+      <c r="E34" t="str">
+        <v>People in showbiz are movie stars</v>
+      </c>
+      <c r="F34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>33645007-d97b-4e05-9fbb-18ce6453df08</v>
+      </c>
+      <c r="B35">
+        <v>27</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Kênh</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Channel</v>
+      </c>
+      <c r="E35" t="str">
+        <v>The show is live on the VTV3 channel</v>
+      </c>
+      <c r="F35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>c1f5fd98-6823-4cd2-8332-437b40d1cdbb</v>
+      </c>
+      <c r="B36">
+        <v>27</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Truyền thông</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Media</v>
+      </c>
+      <c r="E36" t="str">
+        <v>My mom posts so many pictures on social media</v>
+      </c>
+      <c r="F36" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>9e32b63e-6f9b-484a-a3cf-03b2554b0c81</v>
+      </c>
+      <c r="B37">
+        <v>27</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Nổi tiếng</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Well-known</v>
+      </c>
+      <c r="E37" t="str">
+        <v>Is he a well-known actor?</v>
+      </c>
+      <c r="F37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>3af0b7f7-7574-4b56-bf9b-afbdc9d94496</v>
+      </c>
+      <c r="B38">
+        <v>27</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Nhận ra</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Recognize</v>
+      </c>
+      <c r="E38" t="str">
+        <v>Did you recognize me on stage?</v>
+      </c>
+      <c r="F38" t="str">
+        <v>Recognize somebody or something</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>cd2a5828-bdf8-445c-81a1-3926ae9be2da</v>
+      </c>
+      <c r="B39">
+        <v>27</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Người hâm mộ</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Fan</v>
+      </c>
+      <c r="E39" t="str">
+        <v>My girlfriend is a big soccer fan</v>
+      </c>
+      <c r="F39" t="str">
+        <v>A soccer fan</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>123fb41c-f345-498c-a994-9a9b27e98bf8</v>
+      </c>
+      <c r="B40">
+        <v>27</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Đăng ký</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Subscribe</v>
+      </c>
+      <c r="E40" t="str">
+        <v>Please subscribe to step up english youtube channel</v>
+      </c>
+      <c r="F40" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>87d2b191-c73b-403f-96bc-6f392d27e7b2</v>
+      </c>
+      <c r="B41">
+        <v>27</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Hét to</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Sceam</v>
+      </c>
+      <c r="E41" t="str">
+        <v>They screamed out loud for help</v>
+      </c>
+      <c r="F41" t="str">
+        <v>Scream out loud</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>5a4867f1-271f-4ee0-865d-7d7eb2b42d5d</v>
+      </c>
+      <c r="B42">
+        <v>27</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Buồn cười</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Funny</v>
+      </c>
+      <c r="E42" t="str">
+        <v>The funny story made me laugh hard</v>
+      </c>
+      <c r="F42" t="str">
+        <v>A funny story</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>3423a5df-5518-4d10-9006-6b46aef0c92f</v>
+      </c>
+      <c r="B43">
+        <v>27</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Hiện nay</v>
+      </c>
+      <c r="D43" t="str">
+        <v>Currently</v>
+      </c>
+      <c r="E43" t="str">
+        <v>I am currently working as a front-end developer</v>
+      </c>
+      <c r="F43" t="str">
+        <v>Currently working as something</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>dac664bf-4d84-4185-9955-6184e4705180</v>
+      </c>
+      <c r="B44">
+        <v>27</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Lan truyền nhanh</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Viral</v>
+      </c>
+      <c r="E44" t="str">
+        <v>The video went viral on Facebook</v>
+      </c>
+      <c r="F44" t="str">
+        <v>Go viral</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>8d87d414-5e8f-41e4-8024-820fa8e2834f</v>
+      </c>
+      <c r="B45">
+        <v>27</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Màn biểu diễn</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Performance</v>
+      </c>
+      <c r="E45" t="str">
+        <v>The opera singer delivered an outstanding performance</v>
+      </c>
+      <c r="F45" t="str">
+        <v>Deliver an outstanding performance</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>999e1a08-f844-4088-a0eb-d43b316c22f6</v>
+      </c>
+      <c r="B46">
+        <v>27</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Quá khứ</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Past</v>
+      </c>
+      <c r="E46" t="str">
+        <v>I used to live abroad in the past</v>
+      </c>
+      <c r="F46" t="str">
+        <v>In the past</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>f3268128-5bfc-4b77-b848-87fd19d76a2d</v>
+      </c>
+      <c r="B47">
+        <v>27</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Trở nên</v>
+      </c>
+      <c r="D47" t="str">
+        <v>Become</v>
+      </c>
+      <c r="E47" t="str">
+        <v>I want to become a person of influence</v>
+      </c>
+      <c r="F47" t="str">
+        <v>Become somebody or something</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>abf03747-d6bf-4469-9f81-fdf87f96dce3</v>
+      </c>
+      <c r="B48">
+        <v>27</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Toàn cầu</v>
+      </c>
+      <c r="D48" t="str">
+        <v>Global</v>
+      </c>
+      <c r="E48" t="str">
+        <v>The singer's talent made her go global</v>
+      </c>
+      <c r="F48" t="str">
+        <v>Go global</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>cba5a361-0281-4457-a39e-8fff93b461df</v>
+      </c>
+      <c r="B49">
+        <v>27</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Lên tiếng</v>
+      </c>
+      <c r="D49" t="str">
+        <v>Speak out</v>
+      </c>
+      <c r="E49" t="str">
+        <v>She bravely spoke out against her boss</v>
+      </c>
+      <c r="F49" t="str">
+        <v>Speak out against somebody or something</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>ba407704-b048-4ddc-b6ff-92559d5fe029</v>
+      </c>
+      <c r="B50">
+        <v>27</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Xứng đáng</v>
+      </c>
+      <c r="D50" t="str">
+        <v>Deserve</v>
+      </c>
+      <c r="E50" t="str">
+        <v>I deserve ice cream after work</v>
+      </c>
+      <c r="F50" t="str">
+        <v>Deserve something</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>a23819c9-7af3-4246-a061-633cfade115b</v>
+      </c>
+      <c r="B51">
+        <v>27</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Trực tiếp</v>
+      </c>
+      <c r="D51" t="str">
+        <v>Live</v>
+      </c>
+      <c r="E51" t="str">
+        <v>The band did a live performance</v>
+      </c>
+      <c r="F51" t="str">
+        <v>A live performance</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>bacb314f-3d07-4d2c-ad43-ee564b779903</v>
+      </c>
+      <c r="B52">
+        <v>27</v>
+      </c>
+      <c r="C52" t="str">
+        <v>Giải thưởng</v>
+      </c>
+      <c r="D52" t="str">
+        <v>Award</v>
+      </c>
+      <c r="E52" t="str">
+        <v>She received an award for her acting</v>
+      </c>
+      <c r="F52" t="str">
+        <v>Receive an award</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>a499a65c-f6a4-43bf-b3af-7414b2c94310</v>
+      </c>
+      <c r="B53">
+        <v>27</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Danh dự</v>
+      </c>
+      <c r="D53" t="str">
+        <v>Honor</v>
+      </c>
+      <c r="E53" t="str">
+        <v>Welcome, you are my guest of honor</v>
+      </c>
+      <c r="F53" t="str">
+        <v>The guest of honor</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>48d3d3eb-d568-4c77-8488-43c41b7afbf5</v>
+      </c>
+      <c r="B54">
+        <v>27</v>
+      </c>
+      <c r="C54" t="str">
+        <v>Việc thiện nguyện</v>
+      </c>
+      <c r="D54" t="str">
+        <v>Charity</v>
+      </c>
+      <c r="E54" t="str">
+        <v>We should do charity for the disadvantaged</v>
+      </c>
+      <c r="F54" t="str">
+        <v>Do charity for somebody</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>0aa13e64-c9da-42cf-98a6-ea7b261bfbc8</v>
+      </c>
+      <c r="B55">
+        <v>27</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Tình nguyện</v>
+      </c>
+      <c r="D55" t="str">
+        <v>Volunteer</v>
+      </c>
+      <c r="E55" t="str">
+        <v>She volunteered to clean the car</v>
+      </c>
+      <c r="F55" t="str">
+        <v>Volunteer to do something</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>200b047e-f499-4d66-99d8-fbca132dfb75</v>
+      </c>
+      <c r="B56">
+        <v>27</v>
+      </c>
+      <c r="C56" t="str">
+        <v>Vụ bê bối</v>
+      </c>
+      <c r="D56" t="str">
+        <v>Scandal</v>
+      </c>
+      <c r="E56" t="str">
+        <v>He created the scandal to attract attention</v>
+      </c>
+      <c r="F56" t="str">
+        <v>Create a scandal</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>3b253e28-0230-47de-a666-91be77248828</v>
+      </c>
+      <c r="B57">
+        <v>27</v>
+      </c>
+      <c r="C57" t="str">
+        <v>Tin đồn</v>
+      </c>
+      <c r="D57" t="str">
+        <v>Rumor</v>
+      </c>
+      <c r="E57" t="str">
+        <v>Rumor has it that you got the job!</v>
+      </c>
+      <c r="F57" t="str">
+        <v>Rumor has it that</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>4334038f-c1b7-49a5-98f1-62b1237f3ab0</v>
+      </c>
+      <c r="B58">
+        <v>27</v>
+      </c>
+      <c r="C58" t="str">
+        <v>Tiểu sử</v>
+      </c>
+      <c r="D58" t="str">
+        <v>Biography</v>
+      </c>
+      <c r="E58" t="str">
+        <v>They wrote a biography of her life</v>
+      </c>
+      <c r="F58" t="str">
+        <v>A biography of something</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>5d8f29ff-7d1d-4e1e-82e1-34512516151c</v>
+      </c>
+      <c r="B59">
+        <v>27</v>
+      </c>
+      <c r="C59" t="str">
+        <v>Ngưỡng mộ</v>
+      </c>
+      <c r="D59" t="str">
+        <v>Admire</v>
+      </c>
+      <c r="E59" t="str">
+        <v>I admire my student's passion</v>
+      </c>
+      <c r="F59" t="str">
+        <v>Admire somebody or something</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>85f0b61e-0ab3-4e0f-a3ef-060ce867161f</v>
+      </c>
+      <c r="B60">
+        <v>27</v>
+      </c>
+      <c r="C60" t="str">
+        <v>Ngưỡng mộ</v>
+      </c>
+      <c r="D60" t="str">
+        <v>Look up to</v>
+      </c>
+      <c r="E60" t="str">
+        <v>I look up to my father very much</v>
+      </c>
+      <c r="F60" t="str">
+        <v>Look up to somebody</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>575c63cd-6cd4-43a1-b29d-d6b8960530e0</v>
+      </c>
+      <c r="B61">
+        <v>27</v>
+      </c>
+      <c r="C61" t="str">
+        <v>Đáp ứng tiêu chuẩn</v>
+      </c>
+      <c r="D61" t="str">
+        <v>Live up to</v>
+      </c>
+      <c r="E61" t="str">
+        <v>He lived up to my parent's expectations</v>
+      </c>
+      <c r="F61" t="str">
+        <v>Live up to my parent's expectations</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>fb90b861-646a-4dd4-b647-a4cc017bc8aa</v>
+      </c>
+      <c r="B62">
+        <v>28</v>
+      </c>
+      <c r="C62" t="str">
+        <v>Buổi hòa nhạc</v>
+      </c>
+      <c r="D62" t="str">
+        <v>Concert</v>
+      </c>
+      <c r="E62" t="str">
+        <v>Let's go to a concert tonight!</v>
+      </c>
+      <c r="F62" t="str">
+        <v>Go to a concert</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>cbb60ea8-e319-4ef2-a23f-3d0a72e8a76d</v>
+      </c>
+      <c r="B63">
+        <v>28</v>
+      </c>
+      <c r="C63" t="str">
+        <v>Trò xếp hình, trò giải đố</v>
+      </c>
+      <c r="D63" t="str">
+        <v>Puzzle</v>
+      </c>
+      <c r="E63" t="str">
+        <v>Crassword puzzles are for everyone to play</v>
+      </c>
+      <c r="F63" t="str">
+        <v>A crossword puzzle</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>6567b1a7-ce1d-4054-873f-8febe4c8c136</v>
+      </c>
+      <c r="B64">
+        <v>28</v>
+      </c>
+      <c r="C64" t="str">
+        <v>Đoán</v>
+      </c>
+      <c r="D64" t="str">
+        <v>Guess</v>
+      </c>
+      <c r="E64" t="str">
+        <v>Can you guess my age</v>
+      </c>
+      <c r="F64" t="str">
+        <v>Guess something</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>f0d6988c-f4a0-484b-b07f-71769fed5a9d</v>
+      </c>
+      <c r="B65">
+        <v>28</v>
+      </c>
+      <c r="C65" t="str">
+        <v>Tin Tường</v>
+      </c>
+      <c r="D65" t="str">
+        <v>Keen</v>
+      </c>
+      <c r="E65" t="str">
+        <v>She has a keen eye for fashion</v>
+      </c>
+      <c r="F65" t="str">
+        <v>A keen eye for something</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>8b0ee883-6437-4353-b875-c394855058aa</v>
+      </c>
+      <c r="B66">
+        <v>28</v>
+      </c>
+      <c r="C66" t="str">
+        <v>Đan</v>
+      </c>
+      <c r="D66" t="str">
+        <v>Knit</v>
+      </c>
+      <c r="E66" t="str">
+        <v>Grandma loves to knit scarves</v>
+      </c>
+      <c r="F66" t="str">
+        <v>Knit something</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>f4140d64-523c-47a1-a31d-a55a487858ad</v>
+      </c>
+      <c r="B67">
+        <v>28</v>
+      </c>
+      <c r="C67" t="str">
+        <v>Tiểu thuyết</v>
+      </c>
+      <c r="D67" t="str">
+        <v>Novel</v>
+      </c>
+      <c r="E67" t="str">
+        <v>The author wrote two best-selling novels</v>
+      </c>
+      <c r="F67" t="str">
+        <v>A best-selling novel</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>e1e7a71f-4e39-419e-a77b-86d1a1e534e9</v>
+      </c>
+      <c r="B68">
+        <v>28</v>
+      </c>
+      <c r="C68" t="str">
+        <v>Bộ sưu tập</v>
+      </c>
+      <c r="D68" t="str">
+        <v>Collection</v>
+      </c>
+      <c r="E68" t="str">
+        <v>He has a collection of vinyl records</v>
+      </c>
+      <c r="F68" t="str">
+        <v>Collection of something</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>7ec6e054-a925-4b6d-868e-7edae103be2d</v>
+      </c>
+      <c r="B69">
+        <v>28</v>
+      </c>
+      <c r="C69" t="str">
+        <v>Chèo thuyền</v>
+      </c>
+      <c r="D69" t="str">
+        <v>Sail</v>
+      </c>
+      <c r="E69" t="str">
+        <v>Can we sail a boat tomorrow?</v>
+      </c>
+      <c r="F69" t="str">
+        <v>Sail a boat</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>baac48ef-2267-4932-b04b-f8b85153bcf8</v>
+      </c>
+      <c r="B70">
+        <v>28</v>
+      </c>
+      <c r="C70" t="str">
+        <v>Có hứng thú</v>
+      </c>
+      <c r="D70" t="str">
+        <v>Interested</v>
+      </c>
+      <c r="E70" t="str">
+        <v>Are you interested in the arts?</v>
+      </c>
+      <c r="F70" t="str">
+        <v>Interested in something or somebody</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>b3a79e76-a9ed-453a-affb-d11df6cb336e</v>
+      </c>
+      <c r="B71">
+        <v>28</v>
+      </c>
+      <c r="C71" t="str">
+        <v>Nhiếp ảnh</v>
+      </c>
+      <c r="D71" t="str">
+        <v>Photography</v>
+      </c>
+      <c r="E71" t="str">
+        <v>The artist mainly does digital photography</v>
+      </c>
+      <c r="F71" t="str">
+        <v>Digital photography</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>74975ac4-5195-4360-a509-f8abcd51c71d</v>
+      </c>
+      <c r="B72">
+        <v>28</v>
+      </c>
+      <c r="C72" t="str">
+        <v>Hướng dẫn cách làm</v>
+      </c>
+      <c r="D72" t="str">
+        <v>Tutorial</v>
+      </c>
+      <c r="E72" t="str">
+        <v>Check out her step-by-step tutorial on makeup</v>
+      </c>
+      <c r="F72" t="str">
+        <v>Step-by-Step tutorial</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>8af0b848-c984-475f-af71-c73c9cf77b8b</v>
+      </c>
+      <c r="B73">
+        <v>28</v>
+      </c>
+      <c r="C73" t="str">
+        <v>Nhật ký bằng video</v>
+      </c>
+      <c r="D73" t="str">
+        <v>Vlogs</v>
+      </c>
+      <c r="E73" t="str">
+        <v/>
+      </c>
+      <c r="F73" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>b631dad9-b82c-47b5-b18e-a505891c7e86</v>
+      </c>
+      <c r="B74">
+        <v>28</v>
+      </c>
+      <c r="C74" t="str">
+        <v>Đội, nhóm</v>
+      </c>
+      <c r="D74" t="str">
+        <v>Team</v>
+      </c>
+      <c r="E74" t="str">
+        <v>The soccer team won 5-1</v>
+      </c>
+      <c r="F74" t="str">
+        <v>A soccer team</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>d7be64cc-0840-44db-9e09-27cf029efff2</v>
+      </c>
+      <c r="B75">
+        <v>28</v>
+      </c>
+      <c r="C75" t="str">
+        <v>Thử</v>
+      </c>
+      <c r="D75" t="str">
+        <v>Try out</v>
+      </c>
+      <c r="E75" t="str">
+        <v>Would you try out a new method of cooking?</v>
+      </c>
+      <c r="F75" t="str">
+        <v>Try out a new method</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>7c51af5a-2c08-40d7-9b59-971579e83fcd</v>
+      </c>
+      <c r="B76">
+        <v>28</v>
+      </c>
+      <c r="C76" t="str">
+        <v>Tham gia</v>
+      </c>
+      <c r="D76" t="str">
+        <v>Participate</v>
+      </c>
+      <c r="E76" t="str">
+        <v>Please participate more in class</v>
+      </c>
+      <c r="F76" t="str">
+        <v>Participate in something</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>f9d5999c-a156-41b9-800c-a7802ca98ea5</v>
+      </c>
+      <c r="B77">
+        <v>28</v>
+      </c>
+      <c r="C77" t="str">
+        <v>Chương trình</v>
+      </c>
+      <c r="D77" t="str">
+        <v>Program</v>
+      </c>
+      <c r="E77" t="str">
+        <v>She works for a news program</v>
+      </c>
+      <c r="F77" t="str">
+        <v>A news program</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>c8a1854a-ae84-41f5-a5d4-a1d0aa910d2c</v>
+      </c>
+      <c r="B78">
+        <v>28</v>
+      </c>
+      <c r="C78" t="str">
+        <v>Hoạt hình</v>
+      </c>
+      <c r="D78" t="str">
+        <v>Cartoon</v>
+      </c>
+      <c r="E78" t="str">
+        <v>Mickey mouse is a walt disney cartoon</v>
+      </c>
+      <c r="F78" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>e3abb703-a37a-4308-96b6-b20859e2a6aa</v>
+      </c>
+      <c r="B79">
+        <v>28</v>
+      </c>
+      <c r="C79" t="str">
+        <v>Thể loại</v>
+      </c>
+      <c r="D79" t="str">
+        <v>Genre</v>
+      </c>
+      <c r="E79" t="str">
+        <v>What music genre do you listen to?</v>
+      </c>
+      <c r="F79" t="str">
+        <v>Music genre</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>dfa9fc23-b0d1-4e81-865b-13d53416db11</v>
+      </c>
+      <c r="B80">
+        <v>28</v>
+      </c>
+      <c r="C80" t="str">
+        <v>Phim hài</v>
+      </c>
+      <c r="D80" t="str">
+        <v>Comedy</v>
+      </c>
+      <c r="E80" t="str">
+        <v>My friend loves watching remoantic comedies</v>
+      </c>
+      <c r="F80" t="str">
+        <v>A romantic comedy</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>e9792faa-117f-408c-8aa4-bb141f602092</v>
+      </c>
+      <c r="B81">
+        <v>28</v>
+      </c>
+      <c r="C81" t="str">
+        <v>Trèo</v>
+      </c>
+      <c r="D81" t="str">
+        <v>Climb</v>
+      </c>
+      <c r="E81" t="str">
+        <v>The cat climbed up the tree</v>
+      </c>
+      <c r="F81" t="str">
+        <v>Climb up something</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>9c9784a3-bc25-46fe-99fb-cb54224c9f86</v>
+      </c>
+      <c r="B82">
+        <v>28</v>
+      </c>
+      <c r="C82" t="str">
+        <v>Sự thích thú, niềm vui</v>
+      </c>
+      <c r="D82" t="str">
+        <v>Pleasure</v>
+      </c>
+      <c r="E82" t="str">
+        <v>The kids find pleasure in singing</v>
+      </c>
+      <c r="F82" t="str">
+        <v>Take or find pleasure in doing something</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>6842266a-c5ab-4119-a535-872c36da4757</v>
+      </c>
+      <c r="B83">
+        <v>28</v>
+      </c>
+      <c r="C83" t="str">
+        <v>Trong nhà</v>
+      </c>
+      <c r="D83" t="str">
+        <v>Indoor</v>
+      </c>
+      <c r="E83" t="str">
+        <v>The hotel's indoor swimming pool is huge!</v>
+      </c>
+      <c r="F83" t="str">
+        <v>An indoor swimming pool</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>d2a15da2-9ea7-48ec-ac1c-31958d2a9169</v>
+      </c>
+      <c r="B84">
+        <v>28</v>
+      </c>
+      <c r="C84" t="str">
+        <v>Chuyến nghỉ dưỡng, kỳ nghỉ</v>
+      </c>
+      <c r="D84" t="str">
+        <v>Holiday</v>
+      </c>
+      <c r="E84" t="str">
+        <v>I do not work on holiday</v>
+      </c>
+      <c r="F84" t="str">
+        <v>On holiday</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>2c2dbe0d-943c-43ab-ba45-c532ffa886ae</v>
+      </c>
+      <c r="B85">
+        <v>28</v>
+      </c>
+      <c r="C85" t="str">
+        <v>Chuyến đi</v>
+      </c>
+      <c r="D85" t="str">
+        <v>Ride</v>
+      </c>
+      <c r="E85" t="str">
+        <v>We are in for a bumpy ride</v>
+      </c>
+      <c r="F85" t="str">
+        <v>A bumpy ride</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>41542f1d-741d-4a47-8a81-a1d09a9a966b</v>
+      </c>
+      <c r="B86">
+        <v>28</v>
+      </c>
+      <c r="C86" t="str">
+        <v>Có ý nghĩa</v>
+      </c>
+      <c r="D86" t="str">
+        <v>Meaningful</v>
+      </c>
+      <c r="E86" t="str">
+        <v>I strive to do meaningful work</v>
+      </c>
+      <c r="F86" t="str">
+        <v>Meaningful work</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>6e66b3ef-3ec5-4743-9860-7418a93dce27</v>
+      </c>
+      <c r="B87">
+        <v>28</v>
+      </c>
+      <c r="C87" t="str">
+        <v>Việc cấm trại</v>
+      </c>
+      <c r="D87" t="str">
+        <v>Camping</v>
+      </c>
+      <c r="E87" t="str">
+        <v>We are going on a camping trip</v>
+      </c>
+      <c r="F87" t="str">
+        <v>A camping trip</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>1188e571-d666-4bf9-81ee-46334eabd388</v>
+      </c>
+      <c r="B88">
+        <v>28</v>
+      </c>
+      <c r="C88" t="str">
+        <v>Hợp tác</v>
+      </c>
+      <c r="D88" t="str">
+        <v>Cooperate</v>
+      </c>
+      <c r="E88" t="str">
+        <v>You have to cooperate with here</v>
+      </c>
+      <c r="F88" t="str">
+        <v>Cooperate with something or somebody</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>c8f79e81-dc8c-4f22-805d-0f1945deadcd</v>
+      </c>
+      <c r="B89">
+        <v>28</v>
+      </c>
+      <c r="C89" t="str">
+        <v>Lều</v>
+      </c>
+      <c r="D89" t="str">
+        <v>Tent</v>
+      </c>
+      <c r="E89" t="str">
+        <v>Please put up the tent for me</v>
+      </c>
+      <c r="F89" t="str">
+        <v>Put up a tent</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>df9891a5-2a7a-4754-91d7-ff7fffc40477</v>
+      </c>
+      <c r="B90">
+        <v>28</v>
+      </c>
+      <c r="C90" t="str">
+        <v>Hứng thú với</v>
+      </c>
+      <c r="D90" t="str">
+        <v>Go in for</v>
+      </c>
+      <c r="E90" t="str">
+        <v>My sister decides to go in for a debate competition</v>
+      </c>
+      <c r="F90" t="str">
+        <v>Go in for a competition</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>f1186873-4969-486d-bd89-9a0695b5388f</v>
+      </c>
+      <c r="B91">
+        <v>28</v>
+      </c>
+      <c r="C91" t="str">
+        <v>Thích hơn</v>
+      </c>
+      <c r="D91" t="str">
+        <v>Prefer</v>
+      </c>
+      <c r="E91" t="str">
+        <v>She prefers eating apples to pears</v>
+      </c>
+      <c r="F91" t="str">
+        <v>Prefer something to something</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>a2b1778e-1bde-4f07-8efc-386e9629f6dc</v>
+      </c>
+      <c r="B92">
+        <v>29</v>
+      </c>
+      <c r="C92" t="str">
+        <v>Câu cá</v>
+      </c>
+      <c r="D92" t="str">
+        <v>Fishing</v>
+      </c>
+      <c r="E92" t="str">
+        <v>My dad and I go fishing every day</v>
+      </c>
+      <c r="F92" t="str">
+        <v>Go fishing</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>cf990805-78a4-450b-9080-8d1407d56334</v>
+      </c>
+      <c r="B93">
+        <v>29</v>
+      </c>
+      <c r="C93" t="str">
+        <v>Vận động viên</v>
+      </c>
+      <c r="D93" t="str">
+        <v>Athlete</v>
+      </c>
+      <c r="E93" t="str">
+        <v>Olumpic athletes train hard to complete</v>
+      </c>
+      <c r="F93" t="str">
+        <v>An Olympic athlete</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>b6a3f27f-b5f1-4f59-a13a-5a3b1d198402</v>
+      </c>
+      <c r="B94">
+        <v>29</v>
+      </c>
+      <c r="C94" t="str">
+        <v>Môn đấu vật</v>
+      </c>
+      <c r="D94" t="str">
+        <v>Wrestling</v>
+      </c>
+      <c r="E94" t="str">
+        <v>Wrestling matches are popular in the US</v>
+      </c>
+      <c r="F94" t="str">
+        <v>A wrestling match</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>f903164f-992c-4ff7-bdd0-9796bb39e5eb</v>
+      </c>
+      <c r="B95">
+        <v>29</v>
+      </c>
+      <c r="C95" t="str">
+        <v>Chuyên nghiệp</v>
+      </c>
+      <c r="D95" t="str">
+        <v>Professional</v>
+      </c>
+      <c r="E95" t="str">
+        <v>He was a professional soccer player</v>
+      </c>
+      <c r="F95" t="str">
+        <v>A professional soccer player</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>f38ea113-6eed-41a7-864c-9fd8eb997c46</v>
+      </c>
+      <c r="B96">
+        <v>29</v>
+      </c>
+      <c r="C96" t="str">
+        <v>Hàng năm</v>
+      </c>
+      <c r="D96" t="str">
+        <v>Annual</v>
+      </c>
+      <c r="E96" t="str">
+        <v>The company has annual meetings for us</v>
+      </c>
+      <c r="F96" t="str">
+        <v>An annual meeting</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>cec821bf-15bc-4c73-85e6-328b2b004fd1</v>
+      </c>
+      <c r="B97">
+        <v>29</v>
+      </c>
+      <c r="C97" t="str">
+        <v>Giải đấu</v>
+      </c>
+      <c r="D97" t="str">
+        <v>Tournament</v>
+      </c>
+      <c r="E97" t="str">
+        <v>What an exciting soccer tournament!</v>
+      </c>
+      <c r="F97" t="str">
+        <v>A soccer tournament</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>ddae4d17-2487-4c91-b15b-62ec664e7e93</v>
+      </c>
+      <c r="B98">
+        <v>29</v>
+      </c>
+      <c r="C98" t="str">
+        <v>Huấn luyện viên</v>
+      </c>
+      <c r="D98" t="str">
+        <v>Coach</v>
+      </c>
+      <c r="E98" t="str">
+        <v>The team coach trains us hard</v>
+      </c>
+      <c r="F98" t="str">
+        <v>The team coach</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>9c573cff-4ddd-4aec-83ca-2f88d870993e</v>
+      </c>
+      <c r="B99">
+        <v>29</v>
+      </c>
+      <c r="C99" t="str">
+        <v>Trận đấu</v>
+      </c>
+      <c r="D99" t="str">
+        <v>Match</v>
+      </c>
+      <c r="E99" t="str">
+        <v>There is a soccer match tonight</v>
+      </c>
+      <c r="F99" t="str">
+        <v>A soccer match</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>dd72f5c5-8548-436c-bd33-79ddb20c7437</v>
+      </c>
+      <c r="B100">
+        <v>29</v>
+      </c>
+      <c r="C100" t="str">
+        <v>Đánh bại</v>
+      </c>
+      <c r="D100" t="str">
+        <v>Beat</v>
+      </c>
+      <c r="E100" t="str">
+        <v>They beat their opponents in the first round</v>
+      </c>
+      <c r="F100" t="str">
+        <v>Beat something or somebody</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>b1892029-56ff-4cbe-984a-c7dab29a9977</v>
+      </c>
+      <c r="B101">
+        <v>29</v>
+      </c>
+      <c r="C101" t="str">
+        <v>Đối thủ</v>
+      </c>
+      <c r="D101" t="str">
+        <v>Opponent</v>
+      </c>
+      <c r="E101" t="str">
+        <v>She is my opponent in chess</v>
+      </c>
+      <c r="F101" t="str">
+        <v>One's oppponent in something</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>1e190ed8-33a8-4e71-b7b2-fa84c7c02941</v>
+      </c>
+      <c r="B102">
+        <v>29</v>
+      </c>
+      <c r="C102" t="str">
+        <v>Môn thể thao</v>
+      </c>
+      <c r="D102" t="str">
+        <v>Athletics</v>
+      </c>
+      <c r="E102" t="str">
+        <v>Football, soccer, and baseball are types of atheletics</v>
+      </c>
+      <c r="F102" t="str">
+        <v>Types of athletics</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>d38353fc-5f4f-472c-ac04-668987f0a4a7</v>
+      </c>
+      <c r="B103">
+        <v>29</v>
+      </c>
+      <c r="C103" t="str">
+        <v>Bóng rỗ</v>
+      </c>
+      <c r="D103" t="str">
+        <v>Basketball</v>
+      </c>
+      <c r="E103" t="str">
+        <v>I am the captain of the basketball team</v>
+      </c>
+      <c r="F103" t="str">
+        <v>A basketball team</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>ef65ce51-588d-4574-aabf-54d79f5fccc8</v>
+      </c>
+      <c r="B104">
+        <v>29</v>
+      </c>
+      <c r="C104" t="str">
+        <v>Người chơi</v>
+      </c>
+      <c r="D104" t="str">
+        <v>Player</v>
+      </c>
+      <c r="E104" t="str">
+        <v>He is the best soccer player here</v>
+      </c>
+      <c r="F104" t="str">
+        <v>A soccer player</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>b7c13a10-8f6b-4bc0-adf4-4efd66aa87fc</v>
+      </c>
+      <c r="B105">
+        <v>29</v>
+      </c>
+      <c r="C105" t="str">
+        <v xml:space="preserve">Liên đoàn </v>
+      </c>
+      <c r="D105" t="str">
+        <v>League</v>
+      </c>
+      <c r="E105" t="str">
+        <v>My sone plays for a soccer league</v>
+      </c>
+      <c r="F105" t="str">
+        <v>A soccer league</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>cbf03296-0921-4040-90d4-199fd9d5c23b</v>
+      </c>
+      <c r="B106">
+        <v>29</v>
+      </c>
+      <c r="C106" t="str">
+        <v>Giải vô địch</v>
+      </c>
+      <c r="D106" t="str">
+        <v>Championship</v>
+      </c>
+      <c r="E106" t="str">
+        <v>Are you ready for the basketball championship</v>
+      </c>
+      <c r="F106" t="str">
+        <v>A basketball championship</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>5029497b-8c66-41b8-8d0a-4bfe381c4286</v>
+      </c>
+      <c r="B107">
+        <v>29</v>
+      </c>
+      <c r="C107" t="str">
+        <v>Đội trưởng</v>
+      </c>
+      <c r="D107" t="str">
+        <v>Captain</v>
+      </c>
+      <c r="E107" t="str">
+        <v>We vote for a team camtain</v>
+      </c>
+      <c r="F107" t="str">
+        <v>Team captain</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>c2fb9123-f320-4cc1-a7fa-d38da99a5fc1</v>
+      </c>
+      <c r="B108">
+        <v>29</v>
+      </c>
+      <c r="C108" t="str">
+        <v>Ghi điểm</v>
+      </c>
+      <c r="D108" t="str">
+        <v>Score</v>
+      </c>
+      <c r="E108" t="str">
+        <v>He scored a goal for the team</v>
+      </c>
+      <c r="F108" t="str">
+        <v>Score a goal</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>a52a7a35-9823-4ea9-87c9-6dec37ecf622</v>
+      </c>
+      <c r="B109">
+        <v>29</v>
+      </c>
+      <c r="C109" t="str">
+        <v>Danh hiệu</v>
+      </c>
+      <c r="D109" t="str">
+        <v>Title</v>
+      </c>
+      <c r="E109" t="str">
+        <v>The team won the title with a goal in the last minute</v>
+      </c>
+      <c r="F109" t="str">
+        <v>Win the title</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>916d379b-cba3-40d9-a67f-a71d48b74a2f</v>
+      </c>
+      <c r="B110">
+        <v>29</v>
+      </c>
+      <c r="C110" t="str">
+        <v>Lưới</v>
+      </c>
+      <c r="D110" t="str">
+        <v>Net</v>
+      </c>
+      <c r="E110" t="str">
+        <v>The fishing net has holes in it</v>
+      </c>
+      <c r="F110" t="str">
+        <v>A fishing net</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>463b16e3-432e-446b-bea0-a0f2b3da5f06</v>
+      </c>
+      <c r="B111">
+        <v>29</v>
+      </c>
+      <c r="C111" t="str">
+        <v>Anh hùng</v>
+      </c>
+      <c r="D111" t="str">
+        <v>Hero</v>
+      </c>
+      <c r="E111" t="str">
+        <v>The fireman became a local hero</v>
+      </c>
+      <c r="F111" t="str">
+        <v>A local hero</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>39de71b0-d5b5-48c9-8f4d-95b2e2f50af6</v>
+      </c>
+      <c r="B112">
+        <v>29</v>
+      </c>
+      <c r="C112" t="str">
+        <v>Môn đạp xe</v>
+      </c>
+      <c r="D112" t="str">
+        <v>Cycling</v>
+      </c>
+      <c r="E112" t="str">
+        <v>She went cycling down the hill</v>
+      </c>
+      <c r="F112" t="str">
+        <v>Go cycling</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>aae25fe9-c463-44f6-8403-64b3ab4901df</v>
+      </c>
+      <c r="B113">
+        <v>29</v>
+      </c>
+      <c r="C113" t="str">
+        <v>Sân vận động</v>
+      </c>
+      <c r="D113" t="str">
+        <v>Stadium</v>
+      </c>
+      <c r="E113" t="str">
+        <v>Where is the biggest sports stadium in hanoi</v>
+      </c>
+      <c r="F113" t="str">
+        <v>A sport stadium</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>a8bd58e5-0590-4ebb-9b28-1b10efe4f691</v>
+      </c>
+      <c r="B114">
+        <v>29</v>
+      </c>
+      <c r="C114" t="str">
+        <v>Người thắng cuộc</v>
+      </c>
+      <c r="D114" t="str">
+        <v>Winner</v>
+      </c>
+      <c r="E114" t="str">
+        <v>The actor is an award winner</v>
+      </c>
+      <c r="F114" t="str">
+        <v>An award winer</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>b553acc6-a0c9-417a-b2d9-d77e5fd33909</v>
+      </c>
+      <c r="B115">
+        <v>29</v>
+      </c>
+      <c r="C115" t="str">
+        <v>Môn đánh golf</v>
+      </c>
+      <c r="D115" t="str">
+        <v>Golf</v>
+      </c>
+      <c r="E115" t="str">
+        <v>Businessmen love to play golf</v>
+      </c>
+      <c r="F115" t="str">
+        <v>Play golf</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>c9b2d631-4c95-4cbf-b5c6-51760a9800c8</v>
+      </c>
+      <c r="B116">
+        <v>29</v>
+      </c>
+      <c r="C116" t="str">
+        <v>Đánh</v>
+      </c>
+      <c r="D116" t="str">
+        <v>Strike</v>
+      </c>
+      <c r="E116" t="str">
+        <v>He strikes the golf ball perfectly</v>
+      </c>
+      <c r="F116" t="str">
+        <v>Strike the ball</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>6c846374-0b04-4261-a1fc-abb952bde9d0</v>
+      </c>
+      <c r="B117">
+        <v>29</v>
+      </c>
+      <c r="C117" t="str">
+        <v>Đích, mục tiêu</v>
+      </c>
+      <c r="D117" t="str">
+        <v>Target</v>
+      </c>
+      <c r="E117" t="str">
+        <v>He shot the arrow and hit the target</v>
+      </c>
+      <c r="F117" t="str">
+        <v>Hit the target</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>7c39a7bf-0223-4d67-bf19-bc70d6260a4c</v>
+      </c>
+      <c r="B118">
+        <v>29</v>
+      </c>
+      <c r="C118" t="str">
+        <v>Tối đa</v>
+      </c>
+      <c r="D118" t="str">
+        <v>Maximum</v>
+      </c>
+      <c r="E118" t="str">
+        <v>The maximum amount for storage is 256GB</v>
+      </c>
+      <c r="F118" t="str">
+        <v>The maximum amount</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>727a487b-ea11-4357-8b3a-cfd78069fedb</v>
+      </c>
+      <c r="B119">
+        <v>29</v>
+      </c>
+      <c r="C119" t="str">
+        <v>Lướt</v>
+      </c>
+      <c r="D119" t="str">
+        <v>Surf</v>
+      </c>
+      <c r="E119" t="str">
+        <v>In hawaii, you must surf the waves</v>
+      </c>
+      <c r="F119" t="str">
+        <v>Surf the wave</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>86cb971a-bdd1-45d0-9169-17ef0fb2990e</v>
+      </c>
+      <c r="B120">
+        <v>29</v>
+      </c>
+      <c r="C120" t="str">
+        <v>Không may</v>
+      </c>
+      <c r="D120" t="str">
+        <v>Unfortunately</v>
+      </c>
+      <c r="E120" t="str">
+        <v>Unfortunately, I won't be able to attend the meeting</v>
+      </c>
+      <c r="F120" t="str">
+        <v>Unfortunately, I won't</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>2805d4a5-2450-4193-92b7-19d2357bd4d9</v>
+      </c>
+      <c r="B121">
+        <v>29</v>
+      </c>
+      <c r="C121" t="str">
+        <v>Trân trọng, đánh giá cao</v>
+      </c>
+      <c r="D121" t="str">
+        <v>Appreciate</v>
+      </c>
+      <c r="E121" t="str">
+        <v>I appreciate the help you gave me</v>
+      </c>
+      <c r="F121" t="str">
+        <v>Appreciate somebody or something</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:F121"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/data/WordStudy.xlsx
+++ b/data/WordStudy.xlsx
@@ -6,6 +6,7 @@
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
     <sheet name="Update_ea9e" sheetId="2" r:id="rId2"/>
     <sheet name="Update_3987" sheetId="3" r:id="rId3"/>
+    <sheet name="Update_da6e" sheetId="4" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
@@ -7213,4 +7214,2438 @@
     <ignoredError numberStoredAsText="1" sqref="A1:F121"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F121"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>unitId</v>
+      </c>
+      <c r="C1" t="str">
+        <v>word</v>
+      </c>
+      <c r="D1" t="str">
+        <v>answers</v>
+      </c>
+      <c r="E1" t="str">
+        <v>sentences</v>
+      </c>
+      <c r="F1" t="str">
+        <v>phrases</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>2855e402-1dfa-4dc2-8840-cebd848fa19c</v>
+      </c>
+      <c r="B2">
+        <v>26</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Chương trình</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Show</v>
+      </c>
+      <c r="E2" t="str">
+        <v>I watch TV shows on my television</v>
+      </c>
+      <c r="F2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>d90b062b-c464-4c5c-bf4d-2d250fee42b4</v>
+      </c>
+      <c r="B3">
+        <v>26</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Cảnh</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Scene</v>
+      </c>
+      <c r="E3" t="str">
+        <v>The crew needs to film a scene</v>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>d670b0d5-a0f9-4e3d-be7e-7539b709f4bf</v>
+      </c>
+      <c r="B4">
+        <v>26</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Nam diễn viên</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Actor</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Who is the lead actor in titanic</v>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>0b08724a-3034-4e5c-9eed-a809189bff3a</v>
+      </c>
+      <c r="B5">
+        <v>26</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Thuộc âm nhạc</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Musical</v>
+      </c>
+      <c r="E5" t="str">
+        <v xml:space="preserve">The audience loved the musical performance </v>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>4152b846-3f6e-4b76-b48c-320c8d9bf98d</v>
+      </c>
+      <c r="B6">
+        <v>26</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Nhạc phim</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Soundtrack</v>
+      </c>
+      <c r="E6" t="str">
+        <v>The soundtrack of this movie is great</v>
+      </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>f9c612cb-22a0-4f9d-a949-c179e45f0655</v>
+      </c>
+      <c r="B7">
+        <v>26</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Thuộc lịch sử</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Historical</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Albert Einstein is an important historical figure</v>
+      </c>
+      <c r="F7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>53af5326-467e-4e15-a189-ec4723760626</v>
+      </c>
+      <c r="B8">
+        <v>26</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Bí ẩn</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Mystery</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Nobody can solve the mystery of the Bermuda triangle</v>
+      </c>
+      <c r="F8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>faab9a2e-d127-4a38-abf1-879e33beef60</v>
+      </c>
+      <c r="B9">
+        <v>26</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Tội ác</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Crime</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Stealing money is a serious crime</v>
+      </c>
+      <c r="F9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>da3b1816-173a-4493-ad15-7beb97e72ba5</v>
+      </c>
+      <c r="B10">
+        <v>26</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Đoạn kết</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Ending</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Fairy tales have happy endings</v>
+      </c>
+      <c r="F10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>e98b5079-2952-47db-afac-31e8e8b2ded1</v>
+      </c>
+      <c r="B11">
+        <v>26</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Tiết lộ</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Reveal</v>
+      </c>
+      <c r="E11" t="str">
+        <v>The magician never reveals the truth</v>
+      </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>6834a067-2935-4767-b07e-7e28c2af50bc</v>
+      </c>
+      <c r="B12">
+        <v>26</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Phim giật gân</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Thriller</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Thriller movies are scary</v>
+      </c>
+      <c r="F12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>eec73fe0-6f13-4d23-b16e-304b453fd1eb</v>
+      </c>
+      <c r="B13">
+        <v>26</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Xưởng, không gian sáng tạo</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Studio</v>
+      </c>
+      <c r="E13" t="str">
+        <v>She teaches us at her dance studio</v>
+      </c>
+      <c r="F13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>d82e9755-cb4a-4e76-b2d1-c22e9bbd3e4a</v>
+      </c>
+      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Bối cảnh, khung cảnh</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Setting</v>
+      </c>
+      <c r="E14" t="str">
+        <v xml:space="preserve">What a beautiful setting this city is </v>
+      </c>
+      <c r="F14" t="str">
+        <v>A beautiful setting</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>80af4f65-e319-4276-abc7-c4b93cfb684f</v>
+      </c>
+      <c r="B15">
+        <v>26</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Điều viễn tưởng</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Fiction</v>
+      </c>
+      <c r="E15" t="str">
+        <v>She wrote fiction on aliens and love</v>
+      </c>
+      <c r="F15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>66eb9a3b-e5cf-4572-af26-c0ced46a6a41</v>
+      </c>
+      <c r="B16">
+        <v>26</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Sự việc kịch tính</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Drama</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Teens like to watch drama series</v>
+      </c>
+      <c r="F16" t="str">
+        <v>A drama series</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>6d66f4e3-1575-453b-9c56-b2e35ae6f572</v>
+      </c>
+      <c r="B17">
+        <v>26</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Đạo diễn</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Director</v>
+      </c>
+      <c r="E17" t="str">
+        <v>The young film director deserves our recognition</v>
+      </c>
+      <c r="F17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>c61cf54e-76e9-4c4f-a546-be16ad5e5bcf</v>
+      </c>
+      <c r="B18">
+        <v>26</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Ra mắt</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Come out</v>
+      </c>
+      <c r="E18" t="str">
+        <v>When is her album coming out?</v>
+      </c>
+      <c r="F18" t="str">
+        <v>Something new comes out</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>75d97f77-6607-497c-a34c-c08e4276bc76</v>
+      </c>
+      <c r="B19">
+        <v>26</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Nhân vật</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Character</v>
+      </c>
+      <c r="E19" t="str">
+        <v>The main character in "Batman" is mysterious</v>
+      </c>
+      <c r="F19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>e2745e17-f355-4999-984f-246339ace9e7</v>
+      </c>
+      <c r="B20">
+        <v>26</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Nữ diễn viên</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Actress</v>
+      </c>
+      <c r="E20" t="str">
+        <v>She was a good actress back then</v>
+      </c>
+      <c r="F20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>d883b560-e598-4399-b67a-fbd255f88070</v>
+      </c>
+      <c r="B21">
+        <v>26</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Kỳ lạ, kỳ quặc</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Odd</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Hanging out with odd people is fun</v>
+      </c>
+      <c r="F21" t="str">
+        <v>An odd person</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>861042fb-7382-4b86-b5dc-6f8a0f267c2b</v>
+      </c>
+      <c r="B22">
+        <v>26</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Màn hình</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Screen</v>
+      </c>
+      <c r="E22" t="str">
+        <v>The laptop has a big computer screen</v>
+      </c>
+      <c r="F22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>2c327c19-447e-45c6-8278-14aa65293f96</v>
+      </c>
+      <c r="B23">
+        <v>26</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Hành động</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Action</v>
+      </c>
+      <c r="E23" t="str">
+        <v>My favorite action movie is Fast and Furious</v>
+      </c>
+      <c r="F23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>1c7e5e1d-737d-4a0f-9124-6e6415aaab50</v>
+      </c>
+      <c r="B24">
+        <v>26</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Chuyến phiêu lưu</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Adventure</v>
+      </c>
+      <c r="E24" t="str">
+        <v>I seek an adventure of a lifetime</v>
+      </c>
+      <c r="F24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>046efda8-e3b4-4698-a754-cacebf1c90e0</v>
+      </c>
+      <c r="B25">
+        <v>26</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Phim tài liệu</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Documentary</v>
+      </c>
+      <c r="E25" t="str">
+        <v>I watched that documentary film on Netflix</v>
+      </c>
+      <c r="F25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>7040324e-e5a2-44f4-9535-b2cc9cbdb924</v>
+      </c>
+      <c r="B26">
+        <v>26</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Góc</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Angle</v>
+      </c>
+      <c r="E26" t="str">
+        <v>Tilt your head to a 45 angle</v>
+      </c>
+      <c r="F26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>988a2983-945c-4cf0-ba48-152e92f249c4</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Thấy khó hiểu</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Confused</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Are you confused about the instructions?</v>
+      </c>
+      <c r="F27" t="str">
+        <v>Confused about something</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>928cac87-df35-4693-90eb-0b7ac9ba4f7c</v>
+      </c>
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Cuộc hội thoại, lời thoại</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Dialogue</v>
+      </c>
+      <c r="E28" t="str">
+        <v>The dialogue with my therapist helped me</v>
+      </c>
+      <c r="F28" t="str">
+        <v>Dialogue with somebody</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>470241db-5ef4-4605-923a-0f067329f20f</v>
+      </c>
+      <c r="B29">
+        <v>26</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Tác phẩm thành công</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Hit</v>
+      </c>
+      <c r="E29" t="str">
+        <v>His book became a big hit</v>
+      </c>
+      <c r="F29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>972036e4-0ba9-4393-b01e-adb398bcbf0c</v>
+      </c>
+      <c r="B30">
+        <v>26</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Tuyệt vời</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Wonderful</v>
+      </c>
+      <c r="E30" t="str">
+        <v>I am grateful for the wonderful opportunity</v>
+      </c>
+      <c r="F30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>fefbe098-b8f8-40ef-87d2-ea757ae401e2</v>
+      </c>
+      <c r="B31">
+        <v>26</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Tài giỏi, tuyệt vời</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Brilliant</v>
+      </c>
+      <c r="E31" t="str">
+        <v>Thank you for the brilliant idea</v>
+      </c>
+      <c r="F31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>7ced7a2e-75de-4804-ac90-20e3e958d965</v>
+      </c>
+      <c r="B32">
+        <v>27</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Khiêm tốn</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Modest</v>
+      </c>
+      <c r="E32" t="str">
+        <v>You are too modest! You are gifted.</v>
+      </c>
+      <c r="F32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>4b5d71f1-69c8-4d40-917c-56ed60fa341a</v>
+      </c>
+      <c r="B33">
+        <v>27</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Có năng khiếu</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Gifted</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Do you consider yourself a gifted musican?</v>
+      </c>
+      <c r="F33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>f249b615-9ce7-490b-aeb1-e7fb50956f75</v>
+      </c>
+      <c r="B34">
+        <v>27</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Ngành giải trí</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Showbiz</v>
+      </c>
+      <c r="E34" t="str">
+        <v>People in showbiz are movie stars</v>
+      </c>
+      <c r="F34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>33645007-d97b-4e05-9fbb-18ce6453df08</v>
+      </c>
+      <c r="B35">
+        <v>27</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Kênh</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Channel</v>
+      </c>
+      <c r="E35" t="str">
+        <v>The show is live on the VTV3 channel</v>
+      </c>
+      <c r="F35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>c1f5fd98-6823-4cd2-8332-437b40d1cdbb</v>
+      </c>
+      <c r="B36">
+        <v>27</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Truyền thông</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Media</v>
+      </c>
+      <c r="E36" t="str">
+        <v>My mom posts so many pictures on social media</v>
+      </c>
+      <c r="F36" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>9e32b63e-6f9b-484a-a3cf-03b2554b0c81</v>
+      </c>
+      <c r="B37">
+        <v>27</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Nổi tiếng</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Well-known</v>
+      </c>
+      <c r="E37" t="str">
+        <v>Is he a well-known actor?</v>
+      </c>
+      <c r="F37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>3af0b7f7-7574-4b56-bf9b-afbdc9d94496</v>
+      </c>
+      <c r="B38">
+        <v>27</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Nhận ra</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Recognize</v>
+      </c>
+      <c r="E38" t="str">
+        <v>Did you recognize me on stage?</v>
+      </c>
+      <c r="F38" t="str">
+        <v>Recognize somebody or something</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>cd2a5828-bdf8-445c-81a1-3926ae9be2da</v>
+      </c>
+      <c r="B39">
+        <v>27</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Người hâm mộ</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Fan</v>
+      </c>
+      <c r="E39" t="str">
+        <v>My girlfriend is a big soccer fan</v>
+      </c>
+      <c r="F39" t="str">
+        <v>A soccer fan</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>123fb41c-f345-498c-a994-9a9b27e98bf8</v>
+      </c>
+      <c r="B40">
+        <v>27</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Đăng ký</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Subscribe</v>
+      </c>
+      <c r="E40" t="str">
+        <v>Please subscribe to step up english youtube channel</v>
+      </c>
+      <c r="F40" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>87d2b191-c73b-403f-96bc-6f392d27e7b2</v>
+      </c>
+      <c r="B41">
+        <v>27</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Hét to</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Sceam</v>
+      </c>
+      <c r="E41" t="str">
+        <v>They screamed out loud for help</v>
+      </c>
+      <c r="F41" t="str">
+        <v>Scream out loud</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>5a4867f1-271f-4ee0-865d-7d7eb2b42d5d</v>
+      </c>
+      <c r="B42">
+        <v>27</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Buồn cười</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Funny</v>
+      </c>
+      <c r="E42" t="str">
+        <v>The funny story made me laugh hard</v>
+      </c>
+      <c r="F42" t="str">
+        <v>A funny story</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>3423a5df-5518-4d10-9006-6b46aef0c92f</v>
+      </c>
+      <c r="B43">
+        <v>27</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Hiện nay</v>
+      </c>
+      <c r="D43" t="str">
+        <v>Currently</v>
+      </c>
+      <c r="E43" t="str">
+        <v>I am currently working as a front-end developer</v>
+      </c>
+      <c r="F43" t="str">
+        <v>Currently working as something</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>dac664bf-4d84-4185-9955-6184e4705180</v>
+      </c>
+      <c r="B44">
+        <v>27</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Lan truyền nhanh</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Viral</v>
+      </c>
+      <c r="E44" t="str">
+        <v>The video went viral on Facebook</v>
+      </c>
+      <c r="F44" t="str">
+        <v>Go viral</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>8d87d414-5e8f-41e4-8024-820fa8e2834f</v>
+      </c>
+      <c r="B45">
+        <v>27</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Màn biểu diễn</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Performance</v>
+      </c>
+      <c r="E45" t="str">
+        <v>The opera singer delivered an outstanding performance</v>
+      </c>
+      <c r="F45" t="str">
+        <v>Deliver an outstanding performance</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>999e1a08-f844-4088-a0eb-d43b316c22f6</v>
+      </c>
+      <c r="B46">
+        <v>27</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Quá khứ</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Past</v>
+      </c>
+      <c r="E46" t="str">
+        <v>I used to live abroad in the past</v>
+      </c>
+      <c r="F46" t="str">
+        <v>In the past</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>f3268128-5bfc-4b77-b848-87fd19d76a2d</v>
+      </c>
+      <c r="B47">
+        <v>27</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Trở nên</v>
+      </c>
+      <c r="D47" t="str">
+        <v>Become</v>
+      </c>
+      <c r="E47" t="str">
+        <v>I want to become a person of influence</v>
+      </c>
+      <c r="F47" t="str">
+        <v>Become somebody or something</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>abf03747-d6bf-4469-9f81-fdf87f96dce3</v>
+      </c>
+      <c r="B48">
+        <v>27</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Toàn cầu</v>
+      </c>
+      <c r="D48" t="str">
+        <v>Global</v>
+      </c>
+      <c r="E48" t="str">
+        <v>The singer's talent made her go global</v>
+      </c>
+      <c r="F48" t="str">
+        <v>Go global</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>cba5a361-0281-4457-a39e-8fff93b461df</v>
+      </c>
+      <c r="B49">
+        <v>27</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Lên tiếng</v>
+      </c>
+      <c r="D49" t="str">
+        <v>Speak out</v>
+      </c>
+      <c r="E49" t="str">
+        <v>She bravely spoke out against her boss</v>
+      </c>
+      <c r="F49" t="str">
+        <v>Speak out against somebody or something</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>ba407704-b048-4ddc-b6ff-92559d5fe029</v>
+      </c>
+      <c r="B50">
+        <v>27</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Xứng đáng</v>
+      </c>
+      <c r="D50" t="str">
+        <v>Deserve</v>
+      </c>
+      <c r="E50" t="str">
+        <v>I deserve ice cream after work</v>
+      </c>
+      <c r="F50" t="str">
+        <v>Deserve something</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>a23819c9-7af3-4246-a061-633cfade115b</v>
+      </c>
+      <c r="B51">
+        <v>27</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Trực tiếp</v>
+      </c>
+      <c r="D51" t="str">
+        <v>Live</v>
+      </c>
+      <c r="E51" t="str">
+        <v>The band did a live performance</v>
+      </c>
+      <c r="F51" t="str">
+        <v>A live performance</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>bacb314f-3d07-4d2c-ad43-ee564b779903</v>
+      </c>
+      <c r="B52">
+        <v>27</v>
+      </c>
+      <c r="C52" t="str">
+        <v>Giải thưởng</v>
+      </c>
+      <c r="D52" t="str">
+        <v>Award</v>
+      </c>
+      <c r="E52" t="str">
+        <v>She received an award for her acting</v>
+      </c>
+      <c r="F52" t="str">
+        <v>Receive an award</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>a499a65c-f6a4-43bf-b3af-7414b2c94310</v>
+      </c>
+      <c r="B53">
+        <v>27</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Danh dự</v>
+      </c>
+      <c r="D53" t="str">
+        <v>Honor</v>
+      </c>
+      <c r="E53" t="str">
+        <v>Welcome, you are my guest of honor</v>
+      </c>
+      <c r="F53" t="str">
+        <v>The guest of honor</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>48d3d3eb-d568-4c77-8488-43c41b7afbf5</v>
+      </c>
+      <c r="B54">
+        <v>27</v>
+      </c>
+      <c r="C54" t="str">
+        <v>Việc thiện nguyện</v>
+      </c>
+      <c r="D54" t="str">
+        <v>Charity</v>
+      </c>
+      <c r="E54" t="str">
+        <v>We should do charity for the disadvantaged</v>
+      </c>
+      <c r="F54" t="str">
+        <v>Do charity for somebody</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>0aa13e64-c9da-42cf-98a6-ea7b261bfbc8</v>
+      </c>
+      <c r="B55">
+        <v>27</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Tình nguyện</v>
+      </c>
+      <c r="D55" t="str">
+        <v>Volunteer</v>
+      </c>
+      <c r="E55" t="str">
+        <v>She volunteered to clean the car</v>
+      </c>
+      <c r="F55" t="str">
+        <v>Volunteer to do something</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>200b047e-f499-4d66-99d8-fbca132dfb75</v>
+      </c>
+      <c r="B56">
+        <v>27</v>
+      </c>
+      <c r="C56" t="str">
+        <v>Vụ bê bối</v>
+      </c>
+      <c r="D56" t="str">
+        <v>Scandal</v>
+      </c>
+      <c r="E56" t="str">
+        <v>He created the scandal to attract attention</v>
+      </c>
+      <c r="F56" t="str">
+        <v>Create a scandal</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>3b253e28-0230-47de-a666-91be77248828</v>
+      </c>
+      <c r="B57">
+        <v>27</v>
+      </c>
+      <c r="C57" t="str">
+        <v>Tin đồn</v>
+      </c>
+      <c r="D57" t="str">
+        <v>Rumor</v>
+      </c>
+      <c r="E57" t="str">
+        <v>Rumor has it that you got the job!</v>
+      </c>
+      <c r="F57" t="str">
+        <v>Rumor has it that</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>4334038f-c1b7-49a5-98f1-62b1237f3ab0</v>
+      </c>
+      <c r="B58">
+        <v>27</v>
+      </c>
+      <c r="C58" t="str">
+        <v>Tiểu sử</v>
+      </c>
+      <c r="D58" t="str">
+        <v>Biography</v>
+      </c>
+      <c r="E58" t="str">
+        <v>They wrote a biography of her life</v>
+      </c>
+      <c r="F58" t="str">
+        <v>A biography of something</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>5d8f29ff-7d1d-4e1e-82e1-34512516151c</v>
+      </c>
+      <c r="B59">
+        <v>27</v>
+      </c>
+      <c r="C59" t="str">
+        <v>Ngưỡng mộ</v>
+      </c>
+      <c r="D59" t="str">
+        <v>Admire</v>
+      </c>
+      <c r="E59" t="str">
+        <v>I admire my student's passion</v>
+      </c>
+      <c r="F59" t="str">
+        <v>Admire somebody or something</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>85f0b61e-0ab3-4e0f-a3ef-060ce867161f</v>
+      </c>
+      <c r="B60">
+        <v>27</v>
+      </c>
+      <c r="C60" t="str">
+        <v>Ngưỡng mộ</v>
+      </c>
+      <c r="D60" t="str">
+        <v>Look up to</v>
+      </c>
+      <c r="E60" t="str">
+        <v>I look up to my father very much</v>
+      </c>
+      <c r="F60" t="str">
+        <v>Look up to somebody</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>575c63cd-6cd4-43a1-b29d-d6b8960530e0</v>
+      </c>
+      <c r="B61">
+        <v>27</v>
+      </c>
+      <c r="C61" t="str">
+        <v>Đáp ứng tiêu chuẩn</v>
+      </c>
+      <c r="D61" t="str">
+        <v>Live up to</v>
+      </c>
+      <c r="E61" t="str">
+        <v>He lived up to my parent's expectations</v>
+      </c>
+      <c r="F61" t="str">
+        <v>Live up to my parent's expectations</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>fb90b861-646a-4dd4-b647-a4cc017bc8aa</v>
+      </c>
+      <c r="B62">
+        <v>28</v>
+      </c>
+      <c r="C62" t="str">
+        <v>Buổi hòa nhạc</v>
+      </c>
+      <c r="D62" t="str">
+        <v>Concert</v>
+      </c>
+      <c r="E62" t="str">
+        <v>Let's go to a concert tonight!</v>
+      </c>
+      <c r="F62" t="str">
+        <v>Go to a concert</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>cbb60ea8-e319-4ef2-a23f-3d0a72e8a76d</v>
+      </c>
+      <c r="B63">
+        <v>28</v>
+      </c>
+      <c r="C63" t="str">
+        <v>Trò xếp hình, trò giải đố</v>
+      </c>
+      <c r="D63" t="str">
+        <v>Puzzle</v>
+      </c>
+      <c r="E63" t="str">
+        <v>Crassword puzzles are for everyone to play</v>
+      </c>
+      <c r="F63" t="str">
+        <v>A crossword puzzle</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>6567b1a7-ce1d-4054-873f-8febe4c8c136</v>
+      </c>
+      <c r="B64">
+        <v>28</v>
+      </c>
+      <c r="C64" t="str">
+        <v>Đoán</v>
+      </c>
+      <c r="D64" t="str">
+        <v>Guess</v>
+      </c>
+      <c r="E64" t="str">
+        <v>Can you guess my age</v>
+      </c>
+      <c r="F64" t="str">
+        <v>Guess something</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>f0d6988c-f4a0-484b-b07f-71769fed5a9d</v>
+      </c>
+      <c r="B65">
+        <v>28</v>
+      </c>
+      <c r="C65" t="str">
+        <v>Tin Tường</v>
+      </c>
+      <c r="D65" t="str">
+        <v>Keen</v>
+      </c>
+      <c r="E65" t="str">
+        <v>She has a keen eye for fashion</v>
+      </c>
+      <c r="F65" t="str">
+        <v>A keen eye for something</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>8b0ee883-6437-4353-b875-c394855058aa</v>
+      </c>
+      <c r="B66">
+        <v>28</v>
+      </c>
+      <c r="C66" t="str">
+        <v>Đan</v>
+      </c>
+      <c r="D66" t="str">
+        <v>Knit</v>
+      </c>
+      <c r="E66" t="str">
+        <v>Grandma loves to knit scarves</v>
+      </c>
+      <c r="F66" t="str">
+        <v>Knit something</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>f4140d64-523c-47a1-a31d-a55a487858ad</v>
+      </c>
+      <c r="B67">
+        <v>28</v>
+      </c>
+      <c r="C67" t="str">
+        <v>Tiểu thuyết</v>
+      </c>
+      <c r="D67" t="str">
+        <v>Novel</v>
+      </c>
+      <c r="E67" t="str">
+        <v>The author wrote two best-selling novels</v>
+      </c>
+      <c r="F67" t="str">
+        <v>A best-selling novel</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>e1e7a71f-4e39-419e-a77b-86d1a1e534e9</v>
+      </c>
+      <c r="B68">
+        <v>28</v>
+      </c>
+      <c r="C68" t="str">
+        <v>Bộ sưu tập</v>
+      </c>
+      <c r="D68" t="str">
+        <v>Collection</v>
+      </c>
+      <c r="E68" t="str">
+        <v>He has a collection of vinyl records</v>
+      </c>
+      <c r="F68" t="str">
+        <v>Collection of something</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>7ec6e054-a925-4b6d-868e-7edae103be2d</v>
+      </c>
+      <c r="B69">
+        <v>28</v>
+      </c>
+      <c r="C69" t="str">
+        <v>Chèo thuyền</v>
+      </c>
+      <c r="D69" t="str">
+        <v>Sail</v>
+      </c>
+      <c r="E69" t="str">
+        <v>Can we sail a boat tomorrow?</v>
+      </c>
+      <c r="F69" t="str">
+        <v>Sail a boat</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>baac48ef-2267-4932-b04b-f8b85153bcf8</v>
+      </c>
+      <c r="B70">
+        <v>28</v>
+      </c>
+      <c r="C70" t="str">
+        <v>Có hứng thú</v>
+      </c>
+      <c r="D70" t="str">
+        <v>Interested</v>
+      </c>
+      <c r="E70" t="str">
+        <v>Are you interested in the arts?</v>
+      </c>
+      <c r="F70" t="str">
+        <v>Interested in something or somebody</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>b3a79e76-a9ed-453a-affb-d11df6cb336e</v>
+      </c>
+      <c r="B71">
+        <v>28</v>
+      </c>
+      <c r="C71" t="str">
+        <v>Nhiếp ảnh</v>
+      </c>
+      <c r="D71" t="str">
+        <v>Photography</v>
+      </c>
+      <c r="E71" t="str">
+        <v>The artist mainly does digital photography</v>
+      </c>
+      <c r="F71" t="str">
+        <v>Digital photography</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>74975ac4-5195-4360-a509-f8abcd51c71d</v>
+      </c>
+      <c r="B72">
+        <v>28</v>
+      </c>
+      <c r="C72" t="str">
+        <v>Hướng dẫn cách làm</v>
+      </c>
+      <c r="D72" t="str">
+        <v>Tutorial</v>
+      </c>
+      <c r="E72" t="str">
+        <v>Check out her step-by-step tutorial on makeup</v>
+      </c>
+      <c r="F72" t="str">
+        <v>Step-by-Step tutorial</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>8af0b848-c984-475f-af71-c73c9cf77b8b</v>
+      </c>
+      <c r="B73">
+        <v>28</v>
+      </c>
+      <c r="C73" t="str">
+        <v>Nhật ký bằng video</v>
+      </c>
+      <c r="D73" t="str">
+        <v>Vlogs</v>
+      </c>
+      <c r="E73" t="str">
+        <v/>
+      </c>
+      <c r="F73" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>b631dad9-b82c-47b5-b18e-a505891c7e86</v>
+      </c>
+      <c r="B74">
+        <v>28</v>
+      </c>
+      <c r="C74" t="str">
+        <v>Đội, nhóm</v>
+      </c>
+      <c r="D74" t="str">
+        <v>Team</v>
+      </c>
+      <c r="E74" t="str">
+        <v>The soccer team won 5-1</v>
+      </c>
+      <c r="F74" t="str">
+        <v>A soccer team</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>d7be64cc-0840-44db-9e09-27cf029efff2</v>
+      </c>
+      <c r="B75">
+        <v>28</v>
+      </c>
+      <c r="C75" t="str">
+        <v>Thử</v>
+      </c>
+      <c r="D75" t="str">
+        <v>Try out</v>
+      </c>
+      <c r="E75" t="str">
+        <v>Would you try out a new method of cooking?</v>
+      </c>
+      <c r="F75" t="str">
+        <v>Try out a new method</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>7c51af5a-2c08-40d7-9b59-971579e83fcd</v>
+      </c>
+      <c r="B76">
+        <v>28</v>
+      </c>
+      <c r="C76" t="str">
+        <v>Tham gia</v>
+      </c>
+      <c r="D76" t="str">
+        <v>Participate</v>
+      </c>
+      <c r="E76" t="str">
+        <v>Please participate more in class</v>
+      </c>
+      <c r="F76" t="str">
+        <v>Participate in something</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>f9d5999c-a156-41b9-800c-a7802ca98ea5</v>
+      </c>
+      <c r="B77">
+        <v>28</v>
+      </c>
+      <c r="C77" t="str">
+        <v>Chương trình</v>
+      </c>
+      <c r="D77" t="str">
+        <v>Program</v>
+      </c>
+      <c r="E77" t="str">
+        <v>She works for a news program</v>
+      </c>
+      <c r="F77" t="str">
+        <v>A news program</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>c8a1854a-ae84-41f5-a5d4-a1d0aa910d2c</v>
+      </c>
+      <c r="B78">
+        <v>28</v>
+      </c>
+      <c r="C78" t="str">
+        <v>Hoạt hình</v>
+      </c>
+      <c r="D78" t="str">
+        <v>Cartoon</v>
+      </c>
+      <c r="E78" t="str">
+        <v>Mickey mouse is a walt disney cartoon</v>
+      </c>
+      <c r="F78" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>e3abb703-a37a-4308-96b6-b20859e2a6aa</v>
+      </c>
+      <c r="B79">
+        <v>28</v>
+      </c>
+      <c r="C79" t="str">
+        <v>Thể loại</v>
+      </c>
+      <c r="D79" t="str">
+        <v>Genre</v>
+      </c>
+      <c r="E79" t="str">
+        <v>What music genre do you listen to?</v>
+      </c>
+      <c r="F79" t="str">
+        <v>Music genre</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>dfa9fc23-b0d1-4e81-865b-13d53416db11</v>
+      </c>
+      <c r="B80">
+        <v>28</v>
+      </c>
+      <c r="C80" t="str">
+        <v>Phim hài</v>
+      </c>
+      <c r="D80" t="str">
+        <v>Comedy</v>
+      </c>
+      <c r="E80" t="str">
+        <v>My friend loves watching remoantic comedies</v>
+      </c>
+      <c r="F80" t="str">
+        <v>A romantic comedy</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>e9792faa-117f-408c-8aa4-bb141f602092</v>
+      </c>
+      <c r="B81">
+        <v>28</v>
+      </c>
+      <c r="C81" t="str">
+        <v>Trèo</v>
+      </c>
+      <c r="D81" t="str">
+        <v>Climb</v>
+      </c>
+      <c r="E81" t="str">
+        <v>The cat climbed up the tree</v>
+      </c>
+      <c r="F81" t="str">
+        <v>Climb up something</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>9c9784a3-bc25-46fe-99fb-cb54224c9f86</v>
+      </c>
+      <c r="B82">
+        <v>28</v>
+      </c>
+      <c r="C82" t="str">
+        <v>Sự thích thú, niềm vui</v>
+      </c>
+      <c r="D82" t="str">
+        <v>Pleasure</v>
+      </c>
+      <c r="E82" t="str">
+        <v>The kids find pleasure in singing</v>
+      </c>
+      <c r="F82" t="str">
+        <v>Take or find pleasure in doing something</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>6842266a-c5ab-4119-a535-872c36da4757</v>
+      </c>
+      <c r="B83">
+        <v>28</v>
+      </c>
+      <c r="C83" t="str">
+        <v>Trong nhà</v>
+      </c>
+      <c r="D83" t="str">
+        <v>Indoor</v>
+      </c>
+      <c r="E83" t="str">
+        <v>The hotel's indoor swimming pool is huge!</v>
+      </c>
+      <c r="F83" t="str">
+        <v>An indoor swimming pool</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>d2a15da2-9ea7-48ec-ac1c-31958d2a9169</v>
+      </c>
+      <c r="B84">
+        <v>28</v>
+      </c>
+      <c r="C84" t="str">
+        <v>Chuyến nghỉ dưỡng, kỳ nghỉ</v>
+      </c>
+      <c r="D84" t="str">
+        <v>Holiday</v>
+      </c>
+      <c r="E84" t="str">
+        <v>I do not work on holiday</v>
+      </c>
+      <c r="F84" t="str">
+        <v>On holiday</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>2c2dbe0d-943c-43ab-ba45-c532ffa886ae</v>
+      </c>
+      <c r="B85">
+        <v>28</v>
+      </c>
+      <c r="C85" t="str">
+        <v>Chuyến đi</v>
+      </c>
+      <c r="D85" t="str">
+        <v>Ride</v>
+      </c>
+      <c r="E85" t="str">
+        <v>We are in for a bumpy ride</v>
+      </c>
+      <c r="F85" t="str">
+        <v>A bumpy ride</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>41542f1d-741d-4a47-8a81-a1d09a9a966b</v>
+      </c>
+      <c r="B86">
+        <v>28</v>
+      </c>
+      <c r="C86" t="str">
+        <v>Có ý nghĩa</v>
+      </c>
+      <c r="D86" t="str">
+        <v>Meaningful</v>
+      </c>
+      <c r="E86" t="str">
+        <v>I strive to do meaningful work</v>
+      </c>
+      <c r="F86" t="str">
+        <v>Meaningful work</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>6e66b3ef-3ec5-4743-9860-7418a93dce27</v>
+      </c>
+      <c r="B87">
+        <v>28</v>
+      </c>
+      <c r="C87" t="str">
+        <v>Việc cấm trại</v>
+      </c>
+      <c r="D87" t="str">
+        <v>Camping</v>
+      </c>
+      <c r="E87" t="str">
+        <v>We are going on a camping trip</v>
+      </c>
+      <c r="F87" t="str">
+        <v>A camping trip</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>1188e571-d666-4bf9-81ee-46334eabd388</v>
+      </c>
+      <c r="B88">
+        <v>28</v>
+      </c>
+      <c r="C88" t="str">
+        <v>Hợp tác</v>
+      </c>
+      <c r="D88" t="str">
+        <v>Cooperate</v>
+      </c>
+      <c r="E88" t="str">
+        <v>You have to cooperate with here</v>
+      </c>
+      <c r="F88" t="str">
+        <v>Cooperate with something or somebody</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>c8f79e81-dc8c-4f22-805d-0f1945deadcd</v>
+      </c>
+      <c r="B89">
+        <v>28</v>
+      </c>
+      <c r="C89" t="str">
+        <v>Lều</v>
+      </c>
+      <c r="D89" t="str">
+        <v>Tent</v>
+      </c>
+      <c r="E89" t="str">
+        <v>Please put up the tent for me</v>
+      </c>
+      <c r="F89" t="str">
+        <v>Put up a tent</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>df9891a5-2a7a-4754-91d7-ff7fffc40477</v>
+      </c>
+      <c r="B90">
+        <v>28</v>
+      </c>
+      <c r="C90" t="str">
+        <v>Hứng thú với</v>
+      </c>
+      <c r="D90" t="str">
+        <v>Go in for</v>
+      </c>
+      <c r="E90" t="str">
+        <v>My sister decides to go in for a debate competition</v>
+      </c>
+      <c r="F90" t="str">
+        <v>Go in for a competition</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>f1186873-4969-486d-bd89-9a0695b5388f</v>
+      </c>
+      <c r="B91">
+        <v>28</v>
+      </c>
+      <c r="C91" t="str">
+        <v>Thích hơn</v>
+      </c>
+      <c r="D91" t="str">
+        <v>Prefer</v>
+      </c>
+      <c r="E91" t="str">
+        <v>She prefers eating apples to pears</v>
+      </c>
+      <c r="F91" t="str">
+        <v>Prefer something to something</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>a2b1778e-1bde-4f07-8efc-386e9629f6dc</v>
+      </c>
+      <c r="B92">
+        <v>29</v>
+      </c>
+      <c r="C92" t="str">
+        <v>Câu cá</v>
+      </c>
+      <c r="D92" t="str">
+        <v>Fishing</v>
+      </c>
+      <c r="E92" t="str">
+        <v>My dad and I go fishing every day</v>
+      </c>
+      <c r="F92" t="str">
+        <v>Go fishing</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>cf990805-78a4-450b-9080-8d1407d56334</v>
+      </c>
+      <c r="B93">
+        <v>29</v>
+      </c>
+      <c r="C93" t="str">
+        <v>Vận động viên</v>
+      </c>
+      <c r="D93" t="str">
+        <v>Athlete</v>
+      </c>
+      <c r="E93" t="str">
+        <v>Olumpic athletes train hard to complete</v>
+      </c>
+      <c r="F93" t="str">
+        <v>An Olympic athlete</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>b6a3f27f-b5f1-4f59-a13a-5a3b1d198402</v>
+      </c>
+      <c r="B94">
+        <v>29</v>
+      </c>
+      <c r="C94" t="str">
+        <v>Môn đấu vật</v>
+      </c>
+      <c r="D94" t="str">
+        <v>Wrestling</v>
+      </c>
+      <c r="E94" t="str">
+        <v>Wrestling matches are popular in the US</v>
+      </c>
+      <c r="F94" t="str">
+        <v>A wrestling match</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>f903164f-992c-4ff7-bdd0-9796bb39e5eb</v>
+      </c>
+      <c r="B95">
+        <v>29</v>
+      </c>
+      <c r="C95" t="str">
+        <v>Chuyên nghiệp</v>
+      </c>
+      <c r="D95" t="str">
+        <v>Professional</v>
+      </c>
+      <c r="E95" t="str">
+        <v>He was a professional soccer player</v>
+      </c>
+      <c r="F95" t="str">
+        <v>A professional soccer player</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>f38ea113-6eed-41a7-864c-9fd8eb997c46</v>
+      </c>
+      <c r="B96">
+        <v>29</v>
+      </c>
+      <c r="C96" t="str">
+        <v>Hàng năm</v>
+      </c>
+      <c r="D96" t="str">
+        <v>Annual</v>
+      </c>
+      <c r="E96" t="str">
+        <v>The company has annual meetings for us</v>
+      </c>
+      <c r="F96" t="str">
+        <v>An annual meeting</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>cec821bf-15bc-4c73-85e6-328b2b004fd1</v>
+      </c>
+      <c r="B97">
+        <v>29</v>
+      </c>
+      <c r="C97" t="str">
+        <v>Giải đấu</v>
+      </c>
+      <c r="D97" t="str">
+        <v>Tournament</v>
+      </c>
+      <c r="E97" t="str">
+        <v>What an exciting soccer tournament!</v>
+      </c>
+      <c r="F97" t="str">
+        <v>A soccer tournament</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>ddae4d17-2487-4c91-b15b-62ec664e7e93</v>
+      </c>
+      <c r="B98">
+        <v>29</v>
+      </c>
+      <c r="C98" t="str">
+        <v>Huấn luyện viên</v>
+      </c>
+      <c r="D98" t="str">
+        <v>Coach</v>
+      </c>
+      <c r="E98" t="str">
+        <v>The team coach trains us hard</v>
+      </c>
+      <c r="F98" t="str">
+        <v>The team coach</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>9c573cff-4ddd-4aec-83ca-2f88d870993e</v>
+      </c>
+      <c r="B99">
+        <v>29</v>
+      </c>
+      <c r="C99" t="str">
+        <v>Trận đấu</v>
+      </c>
+      <c r="D99" t="str">
+        <v>Match</v>
+      </c>
+      <c r="E99" t="str">
+        <v>There is a soccer match tonight</v>
+      </c>
+      <c r="F99" t="str">
+        <v>A soccer match</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>dd72f5c5-8548-436c-bd33-79ddb20c7437</v>
+      </c>
+      <c r="B100">
+        <v>29</v>
+      </c>
+      <c r="C100" t="str">
+        <v>Đánh bại</v>
+      </c>
+      <c r="D100" t="str">
+        <v>Beat</v>
+      </c>
+      <c r="E100" t="str">
+        <v>They beat their opponents in the first round</v>
+      </c>
+      <c r="F100" t="str">
+        <v>Beat something or somebody</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>b1892029-56ff-4cbe-984a-c7dab29a9977</v>
+      </c>
+      <c r="B101">
+        <v>29</v>
+      </c>
+      <c r="C101" t="str">
+        <v>Đối thủ</v>
+      </c>
+      <c r="D101" t="str">
+        <v>Opponent</v>
+      </c>
+      <c r="E101" t="str">
+        <v>She is my opponent in chess</v>
+      </c>
+      <c r="F101" t="str">
+        <v>One's oppponent in something</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>1e190ed8-33a8-4e71-b7b2-fa84c7c02941</v>
+      </c>
+      <c r="B102">
+        <v>29</v>
+      </c>
+      <c r="C102" t="str">
+        <v>Môn thể thao</v>
+      </c>
+      <c r="D102" t="str">
+        <v>Athletics</v>
+      </c>
+      <c r="E102" t="str">
+        <v>Football, soccer, and baseball are types of atheletics</v>
+      </c>
+      <c r="F102" t="str">
+        <v>Types of athletics</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>d38353fc-5f4f-472c-ac04-668987f0a4a7</v>
+      </c>
+      <c r="B103">
+        <v>29</v>
+      </c>
+      <c r="C103" t="str">
+        <v>Bóng rỗ</v>
+      </c>
+      <c r="D103" t="str">
+        <v>Basketball</v>
+      </c>
+      <c r="E103" t="str">
+        <v>I am the captain of the basketball team</v>
+      </c>
+      <c r="F103" t="str">
+        <v>A basketball team</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>ef65ce51-588d-4574-aabf-54d79f5fccc8</v>
+      </c>
+      <c r="B104">
+        <v>29</v>
+      </c>
+      <c r="C104" t="str">
+        <v>Người chơi</v>
+      </c>
+      <c r="D104" t="str">
+        <v>Player</v>
+      </c>
+      <c r="E104" t="str">
+        <v>He is the best soccer player here</v>
+      </c>
+      <c r="F104" t="str">
+        <v>A soccer player</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>b7c13a10-8f6b-4bc0-adf4-4efd66aa87fc</v>
+      </c>
+      <c r="B105">
+        <v>29</v>
+      </c>
+      <c r="C105" t="str">
+        <v xml:space="preserve">Liên đoàn </v>
+      </c>
+      <c r="D105" t="str">
+        <v>League</v>
+      </c>
+      <c r="E105" t="str">
+        <v>My sone plays for a soccer league</v>
+      </c>
+      <c r="F105" t="str">
+        <v>A soccer league</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>cbf03296-0921-4040-90d4-199fd9d5c23b</v>
+      </c>
+      <c r="B106">
+        <v>29</v>
+      </c>
+      <c r="C106" t="str">
+        <v>Giải vô địch</v>
+      </c>
+      <c r="D106" t="str">
+        <v>Championship</v>
+      </c>
+      <c r="E106" t="str">
+        <v>Are you ready for the basketball championship</v>
+      </c>
+      <c r="F106" t="str">
+        <v>A basketball championship</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>5029497b-8c66-41b8-8d0a-4bfe381c4286</v>
+      </c>
+      <c r="B107">
+        <v>29</v>
+      </c>
+      <c r="C107" t="str">
+        <v>Đội trưởng</v>
+      </c>
+      <c r="D107" t="str">
+        <v>Captain</v>
+      </c>
+      <c r="E107" t="str">
+        <v>We vote for a team camtain</v>
+      </c>
+      <c r="F107" t="str">
+        <v>Team captain</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>c2fb9123-f320-4cc1-a7fa-d38da99a5fc1</v>
+      </c>
+      <c r="B108">
+        <v>29</v>
+      </c>
+      <c r="C108" t="str">
+        <v>Ghi điểm</v>
+      </c>
+      <c r="D108" t="str">
+        <v>Score</v>
+      </c>
+      <c r="E108" t="str">
+        <v>He scored a goal for the team</v>
+      </c>
+      <c r="F108" t="str">
+        <v>Score a goal</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>a52a7a35-9823-4ea9-87c9-6dec37ecf622</v>
+      </c>
+      <c r="B109">
+        <v>29</v>
+      </c>
+      <c r="C109" t="str">
+        <v>Danh hiệu</v>
+      </c>
+      <c r="D109" t="str">
+        <v>Title</v>
+      </c>
+      <c r="E109" t="str">
+        <v>The team won the title with a goal in the last minute</v>
+      </c>
+      <c r="F109" t="str">
+        <v>Win the title</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>916d379b-cba3-40d9-a67f-a71d48b74a2f</v>
+      </c>
+      <c r="B110">
+        <v>29</v>
+      </c>
+      <c r="C110" t="str">
+        <v>Lưới</v>
+      </c>
+      <c r="D110" t="str">
+        <v>Net</v>
+      </c>
+      <c r="E110" t="str">
+        <v>The fishing net has holes in it</v>
+      </c>
+      <c r="F110" t="str">
+        <v>A fishing net</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>463b16e3-432e-446b-bea0-a0f2b3da5f06</v>
+      </c>
+      <c r="B111">
+        <v>29</v>
+      </c>
+      <c r="C111" t="str">
+        <v>Anh hùng</v>
+      </c>
+      <c r="D111" t="str">
+        <v>Hero</v>
+      </c>
+      <c r="E111" t="str">
+        <v>The fireman became a local hero</v>
+      </c>
+      <c r="F111" t="str">
+        <v>A local hero</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>39de71b0-d5b5-48c9-8f4d-95b2e2f50af6</v>
+      </c>
+      <c r="B112">
+        <v>29</v>
+      </c>
+      <c r="C112" t="str">
+        <v>Môn đạp xe</v>
+      </c>
+      <c r="D112" t="str">
+        <v>Cycling</v>
+      </c>
+      <c r="E112" t="str">
+        <v>She went cycling down the hill</v>
+      </c>
+      <c r="F112" t="str">
+        <v>Go cycling</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>aae25fe9-c463-44f6-8403-64b3ab4901df</v>
+      </c>
+      <c r="B113">
+        <v>29</v>
+      </c>
+      <c r="C113" t="str">
+        <v>Sân vận động</v>
+      </c>
+      <c r="D113" t="str">
+        <v>Stadium</v>
+      </c>
+      <c r="E113" t="str">
+        <v>Where is the biggest sports stadium in hanoi</v>
+      </c>
+      <c r="F113" t="str">
+        <v>A sport stadium</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>a8bd58e5-0590-4ebb-9b28-1b10efe4f691</v>
+      </c>
+      <c r="B114">
+        <v>29</v>
+      </c>
+      <c r="C114" t="str">
+        <v>Người thắng cuộc</v>
+      </c>
+      <c r="D114" t="str">
+        <v>Winner</v>
+      </c>
+      <c r="E114" t="str">
+        <v>The actor is an award winner</v>
+      </c>
+      <c r="F114" t="str">
+        <v>An award winer</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>b553acc6-a0c9-417a-b2d9-d77e5fd33909</v>
+      </c>
+      <c r="B115">
+        <v>29</v>
+      </c>
+      <c r="C115" t="str">
+        <v>Môn đánh golf</v>
+      </c>
+      <c r="D115" t="str">
+        <v>Golf</v>
+      </c>
+      <c r="E115" t="str">
+        <v>Businessmen love to play golf</v>
+      </c>
+      <c r="F115" t="str">
+        <v>Play golf</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>c9b2d631-4c95-4cbf-b5c6-51760a9800c8</v>
+      </c>
+      <c r="B116">
+        <v>29</v>
+      </c>
+      <c r="C116" t="str">
+        <v>Đánh</v>
+      </c>
+      <c r="D116" t="str">
+        <v>Strike</v>
+      </c>
+      <c r="E116" t="str">
+        <v>He strikes the golf ball perfectly</v>
+      </c>
+      <c r="F116" t="str">
+        <v>Strike the ball</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>6c846374-0b04-4261-a1fc-abb952bde9d0</v>
+      </c>
+      <c r="B117">
+        <v>29</v>
+      </c>
+      <c r="C117" t="str">
+        <v>Đích, mục tiêu</v>
+      </c>
+      <c r="D117" t="str">
+        <v>Target</v>
+      </c>
+      <c r="E117" t="str">
+        <v>He shot the arrow and hit the target</v>
+      </c>
+      <c r="F117" t="str">
+        <v>Hit the target</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>7c39a7bf-0223-4d67-bf19-bc70d6260a4c</v>
+      </c>
+      <c r="B118">
+        <v>29</v>
+      </c>
+      <c r="C118" t="str">
+        <v>Tối đa</v>
+      </c>
+      <c r="D118" t="str">
+        <v>Maximum</v>
+      </c>
+      <c r="E118" t="str">
+        <v>The maximum amount for storage is 256GB</v>
+      </c>
+      <c r="F118" t="str">
+        <v>The maximum amount</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>727a487b-ea11-4357-8b3a-cfd78069fedb</v>
+      </c>
+      <c r="B119">
+        <v>29</v>
+      </c>
+      <c r="C119" t="str">
+        <v>Lướt</v>
+      </c>
+      <c r="D119" t="str">
+        <v>Surf</v>
+      </c>
+      <c r="E119" t="str">
+        <v>In hawaii, you must surf the waves</v>
+      </c>
+      <c r="F119" t="str">
+        <v>Surf the wave</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>86cb971a-bdd1-45d0-9169-17ef0fb2990e</v>
+      </c>
+      <c r="B120">
+        <v>29</v>
+      </c>
+      <c r="C120" t="str">
+        <v>Không may</v>
+      </c>
+      <c r="D120" t="str">
+        <v>Unfortunately</v>
+      </c>
+      <c r="E120" t="str">
+        <v>Unfortunately, I won't be able to attend the meeting</v>
+      </c>
+      <c r="F120" t="str">
+        <v>Unfortunately, I won't</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>2805d4a5-2450-4193-92b7-19d2357bd4d9</v>
+      </c>
+      <c r="B121">
+        <v>29</v>
+      </c>
+      <c r="C121" t="str">
+        <v>Trân trọng, đánh giá cao</v>
+      </c>
+      <c r="D121" t="str">
+        <v>Appreciate</v>
+      </c>
+      <c r="E121" t="str">
+        <v>I appreciate the help you gave me</v>
+      </c>
+      <c r="F121" t="str">
+        <v>Appreciate somebody or something</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:F121"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/data/WordStudy.xlsx
+++ b/data/WordStudy.xlsx
@@ -7,6 +7,7 @@
     <sheet name="Update_ea9e" sheetId="2" r:id="rId2"/>
     <sheet name="Update_3987" sheetId="3" r:id="rId3"/>
     <sheet name="Update_da6e" sheetId="4" r:id="rId4"/>
+    <sheet name="Update_b82e" sheetId="5" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
@@ -9648,4 +9649,2438 @@
     <ignoredError numberStoredAsText="1" sqref="A1:F121"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F121"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>unitId</v>
+      </c>
+      <c r="C1" t="str">
+        <v>word</v>
+      </c>
+      <c r="D1" t="str">
+        <v>answers</v>
+      </c>
+      <c r="E1" t="str">
+        <v>sentences</v>
+      </c>
+      <c r="F1" t="str">
+        <v>phrases</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>2855e402-1dfa-4dc2-8840-cebd848fa19c</v>
+      </c>
+      <c r="B2">
+        <v>26</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Chương trình</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Show</v>
+      </c>
+      <c r="E2" t="str">
+        <v>I watch TV shows on my television</v>
+      </c>
+      <c r="F2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>d90b062b-c464-4c5c-bf4d-2d250fee42b4</v>
+      </c>
+      <c r="B3">
+        <v>26</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Cảnh</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Scene</v>
+      </c>
+      <c r="E3" t="str">
+        <v>The crew needs to film a scene</v>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>d670b0d5-a0f9-4e3d-be7e-7539b709f4bf</v>
+      </c>
+      <c r="B4">
+        <v>26</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Nam diễn viên</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Actor</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Who is the lead actor in titanic</v>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>0b08724a-3034-4e5c-9eed-a809189bff3a</v>
+      </c>
+      <c r="B5">
+        <v>26</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Thuộc âm nhạc</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Musical</v>
+      </c>
+      <c r="E5" t="str">
+        <v xml:space="preserve">The audience loved the musical performance </v>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>4152b846-3f6e-4b76-b48c-320c8d9bf98d</v>
+      </c>
+      <c r="B6">
+        <v>26</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Nhạc phim</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Soundtrack</v>
+      </c>
+      <c r="E6" t="str">
+        <v>The soundtrack of this movie is great</v>
+      </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>f9c612cb-22a0-4f9d-a949-c179e45f0655</v>
+      </c>
+      <c r="B7">
+        <v>26</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Thuộc lịch sử</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Historical</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Albert Einstein is an important historical figure</v>
+      </c>
+      <c r="F7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>53af5326-467e-4e15-a189-ec4723760626</v>
+      </c>
+      <c r="B8">
+        <v>26</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Bí ẩn</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Mystery</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Nobody can solve the mystery of the Bermuda triangle</v>
+      </c>
+      <c r="F8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>faab9a2e-d127-4a38-abf1-879e33beef60</v>
+      </c>
+      <c r="B9">
+        <v>26</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Tội ác</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Crime</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Stealing money is a serious crime</v>
+      </c>
+      <c r="F9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>da3b1816-173a-4493-ad15-7beb97e72ba5</v>
+      </c>
+      <c r="B10">
+        <v>26</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Đoạn kết</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Ending</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Fairy tales have happy endings</v>
+      </c>
+      <c r="F10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>e98b5079-2952-47db-afac-31e8e8b2ded1</v>
+      </c>
+      <c r="B11">
+        <v>26</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Tiết lộ</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Reveal</v>
+      </c>
+      <c r="E11" t="str">
+        <v>The magician never reveals the truth</v>
+      </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>6834a067-2935-4767-b07e-7e28c2af50bc</v>
+      </c>
+      <c r="B12">
+        <v>26</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Phim giật gân</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Thriller</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Thriller movies are scary</v>
+      </c>
+      <c r="F12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>eec73fe0-6f13-4d23-b16e-304b453fd1eb</v>
+      </c>
+      <c r="B13">
+        <v>26</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Xưởng, không gian sáng tạo</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Studio</v>
+      </c>
+      <c r="E13" t="str">
+        <v>She teaches us at her dance studio</v>
+      </c>
+      <c r="F13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>d82e9755-cb4a-4e76-b2d1-c22e9bbd3e4a</v>
+      </c>
+      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Bối cảnh, khung cảnh</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Setting</v>
+      </c>
+      <c r="E14" t="str">
+        <v xml:space="preserve">What a beautiful setting this city is </v>
+      </c>
+      <c r="F14" t="str">
+        <v>A beautiful setting</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>80af4f65-e319-4276-abc7-c4b93cfb684f</v>
+      </c>
+      <c r="B15">
+        <v>26</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Điều viễn tưởng</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Fiction</v>
+      </c>
+      <c r="E15" t="str">
+        <v>She wrote fiction on aliens and love</v>
+      </c>
+      <c r="F15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>66eb9a3b-e5cf-4572-af26-c0ced46a6a41</v>
+      </c>
+      <c r="B16">
+        <v>26</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Sự việc kịch tính</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Drama</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Teens like to watch drama series</v>
+      </c>
+      <c r="F16" t="str">
+        <v>A drama series</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>6d66f4e3-1575-453b-9c56-b2e35ae6f572</v>
+      </c>
+      <c r="B17">
+        <v>26</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Đạo diễn</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Director</v>
+      </c>
+      <c r="E17" t="str">
+        <v>The young film director deserves our recognition</v>
+      </c>
+      <c r="F17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>c61cf54e-76e9-4c4f-a546-be16ad5e5bcf</v>
+      </c>
+      <c r="B18">
+        <v>26</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Ra mắt</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Come out</v>
+      </c>
+      <c r="E18" t="str">
+        <v>When is her album coming out?</v>
+      </c>
+      <c r="F18" t="str">
+        <v>Something new comes out</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>75d97f77-6607-497c-a34c-c08e4276bc76</v>
+      </c>
+      <c r="B19">
+        <v>26</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Nhân vật</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Character</v>
+      </c>
+      <c r="E19" t="str">
+        <v>The main character in "Batman" is mysterious</v>
+      </c>
+      <c r="F19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>e2745e17-f355-4999-984f-246339ace9e7</v>
+      </c>
+      <c r="B20">
+        <v>26</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Nữ diễn viên</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Actress</v>
+      </c>
+      <c r="E20" t="str">
+        <v>She was a good actress back then</v>
+      </c>
+      <c r="F20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>d883b560-e598-4399-b67a-fbd255f88070</v>
+      </c>
+      <c r="B21">
+        <v>26</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Kỳ lạ, kỳ quặc</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Odd</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Hanging out with odd people is fun</v>
+      </c>
+      <c r="F21" t="str">
+        <v>An odd person</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>861042fb-7382-4b86-b5dc-6f8a0f267c2b</v>
+      </c>
+      <c r="B22">
+        <v>26</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Màn hình</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Screen</v>
+      </c>
+      <c r="E22" t="str">
+        <v>The laptop has a big computer screen</v>
+      </c>
+      <c r="F22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>2c327c19-447e-45c6-8278-14aa65293f96</v>
+      </c>
+      <c r="B23">
+        <v>26</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Hành động</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Action</v>
+      </c>
+      <c r="E23" t="str">
+        <v>My favorite action movie is Fast and Furious</v>
+      </c>
+      <c r="F23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>1c7e5e1d-737d-4a0f-9124-6e6415aaab50</v>
+      </c>
+      <c r="B24">
+        <v>26</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Chuyến phiêu lưu</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Adventure</v>
+      </c>
+      <c r="E24" t="str">
+        <v>I seek an adventure of a lifetime</v>
+      </c>
+      <c r="F24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>046efda8-e3b4-4698-a754-cacebf1c90e0</v>
+      </c>
+      <c r="B25">
+        <v>26</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Phim tài liệu</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Documentary</v>
+      </c>
+      <c r="E25" t="str">
+        <v>I watched that documentary film on Netflix</v>
+      </c>
+      <c r="F25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>7040324e-e5a2-44f4-9535-b2cc9cbdb924</v>
+      </c>
+      <c r="B26">
+        <v>26</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Góc</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Angle</v>
+      </c>
+      <c r="E26" t="str">
+        <v>Tilt your head to a 45 angle</v>
+      </c>
+      <c r="F26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>988a2983-945c-4cf0-ba48-152e92f249c4</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Thấy khó hiểu</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Confused</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Are you confused about the instructions?</v>
+      </c>
+      <c r="F27" t="str">
+        <v>Confused about something</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>928cac87-df35-4693-90eb-0b7ac9ba4f7c</v>
+      </c>
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Cuộc hội thoại, lời thoại</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Dialogue</v>
+      </c>
+      <c r="E28" t="str">
+        <v>The dialogue with my therapist helped me</v>
+      </c>
+      <c r="F28" t="str">
+        <v>Dialogue with somebody</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>470241db-5ef4-4605-923a-0f067329f20f</v>
+      </c>
+      <c r="B29">
+        <v>26</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Tác phẩm thành công</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Hit</v>
+      </c>
+      <c r="E29" t="str">
+        <v>His book became a big hit</v>
+      </c>
+      <c r="F29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>972036e4-0ba9-4393-b01e-adb398bcbf0c</v>
+      </c>
+      <c r="B30">
+        <v>26</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Tuyệt vời</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Wonderful</v>
+      </c>
+      <c r="E30" t="str">
+        <v>I am grateful for the wonderful opportunity</v>
+      </c>
+      <c r="F30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>fefbe098-b8f8-40ef-87d2-ea757ae401e2</v>
+      </c>
+      <c r="B31">
+        <v>26</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Tài giỏi, tuyệt vời</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Brilliant</v>
+      </c>
+      <c r="E31" t="str">
+        <v>Thank you for the brilliant idea</v>
+      </c>
+      <c r="F31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>7ced7a2e-75de-4804-ac90-20e3e958d965</v>
+      </c>
+      <c r="B32">
+        <v>27</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Khiêm tốn</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Modest</v>
+      </c>
+      <c r="E32" t="str">
+        <v>You are too modest! You are gifted.</v>
+      </c>
+      <c r="F32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>4b5d71f1-69c8-4d40-917c-56ed60fa341a</v>
+      </c>
+      <c r="B33">
+        <v>27</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Có năng khiếu</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Gifted</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Do you consider yourself a gifted musican?</v>
+      </c>
+      <c r="F33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>f249b615-9ce7-490b-aeb1-e7fb50956f75</v>
+      </c>
+      <c r="B34">
+        <v>27</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Ngành giải trí</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Showbiz</v>
+      </c>
+      <c r="E34" t="str">
+        <v>People in showbiz are movie stars</v>
+      </c>
+      <c r="F34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>33645007-d97b-4e05-9fbb-18ce6453df08</v>
+      </c>
+      <c r="B35">
+        <v>27</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Kênh</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Channel</v>
+      </c>
+      <c r="E35" t="str">
+        <v>The show is live on the VTV3 channel</v>
+      </c>
+      <c r="F35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>c1f5fd98-6823-4cd2-8332-437b40d1cdbb</v>
+      </c>
+      <c r="B36">
+        <v>27</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Truyền thông</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Media</v>
+      </c>
+      <c r="E36" t="str">
+        <v>My mom posts so many pictures on social media</v>
+      </c>
+      <c r="F36" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>9e32b63e-6f9b-484a-a3cf-03b2554b0c81</v>
+      </c>
+      <c r="B37">
+        <v>27</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Nổi tiếng</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Well-known</v>
+      </c>
+      <c r="E37" t="str">
+        <v>Is he a well-known actor?</v>
+      </c>
+      <c r="F37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>3af0b7f7-7574-4b56-bf9b-afbdc9d94496</v>
+      </c>
+      <c r="B38">
+        <v>27</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Nhận ra</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Recognize</v>
+      </c>
+      <c r="E38" t="str">
+        <v>Did you recognize me on stage?</v>
+      </c>
+      <c r="F38" t="str">
+        <v>Recognize somebody or something</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>cd2a5828-bdf8-445c-81a1-3926ae9be2da</v>
+      </c>
+      <c r="B39">
+        <v>27</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Người hâm mộ</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Fan</v>
+      </c>
+      <c r="E39" t="str">
+        <v>My girlfriend is a big soccer fan</v>
+      </c>
+      <c r="F39" t="str">
+        <v>A soccer fan</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>123fb41c-f345-498c-a994-9a9b27e98bf8</v>
+      </c>
+      <c r="B40">
+        <v>27</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Đăng ký</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Subscribe</v>
+      </c>
+      <c r="E40" t="str">
+        <v>Please subscribe to step up english youtube channel</v>
+      </c>
+      <c r="F40" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>87d2b191-c73b-403f-96bc-6f392d27e7b2</v>
+      </c>
+      <c r="B41">
+        <v>27</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Hét to</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Sceam</v>
+      </c>
+      <c r="E41" t="str">
+        <v>They screamed out loud for help</v>
+      </c>
+      <c r="F41" t="str">
+        <v>Scream out loud</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>5a4867f1-271f-4ee0-865d-7d7eb2b42d5d</v>
+      </c>
+      <c r="B42">
+        <v>27</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Buồn cười</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Funny</v>
+      </c>
+      <c r="E42" t="str">
+        <v>The funny story made me laugh hard</v>
+      </c>
+      <c r="F42" t="str">
+        <v>A funny story</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>3423a5df-5518-4d10-9006-6b46aef0c92f</v>
+      </c>
+      <c r="B43">
+        <v>27</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Hiện nay</v>
+      </c>
+      <c r="D43" t="str">
+        <v>Currently</v>
+      </c>
+      <c r="E43" t="str">
+        <v>I am currently working as a front-end developer</v>
+      </c>
+      <c r="F43" t="str">
+        <v>Currently working as something</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>dac664bf-4d84-4185-9955-6184e4705180</v>
+      </c>
+      <c r="B44">
+        <v>27</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Lan truyền nhanh</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Viral</v>
+      </c>
+      <c r="E44" t="str">
+        <v>The video went viral on Facebook</v>
+      </c>
+      <c r="F44" t="str">
+        <v>Go viral</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>8d87d414-5e8f-41e4-8024-820fa8e2834f</v>
+      </c>
+      <c r="B45">
+        <v>27</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Màn biểu diễn</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Performance</v>
+      </c>
+      <c r="E45" t="str">
+        <v>The opera singer delivered an outstanding performance</v>
+      </c>
+      <c r="F45" t="str">
+        <v>Deliver an outstanding performance</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>999e1a08-f844-4088-a0eb-d43b316c22f6</v>
+      </c>
+      <c r="B46">
+        <v>27</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Quá khứ</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Past</v>
+      </c>
+      <c r="E46" t="str">
+        <v>I used to live abroad in the past</v>
+      </c>
+      <c r="F46" t="str">
+        <v>In the past</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>f3268128-5bfc-4b77-b848-87fd19d76a2d</v>
+      </c>
+      <c r="B47">
+        <v>27</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Trở nên</v>
+      </c>
+      <c r="D47" t="str">
+        <v>Become</v>
+      </c>
+      <c r="E47" t="str">
+        <v>I want to become a person of influence</v>
+      </c>
+      <c r="F47" t="str">
+        <v>Become somebody or something</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>abf03747-d6bf-4469-9f81-fdf87f96dce3</v>
+      </c>
+      <c r="B48">
+        <v>27</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Toàn cầu</v>
+      </c>
+      <c r="D48" t="str">
+        <v>Global</v>
+      </c>
+      <c r="E48" t="str">
+        <v>The singer's talent made her go global</v>
+      </c>
+      <c r="F48" t="str">
+        <v>Go global</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>cba5a361-0281-4457-a39e-8fff93b461df</v>
+      </c>
+      <c r="B49">
+        <v>27</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Lên tiếng</v>
+      </c>
+      <c r="D49" t="str">
+        <v>Speak out</v>
+      </c>
+      <c r="E49" t="str">
+        <v>She bravely spoke out against her boss</v>
+      </c>
+      <c r="F49" t="str">
+        <v>Speak out against somebody or something</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>ba407704-b048-4ddc-b6ff-92559d5fe029</v>
+      </c>
+      <c r="B50">
+        <v>27</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Xứng đáng</v>
+      </c>
+      <c r="D50" t="str">
+        <v>Deserve</v>
+      </c>
+      <c r="E50" t="str">
+        <v>I deserve ice cream after work</v>
+      </c>
+      <c r="F50" t="str">
+        <v>Deserve something</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>a23819c9-7af3-4246-a061-633cfade115b</v>
+      </c>
+      <c r="B51">
+        <v>27</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Trực tiếp</v>
+      </c>
+      <c r="D51" t="str">
+        <v>Live</v>
+      </c>
+      <c r="E51" t="str">
+        <v>The band did a live performance</v>
+      </c>
+      <c r="F51" t="str">
+        <v>A live performance</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>bacb314f-3d07-4d2c-ad43-ee564b779903</v>
+      </c>
+      <c r="B52">
+        <v>27</v>
+      </c>
+      <c r="C52" t="str">
+        <v>Giải thưởng</v>
+      </c>
+      <c r="D52" t="str">
+        <v>Award</v>
+      </c>
+      <c r="E52" t="str">
+        <v>She received an award for her acting</v>
+      </c>
+      <c r="F52" t="str">
+        <v>Receive an award</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>a499a65c-f6a4-43bf-b3af-7414b2c94310</v>
+      </c>
+      <c r="B53">
+        <v>27</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Danh dự</v>
+      </c>
+      <c r="D53" t="str">
+        <v>Honor</v>
+      </c>
+      <c r="E53" t="str">
+        <v>Welcome, you are my guest of honor</v>
+      </c>
+      <c r="F53" t="str">
+        <v>The guest of honor</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>48d3d3eb-d568-4c77-8488-43c41b7afbf5</v>
+      </c>
+      <c r="B54">
+        <v>27</v>
+      </c>
+      <c r="C54" t="str">
+        <v>Việc thiện nguyện</v>
+      </c>
+      <c r="D54" t="str">
+        <v>Charity</v>
+      </c>
+      <c r="E54" t="str">
+        <v>We should do charity for the disadvantaged</v>
+      </c>
+      <c r="F54" t="str">
+        <v>Do charity for somebody</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>0aa13e64-c9da-42cf-98a6-ea7b261bfbc8</v>
+      </c>
+      <c r="B55">
+        <v>27</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Tình nguyện</v>
+      </c>
+      <c r="D55" t="str">
+        <v>Volunteer</v>
+      </c>
+      <c r="E55" t="str">
+        <v>She volunteered to clean the car</v>
+      </c>
+      <c r="F55" t="str">
+        <v>Volunteer to do something</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>200b047e-f499-4d66-99d8-fbca132dfb75</v>
+      </c>
+      <c r="B56">
+        <v>27</v>
+      </c>
+      <c r="C56" t="str">
+        <v>Vụ bê bối</v>
+      </c>
+      <c r="D56" t="str">
+        <v>Scandal</v>
+      </c>
+      <c r="E56" t="str">
+        <v>He created the scandal to attract attention</v>
+      </c>
+      <c r="F56" t="str">
+        <v>Create a scandal</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>3b253e28-0230-47de-a666-91be77248828</v>
+      </c>
+      <c r="B57">
+        <v>27</v>
+      </c>
+      <c r="C57" t="str">
+        <v>Tin đồn</v>
+      </c>
+      <c r="D57" t="str">
+        <v>Rumor</v>
+      </c>
+      <c r="E57" t="str">
+        <v>Rumor has it that you got the job!</v>
+      </c>
+      <c r="F57" t="str">
+        <v>Rumor has it that</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>4334038f-c1b7-49a5-98f1-62b1237f3ab0</v>
+      </c>
+      <c r="B58">
+        <v>27</v>
+      </c>
+      <c r="C58" t="str">
+        <v>Tiểu sử</v>
+      </c>
+      <c r="D58" t="str">
+        <v>Biography</v>
+      </c>
+      <c r="E58" t="str">
+        <v>They wrote a biography of her life</v>
+      </c>
+      <c r="F58" t="str">
+        <v>A biography of something</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>5d8f29ff-7d1d-4e1e-82e1-34512516151c</v>
+      </c>
+      <c r="B59">
+        <v>27</v>
+      </c>
+      <c r="C59" t="str">
+        <v>Ngưỡng mộ</v>
+      </c>
+      <c r="D59" t="str">
+        <v>Admire</v>
+      </c>
+      <c r="E59" t="str">
+        <v>I admire my student's passion</v>
+      </c>
+      <c r="F59" t="str">
+        <v>Admire somebody or something</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>85f0b61e-0ab3-4e0f-a3ef-060ce867161f</v>
+      </c>
+      <c r="B60">
+        <v>27</v>
+      </c>
+      <c r="C60" t="str">
+        <v>Ngưỡng mộ</v>
+      </c>
+      <c r="D60" t="str">
+        <v>Look up to</v>
+      </c>
+      <c r="E60" t="str">
+        <v>I look up to my father very much</v>
+      </c>
+      <c r="F60" t="str">
+        <v>Look up to somebody</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>575c63cd-6cd4-43a1-b29d-d6b8960530e0</v>
+      </c>
+      <c r="B61">
+        <v>27</v>
+      </c>
+      <c r="C61" t="str">
+        <v>Đáp ứng tiêu chuẩn</v>
+      </c>
+      <c r="D61" t="str">
+        <v>Live up to</v>
+      </c>
+      <c r="E61" t="str">
+        <v>He lived up to my parent's expectations</v>
+      </c>
+      <c r="F61" t="str">
+        <v>Live up to my parent's expectations</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>fb90b861-646a-4dd4-b647-a4cc017bc8aa</v>
+      </c>
+      <c r="B62">
+        <v>28</v>
+      </c>
+      <c r="C62" t="str">
+        <v>Buổi hòa nhạc</v>
+      </c>
+      <c r="D62" t="str">
+        <v>Concert</v>
+      </c>
+      <c r="E62" t="str">
+        <v>Let's go to a concert tonight!</v>
+      </c>
+      <c r="F62" t="str">
+        <v>Go to a concert</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>cbb60ea8-e319-4ef2-a23f-3d0a72e8a76d</v>
+      </c>
+      <c r="B63">
+        <v>28</v>
+      </c>
+      <c r="C63" t="str">
+        <v>Trò xếp hình, trò giải đố</v>
+      </c>
+      <c r="D63" t="str">
+        <v>Puzzle</v>
+      </c>
+      <c r="E63" t="str">
+        <v>Crassword puzzles are for everyone to play</v>
+      </c>
+      <c r="F63" t="str">
+        <v>A crossword puzzle</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>6567b1a7-ce1d-4054-873f-8febe4c8c136</v>
+      </c>
+      <c r="B64">
+        <v>28</v>
+      </c>
+      <c r="C64" t="str">
+        <v>Đoán</v>
+      </c>
+      <c r="D64" t="str">
+        <v>Guess</v>
+      </c>
+      <c r="E64" t="str">
+        <v>Can you guess my age</v>
+      </c>
+      <c r="F64" t="str">
+        <v>Guess something</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>f0d6988c-f4a0-484b-b07f-71769fed5a9d</v>
+      </c>
+      <c r="B65">
+        <v>28</v>
+      </c>
+      <c r="C65" t="str">
+        <v>Tin Tường</v>
+      </c>
+      <c r="D65" t="str">
+        <v>Keen</v>
+      </c>
+      <c r="E65" t="str">
+        <v>She has a keen eye for fashion</v>
+      </c>
+      <c r="F65" t="str">
+        <v>A keen eye for something</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>8b0ee883-6437-4353-b875-c394855058aa</v>
+      </c>
+      <c r="B66">
+        <v>28</v>
+      </c>
+      <c r="C66" t="str">
+        <v>Đan</v>
+      </c>
+      <c r="D66" t="str">
+        <v>Knit</v>
+      </c>
+      <c r="E66" t="str">
+        <v>Grandma loves to knit scarves</v>
+      </c>
+      <c r="F66" t="str">
+        <v>Knit something</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>f4140d64-523c-47a1-a31d-a55a487858ad</v>
+      </c>
+      <c r="B67">
+        <v>28</v>
+      </c>
+      <c r="C67" t="str">
+        <v>Tiểu thuyết</v>
+      </c>
+      <c r="D67" t="str">
+        <v>Novel</v>
+      </c>
+      <c r="E67" t="str">
+        <v>The author wrote two best-selling novels</v>
+      </c>
+      <c r="F67" t="str">
+        <v>A best-selling novel</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>e1e7a71f-4e39-419e-a77b-86d1a1e534e9</v>
+      </c>
+      <c r="B68">
+        <v>28</v>
+      </c>
+      <c r="C68" t="str">
+        <v>Bộ sưu tập</v>
+      </c>
+      <c r="D68" t="str">
+        <v>Collection</v>
+      </c>
+      <c r="E68" t="str">
+        <v>He has a collection of vinyl records</v>
+      </c>
+      <c r="F68" t="str">
+        <v>Collection of something</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>7ec6e054-a925-4b6d-868e-7edae103be2d</v>
+      </c>
+      <c r="B69">
+        <v>28</v>
+      </c>
+      <c r="C69" t="str">
+        <v>Chèo thuyền</v>
+      </c>
+      <c r="D69" t="str">
+        <v>Sail</v>
+      </c>
+      <c r="E69" t="str">
+        <v>Can we sail a boat tomorrow?</v>
+      </c>
+      <c r="F69" t="str">
+        <v>Sail a boat</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>baac48ef-2267-4932-b04b-f8b85153bcf8</v>
+      </c>
+      <c r="B70">
+        <v>28</v>
+      </c>
+      <c r="C70" t="str">
+        <v>Có hứng thú</v>
+      </c>
+      <c r="D70" t="str">
+        <v>Interested</v>
+      </c>
+      <c r="E70" t="str">
+        <v>Are you interested in the arts?</v>
+      </c>
+      <c r="F70" t="str">
+        <v>Interested in something or somebody</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>b3a79e76-a9ed-453a-affb-d11df6cb336e</v>
+      </c>
+      <c r="B71">
+        <v>28</v>
+      </c>
+      <c r="C71" t="str">
+        <v>Nhiếp ảnh</v>
+      </c>
+      <c r="D71" t="str">
+        <v>Photography</v>
+      </c>
+      <c r="E71" t="str">
+        <v>The artist mainly does digital photography</v>
+      </c>
+      <c r="F71" t="str">
+        <v>Digital photography</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>74975ac4-5195-4360-a509-f8abcd51c71d</v>
+      </c>
+      <c r="B72">
+        <v>28</v>
+      </c>
+      <c r="C72" t="str">
+        <v>Hướng dẫn cách làm</v>
+      </c>
+      <c r="D72" t="str">
+        <v>Tutorial</v>
+      </c>
+      <c r="E72" t="str">
+        <v>Check out her step-by-step tutorial on makeup</v>
+      </c>
+      <c r="F72" t="str">
+        <v>Step-by-Step tutorial</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>8af0b848-c984-475f-af71-c73c9cf77b8b</v>
+      </c>
+      <c r="B73">
+        <v>28</v>
+      </c>
+      <c r="C73" t="str">
+        <v>Nhật ký bằng video</v>
+      </c>
+      <c r="D73" t="str">
+        <v>Vlogs</v>
+      </c>
+      <c r="E73" t="str">
+        <v/>
+      </c>
+      <c r="F73" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>b631dad9-b82c-47b5-b18e-a505891c7e86</v>
+      </c>
+      <c r="B74">
+        <v>28</v>
+      </c>
+      <c r="C74" t="str">
+        <v>Đội, nhóm</v>
+      </c>
+      <c r="D74" t="str">
+        <v>Team</v>
+      </c>
+      <c r="E74" t="str">
+        <v>The soccer team won 5-1</v>
+      </c>
+      <c r="F74" t="str">
+        <v>A soccer team</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>d7be64cc-0840-44db-9e09-27cf029efff2</v>
+      </c>
+      <c r="B75">
+        <v>28</v>
+      </c>
+      <c r="C75" t="str">
+        <v>Thử</v>
+      </c>
+      <c r="D75" t="str">
+        <v>Try out</v>
+      </c>
+      <c r="E75" t="str">
+        <v>Would you try out a new method of cooking?</v>
+      </c>
+      <c r="F75" t="str">
+        <v>Try out a new method</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>7c51af5a-2c08-40d7-9b59-971579e83fcd</v>
+      </c>
+      <c r="B76">
+        <v>28</v>
+      </c>
+      <c r="C76" t="str">
+        <v>Tham gia</v>
+      </c>
+      <c r="D76" t="str">
+        <v>Participate</v>
+      </c>
+      <c r="E76" t="str">
+        <v>Please participate more in class</v>
+      </c>
+      <c r="F76" t="str">
+        <v>Participate in something</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>f9d5999c-a156-41b9-800c-a7802ca98ea5</v>
+      </c>
+      <c r="B77">
+        <v>28</v>
+      </c>
+      <c r="C77" t="str">
+        <v>Chương trình</v>
+      </c>
+      <c r="D77" t="str">
+        <v>Program</v>
+      </c>
+      <c r="E77" t="str">
+        <v>She works for a news program</v>
+      </c>
+      <c r="F77" t="str">
+        <v>A news program</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>c8a1854a-ae84-41f5-a5d4-a1d0aa910d2c</v>
+      </c>
+      <c r="B78">
+        <v>28</v>
+      </c>
+      <c r="C78" t="str">
+        <v>Hoạt hình</v>
+      </c>
+      <c r="D78" t="str">
+        <v>Cartoon</v>
+      </c>
+      <c r="E78" t="str">
+        <v>Mickey mouse is a walt disney cartoon</v>
+      </c>
+      <c r="F78" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>e3abb703-a37a-4308-96b6-b20859e2a6aa</v>
+      </c>
+      <c r="B79">
+        <v>28</v>
+      </c>
+      <c r="C79" t="str">
+        <v>Thể loại</v>
+      </c>
+      <c r="D79" t="str">
+        <v>Genre</v>
+      </c>
+      <c r="E79" t="str">
+        <v>What music genre do you listen to?</v>
+      </c>
+      <c r="F79" t="str">
+        <v>Music genre</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>dfa9fc23-b0d1-4e81-865b-13d53416db11</v>
+      </c>
+      <c r="B80">
+        <v>28</v>
+      </c>
+      <c r="C80" t="str">
+        <v>Phim hài</v>
+      </c>
+      <c r="D80" t="str">
+        <v>Comedy</v>
+      </c>
+      <c r="E80" t="str">
+        <v>My friend loves watching remoantic comedies</v>
+      </c>
+      <c r="F80" t="str">
+        <v>A romantic comedy</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>e9792faa-117f-408c-8aa4-bb141f602092</v>
+      </c>
+      <c r="B81">
+        <v>28</v>
+      </c>
+      <c r="C81" t="str">
+        <v>Trèo</v>
+      </c>
+      <c r="D81" t="str">
+        <v>Climb</v>
+      </c>
+      <c r="E81" t="str">
+        <v>The cat climbed up the tree</v>
+      </c>
+      <c r="F81" t="str">
+        <v>Climb up something</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>9c9784a3-bc25-46fe-99fb-cb54224c9f86</v>
+      </c>
+      <c r="B82">
+        <v>28</v>
+      </c>
+      <c r="C82" t="str">
+        <v>Sự thích thú, niềm vui</v>
+      </c>
+      <c r="D82" t="str">
+        <v>Pleasure</v>
+      </c>
+      <c r="E82" t="str">
+        <v>The kids find pleasure in singing</v>
+      </c>
+      <c r="F82" t="str">
+        <v>Take or find pleasure in doing something</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>6842266a-c5ab-4119-a535-872c36da4757</v>
+      </c>
+      <c r="B83">
+        <v>28</v>
+      </c>
+      <c r="C83" t="str">
+        <v>Trong nhà</v>
+      </c>
+      <c r="D83" t="str">
+        <v>Indoor</v>
+      </c>
+      <c r="E83" t="str">
+        <v>The hotel's indoor swimming pool is huge!</v>
+      </c>
+      <c r="F83" t="str">
+        <v>An indoor swimming pool</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>d2a15da2-9ea7-48ec-ac1c-31958d2a9169</v>
+      </c>
+      <c r="B84">
+        <v>28</v>
+      </c>
+      <c r="C84" t="str">
+        <v>Chuyến nghỉ dưỡng, kỳ nghỉ</v>
+      </c>
+      <c r="D84" t="str">
+        <v>Holiday</v>
+      </c>
+      <c r="E84" t="str">
+        <v>I do not work on holiday</v>
+      </c>
+      <c r="F84" t="str">
+        <v>On holiday</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>2c2dbe0d-943c-43ab-ba45-c532ffa886ae</v>
+      </c>
+      <c r="B85">
+        <v>28</v>
+      </c>
+      <c r="C85" t="str">
+        <v>Chuyến đi</v>
+      </c>
+      <c r="D85" t="str">
+        <v>Ride</v>
+      </c>
+      <c r="E85" t="str">
+        <v>We are in for a bumpy ride</v>
+      </c>
+      <c r="F85" t="str">
+        <v>A bumpy ride</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>41542f1d-741d-4a47-8a81-a1d09a9a966b</v>
+      </c>
+      <c r="B86">
+        <v>28</v>
+      </c>
+      <c r="C86" t="str">
+        <v>Có ý nghĩa</v>
+      </c>
+      <c r="D86" t="str">
+        <v>Meaningful</v>
+      </c>
+      <c r="E86" t="str">
+        <v>I strive to do meaningful work</v>
+      </c>
+      <c r="F86" t="str">
+        <v>Meaningful work</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>6e66b3ef-3ec5-4743-9860-7418a93dce27</v>
+      </c>
+      <c r="B87">
+        <v>28</v>
+      </c>
+      <c r="C87" t="str">
+        <v>Việc cấm trại</v>
+      </c>
+      <c r="D87" t="str">
+        <v>Camping</v>
+      </c>
+      <c r="E87" t="str">
+        <v>We are going on a camping trip</v>
+      </c>
+      <c r="F87" t="str">
+        <v>A camping trip</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>1188e571-d666-4bf9-81ee-46334eabd388</v>
+      </c>
+      <c r="B88">
+        <v>28</v>
+      </c>
+      <c r="C88" t="str">
+        <v>Hợp tác</v>
+      </c>
+      <c r="D88" t="str">
+        <v>Cooperate</v>
+      </c>
+      <c r="E88" t="str">
+        <v>You have to cooperate with here</v>
+      </c>
+      <c r="F88" t="str">
+        <v>Cooperate with something or somebody</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>c8f79e81-dc8c-4f22-805d-0f1945deadcd</v>
+      </c>
+      <c r="B89">
+        <v>28</v>
+      </c>
+      <c r="C89" t="str">
+        <v>Lều</v>
+      </c>
+      <c r="D89" t="str">
+        <v>Tent</v>
+      </c>
+      <c r="E89" t="str">
+        <v>Please put up the tent for me</v>
+      </c>
+      <c r="F89" t="str">
+        <v>Put up a tent</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>df9891a5-2a7a-4754-91d7-ff7fffc40477</v>
+      </c>
+      <c r="B90">
+        <v>28</v>
+      </c>
+      <c r="C90" t="str">
+        <v>Hứng thú với</v>
+      </c>
+      <c r="D90" t="str">
+        <v>Go in for</v>
+      </c>
+      <c r="E90" t="str">
+        <v>My sister decides to go in for a debate competition</v>
+      </c>
+      <c r="F90" t="str">
+        <v>Go in for a competition</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>f1186873-4969-486d-bd89-9a0695b5388f</v>
+      </c>
+      <c r="B91">
+        <v>28</v>
+      </c>
+      <c r="C91" t="str">
+        <v>Thích hơn</v>
+      </c>
+      <c r="D91" t="str">
+        <v>Prefer</v>
+      </c>
+      <c r="E91" t="str">
+        <v>She prefers eating apples to pears</v>
+      </c>
+      <c r="F91" t="str">
+        <v>Prefer something to something</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>a2b1778e-1bde-4f07-8efc-386e9629f6dc</v>
+      </c>
+      <c r="B92">
+        <v>29</v>
+      </c>
+      <c r="C92" t="str">
+        <v>Câu cá</v>
+      </c>
+      <c r="D92" t="str">
+        <v>Fishing</v>
+      </c>
+      <c r="E92" t="str">
+        <v>My dad and I go fishing every day</v>
+      </c>
+      <c r="F92" t="str">
+        <v>Go fishing</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>cf990805-78a4-450b-9080-8d1407d56334</v>
+      </c>
+      <c r="B93">
+        <v>29</v>
+      </c>
+      <c r="C93" t="str">
+        <v>Vận động viên</v>
+      </c>
+      <c r="D93" t="str">
+        <v>Athlete</v>
+      </c>
+      <c r="E93" t="str">
+        <v>Olumpic athletes train hard to complete</v>
+      </c>
+      <c r="F93" t="str">
+        <v>An Olympic athlete</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>b6a3f27f-b5f1-4f59-a13a-5a3b1d198402</v>
+      </c>
+      <c r="B94">
+        <v>29</v>
+      </c>
+      <c r="C94" t="str">
+        <v>Môn đấu vật</v>
+      </c>
+      <c r="D94" t="str">
+        <v>Wrestling</v>
+      </c>
+      <c r="E94" t="str">
+        <v>Wrestling matches are popular in the US</v>
+      </c>
+      <c r="F94" t="str">
+        <v>A wrestling match</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>f903164f-992c-4ff7-bdd0-9796bb39e5eb</v>
+      </c>
+      <c r="B95">
+        <v>29</v>
+      </c>
+      <c r="C95" t="str">
+        <v>Chuyên nghiệp</v>
+      </c>
+      <c r="D95" t="str">
+        <v>Professional</v>
+      </c>
+      <c r="E95" t="str">
+        <v>He was a professional soccer player</v>
+      </c>
+      <c r="F95" t="str">
+        <v>A professional soccer player</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>f38ea113-6eed-41a7-864c-9fd8eb997c46</v>
+      </c>
+      <c r="B96">
+        <v>29</v>
+      </c>
+      <c r="C96" t="str">
+        <v>Hàng năm</v>
+      </c>
+      <c r="D96" t="str">
+        <v>Annual</v>
+      </c>
+      <c r="E96" t="str">
+        <v>The company has annual meetings for us</v>
+      </c>
+      <c r="F96" t="str">
+        <v>An annual meeting</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>cec821bf-15bc-4c73-85e6-328b2b004fd1</v>
+      </c>
+      <c r="B97">
+        <v>29</v>
+      </c>
+      <c r="C97" t="str">
+        <v>Giải đấu</v>
+      </c>
+      <c r="D97" t="str">
+        <v>Tournament</v>
+      </c>
+      <c r="E97" t="str">
+        <v>What an exciting soccer tournament!</v>
+      </c>
+      <c r="F97" t="str">
+        <v>A soccer tournament</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>ddae4d17-2487-4c91-b15b-62ec664e7e93</v>
+      </c>
+      <c r="B98">
+        <v>29</v>
+      </c>
+      <c r="C98" t="str">
+        <v>Huấn luyện viên</v>
+      </c>
+      <c r="D98" t="str">
+        <v>Coach</v>
+      </c>
+      <c r="E98" t="str">
+        <v>The team coach trains us hard</v>
+      </c>
+      <c r="F98" t="str">
+        <v>The team coach</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>9c573cff-4ddd-4aec-83ca-2f88d870993e</v>
+      </c>
+      <c r="B99">
+        <v>29</v>
+      </c>
+      <c r="C99" t="str">
+        <v>Trận đấu</v>
+      </c>
+      <c r="D99" t="str">
+        <v>Match</v>
+      </c>
+      <c r="E99" t="str">
+        <v>There is a soccer match tonight</v>
+      </c>
+      <c r="F99" t="str">
+        <v>A soccer match</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>dd72f5c5-8548-436c-bd33-79ddb20c7437</v>
+      </c>
+      <c r="B100">
+        <v>29</v>
+      </c>
+      <c r="C100" t="str">
+        <v>Đánh bại</v>
+      </c>
+      <c r="D100" t="str">
+        <v>Beat</v>
+      </c>
+      <c r="E100" t="str">
+        <v>They beat their opponents in the first round</v>
+      </c>
+      <c r="F100" t="str">
+        <v>Beat something or somebody</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>b1892029-56ff-4cbe-984a-c7dab29a9977</v>
+      </c>
+      <c r="B101">
+        <v>29</v>
+      </c>
+      <c r="C101" t="str">
+        <v>Đối thủ</v>
+      </c>
+      <c r="D101" t="str">
+        <v>Opponent</v>
+      </c>
+      <c r="E101" t="str">
+        <v>She is my opponent in chess</v>
+      </c>
+      <c r="F101" t="str">
+        <v>One's oppponent in something</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>1e190ed8-33a8-4e71-b7b2-fa84c7c02941</v>
+      </c>
+      <c r="B102">
+        <v>29</v>
+      </c>
+      <c r="C102" t="str">
+        <v>Môn thể thao</v>
+      </c>
+      <c r="D102" t="str">
+        <v>Athletics</v>
+      </c>
+      <c r="E102" t="str">
+        <v>Football, soccer, and baseball are types of atheletics</v>
+      </c>
+      <c r="F102" t="str">
+        <v>Types of athletics</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>d38353fc-5f4f-472c-ac04-668987f0a4a7</v>
+      </c>
+      <c r="B103">
+        <v>29</v>
+      </c>
+      <c r="C103" t="str">
+        <v>Bóng rỗ</v>
+      </c>
+      <c r="D103" t="str">
+        <v>Basketball</v>
+      </c>
+      <c r="E103" t="str">
+        <v>I am the captain of the basketball team</v>
+      </c>
+      <c r="F103" t="str">
+        <v>A basketball team</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>ef65ce51-588d-4574-aabf-54d79f5fccc8</v>
+      </c>
+      <c r="B104">
+        <v>29</v>
+      </c>
+      <c r="C104" t="str">
+        <v>Người chơi</v>
+      </c>
+      <c r="D104" t="str">
+        <v>Player</v>
+      </c>
+      <c r="E104" t="str">
+        <v>He is the best soccer player here</v>
+      </c>
+      <c r="F104" t="str">
+        <v>A soccer player</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>b7c13a10-8f6b-4bc0-adf4-4efd66aa87fc</v>
+      </c>
+      <c r="B105">
+        <v>29</v>
+      </c>
+      <c r="C105" t="str">
+        <v xml:space="preserve">Liên đoàn </v>
+      </c>
+      <c r="D105" t="str">
+        <v>League</v>
+      </c>
+      <c r="E105" t="str">
+        <v>My sone plays for a soccer league</v>
+      </c>
+      <c r="F105" t="str">
+        <v>A soccer league</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>cbf03296-0921-4040-90d4-199fd9d5c23b</v>
+      </c>
+      <c r="B106">
+        <v>29</v>
+      </c>
+      <c r="C106" t="str">
+        <v>Giải vô địch</v>
+      </c>
+      <c r="D106" t="str">
+        <v>Championship</v>
+      </c>
+      <c r="E106" t="str">
+        <v>Are you ready for the basketball championship</v>
+      </c>
+      <c r="F106" t="str">
+        <v>A basketball championship</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>5029497b-8c66-41b8-8d0a-4bfe381c4286</v>
+      </c>
+      <c r="B107">
+        <v>29</v>
+      </c>
+      <c r="C107" t="str">
+        <v>Đội trưởng</v>
+      </c>
+      <c r="D107" t="str">
+        <v>Captain</v>
+      </c>
+      <c r="E107" t="str">
+        <v>We vote for a team camtain</v>
+      </c>
+      <c r="F107" t="str">
+        <v>Team captain</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>c2fb9123-f320-4cc1-a7fa-d38da99a5fc1</v>
+      </c>
+      <c r="B108">
+        <v>29</v>
+      </c>
+      <c r="C108" t="str">
+        <v>Ghi điểm</v>
+      </c>
+      <c r="D108" t="str">
+        <v>Score</v>
+      </c>
+      <c r="E108" t="str">
+        <v>He scored a goal for the team</v>
+      </c>
+      <c r="F108" t="str">
+        <v>Score a goal</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>a52a7a35-9823-4ea9-87c9-6dec37ecf622</v>
+      </c>
+      <c r="B109">
+        <v>29</v>
+      </c>
+      <c r="C109" t="str">
+        <v>Danh hiệu</v>
+      </c>
+      <c r="D109" t="str">
+        <v>Title</v>
+      </c>
+      <c r="E109" t="str">
+        <v>The team won the title with a goal in the last minute</v>
+      </c>
+      <c r="F109" t="str">
+        <v>Win the title</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>916d379b-cba3-40d9-a67f-a71d48b74a2f</v>
+      </c>
+      <c r="B110">
+        <v>29</v>
+      </c>
+      <c r="C110" t="str">
+        <v>Lưới</v>
+      </c>
+      <c r="D110" t="str">
+        <v>Net</v>
+      </c>
+      <c r="E110" t="str">
+        <v>The fishing net has holes in it</v>
+      </c>
+      <c r="F110" t="str">
+        <v>A fishing net</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>463b16e3-432e-446b-bea0-a0f2b3da5f06</v>
+      </c>
+      <c r="B111">
+        <v>29</v>
+      </c>
+      <c r="C111" t="str">
+        <v>Anh hùng</v>
+      </c>
+      <c r="D111" t="str">
+        <v>Hero</v>
+      </c>
+      <c r="E111" t="str">
+        <v>The fireman became a local hero</v>
+      </c>
+      <c r="F111" t="str">
+        <v>A local hero</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>39de71b0-d5b5-48c9-8f4d-95b2e2f50af6</v>
+      </c>
+      <c r="B112">
+        <v>29</v>
+      </c>
+      <c r="C112" t="str">
+        <v>Môn đạp xe</v>
+      </c>
+      <c r="D112" t="str">
+        <v>Cycling</v>
+      </c>
+      <c r="E112" t="str">
+        <v>She went cycling down the hill</v>
+      </c>
+      <c r="F112" t="str">
+        <v>Go cycling</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>aae25fe9-c463-44f6-8403-64b3ab4901df</v>
+      </c>
+      <c r="B113">
+        <v>29</v>
+      </c>
+      <c r="C113" t="str">
+        <v>Sân vận động</v>
+      </c>
+      <c r="D113" t="str">
+        <v>Stadium</v>
+      </c>
+      <c r="E113" t="str">
+        <v>Where is the biggest sports stadium in hanoi</v>
+      </c>
+      <c r="F113" t="str">
+        <v>A sport stadium</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>a8bd58e5-0590-4ebb-9b28-1b10efe4f691</v>
+      </c>
+      <c r="B114">
+        <v>29</v>
+      </c>
+      <c r="C114" t="str">
+        <v>Người thắng cuộc</v>
+      </c>
+      <c r="D114" t="str">
+        <v>Winner</v>
+      </c>
+      <c r="E114" t="str">
+        <v>The actor is an award winner</v>
+      </c>
+      <c r="F114" t="str">
+        <v>An award winer</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>b553acc6-a0c9-417a-b2d9-d77e5fd33909</v>
+      </c>
+      <c r="B115">
+        <v>29</v>
+      </c>
+      <c r="C115" t="str">
+        <v>Môn đánh golf</v>
+      </c>
+      <c r="D115" t="str">
+        <v>Golf</v>
+      </c>
+      <c r="E115" t="str">
+        <v>Businessmen love to play golf</v>
+      </c>
+      <c r="F115" t="str">
+        <v>Play golf</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>c9b2d631-4c95-4cbf-b5c6-51760a9800c8</v>
+      </c>
+      <c r="B116">
+        <v>29</v>
+      </c>
+      <c r="C116" t="str">
+        <v>Đánh</v>
+      </c>
+      <c r="D116" t="str">
+        <v>Strike</v>
+      </c>
+      <c r="E116" t="str">
+        <v>He strikes the golf ball perfectly</v>
+      </c>
+      <c r="F116" t="str">
+        <v>Strike the ball</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>6c846374-0b04-4261-a1fc-abb952bde9d0</v>
+      </c>
+      <c r="B117">
+        <v>29</v>
+      </c>
+      <c r="C117" t="str">
+        <v>Đích, mục tiêu</v>
+      </c>
+      <c r="D117" t="str">
+        <v>Target</v>
+      </c>
+      <c r="E117" t="str">
+        <v>He shot the arrow and hit the target</v>
+      </c>
+      <c r="F117" t="str">
+        <v>Hit the target</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>7c39a7bf-0223-4d67-bf19-bc70d6260a4c</v>
+      </c>
+      <c r="B118">
+        <v>29</v>
+      </c>
+      <c r="C118" t="str">
+        <v>Tối đa</v>
+      </c>
+      <c r="D118" t="str">
+        <v>Maximum</v>
+      </c>
+      <c r="E118" t="str">
+        <v>The maximum amount for storage is 256GB</v>
+      </c>
+      <c r="F118" t="str">
+        <v>The maximum amount</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>727a487b-ea11-4357-8b3a-cfd78069fedb</v>
+      </c>
+      <c r="B119">
+        <v>29</v>
+      </c>
+      <c r="C119" t="str">
+        <v>Lướt</v>
+      </c>
+      <c r="D119" t="str">
+        <v>Surf</v>
+      </c>
+      <c r="E119" t="str">
+        <v>In hawaii, you must surf the waves</v>
+      </c>
+      <c r="F119" t="str">
+        <v>Surf the wave</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>86cb971a-bdd1-45d0-9169-17ef0fb2990e</v>
+      </c>
+      <c r="B120">
+        <v>29</v>
+      </c>
+      <c r="C120" t="str">
+        <v>Không may</v>
+      </c>
+      <c r="D120" t="str">
+        <v>Unfortunately</v>
+      </c>
+      <c r="E120" t="str">
+        <v>Unfortunately, I won't be able to attend the meeting</v>
+      </c>
+      <c r="F120" t="str">
+        <v>Unfortunately, I won't</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>2805d4a5-2450-4193-92b7-19d2357bd4d9</v>
+      </c>
+      <c r="B121">
+        <v>29</v>
+      </c>
+      <c r="C121" t="str">
+        <v>Trân trọng, đánh giá cao</v>
+      </c>
+      <c r="D121" t="str">
+        <v>Appreciate</v>
+      </c>
+      <c r="E121" t="str">
+        <v>I appreciate the help you gave me</v>
+      </c>
+      <c r="F121" t="str">
+        <v>Appreciate somebody or something</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:F121"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/data/WordStudy.xlsx
+++ b/data/WordStudy.xlsx
@@ -6,6 +6,7 @@
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
     <sheet name="Tools" sheetId="2" r:id="rId2"/>
     <sheet name="Update_79da" sheetId="3" r:id="rId3"/>
+    <sheet name="Update_3519" sheetId="4" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
@@ -11737,4 +11738,5438 @@
     <ignoredError numberStoredAsText="1" sqref="A1:F271"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F271"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>unitId</v>
+      </c>
+      <c r="C1" t="str">
+        <v>word</v>
+      </c>
+      <c r="D1" t="str">
+        <v>answers</v>
+      </c>
+      <c r="E1" t="str">
+        <v>sentences</v>
+      </c>
+      <c r="F1" t="str">
+        <v>phrases</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>U01_01</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Có xu hướng, thường</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Tend</v>
+      </c>
+      <c r="E2" t="str">
+        <v>I tend  to listen to my grandmother's advice</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Tend to do something</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>U01_02</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Tới nơi</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Arrive</v>
+      </c>
+      <c r="E3" t="str">
+        <v>We arrive home early</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Arrive home</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>U01_03</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Thức dậy</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Get up</v>
+      </c>
+      <c r="E4" t="str">
+        <v>I get up at 6 in the morning</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Get up in the morning</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>U01_04</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Buổi trưa</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Noon</v>
+      </c>
+      <c r="E5" t="str">
+        <v>My break starts at noon</v>
+      </c>
+      <c r="F5" t="str">
+        <v>At noon</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>U01_05</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Ca làm</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Shift</v>
+      </c>
+      <c r="E6" t="str">
+        <v>She is tired because of her night shift</v>
+      </c>
+      <c r="F6" t="str">
+        <v>A night shift</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>U01_06</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Việc tắm rửa</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Shower</v>
+      </c>
+      <c r="E7" t="str">
+        <v>She takes a shower twice a day</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Take a shower</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>U01_07</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Điển hình</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Typical</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Apple is a typical example of fruit</v>
+      </c>
+      <c r="F8" t="str">
+        <v>A typical example</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>U01_08</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Chảy</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Flow</v>
+      </c>
+      <c r="E9" t="str">
+        <v>The water flows down the drain</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Flow down somewhere</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>U01_09</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Nếp sinh hoạt</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Routine</v>
+      </c>
+      <c r="E10" t="str">
+        <v>My daily routine is quite boring</v>
+      </c>
+      <c r="F10" t="str">
+        <v>A daily routine</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>U01_10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Quay lại</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Come back</v>
+      </c>
+      <c r="E11" t="str">
+        <v>I will come back home tomorrow</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Come back home</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>U01_11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Hóa đơn</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Receipt</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Keep the receipt in case you need to return the items</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Keep the receipt</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>U01_12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Đếm</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Count</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Let's count from 1 to 10 together</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Count from 1 to 10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>U01_13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Treo, phơi</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Hang</v>
+      </c>
+      <c r="E14" t="str">
+        <v>My mom hangs the clothes outside</v>
+      </c>
+      <c r="F14" t="str">
+        <v>Hang the clothes</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>U01_14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Quần áo cần giặc</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Laundry</v>
+      </c>
+      <c r="E15" t="str">
+        <v>I often do laundry myself</v>
+      </c>
+      <c r="F15" t="str">
+        <v>Do laundry</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>U01_15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Mặc vào</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Put on</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Her mom helps her put on her clothes</v>
+      </c>
+      <c r="F16" t="str">
+        <v>Put on clothes</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>U01_16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Bậc lên</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Turn on</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Could you turn on the light, please</v>
+      </c>
+      <c r="F17" t="str">
+        <v>Turn on the light</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>U01_17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Nhấn</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Press</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Press this button to shut down your computer</v>
+      </c>
+      <c r="F18" t="str">
+        <v>Press this button</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>U01_18</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Đóng</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Shut</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Shut the door, please!</v>
+      </c>
+      <c r="F19" t="str">
+        <v>Shut the door</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>U01_19</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Làm đầy lại</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Refill</v>
+      </c>
+      <c r="E20" t="str">
+        <v>The waiter refills my glass with some water</v>
+      </c>
+      <c r="F20" t="str">
+        <v>Refill a glass with water</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>U01_20</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Vai trò</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Role</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Water plays an important role in nature</v>
+      </c>
+      <c r="F21" t="str">
+        <v>Play an important role</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>U01_21</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Thông thường</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Usual</v>
+      </c>
+      <c r="E22" t="str">
+        <v>She gets the highest score as usual</v>
+      </c>
+      <c r="F22" t="str">
+        <v>As usual</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>U01_22</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Ngày trong tuần</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Weekday</v>
+      </c>
+      <c r="E23" t="str">
+        <v>You should come on a weekday to avoid the crowd</v>
+      </c>
+      <c r="F23" t="str">
+        <v>On a weekday</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>U01_23</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Gấp</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Fold</v>
+      </c>
+      <c r="E24" t="str">
+        <v>Please fold your clothes immediately</v>
+      </c>
+      <c r="F24" t="str">
+        <v>Fold clothes</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>U01_24</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Là ủi</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Iron</v>
+      </c>
+      <c r="E25" t="str">
+        <v>My dad irons her clothes every day</v>
+      </c>
+      <c r="F25" t="str">
+        <v>Iron the clothes</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>U01_25</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Quét</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Sweep</v>
+      </c>
+      <c r="E26" t="str">
+        <v>My brother has to sweep the floor</v>
+      </c>
+      <c r="F26" t="str">
+        <v>Sweep the floor</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>U01_26</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Quét bụi</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Dust</v>
+      </c>
+      <c r="E27" t="str">
+        <v>I dust the bookshelf every week</v>
+      </c>
+      <c r="F27" t="str">
+        <v>Dust the bookshelf</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>U01_27</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Kéo</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Pull</v>
+      </c>
+      <c r="E28" t="str">
+        <v>He pulls open the door</v>
+      </c>
+      <c r="F28" t="str">
+        <v>Pull open</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>U01_28</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="str">
+        <v xml:space="preserve">Với tới </v>
+      </c>
+      <c r="D29" t="str">
+        <v>Reach</v>
+      </c>
+      <c r="E29" t="str">
+        <v>He reaches for the TV remote</v>
+      </c>
+      <c r="F29" t="str">
+        <v>Reach for something</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>U01_29</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Tầng trên</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Upstairs</v>
+      </c>
+      <c r="E30" t="str">
+        <v>You can go upstairs to meet him</v>
+      </c>
+      <c r="F30" t="str">
+        <v>Go upstairs</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>U01_30</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Thang máy</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Elevator</v>
+      </c>
+      <c r="E31" t="str">
+        <v>I always take the elevator, not the stairs</v>
+      </c>
+      <c r="F31" t="str">
+        <v>Take the elevator</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>U02_01</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Làm phiền</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Bother</v>
+      </c>
+      <c r="E32" t="str">
+        <v>Don't bother me when I am working</v>
+      </c>
+      <c r="F32" t="str">
+        <v>Don't bother somebody</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>U02_02</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Hoàng hôn</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Sunset</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Beaches at sunset are beautiful</v>
+      </c>
+      <c r="F33" t="str">
+        <v>At sunset</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>U02_03</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Nữa đêm</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Midnight</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Why are you still awake at midnight</v>
+      </c>
+      <c r="F34" t="str">
+        <v>At mignight</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>U02_04</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Buồn ngủ</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Sleepy</v>
+      </c>
+      <c r="E35" t="str">
+        <v>I always feel sleepy when it’s cold</v>
+      </c>
+      <c r="F35" t="str">
+        <v>Feel sleepy</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>U02_05</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Tỉnh</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Awake</v>
+      </c>
+      <c r="E36" t="str">
+        <v>She needs to stay awake for the class</v>
+      </c>
+      <c r="F36" t="str">
+        <v>Stay awake</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>U02_06</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Ngồi không</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Sit around</v>
+      </c>
+      <c r="E37" t="str">
+        <v>I sit around watching TV all day</v>
+      </c>
+      <c r="F37" t="str">
+        <v>Sit around watching TV</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>U02_07</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Rác</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Garbage</v>
+      </c>
+      <c r="E38" t="str">
+        <v>I take out the garbadge at 5 pm</v>
+      </c>
+      <c r="F38" t="str">
+        <v>Take out the garbadge</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>U02_08</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Khó khăn</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Tough</v>
+      </c>
+      <c r="E39" t="str">
+        <v>This is a tough decision for me</v>
+      </c>
+      <c r="F39" t="str">
+        <v>A tough decision</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>U02_09</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Hơi hơi</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Slightly</v>
+      </c>
+      <c r="E40" t="str">
+        <v>My brother is slightly taller than me</v>
+      </c>
+      <c r="F40" t="str">
+        <v>Slightly taller</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>U02_10</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Trượt chân</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Slip</v>
+      </c>
+      <c r="E41" t="str">
+        <v>He slips on a wet floor at work</v>
+      </c>
+      <c r="F41" t="str">
+        <v>Slip on the floor</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>U02_11</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Một mình</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Alone</v>
+      </c>
+      <c r="E42" t="str">
+        <v>Please leave me alone</v>
+      </c>
+      <c r="F42" t="str">
+        <v>Leave me alone</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>U02_12</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" t="str">
+        <v xml:space="preserve">Gõ </v>
+      </c>
+      <c r="D43" t="str">
+        <v>Knock</v>
+      </c>
+      <c r="E43" t="str">
+        <v>Someone is knocking on the door</v>
+      </c>
+      <c r="F43" t="str">
+        <v>Knock on the door</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>U02_13</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Hàng xóm</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Neighbor</v>
+      </c>
+      <c r="E44" t="str">
+        <v>Our next-door neighbors are very noisy</v>
+      </c>
+      <c r="F44" t="str">
+        <v>Next-door neighbors</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>U02_14</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Kéo dãn</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Stretch</v>
+      </c>
+      <c r="E45" t="str">
+        <v>She stretched her body after the workout</v>
+      </c>
+      <c r="F45" t="str">
+        <v>Stretch one's body</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>U02_15</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Lúc nghỉ ngơi</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Rest</v>
+      </c>
+      <c r="E46" t="str">
+        <v>The docter told me to get some rest</v>
+      </c>
+      <c r="F46" t="str">
+        <v>Get some rest</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>U02_16</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Đẩy</v>
+      </c>
+      <c r="D47" t="str">
+        <v>Push</v>
+      </c>
+      <c r="E47" t="str">
+        <v>My cat pushes all my books off the table</v>
+      </c>
+      <c r="F47" t="str">
+        <v>Push something off somewhere</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>U02_17</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Làm vỡ</v>
+      </c>
+      <c r="D48" t="str">
+        <v>Break</v>
+      </c>
+      <c r="E48" t="str">
+        <v>The chef breaks the chocolate bar into pieces</v>
+      </c>
+      <c r="F48" t="str">
+        <v>Break into pieces</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>U02_18</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Lấp đầy</v>
+      </c>
+      <c r="D49" t="str">
+        <v>Fill up</v>
+      </c>
+      <c r="E49" t="str">
+        <v>I fill up my bottle with tea</v>
+      </c>
+      <c r="F49" t="str">
+        <v>Fill up something</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>U02_19</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Làm đổ</v>
+      </c>
+      <c r="D50" t="str">
+        <v>Spill</v>
+      </c>
+      <c r="E50" t="str">
+        <v>He spills water all over the table</v>
+      </c>
+      <c r="F50" t="str">
+        <v>Spill something all over</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>U02_20</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Hết sạch</v>
+      </c>
+      <c r="D51" t="str">
+        <v>Run out</v>
+      </c>
+      <c r="E51" t="str">
+        <v>I am sorry. We have run out of cakes</v>
+      </c>
+      <c r="F51" t="str">
+        <v>Run out of something</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>U02_21</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="str">
+        <v>Xả nước</v>
+      </c>
+      <c r="D52" t="str">
+        <v>Flush</v>
+      </c>
+      <c r="E52" t="str">
+        <v>Don't forget to flush the toilet</v>
+      </c>
+      <c r="F52" t="str">
+        <v>Flush the toilet</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>U02_22</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Hơi thở</v>
+      </c>
+      <c r="D53" t="str">
+        <v>Breath</v>
+      </c>
+      <c r="E53" t="str">
+        <v>Food with garlic gives you bad breath</v>
+      </c>
+      <c r="F53" t="str">
+        <v>Bad breath</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>U02_23</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" t="str">
+        <v>Giai đoạn</v>
+      </c>
+      <c r="D54" t="str">
+        <v>Phase</v>
+      </c>
+      <c r="E54" t="str">
+        <v>The final phase of vaccine testing is done</v>
+      </c>
+      <c r="F54" t="str">
+        <v>The final phase</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>U02_24</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Phim dài tập</v>
+      </c>
+      <c r="D55" t="str">
+        <v>Series</v>
+      </c>
+      <c r="E55" t="str">
+        <v>My favorite TV series is "Friends"</v>
+      </c>
+      <c r="F55" t="str">
+        <v>A TV series</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>U02_25</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" t="str">
+        <v>Thừa</v>
+      </c>
+      <c r="D56" t="str">
+        <v>Spare</v>
+      </c>
+      <c r="E56" t="str">
+        <v>What do you do in your spare time</v>
+      </c>
+      <c r="F56" t="str">
+        <v>Spare time</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>U02_26</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57" t="str">
+        <v>Thức muộn</v>
+      </c>
+      <c r="D57" t="str">
+        <v>Stay up</v>
+      </c>
+      <c r="E57" t="str">
+        <v>He stays up late every night</v>
+      </c>
+      <c r="F57" t="str">
+        <v>Stay up late</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>U02_27</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" t="str">
+        <v>Bình minh</v>
+      </c>
+      <c r="D58" t="str">
+        <v>Sunrise</v>
+      </c>
+      <c r="E58" t="str">
+        <v>My mother wakes up at sunrise to go to the market</v>
+      </c>
+      <c r="F58" t="str">
+        <v>At sunrise</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>U02_28</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" t="str">
+        <v>Lúc rảnh rỗi</v>
+      </c>
+      <c r="D59" t="str">
+        <v>Leisure</v>
+      </c>
+      <c r="E59" t="str">
+        <v>What is your favorite leisure activity?</v>
+      </c>
+      <c r="F59" t="str">
+        <v>A leisure activity</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>U02_29</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60" t="str">
+        <v>Giấc ngủ ngắn</v>
+      </c>
+      <c r="D60" t="str">
+        <v>Snooze</v>
+      </c>
+      <c r="E60" t="str">
+        <v>I hit the snooze button 5 times already</v>
+      </c>
+      <c r="F60" t="str">
+        <v>Hit the snooze button</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>U02_30</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61" t="str">
+        <v xml:space="preserve">Ngủ nướng </v>
+      </c>
+      <c r="D61" t="str">
+        <v>Sleep in</v>
+      </c>
+      <c r="E61" t="str">
+        <v>I usually sleep in on weekends</v>
+      </c>
+      <c r="F61" t="str">
+        <v>Sleep in on weekends</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>U03_01</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62" t="str">
+        <v>Hỗ trợ</v>
+      </c>
+      <c r="D62" t="str">
+        <v>Assist</v>
+      </c>
+      <c r="E62" t="str">
+        <v>Hack nao pro will assist you in learning English</v>
+      </c>
+      <c r="F62" t="str">
+        <v>Assist somebody in doing something</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>U03_02</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63" t="str">
+        <v>Khối lượng công việc</v>
+      </c>
+      <c r="D63" t="str">
+        <v>Workload</v>
+      </c>
+      <c r="E63" t="str">
+        <v>A heavy workload makes me exhausted</v>
+      </c>
+      <c r="F63" t="str">
+        <v>A heavy workload</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>U03_03</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64" t="str">
+        <v>Sắp xếp</v>
+      </c>
+      <c r="D64" t="str">
+        <v>Arrange</v>
+      </c>
+      <c r="E64" t="str">
+        <v>She arranges an appointment with her doctor</v>
+      </c>
+      <c r="F64" t="str">
+        <v xml:space="preserve">Arrange an appointment </v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>U03_04</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65" t="str">
+        <v>Kỷ luật</v>
+      </c>
+      <c r="D65" t="str">
+        <v>Discipline</v>
+      </c>
+      <c r="E65" t="str">
+        <v>He has very good discipline</v>
+      </c>
+      <c r="F65" t="str">
+        <v>Have good discipline</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>U03_05</v>
+      </c>
+      <c r="B66">
+        <v>3</v>
+      </c>
+      <c r="C66" t="str">
+        <v>Kết quả</v>
+      </c>
+      <c r="D66" t="str">
+        <v>Outcome</v>
+      </c>
+      <c r="E66" t="str">
+        <v>The snow affects the outcome of the game</v>
+      </c>
+      <c r="F66" t="str">
+        <v>Affect the outcome of</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>U03_06</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67" t="str">
+        <v>Có năng suất</v>
+      </c>
+      <c r="D67" t="str">
+        <v>Productive</v>
+      </c>
+      <c r="E67" t="str">
+        <v>They are not productive workers</v>
+      </c>
+      <c r="F67" t="str">
+        <v>Productive worker</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>U03_07</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68" t="str">
+        <v>Tin tức</v>
+      </c>
+      <c r="D68" t="str">
+        <v>News</v>
+      </c>
+      <c r="E68" t="str">
+        <v>He is waiting for the good news</v>
+      </c>
+      <c r="F68" t="str">
+        <v>Good news</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>U03_08</v>
+      </c>
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="C69" t="str">
+        <v>Theo sát</v>
+      </c>
+      <c r="D69" t="str">
+        <v>Follow up</v>
+      </c>
+      <c r="E69" t="str">
+        <v>I want to follow up on the matter we discussed</v>
+      </c>
+      <c r="F69" t="str">
+        <v>Follow up on something</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>U03_09</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70" t="str">
+        <v>Lên kế hoạch trước</v>
+      </c>
+      <c r="D70" t="str">
+        <v>Plan ahead</v>
+      </c>
+      <c r="E70" t="str">
+        <v>You should plan ahead for your travel</v>
+      </c>
+      <c r="F70" t="str">
+        <v>Plan ahead for something</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>U03_10</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71" t="str">
+        <v>Khoảng thời gian</v>
+      </c>
+      <c r="D71" t="str">
+        <v>Period</v>
+      </c>
+      <c r="E71" t="str">
+        <v>I've worked at this company for a long period of time</v>
+      </c>
+      <c r="F71" t="str">
+        <v>A period of time</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>U03_11</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72" t="str">
+        <v>Môn đi bộ thể dục</v>
+      </c>
+      <c r="D72" t="str">
+        <v>Jogging</v>
+      </c>
+      <c r="E72" t="str">
+        <v>My parents go jogging every morning</v>
+      </c>
+      <c r="F72" t="str">
+        <v>Go jogging</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>U03_12</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="C73" t="str">
+        <v>Cần thiết</v>
+      </c>
+      <c r="D73" t="str">
+        <v>Necessary</v>
+      </c>
+      <c r="E73" t="str">
+        <v>Teamwork is a necessary skill</v>
+      </c>
+      <c r="F73" t="str">
+        <v>A necessary skill</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>U03_13</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+      <c r="C74" t="str">
+        <v>Ước lượng</v>
+      </c>
+      <c r="D74" t="str">
+        <v>Estimate</v>
+      </c>
+      <c r="E74" t="str">
+        <v>He estimate the cost of his trip</v>
+      </c>
+      <c r="F74" t="str">
+        <v>Estimate the cost</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>U03_14</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75" t="str">
+        <v>Phút</v>
+      </c>
+      <c r="D75" t="str">
+        <v>Minute</v>
+      </c>
+      <c r="E75" t="str">
+        <v>Please wait a minute</v>
+      </c>
+      <c r="F75" t="str">
+        <v>Wait a minute</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>U03_15</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76" t="str">
+        <v>Kiệt sức</v>
+      </c>
+      <c r="D76" t="str">
+        <v>Burnout</v>
+      </c>
+      <c r="E76" t="str">
+        <v>You should avoid burnout at work</v>
+      </c>
+      <c r="F76" t="str">
+        <v>Avoid burnout</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>U03_16</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77" t="str">
+        <v xml:space="preserve">Mẹo </v>
+      </c>
+      <c r="D77" t="str">
+        <v>Tip</v>
+      </c>
+      <c r="E77" t="str">
+        <v>She gave me a useful tip</v>
+      </c>
+      <c r="F77" t="str">
+        <v>A useful tip</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>U03_17</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78" t="str">
+        <v>Tập trung</v>
+      </c>
+      <c r="D78" t="str">
+        <v>Focus</v>
+      </c>
+      <c r="E78" t="str">
+        <v>She only focusses on studying</v>
+      </c>
+      <c r="F78" t="str">
+        <v>Focus on something</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>U03_18</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79" t="str">
+        <v>Tập luyện</v>
+      </c>
+      <c r="D79" t="str">
+        <v>Practice</v>
+      </c>
+      <c r="E79" t="str">
+        <v>He practice cooking every day</v>
+      </c>
+      <c r="F79" t="str">
+        <v>Practice doing something</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>U03_19</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80" t="str">
+        <v>Có hiệu suất cao</v>
+      </c>
+      <c r="D80" t="str">
+        <v>Efficient</v>
+      </c>
+      <c r="E80" t="str">
+        <v>This new engine is highly efficient</v>
+      </c>
+      <c r="F80" t="str">
+        <v>Highly efficient</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>U03_20</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81" t="str">
+        <v>Danh sách công việc</v>
+      </c>
+      <c r="D81" t="str">
+        <v>Agenda</v>
+      </c>
+      <c r="E81" t="str">
+        <v>The salary discussion is not on the agenda</v>
+      </c>
+      <c r="F81" t="str">
+        <v>On the agenda</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>U03_21</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82" t="str">
+        <v>Từ chối</v>
+      </c>
+      <c r="D82" t="str">
+        <v>Decline</v>
+      </c>
+      <c r="E82" t="str">
+        <v>She politely declines our invitation</v>
+      </c>
+      <c r="F82" t="str">
+        <v>Politely  decline</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>U03_22</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83" t="str">
+        <v>Đi phơi</v>
+      </c>
+      <c r="D83" t="str">
+        <v>Hang out</v>
+      </c>
+      <c r="E83" t="str">
+        <v>I like hanging out at night every weekend</v>
+      </c>
+      <c r="F83" t="str">
+        <v>Hang out at night</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>U03_23</v>
+      </c>
+      <c r="B84">
+        <v>3</v>
+      </c>
+      <c r="C84" t="str">
+        <v>Lịch</v>
+      </c>
+      <c r="D84" t="str">
+        <v>Calendar</v>
+      </c>
+      <c r="E84" t="str">
+        <v>Remember to mark your calendar for this upcoming event</v>
+      </c>
+      <c r="F84" t="str">
+        <v>Mark your calendar</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>U03_24</v>
+      </c>
+      <c r="B85">
+        <v>3</v>
+      </c>
+      <c r="C85" t="str">
+        <v>Cơ quan</v>
+      </c>
+      <c r="D85" t="str">
+        <v>Workplace</v>
+      </c>
+      <c r="E85" t="str">
+        <v>Construction sites value workspace safety</v>
+      </c>
+      <c r="F85" t="str">
+        <v>Workplace safety/An toàn lao động</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>U03_25</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86" t="str">
+        <v>Hầu như</v>
+      </c>
+      <c r="D86" t="str">
+        <v>Almost</v>
+      </c>
+      <c r="E86" t="str">
+        <v>Almost all of my students are teenagers</v>
+      </c>
+      <c r="F86" t="str">
+        <v>Almost all of</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>U03_26</v>
+      </c>
+      <c r="B87">
+        <v>3</v>
+      </c>
+      <c r="C87" t="str">
+        <v>Từ bỏ</v>
+      </c>
+      <c r="D87" t="str">
+        <v>Quit</v>
+      </c>
+      <c r="E87" t="str">
+        <v>I quit my job due to work pressure</v>
+      </c>
+      <c r="F87" t="str">
+        <v>Quit one's job</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>U03_27</v>
+      </c>
+      <c r="B88">
+        <v>3</v>
+      </c>
+      <c r="C88" t="str">
+        <v>Thể dục</v>
+      </c>
+      <c r="D88" t="str">
+        <v>Exercise</v>
+      </c>
+      <c r="E88" t="str">
+        <v>She does some exercise every day</v>
+      </c>
+      <c r="F88" t="str">
+        <v>Do exercise</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>U03_28</v>
+      </c>
+      <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="C89" t="str">
+        <v>Tuyệt vời</v>
+      </c>
+      <c r="D89" t="str">
+        <v>Amazing</v>
+      </c>
+      <c r="E89" t="str">
+        <v>You guys are truly amazing</v>
+      </c>
+      <c r="F89" t="str">
+        <v>Truly amazing</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>U03_29</v>
+      </c>
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="C90" t="str">
+        <v>Kiên nhẫn</v>
+      </c>
+      <c r="D90" t="str">
+        <v>Patient</v>
+      </c>
+      <c r="E90" t="str">
+        <v>She is a patient person</v>
+      </c>
+      <c r="F90" t="str">
+        <v>A patient person</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>U03_30</v>
+      </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+      <c r="C91" t="str">
+        <v>Thấy biết ơn</v>
+      </c>
+      <c r="D91" t="str">
+        <v>Grateful</v>
+      </c>
+      <c r="E91" t="str">
+        <v>I am very grateful to my parents</v>
+      </c>
+      <c r="F91" t="str">
+        <v>Grateful to somebody</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>U04_01</v>
+      </c>
+      <c r="B92">
+        <v>4</v>
+      </c>
+      <c r="C92" t="str">
+        <v>Đơn</v>
+      </c>
+      <c r="D92" t="str">
+        <v>Form</v>
+      </c>
+      <c r="E92" t="str">
+        <v>I havea to finish the application form now</v>
+      </c>
+      <c r="F92" t="str">
+        <v>An Application form</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>U04_02</v>
+      </c>
+      <c r="B93">
+        <v>4</v>
+      </c>
+      <c r="C93" t="str">
+        <v>Điền vào</v>
+      </c>
+      <c r="D93" t="str">
+        <v>Fill out</v>
+      </c>
+      <c r="E93" t="str">
+        <v>Everyone needs to fill out the form</v>
+      </c>
+      <c r="F93" t="str">
+        <v>Fill out the form</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>U04_03</v>
+      </c>
+      <c r="B94">
+        <v>4</v>
+      </c>
+      <c r="C94" t="str">
+        <v>Cá nhân</v>
+      </c>
+      <c r="D94" t="str">
+        <v>Personal</v>
+      </c>
+      <c r="E94" t="str">
+        <v>My phone number is my personal information</v>
+      </c>
+      <c r="F94" t="str">
+        <v>Personal information</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>U04_04</v>
+      </c>
+      <c r="B95">
+        <v>4</v>
+      </c>
+      <c r="C95" t="str">
+        <v>Thông tin</v>
+      </c>
+      <c r="D95" t="str">
+        <v>Information</v>
+      </c>
+      <c r="E95" t="str">
+        <v>His job is to collect information from users</v>
+      </c>
+      <c r="F95" t="str">
+        <v>Collect information</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>U04_05</v>
+      </c>
+      <c r="B96">
+        <v>4</v>
+      </c>
+      <c r="C96" t="str">
+        <v>Giới tính</v>
+      </c>
+      <c r="D96" t="str">
+        <v>Gender</v>
+      </c>
+      <c r="E96" t="str">
+        <v>Gender equality is important in the workplace these days</v>
+      </c>
+      <c r="F96" t="str">
+        <v>Gender equality</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>U04_06</v>
+      </c>
+      <c r="B97">
+        <v>4</v>
+      </c>
+      <c r="C97" t="str">
+        <v>Đàn ông</v>
+      </c>
+      <c r="D97" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E97" t="str">
+        <v>She only has one male friend</v>
+      </c>
+      <c r="F97" t="str">
+        <v>A male friend</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>U04_07</v>
+      </c>
+      <c r="B98">
+        <v>4</v>
+      </c>
+      <c r="C98" t="str">
+        <v>Phụ nữ</v>
+      </c>
+      <c r="D98" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E98" t="str">
+        <v>He has a lot of female friends</v>
+      </c>
+      <c r="F98" t="str">
+        <v>A female friend</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>U04_08</v>
+      </c>
+      <c r="B99">
+        <v>4</v>
+      </c>
+      <c r="C99" t="str">
+        <v>Lúc chào đời</v>
+      </c>
+      <c r="D99" t="str">
+        <v>Birth</v>
+      </c>
+      <c r="E99" t="str">
+        <v>My date of birth is on july 1th 1997</v>
+      </c>
+      <c r="F99" t="str">
+        <v>Date of birth</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>U04_09</v>
+      </c>
+      <c r="B100">
+        <v>4</v>
+      </c>
+      <c r="C100" t="str">
+        <v>Ở giữa</v>
+      </c>
+      <c r="D100" t="str">
+        <v>Middle</v>
+      </c>
+      <c r="E100" t="str">
+        <v>I am the middle child</v>
+      </c>
+      <c r="F100" t="str">
+        <v>The middle child</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>U04_10</v>
+      </c>
+      <c r="B101">
+        <v>4</v>
+      </c>
+      <c r="C101" t="str">
+        <v>Sửa lại</v>
+      </c>
+      <c r="D101" t="str">
+        <v>Correct</v>
+      </c>
+      <c r="E101" t="str">
+        <v>The teacher corrects some mistakes in my essay</v>
+      </c>
+      <c r="F101" t="str">
+        <v>Correct a mistake</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>U04_11</v>
+      </c>
+      <c r="B102">
+        <v>4</v>
+      </c>
+      <c r="C102" t="str">
+        <v>Thêm</v>
+      </c>
+      <c r="D102" t="str">
+        <v>Additional</v>
+      </c>
+      <c r="E102" t="str">
+        <v>If you need additional information, please contact me</v>
+      </c>
+      <c r="F102" t="str">
+        <v>Additional information</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>U04_12</v>
+      </c>
+      <c r="B103">
+        <v>4</v>
+      </c>
+      <c r="C103" t="str">
+        <v>Trước đó</v>
+      </c>
+      <c r="D103" t="str">
+        <v>Previous</v>
+      </c>
+      <c r="E103" t="str">
+        <v>His income was higher in the previous year</v>
+      </c>
+      <c r="F103" t="str">
+        <v>The previous year</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>U04_13</v>
+      </c>
+      <c r="B104">
+        <v>4</v>
+      </c>
+      <c r="C104" t="str">
+        <v>Sống cùng với</v>
+      </c>
+      <c r="D104" t="str">
+        <v>Live with</v>
+      </c>
+      <c r="E104" t="str">
+        <v>I live with my sister in an apartment</v>
+      </c>
+      <c r="F104" t="str">
+        <v>Live with somebody</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>U04_14</v>
+      </c>
+      <c r="B105">
+        <v>4</v>
+      </c>
+      <c r="C105" t="str">
+        <v>Yêu thích</v>
+      </c>
+      <c r="D105" t="str">
+        <v>Favorite</v>
+      </c>
+      <c r="E105" t="str">
+        <v>My favorite movie is "Fast and furious"</v>
+      </c>
+      <c r="F105" t="str">
+        <v>My favorite movie</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>U04_15</v>
+      </c>
+      <c r="B106">
+        <v>4</v>
+      </c>
+      <c r="C106" t="str">
+        <v>Giới thiệu</v>
+      </c>
+      <c r="D106" t="str">
+        <v>Introduction</v>
+      </c>
+      <c r="E106" t="str">
+        <v>The introduction by the president was great</v>
+      </c>
+      <c r="F106" t="str">
+        <v>Introduction by somebody</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>U04_16</v>
+      </c>
+      <c r="B107">
+        <v>4</v>
+      </c>
+      <c r="C107" t="str">
+        <v>Danh tính</v>
+      </c>
+      <c r="D107" t="str">
+        <v>Identity</v>
+      </c>
+      <c r="E107" t="str">
+        <v>Please some your national identity card for entry</v>
+      </c>
+      <c r="F107" t="str">
+        <v>An identity card/CMND</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>U04_17</v>
+      </c>
+      <c r="B108">
+        <v>4</v>
+      </c>
+      <c r="C108" t="str">
+        <v>Phỏng vấn</v>
+      </c>
+      <c r="D108" t="str">
+        <v>Interview</v>
+      </c>
+      <c r="E108" t="str">
+        <v>She interviews politicians on a VTV show</v>
+      </c>
+      <c r="F108" t="str">
+        <v>Interview somebody</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>U04_18</v>
+      </c>
+      <c r="B109">
+        <v>4</v>
+      </c>
+      <c r="C109" t="str">
+        <v>Ảnh</v>
+      </c>
+      <c r="D109" t="str">
+        <v>Photograph</v>
+      </c>
+      <c r="E109" t="str">
+        <v>She takes a photograph of her cat every day</v>
+      </c>
+      <c r="F109" t="str">
+        <v>Take a photograph</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>U04_19</v>
+      </c>
+      <c r="B110">
+        <v>4</v>
+      </c>
+      <c r="C110" t="str">
+        <v>Lâu dài</v>
+      </c>
+      <c r="D110" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="E110" t="str">
+        <v>She is now an australian permanent resident</v>
+      </c>
+      <c r="F110" t="str">
+        <v>A permanent resident / cư dân thường trú</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>U04_20</v>
+      </c>
+      <c r="B111">
+        <v>4</v>
+      </c>
+      <c r="C111" t="str">
+        <v>Mã</v>
+      </c>
+      <c r="D111" t="str">
+        <v>Code</v>
+      </c>
+      <c r="E111" t="str">
+        <v>Do not share your security code with anybody</v>
+      </c>
+      <c r="F111" t="str">
+        <v>Security code</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>U04_21</v>
+      </c>
+      <c r="B112">
+        <v>4</v>
+      </c>
+      <c r="C112" t="str">
+        <v>Quốc tịch</v>
+      </c>
+      <c r="D112" t="str">
+        <v>Nationality</v>
+      </c>
+      <c r="E112" t="str">
+        <v>My nationality is vietnamese</v>
+      </c>
+      <c r="F112" t="str">
+        <v>One's nationality</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>U04_22</v>
+      </c>
+      <c r="B113">
+        <v>4</v>
+      </c>
+      <c r="C113" t="str">
+        <v xml:space="preserve">Quê quán, quê nhà </v>
+      </c>
+      <c r="D113" t="str">
+        <v>Hometown</v>
+      </c>
+      <c r="E113" t="str">
+        <v>My hometown is Binh Thuan province</v>
+      </c>
+      <c r="F113" t="str">
+        <v>One's hometown/quê của ai đó</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>U04_23</v>
+      </c>
+      <c r="B114">
+        <v>4</v>
+      </c>
+      <c r="C114" t="str">
+        <v>Lớn lên</v>
+      </c>
+      <c r="D114" t="str">
+        <v>Grow up</v>
+      </c>
+      <c r="E114" t="str">
+        <v>I grew up in Binh Thuan</v>
+      </c>
+      <c r="F114" t="str">
+        <v>Grow up in a city</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>U04_24</v>
+      </c>
+      <c r="B115">
+        <v>4</v>
+      </c>
+      <c r="C115" t="str">
+        <v>Phía bắc, phương bắc</v>
+      </c>
+      <c r="D115" t="str">
+        <v>Northern</v>
+      </c>
+      <c r="E115" t="str">
+        <v>Hanoi is in northern vietnam</v>
+      </c>
+      <c r="F115" t="str">
+        <v>Northern vietnam</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>U04_25</v>
+      </c>
+      <c r="B116">
+        <v>4</v>
+      </c>
+      <c r="C116" t="str">
+        <v>Tỉnh</v>
+      </c>
+      <c r="D116" t="str">
+        <v>Province</v>
+      </c>
+      <c r="E116" t="str">
+        <v>Lao cai is a mountainous province</v>
+      </c>
+      <c r="F116" t="str">
+        <v>A mountainous province</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>U04_26</v>
+      </c>
+      <c r="B117">
+        <v>4</v>
+      </c>
+      <c r="C117" t="str">
+        <v>Phía nam, phương nam</v>
+      </c>
+      <c r="D117" t="str">
+        <v>Southern</v>
+      </c>
+      <c r="E117" t="str">
+        <v>HCM city is in southern vietnam</v>
+      </c>
+      <c r="F117" t="str">
+        <v>Southern vietnam</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>U04_27</v>
+      </c>
+      <c r="B118">
+        <v>4</v>
+      </c>
+      <c r="C118" t="str">
+        <v>Gần đây</v>
+      </c>
+      <c r="D118" t="str">
+        <v>Recently</v>
+      </c>
+      <c r="E118" t="str">
+        <v>I recently bought a new tv</v>
+      </c>
+      <c r="F118" t="str">
+        <v>Recently did something</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>U04_28</v>
+      </c>
+      <c r="B119">
+        <v>4</v>
+      </c>
+      <c r="C119" t="str">
+        <v>Quận huyện</v>
+      </c>
+      <c r="D119" t="str">
+        <v>District</v>
+      </c>
+      <c r="E119" t="str">
+        <v>Hoan kiem is an urban district of hanoi</v>
+      </c>
+      <c r="F119" t="str">
+        <v>An urban district</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>U04_29</v>
+      </c>
+      <c r="B120">
+        <v>4</v>
+      </c>
+      <c r="C120" t="str">
+        <v>Ký tên</v>
+      </c>
+      <c r="D120" t="str">
+        <v>Sign</v>
+      </c>
+      <c r="E120" t="str">
+        <v>Please sign here to agree to this contract</v>
+      </c>
+      <c r="F120" t="str">
+        <v>Sign here</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>U04_30</v>
+      </c>
+      <c r="B121">
+        <v>4</v>
+      </c>
+      <c r="C121" t="str">
+        <v xml:space="preserve">Gõ </v>
+      </c>
+      <c r="D121" t="str">
+        <v>Type</v>
+      </c>
+      <c r="E121" t="str">
+        <v>You should type your password in this box</v>
+      </c>
+      <c r="F121" t="str">
+        <v>Type one's password / nhập mật khẩu của một người</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>U05_01</v>
+      </c>
+      <c r="B122">
+        <v>5</v>
+      </c>
+      <c r="C122" t="str">
+        <v>Sự nghiệp</v>
+      </c>
+      <c r="D122" t="str">
+        <v>Career</v>
+      </c>
+      <c r="E122" t="str">
+        <v>I want to start my career as a youtube</v>
+      </c>
+      <c r="F122" t="str">
+        <v>Start one's career as / bắt đầu sự nghiệp bằng nghề</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>U05_02</v>
+      </c>
+      <c r="B123">
+        <v>5</v>
+      </c>
+      <c r="C123" t="str">
+        <v>Phù hợp</v>
+      </c>
+      <c r="D123" t="str">
+        <v>Suitable</v>
+      </c>
+      <c r="E123" t="str">
+        <v>This outfit is suitable for a  wedding</v>
+      </c>
+      <c r="F123" t="str">
+        <v>Suitable for</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>U05_03</v>
+      </c>
+      <c r="B124">
+        <v>5</v>
+      </c>
+      <c r="C124" t="str">
+        <v>Kinh nghiệm</v>
+      </c>
+      <c r="D124" t="str">
+        <v>Experience</v>
+      </c>
+      <c r="E124" t="str">
+        <v>Marketers haves lot of experiences in doing customer research</v>
+      </c>
+      <c r="F124" t="str">
+        <v>Experience in doing something</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>U05_04</v>
+      </c>
+      <c r="B125">
+        <v>5</v>
+      </c>
+      <c r="C125" t="str">
+        <v>Gắng sức</v>
+      </c>
+      <c r="D125" t="str">
+        <v>Struggle</v>
+      </c>
+      <c r="E125" t="str">
+        <v>She struggles to walk as fast as him</v>
+      </c>
+      <c r="F125" t="str">
+        <v>Struggle to do something</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>U05_05</v>
+      </c>
+      <c r="B126">
+        <v>5</v>
+      </c>
+      <c r="C126" t="str">
+        <v>Đam mê</v>
+      </c>
+      <c r="D126" t="str">
+        <v>Passion</v>
+      </c>
+      <c r="E126" t="str">
+        <v>I have a passion for fashion design</v>
+      </c>
+      <c r="F126" t="str">
+        <v>A passion for something</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>U05_06</v>
+      </c>
+      <c r="B127">
+        <v>5</v>
+      </c>
+      <c r="C127" t="str">
+        <v xml:space="preserve">Một vài </v>
+      </c>
+      <c r="D127" t="str">
+        <v>Several</v>
+      </c>
+      <c r="E127" t="str">
+        <v>I have seen this movie several times</v>
+      </c>
+      <c r="F127" t="str">
+        <v>Several times</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>U05_07</v>
+      </c>
+      <c r="B128">
+        <v>5</v>
+      </c>
+      <c r="C128" t="str">
+        <v>Kỹ sư</v>
+      </c>
+      <c r="D128" t="str">
+        <v>Engineer</v>
+      </c>
+      <c r="E128" t="str">
+        <v>He works as a civil engineer</v>
+      </c>
+      <c r="F128" t="str">
+        <v>A civil engineer</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>U05_08</v>
+      </c>
+      <c r="B129">
+        <v>5</v>
+      </c>
+      <c r="C129" t="str">
+        <v>Bối cảnh, nền tảng</v>
+      </c>
+      <c r="D129" t="str">
+        <v>Background</v>
+      </c>
+      <c r="E129" t="str">
+        <v>Vietnamese are proud of their cultural background</v>
+      </c>
+      <c r="F129" t="str">
+        <v>Cultural background</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>U05_09</v>
+      </c>
+      <c r="B130">
+        <v>5</v>
+      </c>
+      <c r="C130" t="str">
+        <v>Quyết định</v>
+      </c>
+      <c r="D130" t="str">
+        <v>Decide</v>
+      </c>
+      <c r="E130" t="str">
+        <v>I decide to do nothing today</v>
+      </c>
+      <c r="F130" t="str">
+        <v>Decide to do something</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>U05_10</v>
+      </c>
+      <c r="B131">
+        <v>5</v>
+      </c>
+      <c r="C131" t="str">
+        <v>Cảm hứng</v>
+      </c>
+      <c r="D131" t="str">
+        <v>Inspiration</v>
+      </c>
+      <c r="E131" t="str">
+        <v>My inspiration to work harder comes from JackMa</v>
+      </c>
+      <c r="F131" t="str">
+        <v>Inspiration to do something</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>U05_11</v>
+      </c>
+      <c r="B132">
+        <v>5</v>
+      </c>
+      <c r="C132" t="str">
+        <v>Lập trình viên</v>
+      </c>
+      <c r="D132" t="str">
+        <v>Developer</v>
+      </c>
+      <c r="E132" t="str">
+        <v>Software developers are paid a lot</v>
+      </c>
+      <c r="F132" t="str">
+        <v>A software developer</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>U05_12</v>
+      </c>
+      <c r="B133">
+        <v>5</v>
+      </c>
+      <c r="C133" t="str">
+        <v>Ở nước ngoài</v>
+      </c>
+      <c r="D133" t="str">
+        <v>Abroad</v>
+      </c>
+      <c r="E133" t="str">
+        <v>Her goal is to study abroad in Singapore</v>
+      </c>
+      <c r="F133" t="str">
+        <v>Study abroad</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>U05_13</v>
+      </c>
+      <c r="B134">
+        <v>5</v>
+      </c>
+      <c r="C134" t="str">
+        <v>Hòa nhập</v>
+      </c>
+      <c r="D134" t="str">
+        <v>Fit in</v>
+      </c>
+      <c r="E134" t="str">
+        <v>She easily fits in with her new colleagues</v>
+      </c>
+      <c r="F134" t="str">
+        <v>Fit in with somebody</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>U05_14</v>
+      </c>
+      <c r="B135">
+        <v>5</v>
+      </c>
+      <c r="C135" t="str">
+        <v>Lao động tự do</v>
+      </c>
+      <c r="D135" t="str">
+        <v>Freelance</v>
+      </c>
+      <c r="E135" t="str">
+        <v>I enjoy freelance work more than office work</v>
+      </c>
+      <c r="F135" t="str">
+        <v>Freelance work</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>U05_15</v>
+      </c>
+      <c r="B136">
+        <v>5</v>
+      </c>
+      <c r="C136" t="str">
+        <v>Nghề nghiệp</v>
+      </c>
+      <c r="D136" t="str">
+        <v>Occupation</v>
+      </c>
+      <c r="E136" t="str">
+        <v>Data analyst is a professional occupation</v>
+      </c>
+      <c r="F136" t="str">
+        <v>A professional occupation</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>U05_16</v>
+      </c>
+      <c r="B137">
+        <v>5</v>
+      </c>
+      <c r="C137" t="str">
+        <v>Chi tiết</v>
+      </c>
+      <c r="D137" t="str">
+        <v>Detail</v>
+      </c>
+      <c r="E137" t="str">
+        <v>My teacher explains everything in detail</v>
+      </c>
+      <c r="F137" t="str">
+        <v>In detail</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>U05_17</v>
+      </c>
+      <c r="B138">
+        <v>5</v>
+      </c>
+      <c r="C138" t="str">
+        <v>Cụ thế</v>
+      </c>
+      <c r="D138" t="str">
+        <v>Specific</v>
+      </c>
+      <c r="E138" t="str">
+        <v>Please give me more specific instructions</v>
+      </c>
+      <c r="F138" t="str">
+        <v>Specific instruction</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>U05_18</v>
+      </c>
+      <c r="B139">
+        <v>5</v>
+      </c>
+      <c r="C139" t="str">
+        <v>Tương lai</v>
+      </c>
+      <c r="D139" t="str">
+        <v>Future</v>
+      </c>
+      <c r="E139" t="str">
+        <v>I will travel to Singapore in the Future</v>
+      </c>
+      <c r="F139" t="str">
+        <v>In the future</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>U05_19</v>
+      </c>
+      <c r="B140">
+        <v>5</v>
+      </c>
+      <c r="C140" t="str">
+        <v>Chuyên viên</v>
+      </c>
+      <c r="D140" t="str">
+        <v>Specialist</v>
+      </c>
+      <c r="E140" t="str">
+        <v>He is a specialist in market research</v>
+      </c>
+      <c r="F140" t="str">
+        <v>A specialist in something</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>U05_20</v>
+      </c>
+      <c r="B141">
+        <v>5</v>
+      </c>
+      <c r="C141" t="str">
+        <v>Thành tựu</v>
+      </c>
+      <c r="D141" t="str">
+        <v>Achievement</v>
+      </c>
+      <c r="E141" t="str">
+        <v>Our football team has made many outstanding achievement</v>
+      </c>
+      <c r="F141" t="str">
+        <v>An outstanding achievement</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>U05_21</v>
+      </c>
+      <c r="B142">
+        <v>5</v>
+      </c>
+      <c r="C142" t="str">
+        <v>Có được</v>
+      </c>
+      <c r="D142" t="str">
+        <v>Acquire</v>
+      </c>
+      <c r="E142" t="str">
+        <v>Working here helps me acquire negotiation skills</v>
+      </c>
+      <c r="F142" t="str">
+        <v>Acquire a skill</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>U05_22</v>
+      </c>
+      <c r="B143">
+        <v>5</v>
+      </c>
+      <c r="C143" t="str">
+        <v>Bằng cấp</v>
+      </c>
+      <c r="D143" t="str">
+        <v>Degree</v>
+      </c>
+      <c r="E143" t="str">
+        <v>A bachelor's degree is very common nowadays</v>
+      </c>
+      <c r="F143" t="str">
+        <v>A bachelor's degree</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>U05_23</v>
+      </c>
+      <c r="B144">
+        <v>5</v>
+      </c>
+      <c r="C144" t="str">
+        <v>Cho rằng</v>
+      </c>
+      <c r="D144" t="str">
+        <v>Suppose</v>
+      </c>
+      <c r="E144" t="str">
+        <v>I suppose that he did not finish his work</v>
+      </c>
+      <c r="F144" t="str">
+        <v>Suppose that</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>U05_24</v>
+      </c>
+      <c r="B145">
+        <v>5</v>
+      </c>
+      <c r="C145" t="str">
+        <v>Tham dự</v>
+      </c>
+      <c r="D145" t="str">
+        <v>Attend</v>
+      </c>
+      <c r="E145" t="str">
+        <v>Students must attend school on weekdays</v>
+      </c>
+      <c r="F145" t="str">
+        <v>Attend school</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>U05_25</v>
+      </c>
+      <c r="B146">
+        <v>5</v>
+      </c>
+      <c r="C146" t="str">
+        <v>Theo chuyên ngành</v>
+      </c>
+      <c r="D146" t="str">
+        <v>Major</v>
+      </c>
+      <c r="E146" t="str">
+        <v>She majors in mechanical engineering</v>
+      </c>
+      <c r="F146" t="str">
+        <v>Major in something / Theo học ngành gì đó</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>U05_26</v>
+      </c>
+      <c r="B147">
+        <v>5</v>
+      </c>
+      <c r="C147" t="str">
+        <v>Điểm</v>
+      </c>
+      <c r="D147" t="str">
+        <v>Grade</v>
+      </c>
+      <c r="E147" t="str">
+        <v>This exam makes up half of the final grade</v>
+      </c>
+      <c r="F147" t="str">
+        <v>The final grade</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>U05_27</v>
+      </c>
+      <c r="B148">
+        <v>5</v>
+      </c>
+      <c r="C148" t="str">
+        <v>(Thuộc cấp) Tiểu học</v>
+      </c>
+      <c r="D148" t="str">
+        <v>Primary</v>
+      </c>
+      <c r="E148" t="str">
+        <v>My nephew goes to Cau Giay primary school</v>
+      </c>
+      <c r="F148" t="str">
+        <v>A primary school</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>U05_28</v>
+      </c>
+      <c r="B149">
+        <v>5</v>
+      </c>
+      <c r="C149" t="str">
+        <v>Động lực</v>
+      </c>
+      <c r="D149" t="str">
+        <v>Motivation</v>
+      </c>
+      <c r="E149" t="str">
+        <v>She needs the motivation to study harder</v>
+      </c>
+      <c r="F149" t="str">
+        <v>Motivation to do something</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>U05_29</v>
+      </c>
+      <c r="B150">
+        <v>5</v>
+      </c>
+      <c r="C150" t="str">
+        <v>Đại học</v>
+      </c>
+      <c r="D150" t="str">
+        <v>University</v>
+      </c>
+      <c r="E150" t="str">
+        <v>All her children left their hometown to go to university</v>
+      </c>
+      <c r="F150" t="str">
+        <v>Go to university</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>U05_30</v>
+      </c>
+      <c r="B151">
+        <v>5</v>
+      </c>
+      <c r="C151" t="str">
+        <v xml:space="preserve">Mơ ước </v>
+      </c>
+      <c r="D151" t="str">
+        <v>Dream</v>
+      </c>
+      <c r="E151" t="str">
+        <v>He dreams of being rich all the time</v>
+      </c>
+      <c r="F151" t="str">
+        <v>Dream of something</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>U26_01</v>
+      </c>
+      <c r="B152">
+        <v>26</v>
+      </c>
+      <c r="C152" t="str">
+        <v>Chương trình</v>
+      </c>
+      <c r="D152" t="str">
+        <v>Show</v>
+      </c>
+      <c r="E152" t="str">
+        <v>I watch TV shows on my television</v>
+      </c>
+      <c r="F152" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>U26_02</v>
+      </c>
+      <c r="B153">
+        <v>26</v>
+      </c>
+      <c r="C153" t="str">
+        <v>Cảnh</v>
+      </c>
+      <c r="D153" t="str">
+        <v>Scene</v>
+      </c>
+      <c r="E153" t="str">
+        <v>The crew needs to film a scene</v>
+      </c>
+      <c r="F153" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>U26_03</v>
+      </c>
+      <c r="B154">
+        <v>26</v>
+      </c>
+      <c r="C154" t="str">
+        <v>Nam diễn viên</v>
+      </c>
+      <c r="D154" t="str">
+        <v>Actor</v>
+      </c>
+      <c r="E154" t="str">
+        <v>Who is the lead actor in titanic</v>
+      </c>
+      <c r="F154" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>U26_04</v>
+      </c>
+      <c r="B155">
+        <v>26</v>
+      </c>
+      <c r="C155" t="str">
+        <v>Thuộc âm nhạc</v>
+      </c>
+      <c r="D155" t="str">
+        <v>Musical</v>
+      </c>
+      <c r="E155" t="str">
+        <v xml:space="preserve">The audience loved the musical performance </v>
+      </c>
+      <c r="F155" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>U26_05</v>
+      </c>
+      <c r="B156">
+        <v>26</v>
+      </c>
+      <c r="C156" t="str">
+        <v>Nhạc phim</v>
+      </c>
+      <c r="D156" t="str">
+        <v>Soundtrack</v>
+      </c>
+      <c r="E156" t="str">
+        <v>The soundtrack of this movie is great</v>
+      </c>
+      <c r="F156" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>U26_06</v>
+      </c>
+      <c r="B157">
+        <v>26</v>
+      </c>
+      <c r="C157" t="str">
+        <v>Thuộc lịch sử</v>
+      </c>
+      <c r="D157" t="str">
+        <v>Historical</v>
+      </c>
+      <c r="E157" t="str">
+        <v>Albert Einstein is an important historical figure</v>
+      </c>
+      <c r="F157" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>U26_07</v>
+      </c>
+      <c r="B158">
+        <v>26</v>
+      </c>
+      <c r="C158" t="str">
+        <v>Bí ẩn</v>
+      </c>
+      <c r="D158" t="str">
+        <v>Mystery</v>
+      </c>
+      <c r="E158" t="str">
+        <v>Nobody can solve the mystery of the Bermuda triangle</v>
+      </c>
+      <c r="F158" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>U26_08</v>
+      </c>
+      <c r="B159">
+        <v>26</v>
+      </c>
+      <c r="C159" t="str">
+        <v>Tội ác</v>
+      </c>
+      <c r="D159" t="str">
+        <v>Crime</v>
+      </c>
+      <c r="E159" t="str">
+        <v>Stealing money is a serious crime</v>
+      </c>
+      <c r="F159" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>U26_09</v>
+      </c>
+      <c r="B160">
+        <v>26</v>
+      </c>
+      <c r="C160" t="str">
+        <v>Đoạn kết</v>
+      </c>
+      <c r="D160" t="str">
+        <v>Ending</v>
+      </c>
+      <c r="E160" t="str">
+        <v>Fairy tales have happy endings</v>
+      </c>
+      <c r="F160" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>U26_10</v>
+      </c>
+      <c r="B161">
+        <v>26</v>
+      </c>
+      <c r="C161" t="str">
+        <v>Tiết lộ</v>
+      </c>
+      <c r="D161" t="str">
+        <v>Reveal</v>
+      </c>
+      <c r="E161" t="str">
+        <v>The magician never reveals the truth</v>
+      </c>
+      <c r="F161" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>U26_11</v>
+      </c>
+      <c r="B162">
+        <v>26</v>
+      </c>
+      <c r="C162" t="str">
+        <v>Phim giật gân</v>
+      </c>
+      <c r="D162" t="str">
+        <v>Thriller</v>
+      </c>
+      <c r="E162" t="str">
+        <v>Thriller movies are scary</v>
+      </c>
+      <c r="F162" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>U26_12</v>
+      </c>
+      <c r="B163">
+        <v>26</v>
+      </c>
+      <c r="C163" t="str">
+        <v>Xưởng, không gian sáng tạo</v>
+      </c>
+      <c r="D163" t="str">
+        <v>Studio</v>
+      </c>
+      <c r="E163" t="str">
+        <v>She teaches us at her dance studio</v>
+      </c>
+      <c r="F163" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>U26_13</v>
+      </c>
+      <c r="B164">
+        <v>26</v>
+      </c>
+      <c r="C164" t="str">
+        <v>Bối cảnh, khung cảnh</v>
+      </c>
+      <c r="D164" t="str">
+        <v>Setting</v>
+      </c>
+      <c r="E164" t="str">
+        <v xml:space="preserve">What a beautiful setting this city is </v>
+      </c>
+      <c r="F164" t="str">
+        <v>A beautiful setting</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>U26_14</v>
+      </c>
+      <c r="B165">
+        <v>26</v>
+      </c>
+      <c r="C165" t="str">
+        <v>Điều viễn tưởng</v>
+      </c>
+      <c r="D165" t="str">
+        <v>Fiction</v>
+      </c>
+      <c r="E165" t="str">
+        <v>She wrote fiction on aliens and love</v>
+      </c>
+      <c r="F165" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>U26_15</v>
+      </c>
+      <c r="B166">
+        <v>26</v>
+      </c>
+      <c r="C166" t="str">
+        <v>Sự việc kịch tính</v>
+      </c>
+      <c r="D166" t="str">
+        <v>Drama</v>
+      </c>
+      <c r="E166" t="str">
+        <v>Teens like to watch drama series</v>
+      </c>
+      <c r="F166" t="str">
+        <v>A drama series</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>U26_16</v>
+      </c>
+      <c r="B167">
+        <v>26</v>
+      </c>
+      <c r="C167" t="str">
+        <v>Đạo diễn</v>
+      </c>
+      <c r="D167" t="str">
+        <v>Director</v>
+      </c>
+      <c r="E167" t="str">
+        <v>The young film director deserves our recognition</v>
+      </c>
+      <c r="F167" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>U26_17</v>
+      </c>
+      <c r="B168">
+        <v>26</v>
+      </c>
+      <c r="C168" t="str">
+        <v>Ra mắt</v>
+      </c>
+      <c r="D168" t="str">
+        <v>Come out</v>
+      </c>
+      <c r="E168" t="str">
+        <v>When is her album coming out?</v>
+      </c>
+      <c r="F168" t="str">
+        <v>Something new comes out</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>U26_18</v>
+      </c>
+      <c r="B169">
+        <v>26</v>
+      </c>
+      <c r="C169" t="str">
+        <v>Nhân vật</v>
+      </c>
+      <c r="D169" t="str">
+        <v>Character</v>
+      </c>
+      <c r="E169" t="str">
+        <v>The main character in "Batman" is mysterious</v>
+      </c>
+      <c r="F169" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>U26_19</v>
+      </c>
+      <c r="B170">
+        <v>26</v>
+      </c>
+      <c r="C170" t="str">
+        <v>Nữ diễn viên</v>
+      </c>
+      <c r="D170" t="str">
+        <v>Actress</v>
+      </c>
+      <c r="E170" t="str">
+        <v>She was a good actress back then</v>
+      </c>
+      <c r="F170" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>U26_20</v>
+      </c>
+      <c r="B171">
+        <v>26</v>
+      </c>
+      <c r="C171" t="str">
+        <v>Kỳ lạ, kỳ quặc</v>
+      </c>
+      <c r="D171" t="str">
+        <v>Odd</v>
+      </c>
+      <c r="E171" t="str">
+        <v>Hanging out with odd people is fun</v>
+      </c>
+      <c r="F171" t="str">
+        <v>An odd person</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>U26_21</v>
+      </c>
+      <c r="B172">
+        <v>26</v>
+      </c>
+      <c r="C172" t="str">
+        <v>Màn hình</v>
+      </c>
+      <c r="D172" t="str">
+        <v>Screen</v>
+      </c>
+      <c r="E172" t="str">
+        <v>The laptop has a big computer screen</v>
+      </c>
+      <c r="F172" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>U26_22</v>
+      </c>
+      <c r="B173">
+        <v>26</v>
+      </c>
+      <c r="C173" t="str">
+        <v>Hành động</v>
+      </c>
+      <c r="D173" t="str">
+        <v>Action</v>
+      </c>
+      <c r="E173" t="str">
+        <v>My favorite action movie is Fast and Furious</v>
+      </c>
+      <c r="F173" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>U26_23</v>
+      </c>
+      <c r="B174">
+        <v>26</v>
+      </c>
+      <c r="C174" t="str">
+        <v>Chuyến phiêu lưu</v>
+      </c>
+      <c r="D174" t="str">
+        <v>Adventure</v>
+      </c>
+      <c r="E174" t="str">
+        <v>I seek an adventure of a lifetime</v>
+      </c>
+      <c r="F174" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>U26_24</v>
+      </c>
+      <c r="B175">
+        <v>26</v>
+      </c>
+      <c r="C175" t="str">
+        <v>Phim tài liệu</v>
+      </c>
+      <c r="D175" t="str">
+        <v>Documentary</v>
+      </c>
+      <c r="E175" t="str">
+        <v>I watched that documentary film on Netflix</v>
+      </c>
+      <c r="F175" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>U26_25</v>
+      </c>
+      <c r="B176">
+        <v>26</v>
+      </c>
+      <c r="C176" t="str">
+        <v>Góc</v>
+      </c>
+      <c r="D176" t="str">
+        <v>Angle</v>
+      </c>
+      <c r="E176" t="str">
+        <v>Tilt your head to a 45 angle</v>
+      </c>
+      <c r="F176" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>U26_26</v>
+      </c>
+      <c r="B177">
+        <v>26</v>
+      </c>
+      <c r="C177" t="str">
+        <v>Thấy khó hiểu</v>
+      </c>
+      <c r="D177" t="str">
+        <v>Confused</v>
+      </c>
+      <c r="E177" t="str">
+        <v>Are you confused about the instructions?</v>
+      </c>
+      <c r="F177" t="str">
+        <v>Confused about something</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>U26_27</v>
+      </c>
+      <c r="B178">
+        <v>26</v>
+      </c>
+      <c r="C178" t="str">
+        <v>Cuộc hội thoại, lời thoại</v>
+      </c>
+      <c r="D178" t="str">
+        <v>Dialogue</v>
+      </c>
+      <c r="E178" t="str">
+        <v>The dialogue with my therapist helped me</v>
+      </c>
+      <c r="F178" t="str">
+        <v>Dialogue with somebody</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>U26_28</v>
+      </c>
+      <c r="B179">
+        <v>26</v>
+      </c>
+      <c r="C179" t="str">
+        <v>Tác phẩm thành công</v>
+      </c>
+      <c r="D179" t="str">
+        <v>Hit</v>
+      </c>
+      <c r="E179" t="str">
+        <v>His book became a big hit</v>
+      </c>
+      <c r="F179" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>U26_29</v>
+      </c>
+      <c r="B180">
+        <v>26</v>
+      </c>
+      <c r="C180" t="str">
+        <v>Tuyệt vời</v>
+      </c>
+      <c r="D180" t="str">
+        <v>Wonderful</v>
+      </c>
+      <c r="E180" t="str">
+        <v>I am grateful for the wonderful opportunity</v>
+      </c>
+      <c r="F180" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>U26_30</v>
+      </c>
+      <c r="B181">
+        <v>26</v>
+      </c>
+      <c r="C181" t="str">
+        <v>Tài giỏi, tuyệt vời</v>
+      </c>
+      <c r="D181" t="str">
+        <v>Brilliant</v>
+      </c>
+      <c r="E181" t="str">
+        <v>Thank you for the brilliant idea</v>
+      </c>
+      <c r="F181" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>U27_01</v>
+      </c>
+      <c r="B182">
+        <v>27</v>
+      </c>
+      <c r="C182" t="str">
+        <v>Khiêm tốn</v>
+      </c>
+      <c r="D182" t="str">
+        <v>Modest</v>
+      </c>
+      <c r="E182" t="str">
+        <v>You are too modest! You are gifted.</v>
+      </c>
+      <c r="F182" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>U27_02</v>
+      </c>
+      <c r="B183">
+        <v>27</v>
+      </c>
+      <c r="C183" t="str">
+        <v>Có năng khiếu</v>
+      </c>
+      <c r="D183" t="str">
+        <v>Gifted</v>
+      </c>
+      <c r="E183" t="str">
+        <v>Do you consider yourself a gifted musican?</v>
+      </c>
+      <c r="F183" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>U27_03</v>
+      </c>
+      <c r="B184">
+        <v>27</v>
+      </c>
+      <c r="C184" t="str">
+        <v>Ngành giải trí</v>
+      </c>
+      <c r="D184" t="str">
+        <v>Showbiz</v>
+      </c>
+      <c r="E184" t="str">
+        <v>People in showbiz are movie stars</v>
+      </c>
+      <c r="F184" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>U27_04</v>
+      </c>
+      <c r="B185">
+        <v>27</v>
+      </c>
+      <c r="C185" t="str">
+        <v>Kênh</v>
+      </c>
+      <c r="D185" t="str">
+        <v>Channel</v>
+      </c>
+      <c r="E185" t="str">
+        <v>The show is live on the VTV3 channel</v>
+      </c>
+      <c r="F185" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>U27_05</v>
+      </c>
+      <c r="B186">
+        <v>27</v>
+      </c>
+      <c r="C186" t="str">
+        <v>Truyền thông</v>
+      </c>
+      <c r="D186" t="str">
+        <v>Media</v>
+      </c>
+      <c r="E186" t="str">
+        <v>My mom posts so many pictures on social media</v>
+      </c>
+      <c r="F186" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>U27_06</v>
+      </c>
+      <c r="B187">
+        <v>27</v>
+      </c>
+      <c r="C187" t="str">
+        <v>Nổi tiếng</v>
+      </c>
+      <c r="D187" t="str">
+        <v>Well-known</v>
+      </c>
+      <c r="E187" t="str">
+        <v>Is he a well-known actor?</v>
+      </c>
+      <c r="F187" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>U27_07</v>
+      </c>
+      <c r="B188">
+        <v>27</v>
+      </c>
+      <c r="C188" t="str">
+        <v>Nhận ra</v>
+      </c>
+      <c r="D188" t="str">
+        <v>Recognize</v>
+      </c>
+      <c r="E188" t="str">
+        <v>Did you recognize me on stage?</v>
+      </c>
+      <c r="F188" t="str">
+        <v>Recognize somebody or something</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>U27_08</v>
+      </c>
+      <c r="B189">
+        <v>27</v>
+      </c>
+      <c r="C189" t="str">
+        <v>Người hâm mộ</v>
+      </c>
+      <c r="D189" t="str">
+        <v>Fan</v>
+      </c>
+      <c r="E189" t="str">
+        <v>My girlfriend is a big soccer fan</v>
+      </c>
+      <c r="F189" t="str">
+        <v>A soccer fan</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>U27_09</v>
+      </c>
+      <c r="B190">
+        <v>27</v>
+      </c>
+      <c r="C190" t="str">
+        <v>Đăng ký</v>
+      </c>
+      <c r="D190" t="str">
+        <v>Subscribe</v>
+      </c>
+      <c r="E190" t="str">
+        <v>Please subscribe to step up english youtube channel</v>
+      </c>
+      <c r="F190" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>U27_10</v>
+      </c>
+      <c r="B191">
+        <v>27</v>
+      </c>
+      <c r="C191" t="str">
+        <v>Hét to</v>
+      </c>
+      <c r="D191" t="str">
+        <v>Sceam</v>
+      </c>
+      <c r="E191" t="str">
+        <v>They screamed out loud for help</v>
+      </c>
+      <c r="F191" t="str">
+        <v>Scream out loud</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>U27_11</v>
+      </c>
+      <c r="B192">
+        <v>27</v>
+      </c>
+      <c r="C192" t="str">
+        <v>Buồn cười</v>
+      </c>
+      <c r="D192" t="str">
+        <v>Funny</v>
+      </c>
+      <c r="E192" t="str">
+        <v>The funny story made me laugh hard</v>
+      </c>
+      <c r="F192" t="str">
+        <v>A funny story</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>U27_12</v>
+      </c>
+      <c r="B193">
+        <v>27</v>
+      </c>
+      <c r="C193" t="str">
+        <v>Hiện nay</v>
+      </c>
+      <c r="D193" t="str">
+        <v>Currently</v>
+      </c>
+      <c r="E193" t="str">
+        <v>I am currently working as a front-end developer</v>
+      </c>
+      <c r="F193" t="str">
+        <v>Currently working as something</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>U27_13</v>
+      </c>
+      <c r="B194">
+        <v>27</v>
+      </c>
+      <c r="C194" t="str">
+        <v>Lan truyền nhanh</v>
+      </c>
+      <c r="D194" t="str">
+        <v>Viral</v>
+      </c>
+      <c r="E194" t="str">
+        <v>The video went viral on Facebook</v>
+      </c>
+      <c r="F194" t="str">
+        <v>Go viral</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>U27_14</v>
+      </c>
+      <c r="B195">
+        <v>27</v>
+      </c>
+      <c r="C195" t="str">
+        <v>Màn biểu diễn</v>
+      </c>
+      <c r="D195" t="str">
+        <v>Performance</v>
+      </c>
+      <c r="E195" t="str">
+        <v>The opera singer delivered an outstanding performance</v>
+      </c>
+      <c r="F195" t="str">
+        <v>Deliver an outstanding performance</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>U27_15</v>
+      </c>
+      <c r="B196">
+        <v>27</v>
+      </c>
+      <c r="C196" t="str">
+        <v>Quá khứ</v>
+      </c>
+      <c r="D196" t="str">
+        <v>Past</v>
+      </c>
+      <c r="E196" t="str">
+        <v>I used to live abroad in the past</v>
+      </c>
+      <c r="F196" t="str">
+        <v>In the past</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>U27_16</v>
+      </c>
+      <c r="B197">
+        <v>27</v>
+      </c>
+      <c r="C197" t="str">
+        <v>Trở nên</v>
+      </c>
+      <c r="D197" t="str">
+        <v>Become</v>
+      </c>
+      <c r="E197" t="str">
+        <v>I want to become a person of influence</v>
+      </c>
+      <c r="F197" t="str">
+        <v>Become somebody or something</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>U27_17</v>
+      </c>
+      <c r="B198">
+        <v>27</v>
+      </c>
+      <c r="C198" t="str">
+        <v>Toàn cầu</v>
+      </c>
+      <c r="D198" t="str">
+        <v>Global</v>
+      </c>
+      <c r="E198" t="str">
+        <v>The singer's talent made her go global</v>
+      </c>
+      <c r="F198" t="str">
+        <v>Go global</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>U27_18</v>
+      </c>
+      <c r="B199">
+        <v>27</v>
+      </c>
+      <c r="C199" t="str">
+        <v>Lên tiếng</v>
+      </c>
+      <c r="D199" t="str">
+        <v>Speak out</v>
+      </c>
+      <c r="E199" t="str">
+        <v>She bravely spoke out against her boss</v>
+      </c>
+      <c r="F199" t="str">
+        <v>Speak out against somebody or something</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>U27_19</v>
+      </c>
+      <c r="B200">
+        <v>27</v>
+      </c>
+      <c r="C200" t="str">
+        <v>Xứng đáng</v>
+      </c>
+      <c r="D200" t="str">
+        <v>Deserve</v>
+      </c>
+      <c r="E200" t="str">
+        <v>I deserve ice cream after work</v>
+      </c>
+      <c r="F200" t="str">
+        <v>Deserve something</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>U27_20</v>
+      </c>
+      <c r="B201">
+        <v>27</v>
+      </c>
+      <c r="C201" t="str">
+        <v>Trực tiếp</v>
+      </c>
+      <c r="D201" t="str">
+        <v>Live</v>
+      </c>
+      <c r="E201" t="str">
+        <v>The band did a live performance</v>
+      </c>
+      <c r="F201" t="str">
+        <v>A live performance</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>U27_21</v>
+      </c>
+      <c r="B202">
+        <v>27</v>
+      </c>
+      <c r="C202" t="str">
+        <v>Giải thưởng</v>
+      </c>
+      <c r="D202" t="str">
+        <v>Award</v>
+      </c>
+      <c r="E202" t="str">
+        <v>She received an award for her acting</v>
+      </c>
+      <c r="F202" t="str">
+        <v>Receive an award</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>U27_22</v>
+      </c>
+      <c r="B203">
+        <v>27</v>
+      </c>
+      <c r="C203" t="str">
+        <v>Danh dự</v>
+      </c>
+      <c r="D203" t="str">
+        <v>Honor</v>
+      </c>
+      <c r="E203" t="str">
+        <v>Welcome, you are my guest of honor</v>
+      </c>
+      <c r="F203" t="str">
+        <v>The guest of honor</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>U27_23</v>
+      </c>
+      <c r="B204">
+        <v>27</v>
+      </c>
+      <c r="C204" t="str">
+        <v>Việc thiện nguyện</v>
+      </c>
+      <c r="D204" t="str">
+        <v>Charity</v>
+      </c>
+      <c r="E204" t="str">
+        <v>We should do charity for the disadvantaged</v>
+      </c>
+      <c r="F204" t="str">
+        <v>Do charity for somebody</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>U27_24</v>
+      </c>
+      <c r="B205">
+        <v>27</v>
+      </c>
+      <c r="C205" t="str">
+        <v>Tình nguyện</v>
+      </c>
+      <c r="D205" t="str">
+        <v>Volunteer</v>
+      </c>
+      <c r="E205" t="str">
+        <v>She volunteered to clean the car</v>
+      </c>
+      <c r="F205" t="str">
+        <v>Volunteer to do something</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>U27_25</v>
+      </c>
+      <c r="B206">
+        <v>27</v>
+      </c>
+      <c r="C206" t="str">
+        <v>Vụ bê bối</v>
+      </c>
+      <c r="D206" t="str">
+        <v>Scandal</v>
+      </c>
+      <c r="E206" t="str">
+        <v>He created the scandal to attract attention</v>
+      </c>
+      <c r="F206" t="str">
+        <v>Create a scandal</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>U27_26</v>
+      </c>
+      <c r="B207">
+        <v>27</v>
+      </c>
+      <c r="C207" t="str">
+        <v>Tin đồn</v>
+      </c>
+      <c r="D207" t="str">
+        <v>Rumor</v>
+      </c>
+      <c r="E207" t="str">
+        <v>Rumor has it that you got the job!</v>
+      </c>
+      <c r="F207" t="str">
+        <v>Rumor has it that</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>U27_27</v>
+      </c>
+      <c r="B208">
+        <v>27</v>
+      </c>
+      <c r="C208" t="str">
+        <v>Tiểu sử</v>
+      </c>
+      <c r="D208" t="str">
+        <v>Biography</v>
+      </c>
+      <c r="E208" t="str">
+        <v>They wrote a biography of her life</v>
+      </c>
+      <c r="F208" t="str">
+        <v>A biography of something</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>U27_28</v>
+      </c>
+      <c r="B209">
+        <v>27</v>
+      </c>
+      <c r="C209" t="str">
+        <v>Ngưỡng mộ</v>
+      </c>
+      <c r="D209" t="str">
+        <v>Admire</v>
+      </c>
+      <c r="E209" t="str">
+        <v>I admire my student's passion</v>
+      </c>
+      <c r="F209" t="str">
+        <v>Admire somebody or something</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>U27_29</v>
+      </c>
+      <c r="B210">
+        <v>27</v>
+      </c>
+      <c r="C210" t="str">
+        <v>Ngưỡng mộ</v>
+      </c>
+      <c r="D210" t="str">
+        <v>Look up to</v>
+      </c>
+      <c r="E210" t="str">
+        <v>I look up to my father very much</v>
+      </c>
+      <c r="F210" t="str">
+        <v>Look up to somebody</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>U27_30</v>
+      </c>
+      <c r="B211">
+        <v>27</v>
+      </c>
+      <c r="C211" t="str">
+        <v>Đáp ứng tiêu chuẩn</v>
+      </c>
+      <c r="D211" t="str">
+        <v>Live up to</v>
+      </c>
+      <c r="E211" t="str">
+        <v>He lived up to my parent's expectations</v>
+      </c>
+      <c r="F211" t="str">
+        <v>Live up to my parent's expectations</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>U28_01</v>
+      </c>
+      <c r="B212">
+        <v>28</v>
+      </c>
+      <c r="C212" t="str">
+        <v>Buổi hòa nhạc</v>
+      </c>
+      <c r="D212" t="str">
+        <v>Concert</v>
+      </c>
+      <c r="E212" t="str">
+        <v>Let's go to a concert tonight!</v>
+      </c>
+      <c r="F212" t="str">
+        <v>Go to a concert</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>U28_02</v>
+      </c>
+      <c r="B213">
+        <v>28</v>
+      </c>
+      <c r="C213" t="str">
+        <v>Trò xếp hình, trò giải đố</v>
+      </c>
+      <c r="D213" t="str">
+        <v>Puzzle</v>
+      </c>
+      <c r="E213" t="str">
+        <v>Crassword puzzles are for everyone to play</v>
+      </c>
+      <c r="F213" t="str">
+        <v>A crossword puzzle</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>U28_03</v>
+      </c>
+      <c r="B214">
+        <v>28</v>
+      </c>
+      <c r="C214" t="str">
+        <v>Đoán</v>
+      </c>
+      <c r="D214" t="str">
+        <v>Guess</v>
+      </c>
+      <c r="E214" t="str">
+        <v>Can you guess my age</v>
+      </c>
+      <c r="F214" t="str">
+        <v>Guess something</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>U28_04</v>
+      </c>
+      <c r="B215">
+        <v>28</v>
+      </c>
+      <c r="C215" t="str">
+        <v>Tin Tường</v>
+      </c>
+      <c r="D215" t="str">
+        <v>Keen</v>
+      </c>
+      <c r="E215" t="str">
+        <v>She has a keen eye for fashion</v>
+      </c>
+      <c r="F215" t="str">
+        <v>A keen eye for something</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>U28_05</v>
+      </c>
+      <c r="B216">
+        <v>28</v>
+      </c>
+      <c r="C216" t="str">
+        <v>Đan</v>
+      </c>
+      <c r="D216" t="str">
+        <v>Knit</v>
+      </c>
+      <c r="E216" t="str">
+        <v>Grandma loves to knit scarves</v>
+      </c>
+      <c r="F216" t="str">
+        <v>Knit something</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>U28_06</v>
+      </c>
+      <c r="B217">
+        <v>28</v>
+      </c>
+      <c r="C217" t="str">
+        <v>Tiểu thuyết</v>
+      </c>
+      <c r="D217" t="str">
+        <v>Novel</v>
+      </c>
+      <c r="E217" t="str">
+        <v>The author wrote two best-selling novels</v>
+      </c>
+      <c r="F217" t="str">
+        <v>A best-selling novel</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>U28_07</v>
+      </c>
+      <c r="B218">
+        <v>28</v>
+      </c>
+      <c r="C218" t="str">
+        <v>Bộ sưu tập</v>
+      </c>
+      <c r="D218" t="str">
+        <v>Collection</v>
+      </c>
+      <c r="E218" t="str">
+        <v>He has a collection of vinyl records</v>
+      </c>
+      <c r="F218" t="str">
+        <v>Collection of something</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>U28_08</v>
+      </c>
+      <c r="B219">
+        <v>28</v>
+      </c>
+      <c r="C219" t="str">
+        <v>Chèo thuyền</v>
+      </c>
+      <c r="D219" t="str">
+        <v>Sail</v>
+      </c>
+      <c r="E219" t="str">
+        <v>Can we sail a boat tomorrow?</v>
+      </c>
+      <c r="F219" t="str">
+        <v>Sail a boat</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>U28_09</v>
+      </c>
+      <c r="B220">
+        <v>28</v>
+      </c>
+      <c r="C220" t="str">
+        <v>Có hứng thú</v>
+      </c>
+      <c r="D220" t="str">
+        <v>Interested</v>
+      </c>
+      <c r="E220" t="str">
+        <v>Are you interested in the arts?</v>
+      </c>
+      <c r="F220" t="str">
+        <v>Interested in something or somebody</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>U28_10</v>
+      </c>
+      <c r="B221">
+        <v>28</v>
+      </c>
+      <c r="C221" t="str">
+        <v>Nhiếp ảnh</v>
+      </c>
+      <c r="D221" t="str">
+        <v>Photography</v>
+      </c>
+      <c r="E221" t="str">
+        <v>The artist mainly does digital photography</v>
+      </c>
+      <c r="F221" t="str">
+        <v>Digital photography</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>U28_11</v>
+      </c>
+      <c r="B222">
+        <v>28</v>
+      </c>
+      <c r="C222" t="str">
+        <v>Hướng dẫn cách làm</v>
+      </c>
+      <c r="D222" t="str">
+        <v>Tutorial</v>
+      </c>
+      <c r="E222" t="str">
+        <v>Check out her step-by-step tutorial on makeup</v>
+      </c>
+      <c r="F222" t="str">
+        <v>Step-by-Step tutorial</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>U28_12</v>
+      </c>
+      <c r="B223">
+        <v>28</v>
+      </c>
+      <c r="C223" t="str">
+        <v>Nhật ký bằng video</v>
+      </c>
+      <c r="D223" t="str">
+        <v>Vlogs</v>
+      </c>
+      <c r="E223" t="str">
+        <v/>
+      </c>
+      <c r="F223" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>U28_13</v>
+      </c>
+      <c r="B224">
+        <v>28</v>
+      </c>
+      <c r="C224" t="str">
+        <v>Đội, nhóm</v>
+      </c>
+      <c r="D224" t="str">
+        <v>Team</v>
+      </c>
+      <c r="E224" t="str">
+        <v>The soccer team won 5-1</v>
+      </c>
+      <c r="F224" t="str">
+        <v>A soccer team</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>U28_14</v>
+      </c>
+      <c r="B225">
+        <v>28</v>
+      </c>
+      <c r="C225" t="str">
+        <v>Thử</v>
+      </c>
+      <c r="D225" t="str">
+        <v>Try out</v>
+      </c>
+      <c r="E225" t="str">
+        <v>Would you try out a new method of cooking?</v>
+      </c>
+      <c r="F225" t="str">
+        <v>Try out a new method</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>U28_15</v>
+      </c>
+      <c r="B226">
+        <v>28</v>
+      </c>
+      <c r="C226" t="str">
+        <v>Tham gia</v>
+      </c>
+      <c r="D226" t="str">
+        <v>Participate</v>
+      </c>
+      <c r="E226" t="str">
+        <v>Please participate more in class</v>
+      </c>
+      <c r="F226" t="str">
+        <v>Participate in something</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>U28_16</v>
+      </c>
+      <c r="B227">
+        <v>28</v>
+      </c>
+      <c r="C227" t="str">
+        <v>Chương trình</v>
+      </c>
+      <c r="D227" t="str">
+        <v>Program</v>
+      </c>
+      <c r="E227" t="str">
+        <v>She works for a news program</v>
+      </c>
+      <c r="F227" t="str">
+        <v>A news program</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>U28_17</v>
+      </c>
+      <c r="B228">
+        <v>28</v>
+      </c>
+      <c r="C228" t="str">
+        <v>Hoạt hình</v>
+      </c>
+      <c r="D228" t="str">
+        <v>Cartoon</v>
+      </c>
+      <c r="E228" t="str">
+        <v>Mickey mouse is a walt disney cartoon</v>
+      </c>
+      <c r="F228" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>U28_18</v>
+      </c>
+      <c r="B229">
+        <v>28</v>
+      </c>
+      <c r="C229" t="str">
+        <v>Thể loại</v>
+      </c>
+      <c r="D229" t="str">
+        <v>Genre</v>
+      </c>
+      <c r="E229" t="str">
+        <v>What music genre do you listen to?</v>
+      </c>
+      <c r="F229" t="str">
+        <v>Music genre</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>U28_19</v>
+      </c>
+      <c r="B230">
+        <v>28</v>
+      </c>
+      <c r="C230" t="str">
+        <v>Phim hài</v>
+      </c>
+      <c r="D230" t="str">
+        <v>Comedy</v>
+      </c>
+      <c r="E230" t="str">
+        <v>My friend loves watching remoantic comedies</v>
+      </c>
+      <c r="F230" t="str">
+        <v>A romantic comedy</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>U28_20</v>
+      </c>
+      <c r="B231">
+        <v>28</v>
+      </c>
+      <c r="C231" t="str">
+        <v>Trèo</v>
+      </c>
+      <c r="D231" t="str">
+        <v>Climb</v>
+      </c>
+      <c r="E231" t="str">
+        <v>The cat climbed up the tree</v>
+      </c>
+      <c r="F231" t="str">
+        <v>Climb up something</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>U28_21</v>
+      </c>
+      <c r="B232">
+        <v>28</v>
+      </c>
+      <c r="C232" t="str">
+        <v>Sự thích thú, niềm vui</v>
+      </c>
+      <c r="D232" t="str">
+        <v>Pleasure</v>
+      </c>
+      <c r="E232" t="str">
+        <v>The kids find pleasure in singing</v>
+      </c>
+      <c r="F232" t="str">
+        <v>Take or find pleasure in doing something</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>U28_22</v>
+      </c>
+      <c r="B233">
+        <v>28</v>
+      </c>
+      <c r="C233" t="str">
+        <v>Trong nhà</v>
+      </c>
+      <c r="D233" t="str">
+        <v>Indoor</v>
+      </c>
+      <c r="E233" t="str">
+        <v>The hotel's indoor swimming pool is huge!</v>
+      </c>
+      <c r="F233" t="str">
+        <v>An indoor swimming pool</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>U28_23</v>
+      </c>
+      <c r="B234">
+        <v>28</v>
+      </c>
+      <c r="C234" t="str">
+        <v>Chuyến nghỉ dưỡng, kỳ nghỉ</v>
+      </c>
+      <c r="D234" t="str">
+        <v>Holiday</v>
+      </c>
+      <c r="E234" t="str">
+        <v>I do not work on holiday</v>
+      </c>
+      <c r="F234" t="str">
+        <v>On holiday</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>U28_24</v>
+      </c>
+      <c r="B235">
+        <v>28</v>
+      </c>
+      <c r="C235" t="str">
+        <v>Chuyến đi</v>
+      </c>
+      <c r="D235" t="str">
+        <v>Ride</v>
+      </c>
+      <c r="E235" t="str">
+        <v>We are in for a bumpy ride</v>
+      </c>
+      <c r="F235" t="str">
+        <v>A bumpy ride</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>U28_25</v>
+      </c>
+      <c r="B236">
+        <v>28</v>
+      </c>
+      <c r="C236" t="str">
+        <v>Có ý nghĩa</v>
+      </c>
+      <c r="D236" t="str">
+        <v>Meaningful</v>
+      </c>
+      <c r="E236" t="str">
+        <v>I strive to do meaningful work</v>
+      </c>
+      <c r="F236" t="str">
+        <v>Meaningful work</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>U28_26</v>
+      </c>
+      <c r="B237">
+        <v>28</v>
+      </c>
+      <c r="C237" t="str">
+        <v>Việc cấm trại</v>
+      </c>
+      <c r="D237" t="str">
+        <v>Camping</v>
+      </c>
+      <c r="E237" t="str">
+        <v>We are going on a camping trip</v>
+      </c>
+      <c r="F237" t="str">
+        <v>A camping trip</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>U28_27</v>
+      </c>
+      <c r="B238">
+        <v>28</v>
+      </c>
+      <c r="C238" t="str">
+        <v>Hợp tác</v>
+      </c>
+      <c r="D238" t="str">
+        <v>Cooperate</v>
+      </c>
+      <c r="E238" t="str">
+        <v>You have to cooperate with here</v>
+      </c>
+      <c r="F238" t="str">
+        <v>Cooperate with something or somebody</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>U28_28</v>
+      </c>
+      <c r="B239">
+        <v>28</v>
+      </c>
+      <c r="C239" t="str">
+        <v>Lều</v>
+      </c>
+      <c r="D239" t="str">
+        <v>Tent</v>
+      </c>
+      <c r="E239" t="str">
+        <v>Please put up the tent for me</v>
+      </c>
+      <c r="F239" t="str">
+        <v>Put up a tent</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>U28_29</v>
+      </c>
+      <c r="B240">
+        <v>28</v>
+      </c>
+      <c r="C240" t="str">
+        <v>Hứng thú với</v>
+      </c>
+      <c r="D240" t="str">
+        <v>Go in for</v>
+      </c>
+      <c r="E240" t="str">
+        <v>My sister decides to go in for a debate competition</v>
+      </c>
+      <c r="F240" t="str">
+        <v>Go in for a competition</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>U28_30</v>
+      </c>
+      <c r="B241">
+        <v>28</v>
+      </c>
+      <c r="C241" t="str">
+        <v>Thích hơn</v>
+      </c>
+      <c r="D241" t="str">
+        <v>Prefer</v>
+      </c>
+      <c r="E241" t="str">
+        <v>She prefers eating apples to pears</v>
+      </c>
+      <c r="F241" t="str">
+        <v>Prefer something to something</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>U29_01</v>
+      </c>
+      <c r="B242">
+        <v>29</v>
+      </c>
+      <c r="C242" t="str">
+        <v>Câu cá</v>
+      </c>
+      <c r="D242" t="str">
+        <v>Fishing</v>
+      </c>
+      <c r="E242" t="str">
+        <v>My dad and I go fishing every day</v>
+      </c>
+      <c r="F242" t="str">
+        <v>Go fishing</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>U29_02</v>
+      </c>
+      <c r="B243">
+        <v>29</v>
+      </c>
+      <c r="C243" t="str">
+        <v>Vận động viên</v>
+      </c>
+      <c r="D243" t="str">
+        <v>Athlete</v>
+      </c>
+      <c r="E243" t="str">
+        <v>Olumpic athletes train hard to complete</v>
+      </c>
+      <c r="F243" t="str">
+        <v>An Olympic athlete</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>U29_03</v>
+      </c>
+      <c r="B244">
+        <v>29</v>
+      </c>
+      <c r="C244" t="str">
+        <v>Môn đấu vật</v>
+      </c>
+      <c r="D244" t="str">
+        <v>Wrestling</v>
+      </c>
+      <c r="E244" t="str">
+        <v>Wrestling matches are popular in the US</v>
+      </c>
+      <c r="F244" t="str">
+        <v>A wrestling match</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>U29_04</v>
+      </c>
+      <c r="B245">
+        <v>29</v>
+      </c>
+      <c r="C245" t="str">
+        <v>Chuyên nghiệp</v>
+      </c>
+      <c r="D245" t="str">
+        <v>Professional</v>
+      </c>
+      <c r="E245" t="str">
+        <v>He was a professional soccer player</v>
+      </c>
+      <c r="F245" t="str">
+        <v>A professional soccer player</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>U29_05</v>
+      </c>
+      <c r="B246">
+        <v>29</v>
+      </c>
+      <c r="C246" t="str">
+        <v>Hàng năm</v>
+      </c>
+      <c r="D246" t="str">
+        <v>Annual</v>
+      </c>
+      <c r="E246" t="str">
+        <v>The company has annual meetings for us</v>
+      </c>
+      <c r="F246" t="str">
+        <v>An annual meeting</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>U29_06</v>
+      </c>
+      <c r="B247">
+        <v>29</v>
+      </c>
+      <c r="C247" t="str">
+        <v>Giải đấu</v>
+      </c>
+      <c r="D247" t="str">
+        <v>Tournament</v>
+      </c>
+      <c r="E247" t="str">
+        <v>What an exciting soccer tournament!</v>
+      </c>
+      <c r="F247" t="str">
+        <v>A soccer tournament</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>U29_07</v>
+      </c>
+      <c r="B248">
+        <v>29</v>
+      </c>
+      <c r="C248" t="str">
+        <v>Huấn luyện viên</v>
+      </c>
+      <c r="D248" t="str">
+        <v>Coach</v>
+      </c>
+      <c r="E248" t="str">
+        <v>The team coach trains us hard</v>
+      </c>
+      <c r="F248" t="str">
+        <v>The team coach</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>U29_08</v>
+      </c>
+      <c r="B249">
+        <v>29</v>
+      </c>
+      <c r="C249" t="str">
+        <v>Trận đấu</v>
+      </c>
+      <c r="D249" t="str">
+        <v>Match</v>
+      </c>
+      <c r="E249" t="str">
+        <v>There is a soccer match tonight</v>
+      </c>
+      <c r="F249" t="str">
+        <v>A soccer match</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>U29_09</v>
+      </c>
+      <c r="B250">
+        <v>29</v>
+      </c>
+      <c r="C250" t="str">
+        <v>Đánh bại</v>
+      </c>
+      <c r="D250" t="str">
+        <v>Beat</v>
+      </c>
+      <c r="E250" t="str">
+        <v>They beat their opponents in the first round</v>
+      </c>
+      <c r="F250" t="str">
+        <v>Beat something or somebody</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>U29_10</v>
+      </c>
+      <c r="B251">
+        <v>29</v>
+      </c>
+      <c r="C251" t="str">
+        <v>Đối thủ</v>
+      </c>
+      <c r="D251" t="str">
+        <v>Opponent</v>
+      </c>
+      <c r="E251" t="str">
+        <v>She is my opponent in chess</v>
+      </c>
+      <c r="F251" t="str">
+        <v>One's oppponent in something</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>U29_11</v>
+      </c>
+      <c r="B252">
+        <v>29</v>
+      </c>
+      <c r="C252" t="str">
+        <v>Môn thể thao</v>
+      </c>
+      <c r="D252" t="str">
+        <v>Athletics</v>
+      </c>
+      <c r="E252" t="str">
+        <v>Football, soccer, and baseball are types of atheletics</v>
+      </c>
+      <c r="F252" t="str">
+        <v>Types of athletics</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>U29_12</v>
+      </c>
+      <c r="B253">
+        <v>29</v>
+      </c>
+      <c r="C253" t="str">
+        <v>Bóng rỗ</v>
+      </c>
+      <c r="D253" t="str">
+        <v>Basketball</v>
+      </c>
+      <c r="E253" t="str">
+        <v>I am the captain of the basketball team</v>
+      </c>
+      <c r="F253" t="str">
+        <v>A basketball team</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>U29_13</v>
+      </c>
+      <c r="B254">
+        <v>29</v>
+      </c>
+      <c r="C254" t="str">
+        <v>Người chơi</v>
+      </c>
+      <c r="D254" t="str">
+        <v>Player</v>
+      </c>
+      <c r="E254" t="str">
+        <v>He is the best soccer player here</v>
+      </c>
+      <c r="F254" t="str">
+        <v>A soccer player</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>U29_14</v>
+      </c>
+      <c r="B255">
+        <v>29</v>
+      </c>
+      <c r="C255" t="str">
+        <v xml:space="preserve">Liên đoàn </v>
+      </c>
+      <c r="D255" t="str">
+        <v>League</v>
+      </c>
+      <c r="E255" t="str">
+        <v>My sone plays for a soccer league</v>
+      </c>
+      <c r="F255" t="str">
+        <v>A soccer league</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>U29_15</v>
+      </c>
+      <c r="B256">
+        <v>29</v>
+      </c>
+      <c r="C256" t="str">
+        <v>Giải vô địch</v>
+      </c>
+      <c r="D256" t="str">
+        <v>Championship</v>
+      </c>
+      <c r="E256" t="str">
+        <v>Are you ready for the basketball championship</v>
+      </c>
+      <c r="F256" t="str">
+        <v>A basketball championship</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>U29_16</v>
+      </c>
+      <c r="B257">
+        <v>29</v>
+      </c>
+      <c r="C257" t="str">
+        <v>Đội trưởng</v>
+      </c>
+      <c r="D257" t="str">
+        <v>Captain</v>
+      </c>
+      <c r="E257" t="str">
+        <v>We vote for a team camtain</v>
+      </c>
+      <c r="F257" t="str">
+        <v>Team captain</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>U29_17</v>
+      </c>
+      <c r="B258">
+        <v>29</v>
+      </c>
+      <c r="C258" t="str">
+        <v>Ghi điểm</v>
+      </c>
+      <c r="D258" t="str">
+        <v>Score</v>
+      </c>
+      <c r="E258" t="str">
+        <v>He scored a goal for the team</v>
+      </c>
+      <c r="F258" t="str">
+        <v>Score a goal</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>U29_18</v>
+      </c>
+      <c r="B259">
+        <v>29</v>
+      </c>
+      <c r="C259" t="str">
+        <v>Danh hiệu</v>
+      </c>
+      <c r="D259" t="str">
+        <v>Title</v>
+      </c>
+      <c r="E259" t="str">
+        <v>The team won the title with a goal in the last minute</v>
+      </c>
+      <c r="F259" t="str">
+        <v>Win the title</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>U29_19</v>
+      </c>
+      <c r="B260">
+        <v>29</v>
+      </c>
+      <c r="C260" t="str">
+        <v>Lưới</v>
+      </c>
+      <c r="D260" t="str">
+        <v>Net</v>
+      </c>
+      <c r="E260" t="str">
+        <v>The fishing net has holes in it</v>
+      </c>
+      <c r="F260" t="str">
+        <v>A fishing net</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>U29_20</v>
+      </c>
+      <c r="B261">
+        <v>29</v>
+      </c>
+      <c r="C261" t="str">
+        <v>Anh hùng</v>
+      </c>
+      <c r="D261" t="str">
+        <v>Hero</v>
+      </c>
+      <c r="E261" t="str">
+        <v>The fireman became a local hero</v>
+      </c>
+      <c r="F261" t="str">
+        <v>A local hero</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>U29_21</v>
+      </c>
+      <c r="B262">
+        <v>29</v>
+      </c>
+      <c r="C262" t="str">
+        <v>Môn đạp xe</v>
+      </c>
+      <c r="D262" t="str">
+        <v>Cycling</v>
+      </c>
+      <c r="E262" t="str">
+        <v>She went cycling down the hill</v>
+      </c>
+      <c r="F262" t="str">
+        <v>Go cycling</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>U29_22</v>
+      </c>
+      <c r="B263">
+        <v>29</v>
+      </c>
+      <c r="C263" t="str">
+        <v>Sân vận động</v>
+      </c>
+      <c r="D263" t="str">
+        <v>Stadium</v>
+      </c>
+      <c r="E263" t="str">
+        <v>Where is the biggest sports stadium in hanoi</v>
+      </c>
+      <c r="F263" t="str">
+        <v>A sport stadium</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>U29_23</v>
+      </c>
+      <c r="B264">
+        <v>29</v>
+      </c>
+      <c r="C264" t="str">
+        <v>Người thắng cuộc</v>
+      </c>
+      <c r="D264" t="str">
+        <v>Winner</v>
+      </c>
+      <c r="E264" t="str">
+        <v>The actor is an award winner</v>
+      </c>
+      <c r="F264" t="str">
+        <v>An award winer</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>U29_24</v>
+      </c>
+      <c r="B265">
+        <v>29</v>
+      </c>
+      <c r="C265" t="str">
+        <v>Môn đánh golf</v>
+      </c>
+      <c r="D265" t="str">
+        <v>Golf</v>
+      </c>
+      <c r="E265" t="str">
+        <v>Businessmen love to play golf</v>
+      </c>
+      <c r="F265" t="str">
+        <v>Play golf</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>U29_25</v>
+      </c>
+      <c r="B266">
+        <v>29</v>
+      </c>
+      <c r="C266" t="str">
+        <v>Đánh</v>
+      </c>
+      <c r="D266" t="str">
+        <v>Strike</v>
+      </c>
+      <c r="E266" t="str">
+        <v>He strikes the golf ball perfectly</v>
+      </c>
+      <c r="F266" t="str">
+        <v>Strike the ball</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>U29_26</v>
+      </c>
+      <c r="B267">
+        <v>29</v>
+      </c>
+      <c r="C267" t="str">
+        <v>Đích, mục tiêu</v>
+      </c>
+      <c r="D267" t="str">
+        <v>Target</v>
+      </c>
+      <c r="E267" t="str">
+        <v>He shot the arrow and hit the target</v>
+      </c>
+      <c r="F267" t="str">
+        <v>Hit the target</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>U29_27</v>
+      </c>
+      <c r="B268">
+        <v>29</v>
+      </c>
+      <c r="C268" t="str">
+        <v>Tối đa</v>
+      </c>
+      <c r="D268" t="str">
+        <v>Maximum</v>
+      </c>
+      <c r="E268" t="str">
+        <v>The maximum amount for storage is 256GB</v>
+      </c>
+      <c r="F268" t="str">
+        <v>The maximum amount</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>U29_28</v>
+      </c>
+      <c r="B269">
+        <v>29</v>
+      </c>
+      <c r="C269" t="str">
+        <v>Lướt</v>
+      </c>
+      <c r="D269" t="str">
+        <v>Surf</v>
+      </c>
+      <c r="E269" t="str">
+        <v>In hawaii, you must surf the waves</v>
+      </c>
+      <c r="F269" t="str">
+        <v>Surf the wave</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>U29_29</v>
+      </c>
+      <c r="B270">
+        <v>29</v>
+      </c>
+      <c r="C270" t="str">
+        <v>Không may</v>
+      </c>
+      <c r="D270" t="str">
+        <v>Unfortunately</v>
+      </c>
+      <c r="E270" t="str">
+        <v>Unfortunately, I won't be able to attend the meeting</v>
+      </c>
+      <c r="F270" t="str">
+        <v>Unfortunately, I won't</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>U29_30</v>
+      </c>
+      <c r="B271">
+        <v>29</v>
+      </c>
+      <c r="C271" t="str">
+        <v>Trân trọng, đánh giá cao</v>
+      </c>
+      <c r="D271" t="str">
+        <v>Appreciate</v>
+      </c>
+      <c r="E271" t="str">
+        <v>I appreciate the help you gave me</v>
+      </c>
+      <c r="F271" t="str">
+        <v>Appreciate somebody or something</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:F271"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/data/WordStudy.xlsx
+++ b/data/WordStudy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dom/Documents/Dom/english-app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DB93DE-1701-7A4F-93DE-069B7423BCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382A33FF-43AD-B04E-99D2-A22F96C920D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50740" yWindow="-960" windowWidth="33600" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="46760" yWindow="-1780" windowWidth="33600" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="1542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="1671">
   <si>
     <t>ID</t>
   </si>
@@ -4657,6 +4657,393 @@
   </si>
   <si>
     <t>Write a summary</t>
+  </si>
+  <si>
+    <t>Thư ký</t>
+  </si>
+  <si>
+    <t>Secretary</t>
+  </si>
+  <si>
+    <t>She works as a secretary for our manager</t>
+  </si>
+  <si>
+    <t>Work as a secretary</t>
+  </si>
+  <si>
+    <t>Tập tài liệu</t>
+  </si>
+  <si>
+    <t>Folder</t>
+  </si>
+  <si>
+    <t>she tells me to create a new folder on the computer</t>
+  </si>
+  <si>
+    <t>create a new folder</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>Print</t>
+  </si>
+  <si>
+    <t>I print our photos on a cup</t>
+  </si>
+  <si>
+    <t>print something on something</t>
+  </si>
+  <si>
+    <t>colleague</t>
+  </si>
+  <si>
+    <t>Đồng nghiệp</t>
+  </si>
+  <si>
+    <t>Our male colleagues prepare gifts for women's day</t>
+  </si>
+  <si>
+    <t>a male colleague</t>
+  </si>
+  <si>
+    <t>Báo cáo</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>I stay up late to write a report</t>
+  </si>
+  <si>
+    <t>write a report</t>
+  </si>
+  <si>
+    <t>Due</t>
+  </si>
+  <si>
+    <t>The due date for the next payment is today</t>
+  </si>
+  <si>
+    <t>due date</t>
+  </si>
+  <si>
+    <t>Đến hạn</t>
+  </si>
+  <si>
+    <t>Kỳ thực tập</t>
+  </si>
+  <si>
+    <t>Internship</t>
+  </si>
+  <si>
+    <t>My friend gets an internship at EY</t>
+  </si>
+  <si>
+    <t>get an internship / được nhận vào thực tập</t>
+  </si>
+  <si>
+    <t>Hoãn lại</t>
+  </si>
+  <si>
+    <t>Put off</t>
+  </si>
+  <si>
+    <t>She puts off going to the dentist until Sunday</t>
+  </si>
+  <si>
+    <t>put off doing something</t>
+  </si>
+  <si>
+    <t>Thiết bị</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>His job is to install equipment for laboratories</t>
+  </si>
+  <si>
+    <t>install equipment</t>
+  </si>
+  <si>
+    <t>Giải pháp</t>
+  </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t>We cannot find a solution to the problem</t>
+  </si>
+  <si>
+    <t>find a solution</t>
+  </si>
+  <si>
+    <t>Chức năng</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Video call is a useful function of FB</t>
+  </si>
+  <si>
+    <t>a useful function</t>
+  </si>
+  <si>
+    <t>Bàn giao</t>
+  </si>
+  <si>
+    <t>hand over</t>
+  </si>
+  <si>
+    <t>He finally hands over the project to his boss</t>
+  </si>
+  <si>
+    <t>hand over something to somebody</t>
+  </si>
+  <si>
+    <t>Hạn chót</t>
+  </si>
+  <si>
+    <t>Deadline</t>
+  </si>
+  <si>
+    <t>I work overtime to meet the deadline</t>
+  </si>
+  <si>
+    <t>meet a deadline / kịp hạn chót</t>
+  </si>
+  <si>
+    <t>Cuộc họp</t>
+  </si>
+  <si>
+    <t>Meeting</t>
+  </si>
+  <si>
+    <t>we aare well-prepared to attend the meeting</t>
+  </si>
+  <si>
+    <t>attend a meeting</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>Our dog is considered a family member</t>
+  </si>
+  <si>
+    <t>a family member</t>
+  </si>
+  <si>
+    <t>Thành viên</t>
+  </si>
+  <si>
+    <t>Bài thuyết trình</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>Candidates need to give a presentation on Monday</t>
+  </si>
+  <si>
+    <t>give a presentation</t>
+  </si>
+  <si>
+    <t>Chấp nhận</t>
+  </si>
+  <si>
+    <t>Approve</t>
+  </si>
+  <si>
+    <t>His parents do not approve of his girlfriend</t>
+  </si>
+  <si>
+    <t>Approve of somebody or something</t>
+  </si>
+  <si>
+    <t>Conference</t>
+  </si>
+  <si>
+    <t>Hội thảo</t>
+  </si>
+  <si>
+    <t>They organize a conference about technology every year</t>
+  </si>
+  <si>
+    <t>organize a conference</t>
+  </si>
+  <si>
+    <t>Khách hàng</t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>We are all shopee's potential clients</t>
+  </si>
+  <si>
+    <t>a potential client / khách hàng tiềm năng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lỗi </t>
+  </si>
+  <si>
+    <t>Fault</t>
+  </si>
+  <si>
+    <t>It's not my fault</t>
+  </si>
+  <si>
+    <t>not my fault</t>
+  </si>
+  <si>
+    <t>U08_01</t>
+  </si>
+  <si>
+    <t>U08_02</t>
+  </si>
+  <si>
+    <t>U08_03</t>
+  </si>
+  <si>
+    <t>U08_04</t>
+  </si>
+  <si>
+    <t>U08_05</t>
+  </si>
+  <si>
+    <t>U08_06</t>
+  </si>
+  <si>
+    <t>U08_07</t>
+  </si>
+  <si>
+    <t>U08_08</t>
+  </si>
+  <si>
+    <t>U08_09</t>
+  </si>
+  <si>
+    <t>U08_10</t>
+  </si>
+  <si>
+    <t>Hủy</t>
+  </si>
+  <si>
+    <t>Call off</t>
+  </si>
+  <si>
+    <t>He calls off the meeting all of a sudden</t>
+  </si>
+  <si>
+    <t>Call off something</t>
+  </si>
+  <si>
+    <t>Con dấu, con tem</t>
+  </si>
+  <si>
+    <t>Stamp</t>
+  </si>
+  <si>
+    <t>She puts a stamp on the envelope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">put a stamp on </t>
+  </si>
+  <si>
+    <t>Ý kiến phản hồi</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>Customers are encouraged to provide feedbacks to us</t>
+  </si>
+  <si>
+    <t>Implement a strategy</t>
+  </si>
+  <si>
+    <t>Thực hiện</t>
+  </si>
+  <si>
+    <t>Carry out</t>
+  </si>
+  <si>
+    <t>They carry out the research on customers' behaviors</t>
+  </si>
+  <si>
+    <t>carry out something</t>
+  </si>
+  <si>
+    <t>Chiến lược</t>
+  </si>
+  <si>
+    <t>Provide feedback</t>
+  </si>
+  <si>
+    <t>Strategy</t>
+  </si>
+  <si>
+    <t>It is crucial to implement a new strategy</t>
+  </si>
+  <si>
+    <t>Trợ lý</t>
+  </si>
+  <si>
+    <t>Assistant</t>
+  </si>
+  <si>
+    <t>She applies to be a teaching assistant</t>
+  </si>
+  <si>
+    <t>A teaching assistant / trợ giảng</t>
+  </si>
+  <si>
+    <t>nghỉ hưu</t>
+  </si>
+  <si>
+    <t>Retire</t>
+  </si>
+  <si>
+    <t>Aging forces him to retire from his job</t>
+  </si>
+  <si>
+    <t>retire from something / nghỉ hưu khỏi việc gì đó</t>
+  </si>
+  <si>
+    <t>Mang tính chuyên gia</t>
+  </si>
+  <si>
+    <t>Expert</t>
+  </si>
+  <si>
+    <t>Whe should seek expert advice before deciding</t>
+  </si>
+  <si>
+    <t>expert advice / tư vấn chuyên môn</t>
+  </si>
+  <si>
+    <t>Handle</t>
+  </si>
+  <si>
+    <t>He handles the situation gracefully</t>
+  </si>
+  <si>
+    <t>handle a situation</t>
+  </si>
+  <si>
+    <t>Bao gồm</t>
+  </si>
+  <si>
+    <t>Involve</t>
+  </si>
+  <si>
+    <t>Banking involves a lot of measuring</t>
+  </si>
+  <si>
+    <t>involve something</t>
   </si>
 </sst>
 </file>
@@ -5014,10 +5401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G331"/>
+  <dimension ref="A1:G341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G191" sqref="G191"/>
+    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C192" sqref="C192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9200,19 +9587,19 @@
         <v>7</v>
       </c>
       <c r="C182" t="s">
-        <v>1503</v>
+        <v>1632</v>
       </c>
       <c r="D182" t="s">
-        <v>1504</v>
+        <v>1633</v>
       </c>
       <c r="E182" t="s">
-        <v>1505</v>
+        <v>1634</v>
       </c>
       <c r="F182" t="s">
-        <v>1506</v>
+        <v>1635</v>
       </c>
       <c r="G182" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
@@ -9223,16 +9610,16 @@
         <v>7</v>
       </c>
       <c r="C183" t="s">
-        <v>1507</v>
+        <v>1636</v>
       </c>
       <c r="D183" t="s">
-        <v>1508</v>
+        <v>1637</v>
       </c>
       <c r="E183" t="s">
-        <v>1509</v>
+        <v>1638</v>
       </c>
       <c r="F183" t="s">
-        <v>1510</v>
+        <v>1639</v>
       </c>
       <c r="G183" t="s">
         <v>28</v>
@@ -9246,19 +9633,19 @@
         <v>7</v>
       </c>
       <c r="C184" t="s">
-        <v>1511</v>
+        <v>1640</v>
       </c>
       <c r="D184" t="s">
-        <v>1512</v>
+        <v>1641</v>
       </c>
       <c r="E184" t="s">
-        <v>1513</v>
+        <v>1642</v>
       </c>
       <c r="F184" t="s">
-        <v>1514</v>
+        <v>1649</v>
       </c>
       <c r="G184" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
@@ -9269,16 +9656,16 @@
         <v>7</v>
       </c>
       <c r="C185" t="s">
-        <v>1515</v>
+        <v>1644</v>
       </c>
       <c r="D185" t="s">
-        <v>1516</v>
+        <v>1645</v>
       </c>
       <c r="E185" t="s">
-        <v>1517</v>
+        <v>1646</v>
       </c>
       <c r="F185" t="s">
-        <v>1518</v>
+        <v>1647</v>
       </c>
       <c r="G185" t="s">
         <v>12</v>
@@ -9292,16 +9679,16 @@
         <v>7</v>
       </c>
       <c r="C186" t="s">
-        <v>332</v>
+        <v>1648</v>
       </c>
       <c r="D186" t="s">
-        <v>1519</v>
+        <v>1650</v>
       </c>
       <c r="E186" t="s">
-        <v>1520</v>
+        <v>1651</v>
       </c>
       <c r="F186" t="s">
-        <v>1521</v>
+        <v>1643</v>
       </c>
       <c r="G186" t="s">
         <v>28</v>
@@ -9315,16 +9702,16 @@
         <v>7</v>
       </c>
       <c r="C187" t="s">
-        <v>1522</v>
+        <v>1652</v>
       </c>
       <c r="D187" t="s">
-        <v>1523</v>
+        <v>1653</v>
       </c>
       <c r="E187" t="s">
-        <v>1524</v>
+        <v>1654</v>
       </c>
       <c r="F187" t="s">
-        <v>1525</v>
+        <v>1655</v>
       </c>
       <c r="G187" t="s">
         <v>28</v>
@@ -9338,19 +9725,19 @@
         <v>7</v>
       </c>
       <c r="C188" t="s">
-        <v>1526</v>
+        <v>1656</v>
       </c>
       <c r="D188" t="s">
-        <v>1527</v>
+        <v>1657</v>
       </c>
       <c r="E188" t="s">
-        <v>1528</v>
+        <v>1658</v>
       </c>
       <c r="F188" t="s">
-        <v>1529</v>
+        <v>1659</v>
       </c>
       <c r="G188" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
@@ -9361,19 +9748,19 @@
         <v>7</v>
       </c>
       <c r="C189" t="s">
-        <v>1530</v>
+        <v>1660</v>
       </c>
       <c r="D189" t="s">
-        <v>1531</v>
+        <v>1661</v>
       </c>
       <c r="E189" t="s">
-        <v>1532</v>
+        <v>1662</v>
       </c>
       <c r="F189" t="s">
-        <v>1533</v>
+        <v>1663</v>
       </c>
       <c r="G189" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
@@ -9384,19 +9771,19 @@
         <v>7</v>
       </c>
       <c r="C190" t="s">
-        <v>1534</v>
+        <v>830</v>
       </c>
       <c r="D190" t="s">
-        <v>1535</v>
+        <v>1664</v>
       </c>
       <c r="E190" t="s">
-        <v>1536</v>
+        <v>1665</v>
       </c>
       <c r="F190" t="s">
-        <v>1537</v>
+        <v>1666</v>
       </c>
       <c r="G190" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
@@ -9407,19 +9794,19 @@
         <v>7</v>
       </c>
       <c r="C191" t="s">
-        <v>1538</v>
+        <v>1667</v>
       </c>
       <c r="D191" t="s">
-        <v>1539</v>
+        <v>1668</v>
       </c>
       <c r="E191" t="s">
-        <v>1540</v>
+        <v>1669</v>
       </c>
       <c r="F191" t="s">
-        <v>1541</v>
+        <v>1670</v>
       </c>
       <c r="G191" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
@@ -9429,434 +9816,764 @@
       <c r="B192">
         <v>7</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C192" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D192" t="s">
+        <v>1543</v>
+      </c>
+      <c r="E192" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F192" t="s">
+        <v>1545</v>
+      </c>
+      <c r="G192" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>1484</v>
       </c>
       <c r="B193">
         <v>7</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C193" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D193" t="s">
+        <v>1547</v>
+      </c>
+      <c r="E193" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F193" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G193" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>1485</v>
       </c>
       <c r="B194">
         <v>7</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C194" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D194" t="s">
+        <v>1551</v>
+      </c>
+      <c r="E194" t="s">
+        <v>1552</v>
+      </c>
+      <c r="F194" t="s">
+        <v>1553</v>
+      </c>
+      <c r="G194" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>1486</v>
       </c>
       <c r="B195">
         <v>7</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C195" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D195" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E195" t="s">
+        <v>1556</v>
+      </c>
+      <c r="F195" t="s">
+        <v>1557</v>
+      </c>
+      <c r="G195" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>1487</v>
       </c>
       <c r="B196">
         <v>7</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C196" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D196" t="s">
+        <v>1559</v>
+      </c>
+      <c r="E196" t="s">
+        <v>1560</v>
+      </c>
+      <c r="F196" t="s">
+        <v>1561</v>
+      </c>
+      <c r="G196" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>1488</v>
       </c>
       <c r="B197">
         <v>7</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C197" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D197" t="s">
+        <v>1562</v>
+      </c>
+      <c r="E197" t="s">
+        <v>1563</v>
+      </c>
+      <c r="F197" t="s">
+        <v>1564</v>
+      </c>
+      <c r="G197" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>1489</v>
       </c>
       <c r="B198">
         <v>7</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C198" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D198" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E198" t="s">
+        <v>1568</v>
+      </c>
+      <c r="F198" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G198" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>1490</v>
       </c>
       <c r="B199">
         <v>7</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C199" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D199" t="s">
+        <v>1571</v>
+      </c>
+      <c r="E199" t="s">
+        <v>1572</v>
+      </c>
+      <c r="F199" t="s">
+        <v>1573</v>
+      </c>
+      <c r="G199" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>1491</v>
       </c>
       <c r="B200">
         <v>7</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C200" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D200" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E200" t="s">
+        <v>1576</v>
+      </c>
+      <c r="F200" t="s">
+        <v>1577</v>
+      </c>
+      <c r="G200" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>1492</v>
       </c>
       <c r="B201">
         <v>7</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C201" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D201" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E201" t="s">
+        <v>1580</v>
+      </c>
+      <c r="F201" t="s">
+        <v>1581</v>
+      </c>
+      <c r="G201" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>1493</v>
       </c>
       <c r="B202">
         <v>7</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C202" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D202" t="s">
+        <v>1583</v>
+      </c>
+      <c r="E202" t="s">
+        <v>1584</v>
+      </c>
+      <c r="F202" t="s">
+        <v>1585</v>
+      </c>
+      <c r="G202" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>1494</v>
       </c>
       <c r="B203">
         <v>7</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C203" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D203" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E203" t="s">
+        <v>1588</v>
+      </c>
+      <c r="F203" t="s">
+        <v>1589</v>
+      </c>
+      <c r="G203" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>1495</v>
       </c>
       <c r="B204">
         <v>7</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C204" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D204" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E204" t="s">
+        <v>1592</v>
+      </c>
+      <c r="F204" t="s">
+        <v>1593</v>
+      </c>
+      <c r="G204" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>1496</v>
       </c>
       <c r="B205">
         <v>7</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C205" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D205" t="s">
+        <v>1595</v>
+      </c>
+      <c r="E205" t="s">
+        <v>1596</v>
+      </c>
+      <c r="F205" t="s">
+        <v>1597</v>
+      </c>
+      <c r="G205" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>1497</v>
       </c>
       <c r="B206">
         <v>7</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C206" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D206" t="s">
+        <v>1598</v>
+      </c>
+      <c r="E206" t="s">
+        <v>1599</v>
+      </c>
+      <c r="F206" t="s">
+        <v>1600</v>
+      </c>
+      <c r="G206" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>1498</v>
       </c>
       <c r="B207">
         <v>7</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C207" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D207" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E207" t="s">
+        <v>1604</v>
+      </c>
+      <c r="F207" t="s">
+        <v>1605</v>
+      </c>
+      <c r="G207" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>1499</v>
       </c>
       <c r="B208">
         <v>7</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C208" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D208" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E208" t="s">
+        <v>1608</v>
+      </c>
+      <c r="F208" t="s">
+        <v>1609</v>
+      </c>
+      <c r="G208" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>1500</v>
       </c>
       <c r="B209">
         <v>7</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C209" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D209" t="s">
+        <v>1610</v>
+      </c>
+      <c r="E209" t="s">
+        <v>1612</v>
+      </c>
+      <c r="F209" t="s">
+        <v>1613</v>
+      </c>
+      <c r="G209" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>1501</v>
       </c>
       <c r="B210">
         <v>7</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C210" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D210" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E210" t="s">
+        <v>1616</v>
+      </c>
+      <c r="F210" t="s">
+        <v>1617</v>
+      </c>
+      <c r="G210" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>1502</v>
       </c>
       <c r="B211">
         <v>7</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C211" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D211" t="s">
+        <v>1619</v>
+      </c>
+      <c r="E211" t="s">
+        <v>1620</v>
+      </c>
+      <c r="F211" t="s">
+        <v>1621</v>
+      </c>
+      <c r="G211" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B212">
+        <v>8</v>
+      </c>
+      <c r="C212" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D212" t="s">
+        <v>1504</v>
+      </c>
+      <c r="E212" t="s">
+        <v>1505</v>
+      </c>
+      <c r="F212" t="s">
+        <v>1506</v>
+      </c>
+      <c r="G212" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B213">
+        <v>8</v>
+      </c>
+      <c r="C213" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D213" t="s">
+        <v>1508</v>
+      </c>
+      <c r="E213" t="s">
+        <v>1509</v>
+      </c>
+      <c r="F213" t="s">
+        <v>1510</v>
+      </c>
+      <c r="G213" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B214">
+        <v>8</v>
+      </c>
+      <c r="C214" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D214" t="s">
+        <v>1512</v>
+      </c>
+      <c r="E214" t="s">
+        <v>1513</v>
+      </c>
+      <c r="F214" t="s">
+        <v>1514</v>
+      </c>
+      <c r="G214" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B215">
+        <v>8</v>
+      </c>
+      <c r="C215" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D215" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E215" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F215" t="s">
+        <v>1518</v>
+      </c>
+      <c r="G215" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B216">
+        <v>8</v>
+      </c>
+      <c r="C216" t="s">
+        <v>332</v>
+      </c>
+      <c r="D216" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E216" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F216" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G216" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B217">
+        <v>8</v>
+      </c>
+      <c r="C217" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D217" t="s">
+        <v>1523</v>
+      </c>
+      <c r="E217" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F217" t="s">
+        <v>1525</v>
+      </c>
+      <c r="G217" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B218">
+        <v>8</v>
+      </c>
+      <c r="C218" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D218" t="s">
+        <v>1527</v>
+      </c>
+      <c r="E218" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F218" t="s">
+        <v>1529</v>
+      </c>
+      <c r="G218" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B219">
+        <v>8</v>
+      </c>
+      <c r="C219" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D219" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E219" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F219" t="s">
+        <v>1533</v>
+      </c>
+      <c r="G219" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B220">
+        <v>8</v>
+      </c>
+      <c r="C220" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D220" t="s">
+        <v>1535</v>
+      </c>
+      <c r="E220" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F220" t="s">
+        <v>1537</v>
+      </c>
+      <c r="G220" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B221">
+        <v>8</v>
+      </c>
+      <c r="C221" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D221" t="s">
+        <v>1539</v>
+      </c>
+      <c r="E221" t="s">
+        <v>1540</v>
+      </c>
+      <c r="F221" t="s">
+        <v>1541</v>
+      </c>
+      <c r="G221" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
         <v>907</v>
-      </c>
-      <c r="B212">
-        <v>26</v>
-      </c>
-      <c r="C212" t="s">
-        <v>908</v>
-      </c>
-      <c r="D212" t="s">
-        <v>909</v>
-      </c>
-      <c r="E212" t="s">
-        <v>910</v>
-      </c>
-      <c r="F212" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
-        <v>912</v>
-      </c>
-      <c r="B213">
-        <v>26</v>
-      </c>
-      <c r="C213" t="s">
-        <v>913</v>
-      </c>
-      <c r="D213" t="s">
-        <v>914</v>
-      </c>
-      <c r="E213" t="s">
-        <v>915</v>
-      </c>
-      <c r="F213" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
-        <v>916</v>
-      </c>
-      <c r="B214">
-        <v>26</v>
-      </c>
-      <c r="C214" t="s">
-        <v>917</v>
-      </c>
-      <c r="D214" t="s">
-        <v>918</v>
-      </c>
-      <c r="E214" t="s">
-        <v>919</v>
-      </c>
-      <c r="F214" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
-        <v>920</v>
-      </c>
-      <c r="B215">
-        <v>26</v>
-      </c>
-      <c r="C215" t="s">
-        <v>921</v>
-      </c>
-      <c r="D215" t="s">
-        <v>922</v>
-      </c>
-      <c r="E215" t="s">
-        <v>923</v>
-      </c>
-      <c r="F215" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
-        <v>924</v>
-      </c>
-      <c r="B216">
-        <v>26</v>
-      </c>
-      <c r="C216" t="s">
-        <v>925</v>
-      </c>
-      <c r="D216" t="s">
-        <v>926</v>
-      </c>
-      <c r="E216" t="s">
-        <v>927</v>
-      </c>
-      <c r="F216" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
-        <v>928</v>
-      </c>
-      <c r="B217">
-        <v>26</v>
-      </c>
-      <c r="C217" t="s">
-        <v>929</v>
-      </c>
-      <c r="D217" t="s">
-        <v>930</v>
-      </c>
-      <c r="E217" t="s">
-        <v>931</v>
-      </c>
-      <c r="F217" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
-        <v>932</v>
-      </c>
-      <c r="B218">
-        <v>26</v>
-      </c>
-      <c r="C218" t="s">
-        <v>933</v>
-      </c>
-      <c r="D218" t="s">
-        <v>934</v>
-      </c>
-      <c r="E218" t="s">
-        <v>935</v>
-      </c>
-      <c r="F218" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
-        <v>936</v>
-      </c>
-      <c r="B219">
-        <v>26</v>
-      </c>
-      <c r="C219" t="s">
-        <v>937</v>
-      </c>
-      <c r="D219" t="s">
-        <v>938</v>
-      </c>
-      <c r="E219" t="s">
-        <v>939</v>
-      </c>
-      <c r="F219" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
-        <v>940</v>
-      </c>
-      <c r="B220">
-        <v>26</v>
-      </c>
-      <c r="C220" t="s">
-        <v>941</v>
-      </c>
-      <c r="D220" t="s">
-        <v>942</v>
-      </c>
-      <c r="E220" t="s">
-        <v>943</v>
-      </c>
-      <c r="F220" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
-        <v>944</v>
-      </c>
-      <c r="B221">
-        <v>26</v>
-      </c>
-      <c r="C221" t="s">
-        <v>945</v>
-      </c>
-      <c r="D221" t="s">
-        <v>946</v>
-      </c>
-      <c r="E221" t="s">
-        <v>947</v>
-      </c>
-      <c r="F221" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
-        <v>948</v>
       </c>
       <c r="B222">
         <v>26</v>
       </c>
       <c r="C222" t="s">
-        <v>949</v>
+        <v>908</v>
       </c>
       <c r="D222" t="s">
-        <v>950</v>
+        <v>909</v>
       </c>
       <c r="E222" t="s">
-        <v>951</v>
+        <v>910</v>
       </c>
       <c r="F222" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>952</v>
+        <v>912</v>
       </c>
       <c r="B223">
         <v>26</v>
       </c>
       <c r="C223" t="s">
-        <v>953</v>
+        <v>913</v>
       </c>
       <c r="D223" t="s">
-        <v>954</v>
+        <v>914</v>
       </c>
       <c r="E223" t="s">
-        <v>955</v>
+        <v>915</v>
       </c>
       <c r="F223" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>956</v>
+        <v>916</v>
       </c>
       <c r="B224">
         <v>26</v>
       </c>
       <c r="C224" t="s">
-        <v>957</v>
+        <v>917</v>
       </c>
       <c r="D224" t="s">
-        <v>958</v>
+        <v>918</v>
       </c>
       <c r="E224" t="s">
-        <v>959</v>
+        <v>919</v>
       </c>
       <c r="F224" t="s">
-        <v>960</v>
+        <v>911</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>961</v>
+        <v>920</v>
       </c>
       <c r="B225">
         <v>26</v>
       </c>
       <c r="C225" t="s">
-        <v>962</v>
+        <v>921</v>
       </c>
       <c r="D225" t="s">
-        <v>963</v>
+        <v>922</v>
       </c>
       <c r="E225" t="s">
-        <v>964</v>
+        <v>923</v>
       </c>
       <c r="F225" t="s">
         <v>911</v>
@@ -9864,39 +10581,39 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>965</v>
+        <v>924</v>
       </c>
       <c r="B226">
         <v>26</v>
       </c>
       <c r="C226" t="s">
-        <v>966</v>
+        <v>925</v>
       </c>
       <c r="D226" t="s">
-        <v>967</v>
+        <v>926</v>
       </c>
       <c r="E226" t="s">
-        <v>968</v>
+        <v>927</v>
       </c>
       <c r="F226" t="s">
-        <v>969</v>
+        <v>911</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>970</v>
+        <v>928</v>
       </c>
       <c r="B227">
         <v>26</v>
       </c>
       <c r="C227" t="s">
-        <v>971</v>
+        <v>929</v>
       </c>
       <c r="D227" t="s">
-        <v>972</v>
+        <v>930</v>
       </c>
       <c r="E227" t="s">
-        <v>973</v>
+        <v>931</v>
       </c>
       <c r="F227" t="s">
         <v>911</v>
@@ -9904,39 +10621,39 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>974</v>
+        <v>932</v>
       </c>
       <c r="B228">
         <v>26</v>
       </c>
       <c r="C228" t="s">
-        <v>975</v>
+        <v>933</v>
       </c>
       <c r="D228" t="s">
-        <v>976</v>
+        <v>934</v>
       </c>
       <c r="E228" t="s">
-        <v>977</v>
+        <v>935</v>
       </c>
       <c r="F228" t="s">
-        <v>978</v>
+        <v>911</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>979</v>
+        <v>936</v>
       </c>
       <c r="B229">
         <v>26</v>
       </c>
       <c r="C229" t="s">
-        <v>980</v>
+        <v>937</v>
       </c>
       <c r="D229" t="s">
-        <v>981</v>
+        <v>938</v>
       </c>
       <c r="E229" t="s">
-        <v>982</v>
+        <v>939</v>
       </c>
       <c r="F229" t="s">
         <v>911</v>
@@ -9944,19 +10661,19 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>983</v>
+        <v>940</v>
       </c>
       <c r="B230">
         <v>26</v>
       </c>
       <c r="C230" t="s">
-        <v>984</v>
+        <v>941</v>
       </c>
       <c r="D230" t="s">
-        <v>985</v>
+        <v>942</v>
       </c>
       <c r="E230" t="s">
-        <v>986</v>
+        <v>943</v>
       </c>
       <c r="F230" t="s">
         <v>911</v>
@@ -9964,39 +10681,39 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>987</v>
+        <v>944</v>
       </c>
       <c r="B231">
         <v>26</v>
       </c>
       <c r="C231" t="s">
-        <v>988</v>
+        <v>945</v>
       </c>
       <c r="D231" t="s">
-        <v>989</v>
+        <v>946</v>
       </c>
       <c r="E231" t="s">
-        <v>990</v>
+        <v>947</v>
       </c>
       <c r="F231" t="s">
-        <v>991</v>
+        <v>911</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>992</v>
+        <v>948</v>
       </c>
       <c r="B232">
         <v>26</v>
       </c>
       <c r="C232" t="s">
-        <v>993</v>
+        <v>949</v>
       </c>
       <c r="D232" t="s">
-        <v>994</v>
+        <v>950</v>
       </c>
       <c r="E232" t="s">
-        <v>995</v>
+        <v>951</v>
       </c>
       <c r="F232" t="s">
         <v>911</v>
@@ -10004,19 +10721,19 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>996</v>
+        <v>952</v>
       </c>
       <c r="B233">
         <v>26</v>
       </c>
       <c r="C233" t="s">
-        <v>997</v>
+        <v>953</v>
       </c>
       <c r="D233" t="s">
-        <v>998</v>
+        <v>954</v>
       </c>
       <c r="E233" t="s">
-        <v>999</v>
+        <v>955</v>
       </c>
       <c r="F233" t="s">
         <v>911</v>
@@ -10024,39 +10741,39 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>1000</v>
+        <v>956</v>
       </c>
       <c r="B234">
         <v>26</v>
       </c>
       <c r="C234" t="s">
-        <v>1001</v>
+        <v>957</v>
       </c>
       <c r="D234" t="s">
-        <v>1002</v>
+        <v>958</v>
       </c>
       <c r="E234" t="s">
-        <v>1003</v>
+        <v>959</v>
       </c>
       <c r="F234" t="s">
-        <v>911</v>
+        <v>960</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>1004</v>
+        <v>961</v>
       </c>
       <c r="B235">
         <v>26</v>
       </c>
       <c r="C235" t="s">
-        <v>1005</v>
+        <v>962</v>
       </c>
       <c r="D235" t="s">
-        <v>1006</v>
+        <v>963</v>
       </c>
       <c r="E235" t="s">
-        <v>1007</v>
+        <v>964</v>
       </c>
       <c r="F235" t="s">
         <v>911</v>
@@ -10064,79 +10781,79 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>1008</v>
+        <v>965</v>
       </c>
       <c r="B236">
         <v>26</v>
       </c>
       <c r="C236" t="s">
-        <v>1009</v>
+        <v>966</v>
       </c>
       <c r="D236" t="s">
-        <v>1010</v>
+        <v>967</v>
       </c>
       <c r="E236" t="s">
-        <v>1011</v>
+        <v>968</v>
       </c>
       <c r="F236" t="s">
-        <v>911</v>
+        <v>969</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>1012</v>
+        <v>970</v>
       </c>
       <c r="B237">
         <v>26</v>
       </c>
       <c r="C237" t="s">
-        <v>1013</v>
+        <v>971</v>
       </c>
       <c r="D237" t="s">
-        <v>1014</v>
+        <v>972</v>
       </c>
       <c r="E237" t="s">
-        <v>1015</v>
+        <v>973</v>
       </c>
       <c r="F237" t="s">
-        <v>1016</v>
+        <v>911</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>1017</v>
+        <v>974</v>
       </c>
       <c r="B238">
         <v>26</v>
       </c>
       <c r="C238" t="s">
-        <v>1018</v>
+        <v>975</v>
       </c>
       <c r="D238" t="s">
-        <v>1019</v>
+        <v>976</v>
       </c>
       <c r="E238" t="s">
-        <v>1020</v>
+        <v>977</v>
       </c>
       <c r="F238" t="s">
-        <v>1021</v>
+        <v>978</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>1022</v>
+        <v>979</v>
       </c>
       <c r="B239">
         <v>26</v>
       </c>
       <c r="C239" t="s">
-        <v>1023</v>
+        <v>980</v>
       </c>
       <c r="D239" t="s">
-        <v>1024</v>
+        <v>981</v>
       </c>
       <c r="E239" t="s">
-        <v>1025</v>
+        <v>982</v>
       </c>
       <c r="F239" t="s">
         <v>911</v>
@@ -10144,19 +10861,19 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>1026</v>
+        <v>983</v>
       </c>
       <c r="B240">
         <v>26</v>
       </c>
       <c r="C240" t="s">
-        <v>447</v>
+        <v>984</v>
       </c>
       <c r="D240" t="s">
-        <v>1027</v>
+        <v>985</v>
       </c>
       <c r="E240" t="s">
-        <v>1028</v>
+        <v>986</v>
       </c>
       <c r="F240" t="s">
         <v>911</v>
@@ -10164,39 +10881,39 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>1029</v>
+        <v>987</v>
       </c>
       <c r="B241">
         <v>26</v>
       </c>
       <c r="C241" t="s">
-        <v>1030</v>
+        <v>988</v>
       </c>
       <c r="D241" t="s">
-        <v>1031</v>
+        <v>989</v>
       </c>
       <c r="E241" t="s">
-        <v>1032</v>
+        <v>990</v>
       </c>
       <c r="F241" t="s">
-        <v>911</v>
+        <v>991</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>1033</v>
+        <v>992</v>
       </c>
       <c r="B242">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C242" t="s">
-        <v>1034</v>
+        <v>993</v>
       </c>
       <c r="D242" t="s">
-        <v>1035</v>
+        <v>994</v>
       </c>
       <c r="E242" t="s">
-        <v>1036</v>
+        <v>995</v>
       </c>
       <c r="F242" t="s">
         <v>911</v>
@@ -10204,19 +10921,19 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>1037</v>
+        <v>996</v>
       </c>
       <c r="B243">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C243" t="s">
-        <v>1038</v>
+        <v>997</v>
       </c>
       <c r="D243" t="s">
-        <v>1039</v>
+        <v>998</v>
       </c>
       <c r="E243" t="s">
-        <v>1040</v>
+        <v>999</v>
       </c>
       <c r="F243" t="s">
         <v>911</v>
@@ -10224,19 +10941,19 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>1041</v>
+        <v>1000</v>
       </c>
       <c r="B244">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C244" t="s">
-        <v>1042</v>
+        <v>1001</v>
       </c>
       <c r="D244" t="s">
-        <v>1043</v>
+        <v>1002</v>
       </c>
       <c r="E244" t="s">
-        <v>1044</v>
+        <v>1003</v>
       </c>
       <c r="F244" t="s">
         <v>911</v>
@@ -10244,19 +10961,19 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>1045</v>
+        <v>1004</v>
       </c>
       <c r="B245">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C245" t="s">
-        <v>1046</v>
+        <v>1005</v>
       </c>
       <c r="D245" t="s">
-        <v>1047</v>
+        <v>1006</v>
       </c>
       <c r="E245" t="s">
-        <v>1048</v>
+        <v>1007</v>
       </c>
       <c r="F245" t="s">
         <v>911</v>
@@ -10264,19 +10981,19 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>1049</v>
+        <v>1008</v>
       </c>
       <c r="B246">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C246" t="s">
-        <v>1050</v>
+        <v>1009</v>
       </c>
       <c r="D246" t="s">
-        <v>1051</v>
+        <v>1010</v>
       </c>
       <c r="E246" t="s">
-        <v>1052</v>
+        <v>1011</v>
       </c>
       <c r="F246" t="s">
         <v>911</v>
@@ -10284,79 +11001,79 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>1053</v>
+        <v>1012</v>
       </c>
       <c r="B247">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C247" t="s">
-        <v>1054</v>
+        <v>1013</v>
       </c>
       <c r="D247" t="s">
-        <v>1055</v>
+        <v>1014</v>
       </c>
       <c r="E247" t="s">
-        <v>1056</v>
+        <v>1015</v>
       </c>
       <c r="F247" t="s">
-        <v>911</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>1057</v>
+        <v>1017</v>
       </c>
       <c r="B248">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C248" t="s">
-        <v>1058</v>
+        <v>1018</v>
       </c>
       <c r="D248" t="s">
-        <v>1059</v>
+        <v>1019</v>
       </c>
       <c r="E248" t="s">
-        <v>1060</v>
+        <v>1020</v>
       </c>
       <c r="F248" t="s">
-        <v>1061</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>1062</v>
+        <v>1022</v>
       </c>
       <c r="B249">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C249" t="s">
-        <v>1063</v>
+        <v>1023</v>
       </c>
       <c r="D249" t="s">
-        <v>1064</v>
+        <v>1024</v>
       </c>
       <c r="E249" t="s">
-        <v>1065</v>
+        <v>1025</v>
       </c>
       <c r="F249" t="s">
-        <v>1066</v>
+        <v>911</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>1067</v>
+        <v>1026</v>
       </c>
       <c r="B250">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C250" t="s">
-        <v>1068</v>
+        <v>447</v>
       </c>
       <c r="D250" t="s">
-        <v>1069</v>
+        <v>1027</v>
       </c>
       <c r="E250" t="s">
-        <v>1070</v>
+        <v>1028</v>
       </c>
       <c r="F250" t="s">
         <v>911</v>
@@ -10364,1612 +11081,1812 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>1071</v>
+        <v>1029</v>
       </c>
       <c r="B251">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C251" t="s">
-        <v>1072</v>
+        <v>1030</v>
       </c>
       <c r="D251" t="s">
-        <v>1073</v>
+        <v>1031</v>
       </c>
       <c r="E251" t="s">
-        <v>1074</v>
+        <v>1032</v>
       </c>
       <c r="F251" t="s">
-        <v>1075</v>
+        <v>911</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>1076</v>
+        <v>1033</v>
       </c>
       <c r="B252">
         <v>27</v>
       </c>
       <c r="C252" t="s">
-        <v>1077</v>
+        <v>1034</v>
       </c>
       <c r="D252" t="s">
-        <v>1078</v>
+        <v>1035</v>
       </c>
       <c r="E252" t="s">
-        <v>1079</v>
+        <v>1036</v>
       </c>
       <c r="F252" t="s">
-        <v>1080</v>
+        <v>911</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>1081</v>
+        <v>1037</v>
       </c>
       <c r="B253">
         <v>27</v>
       </c>
       <c r="C253" t="s">
-        <v>1082</v>
+        <v>1038</v>
       </c>
       <c r="D253" t="s">
-        <v>1083</v>
+        <v>1039</v>
       </c>
       <c r="E253" t="s">
-        <v>1084</v>
+        <v>1040</v>
       </c>
       <c r="F253" t="s">
-        <v>1085</v>
+        <v>911</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>1086</v>
+        <v>1041</v>
       </c>
       <c r="B254">
         <v>27</v>
       </c>
       <c r="C254" t="s">
-        <v>1087</v>
+        <v>1042</v>
       </c>
       <c r="D254" t="s">
-        <v>1088</v>
+        <v>1043</v>
       </c>
       <c r="E254" t="s">
-        <v>1089</v>
+        <v>1044</v>
       </c>
       <c r="F254" t="s">
-        <v>1090</v>
+        <v>911</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>1091</v>
+        <v>1045</v>
       </c>
       <c r="B255">
         <v>27</v>
       </c>
       <c r="C255" t="s">
-        <v>1092</v>
+        <v>1046</v>
       </c>
       <c r="D255" t="s">
-        <v>1093</v>
+        <v>1047</v>
       </c>
       <c r="E255" t="s">
-        <v>1094</v>
+        <v>1048</v>
       </c>
       <c r="F255" t="s">
-        <v>1095</v>
+        <v>911</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>1096</v>
+        <v>1049</v>
       </c>
       <c r="B256">
         <v>27</v>
       </c>
       <c r="C256" t="s">
-        <v>1097</v>
+        <v>1050</v>
       </c>
       <c r="D256" t="s">
-        <v>1098</v>
+        <v>1051</v>
       </c>
       <c r="E256" t="s">
-        <v>1099</v>
+        <v>1052</v>
       </c>
       <c r="F256" t="s">
-        <v>1100</v>
+        <v>911</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>1101</v>
+        <v>1053</v>
       </c>
       <c r="B257">
         <v>27</v>
       </c>
       <c r="C257" t="s">
-        <v>1102</v>
+        <v>1054</v>
       </c>
       <c r="D257" t="s">
-        <v>1103</v>
+        <v>1055</v>
       </c>
       <c r="E257" t="s">
-        <v>1104</v>
+        <v>1056</v>
       </c>
       <c r="F257" t="s">
-        <v>1105</v>
+        <v>911</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>1106</v>
+        <v>1057</v>
       </c>
       <c r="B258">
         <v>27</v>
       </c>
       <c r="C258" t="s">
-        <v>1107</v>
+        <v>1058</v>
       </c>
       <c r="D258" t="s">
-        <v>1108</v>
+        <v>1059</v>
       </c>
       <c r="E258" t="s">
-        <v>1109</v>
+        <v>1060</v>
       </c>
       <c r="F258" t="s">
-        <v>1110</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>1111</v>
+        <v>1062</v>
       </c>
       <c r="B259">
         <v>27</v>
       </c>
       <c r="C259" t="s">
-        <v>1112</v>
+        <v>1063</v>
       </c>
       <c r="D259" t="s">
-        <v>1113</v>
+        <v>1064</v>
       </c>
       <c r="E259" t="s">
-        <v>1114</v>
+        <v>1065</v>
       </c>
       <c r="F259" t="s">
-        <v>1115</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>1116</v>
+        <v>1067</v>
       </c>
       <c r="B260">
         <v>27</v>
       </c>
       <c r="C260" t="s">
-        <v>1117</v>
+        <v>1068</v>
       </c>
       <c r="D260" t="s">
-        <v>1118</v>
+        <v>1069</v>
       </c>
       <c r="E260" t="s">
-        <v>1119</v>
+        <v>1070</v>
       </c>
       <c r="F260" t="s">
-        <v>1120</v>
+        <v>911</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>1121</v>
+        <v>1071</v>
       </c>
       <c r="B261">
         <v>27</v>
       </c>
       <c r="C261" t="s">
-        <v>1122</v>
+        <v>1072</v>
       </c>
       <c r="D261" t="s">
-        <v>1123</v>
+        <v>1073</v>
       </c>
       <c r="E261" t="s">
-        <v>1124</v>
+        <v>1074</v>
       </c>
       <c r="F261" t="s">
-        <v>1125</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>1126</v>
+        <v>1076</v>
       </c>
       <c r="B262">
         <v>27</v>
       </c>
       <c r="C262" t="s">
-        <v>1127</v>
+        <v>1077</v>
       </c>
       <c r="D262" t="s">
-        <v>1128</v>
+        <v>1078</v>
       </c>
       <c r="E262" t="s">
-        <v>1129</v>
+        <v>1079</v>
       </c>
       <c r="F262" t="s">
-        <v>1130</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>1131</v>
+        <v>1081</v>
       </c>
       <c r="B263">
         <v>27</v>
       </c>
       <c r="C263" t="s">
-        <v>1132</v>
+        <v>1082</v>
       </c>
       <c r="D263" t="s">
-        <v>1133</v>
+        <v>1083</v>
       </c>
       <c r="E263" t="s">
-        <v>1134</v>
+        <v>1084</v>
       </c>
       <c r="F263" t="s">
-        <v>1135</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>1136</v>
+        <v>1086</v>
       </c>
       <c r="B264">
         <v>27</v>
       </c>
       <c r="C264" t="s">
-        <v>1137</v>
+        <v>1087</v>
       </c>
       <c r="D264" t="s">
-        <v>1138</v>
+        <v>1088</v>
       </c>
       <c r="E264" t="s">
-        <v>1139</v>
+        <v>1089</v>
       </c>
       <c r="F264" t="s">
-        <v>1140</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>1141</v>
+        <v>1091</v>
       </c>
       <c r="B265">
         <v>27</v>
       </c>
       <c r="C265" t="s">
-        <v>1142</v>
+        <v>1092</v>
       </c>
       <c r="D265" t="s">
-        <v>1143</v>
+        <v>1093</v>
       </c>
       <c r="E265" t="s">
-        <v>1144</v>
+        <v>1094</v>
       </c>
       <c r="F265" t="s">
-        <v>1145</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>1146</v>
+        <v>1096</v>
       </c>
       <c r="B266">
         <v>27</v>
       </c>
       <c r="C266" t="s">
-        <v>1147</v>
+        <v>1097</v>
       </c>
       <c r="D266" t="s">
-        <v>1148</v>
+        <v>1098</v>
       </c>
       <c r="E266" t="s">
-        <v>1149</v>
+        <v>1099</v>
       </c>
       <c r="F266" t="s">
-        <v>1150</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>1151</v>
+        <v>1101</v>
       </c>
       <c r="B267">
         <v>27</v>
       </c>
       <c r="C267" t="s">
-        <v>1152</v>
+        <v>1102</v>
       </c>
       <c r="D267" t="s">
-        <v>1153</v>
+        <v>1103</v>
       </c>
       <c r="E267" t="s">
-        <v>1154</v>
+        <v>1104</v>
       </c>
       <c r="F267" t="s">
-        <v>1155</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>1156</v>
+        <v>1106</v>
       </c>
       <c r="B268">
         <v>27</v>
       </c>
       <c r="C268" t="s">
-        <v>1157</v>
+        <v>1107</v>
       </c>
       <c r="D268" t="s">
-        <v>1158</v>
+        <v>1108</v>
       </c>
       <c r="E268" t="s">
-        <v>1159</v>
+        <v>1109</v>
       </c>
       <c r="F268" t="s">
-        <v>1160</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>1161</v>
+        <v>1111</v>
       </c>
       <c r="B269">
         <v>27</v>
       </c>
       <c r="C269" t="s">
-        <v>1162</v>
+        <v>1112</v>
       </c>
       <c r="D269" t="s">
-        <v>1163</v>
+        <v>1113</v>
       </c>
       <c r="E269" t="s">
-        <v>1164</v>
+        <v>1114</v>
       </c>
       <c r="F269" t="s">
-        <v>1165</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>1166</v>
+        <v>1116</v>
       </c>
       <c r="B270">
         <v>27</v>
       </c>
       <c r="C270" t="s">
-        <v>1162</v>
+        <v>1117</v>
       </c>
       <c r="D270" t="s">
-        <v>1167</v>
+        <v>1118</v>
       </c>
       <c r="E270" t="s">
-        <v>1168</v>
+        <v>1119</v>
       </c>
       <c r="F270" t="s">
-        <v>1169</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>1170</v>
+        <v>1121</v>
       </c>
       <c r="B271">
         <v>27</v>
       </c>
       <c r="C271" t="s">
-        <v>1171</v>
+        <v>1122</v>
       </c>
       <c r="D271" t="s">
-        <v>1172</v>
+        <v>1123</v>
       </c>
       <c r="E271" t="s">
-        <v>1173</v>
+        <v>1124</v>
       </c>
       <c r="F271" t="s">
-        <v>1174</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>1175</v>
+        <v>1126</v>
       </c>
       <c r="B272">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C272" t="s">
-        <v>1176</v>
+        <v>1127</v>
       </c>
       <c r="D272" t="s">
-        <v>1177</v>
+        <v>1128</v>
       </c>
       <c r="E272" t="s">
-        <v>1178</v>
+        <v>1129</v>
       </c>
       <c r="F272" t="s">
-        <v>1179</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>1180</v>
+        <v>1131</v>
       </c>
       <c r="B273">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C273" t="s">
-        <v>1181</v>
+        <v>1132</v>
       </c>
       <c r="D273" t="s">
-        <v>1182</v>
+        <v>1133</v>
       </c>
       <c r="E273" t="s">
-        <v>1183</v>
+        <v>1134</v>
       </c>
       <c r="F273" t="s">
-        <v>1184</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>1185</v>
+        <v>1136</v>
       </c>
       <c r="B274">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C274" t="s">
-        <v>1186</v>
+        <v>1137</v>
       </c>
       <c r="D274" t="s">
-        <v>1187</v>
+        <v>1138</v>
       </c>
       <c r="E274" t="s">
-        <v>1188</v>
+        <v>1139</v>
       </c>
       <c r="F274" t="s">
-        <v>1189</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>1190</v>
+        <v>1141</v>
       </c>
       <c r="B275">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C275" t="s">
-        <v>1191</v>
+        <v>1142</v>
       </c>
       <c r="D275" t="s">
-        <v>1192</v>
+        <v>1143</v>
       </c>
       <c r="E275" t="s">
-        <v>1193</v>
+        <v>1144</v>
       </c>
       <c r="F275" t="s">
-        <v>1194</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>1195</v>
+        <v>1146</v>
       </c>
       <c r="B276">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C276" t="s">
-        <v>1196</v>
+        <v>1147</v>
       </c>
       <c r="D276" t="s">
-        <v>1197</v>
+        <v>1148</v>
       </c>
       <c r="E276" t="s">
-        <v>1198</v>
+        <v>1149</v>
       </c>
       <c r="F276" t="s">
-        <v>1199</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>1200</v>
+        <v>1151</v>
       </c>
       <c r="B277">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C277" t="s">
-        <v>1201</v>
+        <v>1152</v>
       </c>
       <c r="D277" t="s">
-        <v>1202</v>
+        <v>1153</v>
       </c>
       <c r="E277" t="s">
-        <v>1203</v>
+        <v>1154</v>
       </c>
       <c r="F277" t="s">
-        <v>1204</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>1205</v>
+        <v>1156</v>
       </c>
       <c r="B278">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C278" t="s">
-        <v>1206</v>
+        <v>1157</v>
       </c>
       <c r="D278" t="s">
-        <v>1207</v>
+        <v>1158</v>
       </c>
       <c r="E278" t="s">
-        <v>1208</v>
+        <v>1159</v>
       </c>
       <c r="F278" t="s">
-        <v>1209</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>1210</v>
+        <v>1161</v>
       </c>
       <c r="B279">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C279" t="s">
-        <v>1211</v>
+        <v>1162</v>
       </c>
       <c r="D279" t="s">
-        <v>1212</v>
+        <v>1163</v>
       </c>
       <c r="E279" t="s">
-        <v>1213</v>
+        <v>1164</v>
       </c>
       <c r="F279" t="s">
-        <v>1214</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>1215</v>
+        <v>1166</v>
       </c>
       <c r="B280">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C280" t="s">
-        <v>1216</v>
+        <v>1162</v>
       </c>
       <c r="D280" t="s">
-        <v>1217</v>
+        <v>1167</v>
       </c>
       <c r="E280" t="s">
-        <v>1218</v>
+        <v>1168</v>
       </c>
       <c r="F280" t="s">
-        <v>1219</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>1220</v>
+        <v>1170</v>
       </c>
       <c r="B281">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C281" t="s">
-        <v>1221</v>
+        <v>1171</v>
       </c>
       <c r="D281" t="s">
-        <v>1222</v>
+        <v>1172</v>
       </c>
       <c r="E281" t="s">
-        <v>1223</v>
+        <v>1173</v>
       </c>
       <c r="F281" t="s">
-        <v>1224</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>1225</v>
+        <v>1175</v>
       </c>
       <c r="B282">
         <v>28</v>
       </c>
       <c r="C282" t="s">
-        <v>1226</v>
+        <v>1176</v>
       </c>
       <c r="D282" t="s">
-        <v>1227</v>
+        <v>1177</v>
       </c>
       <c r="E282" t="s">
-        <v>1228</v>
+        <v>1178</v>
       </c>
       <c r="F282" t="s">
-        <v>1229</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>1230</v>
+        <v>1180</v>
       </c>
       <c r="B283">
         <v>28</v>
       </c>
       <c r="C283" t="s">
-        <v>1231</v>
+        <v>1181</v>
       </c>
       <c r="D283" t="s">
-        <v>1232</v>
+        <v>1182</v>
+      </c>
+      <c r="E283" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F283" t="s">
+        <v>1184</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>1233</v>
+        <v>1185</v>
       </c>
       <c r="B284">
         <v>28</v>
       </c>
       <c r="C284" t="s">
-        <v>1234</v>
+        <v>1186</v>
       </c>
       <c r="D284" t="s">
-        <v>1235</v>
+        <v>1187</v>
       </c>
       <c r="E284" t="s">
-        <v>1236</v>
+        <v>1188</v>
       </c>
       <c r="F284" t="s">
-        <v>1237</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>1238</v>
+        <v>1190</v>
       </c>
       <c r="B285">
         <v>28</v>
       </c>
       <c r="C285" t="s">
-        <v>1239</v>
+        <v>1191</v>
       </c>
       <c r="D285" t="s">
-        <v>1240</v>
+        <v>1192</v>
       </c>
       <c r="E285" t="s">
-        <v>1241</v>
+        <v>1193</v>
       </c>
       <c r="F285" t="s">
-        <v>1242</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>1243</v>
+        <v>1195</v>
       </c>
       <c r="B286">
         <v>28</v>
       </c>
       <c r="C286" t="s">
-        <v>1244</v>
+        <v>1196</v>
       </c>
       <c r="D286" t="s">
-        <v>1245</v>
+        <v>1197</v>
       </c>
       <c r="E286" t="s">
-        <v>1246</v>
+        <v>1198</v>
       </c>
       <c r="F286" t="s">
-        <v>1247</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>1248</v>
+        <v>1200</v>
       </c>
       <c r="B287">
         <v>28</v>
       </c>
       <c r="C287" t="s">
-        <v>908</v>
+        <v>1201</v>
       </c>
       <c r="D287" t="s">
-        <v>1249</v>
+        <v>1202</v>
       </c>
       <c r="E287" t="s">
-        <v>1250</v>
+        <v>1203</v>
       </c>
       <c r="F287" t="s">
-        <v>1251</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>1252</v>
+        <v>1205</v>
       </c>
       <c r="B288">
         <v>28</v>
       </c>
       <c r="C288" t="s">
-        <v>1253</v>
+        <v>1206</v>
       </c>
       <c r="D288" t="s">
-        <v>1254</v>
+        <v>1207</v>
       </c>
       <c r="E288" t="s">
-        <v>1255</v>
+        <v>1208</v>
+      </c>
+      <c r="F288" t="s">
+        <v>1209</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>1256</v>
+        <v>1210</v>
       </c>
       <c r="B289">
         <v>28</v>
       </c>
       <c r="C289" t="s">
-        <v>1257</v>
+        <v>1211</v>
       </c>
       <c r="D289" t="s">
-        <v>1258</v>
+        <v>1212</v>
       </c>
       <c r="E289" t="s">
-        <v>1259</v>
+        <v>1213</v>
       </c>
       <c r="F289" t="s">
-        <v>1260</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>1261</v>
+        <v>1215</v>
       </c>
       <c r="B290">
         <v>28</v>
       </c>
       <c r="C290" t="s">
-        <v>1262</v>
+        <v>1216</v>
       </c>
       <c r="D290" t="s">
-        <v>1263</v>
+        <v>1217</v>
       </c>
       <c r="E290" t="s">
-        <v>1264</v>
+        <v>1218</v>
       </c>
       <c r="F290" t="s">
-        <v>1265</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>1266</v>
+        <v>1220</v>
       </c>
       <c r="B291">
         <v>28</v>
       </c>
       <c r="C291" t="s">
-        <v>1267</v>
+        <v>1221</v>
       </c>
       <c r="D291" t="s">
-        <v>1268</v>
+        <v>1222</v>
       </c>
       <c r="E291" t="s">
-        <v>1269</v>
+        <v>1223</v>
       </c>
       <c r="F291" t="s">
-        <v>1270</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>1271</v>
+        <v>1225</v>
       </c>
       <c r="B292">
         <v>28</v>
       </c>
       <c r="C292" t="s">
-        <v>1272</v>
+        <v>1226</v>
       </c>
       <c r="D292" t="s">
-        <v>1273</v>
+        <v>1227</v>
       </c>
       <c r="E292" t="s">
-        <v>1274</v>
+        <v>1228</v>
       </c>
       <c r="F292" t="s">
-        <v>1275</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>1276</v>
+        <v>1230</v>
       </c>
       <c r="B293">
         <v>28</v>
       </c>
       <c r="C293" t="s">
-        <v>1277</v>
+        <v>1231</v>
       </c>
       <c r="D293" t="s">
-        <v>1278</v>
-      </c>
-      <c r="E293" t="s">
-        <v>1279</v>
-      </c>
-      <c r="F293" t="s">
-        <v>1280</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>1281</v>
+        <v>1233</v>
       </c>
       <c r="B294">
         <v>28</v>
       </c>
       <c r="C294" t="s">
-        <v>1282</v>
+        <v>1234</v>
       </c>
       <c r="D294" t="s">
-        <v>1283</v>
+        <v>1235</v>
       </c>
       <c r="E294" t="s">
-        <v>1284</v>
+        <v>1236</v>
       </c>
       <c r="F294" t="s">
-        <v>1285</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>1286</v>
+        <v>1238</v>
       </c>
       <c r="B295">
         <v>28</v>
       </c>
       <c r="C295" t="s">
-        <v>1287</v>
+        <v>1239</v>
       </c>
       <c r="D295" t="s">
-        <v>1288</v>
+        <v>1240</v>
       </c>
       <c r="E295" t="s">
-        <v>1289</v>
+        <v>1241</v>
       </c>
       <c r="F295" t="s">
-        <v>1290</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>1291</v>
+        <v>1243</v>
       </c>
       <c r="B296">
         <v>28</v>
       </c>
       <c r="C296" t="s">
-        <v>1292</v>
+        <v>1244</v>
       </c>
       <c r="D296" t="s">
-        <v>1293</v>
+        <v>1245</v>
       </c>
       <c r="E296" t="s">
-        <v>1294</v>
+        <v>1246</v>
       </c>
       <c r="F296" t="s">
-        <v>1295</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>1296</v>
+        <v>1248</v>
       </c>
       <c r="B297">
         <v>28</v>
       </c>
       <c r="C297" t="s">
-        <v>1297</v>
+        <v>908</v>
       </c>
       <c r="D297" t="s">
-        <v>1298</v>
+        <v>1249</v>
       </c>
       <c r="E297" t="s">
-        <v>1299</v>
+        <v>1250</v>
       </c>
       <c r="F297" t="s">
-        <v>1300</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>1301</v>
+        <v>1252</v>
       </c>
       <c r="B298">
         <v>28</v>
       </c>
       <c r="C298" t="s">
-        <v>1302</v>
+        <v>1253</v>
       </c>
       <c r="D298" t="s">
-        <v>1303</v>
+        <v>1254</v>
       </c>
       <c r="E298" t="s">
-        <v>1304</v>
-      </c>
-      <c r="F298" t="s">
-        <v>1305</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>1306</v>
+        <v>1256</v>
       </c>
       <c r="B299">
         <v>28</v>
       </c>
       <c r="C299" t="s">
-        <v>1307</v>
+        <v>1257</v>
       </c>
       <c r="D299" t="s">
-        <v>1308</v>
+        <v>1258</v>
       </c>
       <c r="E299" t="s">
-        <v>1309</v>
+        <v>1259</v>
       </c>
       <c r="F299" t="s">
-        <v>1310</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>1311</v>
+        <v>1261</v>
       </c>
       <c r="B300">
         <v>28</v>
       </c>
       <c r="C300" t="s">
-        <v>1312</v>
+        <v>1262</v>
       </c>
       <c r="D300" t="s">
-        <v>1313</v>
+        <v>1263</v>
       </c>
       <c r="E300" t="s">
-        <v>1314</v>
+        <v>1264</v>
       </c>
       <c r="F300" t="s">
-        <v>1315</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>1316</v>
+        <v>1266</v>
       </c>
       <c r="B301">
         <v>28</v>
       </c>
       <c r="C301" t="s">
-        <v>1317</v>
+        <v>1267</v>
       </c>
       <c r="D301" t="s">
-        <v>1318</v>
+        <v>1268</v>
       </c>
       <c r="E301" t="s">
-        <v>1319</v>
+        <v>1269</v>
       </c>
       <c r="F301" t="s">
-        <v>1320</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>1321</v>
+        <v>1271</v>
       </c>
       <c r="B302">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C302" t="s">
-        <v>1322</v>
+        <v>1272</v>
       </c>
       <c r="D302" t="s">
-        <v>1323</v>
+        <v>1273</v>
       </c>
       <c r="E302" t="s">
-        <v>1324</v>
+        <v>1274</v>
       </c>
       <c r="F302" t="s">
-        <v>1325</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>1326</v>
+        <v>1276</v>
       </c>
       <c r="B303">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C303" t="s">
-        <v>1327</v>
+        <v>1277</v>
       </c>
       <c r="D303" t="s">
-        <v>1328</v>
+        <v>1278</v>
       </c>
       <c r="E303" t="s">
-        <v>1329</v>
+        <v>1279</v>
       </c>
       <c r="F303" t="s">
-        <v>1330</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>1331</v>
+        <v>1281</v>
       </c>
       <c r="B304">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C304" t="s">
-        <v>1332</v>
+        <v>1282</v>
       </c>
       <c r="D304" t="s">
-        <v>1333</v>
+        <v>1283</v>
       </c>
       <c r="E304" t="s">
-        <v>1334</v>
+        <v>1284</v>
       </c>
       <c r="F304" t="s">
-        <v>1335</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>1336</v>
+        <v>1286</v>
       </c>
       <c r="B305">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C305" t="s">
-        <v>1337</v>
+        <v>1287</v>
       </c>
       <c r="D305" t="s">
-        <v>1338</v>
+        <v>1288</v>
       </c>
       <c r="E305" t="s">
-        <v>1339</v>
+        <v>1289</v>
       </c>
       <c r="F305" t="s">
-        <v>1340</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>1341</v>
+        <v>1291</v>
       </c>
       <c r="B306">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C306" t="s">
-        <v>1342</v>
+        <v>1292</v>
       </c>
       <c r="D306" t="s">
-        <v>1343</v>
+        <v>1293</v>
       </c>
       <c r="E306" t="s">
-        <v>1344</v>
+        <v>1294</v>
       </c>
       <c r="F306" t="s">
-        <v>1345</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>1346</v>
+        <v>1296</v>
       </c>
       <c r="B307">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C307" t="s">
-        <v>1347</v>
+        <v>1297</v>
       </c>
       <c r="D307" t="s">
-        <v>1348</v>
+        <v>1298</v>
       </c>
       <c r="E307" t="s">
-        <v>1349</v>
+        <v>1299</v>
       </c>
       <c r="F307" t="s">
-        <v>1350</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>1351</v>
+        <v>1301</v>
       </c>
       <c r="B308">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C308" t="s">
-        <v>1352</v>
+        <v>1302</v>
       </c>
       <c r="D308" t="s">
-        <v>1353</v>
+        <v>1303</v>
       </c>
       <c r="E308" t="s">
-        <v>1354</v>
+        <v>1304</v>
       </c>
       <c r="F308" t="s">
-        <v>1355</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>1356</v>
+        <v>1306</v>
       </c>
       <c r="B309">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C309" t="s">
-        <v>1357</v>
+        <v>1307</v>
       </c>
       <c r="D309" t="s">
-        <v>1358</v>
+        <v>1308</v>
       </c>
       <c r="E309" t="s">
-        <v>1359</v>
+        <v>1309</v>
       </c>
       <c r="F309" t="s">
-        <v>1360</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>1361</v>
+        <v>1311</v>
       </c>
       <c r="B310">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C310" t="s">
-        <v>1362</v>
+        <v>1312</v>
       </c>
       <c r="D310" t="s">
-        <v>1363</v>
+        <v>1313</v>
       </c>
       <c r="E310" t="s">
-        <v>1364</v>
+        <v>1314</v>
       </c>
       <c r="F310" t="s">
-        <v>1365</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>1366</v>
+        <v>1316</v>
       </c>
       <c r="B311">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C311" t="s">
-        <v>1367</v>
+        <v>1317</v>
       </c>
       <c r="D311" t="s">
-        <v>1368</v>
+        <v>1318</v>
       </c>
       <c r="E311" t="s">
-        <v>1369</v>
+        <v>1319</v>
       </c>
       <c r="F311" t="s">
-        <v>1370</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>1371</v>
+        <v>1321</v>
       </c>
       <c r="B312">
         <v>29</v>
       </c>
       <c r="C312" t="s">
-        <v>1372</v>
+        <v>1322</v>
       </c>
       <c r="D312" t="s">
-        <v>1373</v>
+        <v>1323</v>
       </c>
       <c r="E312" t="s">
-        <v>1374</v>
+        <v>1324</v>
       </c>
       <c r="F312" t="s">
-        <v>1375</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>1376</v>
+        <v>1326</v>
       </c>
       <c r="B313">
         <v>29</v>
       </c>
       <c r="C313" t="s">
-        <v>1377</v>
+        <v>1327</v>
       </c>
       <c r="D313" t="s">
-        <v>1378</v>
+        <v>1328</v>
       </c>
       <c r="E313" t="s">
-        <v>1379</v>
+        <v>1329</v>
       </c>
       <c r="F313" t="s">
-        <v>1380</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>1381</v>
+        <v>1331</v>
       </c>
       <c r="B314">
         <v>29</v>
       </c>
       <c r="C314" t="s">
-        <v>1382</v>
+        <v>1332</v>
       </c>
       <c r="D314" t="s">
-        <v>1383</v>
+        <v>1333</v>
       </c>
       <c r="E314" t="s">
-        <v>1384</v>
+        <v>1334</v>
       </c>
       <c r="F314" t="s">
-        <v>1385</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>1386</v>
+        <v>1336</v>
       </c>
       <c r="B315">
         <v>29</v>
       </c>
       <c r="C315" t="s">
-        <v>1387</v>
+        <v>1337</v>
       </c>
       <c r="D315" t="s">
-        <v>1388</v>
+        <v>1338</v>
       </c>
       <c r="E315" t="s">
-        <v>1389</v>
+        <v>1339</v>
       </c>
       <c r="F315" t="s">
-        <v>1390</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>1391</v>
+        <v>1341</v>
       </c>
       <c r="B316">
         <v>29</v>
       </c>
       <c r="C316" t="s">
-        <v>1392</v>
+        <v>1342</v>
       </c>
       <c r="D316" t="s">
-        <v>1393</v>
+        <v>1343</v>
       </c>
       <c r="E316" t="s">
-        <v>1394</v>
+        <v>1344</v>
       </c>
       <c r="F316" t="s">
-        <v>1395</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>1396</v>
+        <v>1346</v>
       </c>
       <c r="B317">
         <v>29</v>
       </c>
       <c r="C317" t="s">
-        <v>1397</v>
+        <v>1347</v>
       </c>
       <c r="D317" t="s">
-        <v>1398</v>
+        <v>1348</v>
       </c>
       <c r="E317" t="s">
-        <v>1399</v>
+        <v>1349</v>
       </c>
       <c r="F317" t="s">
-        <v>1400</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>1401</v>
+        <v>1351</v>
       </c>
       <c r="B318">
         <v>29</v>
       </c>
       <c r="C318" t="s">
-        <v>1402</v>
+        <v>1352</v>
       </c>
       <c r="D318" t="s">
-        <v>1403</v>
+        <v>1353</v>
       </c>
       <c r="E318" t="s">
-        <v>1404</v>
+        <v>1354</v>
       </c>
       <c r="F318" t="s">
-        <v>1405</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>1406</v>
+        <v>1356</v>
       </c>
       <c r="B319">
         <v>29</v>
       </c>
       <c r="C319" t="s">
-        <v>1407</v>
+        <v>1357</v>
       </c>
       <c r="D319" t="s">
-        <v>1408</v>
+        <v>1358</v>
       </c>
       <c r="E319" t="s">
-        <v>1409</v>
+        <v>1359</v>
       </c>
       <c r="F319" t="s">
-        <v>1410</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>1411</v>
+        <v>1361</v>
       </c>
       <c r="B320">
         <v>29</v>
       </c>
       <c r="C320" t="s">
-        <v>1412</v>
+        <v>1362</v>
       </c>
       <c r="D320" t="s">
-        <v>1413</v>
+        <v>1363</v>
       </c>
       <c r="E320" t="s">
-        <v>1414</v>
+        <v>1364</v>
       </c>
       <c r="F320" t="s">
-        <v>1415</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>1416</v>
+        <v>1366</v>
       </c>
       <c r="B321">
         <v>29</v>
       </c>
       <c r="C321" t="s">
-        <v>1417</v>
+        <v>1367</v>
       </c>
       <c r="D321" t="s">
-        <v>1418</v>
+        <v>1368</v>
       </c>
       <c r="E321" t="s">
-        <v>1419</v>
+        <v>1369</v>
       </c>
       <c r="F321" t="s">
-        <v>1420</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>1421</v>
+        <v>1371</v>
       </c>
       <c r="B322">
         <v>29</v>
       </c>
       <c r="C322" t="s">
-        <v>1422</v>
+        <v>1372</v>
       </c>
       <c r="D322" t="s">
-        <v>1423</v>
+        <v>1373</v>
       </c>
       <c r="E322" t="s">
-        <v>1424</v>
+        <v>1374</v>
       </c>
       <c r="F322" t="s">
-        <v>1425</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>1426</v>
+        <v>1376</v>
       </c>
       <c r="B323">
         <v>29</v>
       </c>
       <c r="C323" t="s">
-        <v>1427</v>
+        <v>1377</v>
       </c>
       <c r="D323" t="s">
-        <v>1428</v>
+        <v>1378</v>
       </c>
       <c r="E323" t="s">
-        <v>1429</v>
+        <v>1379</v>
       </c>
       <c r="F323" t="s">
-        <v>1430</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>1431</v>
+        <v>1381</v>
       </c>
       <c r="B324">
         <v>29</v>
       </c>
       <c r="C324" t="s">
-        <v>1432</v>
+        <v>1382</v>
       </c>
       <c r="D324" t="s">
-        <v>1433</v>
+        <v>1383</v>
       </c>
       <c r="E324" t="s">
-        <v>1434</v>
+        <v>1384</v>
       </c>
       <c r="F324" t="s">
-        <v>1435</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>1436</v>
+        <v>1386</v>
       </c>
       <c r="B325">
         <v>29</v>
       </c>
       <c r="C325" t="s">
-        <v>1437</v>
+        <v>1387</v>
       </c>
       <c r="D325" t="s">
-        <v>1438</v>
+        <v>1388</v>
       </c>
       <c r="E325" t="s">
-        <v>1439</v>
+        <v>1389</v>
       </c>
       <c r="F325" t="s">
-        <v>1440</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>1441</v>
+        <v>1391</v>
       </c>
       <c r="B326">
         <v>29</v>
       </c>
       <c r="C326" t="s">
-        <v>1442</v>
+        <v>1392</v>
       </c>
       <c r="D326" t="s">
-        <v>1443</v>
+        <v>1393</v>
       </c>
       <c r="E326" t="s">
-        <v>1444</v>
+        <v>1394</v>
       </c>
       <c r="F326" t="s">
-        <v>1445</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>1446</v>
+        <v>1396</v>
       </c>
       <c r="B327">
         <v>29</v>
       </c>
       <c r="C327" t="s">
-        <v>1447</v>
+        <v>1397</v>
       </c>
       <c r="D327" t="s">
-        <v>1448</v>
+        <v>1398</v>
       </c>
       <c r="E327" t="s">
-        <v>1449</v>
+        <v>1399</v>
       </c>
       <c r="F327" t="s">
-        <v>1450</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>1451</v>
+        <v>1401</v>
       </c>
       <c r="B328">
         <v>29</v>
       </c>
       <c r="C328" t="s">
-        <v>1452</v>
+        <v>1402</v>
       </c>
       <c r="D328" t="s">
-        <v>1453</v>
+        <v>1403</v>
       </c>
       <c r="E328" t="s">
-        <v>1454</v>
+        <v>1404</v>
       </c>
       <c r="F328" t="s">
-        <v>1455</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>1456</v>
+        <v>1406</v>
       </c>
       <c r="B329">
         <v>29</v>
       </c>
       <c r="C329" t="s">
-        <v>1457</v>
+        <v>1407</v>
       </c>
       <c r="D329" t="s">
-        <v>1458</v>
+        <v>1408</v>
       </c>
       <c r="E329" t="s">
-        <v>1459</v>
+        <v>1409</v>
       </c>
       <c r="F329" t="s">
-        <v>1460</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>1461</v>
+        <v>1411</v>
       </c>
       <c r="B330">
         <v>29</v>
       </c>
       <c r="C330" t="s">
-        <v>1462</v>
+        <v>1412</v>
       </c>
       <c r="D330" t="s">
-        <v>1463</v>
+        <v>1413</v>
       </c>
       <c r="E330" t="s">
-        <v>1464</v>
+        <v>1414</v>
       </c>
       <c r="F330" t="s">
-        <v>1465</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>1466</v>
+        <v>1416</v>
       </c>
       <c r="B331">
         <v>29</v>
       </c>
       <c r="C331" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D331" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E331" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F331" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B332">
+        <v>29</v>
+      </c>
+      <c r="C332" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D332" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E332" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F332" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B333">
+        <v>29</v>
+      </c>
+      <c r="C333" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D333" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E333" t="s">
+        <v>1429</v>
+      </c>
+      <c r="F333" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B334">
+        <v>29</v>
+      </c>
+      <c r="C334" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D334" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E334" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F334" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B335">
+        <v>29</v>
+      </c>
+      <c r="C335" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D335" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E335" t="s">
+        <v>1439</v>
+      </c>
+      <c r="F335" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B336">
+        <v>29</v>
+      </c>
+      <c r="C336" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D336" t="s">
+        <v>1443</v>
+      </c>
+      <c r="E336" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F336" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B337">
+        <v>29</v>
+      </c>
+      <c r="C337" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D337" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E337" t="s">
+        <v>1449</v>
+      </c>
+      <c r="F337" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B338">
+        <v>29</v>
+      </c>
+      <c r="C338" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D338" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E338" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F338" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B339">
+        <v>29</v>
+      </c>
+      <c r="C339" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D339" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E339" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F339" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B340">
+        <v>29</v>
+      </c>
+      <c r="C340" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D340" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E340" t="s">
+        <v>1464</v>
+      </c>
+      <c r="F340" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B341">
+        <v>29</v>
+      </c>
+      <c r="C341" t="s">
         <v>1467</v>
       </c>
-      <c r="D331" t="s">
+      <c r="D341" t="s">
         <v>1468</v>
       </c>
-      <c r="E331" t="s">
+      <c r="E341" t="s">
         <v>1469</v>
       </c>
-      <c r="F331" t="s">
+      <c r="F341" t="s">
         <v>1470</v>
       </c>
     </row>
@@ -11977,7 +12894,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A212:G331 A1:B1 D1:G1 A2:G181" numberStoredAsText="1"/>
+    <ignoredError sqref="A222:G341 A1:B1 D1:G1 A2:G181" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -12001,7 +12918,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>67e55b48-7fca-45c8-8ed6-814cbb364d30</v>
+        <v>4da16d99-2110-4bdc-95c0-f300b8a9ce45</v>
       </c>
     </row>
   </sheetData>

--- a/data/WordStudy.xlsx
+++ b/data/WordStudy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dom/Documents/Dom/english-app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382A33FF-43AD-B04E-99D2-A22F96C920D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A358393-979E-924B-8A0E-D329A49992F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46760" yWindow="-1780" windowWidth="33600" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50340" yWindow="1900" windowWidth="33600" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="1671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="1770">
   <si>
     <t>ID</t>
   </si>
@@ -5044,6 +5044,303 @@
   </si>
   <si>
     <t>involve something</t>
+  </si>
+  <si>
+    <t>U08_11</t>
+  </si>
+  <si>
+    <t>U08_12</t>
+  </si>
+  <si>
+    <t>U08_13</t>
+  </si>
+  <si>
+    <t>U08_14</t>
+  </si>
+  <si>
+    <t>U08_15</t>
+  </si>
+  <si>
+    <t>U08_16</t>
+  </si>
+  <si>
+    <t>U08_17</t>
+  </si>
+  <si>
+    <t>U08_18</t>
+  </si>
+  <si>
+    <t>U08_19</t>
+  </si>
+  <si>
+    <t>U08_20</t>
+  </si>
+  <si>
+    <t>U08_21</t>
+  </si>
+  <si>
+    <t>U08_22</t>
+  </si>
+  <si>
+    <t>U08_23</t>
+  </si>
+  <si>
+    <t>U08_24</t>
+  </si>
+  <si>
+    <t>U08_25</t>
+  </si>
+  <si>
+    <t>U08_26</t>
+  </si>
+  <si>
+    <t>U08_27</t>
+  </si>
+  <si>
+    <t>U08_28</t>
+  </si>
+  <si>
+    <t>U08_29</t>
+  </si>
+  <si>
+    <t>U08_30</t>
+  </si>
+  <si>
+    <t>Bài giảng</t>
+  </si>
+  <si>
+    <t>Lecture</t>
+  </si>
+  <si>
+    <t>A professor from harvard is giving a lecture</t>
+  </si>
+  <si>
+    <t>give a lecture</t>
+  </si>
+  <si>
+    <t>Sách giáo khoa</t>
+  </si>
+  <si>
+    <t>Textbook</t>
+  </si>
+  <si>
+    <t>I love reading school textbooks</t>
+  </si>
+  <si>
+    <t>a school textbook</t>
+  </si>
+  <si>
+    <t>Hóa học</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>Why is organic chemistry so difficult?</t>
+  </si>
+  <si>
+    <t>organic chemistry</t>
+  </si>
+  <si>
+    <t>Lịch sử</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Electricity was an important invention in human history</t>
+  </si>
+  <si>
+    <t>in human history</t>
+  </si>
+  <si>
+    <t>Toán</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Our math teacher is quite young</t>
+  </si>
+  <si>
+    <t>a math teacher</t>
+  </si>
+  <si>
+    <t>Vật lý</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>The physics lesson really bores me</t>
+  </si>
+  <si>
+    <t>A physics lesson</t>
+  </si>
+  <si>
+    <t>Môn học</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Math is my favorite subject at school</t>
+  </si>
+  <si>
+    <t>subject at school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Văn học </t>
+  </si>
+  <si>
+    <t>Literature</t>
+  </si>
+  <si>
+    <t>He is reading a piece of classical literature</t>
+  </si>
+  <si>
+    <t>a piece of literature</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>The topic of our conversation is stress management</t>
+  </si>
+  <si>
+    <t>The topic of conversation</t>
+  </si>
+  <si>
+    <t>Chủ đề</t>
+  </si>
+  <si>
+    <t>Cuối cùng</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>He is in the final year of college</t>
+  </si>
+  <si>
+    <t>final year</t>
+  </si>
+  <si>
+    <t>Vở, sổ</t>
+  </si>
+  <si>
+    <t>Notebook</t>
+  </si>
+  <si>
+    <t>I found a personal notebook in the trash</t>
+  </si>
+  <si>
+    <t>a personal notebook</t>
+  </si>
+  <si>
+    <t>Blank</t>
+  </si>
+  <si>
+    <t>Please write your address on the blank page</t>
+  </si>
+  <si>
+    <t>a blank page</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trống </t>
+  </si>
+  <si>
+    <t>Please include your full name in the application</t>
+  </si>
+  <si>
+    <t>include something in something</t>
+  </si>
+  <si>
+    <t>Kỳ học</t>
+  </si>
+  <si>
+    <t>Semester</t>
+  </si>
+  <si>
+    <t>The spring semester usually starts in January</t>
+  </si>
+  <si>
+    <t>The spring semester</t>
+  </si>
+  <si>
+    <t>TÒ mò</t>
+  </si>
+  <si>
+    <t>curious</t>
+  </si>
+  <si>
+    <t>Se is extremely curious about his background</t>
+  </si>
+  <si>
+    <t>curious about something</t>
+  </si>
+  <si>
+    <t>Có thể</t>
+  </si>
+  <si>
+    <t>Possible</t>
+  </si>
+  <si>
+    <t>Is it possible to reschuedule my class?</t>
+  </si>
+  <si>
+    <t>possible to do something</t>
+  </si>
+  <si>
+    <t>Kỳ vọng</t>
+  </si>
+  <si>
+    <t>Expect</t>
+  </si>
+  <si>
+    <t>She expects a present from her boyfriend</t>
+  </si>
+  <si>
+    <t>expect something from somebody</t>
+  </si>
+  <si>
+    <t>Tụt lại phía sau</t>
+  </si>
+  <si>
+    <t>Fall behind</t>
+  </si>
+  <si>
+    <t>She always falls behind everyone in the class</t>
+  </si>
+  <si>
+    <t>fall behind somebody or something</t>
+  </si>
+  <si>
+    <t>Tìm tới</t>
+  </si>
+  <si>
+    <t>Turn to</t>
+  </si>
+  <si>
+    <t>I turn to my classmate for help</t>
+  </si>
+  <si>
+    <t>Turn to somebody to for help</t>
+  </si>
+  <si>
+    <t>Cải thiện</t>
+  </si>
+  <si>
+    <t>Improve</t>
+  </si>
+  <si>
+    <t>I try to improve my pronunciation</t>
+  </si>
+  <si>
+    <t>try to improve something</t>
   </si>
 </sst>
 </file>
@@ -5401,10 +5698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G341"/>
+  <dimension ref="A1:G361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C192" sqref="C192"/>
+    <sheetView tabSelected="1" topLeftCell="B218" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G241" sqref="G241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10501,719 +10798,779 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>907</v>
+        <v>1671</v>
       </c>
       <c r="B222">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
-        <v>908</v>
+        <v>1691</v>
       </c>
       <c r="D222" t="s">
-        <v>909</v>
+        <v>1692</v>
       </c>
       <c r="E222" t="s">
-        <v>910</v>
+        <v>1693</v>
       </c>
       <c r="F222" t="s">
-        <v>911</v>
+        <v>1694</v>
+      </c>
+      <c r="G222" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>912</v>
+        <v>1672</v>
       </c>
       <c r="B223">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
-        <v>913</v>
+        <v>1695</v>
       </c>
       <c r="D223" t="s">
-        <v>914</v>
+        <v>1696</v>
       </c>
       <c r="E223" t="s">
-        <v>915</v>
+        <v>1697</v>
       </c>
       <c r="F223" t="s">
-        <v>911</v>
+        <v>1698</v>
+      </c>
+      <c r="G223" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>916</v>
+        <v>1673</v>
       </c>
       <c r="B224">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
-        <v>917</v>
+        <v>1699</v>
       </c>
       <c r="D224" t="s">
-        <v>918</v>
+        <v>1700</v>
       </c>
       <c r="E224" t="s">
-        <v>919</v>
+        <v>1701</v>
       </c>
       <c r="F224" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1702</v>
+      </c>
+      <c r="G224" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>920</v>
+        <v>1674</v>
       </c>
       <c r="B225">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
-        <v>921</v>
+        <v>1703</v>
       </c>
       <c r="D225" t="s">
-        <v>922</v>
+        <v>1704</v>
       </c>
       <c r="E225" t="s">
-        <v>923</v>
+        <v>1705</v>
       </c>
       <c r="F225" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1706</v>
+      </c>
+      <c r="G225" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>924</v>
+        <v>1675</v>
       </c>
       <c r="B226">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
-        <v>925</v>
+        <v>1707</v>
       </c>
       <c r="D226" t="s">
-        <v>926</v>
+        <v>1708</v>
       </c>
       <c r="E226" t="s">
-        <v>927</v>
+        <v>1709</v>
       </c>
       <c r="F226" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1710</v>
+      </c>
+      <c r="G226" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>928</v>
+        <v>1676</v>
       </c>
       <c r="B227">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
-        <v>929</v>
+        <v>1711</v>
       </c>
       <c r="D227" t="s">
-        <v>930</v>
+        <v>1712</v>
       </c>
       <c r="E227" t="s">
-        <v>931</v>
+        <v>1713</v>
       </c>
       <c r="F227" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1714</v>
+      </c>
+      <c r="G227" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>932</v>
+        <v>1677</v>
       </c>
       <c r="B228">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
-        <v>933</v>
+        <v>1715</v>
       </c>
       <c r="D228" t="s">
-        <v>934</v>
+        <v>1716</v>
       </c>
       <c r="E228" t="s">
-        <v>935</v>
+        <v>1717</v>
       </c>
       <c r="F228" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1718</v>
+      </c>
+      <c r="G228" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>936</v>
+        <v>1678</v>
       </c>
       <c r="B229">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
-        <v>937</v>
+        <v>1719</v>
       </c>
       <c r="D229" t="s">
-        <v>938</v>
+        <v>1720</v>
       </c>
       <c r="E229" t="s">
-        <v>939</v>
+        <v>1721</v>
       </c>
       <c r="F229" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1722</v>
+      </c>
+      <c r="G229" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>940</v>
+        <v>1679</v>
       </c>
       <c r="B230">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
-        <v>941</v>
+        <v>1726</v>
       </c>
       <c r="D230" t="s">
-        <v>942</v>
+        <v>1723</v>
       </c>
       <c r="E230" t="s">
-        <v>943</v>
+        <v>1724</v>
       </c>
       <c r="F230" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1725</v>
+      </c>
+      <c r="G230" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>944</v>
+        <v>1680</v>
       </c>
       <c r="B231">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
-        <v>945</v>
+        <v>1727</v>
       </c>
       <c r="D231" t="s">
-        <v>946</v>
+        <v>1728</v>
       </c>
       <c r="E231" t="s">
-        <v>947</v>
+        <v>1729</v>
       </c>
       <c r="F231" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1730</v>
+      </c>
+      <c r="G231" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>948</v>
+        <v>1681</v>
       </c>
       <c r="B232">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
-        <v>949</v>
+        <v>1731</v>
       </c>
       <c r="D232" t="s">
-        <v>950</v>
+        <v>1732</v>
       </c>
       <c r="E232" t="s">
-        <v>951</v>
+        <v>1733</v>
       </c>
       <c r="F232" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1734</v>
+      </c>
+      <c r="G232" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>952</v>
+        <v>1682</v>
       </c>
       <c r="B233">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
-        <v>953</v>
+        <v>1739</v>
       </c>
       <c r="D233" t="s">
-        <v>954</v>
+        <v>1735</v>
       </c>
       <c r="E233" t="s">
-        <v>955</v>
+        <v>1736</v>
       </c>
       <c r="F233" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1737</v>
+      </c>
+      <c r="G233" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>956</v>
+        <v>1683</v>
       </c>
       <c r="B234">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
-        <v>957</v>
+        <v>1667</v>
       </c>
       <c r="D234" t="s">
-        <v>958</v>
+        <v>1738</v>
       </c>
       <c r="E234" t="s">
-        <v>959</v>
+        <v>1740</v>
       </c>
       <c r="F234" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1741</v>
+      </c>
+      <c r="G234" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>961</v>
+        <v>1684</v>
       </c>
       <c r="B235">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
-        <v>962</v>
+        <v>1742</v>
       </c>
       <c r="D235" t="s">
-        <v>963</v>
+        <v>1743</v>
       </c>
       <c r="E235" t="s">
-        <v>964</v>
+        <v>1744</v>
       </c>
       <c r="F235" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1745</v>
+      </c>
+      <c r="G235" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>965</v>
+        <v>1685</v>
       </c>
       <c r="B236">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
-        <v>966</v>
+        <v>1746</v>
       </c>
       <c r="D236" t="s">
-        <v>967</v>
+        <v>1747</v>
       </c>
       <c r="E236" t="s">
-        <v>968</v>
+        <v>1748</v>
       </c>
       <c r="F236" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1749</v>
+      </c>
+      <c r="G236" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>970</v>
+        <v>1686</v>
       </c>
       <c r="B237">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
-        <v>971</v>
+        <v>1750</v>
       </c>
       <c r="D237" t="s">
-        <v>972</v>
+        <v>1751</v>
       </c>
       <c r="E237" t="s">
-        <v>973</v>
+        <v>1752</v>
       </c>
       <c r="F237" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1753</v>
+      </c>
+      <c r="G237" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>974</v>
+        <v>1687</v>
       </c>
       <c r="B238">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
-        <v>975</v>
+        <v>1754</v>
       </c>
       <c r="D238" t="s">
-        <v>976</v>
+        <v>1755</v>
       </c>
       <c r="E238" t="s">
-        <v>977</v>
+        <v>1756</v>
       </c>
       <c r="F238" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1757</v>
+      </c>
+      <c r="G238" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>979</v>
+        <v>1688</v>
       </c>
       <c r="B239">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
-        <v>980</v>
+        <v>1758</v>
       </c>
       <c r="D239" t="s">
-        <v>981</v>
+        <v>1759</v>
       </c>
       <c r="E239" t="s">
-        <v>982</v>
+        <v>1760</v>
       </c>
       <c r="F239" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1761</v>
+      </c>
+      <c r="G239" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>983</v>
+        <v>1689</v>
       </c>
       <c r="B240">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
-        <v>984</v>
+        <v>1762</v>
       </c>
       <c r="D240" t="s">
-        <v>985</v>
+        <v>1763</v>
       </c>
       <c r="E240" t="s">
-        <v>986</v>
+        <v>1764</v>
       </c>
       <c r="F240" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1765</v>
+      </c>
+      <c r="G240" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>987</v>
+        <v>1690</v>
       </c>
       <c r="B241">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
-        <v>988</v>
+        <v>1766</v>
       </c>
       <c r="D241" t="s">
-        <v>989</v>
+        <v>1767</v>
       </c>
       <c r="E241" t="s">
-        <v>990</v>
+        <v>1768</v>
       </c>
       <c r="F241" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1769</v>
+      </c>
+      <c r="G241" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>992</v>
+        <v>907</v>
       </c>
       <c r="B242">
         <v>26</v>
       </c>
       <c r="C242" t="s">
-        <v>993</v>
+        <v>908</v>
       </c>
       <c r="D242" t="s">
-        <v>994</v>
+        <v>909</v>
       </c>
       <c r="E242" t="s">
-        <v>995</v>
+        <v>910</v>
       </c>
       <c r="F242" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>996</v>
+        <v>912</v>
       </c>
       <c r="B243">
         <v>26</v>
       </c>
       <c r="C243" t="s">
-        <v>997</v>
+        <v>913</v>
       </c>
       <c r="D243" t="s">
-        <v>998</v>
+        <v>914</v>
       </c>
       <c r="E243" t="s">
-        <v>999</v>
+        <v>915</v>
       </c>
       <c r="F243" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>1000</v>
+        <v>916</v>
       </c>
       <c r="B244">
         <v>26</v>
       </c>
       <c r="C244" t="s">
-        <v>1001</v>
+        <v>917</v>
       </c>
       <c r="D244" t="s">
-        <v>1002</v>
+        <v>918</v>
       </c>
       <c r="E244" t="s">
-        <v>1003</v>
+        <v>919</v>
       </c>
       <c r="F244" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>1004</v>
+        <v>920</v>
       </c>
       <c r="B245">
         <v>26</v>
       </c>
       <c r="C245" t="s">
-        <v>1005</v>
+        <v>921</v>
       </c>
       <c r="D245" t="s">
-        <v>1006</v>
+        <v>922</v>
       </c>
       <c r="E245" t="s">
-        <v>1007</v>
+        <v>923</v>
       </c>
       <c r="F245" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>1008</v>
+        <v>924</v>
       </c>
       <c r="B246">
         <v>26</v>
       </c>
       <c r="C246" t="s">
-        <v>1009</v>
+        <v>925</v>
       </c>
       <c r="D246" t="s">
-        <v>1010</v>
+        <v>926</v>
       </c>
       <c r="E246" t="s">
-        <v>1011</v>
+        <v>927</v>
       </c>
       <c r="F246" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>1012</v>
+        <v>928</v>
       </c>
       <c r="B247">
         <v>26</v>
       </c>
       <c r="C247" t="s">
-        <v>1013</v>
+        <v>929</v>
       </c>
       <c r="D247" t="s">
-        <v>1014</v>
+        <v>930</v>
       </c>
       <c r="E247" t="s">
-        <v>1015</v>
+        <v>931</v>
       </c>
       <c r="F247" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>1017</v>
+        <v>932</v>
       </c>
       <c r="B248">
         <v>26</v>
       </c>
       <c r="C248" t="s">
-        <v>1018</v>
+        <v>933</v>
       </c>
       <c r="D248" t="s">
-        <v>1019</v>
+        <v>934</v>
       </c>
       <c r="E248" t="s">
-        <v>1020</v>
+        <v>935</v>
       </c>
       <c r="F248" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>1022</v>
+        <v>936</v>
       </c>
       <c r="B249">
         <v>26</v>
       </c>
       <c r="C249" t="s">
-        <v>1023</v>
+        <v>937</v>
       </c>
       <c r="D249" t="s">
-        <v>1024</v>
+        <v>938</v>
       </c>
       <c r="E249" t="s">
-        <v>1025</v>
+        <v>939</v>
       </c>
       <c r="F249" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>1026</v>
+        <v>940</v>
       </c>
       <c r="B250">
         <v>26</v>
       </c>
       <c r="C250" t="s">
-        <v>447</v>
+        <v>941</v>
       </c>
       <c r="D250" t="s">
-        <v>1027</v>
+        <v>942</v>
       </c>
       <c r="E250" t="s">
-        <v>1028</v>
+        <v>943</v>
       </c>
       <c r="F250" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>1029</v>
+        <v>944</v>
       </c>
       <c r="B251">
         <v>26</v>
       </c>
       <c r="C251" t="s">
-        <v>1030</v>
+        <v>945</v>
       </c>
       <c r="D251" t="s">
-        <v>1031</v>
+        <v>946</v>
       </c>
       <c r="E251" t="s">
-        <v>1032</v>
+        <v>947</v>
       </c>
       <c r="F251" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>1033</v>
+        <v>948</v>
       </c>
       <c r="B252">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C252" t="s">
-        <v>1034</v>
+        <v>949</v>
       </c>
       <c r="D252" t="s">
-        <v>1035</v>
+        <v>950</v>
       </c>
       <c r="E252" t="s">
-        <v>1036</v>
+        <v>951</v>
       </c>
       <c r="F252" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>1037</v>
+        <v>952</v>
       </c>
       <c r="B253">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C253" t="s">
-        <v>1038</v>
+        <v>953</v>
       </c>
       <c r="D253" t="s">
-        <v>1039</v>
+        <v>954</v>
       </c>
       <c r="E253" t="s">
-        <v>1040</v>
+        <v>955</v>
       </c>
       <c r="F253" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>1041</v>
+        <v>956</v>
       </c>
       <c r="B254">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C254" t="s">
-        <v>1042</v>
+        <v>957</v>
       </c>
       <c r="D254" t="s">
-        <v>1043</v>
+        <v>958</v>
       </c>
       <c r="E254" t="s">
-        <v>1044</v>
+        <v>959</v>
       </c>
       <c r="F254" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>1045</v>
+        <v>961</v>
       </c>
       <c r="B255">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C255" t="s">
-        <v>1046</v>
+        <v>962</v>
       </c>
       <c r="D255" t="s">
-        <v>1047</v>
+        <v>963</v>
       </c>
       <c r="E255" t="s">
-        <v>1048</v>
+        <v>964</v>
       </c>
       <c r="F255" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>1049</v>
+        <v>965</v>
       </c>
       <c r="B256">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C256" t="s">
-        <v>1050</v>
+        <v>966</v>
       </c>
       <c r="D256" t="s">
-        <v>1051</v>
+        <v>967</v>
       </c>
       <c r="E256" t="s">
-        <v>1052</v>
+        <v>968</v>
       </c>
       <c r="F256" t="s">
-        <v>911</v>
+        <v>969</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>1053</v>
+        <v>970</v>
       </c>
       <c r="B257">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C257" t="s">
-        <v>1054</v>
+        <v>971</v>
       </c>
       <c r="D257" t="s">
-        <v>1055</v>
+        <v>972</v>
       </c>
       <c r="E257" t="s">
-        <v>1056</v>
+        <v>973</v>
       </c>
       <c r="F257" t="s">
         <v>911</v>
@@ -11221,59 +11578,59 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>1057</v>
+        <v>974</v>
       </c>
       <c r="B258">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C258" t="s">
-        <v>1058</v>
+        <v>975</v>
       </c>
       <c r="D258" t="s">
-        <v>1059</v>
+        <v>976</v>
       </c>
       <c r="E258" t="s">
-        <v>1060</v>
+        <v>977</v>
       </c>
       <c r="F258" t="s">
-        <v>1061</v>
+        <v>978</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>1062</v>
+        <v>979</v>
       </c>
       <c r="B259">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C259" t="s">
-        <v>1063</v>
+        <v>980</v>
       </c>
       <c r="D259" t="s">
-        <v>1064</v>
+        <v>981</v>
       </c>
       <c r="E259" t="s">
-        <v>1065</v>
+        <v>982</v>
       </c>
       <c r="F259" t="s">
-        <v>1066</v>
+        <v>911</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>1067</v>
+        <v>983</v>
       </c>
       <c r="B260">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C260" t="s">
-        <v>1068</v>
+        <v>984</v>
       </c>
       <c r="D260" t="s">
-        <v>1069</v>
+        <v>985</v>
       </c>
       <c r="E260" t="s">
-        <v>1070</v>
+        <v>986</v>
       </c>
       <c r="F260" t="s">
         <v>911</v>
@@ -11281,1612 +11638,2012 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>1071</v>
+        <v>987</v>
       </c>
       <c r="B261">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C261" t="s">
-        <v>1072</v>
+        <v>988</v>
       </c>
       <c r="D261" t="s">
-        <v>1073</v>
+        <v>989</v>
       </c>
       <c r="E261" t="s">
-        <v>1074</v>
+        <v>990</v>
       </c>
       <c r="F261" t="s">
-        <v>1075</v>
+        <v>991</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>1076</v>
+        <v>992</v>
       </c>
       <c r="B262">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C262" t="s">
-        <v>1077</v>
+        <v>993</v>
       </c>
       <c r="D262" t="s">
-        <v>1078</v>
+        <v>994</v>
       </c>
       <c r="E262" t="s">
-        <v>1079</v>
+        <v>995</v>
       </c>
       <c r="F262" t="s">
-        <v>1080</v>
+        <v>911</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>1081</v>
+        <v>996</v>
       </c>
       <c r="B263">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C263" t="s">
-        <v>1082</v>
+        <v>997</v>
       </c>
       <c r="D263" t="s">
-        <v>1083</v>
+        <v>998</v>
       </c>
       <c r="E263" t="s">
-        <v>1084</v>
+        <v>999</v>
       </c>
       <c r="F263" t="s">
-        <v>1085</v>
+        <v>911</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>1086</v>
+        <v>1000</v>
       </c>
       <c r="B264">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C264" t="s">
-        <v>1087</v>
+        <v>1001</v>
       </c>
       <c r="D264" t="s">
-        <v>1088</v>
+        <v>1002</v>
       </c>
       <c r="E264" t="s">
-        <v>1089</v>
+        <v>1003</v>
       </c>
       <c r="F264" t="s">
-        <v>1090</v>
+        <v>911</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>1091</v>
+        <v>1004</v>
       </c>
       <c r="B265">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C265" t="s">
-        <v>1092</v>
+        <v>1005</v>
       </c>
       <c r="D265" t="s">
-        <v>1093</v>
+        <v>1006</v>
       </c>
       <c r="E265" t="s">
-        <v>1094</v>
+        <v>1007</v>
       </c>
       <c r="F265" t="s">
-        <v>1095</v>
+        <v>911</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>1096</v>
+        <v>1008</v>
       </c>
       <c r="B266">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C266" t="s">
-        <v>1097</v>
+        <v>1009</v>
       </c>
       <c r="D266" t="s">
-        <v>1098</v>
+        <v>1010</v>
       </c>
       <c r="E266" t="s">
-        <v>1099</v>
+        <v>1011</v>
       </c>
       <c r="F266" t="s">
-        <v>1100</v>
+        <v>911</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>1101</v>
+        <v>1012</v>
       </c>
       <c r="B267">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C267" t="s">
-        <v>1102</v>
+        <v>1013</v>
       </c>
       <c r="D267" t="s">
-        <v>1103</v>
+        <v>1014</v>
       </c>
       <c r="E267" t="s">
-        <v>1104</v>
+        <v>1015</v>
       </c>
       <c r="F267" t="s">
-        <v>1105</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>1106</v>
+        <v>1017</v>
       </c>
       <c r="B268">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C268" t="s">
-        <v>1107</v>
+        <v>1018</v>
       </c>
       <c r="D268" t="s">
-        <v>1108</v>
+        <v>1019</v>
       </c>
       <c r="E268" t="s">
-        <v>1109</v>
+        <v>1020</v>
       </c>
       <c r="F268" t="s">
-        <v>1110</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>1111</v>
+        <v>1022</v>
       </c>
       <c r="B269">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C269" t="s">
-        <v>1112</v>
+        <v>1023</v>
       </c>
       <c r="D269" t="s">
-        <v>1113</v>
+        <v>1024</v>
       </c>
       <c r="E269" t="s">
-        <v>1114</v>
+        <v>1025</v>
       </c>
       <c r="F269" t="s">
-        <v>1115</v>
+        <v>911</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>1116</v>
+        <v>1026</v>
       </c>
       <c r="B270">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C270" t="s">
-        <v>1117</v>
+        <v>447</v>
       </c>
       <c r="D270" t="s">
-        <v>1118</v>
+        <v>1027</v>
       </c>
       <c r="E270" t="s">
-        <v>1119</v>
+        <v>1028</v>
       </c>
       <c r="F270" t="s">
-        <v>1120</v>
+        <v>911</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>1121</v>
+        <v>1029</v>
       </c>
       <c r="B271">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C271" t="s">
-        <v>1122</v>
+        <v>1030</v>
       </c>
       <c r="D271" t="s">
-        <v>1123</v>
+        <v>1031</v>
       </c>
       <c r="E271" t="s">
-        <v>1124</v>
+        <v>1032</v>
       </c>
       <c r="F271" t="s">
-        <v>1125</v>
+        <v>911</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>1126</v>
+        <v>1033</v>
       </c>
       <c r="B272">
         <v>27</v>
       </c>
       <c r="C272" t="s">
-        <v>1127</v>
+        <v>1034</v>
       </c>
       <c r="D272" t="s">
-        <v>1128</v>
+        <v>1035</v>
       </c>
       <c r="E272" t="s">
-        <v>1129</v>
+        <v>1036</v>
       </c>
       <c r="F272" t="s">
-        <v>1130</v>
+        <v>911</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>1131</v>
+        <v>1037</v>
       </c>
       <c r="B273">
         <v>27</v>
       </c>
       <c r="C273" t="s">
-        <v>1132</v>
+        <v>1038</v>
       </c>
       <c r="D273" t="s">
-        <v>1133</v>
+        <v>1039</v>
       </c>
       <c r="E273" t="s">
-        <v>1134</v>
+        <v>1040</v>
       </c>
       <c r="F273" t="s">
-        <v>1135</v>
+        <v>911</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>1136</v>
+        <v>1041</v>
       </c>
       <c r="B274">
         <v>27</v>
       </c>
       <c r="C274" t="s">
-        <v>1137</v>
+        <v>1042</v>
       </c>
       <c r="D274" t="s">
-        <v>1138</v>
+        <v>1043</v>
       </c>
       <c r="E274" t="s">
-        <v>1139</v>
+        <v>1044</v>
       </c>
       <c r="F274" t="s">
-        <v>1140</v>
+        <v>911</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>1141</v>
+        <v>1045</v>
       </c>
       <c r="B275">
         <v>27</v>
       </c>
       <c r="C275" t="s">
-        <v>1142</v>
+        <v>1046</v>
       </c>
       <c r="D275" t="s">
-        <v>1143</v>
+        <v>1047</v>
       </c>
       <c r="E275" t="s">
-        <v>1144</v>
+        <v>1048</v>
       </c>
       <c r="F275" t="s">
-        <v>1145</v>
+        <v>911</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>1146</v>
+        <v>1049</v>
       </c>
       <c r="B276">
         <v>27</v>
       </c>
       <c r="C276" t="s">
-        <v>1147</v>
+        <v>1050</v>
       </c>
       <c r="D276" t="s">
-        <v>1148</v>
+        <v>1051</v>
       </c>
       <c r="E276" t="s">
-        <v>1149</v>
+        <v>1052</v>
       </c>
       <c r="F276" t="s">
-        <v>1150</v>
+        <v>911</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>1151</v>
+        <v>1053</v>
       </c>
       <c r="B277">
         <v>27</v>
       </c>
       <c r="C277" t="s">
-        <v>1152</v>
+        <v>1054</v>
       </c>
       <c r="D277" t="s">
-        <v>1153</v>
+        <v>1055</v>
       </c>
       <c r="E277" t="s">
-        <v>1154</v>
+        <v>1056</v>
       </c>
       <c r="F277" t="s">
-        <v>1155</v>
+        <v>911</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>1156</v>
+        <v>1057</v>
       </c>
       <c r="B278">
         <v>27</v>
       </c>
       <c r="C278" t="s">
-        <v>1157</v>
+        <v>1058</v>
       </c>
       <c r="D278" t="s">
-        <v>1158</v>
+        <v>1059</v>
       </c>
       <c r="E278" t="s">
-        <v>1159</v>
+        <v>1060</v>
       </c>
       <c r="F278" t="s">
-        <v>1160</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>1161</v>
+        <v>1062</v>
       </c>
       <c r="B279">
         <v>27</v>
       </c>
       <c r="C279" t="s">
-        <v>1162</v>
+        <v>1063</v>
       </c>
       <c r="D279" t="s">
-        <v>1163</v>
+        <v>1064</v>
       </c>
       <c r="E279" t="s">
-        <v>1164</v>
+        <v>1065</v>
       </c>
       <c r="F279" t="s">
-        <v>1165</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>1166</v>
+        <v>1067</v>
       </c>
       <c r="B280">
         <v>27</v>
       </c>
       <c r="C280" t="s">
-        <v>1162</v>
+        <v>1068</v>
       </c>
       <c r="D280" t="s">
-        <v>1167</v>
+        <v>1069</v>
       </c>
       <c r="E280" t="s">
-        <v>1168</v>
+        <v>1070</v>
       </c>
       <c r="F280" t="s">
-        <v>1169</v>
+        <v>911</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>1170</v>
+        <v>1071</v>
       </c>
       <c r="B281">
         <v>27</v>
       </c>
       <c r="C281" t="s">
-        <v>1171</v>
+        <v>1072</v>
       </c>
       <c r="D281" t="s">
-        <v>1172</v>
+        <v>1073</v>
       </c>
       <c r="E281" t="s">
-        <v>1173</v>
+        <v>1074</v>
       </c>
       <c r="F281" t="s">
-        <v>1174</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>1175</v>
+        <v>1076</v>
       </c>
       <c r="B282">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C282" t="s">
-        <v>1176</v>
+        <v>1077</v>
       </c>
       <c r="D282" t="s">
-        <v>1177</v>
+        <v>1078</v>
       </c>
       <c r="E282" t="s">
-        <v>1178</v>
+        <v>1079</v>
       </c>
       <c r="F282" t="s">
-        <v>1179</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>1180</v>
+        <v>1081</v>
       </c>
       <c r="B283">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C283" t="s">
-        <v>1181</v>
+        <v>1082</v>
       </c>
       <c r="D283" t="s">
-        <v>1182</v>
+        <v>1083</v>
       </c>
       <c r="E283" t="s">
-        <v>1183</v>
+        <v>1084</v>
       </c>
       <c r="F283" t="s">
-        <v>1184</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>1185</v>
+        <v>1086</v>
       </c>
       <c r="B284">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C284" t="s">
-        <v>1186</v>
+        <v>1087</v>
       </c>
       <c r="D284" t="s">
-        <v>1187</v>
+        <v>1088</v>
       </c>
       <c r="E284" t="s">
-        <v>1188</v>
+        <v>1089</v>
       </c>
       <c r="F284" t="s">
-        <v>1189</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>1190</v>
+        <v>1091</v>
       </c>
       <c r="B285">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C285" t="s">
-        <v>1191</v>
+        <v>1092</v>
       </c>
       <c r="D285" t="s">
-        <v>1192</v>
+        <v>1093</v>
       </c>
       <c r="E285" t="s">
-        <v>1193</v>
+        <v>1094</v>
       </c>
       <c r="F285" t="s">
-        <v>1194</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>1195</v>
+        <v>1096</v>
       </c>
       <c r="B286">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C286" t="s">
-        <v>1196</v>
+        <v>1097</v>
       </c>
       <c r="D286" t="s">
-        <v>1197</v>
+        <v>1098</v>
       </c>
       <c r="E286" t="s">
-        <v>1198</v>
+        <v>1099</v>
       </c>
       <c r="F286" t="s">
-        <v>1199</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>1200</v>
+        <v>1101</v>
       </c>
       <c r="B287">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C287" t="s">
-        <v>1201</v>
+        <v>1102</v>
       </c>
       <c r="D287" t="s">
-        <v>1202</v>
+        <v>1103</v>
       </c>
       <c r="E287" t="s">
-        <v>1203</v>
+        <v>1104</v>
       </c>
       <c r="F287" t="s">
-        <v>1204</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>1205</v>
+        <v>1106</v>
       </c>
       <c r="B288">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C288" t="s">
-        <v>1206</v>
+        <v>1107</v>
       </c>
       <c r="D288" t="s">
-        <v>1207</v>
+        <v>1108</v>
       </c>
       <c r="E288" t="s">
-        <v>1208</v>
+        <v>1109</v>
       </c>
       <c r="F288" t="s">
-        <v>1209</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>1210</v>
+        <v>1111</v>
       </c>
       <c r="B289">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C289" t="s">
-        <v>1211</v>
+        <v>1112</v>
       </c>
       <c r="D289" t="s">
-        <v>1212</v>
+        <v>1113</v>
       </c>
       <c r="E289" t="s">
-        <v>1213</v>
+        <v>1114</v>
       </c>
       <c r="F289" t="s">
-        <v>1214</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>1215</v>
+        <v>1116</v>
       </c>
       <c r="B290">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C290" t="s">
-        <v>1216</v>
+        <v>1117</v>
       </c>
       <c r="D290" t="s">
-        <v>1217</v>
+        <v>1118</v>
       </c>
       <c r="E290" t="s">
-        <v>1218</v>
+        <v>1119</v>
       </c>
       <c r="F290" t="s">
-        <v>1219</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>1220</v>
+        <v>1121</v>
       </c>
       <c r="B291">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C291" t="s">
-        <v>1221</v>
+        <v>1122</v>
       </c>
       <c r="D291" t="s">
-        <v>1222</v>
+        <v>1123</v>
       </c>
       <c r="E291" t="s">
-        <v>1223</v>
+        <v>1124</v>
       </c>
       <c r="F291" t="s">
-        <v>1224</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>1225</v>
+        <v>1126</v>
       </c>
       <c r="B292">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C292" t="s">
-        <v>1226</v>
+        <v>1127</v>
       </c>
       <c r="D292" t="s">
-        <v>1227</v>
+        <v>1128</v>
       </c>
       <c r="E292" t="s">
-        <v>1228</v>
+        <v>1129</v>
       </c>
       <c r="F292" t="s">
-        <v>1229</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>1230</v>
+        <v>1131</v>
       </c>
       <c r="B293">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C293" t="s">
-        <v>1231</v>
+        <v>1132</v>
       </c>
       <c r="D293" t="s">
-        <v>1232</v>
+        <v>1133</v>
+      </c>
+      <c r="E293" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F293" t="s">
+        <v>1135</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>1233</v>
+        <v>1136</v>
       </c>
       <c r="B294">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C294" t="s">
-        <v>1234</v>
+        <v>1137</v>
       </c>
       <c r="D294" t="s">
-        <v>1235</v>
+        <v>1138</v>
       </c>
       <c r="E294" t="s">
-        <v>1236</v>
+        <v>1139</v>
       </c>
       <c r="F294" t="s">
-        <v>1237</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>1238</v>
+        <v>1141</v>
       </c>
       <c r="B295">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C295" t="s">
-        <v>1239</v>
+        <v>1142</v>
       </c>
       <c r="D295" t="s">
-        <v>1240</v>
+        <v>1143</v>
       </c>
       <c r="E295" t="s">
-        <v>1241</v>
+        <v>1144</v>
       </c>
       <c r="F295" t="s">
-        <v>1242</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>1243</v>
+        <v>1146</v>
       </c>
       <c r="B296">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C296" t="s">
-        <v>1244</v>
+        <v>1147</v>
       </c>
       <c r="D296" t="s">
-        <v>1245</v>
+        <v>1148</v>
       </c>
       <c r="E296" t="s">
-        <v>1246</v>
+        <v>1149</v>
       </c>
       <c r="F296" t="s">
-        <v>1247</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>1248</v>
+        <v>1151</v>
       </c>
       <c r="B297">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C297" t="s">
-        <v>908</v>
+        <v>1152</v>
       </c>
       <c r="D297" t="s">
-        <v>1249</v>
+        <v>1153</v>
       </c>
       <c r="E297" t="s">
-        <v>1250</v>
+        <v>1154</v>
       </c>
       <c r="F297" t="s">
-        <v>1251</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>1252</v>
+        <v>1156</v>
       </c>
       <c r="B298">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C298" t="s">
-        <v>1253</v>
+        <v>1157</v>
       </c>
       <c r="D298" t="s">
-        <v>1254</v>
+        <v>1158</v>
       </c>
       <c r="E298" t="s">
-        <v>1255</v>
+        <v>1159</v>
+      </c>
+      <c r="F298" t="s">
+        <v>1160</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>1256</v>
+        <v>1161</v>
       </c>
       <c r="B299">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C299" t="s">
-        <v>1257</v>
+        <v>1162</v>
       </c>
       <c r="D299" t="s">
-        <v>1258</v>
+        <v>1163</v>
       </c>
       <c r="E299" t="s">
-        <v>1259</v>
+        <v>1164</v>
       </c>
       <c r="F299" t="s">
-        <v>1260</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>1261</v>
+        <v>1166</v>
       </c>
       <c r="B300">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C300" t="s">
-        <v>1262</v>
+        <v>1162</v>
       </c>
       <c r="D300" t="s">
-        <v>1263</v>
+        <v>1167</v>
       </c>
       <c r="E300" t="s">
-        <v>1264</v>
+        <v>1168</v>
       </c>
       <c r="F300" t="s">
-        <v>1265</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>1266</v>
+        <v>1170</v>
       </c>
       <c r="B301">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C301" t="s">
-        <v>1267</v>
+        <v>1171</v>
       </c>
       <c r="D301" t="s">
-        <v>1268</v>
+        <v>1172</v>
       </c>
       <c r="E301" t="s">
-        <v>1269</v>
+        <v>1173</v>
       </c>
       <c r="F301" t="s">
-        <v>1270</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>1271</v>
+        <v>1175</v>
       </c>
       <c r="B302">
         <v>28</v>
       </c>
       <c r="C302" t="s">
-        <v>1272</v>
+        <v>1176</v>
       </c>
       <c r="D302" t="s">
-        <v>1273</v>
+        <v>1177</v>
       </c>
       <c r="E302" t="s">
-        <v>1274</v>
+        <v>1178</v>
       </c>
       <c r="F302" t="s">
-        <v>1275</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>1276</v>
+        <v>1180</v>
       </c>
       <c r="B303">
         <v>28</v>
       </c>
       <c r="C303" t="s">
-        <v>1277</v>
+        <v>1181</v>
       </c>
       <c r="D303" t="s">
-        <v>1278</v>
+        <v>1182</v>
       </c>
       <c r="E303" t="s">
-        <v>1279</v>
+        <v>1183</v>
       </c>
       <c r="F303" t="s">
-        <v>1280</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>1281</v>
+        <v>1185</v>
       </c>
       <c r="B304">
         <v>28</v>
       </c>
       <c r="C304" t="s">
-        <v>1282</v>
+        <v>1186</v>
       </c>
       <c r="D304" t="s">
-        <v>1283</v>
+        <v>1187</v>
       </c>
       <c r="E304" t="s">
-        <v>1284</v>
+        <v>1188</v>
       </c>
       <c r="F304" t="s">
-        <v>1285</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>1286</v>
+        <v>1190</v>
       </c>
       <c r="B305">
         <v>28</v>
       </c>
       <c r="C305" t="s">
-        <v>1287</v>
+        <v>1191</v>
       </c>
       <c r="D305" t="s">
-        <v>1288</v>
+        <v>1192</v>
       </c>
       <c r="E305" t="s">
-        <v>1289</v>
+        <v>1193</v>
       </c>
       <c r="F305" t="s">
-        <v>1290</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>1291</v>
+        <v>1195</v>
       </c>
       <c r="B306">
         <v>28</v>
       </c>
       <c r="C306" t="s">
-        <v>1292</v>
+        <v>1196</v>
       </c>
       <c r="D306" t="s">
-        <v>1293</v>
+        <v>1197</v>
       </c>
       <c r="E306" t="s">
-        <v>1294</v>
+        <v>1198</v>
       </c>
       <c r="F306" t="s">
-        <v>1295</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>1296</v>
+        <v>1200</v>
       </c>
       <c r="B307">
         <v>28</v>
       </c>
       <c r="C307" t="s">
-        <v>1297</v>
+        <v>1201</v>
       </c>
       <c r="D307" t="s">
-        <v>1298</v>
+        <v>1202</v>
       </c>
       <c r="E307" t="s">
-        <v>1299</v>
+        <v>1203</v>
       </c>
       <c r="F307" t="s">
-        <v>1300</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>1301</v>
+        <v>1205</v>
       </c>
       <c r="B308">
         <v>28</v>
       </c>
       <c r="C308" t="s">
-        <v>1302</v>
+        <v>1206</v>
       </c>
       <c r="D308" t="s">
-        <v>1303</v>
+        <v>1207</v>
       </c>
       <c r="E308" t="s">
-        <v>1304</v>
+        <v>1208</v>
       </c>
       <c r="F308" t="s">
-        <v>1305</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>1306</v>
+        <v>1210</v>
       </c>
       <c r="B309">
         <v>28</v>
       </c>
       <c r="C309" t="s">
-        <v>1307</v>
+        <v>1211</v>
       </c>
       <c r="D309" t="s">
-        <v>1308</v>
+        <v>1212</v>
       </c>
       <c r="E309" t="s">
-        <v>1309</v>
+        <v>1213</v>
       </c>
       <c r="F309" t="s">
-        <v>1310</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>1311</v>
+        <v>1215</v>
       </c>
       <c r="B310">
         <v>28</v>
       </c>
       <c r="C310" t="s">
-        <v>1312</v>
+        <v>1216</v>
       </c>
       <c r="D310" t="s">
-        <v>1313</v>
+        <v>1217</v>
       </c>
       <c r="E310" t="s">
-        <v>1314</v>
+        <v>1218</v>
       </c>
       <c r="F310" t="s">
-        <v>1315</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>1316</v>
+        <v>1220</v>
       </c>
       <c r="B311">
         <v>28</v>
       </c>
       <c r="C311" t="s">
-        <v>1317</v>
+        <v>1221</v>
       </c>
       <c r="D311" t="s">
-        <v>1318</v>
+        <v>1222</v>
       </c>
       <c r="E311" t="s">
-        <v>1319</v>
+        <v>1223</v>
       </c>
       <c r="F311" t="s">
-        <v>1320</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>1321</v>
+        <v>1225</v>
       </c>
       <c r="B312">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C312" t="s">
-        <v>1322</v>
+        <v>1226</v>
       </c>
       <c r="D312" t="s">
-        <v>1323</v>
+        <v>1227</v>
       </c>
       <c r="E312" t="s">
-        <v>1324</v>
+        <v>1228</v>
       </c>
       <c r="F312" t="s">
-        <v>1325</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>1326</v>
+        <v>1230</v>
       </c>
       <c r="B313">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C313" t="s">
-        <v>1327</v>
+        <v>1231</v>
       </c>
       <c r="D313" t="s">
-        <v>1328</v>
-      </c>
-      <c r="E313" t="s">
-        <v>1329</v>
-      </c>
-      <c r="F313" t="s">
-        <v>1330</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>1331</v>
+        <v>1233</v>
       </c>
       <c r="B314">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C314" t="s">
-        <v>1332</v>
+        <v>1234</v>
       </c>
       <c r="D314" t="s">
-        <v>1333</v>
+        <v>1235</v>
       </c>
       <c r="E314" t="s">
-        <v>1334</v>
+        <v>1236</v>
       </c>
       <c r="F314" t="s">
-        <v>1335</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>1336</v>
+        <v>1238</v>
       </c>
       <c r="B315">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C315" t="s">
-        <v>1337</v>
+        <v>1239</v>
       </c>
       <c r="D315" t="s">
-        <v>1338</v>
+        <v>1240</v>
       </c>
       <c r="E315" t="s">
-        <v>1339</v>
+        <v>1241</v>
       </c>
       <c r="F315" t="s">
-        <v>1340</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>1341</v>
+        <v>1243</v>
       </c>
       <c r="B316">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C316" t="s">
-        <v>1342</v>
+        <v>1244</v>
       </c>
       <c r="D316" t="s">
-        <v>1343</v>
+        <v>1245</v>
       </c>
       <c r="E316" t="s">
-        <v>1344</v>
+        <v>1246</v>
       </c>
       <c r="F316" t="s">
-        <v>1345</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>1346</v>
+        <v>1248</v>
       </c>
       <c r="B317">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C317" t="s">
-        <v>1347</v>
+        <v>908</v>
       </c>
       <c r="D317" t="s">
-        <v>1348</v>
+        <v>1249</v>
       </c>
       <c r="E317" t="s">
-        <v>1349</v>
+        <v>1250</v>
       </c>
       <c r="F317" t="s">
-        <v>1350</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>1351</v>
+        <v>1252</v>
       </c>
       <c r="B318">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C318" t="s">
-        <v>1352</v>
+        <v>1253</v>
       </c>
       <c r="D318" t="s">
-        <v>1353</v>
+        <v>1254</v>
       </c>
       <c r="E318" t="s">
-        <v>1354</v>
-      </c>
-      <c r="F318" t="s">
-        <v>1355</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>1356</v>
+        <v>1256</v>
       </c>
       <c r="B319">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C319" t="s">
-        <v>1357</v>
+        <v>1257</v>
       </c>
       <c r="D319" t="s">
-        <v>1358</v>
+        <v>1258</v>
       </c>
       <c r="E319" t="s">
-        <v>1359</v>
+        <v>1259</v>
       </c>
       <c r="F319" t="s">
-        <v>1360</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>1361</v>
+        <v>1261</v>
       </c>
       <c r="B320">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C320" t="s">
-        <v>1362</v>
+        <v>1262</v>
       </c>
       <c r="D320" t="s">
-        <v>1363</v>
+        <v>1263</v>
       </c>
       <c r="E320" t="s">
-        <v>1364</v>
+        <v>1264</v>
       </c>
       <c r="F320" t="s">
-        <v>1365</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>1366</v>
+        <v>1266</v>
       </c>
       <c r="B321">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C321" t="s">
-        <v>1367</v>
+        <v>1267</v>
       </c>
       <c r="D321" t="s">
-        <v>1368</v>
+        <v>1268</v>
       </c>
       <c r="E321" t="s">
-        <v>1369</v>
+        <v>1269</v>
       </c>
       <c r="F321" t="s">
-        <v>1370</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>1371</v>
+        <v>1271</v>
       </c>
       <c r="B322">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C322" t="s">
-        <v>1372</v>
+        <v>1272</v>
       </c>
       <c r="D322" t="s">
-        <v>1373</v>
+        <v>1273</v>
       </c>
       <c r="E322" t="s">
-        <v>1374</v>
+        <v>1274</v>
       </c>
       <c r="F322" t="s">
-        <v>1375</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>1376</v>
+        <v>1276</v>
       </c>
       <c r="B323">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C323" t="s">
-        <v>1377</v>
+        <v>1277</v>
       </c>
       <c r="D323" t="s">
-        <v>1378</v>
+        <v>1278</v>
       </c>
       <c r="E323" t="s">
-        <v>1379</v>
+        <v>1279</v>
       </c>
       <c r="F323" t="s">
-        <v>1380</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>1381</v>
+        <v>1281</v>
       </c>
       <c r="B324">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C324" t="s">
-        <v>1382</v>
+        <v>1282</v>
       </c>
       <c r="D324" t="s">
-        <v>1383</v>
+        <v>1283</v>
       </c>
       <c r="E324" t="s">
-        <v>1384</v>
+        <v>1284</v>
       </c>
       <c r="F324" t="s">
-        <v>1385</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>1386</v>
+        <v>1286</v>
       </c>
       <c r="B325">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C325" t="s">
-        <v>1387</v>
+        <v>1287</v>
       </c>
       <c r="D325" t="s">
-        <v>1388</v>
+        <v>1288</v>
       </c>
       <c r="E325" t="s">
-        <v>1389</v>
+        <v>1289</v>
       </c>
       <c r="F325" t="s">
-        <v>1390</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>1391</v>
+        <v>1291</v>
       </c>
       <c r="B326">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C326" t="s">
-        <v>1392</v>
+        <v>1292</v>
       </c>
       <c r="D326" t="s">
-        <v>1393</v>
+        <v>1293</v>
       </c>
       <c r="E326" t="s">
-        <v>1394</v>
+        <v>1294</v>
       </c>
       <c r="F326" t="s">
-        <v>1395</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>1396</v>
+        <v>1296</v>
       </c>
       <c r="B327">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C327" t="s">
-        <v>1397</v>
+        <v>1297</v>
       </c>
       <c r="D327" t="s">
-        <v>1398</v>
+        <v>1298</v>
       </c>
       <c r="E327" t="s">
-        <v>1399</v>
+        <v>1299</v>
       </c>
       <c r="F327" t="s">
-        <v>1400</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>1401</v>
+        <v>1301</v>
       </c>
       <c r="B328">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C328" t="s">
-        <v>1402</v>
+        <v>1302</v>
       </c>
       <c r="D328" t="s">
-        <v>1403</v>
+        <v>1303</v>
       </c>
       <c r="E328" t="s">
-        <v>1404</v>
+        <v>1304</v>
       </c>
       <c r="F328" t="s">
-        <v>1405</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>1406</v>
+        <v>1306</v>
       </c>
       <c r="B329">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C329" t="s">
-        <v>1407</v>
+        <v>1307</v>
       </c>
       <c r="D329" t="s">
-        <v>1408</v>
+        <v>1308</v>
       </c>
       <c r="E329" t="s">
-        <v>1409</v>
+        <v>1309</v>
       </c>
       <c r="F329" t="s">
-        <v>1410</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>1411</v>
+        <v>1311</v>
       </c>
       <c r="B330">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C330" t="s">
-        <v>1412</v>
+        <v>1312</v>
       </c>
       <c r="D330" t="s">
-        <v>1413</v>
+        <v>1313</v>
       </c>
       <c r="E330" t="s">
-        <v>1414</v>
+        <v>1314</v>
       </c>
       <c r="F330" t="s">
-        <v>1415</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>1416</v>
+        <v>1316</v>
       </c>
       <c r="B331">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C331" t="s">
-        <v>1417</v>
+        <v>1317</v>
       </c>
       <c r="D331" t="s">
-        <v>1418</v>
+        <v>1318</v>
       </c>
       <c r="E331" t="s">
-        <v>1419</v>
+        <v>1319</v>
       </c>
       <c r="F331" t="s">
-        <v>1420</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>1421</v>
+        <v>1321</v>
       </c>
       <c r="B332">
         <v>29</v>
       </c>
       <c r="C332" t="s">
-        <v>1422</v>
+        <v>1322</v>
       </c>
       <c r="D332" t="s">
-        <v>1423</v>
+        <v>1323</v>
       </c>
       <c r="E332" t="s">
-        <v>1424</v>
+        <v>1324</v>
       </c>
       <c r="F332" t="s">
-        <v>1425</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>1426</v>
+        <v>1326</v>
       </c>
       <c r="B333">
         <v>29</v>
       </c>
       <c r="C333" t="s">
-        <v>1427</v>
+        <v>1327</v>
       </c>
       <c r="D333" t="s">
-        <v>1428</v>
+        <v>1328</v>
       </c>
       <c r="E333" t="s">
-        <v>1429</v>
+        <v>1329</v>
       </c>
       <c r="F333" t="s">
-        <v>1430</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>1431</v>
+        <v>1331</v>
       </c>
       <c r="B334">
         <v>29</v>
       </c>
       <c r="C334" t="s">
-        <v>1432</v>
+        <v>1332</v>
       </c>
       <c r="D334" t="s">
-        <v>1433</v>
+        <v>1333</v>
       </c>
       <c r="E334" t="s">
-        <v>1434</v>
+        <v>1334</v>
       </c>
       <c r="F334" t="s">
-        <v>1435</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>1436</v>
+        <v>1336</v>
       </c>
       <c r="B335">
         <v>29</v>
       </c>
       <c r="C335" t="s">
-        <v>1437</v>
+        <v>1337</v>
       </c>
       <c r="D335" t="s">
-        <v>1438</v>
+        <v>1338</v>
       </c>
       <c r="E335" t="s">
-        <v>1439</v>
+        <v>1339</v>
       </c>
       <c r="F335" t="s">
-        <v>1440</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>1441</v>
+        <v>1341</v>
       </c>
       <c r="B336">
         <v>29</v>
       </c>
       <c r="C336" t="s">
-        <v>1442</v>
+        <v>1342</v>
       </c>
       <c r="D336" t="s">
-        <v>1443</v>
+        <v>1343</v>
       </c>
       <c r="E336" t="s">
-        <v>1444</v>
+        <v>1344</v>
       </c>
       <c r="F336" t="s">
-        <v>1445</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>1446</v>
+        <v>1346</v>
       </c>
       <c r="B337">
         <v>29</v>
       </c>
       <c r="C337" t="s">
-        <v>1447</v>
+        <v>1347</v>
       </c>
       <c r="D337" t="s">
-        <v>1448</v>
+        <v>1348</v>
       </c>
       <c r="E337" t="s">
-        <v>1449</v>
+        <v>1349</v>
       </c>
       <c r="F337" t="s">
-        <v>1450</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>1451</v>
+        <v>1351</v>
       </c>
       <c r="B338">
         <v>29</v>
       </c>
       <c r="C338" t="s">
-        <v>1452</v>
+        <v>1352</v>
       </c>
       <c r="D338" t="s">
-        <v>1453</v>
+        <v>1353</v>
       </c>
       <c r="E338" t="s">
-        <v>1454</v>
+        <v>1354</v>
       </c>
       <c r="F338" t="s">
-        <v>1455</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>1456</v>
+        <v>1356</v>
       </c>
       <c r="B339">
         <v>29</v>
       </c>
       <c r="C339" t="s">
-        <v>1457</v>
+        <v>1357</v>
       </c>
       <c r="D339" t="s">
-        <v>1458</v>
+        <v>1358</v>
       </c>
       <c r="E339" t="s">
-        <v>1459</v>
+        <v>1359</v>
       </c>
       <c r="F339" t="s">
-        <v>1460</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>1461</v>
+        <v>1361</v>
       </c>
       <c r="B340">
         <v>29</v>
       </c>
       <c r="C340" t="s">
-        <v>1462</v>
+        <v>1362</v>
       </c>
       <c r="D340" t="s">
-        <v>1463</v>
+        <v>1363</v>
       </c>
       <c r="E340" t="s">
-        <v>1464</v>
+        <v>1364</v>
       </c>
       <c r="F340" t="s">
-        <v>1465</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>1466</v>
+        <v>1366</v>
       </c>
       <c r="B341">
         <v>29</v>
       </c>
       <c r="C341" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D341" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E341" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F341" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B342">
+        <v>29</v>
+      </c>
+      <c r="C342" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D342" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E342" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F342" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B343">
+        <v>29</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D343" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E343" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F343" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B344">
+        <v>29</v>
+      </c>
+      <c r="C344" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D344" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E344" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F344" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B345">
+        <v>29</v>
+      </c>
+      <c r="C345" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D345" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E345" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F345" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B346">
+        <v>29</v>
+      </c>
+      <c r="C346" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D346" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E346" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F346" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B347">
+        <v>29</v>
+      </c>
+      <c r="C347" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D347" t="s">
+        <v>1398</v>
+      </c>
+      <c r="E347" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F347" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B348">
+        <v>29</v>
+      </c>
+      <c r="C348" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D348" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E348" t="s">
+        <v>1404</v>
+      </c>
+      <c r="F348" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B349">
+        <v>29</v>
+      </c>
+      <c r="C349" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D349" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E349" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F349" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B350">
+        <v>29</v>
+      </c>
+      <c r="C350" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D350" t="s">
+        <v>1413</v>
+      </c>
+      <c r="E350" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F350" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B351">
+        <v>29</v>
+      </c>
+      <c r="C351" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D351" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E351" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F351" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B352">
+        <v>29</v>
+      </c>
+      <c r="C352" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D352" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E352" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F352" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B353">
+        <v>29</v>
+      </c>
+      <c r="C353" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D353" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E353" t="s">
+        <v>1429</v>
+      </c>
+      <c r="F353" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B354">
+        <v>29</v>
+      </c>
+      <c r="C354" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D354" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E354" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F354" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B355">
+        <v>29</v>
+      </c>
+      <c r="C355" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D355" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E355" t="s">
+        <v>1439</v>
+      </c>
+      <c r="F355" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B356">
+        <v>29</v>
+      </c>
+      <c r="C356" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D356" t="s">
+        <v>1443</v>
+      </c>
+      <c r="E356" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F356" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B357">
+        <v>29</v>
+      </c>
+      <c r="C357" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D357" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E357" t="s">
+        <v>1449</v>
+      </c>
+      <c r="F357" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B358">
+        <v>29</v>
+      </c>
+      <c r="C358" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D358" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E358" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F358" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B359">
+        <v>29</v>
+      </c>
+      <c r="C359" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D359" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E359" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F359" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B360">
+        <v>29</v>
+      </c>
+      <c r="C360" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D360" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E360" t="s">
+        <v>1464</v>
+      </c>
+      <c r="F360" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B361">
+        <v>29</v>
+      </c>
+      <c r="C361" t="s">
         <v>1467</v>
       </c>
-      <c r="D341" t="s">
+      <c r="D361" t="s">
         <v>1468</v>
       </c>
-      <c r="E341" t="s">
+      <c r="E361" t="s">
         <v>1469</v>
       </c>
-      <c r="F341" t="s">
+      <c r="F361" t="s">
         <v>1470</v>
       </c>
     </row>
@@ -12894,7 +13651,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A222:G341 A1:B1 D1:G1 A2:G181" numberStoredAsText="1"/>
+    <ignoredError sqref="A242:G361 A1:B1 D1:G1 A2:G181" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -12918,7 +13675,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>4da16d99-2110-4bdc-95c0-f300b8a9ce45</v>
+        <v>214718e4-59a8-40b3-a3dd-a78a6dcb4064</v>
       </c>
     </row>
   </sheetData>

--- a/data/WordStudy.xlsx
+++ b/data/WordStudy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenlephong/Documents/Projects/english-app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E2F30E-9951-014A-81F0-3D8BCBD9526A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE953026-3B55-544E-8684-C779A78636C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2554" uniqueCount="2215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2914" uniqueCount="2511">
   <si>
     <t>ID</t>
   </si>
@@ -6675,13 +6675,901 @@
   </si>
   <si>
     <t>comfortable doing something</t>
+  </si>
+  <si>
+    <t>U11_01</t>
+  </si>
+  <si>
+    <t>U11_02</t>
+  </si>
+  <si>
+    <t>U11_03</t>
+  </si>
+  <si>
+    <t>U11_04</t>
+  </si>
+  <si>
+    <t>U11_05</t>
+  </si>
+  <si>
+    <t>U11_06</t>
+  </si>
+  <si>
+    <t>U11_07</t>
+  </si>
+  <si>
+    <t>U11_08</t>
+  </si>
+  <si>
+    <t>U11_09</t>
+  </si>
+  <si>
+    <t>U11_10</t>
+  </si>
+  <si>
+    <t>U11_11</t>
+  </si>
+  <si>
+    <t>U11_12</t>
+  </si>
+  <si>
+    <t>U11_13</t>
+  </si>
+  <si>
+    <t>U11_14</t>
+  </si>
+  <si>
+    <t>U11_15</t>
+  </si>
+  <si>
+    <t>U11_16</t>
+  </si>
+  <si>
+    <t>U11_17</t>
+  </si>
+  <si>
+    <t>U11_18</t>
+  </si>
+  <si>
+    <t>U11_19</t>
+  </si>
+  <si>
+    <t>U11_20</t>
+  </si>
+  <si>
+    <t>U11_21</t>
+  </si>
+  <si>
+    <t>U11_22</t>
+  </si>
+  <si>
+    <t>U11_23</t>
+  </si>
+  <si>
+    <t>U11_24</t>
+  </si>
+  <si>
+    <t>U11_25</t>
+  </si>
+  <si>
+    <t>U11_26</t>
+  </si>
+  <si>
+    <t>U11_27</t>
+  </si>
+  <si>
+    <t>U11_28</t>
+  </si>
+  <si>
+    <t>U11_29</t>
+  </si>
+  <si>
+    <t>U11_30</t>
+  </si>
+  <si>
+    <t>Đồ ăn mang đi</t>
+  </si>
+  <si>
+    <t>Takeout</t>
+  </si>
+  <si>
+    <t>I will order some takeout from mcdonald's</t>
+  </si>
+  <si>
+    <t>Order takeout</t>
+  </si>
+  <si>
+    <t>Ăn ngoài</t>
+  </si>
+  <si>
+    <t>eat out</t>
+  </si>
+  <si>
+    <t>do you want to eat out tonight</t>
+  </si>
+  <si>
+    <t>eat out tonight</t>
+  </si>
+  <si>
+    <t>Đặt trước</t>
+  </si>
+  <si>
+    <t>Reserve</t>
+  </si>
+  <si>
+    <t>reserve a table</t>
+  </si>
+  <si>
+    <t>I reserve a table at pizzal hut</t>
+  </si>
+  <si>
+    <t>Sẵn có</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>I am available tomorrow</t>
+  </si>
+  <si>
+    <t>Someone be available tomorrow</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>Congratulation! You did an awesome job</t>
+  </si>
+  <si>
+    <t>an awesome job / một việc được hoàn thành xuất sắc</t>
+  </si>
+  <si>
+    <t>Gợi ý</t>
+  </si>
+  <si>
+    <t>he suggests some nice restaurants to us</t>
+  </si>
+  <si>
+    <t>suggest something to somebody</t>
+  </si>
+  <si>
+    <t>Thà, thích</t>
+  </si>
+  <si>
+    <t>Rather</t>
+  </si>
+  <si>
+    <t>Would you rather cook or eat out</t>
+  </si>
+  <si>
+    <t>would you rather / liệu bạn muốn</t>
+  </si>
+  <si>
+    <t>Lên kế hoạch</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>We plan to visit grandparents this weekend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plan to do something </t>
+  </si>
+  <si>
+    <t>Đón</t>
+  </si>
+  <si>
+    <t>pick up</t>
+  </si>
+  <si>
+    <t>She picks me up at the airport</t>
+  </si>
+  <si>
+    <t>pick somebody up</t>
+  </si>
+  <si>
+    <t>Chia</t>
+  </si>
+  <si>
+    <t>Split</t>
+  </si>
+  <si>
+    <t>He splits the cake in half</t>
+  </si>
+  <si>
+    <t>split something in half / chia đôi một cái gì đó</t>
+  </si>
+  <si>
+    <t>Tiện lợi</t>
+  </si>
+  <si>
+    <t>Convenient</t>
+  </si>
+  <si>
+    <t>is that a convenient time for you?</t>
+  </si>
+  <si>
+    <t>a convenient time</t>
+  </si>
+  <si>
+    <t>Vừa túi tiền</t>
+  </si>
+  <si>
+    <t>Affordable</t>
+  </si>
+  <si>
+    <t>Tiki offers things at affordable prices</t>
+  </si>
+  <si>
+    <t>affordable prices</t>
+  </si>
+  <si>
+    <t>Miễn phí</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>You can use the printer free of charge</t>
+  </si>
+  <si>
+    <t>Free of charge / miễn phí</t>
+  </si>
+  <si>
+    <t>Gặp gỡ</t>
+  </si>
+  <si>
+    <t>Meet up</t>
+  </si>
+  <si>
+    <t>I often meet up with my friends</t>
+  </si>
+  <si>
+    <t>Meet up with somebody</t>
+  </si>
+  <si>
+    <t>Cập nhật tình hình</t>
+  </si>
+  <si>
+    <t>Catch up</t>
+  </si>
+  <si>
+    <t>We finally catch up with the team after a long time</t>
+  </si>
+  <si>
+    <t>Catch up with somebody</t>
+  </si>
+  <si>
+    <t>Ra ngoài chơi</t>
+  </si>
+  <si>
+    <t>Go out</t>
+  </si>
+  <si>
+    <t>would you like to go out for a walk?</t>
+  </si>
+  <si>
+    <t>go out for a walk / ra ngoài đi dạo</t>
+  </si>
+  <si>
+    <t>Tin nhắn, thông điệp</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Please send me a message, if you're interested</t>
+  </si>
+  <si>
+    <t>send somebody a message</t>
+  </si>
+  <si>
+    <t>Nhầm lẫn</t>
+  </si>
+  <si>
+    <t>Mix up</t>
+  </si>
+  <si>
+    <t>I get confused and mix up the two appointments</t>
+  </si>
+  <si>
+    <t>mix up something</t>
+  </si>
+  <si>
+    <t>Gọi đồ, đặt hàng</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>We order some KFC for dinner</t>
+  </si>
+  <si>
+    <t>order something for dinner</t>
+  </si>
+  <si>
+    <t>No, đầy</t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>the box is full of chocolate</t>
+  </si>
+  <si>
+    <t>full of something</t>
+  </si>
+  <si>
+    <t>Xin lỗi</t>
+  </si>
+  <si>
+    <t>Apologize</t>
+  </si>
+  <si>
+    <t>she apologize to me for being rude / … hành sử thô lỗ</t>
+  </si>
+  <si>
+    <t>Apologize to somebody</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>The electricity bill is surprisingly higher than before</t>
+  </si>
+  <si>
+    <t>an electricity bill / hóa đơn tiền điện</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Dịch vụ</t>
+  </si>
+  <si>
+    <t>The Highland has excellent customer service</t>
+  </si>
+  <si>
+    <t>customer service</t>
+  </si>
+  <si>
+    <t>Lưạ chọn</t>
+  </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>Taking a bus is the best option for now</t>
+  </si>
+  <si>
+    <t>the best option</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>She is a loyal customer of Starbucks</t>
+  </si>
+  <si>
+    <t>A loyal customer</t>
+  </si>
+  <si>
+    <t>Đầu bếp</t>
+  </si>
+  <si>
+    <t>Chef</t>
+  </si>
+  <si>
+    <t>She is a head chef at a five-star hotel</t>
+  </si>
+  <si>
+    <t>a head cheft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiếm </t>
+  </si>
+  <si>
+    <t>Rare</t>
+  </si>
+  <si>
+    <t>This is a rare occasion when he finished a book</t>
+  </si>
+  <si>
+    <t>a rare occasion</t>
+  </si>
+  <si>
+    <t>Người bán hàng</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>I sometimes buy food from a street vendor</t>
+  </si>
+  <si>
+    <t>a street vendor / người bán hàng rong</t>
+  </si>
+  <si>
+    <t>Đặt chỗ</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>He books a table at a sushi restaurant.</t>
+  </si>
+  <si>
+    <t>Book a table</t>
+  </si>
+  <si>
+    <t>Kinh khủng</t>
+  </si>
+  <si>
+    <t>Terrible</t>
+  </si>
+  <si>
+    <t>Traveling alone is a terrible experience for me</t>
+  </si>
+  <si>
+    <t>A terrible experience</t>
+  </si>
+  <si>
+    <t>U12_01</t>
+  </si>
+  <si>
+    <t>U12_02</t>
+  </si>
+  <si>
+    <t>U12_03</t>
+  </si>
+  <si>
+    <t>U12_04</t>
+  </si>
+  <si>
+    <t>U12_05</t>
+  </si>
+  <si>
+    <t>U12_06</t>
+  </si>
+  <si>
+    <t>U12_07</t>
+  </si>
+  <si>
+    <t>U12_08</t>
+  </si>
+  <si>
+    <t>U12_09</t>
+  </si>
+  <si>
+    <t>U12_10</t>
+  </si>
+  <si>
+    <t>U12_11</t>
+  </si>
+  <si>
+    <t>U12_12</t>
+  </si>
+  <si>
+    <t>U12_13</t>
+  </si>
+  <si>
+    <t>U12_14</t>
+  </si>
+  <si>
+    <t>U12_15</t>
+  </si>
+  <si>
+    <t>U12_16</t>
+  </si>
+  <si>
+    <t>U12_17</t>
+  </si>
+  <si>
+    <t>U12_18</t>
+  </si>
+  <si>
+    <t>U12_19</t>
+  </si>
+  <si>
+    <t>U12_20</t>
+  </si>
+  <si>
+    <t>U12_21</t>
+  </si>
+  <si>
+    <t>U12_22</t>
+  </si>
+  <si>
+    <t>U12_23</t>
+  </si>
+  <si>
+    <t>U12_24</t>
+  </si>
+  <si>
+    <t>U12_25</t>
+  </si>
+  <si>
+    <t>U12_26</t>
+  </si>
+  <si>
+    <t>U12_27</t>
+  </si>
+  <si>
+    <t>U12_28</t>
+  </si>
+  <si>
+    <t>U12_29</t>
+  </si>
+  <si>
+    <t>U12_30</t>
+  </si>
+  <si>
+    <t>Nhắc nhở</t>
+  </si>
+  <si>
+    <t>Remind</t>
+  </si>
+  <si>
+    <t>My wife reminds me about our anniversary</t>
+  </si>
+  <si>
+    <t>Remind somebody about something</t>
+  </si>
+  <si>
+    <t>Có trách nhiệm</t>
+  </si>
+  <si>
+    <t>Responsible</t>
+  </si>
+  <si>
+    <t>My father is responsible for our family's well-being</t>
+  </si>
+  <si>
+    <t>Responsible for sb or sth</t>
+  </si>
+  <si>
+    <t>Sự quan tâm</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>He's good at taking care of his cat</t>
+  </si>
+  <si>
+    <t>Take care of somebody or something</t>
+  </si>
+  <si>
+    <t>Anh em sinh đôi</t>
+  </si>
+  <si>
+    <t>Twin</t>
+  </si>
+  <si>
+    <t>They are identical twins</t>
+  </si>
+  <si>
+    <t>identical twins / cặp đôi sinh cùng trứng</t>
+  </si>
+  <si>
+    <t>Cho phép</t>
+  </si>
+  <si>
+    <t>Allow</t>
+  </si>
+  <si>
+    <t>she never allows me to touch her things</t>
+  </si>
+  <si>
+    <t>Allow somebody to do something</t>
+  </si>
+  <si>
+    <t>Hành vi</t>
+  </si>
+  <si>
+    <t>Behavior</t>
+  </si>
+  <si>
+    <t>Bad behaviors are not accepted here</t>
+  </si>
+  <si>
+    <t>a bad behavior</t>
+  </si>
+  <si>
+    <t>Bố mẹ, phụ huynh</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>They are not his biological parents</t>
+  </si>
+  <si>
+    <t>one's biological parents / cha mẹ ruột của một người</t>
+  </si>
+  <si>
+    <t>Raise</t>
+  </si>
+  <si>
+    <t>Nuôi</t>
+  </si>
+  <si>
+    <t>My mom raised me to become a strong person</t>
+  </si>
+  <si>
+    <t>raise somebody</t>
+  </si>
+  <si>
+    <t>gần gũi, thân thiết</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>I am very close to my sister</t>
+  </si>
+  <si>
+    <t>close to somebody</t>
+  </si>
+  <si>
+    <t>Nghiêm khắc</t>
+  </si>
+  <si>
+    <t>Strict</t>
+  </si>
+  <si>
+    <t>A strict parent teaches children discipline</t>
+  </si>
+  <si>
+    <t>a strict parent</t>
+  </si>
+  <si>
+    <t>Ông</t>
+  </si>
+  <si>
+    <t>Grandfather</t>
+  </si>
+  <si>
+    <t>My grandfather is quite familiar with high-tech products</t>
+  </si>
+  <si>
+    <t>one's grandfather</t>
+  </si>
+  <si>
+    <t>Động viên</t>
+  </si>
+  <si>
+    <t>Encourage</t>
+  </si>
+  <si>
+    <t>I encourage her to join the contest</t>
+  </si>
+  <si>
+    <t>Encourage somebody to do something</t>
+  </si>
+  <si>
+    <t>Trông giống, noi theo</t>
+  </si>
+  <si>
+    <t>Take after</t>
+  </si>
+  <si>
+    <t>All her children take after her</t>
+  </si>
+  <si>
+    <t>take after somebody</t>
+  </si>
+  <si>
+    <t>Hộ gia đình</t>
+  </si>
+  <si>
+    <t>Household</t>
+  </si>
+  <si>
+    <t>They come from a middle-income household</t>
+  </si>
+  <si>
+    <t>a middle-income household / hộ gia đình có thu nhập trung bình</t>
+  </si>
+  <si>
+    <t>Nguyên tắc</t>
+  </si>
+  <si>
+    <t>Principle</t>
+  </si>
+  <si>
+    <t>He explains the principle behind his leadership style</t>
+  </si>
+  <si>
+    <t>the principle behind something</t>
+  </si>
+  <si>
+    <t>Họ hàng</t>
+  </si>
+  <si>
+    <t>Relative</t>
+  </si>
+  <si>
+    <t>Hoa is a close relative of me</t>
+  </si>
+  <si>
+    <t>a close relative</t>
+  </si>
+  <si>
+    <t>Tụ tập</t>
+  </si>
+  <si>
+    <t>get together</t>
+  </si>
+  <si>
+    <t>I get together with my best friends to catch up every weekend</t>
+  </si>
+  <si>
+    <t>get together with somebody</t>
+  </si>
+  <si>
+    <t>Cậu chú</t>
+  </si>
+  <si>
+    <t>Uncle</t>
+  </si>
+  <si>
+    <t>Her aunt and uncle live in Da nang city</t>
+  </si>
+  <si>
+    <t>One's aunt and uncle</t>
+  </si>
+  <si>
+    <t>Anh chị em họ</t>
+  </si>
+  <si>
+    <t>Cousin</t>
+  </si>
+  <si>
+    <t>We realize that she is my distant cousin</t>
+  </si>
+  <si>
+    <t>distant cousin / anh chị em họ xa</t>
+  </si>
+  <si>
+    <t>Tuổi thơ ấu</t>
+  </si>
+  <si>
+    <t>Childhood</t>
+  </si>
+  <si>
+    <t>I still remember many childhood memories</t>
+  </si>
+  <si>
+    <t>childhood memories</t>
+  </si>
+  <si>
+    <t>Giống nhau</t>
+  </si>
+  <si>
+    <t>Similar</t>
+  </si>
+  <si>
+    <t>All new smartphones look similar</t>
+  </si>
+  <si>
+    <t>look similar</t>
+  </si>
+  <si>
+    <t>Giao tiếp</t>
+  </si>
+  <si>
+    <t>Communicate</t>
+  </si>
+  <si>
+    <t>humans can communicate with dog through emotions</t>
+  </si>
+  <si>
+    <t>communicate with somebody or something</t>
+  </si>
+  <si>
+    <t>Chia sẻ</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>I share my birthday cake with everyone</t>
+  </si>
+  <si>
+    <t>share something with somebody</t>
+  </si>
+  <si>
+    <t>Thảo luận</t>
+  </si>
+  <si>
+    <t>Discuss</t>
+  </si>
+  <si>
+    <t>I discuss the job offer with them</t>
+  </si>
+  <si>
+    <t>Discuss something with somebody</t>
+  </si>
+  <si>
+    <t>Cung cấp</t>
+  </si>
+  <si>
+    <t>Provide</t>
+  </si>
+  <si>
+    <t>Her family provides her with lots of money</t>
+  </si>
+  <si>
+    <t>Provide somebody with something</t>
+  </si>
+  <si>
+    <t>Thế hệ</t>
+  </si>
+  <si>
+    <t>Generation</t>
+  </si>
+  <si>
+    <t>He believes future generations will do better</t>
+  </si>
+  <si>
+    <t>future generations / các thế hệ tương lai</t>
+  </si>
+  <si>
+    <t>Khoảng cách</t>
+  </si>
+  <si>
+    <t>Gap</t>
+  </si>
+  <si>
+    <t>a gap in something</t>
+  </si>
+  <si>
+    <t>The gap in income divides people</t>
+  </si>
+  <si>
+    <t>Lớn tuổi hơn</t>
+  </si>
+  <si>
+    <t>Senior</t>
+  </si>
+  <si>
+    <t>Senior citizens should receive carefull consideration</t>
+  </si>
+  <si>
+    <t>Senior citizens / người cao tuổi</t>
+  </si>
+  <si>
+    <t>Nuôi nấng</t>
+  </si>
+  <si>
+    <t>Bring up</t>
+  </si>
+  <si>
+    <t>His grandfather brought him up</t>
+  </si>
+  <si>
+    <t>bring somebody up</t>
+  </si>
+  <si>
+    <t>Bình an</t>
+  </si>
+  <si>
+    <t>Peace</t>
+  </si>
+  <si>
+    <t>leave somebody in peace / để ai yên</t>
+  </si>
+  <si>
+    <t>Please leave me in peace</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6694,6 +7582,12 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -7033,10 +7927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G451"/>
+  <dimension ref="A1:G511"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A346" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G301" sqref="G301"/>
+    <sheetView tabSelected="1" topLeftCell="A338" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G361" sqref="G361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13974,3149 +14868,4530 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
-        <v>1828</v>
+        <v>2215</v>
       </c>
       <c r="B302" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>6</v>
+        <v>2245</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>7</v>
+        <v>2246</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>8</v>
+        <v>2247</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G302" s="1"/>
+        <v>2248</v>
+      </c>
+      <c r="G302" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
-        <v>1829</v>
+        <v>2216</v>
       </c>
       <c r="B303" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>10</v>
+        <v>2249</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>11</v>
+        <v>2250</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>12</v>
+        <v>2251</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G303" s="1"/>
+        <v>2252</v>
+      </c>
+      <c r="G303" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
-        <v>1830</v>
+        <v>2217</v>
       </c>
       <c r="B304" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>13</v>
+        <v>2253</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>14</v>
+        <v>2254</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>15</v>
+        <v>2256</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G304" s="1"/>
+        <v>2255</v>
+      </c>
+      <c r="G304" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
-        <v>1831</v>
+        <v>2218</v>
       </c>
       <c r="B305" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>16</v>
+        <v>2257</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>17</v>
+        <v>2258</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>18</v>
+        <v>2259</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G305" s="1"/>
+        <v>2260</v>
+      </c>
+      <c r="G305" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
-        <v>1832</v>
+        <v>2219</v>
       </c>
       <c r="B306" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>20</v>
+        <v>2261</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>21</v>
+        <v>2262</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G306" s="1"/>
+        <v>2263</v>
+      </c>
+      <c r="G306" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
-        <v>1833</v>
+        <v>2220</v>
       </c>
       <c r="B307" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>22</v>
+        <v>2264</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>23</v>
+        <v>1701</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>24</v>
+        <v>2265</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G307" s="1"/>
+        <v>2266</v>
+      </c>
+      <c r="G307" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
-        <v>1834</v>
+        <v>2221</v>
       </c>
       <c r="B308" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>25</v>
+        <v>2267</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>26</v>
+        <v>2268</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>27</v>
+        <v>2269</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G308" s="1"/>
+        <v>2270</v>
+      </c>
+      <c r="G308" s="1" t="s">
+        <v>720</v>
+      </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
-        <v>1835</v>
+        <v>2222</v>
       </c>
       <c r="B309" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>28</v>
+        <v>2271</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>29</v>
+        <v>2272</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>30</v>
+        <v>2273</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G309" s="1"/>
+        <v>2274</v>
+      </c>
+      <c r="G309" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
-        <v>1836</v>
+        <v>2223</v>
       </c>
       <c r="B310" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>31</v>
+        <v>2275</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>32</v>
+        <v>2276</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>33</v>
+        <v>2277</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G310" s="1"/>
+        <v>2278</v>
+      </c>
+      <c r="G310" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
-        <v>1837</v>
+        <v>2224</v>
       </c>
       <c r="B311" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>34</v>
+        <v>2279</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>35</v>
+        <v>2280</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>36</v>
+        <v>2281</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G311" s="1"/>
+        <v>2282</v>
+      </c>
+      <c r="G311" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
-        <v>1838</v>
+        <v>2225</v>
       </c>
       <c r="B312" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>37</v>
+        <v>2283</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>38</v>
+        <v>2284</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>39</v>
+        <v>2285</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G312" s="1"/>
+        <v>2286</v>
+      </c>
+      <c r="G312" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
-        <v>1839</v>
+        <v>2226</v>
       </c>
       <c r="B313" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>40</v>
+        <v>2287</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>41</v>
+        <v>2288</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>42</v>
+        <v>2289</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G313" s="1"/>
+        <v>2290</v>
+      </c>
+      <c r="G313" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
-        <v>1840</v>
+        <v>2227</v>
       </c>
       <c r="B314" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>43</v>
+        <v>2291</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>44</v>
+        <v>2292</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>45</v>
+        <v>2293</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G314" s="1"/>
+        <v>2294</v>
+      </c>
+      <c r="G314" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
-        <v>1841</v>
+        <v>2228</v>
       </c>
       <c r="B315" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>47</v>
+        <v>2295</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>48</v>
+        <v>2296</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>49</v>
+        <v>2297</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G315" s="1"/>
+        <v>2298</v>
+      </c>
+      <c r="G315" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
-        <v>1842</v>
+        <v>2229</v>
       </c>
       <c r="B316" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>50</v>
+        <v>2299</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>51</v>
+        <v>2300</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>52</v>
+        <v>2301</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G316" s="1"/>
+        <v>2302</v>
+      </c>
+      <c r="G316" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
-        <v>1843</v>
+        <v>2230</v>
       </c>
       <c r="B317" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>54</v>
+        <v>2303</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>55</v>
+        <v>2304</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>56</v>
+        <v>2305</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G317" s="1"/>
+        <v>2306</v>
+      </c>
+      <c r="G317" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
-        <v>1844</v>
+        <v>2231</v>
       </c>
       <c r="B318" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>57</v>
+        <v>2307</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>58</v>
+        <v>2308</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>59</v>
+        <v>2309</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G318" s="1"/>
+        <v>2310</v>
+      </c>
+      <c r="G318" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
-        <v>1845</v>
+        <v>2232</v>
       </c>
       <c r="B319" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>61</v>
+        <v>2311</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>62</v>
+        <v>2312</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>63</v>
+        <v>2313</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G319" s="1"/>
+        <v>2314</v>
+      </c>
+      <c r="G319" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
-        <v>1846</v>
+        <v>2233</v>
       </c>
       <c r="B320" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>64</v>
+        <v>2315</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>65</v>
+        <v>2316</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>66</v>
+        <v>2317</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G320" s="1"/>
+        <v>2318</v>
+      </c>
+      <c r="G320" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
-        <v>1847</v>
+        <v>2234</v>
       </c>
       <c r="B321" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>67</v>
+        <v>2319</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>68</v>
+        <v>2320</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>69</v>
+        <v>2321</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G321" s="1"/>
+        <v>2322</v>
+      </c>
+      <c r="G321" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
-        <v>1848</v>
+        <v>2235</v>
       </c>
       <c r="B322" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>71</v>
+        <v>2323</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>72</v>
+        <v>2324</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>73</v>
+        <v>2325</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G322" s="1"/>
+        <v>2326</v>
+      </c>
+      <c r="G322" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
-        <v>1849</v>
+        <v>2236</v>
       </c>
       <c r="B323" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>74</v>
+        <v>626</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>75</v>
+        <v>2327</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>76</v>
+        <v>2328</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G323" s="1"/>
+        <v>2329</v>
+      </c>
+      <c r="G323" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
-        <v>1850</v>
+        <v>2237</v>
       </c>
       <c r="B324" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>77</v>
+        <v>2331</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>78</v>
+        <v>2330</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>79</v>
+        <v>2332</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G324" s="1"/>
+        <v>2333</v>
+      </c>
+      <c r="G324" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
-        <v>1851</v>
+        <v>2238</v>
       </c>
       <c r="B325" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>80</v>
+        <v>2334</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>81</v>
+        <v>2335</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>82</v>
+        <v>2336</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G325" s="1"/>
+        <v>2337</v>
+      </c>
+      <c r="G325" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
-        <v>1852</v>
+        <v>2239</v>
       </c>
       <c r="B326" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>83</v>
+        <v>1611</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>84</v>
+        <v>2338</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>85</v>
+        <v>2339</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G326" s="1"/>
+        <v>2340</v>
+      </c>
+      <c r="G326" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
-        <v>1853</v>
+        <v>2240</v>
       </c>
       <c r="B327" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>86</v>
+        <v>2341</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>87</v>
+        <v>2342</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>88</v>
+        <v>2343</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G327" s="1"/>
+        <v>2344</v>
+      </c>
+      <c r="G327" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
-        <v>1854</v>
+        <v>2241</v>
       </c>
       <c r="B328" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>90</v>
+        <v>2345</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>91</v>
+        <v>2346</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>92</v>
+        <v>2347</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G328" s="1"/>
+        <v>2348</v>
+      </c>
+      <c r="G328" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
-        <v>1855</v>
+        <v>2242</v>
       </c>
       <c r="B329" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>94</v>
+        <v>2349</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>95</v>
+        <v>2350</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>96</v>
+        <v>2351</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G329" s="1"/>
+        <v>2352</v>
+      </c>
+      <c r="G329" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
-        <v>1856</v>
+        <v>2243</v>
       </c>
       <c r="B330" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>97</v>
+        <v>2353</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>98</v>
+        <v>2354</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>99</v>
+        <v>2355</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G330" s="1"/>
+        <v>2356</v>
+      </c>
+      <c r="G330" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
-        <v>1857</v>
+        <v>2244</v>
       </c>
       <c r="B331" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>100</v>
+        <v>2357</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>101</v>
+        <v>2358</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>102</v>
+        <v>2359</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G331" s="1"/>
+        <v>2360</v>
+      </c>
+      <c r="G331" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
-        <v>1858</v>
+        <v>2361</v>
       </c>
       <c r="B332" s="1">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>103</v>
+        <v>2391</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>104</v>
+        <v>2392</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>105</v>
+        <v>2393</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G332" s="1"/>
+        <v>2394</v>
+      </c>
+      <c r="G332" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
-        <v>1859</v>
+        <v>2362</v>
       </c>
       <c r="B333" s="1">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>106</v>
+        <v>2395</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>107</v>
+        <v>2396</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>108</v>
+        <v>2397</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G333" s="1"/>
+        <v>2398</v>
+      </c>
+      <c r="G333" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
-        <v>1860</v>
+        <v>2363</v>
       </c>
       <c r="B334" s="1">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>109</v>
+        <v>2399</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>110</v>
+        <v>2400</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>111</v>
+        <v>2401</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G334" s="1"/>
+        <v>2402</v>
+      </c>
+      <c r="G334" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
-        <v>1861</v>
+        <v>2364</v>
       </c>
       <c r="B335" s="1">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>112</v>
+        <v>2403</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>113</v>
+        <v>2404</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>114</v>
+        <v>2405</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G335" s="1"/>
+        <v>2406</v>
+      </c>
+      <c r="G335" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
-        <v>1862</v>
+        <v>2365</v>
       </c>
       <c r="B336" s="1">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>115</v>
+        <v>2407</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>116</v>
+        <v>2408</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>117</v>
+        <v>2409</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G336" s="1"/>
+        <v>2410</v>
+      </c>
+      <c r="G336" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
-        <v>1863</v>
+        <v>2366</v>
       </c>
       <c r="B337" s="1">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>118</v>
+        <v>2411</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>119</v>
+        <v>2412</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>120</v>
+        <v>2413</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G337" s="1"/>
+        <v>2414</v>
+      </c>
+      <c r="G337" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
-        <v>1864</v>
+        <v>2367</v>
       </c>
       <c r="B338" s="1">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>121</v>
+        <v>2415</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>122</v>
+        <v>2416</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>123</v>
+        <v>2417</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G338" s="1"/>
+        <v>2418</v>
+      </c>
+      <c r="G338" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
-        <v>1865</v>
+        <v>2368</v>
       </c>
       <c r="B339" s="1">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>125</v>
+        <v>2420</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>126</v>
+        <v>2419</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>127</v>
+        <v>2421</v>
       </c>
       <c r="F339" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G339" s="1"/>
+        <v>2422</v>
+      </c>
+      <c r="G339" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
-        <v>1866</v>
+        <v>2369</v>
       </c>
       <c r="B340" s="1">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>129</v>
+        <v>2423</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>130</v>
+        <v>2424</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>131</v>
+        <v>2425</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G340" s="1"/>
+        <v>2426</v>
+      </c>
+      <c r="G340" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
-        <v>1867</v>
+        <v>2370</v>
       </c>
       <c r="B341" s="1">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>132</v>
+        <v>2427</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>133</v>
+        <v>2428</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>134</v>
+        <v>2429</v>
       </c>
       <c r="F341" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G341" s="1"/>
+        <v>2430</v>
+      </c>
+      <c r="G341" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
-        <v>1868</v>
+        <v>2371</v>
       </c>
       <c r="B342" s="1">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>136</v>
+        <v>2431</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>137</v>
+        <v>2432</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>138</v>
+        <v>2433</v>
       </c>
       <c r="F342" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G342" s="1"/>
+        <v>2434</v>
+      </c>
+      <c r="G342" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
-        <v>1869</v>
+        <v>2372</v>
       </c>
       <c r="B343" s="1">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>140</v>
+        <v>2435</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>141</v>
+        <v>2436</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>142</v>
+        <v>2437</v>
       </c>
       <c r="F343" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G343" s="1"/>
+        <v>2438</v>
+      </c>
+      <c r="G343" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
-        <v>1870</v>
+        <v>2373</v>
       </c>
       <c r="B344" s="1">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>144</v>
+        <v>2439</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>145</v>
+        <v>2440</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>146</v>
+        <v>2441</v>
       </c>
       <c r="F344" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G344" s="1"/>
+        <v>2442</v>
+      </c>
+      <c r="G344" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
-        <v>1871</v>
+        <v>2374</v>
       </c>
       <c r="B345" s="1">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>148</v>
+        <v>2443</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>149</v>
+        <v>2444</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>150</v>
+        <v>2445</v>
       </c>
       <c r="F345" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G345" s="1"/>
+        <v>2446</v>
+      </c>
+      <c r="G345" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
-        <v>1872</v>
+        <v>2375</v>
       </c>
       <c r="B346" s="1">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>152</v>
+        <v>2447</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>153</v>
+        <v>2448</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>154</v>
+        <v>2449</v>
       </c>
       <c r="F346" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G346" s="1"/>
+        <v>2450</v>
+      </c>
+      <c r="G346" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
-        <v>1873</v>
+        <v>2376</v>
       </c>
       <c r="B347" s="1">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>156</v>
+        <v>2451</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>157</v>
+        <v>2452</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>158</v>
+        <v>2453</v>
       </c>
       <c r="F347" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G347" s="1"/>
+        <v>2454</v>
+      </c>
+      <c r="G347" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
-        <v>1874</v>
+        <v>2377</v>
       </c>
       <c r="B348" s="1">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>160</v>
+        <v>2455</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>161</v>
+        <v>2456</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>162</v>
+        <v>2457</v>
       </c>
       <c r="F348" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G348" s="1"/>
+        <v>2458</v>
+      </c>
+      <c r="G348" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
-        <v>1875</v>
+        <v>2378</v>
       </c>
       <c r="B349" s="1">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>164</v>
+        <v>2459</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>165</v>
+        <v>2460</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>166</v>
+        <v>2461</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G349" s="1"/>
+        <v>2462</v>
+      </c>
+      <c r="G349" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
-        <v>1876</v>
+        <v>2379</v>
       </c>
       <c r="B350" s="1">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>168</v>
+        <v>2463</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>169</v>
+        <v>2464</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>170</v>
+        <v>2465</v>
       </c>
       <c r="F350" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G350" s="1"/>
+        <v>2466</v>
+      </c>
+      <c r="G350" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
-        <v>1877</v>
+        <v>2380</v>
       </c>
       <c r="B351" s="1">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>172</v>
+        <v>2467</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>173</v>
+        <v>2468</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>174</v>
+        <v>2469</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G351" s="1"/>
+        <v>2470</v>
+      </c>
+      <c r="G351" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
-        <v>1878</v>
+        <v>2381</v>
       </c>
       <c r="B352" s="1">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>176</v>
+        <v>2471</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>177</v>
+        <v>2472</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>178</v>
+        <v>2473</v>
       </c>
       <c r="F352" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G352" s="1"/>
+        <v>2474</v>
+      </c>
+      <c r="G352" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
-        <v>1879</v>
+        <v>2382</v>
       </c>
       <c r="B353" s="1">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>180</v>
+        <v>2475</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>181</v>
+        <v>2476</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>182</v>
+        <v>2477</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G353" s="1"/>
+        <v>2478</v>
+      </c>
+      <c r="G353" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
-        <v>1880</v>
+        <v>2383</v>
       </c>
       <c r="B354" s="1">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>184</v>
+        <v>2479</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>185</v>
+        <v>2480</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>186</v>
+        <v>2481</v>
       </c>
       <c r="F354" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G354" s="1"/>
+        <v>2482</v>
+      </c>
+      <c r="G354" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
-        <v>1881</v>
+        <v>2384</v>
       </c>
       <c r="B355" s="1">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>188</v>
+        <v>2483</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>189</v>
+        <v>2484</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>190</v>
+        <v>2485</v>
       </c>
       <c r="F355" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G355" s="1"/>
+        <v>2486</v>
+      </c>
+      <c r="G355" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
-        <v>1882</v>
+        <v>2385</v>
       </c>
       <c r="B356" s="1">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>192</v>
+        <v>2487</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>193</v>
+        <v>2488</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>194</v>
+        <v>2489</v>
       </c>
       <c r="F356" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G356" s="1"/>
+        <v>2490</v>
+      </c>
+      <c r="G356" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
-        <v>1883</v>
+        <v>2386</v>
       </c>
       <c r="B357" s="1">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>196</v>
+        <v>2491</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>197</v>
+        <v>2492</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>198</v>
+        <v>2493</v>
       </c>
       <c r="F357" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G357" s="1"/>
+        <v>2494</v>
+      </c>
+      <c r="G357" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
-        <v>1884</v>
+        <v>2387</v>
       </c>
       <c r="B358" s="1">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>200</v>
+        <v>2495</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>201</v>
+        <v>2496</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>202</v>
+        <v>2498</v>
       </c>
       <c r="F358" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G358" s="1"/>
+        <v>2497</v>
+      </c>
+      <c r="G358" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
-        <v>1885</v>
+        <v>2388</v>
       </c>
       <c r="B359" s="1">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>204</v>
+        <v>2499</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>205</v>
+        <v>2500</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>206</v>
+        <v>2501</v>
       </c>
       <c r="F359" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G359" s="1"/>
+        <v>2502</v>
+      </c>
+      <c r="G359" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
-        <v>1886</v>
+        <v>2389</v>
       </c>
       <c r="B360" s="1">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>204</v>
+        <v>2503</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>208</v>
+        <v>2504</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>209</v>
+        <v>2505</v>
       </c>
       <c r="F360" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G360" s="1"/>
+        <v>2506</v>
+      </c>
+      <c r="G360" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
-        <v>1887</v>
+        <v>2390</v>
       </c>
       <c r="B361" s="1">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>211</v>
+        <v>2507</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>212</v>
+        <v>2508</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>213</v>
+        <v>2510</v>
       </c>
       <c r="F361" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="G361" s="1"/>
+        <v>2509</v>
+      </c>
+      <c r="G361" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
-        <v>1888</v>
+        <v>1828</v>
       </c>
       <c r="B362" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>215</v>
+        <v>6</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>217</v>
+        <v>8</v>
       </c>
       <c r="F362" s="1" t="s">
-        <v>218</v>
+        <v>9</v>
       </c>
       <c r="G362" s="1"/>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
-        <v>1889</v>
+        <v>1829</v>
       </c>
       <c r="B363" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>219</v>
+        <v>10</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>220</v>
+        <v>11</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="F363" s="1" t="s">
-        <v>222</v>
+        <v>9</v>
       </c>
       <c r="G363" s="1"/>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
-        <v>1890</v>
+        <v>1830</v>
       </c>
       <c r="B364" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>223</v>
+        <v>13</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>224</v>
+        <v>14</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>225</v>
+        <v>15</v>
       </c>
       <c r="F364" s="1" t="s">
-        <v>226</v>
+        <v>9</v>
       </c>
       <c r="G364" s="1"/>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
-        <v>1891</v>
+        <v>1831</v>
       </c>
       <c r="B365" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>227</v>
+        <v>16</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>228</v>
+        <v>17</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>229</v>
+        <v>18</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>230</v>
+        <v>9</v>
       </c>
       <c r="G365" s="1"/>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
-        <v>1892</v>
+        <v>1832</v>
       </c>
       <c r="B366" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>231</v>
+        <v>19</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>232</v>
+        <v>20</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>233</v>
+        <v>21</v>
       </c>
       <c r="F366" s="1" t="s">
-        <v>234</v>
+        <v>9</v>
       </c>
       <c r="G366" s="1"/>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
-        <v>1893</v>
+        <v>1833</v>
       </c>
       <c r="B367" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>235</v>
+        <v>22</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>236</v>
+        <v>23</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>237</v>
+        <v>24</v>
       </c>
       <c r="F367" s="1" t="s">
-        <v>238</v>
+        <v>9</v>
       </c>
       <c r="G367" s="1"/>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
-        <v>1894</v>
+        <v>1834</v>
       </c>
       <c r="B368" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>239</v>
+        <v>25</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>240</v>
+        <v>26</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>241</v>
+        <v>27</v>
       </c>
       <c r="F368" s="1" t="s">
-        <v>242</v>
+        <v>9</v>
       </c>
       <c r="G368" s="1"/>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
-        <v>1895</v>
+        <v>1835</v>
       </c>
       <c r="B369" s="1">
+        <v>26</v>
+      </c>
+      <c r="C369" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C369" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="D369" s="1" t="s">
-        <v>244</v>
+        <v>29</v>
       </c>
       <c r="E369" s="1" t="s">
-        <v>245</v>
+        <v>30</v>
       </c>
       <c r="F369" s="1" t="s">
-        <v>246</v>
+        <v>9</v>
       </c>
       <c r="G369" s="1"/>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
-        <v>1896</v>
+        <v>1836</v>
       </c>
       <c r="B370" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>247</v>
+        <v>31</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>248</v>
+        <v>32</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>249</v>
+        <v>33</v>
       </c>
       <c r="F370" s="1" t="s">
-        <v>250</v>
+        <v>9</v>
       </c>
       <c r="G370" s="1"/>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
-        <v>1897</v>
+        <v>1837</v>
       </c>
       <c r="B371" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>251</v>
+        <v>34</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>252</v>
+        <v>35</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>253</v>
+        <v>36</v>
       </c>
       <c r="F371" s="1" t="s">
-        <v>254</v>
+        <v>9</v>
       </c>
       <c r="G371" s="1"/>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
-        <v>1898</v>
+        <v>1838</v>
       </c>
       <c r="B372" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>255</v>
+        <v>37</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>256</v>
+        <v>38</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>257</v>
+        <v>39</v>
       </c>
       <c r="F372" s="1" t="s">
-        <v>258</v>
+        <v>9</v>
       </c>
       <c r="G372" s="1"/>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
-        <v>1899</v>
+        <v>1839</v>
       </c>
       <c r="B373" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>259</v>
+        <v>40</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E373" s="1"/>
-      <c r="F373" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="E373" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F373" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="G373" s="1"/>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
-        <v>1900</v>
+        <v>1840</v>
       </c>
       <c r="B374" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>261</v>
+        <v>43</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>262</v>
+        <v>44</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>263</v>
+        <v>45</v>
       </c>
       <c r="F374" s="1" t="s">
-        <v>264</v>
+        <v>46</v>
       </c>
       <c r="G374" s="1"/>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
-        <v>1901</v>
+        <v>1841</v>
       </c>
       <c r="B375" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>265</v>
+        <v>47</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>266</v>
+        <v>48</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>267</v>
+        <v>49</v>
       </c>
       <c r="F375" s="1" t="s">
-        <v>268</v>
+        <v>9</v>
       </c>
       <c r="G375" s="1"/>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
-        <v>1902</v>
+        <v>1842</v>
       </c>
       <c r="B376" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>269</v>
+        <v>50</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>270</v>
+        <v>51</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>271</v>
+        <v>52</v>
       </c>
       <c r="F376" s="1" t="s">
-        <v>272</v>
+        <v>53</v>
       </c>
       <c r="G376" s="1"/>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
-        <v>1903</v>
+        <v>1843</v>
       </c>
       <c r="B377" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>273</v>
+        <v>55</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>274</v>
+        <v>56</v>
       </c>
       <c r="F377" s="1" t="s">
-        <v>275</v>
+        <v>9</v>
       </c>
       <c r="G377" s="1"/>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
-        <v>1904</v>
+        <v>1844</v>
       </c>
       <c r="B378" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>276</v>
+        <v>57</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>277</v>
+        <v>58</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F378" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="F378" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="G378" s="1"/>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
-        <v>1905</v>
+        <v>1845</v>
       </c>
       <c r="B379" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>279</v>
+        <v>61</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>280</v>
+        <v>62</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>281</v>
+        <v>63</v>
       </c>
       <c r="F379" s="1" t="s">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="G379" s="1"/>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
-        <v>1906</v>
+        <v>1846</v>
       </c>
       <c r="B380" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>283</v>
+        <v>64</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>284</v>
+        <v>65</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>285</v>
+        <v>66</v>
       </c>
       <c r="F380" s="1" t="s">
-        <v>286</v>
+        <v>9</v>
       </c>
       <c r="G380" s="1"/>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
-        <v>1907</v>
+        <v>1847</v>
       </c>
       <c r="B381" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>287</v>
+        <v>67</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>288</v>
+        <v>68</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>289</v>
+        <v>69</v>
       </c>
       <c r="F381" s="1" t="s">
-        <v>290</v>
+        <v>70</v>
       </c>
       <c r="G381" s="1"/>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
-        <v>1908</v>
+        <v>1848</v>
       </c>
       <c r="B382" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>291</v>
+        <v>71</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>292</v>
+        <v>72</v>
       </c>
       <c r="E382" s="1" t="s">
-        <v>293</v>
+        <v>73</v>
       </c>
       <c r="F382" s="1" t="s">
-        <v>294</v>
+        <v>9</v>
       </c>
       <c r="G382" s="1"/>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
-        <v>1909</v>
+        <v>1849</v>
       </c>
       <c r="B383" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>295</v>
+        <v>74</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>296</v>
+        <v>75</v>
       </c>
       <c r="E383" s="1" t="s">
-        <v>297</v>
+        <v>76</v>
       </c>
       <c r="F383" s="1" t="s">
-        <v>298</v>
+        <v>9</v>
       </c>
       <c r="G383" s="1"/>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
-        <v>1910</v>
+        <v>1850</v>
       </c>
       <c r="B384" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>299</v>
+        <v>77</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>300</v>
+        <v>78</v>
       </c>
       <c r="E384" s="1" t="s">
-        <v>301</v>
+        <v>79</v>
       </c>
       <c r="F384" s="1" t="s">
-        <v>302</v>
+        <v>9</v>
       </c>
       <c r="G384" s="1"/>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
-        <v>1911</v>
+        <v>1851</v>
       </c>
       <c r="B385" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>303</v>
+        <v>80</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>304</v>
+        <v>81</v>
       </c>
       <c r="E385" s="1" t="s">
-        <v>305</v>
+        <v>82</v>
       </c>
       <c r="F385" s="1" t="s">
-        <v>306</v>
+        <v>9</v>
       </c>
       <c r="G385" s="1"/>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
-        <v>1912</v>
+        <v>1852</v>
       </c>
       <c r="B386" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>307</v>
+        <v>83</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>308</v>
+        <v>84</v>
       </c>
       <c r="E386" s="1" t="s">
-        <v>309</v>
+        <v>85</v>
       </c>
       <c r="F386" s="1" t="s">
-        <v>310</v>
+        <v>9</v>
       </c>
       <c r="G386" s="1"/>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
-        <v>1913</v>
+        <v>1853</v>
       </c>
       <c r="B387" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>311</v>
+        <v>86</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>312</v>
+        <v>87</v>
       </c>
       <c r="E387" s="1" t="s">
-        <v>313</v>
+        <v>88</v>
       </c>
       <c r="F387" s="1" t="s">
-        <v>314</v>
+        <v>89</v>
       </c>
       <c r="G387" s="1"/>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
-        <v>1914</v>
+        <v>1854</v>
       </c>
       <c r="B388" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>315</v>
+        <v>90</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>316</v>
+        <v>91</v>
       </c>
       <c r="E388" s="1" t="s">
-        <v>317</v>
+        <v>92</v>
       </c>
       <c r="F388" s="1" t="s">
-        <v>318</v>
+        <v>93</v>
       </c>
       <c r="G388" s="1"/>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
-        <v>1915</v>
+        <v>1855</v>
       </c>
       <c r="B389" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>319</v>
+        <v>94</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>320</v>
+        <v>95</v>
       </c>
       <c r="E389" s="1" t="s">
-        <v>321</v>
+        <v>96</v>
       </c>
       <c r="F389" s="1" t="s">
-        <v>322</v>
+        <v>9</v>
       </c>
       <c r="G389" s="1"/>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
-        <v>1916</v>
+        <v>1856</v>
       </c>
       <c r="B390" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>323</v>
+        <v>97</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>324</v>
+        <v>98</v>
       </c>
       <c r="E390" s="1" t="s">
-        <v>325</v>
+        <v>99</v>
       </c>
       <c r="F390" s="1" t="s">
-        <v>326</v>
+        <v>9</v>
       </c>
       <c r="G390" s="1"/>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
-        <v>1917</v>
+        <v>1857</v>
       </c>
       <c r="B391" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>327</v>
+        <v>100</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>328</v>
+        <v>101</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>329</v>
+        <v>102</v>
       </c>
       <c r="F391" s="1" t="s">
-        <v>330</v>
+        <v>9</v>
       </c>
       <c r="G391" s="1"/>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
-        <v>1918</v>
+        <v>1858</v>
       </c>
       <c r="B392" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>331</v>
+        <v>103</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>332</v>
+        <v>104</v>
       </c>
       <c r="E392" s="1" t="s">
-        <v>333</v>
+        <v>105</v>
       </c>
       <c r="F392" s="1" t="s">
-        <v>334</v>
+        <v>9</v>
       </c>
       <c r="G392" s="1"/>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
-        <v>1919</v>
+        <v>1859</v>
       </c>
       <c r="B393" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>335</v>
+        <v>106</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>336</v>
+        <v>107</v>
       </c>
       <c r="E393" s="1" t="s">
-        <v>337</v>
+        <v>108</v>
       </c>
       <c r="F393" s="1" t="s">
-        <v>338</v>
+        <v>9</v>
       </c>
       <c r="G393" s="1"/>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
-        <v>1920</v>
+        <v>1860</v>
       </c>
       <c r="B394" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>339</v>
+        <v>109</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>340</v>
+        <v>110</v>
       </c>
       <c r="E394" s="1" t="s">
-        <v>341</v>
+        <v>111</v>
       </c>
       <c r="F394" s="1" t="s">
-        <v>342</v>
+        <v>9</v>
       </c>
       <c r="G394" s="1"/>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
-        <v>1921</v>
+        <v>1861</v>
       </c>
       <c r="B395" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>343</v>
+        <v>112</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>344</v>
+        <v>113</v>
       </c>
       <c r="E395" s="1" t="s">
-        <v>345</v>
+        <v>114</v>
       </c>
       <c r="F395" s="1" t="s">
-        <v>346</v>
+        <v>9</v>
       </c>
       <c r="G395" s="1"/>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
-        <v>1922</v>
+        <v>1862</v>
       </c>
       <c r="B396" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>347</v>
+        <v>115</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>348</v>
+        <v>116</v>
       </c>
       <c r="E396" s="1" t="s">
-        <v>349</v>
+        <v>117</v>
       </c>
       <c r="F396" s="1" t="s">
-        <v>350</v>
+        <v>9</v>
       </c>
       <c r="G396" s="1"/>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
-        <v>1923</v>
+        <v>1863</v>
       </c>
       <c r="B397" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>351</v>
+        <v>118</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>352</v>
+        <v>119</v>
       </c>
       <c r="E397" s="1" t="s">
-        <v>353</v>
+        <v>120</v>
       </c>
       <c r="F397" s="1" t="s">
-        <v>354</v>
+        <v>9</v>
       </c>
       <c r="G397" s="1"/>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
-        <v>1924</v>
+        <v>1864</v>
       </c>
       <c r="B398" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>355</v>
+        <v>121</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>356</v>
+        <v>122</v>
       </c>
       <c r="E398" s="1" t="s">
-        <v>357</v>
+        <v>123</v>
       </c>
       <c r="F398" s="1" t="s">
-        <v>358</v>
+        <v>124</v>
       </c>
       <c r="G398" s="1"/>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
-        <v>1925</v>
+        <v>1865</v>
       </c>
       <c r="B399" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>359</v>
+        <v>125</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>360</v>
+        <v>126</v>
       </c>
       <c r="E399" s="1" t="s">
-        <v>361</v>
+        <v>127</v>
       </c>
       <c r="F399" s="1" t="s">
-        <v>362</v>
+        <v>128</v>
       </c>
       <c r="G399" s="1"/>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
-        <v>1926</v>
+        <v>1866</v>
       </c>
       <c r="B400" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>363</v>
+        <v>129</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>364</v>
+        <v>130</v>
       </c>
       <c r="E400" s="1" t="s">
-        <v>365</v>
+        <v>131</v>
       </c>
       <c r="F400" s="1" t="s">
-        <v>366</v>
+        <v>9</v>
       </c>
       <c r="G400" s="1"/>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
-        <v>1927</v>
+        <v>1867</v>
       </c>
       <c r="B401" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>367</v>
+        <v>132</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>368</v>
+        <v>133</v>
       </c>
       <c r="E401" s="1" t="s">
-        <v>369</v>
+        <v>134</v>
       </c>
       <c r="F401" s="1" t="s">
-        <v>370</v>
+        <v>135</v>
       </c>
       <c r="G401" s="1"/>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
-        <v>1928</v>
+        <v>1868</v>
       </c>
       <c r="B402" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>371</v>
+        <v>136</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>372</v>
+        <v>137</v>
       </c>
       <c r="E402" s="1" t="s">
-        <v>373</v>
+        <v>138</v>
       </c>
       <c r="F402" s="1" t="s">
-        <v>374</v>
+        <v>139</v>
       </c>
       <c r="G402" s="1"/>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
-        <v>1929</v>
+        <v>1869</v>
       </c>
       <c r="B403" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>375</v>
+        <v>140</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>376</v>
+        <v>141</v>
       </c>
       <c r="E403" s="1" t="s">
-        <v>377</v>
+        <v>142</v>
       </c>
       <c r="F403" s="1" t="s">
-        <v>378</v>
+        <v>143</v>
       </c>
       <c r="G403" s="1"/>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
-        <v>1930</v>
+        <v>1870</v>
       </c>
       <c r="B404" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>379</v>
+        <v>144</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>380</v>
+        <v>145</v>
       </c>
       <c r="E404" s="1" t="s">
-        <v>381</v>
+        <v>146</v>
       </c>
       <c r="F404" s="1" t="s">
-        <v>382</v>
+        <v>147</v>
       </c>
       <c r="G404" s="1"/>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
-        <v>1931</v>
+        <v>1871</v>
       </c>
       <c r="B405" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>383</v>
+        <v>148</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>384</v>
+        <v>149</v>
       </c>
       <c r="E405" s="1" t="s">
-        <v>385</v>
+        <v>150</v>
       </c>
       <c r="F405" s="1" t="s">
-        <v>386</v>
+        <v>151</v>
       </c>
       <c r="G405" s="1"/>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
-        <v>1932</v>
+        <v>1872</v>
       </c>
       <c r="B406" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>387</v>
+        <v>152</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>388</v>
+        <v>153</v>
       </c>
       <c r="E406" s="1" t="s">
-        <v>389</v>
+        <v>154</v>
       </c>
       <c r="F406" s="1" t="s">
-        <v>390</v>
+        <v>155</v>
       </c>
       <c r="G406" s="1"/>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
-        <v>1933</v>
+        <v>1873</v>
       </c>
       <c r="B407" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>391</v>
+        <v>156</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>392</v>
+        <v>157</v>
       </c>
       <c r="E407" s="1" t="s">
-        <v>393</v>
+        <v>158</v>
       </c>
       <c r="F407" s="1" t="s">
-        <v>394</v>
+        <v>159</v>
       </c>
       <c r="G407" s="1"/>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
-        <v>1934</v>
+        <v>1874</v>
       </c>
       <c r="B408" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>395</v>
+        <v>160</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>396</v>
+        <v>161</v>
       </c>
       <c r="E408" s="1" t="s">
-        <v>397</v>
+        <v>162</v>
       </c>
       <c r="F408" s="1" t="s">
-        <v>398</v>
+        <v>163</v>
       </c>
       <c r="G408" s="1"/>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
-        <v>1935</v>
+        <v>1875</v>
       </c>
       <c r="B409" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>399</v>
+        <v>164</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>400</v>
+        <v>165</v>
       </c>
       <c r="E409" s="1" t="s">
-        <v>401</v>
+        <v>166</v>
       </c>
       <c r="F409" s="1" t="s">
-        <v>402</v>
+        <v>167</v>
       </c>
       <c r="G409" s="1"/>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
-        <v>1936</v>
+        <v>1876</v>
       </c>
       <c r="B410" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>403</v>
+        <v>168</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>404</v>
+        <v>169</v>
       </c>
       <c r="E410" s="1" t="s">
-        <v>405</v>
+        <v>170</v>
       </c>
       <c r="F410" s="1" t="s">
-        <v>406</v>
+        <v>171</v>
       </c>
       <c r="G410" s="1"/>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
-        <v>1937</v>
+        <v>1877</v>
       </c>
       <c r="B411" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>407</v>
+        <v>172</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>408</v>
+        <v>173</v>
       </c>
       <c r="E411" s="1" t="s">
-        <v>409</v>
+        <v>174</v>
       </c>
       <c r="F411" s="1" t="s">
-        <v>410</v>
+        <v>175</v>
       </c>
       <c r="G411" s="1"/>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
-        <v>1938</v>
+        <v>1878</v>
       </c>
       <c r="B412" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>411</v>
+        <v>176</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>412</v>
+        <v>177</v>
       </c>
       <c r="E412" s="1" t="s">
-        <v>413</v>
+        <v>178</v>
       </c>
       <c r="F412" s="1" t="s">
-        <v>414</v>
+        <v>179</v>
       </c>
       <c r="G412" s="1"/>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
-        <v>1939</v>
+        <v>1879</v>
       </c>
       <c r="B413" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>415</v>
+        <v>180</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>416</v>
+        <v>181</v>
       </c>
       <c r="E413" s="1" t="s">
-        <v>417</v>
+        <v>182</v>
       </c>
       <c r="F413" s="1" t="s">
-        <v>418</v>
+        <v>183</v>
       </c>
       <c r="G413" s="1"/>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
-        <v>1940</v>
+        <v>1880</v>
       </c>
       <c r="B414" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>419</v>
+        <v>184</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>420</v>
+        <v>185</v>
       </c>
       <c r="E414" s="1" t="s">
-        <v>421</v>
+        <v>186</v>
       </c>
       <c r="F414" s="1" t="s">
-        <v>422</v>
+        <v>187</v>
       </c>
       <c r="G414" s="1"/>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
-        <v>1941</v>
+        <v>1881</v>
       </c>
       <c r="B415" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>423</v>
+        <v>188</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>424</v>
+        <v>189</v>
       </c>
       <c r="E415" s="1" t="s">
-        <v>425</v>
+        <v>190</v>
       </c>
       <c r="F415" s="1" t="s">
-        <v>426</v>
+        <v>191</v>
       </c>
       <c r="G415" s="1"/>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
-        <v>1942</v>
+        <v>1882</v>
       </c>
       <c r="B416" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>427</v>
+        <v>192</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>428</v>
+        <v>193</v>
       </c>
       <c r="E416" s="1" t="s">
-        <v>429</v>
+        <v>194</v>
       </c>
       <c r="F416" s="1" t="s">
-        <v>430</v>
+        <v>195</v>
       </c>
       <c r="G416" s="1"/>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
-        <v>1943</v>
+        <v>1883</v>
       </c>
       <c r="B417" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>431</v>
+        <v>196</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>432</v>
+        <v>197</v>
       </c>
       <c r="E417" s="1" t="s">
-        <v>433</v>
+        <v>198</v>
       </c>
       <c r="F417" s="1" t="s">
-        <v>434</v>
+        <v>199</v>
       </c>
       <c r="G417" s="1"/>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
-        <v>1944</v>
+        <v>1884</v>
       </c>
       <c r="B418" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>435</v>
+        <v>200</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>436</v>
+        <v>201</v>
       </c>
       <c r="E418" s="1" t="s">
-        <v>437</v>
+        <v>202</v>
       </c>
       <c r="F418" s="1" t="s">
-        <v>438</v>
+        <v>203</v>
       </c>
       <c r="G418" s="1"/>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
-        <v>1945</v>
+        <v>1885</v>
       </c>
       <c r="B419" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>439</v>
+        <v>204</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>440</v>
+        <v>205</v>
       </c>
       <c r="E419" s="1" t="s">
-        <v>441</v>
+        <v>206</v>
       </c>
       <c r="F419" s="1" t="s">
-        <v>442</v>
+        <v>207</v>
       </c>
       <c r="G419" s="1"/>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
-        <v>1946</v>
+        <v>1886</v>
       </c>
       <c r="B420" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>443</v>
+        <v>204</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>444</v>
+        <v>208</v>
       </c>
       <c r="E420" s="1" t="s">
-        <v>445</v>
+        <v>209</v>
       </c>
       <c r="F420" s="1" t="s">
-        <v>446</v>
+        <v>210</v>
       </c>
       <c r="G420" s="1"/>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
-        <v>1947</v>
+        <v>1887</v>
       </c>
       <c r="B421" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>447</v>
+        <v>211</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>448</v>
+        <v>212</v>
       </c>
       <c r="E421" s="1" t="s">
-        <v>449</v>
+        <v>213</v>
       </c>
       <c r="F421" s="1" t="s">
-        <v>450</v>
+        <v>214</v>
       </c>
       <c r="G421" s="1"/>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
-        <v>1948</v>
+        <v>1888</v>
       </c>
       <c r="B422" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>451</v>
+        <v>215</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>452</v>
+        <v>216</v>
       </c>
       <c r="E422" s="1" t="s">
-        <v>453</v>
+        <v>217</v>
       </c>
       <c r="F422" s="1" t="s">
-        <v>454</v>
+        <v>218</v>
       </c>
       <c r="G422" s="1"/>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
-        <v>1949</v>
+        <v>1889</v>
       </c>
       <c r="B423" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>455</v>
+        <v>219</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>456</v>
+        <v>220</v>
       </c>
       <c r="E423" s="1" t="s">
-        <v>457</v>
+        <v>221</v>
       </c>
       <c r="F423" s="1" t="s">
-        <v>458</v>
+        <v>222</v>
       </c>
       <c r="G423" s="1"/>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
-        <v>1950</v>
+        <v>1890</v>
       </c>
       <c r="B424" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>459</v>
+        <v>223</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>460</v>
+        <v>224</v>
       </c>
       <c r="E424" s="1" t="s">
-        <v>461</v>
+        <v>225</v>
       </c>
       <c r="F424" s="1" t="s">
-        <v>462</v>
+        <v>226</v>
       </c>
       <c r="G424" s="1"/>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
-        <v>1951</v>
+        <v>1891</v>
       </c>
       <c r="B425" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>463</v>
+        <v>227</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>464</v>
+        <v>228</v>
       </c>
       <c r="E425" s="1" t="s">
-        <v>465</v>
+        <v>229</v>
       </c>
       <c r="F425" s="1" t="s">
-        <v>466</v>
+        <v>230</v>
       </c>
       <c r="G425" s="1"/>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
-        <v>1952</v>
+        <v>1892</v>
       </c>
       <c r="B426" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>467</v>
+        <v>231</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>468</v>
+        <v>232</v>
       </c>
       <c r="E426" s="1" t="s">
-        <v>469</v>
+        <v>233</v>
       </c>
       <c r="F426" s="1" t="s">
-        <v>470</v>
+        <v>234</v>
       </c>
       <c r="G426" s="1"/>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
-        <v>1953</v>
+        <v>1893</v>
       </c>
       <c r="B427" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>471</v>
+        <v>235</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>472</v>
+        <v>236</v>
       </c>
       <c r="E427" s="1" t="s">
-        <v>473</v>
+        <v>237</v>
       </c>
       <c r="F427" s="1" t="s">
-        <v>474</v>
+        <v>238</v>
       </c>
       <c r="G427" s="1"/>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
-        <v>1954</v>
+        <v>1894</v>
       </c>
       <c r="B428" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>475</v>
+        <v>239</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>476</v>
+        <v>240</v>
       </c>
       <c r="E428" s="1" t="s">
-        <v>477</v>
+        <v>241</v>
       </c>
       <c r="F428" s="1" t="s">
-        <v>478</v>
+        <v>242</v>
       </c>
       <c r="G428" s="1"/>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
-        <v>1955</v>
+        <v>1895</v>
       </c>
       <c r="B429" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>479</v>
+        <v>243</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>480</v>
+        <v>244</v>
       </c>
       <c r="E429" s="1" t="s">
-        <v>481</v>
+        <v>245</v>
       </c>
       <c r="F429" s="1" t="s">
-        <v>482</v>
+        <v>246</v>
       </c>
       <c r="G429" s="1"/>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
-        <v>1956</v>
+        <v>1896</v>
       </c>
       <c r="B430" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>483</v>
+        <v>247</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>484</v>
+        <v>248</v>
       </c>
       <c r="E430" s="1" t="s">
-        <v>485</v>
+        <v>249</v>
       </c>
       <c r="F430" s="1" t="s">
-        <v>486</v>
+        <v>250</v>
       </c>
       <c r="G430" s="1"/>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
-        <v>1957</v>
+        <v>1897</v>
       </c>
       <c r="B431" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>487</v>
+        <v>251</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>488</v>
+        <v>252</v>
       </c>
       <c r="E431" s="1" t="s">
-        <v>489</v>
+        <v>253</v>
       </c>
       <c r="F431" s="1" t="s">
-        <v>490</v>
+        <v>254</v>
       </c>
       <c r="G431" s="1"/>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
-        <v>1958</v>
+        <v>1898</v>
       </c>
       <c r="B432" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>491</v>
+        <v>255</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>492</v>
+        <v>256</v>
       </c>
       <c r="E432" s="1" t="s">
-        <v>493</v>
+        <v>257</v>
       </c>
       <c r="F432" s="1" t="s">
-        <v>494</v>
+        <v>258</v>
       </c>
       <c r="G432" s="1"/>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
-        <v>1959</v>
+        <v>1899</v>
       </c>
       <c r="B433" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>495</v>
+        <v>259</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="E433" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="F433" s="1" t="s">
-        <v>498</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="E433" s="1"/>
+      <c r="F433" s="1"/>
       <c r="G433" s="1"/>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
-        <v>1960</v>
+        <v>1900</v>
       </c>
       <c r="B434" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>499</v>
+        <v>261</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>500</v>
+        <v>262</v>
       </c>
       <c r="E434" s="1" t="s">
-        <v>501</v>
+        <v>263</v>
       </c>
       <c r="F434" s="1" t="s">
-        <v>502</v>
+        <v>264</v>
       </c>
       <c r="G434" s="1"/>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
-        <v>1961</v>
+        <v>1901</v>
       </c>
       <c r="B435" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>503</v>
+        <v>265</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>504</v>
+        <v>266</v>
       </c>
       <c r="E435" s="1" t="s">
-        <v>505</v>
+        <v>267</v>
       </c>
       <c r="F435" s="1" t="s">
-        <v>506</v>
+        <v>268</v>
       </c>
       <c r="G435" s="1"/>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
-        <v>1962</v>
+        <v>1902</v>
       </c>
       <c r="B436" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>507</v>
+        <v>269</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>508</v>
+        <v>270</v>
       </c>
       <c r="E436" s="1" t="s">
-        <v>509</v>
+        <v>271</v>
       </c>
       <c r="F436" s="1" t="s">
-        <v>510</v>
+        <v>272</v>
       </c>
       <c r="G436" s="1"/>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
-        <v>1963</v>
+        <v>1903</v>
       </c>
       <c r="B437" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>511</v>
+        <v>6</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>512</v>
+        <v>273</v>
       </c>
       <c r="E437" s="1" t="s">
-        <v>513</v>
+        <v>274</v>
       </c>
       <c r="F437" s="1" t="s">
-        <v>514</v>
+        <v>275</v>
       </c>
       <c r="G437" s="1"/>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
-        <v>1964</v>
+        <v>1904</v>
       </c>
       <c r="B438" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>515</v>
+        <v>276</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>516</v>
+        <v>277</v>
       </c>
       <c r="E438" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="F438" s="1" t="s">
-        <v>518</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="F438" s="1"/>
       <c r="G438" s="1"/>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
-        <v>1965</v>
+        <v>1905</v>
       </c>
       <c r="B439" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>519</v>
+        <v>279</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>520</v>
+        <v>280</v>
       </c>
       <c r="E439" s="1" t="s">
-        <v>521</v>
+        <v>281</v>
       </c>
       <c r="F439" s="1" t="s">
-        <v>522</v>
+        <v>282</v>
       </c>
       <c r="G439" s="1"/>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
-        <v>1966</v>
+        <v>1906</v>
       </c>
       <c r="B440" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>523</v>
+        <v>283</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>524</v>
+        <v>284</v>
       </c>
       <c r="E440" s="1" t="s">
-        <v>525</v>
+        <v>285</v>
       </c>
       <c r="F440" s="1" t="s">
-        <v>526</v>
+        <v>286</v>
       </c>
       <c r="G440" s="1"/>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
-        <v>1967</v>
+        <v>1907</v>
       </c>
       <c r="B441" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>527</v>
+        <v>287</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>528</v>
+        <v>288</v>
       </c>
       <c r="E441" s="1" t="s">
-        <v>529</v>
+        <v>289</v>
       </c>
       <c r="F441" s="1" t="s">
-        <v>530</v>
+        <v>290</v>
       </c>
       <c r="G441" s="1"/>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
-        <v>1968</v>
+        <v>1908</v>
       </c>
       <c r="B442" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>531</v>
+        <v>291</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>532</v>
+        <v>292</v>
       </c>
       <c r="E442" s="1" t="s">
-        <v>533</v>
+        <v>293</v>
       </c>
       <c r="F442" s="1" t="s">
-        <v>534</v>
+        <v>294</v>
       </c>
       <c r="G442" s="1"/>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
-        <v>1969</v>
+        <v>1909</v>
       </c>
       <c r="B443" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>535</v>
+        <v>295</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>536</v>
+        <v>296</v>
       </c>
       <c r="E443" s="1" t="s">
-        <v>537</v>
+        <v>297</v>
       </c>
       <c r="F443" s="1" t="s">
-        <v>538</v>
+        <v>298</v>
       </c>
       <c r="G443" s="1"/>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
-        <v>1970</v>
+        <v>1910</v>
       </c>
       <c r="B444" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>539</v>
+        <v>299</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="E444" s="1" t="s">
-        <v>541</v>
+        <v>301</v>
       </c>
       <c r="F444" s="1" t="s">
-        <v>542</v>
+        <v>302</v>
       </c>
       <c r="G444" s="1"/>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
-        <v>1971</v>
+        <v>1911</v>
       </c>
       <c r="B445" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>543</v>
+        <v>303</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>544</v>
+        <v>304</v>
       </c>
       <c r="E445" s="1" t="s">
-        <v>545</v>
+        <v>305</v>
       </c>
       <c r="F445" s="1" t="s">
-        <v>546</v>
+        <v>306</v>
       </c>
       <c r="G445" s="1"/>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
-        <v>1972</v>
+        <v>1912</v>
       </c>
       <c r="B446" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>547</v>
+        <v>307</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>548</v>
+        <v>308</v>
       </c>
       <c r="E446" s="1" t="s">
-        <v>549</v>
+        <v>309</v>
       </c>
       <c r="F446" s="1" t="s">
-        <v>550</v>
+        <v>310</v>
       </c>
       <c r="G446" s="1"/>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
-        <v>1973</v>
+        <v>1913</v>
       </c>
       <c r="B447" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>551</v>
+        <v>311</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>552</v>
+        <v>312</v>
       </c>
       <c r="E447" s="1" t="s">
-        <v>553</v>
+        <v>313</v>
       </c>
       <c r="F447" s="1" t="s">
-        <v>554</v>
+        <v>314</v>
       </c>
       <c r="G447" s="1"/>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
-        <v>1974</v>
+        <v>1914</v>
       </c>
       <c r="B448" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>555</v>
+        <v>315</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>556</v>
+        <v>316</v>
       </c>
       <c r="E448" s="1" t="s">
-        <v>557</v>
+        <v>317</v>
       </c>
       <c r="F448" s="1" t="s">
-        <v>558</v>
+        <v>318</v>
       </c>
       <c r="G448" s="1"/>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="s">
-        <v>1975</v>
+        <v>1915</v>
       </c>
       <c r="B449" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>559</v>
+        <v>319</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>560</v>
+        <v>320</v>
       </c>
       <c r="E449" s="1" t="s">
-        <v>561</v>
+        <v>321</v>
       </c>
       <c r="F449" s="1" t="s">
-        <v>562</v>
+        <v>322</v>
       </c>
       <c r="G449" s="1"/>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
-        <v>1976</v>
+        <v>1916</v>
       </c>
       <c r="B450" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>563</v>
+        <v>323</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>564</v>
+        <v>324</v>
       </c>
       <c r="E450" s="1" t="s">
-        <v>565</v>
+        <v>325</v>
       </c>
       <c r="F450" s="1" t="s">
-        <v>566</v>
+        <v>326</v>
       </c>
       <c r="G450" s="1"/>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B451" s="1">
+        <v>28</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D451" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E451" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F451" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G451" s="1"/>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A452" s="1" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B452" s="1">
+        <v>29</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D452" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E452" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F452" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G452" s="1"/>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A453" s="1" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B453" s="1">
+        <v>29</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D453" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E453" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F453" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G453" s="1"/>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A454" s="1" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B454" s="1">
+        <v>29</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D454" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E454" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F454" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G454" s="1"/>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A455" s="1" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B455" s="1">
+        <v>29</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D455" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E455" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F455" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G455" s="1"/>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A456" s="1" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B456" s="1">
+        <v>29</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D456" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E456" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F456" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G456" s="1"/>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A457" s="1" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B457" s="1">
+        <v>29</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D457" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E457" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F457" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G457" s="1"/>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A458" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B458" s="1">
+        <v>29</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D458" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E458" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F458" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G458" s="1"/>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A459" s="1" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B459" s="1">
+        <v>29</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D459" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E459" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F459" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G459" s="1"/>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A460" s="1" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B460" s="1">
+        <v>29</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D460" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E460" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F460" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G460" s="1"/>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A461" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B461" s="1">
+        <v>29</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D461" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E461" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F461" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="G461" s="1"/>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A462" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B462" s="1">
+        <v>29</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D462" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E462" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F462" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G462" s="1"/>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A463" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B463" s="1">
+        <v>29</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D463" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E463" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F463" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G463" s="1"/>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A464" s="1" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B464" s="1">
+        <v>29</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D464" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E464" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F464" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G464" s="1"/>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A465" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B465" s="1">
+        <v>29</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D465" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E465" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F465" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="G465" s="1"/>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A466" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B466" s="1">
+        <v>29</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D466" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E466" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F466" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="G466" s="1"/>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A467" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B467" s="1">
+        <v>29</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D467" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E467" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F467" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G467" s="1"/>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A468" s="1" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B468" s="1">
+        <v>29</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D468" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E468" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F468" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="G468" s="1"/>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A469" s="1" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B469" s="1">
+        <v>29</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D469" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E469" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F469" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="G469" s="1"/>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A470" s="1" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B470" s="1">
+        <v>29</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D470" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E470" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F470" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G470" s="1"/>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A471" s="1" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B471" s="1">
+        <v>29</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D471" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E471" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F471" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G471" s="1"/>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A472" s="1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B472" s="1">
+        <v>29</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D472" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E472" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F472" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="G472" s="1"/>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A473" s="1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B473" s="1">
+        <v>29</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D473" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E473" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F473" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G473" s="1"/>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A474" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B474" s="1">
+        <v>29</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D474" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E474" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F474" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G474" s="1"/>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A475" s="1" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B475" s="1">
+        <v>29</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D475" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E475" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="F475" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="G475" s="1"/>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A476" s="1" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B476" s="1">
+        <v>29</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D476" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E476" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="F476" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G476" s="1"/>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A477" s="1" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B477" s="1">
+        <v>29</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D477" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E477" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="F477" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="G477" s="1"/>
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A478" s="1" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B478" s="1">
+        <v>29</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D478" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E478" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F478" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="G478" s="1"/>
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A479" s="1" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B479" s="1">
+        <v>29</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D479" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E479" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="F479" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="G479" s="1"/>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A480" s="1" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B480" s="1">
+        <v>29</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D480" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E480" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F480" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G480" s="1"/>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A481" s="1" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B481" s="1">
+        <v>29</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D481" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E481" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F481" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="G481" s="1"/>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A482" s="1" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B482" s="1">
+        <v>30</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D482" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E482" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F482" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="G482" s="1"/>
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A483" s="1" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B483" s="1">
+        <v>30</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D483" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E483" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F483" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="G483" s="1"/>
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A484" s="1" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B484" s="1">
+        <v>30</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D484" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E484" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F484" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="G484" s="1"/>
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A485" s="1" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B485" s="1">
+        <v>30</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D485" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E485" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F485" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="G485" s="1"/>
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A486" s="1" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B486" s="1">
+        <v>30</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D486" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E486" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F486" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G486" s="1"/>
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A487" s="1" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B487" s="1">
+        <v>30</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D487" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E487" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F487" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G487" s="1"/>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A488" s="1" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B488" s="1">
+        <v>30</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D488" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E488" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F488" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="G488" s="1"/>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A489" s="1" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B489" s="1">
+        <v>30</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D489" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E489" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F489" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="G489" s="1"/>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A490" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B490" s="1">
+        <v>30</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D490" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E490" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F490" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G490" s="1"/>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A491" s="1" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B491" s="1">
+        <v>30</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D491" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E491" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F491" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G491" s="1"/>
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A492" s="1" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B492" s="1">
+        <v>30</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D492" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E492" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F492" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="G492" s="1"/>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A493" s="1" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B493" s="1">
+        <v>30</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D493" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E493" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F493" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="G493" s="1"/>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A494" s="1" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B494" s="1">
+        <v>30</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D494" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="E494" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F494" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="G494" s="1"/>
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A495" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B495" s="1">
+        <v>30</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D495" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E495" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F495" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G495" s="1"/>
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A496" s="1" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B496" s="1">
+        <v>30</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D496" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="E496" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F496" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="G496" s="1"/>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A497" s="1" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B497" s="1">
+        <v>30</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D497" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E497" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F497" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="G497" s="1"/>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A498" s="1" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B498" s="1">
+        <v>30</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D498" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E498" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="F498" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="G498" s="1"/>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A499" s="1" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B499" s="1">
+        <v>30</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D499" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E499" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F499" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G499" s="1"/>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A500" s="1" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B500" s="1">
+        <v>30</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D500" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E500" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="F500" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="G500" s="1"/>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A501" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B501" s="1">
+        <v>30</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D501" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E501" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F501" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="G501" s="1"/>
+    </row>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A502" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B502" s="1">
+        <v>30</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D502" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E502" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F502" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="G502" s="1"/>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A503" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B503" s="1">
+        <v>30</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D503" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="E503" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F503" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="G503" s="1"/>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A504" s="1" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B504" s="1">
+        <v>30</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D504" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E504" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="F504" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="G504" s="1"/>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A505" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B505" s="1">
+        <v>30</v>
+      </c>
+      <c r="C505" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D505" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="E505" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F505" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="G505" s="1"/>
+    </row>
+    <row r="506" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A506" s="1" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B506" s="1">
+        <v>30</v>
+      </c>
+      <c r="C506" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D506" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E506" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F506" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="G506" s="1"/>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A507" s="1" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B507" s="1">
+        <v>30</v>
+      </c>
+      <c r="C507" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D507" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E507" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F507" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="G507" s="1"/>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A508" s="1" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B508" s="1">
+        <v>30</v>
+      </c>
+      <c r="C508" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D508" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E508" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F508" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="G508" s="1"/>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A509" s="1" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B509" s="1">
+        <v>30</v>
+      </c>
+      <c r="C509" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D509" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E509" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F509" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="G509" s="1"/>
+    </row>
+    <row r="510" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A510" s="1" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B510" s="1">
+        <v>30</v>
+      </c>
+      <c r="C510" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D510" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E510" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F510" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="G510" s="1"/>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A511" s="1" t="s">
         <v>1977</v>
       </c>
-      <c r="B451" s="1">
+      <c r="B511" s="1">
         <v>30</v>
       </c>
-      <c r="C451" s="1" t="s">
+      <c r="C511" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D451" s="1" t="s">
+      <c r="D511" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="E451" s="1" t="s">
+      <c r="E511" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="F451" s="1" t="s">
+      <c r="F511" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="G451" s="1"/>
+      <c r="G511" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/WordStudy.xlsx
+++ b/data/WordStudy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenlephong/Documents/Projects/english-app/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dom/Documents/Dom/english-app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE953026-3B55-544E-8684-C779A78636C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5A7A90-A1CE-C64D-8623-8F06E081BF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50380" yWindow="1600" windowWidth="33600" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2914" uniqueCount="2511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3274" uniqueCount="2806">
   <si>
     <t>ID</t>
   </si>
@@ -7563,6 +7563,891 @@
   </si>
   <si>
     <t>Please leave me in peace</t>
+  </si>
+  <si>
+    <t>U13_01</t>
+  </si>
+  <si>
+    <t>U13_02</t>
+  </si>
+  <si>
+    <t>U13_03</t>
+  </si>
+  <si>
+    <t>U13_04</t>
+  </si>
+  <si>
+    <t>U13_05</t>
+  </si>
+  <si>
+    <t>U13_06</t>
+  </si>
+  <si>
+    <t>U13_07</t>
+  </si>
+  <si>
+    <t>U13_08</t>
+  </si>
+  <si>
+    <t>U13_09</t>
+  </si>
+  <si>
+    <t>U13_10</t>
+  </si>
+  <si>
+    <t>U13_11</t>
+  </si>
+  <si>
+    <t>U13_12</t>
+  </si>
+  <si>
+    <t>U13_13</t>
+  </si>
+  <si>
+    <t>U13_14</t>
+  </si>
+  <si>
+    <t>U13_15</t>
+  </si>
+  <si>
+    <t>U13_16</t>
+  </si>
+  <si>
+    <t>U13_17</t>
+  </si>
+  <si>
+    <t>U13_18</t>
+  </si>
+  <si>
+    <t>U13_19</t>
+  </si>
+  <si>
+    <t>U13_20</t>
+  </si>
+  <si>
+    <t>U13_21</t>
+  </si>
+  <si>
+    <t>U13_22</t>
+  </si>
+  <si>
+    <t>U13_23</t>
+  </si>
+  <si>
+    <t>U13_24</t>
+  </si>
+  <si>
+    <t>U13_25</t>
+  </si>
+  <si>
+    <t>U13_26</t>
+  </si>
+  <si>
+    <t>U13_27</t>
+  </si>
+  <si>
+    <t>U13_28</t>
+  </si>
+  <si>
+    <t>U13_29</t>
+  </si>
+  <si>
+    <t>U13_30</t>
+  </si>
+  <si>
+    <t>Liên lạc, giúp đỡ</t>
+  </si>
+  <si>
+    <t>Reach out</t>
+  </si>
+  <si>
+    <t>He reaches out to me for help</t>
+  </si>
+  <si>
+    <t>Reach out to somebody</t>
+  </si>
+  <si>
+    <t>Bí mật</t>
+  </si>
+  <si>
+    <t>Secret</t>
+  </si>
+  <si>
+    <t>She cannot keep a secret</t>
+  </si>
+  <si>
+    <t>keep a secret</t>
+  </si>
+  <si>
+    <t>Vấn đề</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>Cheating is a big issue in a marriage</t>
+  </si>
+  <si>
+    <t>A big issue</t>
+  </si>
+  <si>
+    <t>Bất ngờ</t>
+  </si>
+  <si>
+    <t>Surprised</t>
+  </si>
+  <si>
+    <t>I am surprised by my friends</t>
+  </si>
+  <si>
+    <t>Surprised by something or somebody</t>
+  </si>
+  <si>
+    <t>Phản ứng</t>
+  </si>
+  <si>
+    <t>Reaction</t>
+  </si>
+  <si>
+    <t>Surprise is her immediate reaction</t>
+  </si>
+  <si>
+    <t>an immediate reaction</t>
+  </si>
+  <si>
+    <t>Đáng sợ</t>
+  </si>
+  <si>
+    <t>Scary</t>
+  </si>
+  <si>
+    <t>She never watches scary movies</t>
+  </si>
+  <si>
+    <t>a scary movie</t>
+  </si>
+  <si>
+    <t>Mong ước</t>
+  </si>
+  <si>
+    <t>Wish</t>
+  </si>
+  <si>
+    <t>She wishes to travel around the world</t>
+  </si>
+  <si>
+    <t>Wish to do something</t>
+  </si>
+  <si>
+    <t>Tiếc nuối, ân hận</t>
+  </si>
+  <si>
+    <t>Regret</t>
+  </si>
+  <si>
+    <t>I regret being rude to my brother</t>
+  </si>
+  <si>
+    <t>regret doing something</t>
+  </si>
+  <si>
+    <t>Dễ chịu</t>
+  </si>
+  <si>
+    <t>Pleasant</t>
+  </si>
+  <si>
+    <t>Her visit was such a pleasant surprise</t>
+  </si>
+  <si>
+    <t>A pleasant surprise</t>
+  </si>
+  <si>
+    <t>Cheer up</t>
+  </si>
+  <si>
+    <t>Her friend tries to cheer her up after the breakup</t>
+  </si>
+  <si>
+    <t>Cheer somebody up</t>
+  </si>
+  <si>
+    <t>Giận dữ</t>
+  </si>
+  <si>
+    <t>Angry</t>
+  </si>
+  <si>
+    <t>I am really angry with my parents</t>
+  </si>
+  <si>
+    <t>angry with somebody</t>
+  </si>
+  <si>
+    <t>Hiểu</t>
+  </si>
+  <si>
+    <t>Understand</t>
+  </si>
+  <si>
+    <t>My parents never fully understand me</t>
+  </si>
+  <si>
+    <t>fully understand</t>
+  </si>
+  <si>
+    <t>Xấu hổ, nhút nhát</t>
+  </si>
+  <si>
+    <t>Shy</t>
+  </si>
+  <si>
+    <t>She is a shy person</t>
+  </si>
+  <si>
+    <t>A shy person / một người nhút nhát</t>
+  </si>
+  <si>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t>What can I do to make society better as an individual</t>
+  </si>
+  <si>
+    <t>as an individual</t>
+  </si>
+  <si>
+    <t>Sự lo lắng</t>
+  </si>
+  <si>
+    <t>Anxiety</t>
+  </si>
+  <si>
+    <t>I have anxiety about public speaking</t>
+  </si>
+  <si>
+    <t>have anxiety about something</t>
+  </si>
+  <si>
+    <t>Sự chú ý</t>
+  </si>
+  <si>
+    <t>Attention</t>
+  </si>
+  <si>
+    <t>Please pay attention to the talk</t>
+  </si>
+  <si>
+    <t>pay attention to / chú ý đến</t>
+  </si>
+  <si>
+    <t>Giải phóng</t>
+  </si>
+  <si>
+    <t>Release</t>
+  </si>
+  <si>
+    <t>Writing is a great way to release anger</t>
+  </si>
+  <si>
+    <t>release anger</t>
+  </si>
+  <si>
+    <t>Độc hại</t>
+  </si>
+  <si>
+    <t>Toxic</t>
+  </si>
+  <si>
+    <t>Factories release so much toxic waste</t>
+  </si>
+  <si>
+    <t>toxic waste / chất thải độc hại</t>
+  </si>
+  <si>
+    <t>Niềm hạnh phúc</t>
+  </si>
+  <si>
+    <t>Happiness</t>
+  </si>
+  <si>
+    <t>Eating is true happiness</t>
+  </si>
+  <si>
+    <t>true happiness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tâm trạng </t>
+  </si>
+  <si>
+    <t>Mood</t>
+  </si>
+  <si>
+    <t>Nice weather puts me in a good mood</t>
+  </si>
+  <si>
+    <t>a good mood</t>
+  </si>
+  <si>
+    <t>Phát hiện ra, tìm ra</t>
+  </si>
+  <si>
+    <t>Find out</t>
+  </si>
+  <si>
+    <t>Visit our website to find out more information</t>
+  </si>
+  <si>
+    <t>Find out more information</t>
+  </si>
+  <si>
+    <t>Lo lắng</t>
+  </si>
+  <si>
+    <t>Nervous</t>
+  </si>
+  <si>
+    <t>She is nervous about the interview tomorrow</t>
+  </si>
+  <si>
+    <t>nervous about something</t>
+  </si>
+  <si>
+    <t>Nỗi sợ</t>
+  </si>
+  <si>
+    <t>Fear</t>
+  </si>
+  <si>
+    <t>He is hiding in fear from his mother</t>
+  </si>
+  <si>
+    <t>in fear</t>
+  </si>
+  <si>
+    <t>Vui mừng, phấn khởi</t>
+  </si>
+  <si>
+    <t>Excited</t>
+  </si>
+  <si>
+    <t>She is obviously excited about her new work</t>
+  </si>
+  <si>
+    <t>excited about something</t>
+  </si>
+  <si>
+    <t>Gánh nặng</t>
+  </si>
+  <si>
+    <t>Burden</t>
+  </si>
+  <si>
+    <t>Don't be a burden to your family</t>
+  </si>
+  <si>
+    <t>a burden to somebody</t>
+  </si>
+  <si>
+    <t>Hi vọng</t>
+  </si>
+  <si>
+    <t>Hope</t>
+  </si>
+  <si>
+    <t>I hope to get 7 on the ielts test</t>
+  </si>
+  <si>
+    <t>Hope to do something</t>
+  </si>
+  <si>
+    <t>Buồn bã</t>
+  </si>
+  <si>
+    <t>upset</t>
+  </si>
+  <si>
+    <t>He is upset about his grades</t>
+  </si>
+  <si>
+    <t>upset about something</t>
+  </si>
+  <si>
+    <t>Khao khát</t>
+  </si>
+  <si>
+    <t>Desire</t>
+  </si>
+  <si>
+    <t>She has a strong desire to eat something sour</t>
+  </si>
+  <si>
+    <t>Strong desire to do something</t>
+  </si>
+  <si>
+    <t>Cô đơn</t>
+  </si>
+  <si>
+    <t>lonely</t>
+  </si>
+  <si>
+    <t>She feels lonely</t>
+  </si>
+  <si>
+    <t>despite being surrounded by people</t>
+  </si>
+  <si>
+    <t>Áp lực</t>
+  </si>
+  <si>
+    <t>Stress</t>
+  </si>
+  <si>
+    <t>Working under stress is a necessary skill</t>
+  </si>
+  <si>
+    <t>be under stress / Dưới áp lực</t>
+  </si>
+  <si>
+    <t>U14_01</t>
+  </si>
+  <si>
+    <t>U14_02</t>
+  </si>
+  <si>
+    <t>U14_03</t>
+  </si>
+  <si>
+    <t>U14_04</t>
+  </si>
+  <si>
+    <t>U14_05</t>
+  </si>
+  <si>
+    <t>U14_06</t>
+  </si>
+  <si>
+    <t>U14_07</t>
+  </si>
+  <si>
+    <t>U14_08</t>
+  </si>
+  <si>
+    <t>U14_09</t>
+  </si>
+  <si>
+    <t>U14_10</t>
+  </si>
+  <si>
+    <t>U14_11</t>
+  </si>
+  <si>
+    <t>U14_12</t>
+  </si>
+  <si>
+    <t>U14_13</t>
+  </si>
+  <si>
+    <t>U14_14</t>
+  </si>
+  <si>
+    <t>U14_15</t>
+  </si>
+  <si>
+    <t>U14_16</t>
+  </si>
+  <si>
+    <t>U14_17</t>
+  </si>
+  <si>
+    <t>U14_18</t>
+  </si>
+  <si>
+    <t>U14_19</t>
+  </si>
+  <si>
+    <t>U14_20</t>
+  </si>
+  <si>
+    <t>U14_21</t>
+  </si>
+  <si>
+    <t>U14_22</t>
+  </si>
+  <si>
+    <t>U14_23</t>
+  </si>
+  <si>
+    <t>U14_24</t>
+  </si>
+  <si>
+    <t>U14_25</t>
+  </si>
+  <si>
+    <t>U14_26</t>
+  </si>
+  <si>
+    <t>U14_27</t>
+  </si>
+  <si>
+    <t>U14_28</t>
+  </si>
+  <si>
+    <t>U14_29</t>
+  </si>
+  <si>
+    <t>U14_30</t>
+  </si>
+  <si>
+    <t>Give up</t>
+  </si>
+  <si>
+    <t>I will never give up learning english</t>
+  </si>
+  <si>
+    <t>Give up doing something</t>
+  </si>
+  <si>
+    <t>Vượt qua</t>
+  </si>
+  <si>
+    <t>Overcome</t>
+  </si>
+  <si>
+    <t>She overcomes many obstacles in her life</t>
+  </si>
+  <si>
+    <t>Overcome an obstacle / vượt qua một trở ngại</t>
+  </si>
+  <si>
+    <t>Can đảm</t>
+  </si>
+  <si>
+    <t>Courage</t>
+  </si>
+  <si>
+    <t>He gives me courage to quit my job</t>
+  </si>
+  <si>
+    <t>courage to do something</t>
+  </si>
+  <si>
+    <t>Đổ lỗi</t>
+  </si>
+  <si>
+    <t>Blame</t>
+  </si>
+  <si>
+    <t>He blames me for his broken bike</t>
+  </si>
+  <si>
+    <t>Blame somebody for something</t>
+  </si>
+  <si>
+    <t>Sống sót</t>
+  </si>
+  <si>
+    <t>Survive</t>
+  </si>
+  <si>
+    <t>We will survive the pandemic</t>
+  </si>
+  <si>
+    <t>survive something</t>
+  </si>
+  <si>
+    <t>Tiếp cận</t>
+  </si>
+  <si>
+    <t>Approach</t>
+  </si>
+  <si>
+    <t>He has to approach this problem differently</t>
+  </si>
+  <si>
+    <t>approach something</t>
+  </si>
+  <si>
+    <t>Chống lại, cưỡng lại</t>
+  </si>
+  <si>
+    <t>Resist</t>
+  </si>
+  <si>
+    <t>I cannot resist the urge to buy new clothes</t>
+  </si>
+  <si>
+    <t>Resist the urge to do something / cưỡng lại sự thôi thúc làm điều gì đó</t>
+  </si>
+  <si>
+    <t>Phát triển</t>
+  </si>
+  <si>
+    <t>Develop</t>
+  </si>
+  <si>
+    <t>They are developing a vacine for the virus</t>
+  </si>
+  <si>
+    <t>develop something</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>Nothing really works at this stage</t>
+  </si>
+  <si>
+    <t>at this stage</t>
+  </si>
+  <si>
+    <t>Nghĩ ra</t>
+  </si>
+  <si>
+    <t>Come up with</t>
+  </si>
+  <si>
+    <t>She always comes up with a new idea</t>
+  </si>
+  <si>
+    <t>come ưp with an idea</t>
+  </si>
+  <si>
+    <t>Sự lộn xộn</t>
+  </si>
+  <si>
+    <t>Mess</t>
+  </si>
+  <si>
+    <t>My brother cooked and made a mess of the kitchen</t>
+  </si>
+  <si>
+    <t>Make a mess</t>
+  </si>
+  <si>
+    <t>Sự dẫn dắt</t>
+  </si>
+  <si>
+    <t>Lead</t>
+  </si>
+  <si>
+    <t>She takes the lead of the group project</t>
+  </si>
+  <si>
+    <t>Take the lead</t>
+  </si>
+  <si>
+    <t>Phức tạp</t>
+  </si>
+  <si>
+    <t>Complicated</t>
+  </si>
+  <si>
+    <t>Relax! We don't have to make things complecated</t>
+  </si>
+  <si>
+    <t>make things complicated</t>
+  </si>
+  <si>
+    <t>Bước</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Please take a step back and give me some space</t>
+  </si>
+  <si>
+    <t>Take a step back</t>
+  </si>
+  <si>
+    <t>Realize</t>
+  </si>
+  <si>
+    <t>She realizes that he lied to her</t>
+  </si>
+  <si>
+    <t>realize something</t>
+  </si>
+  <si>
+    <t>Cay đắng, gay gắt</t>
+  </si>
+  <si>
+    <t>Bitter</t>
+  </si>
+  <si>
+    <t>She gave me a bitter look</t>
+  </si>
+  <si>
+    <t>a bitter look</t>
+  </si>
+  <si>
+    <t>Chắc chắn</t>
+  </si>
+  <si>
+    <t>Sure</t>
+  </si>
+  <si>
+    <t>He is sure of his decision</t>
+  </si>
+  <si>
+    <t>sure of something</t>
+  </si>
+  <si>
+    <t>Guarantee</t>
+  </si>
+  <si>
+    <t>Đảm bảo</t>
+  </si>
+  <si>
+    <t>I cannot guarantee success for your plan</t>
+  </si>
+  <si>
+    <t>Guarantee something</t>
+  </si>
+  <si>
+    <t>Tư duy</t>
+  </si>
+  <si>
+    <t>Mindset</t>
+  </si>
+  <si>
+    <t>He has a very different mindset</t>
+  </si>
+  <si>
+    <t>a different mindset</t>
+  </si>
+  <si>
+    <t>Cố gắng thử</t>
+  </si>
+  <si>
+    <t>Attempt</t>
+  </si>
+  <si>
+    <t>I attempt to reach out to her</t>
+  </si>
+  <si>
+    <t>Attempt to do something</t>
+  </si>
+  <si>
+    <t>Thuộc về cảm xúc, dễ xúc động</t>
+  </si>
+  <si>
+    <t>Emotional</t>
+  </si>
+  <si>
+    <t>She becomes emotional about his situation</t>
+  </si>
+  <si>
+    <t>Emotional about something</t>
+  </si>
+  <si>
+    <t>Kinh khủng, tồi tệ</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>A hangover is a horrible experience</t>
+  </si>
+  <si>
+    <t>A horrible experience</t>
+  </si>
+  <si>
+    <t>Rất lớn</t>
+  </si>
+  <si>
+    <t>Enormous</t>
+  </si>
+  <si>
+    <t>He eats an enormous amount of food</t>
+  </si>
+  <si>
+    <t>An enormous amount / một lượng cực lớn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cực kỳ, quá mức </t>
+  </si>
+  <si>
+    <t>Extreme</t>
+  </si>
+  <si>
+    <t>Many countries are suffering from extreme weather</t>
+  </si>
+  <si>
+    <t>extreme weather</t>
+  </si>
+  <si>
+    <t>Đón nhận</t>
+  </si>
+  <si>
+    <t>Embrace</t>
+  </si>
+  <si>
+    <t>I will gladly embrace the opportunity</t>
+  </si>
+  <si>
+    <t>embrace an opportunity</t>
+  </si>
+  <si>
+    <t>Trải qua</t>
+  </si>
+  <si>
+    <t>Go through</t>
+  </si>
+  <si>
+    <t>He goes through ups and downs</t>
+  </si>
+  <si>
+    <t>Go through ups and downs / đi qua những thăng trầm</t>
+  </si>
+  <si>
+    <t>Chịu đựng</t>
+  </si>
+  <si>
+    <t>Suffer</t>
+  </si>
+  <si>
+    <t>His grandfather suffers from high blood pressure / huyết áp cao</t>
+  </si>
+  <si>
+    <t>Suffer from something / bị một bệnh gì đó / Chịu đựng thứ gì đó</t>
+  </si>
+  <si>
+    <t>Sức mạnh, quyền lực</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>You have the power to voice your opinion</t>
+  </si>
+  <si>
+    <t>Have power to do something | voice your opinion</t>
+  </si>
+  <si>
+    <t>Sự phát triển</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Challenges in life can promote personal growth</t>
+  </si>
+  <si>
+    <t>Personal growth</t>
+  </si>
+  <si>
+    <t>Cam kết</t>
+  </si>
+  <si>
+    <t>Commit</t>
+  </si>
+  <si>
+    <t>he can never commit to a relationship</t>
+  </si>
+  <si>
+    <t>commit to something</t>
   </si>
 </sst>
 </file>
@@ -7927,10 +8812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G511"/>
+  <dimension ref="A1:G571"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A338" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G361" sqref="G361"/>
+    <sheetView tabSelected="1" topLeftCell="B411" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G421" sqref="G421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16248,3147 +17133,4527 @@
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
-        <v>1828</v>
+        <v>2511</v>
       </c>
       <c r="B362" s="1">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>6</v>
+        <v>2541</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>7</v>
+        <v>2542</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>8</v>
+        <v>2543</v>
       </c>
       <c r="F362" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G362" s="1"/>
+        <v>2544</v>
+      </c>
+      <c r="G362" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
-        <v>1829</v>
+        <v>2512</v>
       </c>
       <c r="B363" s="1">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>10</v>
+        <v>2545</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>11</v>
+        <v>2546</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>12</v>
+        <v>2547</v>
       </c>
       <c r="F363" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G363" s="1"/>
+        <v>2548</v>
+      </c>
+      <c r="G363" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
-        <v>1830</v>
+        <v>2513</v>
       </c>
       <c r="B364" s="1">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>13</v>
+        <v>2549</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>14</v>
+        <v>2550</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>15</v>
+        <v>2551</v>
       </c>
       <c r="F364" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G364" s="1"/>
+        <v>2552</v>
+      </c>
+      <c r="G364" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
-        <v>1831</v>
+        <v>2514</v>
       </c>
       <c r="B365" s="1">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>16</v>
+        <v>2553</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>17</v>
+        <v>2554</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>18</v>
+        <v>2555</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G365" s="1"/>
+        <v>2556</v>
+      </c>
+      <c r="G365" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
-        <v>1832</v>
+        <v>2515</v>
       </c>
       <c r="B366" s="1">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>19</v>
+        <v>2557</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>20</v>
+        <v>2558</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>21</v>
+        <v>2559</v>
       </c>
       <c r="F366" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G366" s="1"/>
+        <v>2560</v>
+      </c>
+      <c r="G366" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
-        <v>1833</v>
+        <v>2516</v>
       </c>
       <c r="B367" s="1">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>22</v>
+        <v>2561</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>23</v>
+        <v>2562</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>24</v>
+        <v>2563</v>
       </c>
       <c r="F367" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G367" s="1"/>
+        <v>2564</v>
+      </c>
+      <c r="G367" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
-        <v>1834</v>
+        <v>2517</v>
       </c>
       <c r="B368" s="1">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>25</v>
+        <v>2565</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>26</v>
+        <v>2566</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>27</v>
+        <v>2567</v>
       </c>
       <c r="F368" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G368" s="1"/>
+        <v>2568</v>
+      </c>
+      <c r="G368" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
-        <v>1835</v>
+        <v>2518</v>
       </c>
       <c r="B369" s="1">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>28</v>
+        <v>2569</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>29</v>
+        <v>2570</v>
       </c>
       <c r="E369" s="1" t="s">
-        <v>30</v>
+        <v>2571</v>
       </c>
       <c r="F369" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G369" s="1"/>
+        <v>2572</v>
+      </c>
+      <c r="G369" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
-        <v>1836</v>
+        <v>2519</v>
       </c>
       <c r="B370" s="1">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>31</v>
+        <v>2573</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>32</v>
+        <v>2574</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>33</v>
+        <v>2575</v>
       </c>
       <c r="F370" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G370" s="1"/>
+        <v>2576</v>
+      </c>
+      <c r="G370" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
-        <v>1837</v>
+        <v>2520</v>
       </c>
       <c r="B371" s="1">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>34</v>
+        <v>2435</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>35</v>
+        <v>2577</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>36</v>
+        <v>2578</v>
       </c>
       <c r="F371" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G371" s="1"/>
+        <v>2579</v>
+      </c>
+      <c r="G371" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
-        <v>1838</v>
+        <v>2521</v>
       </c>
       <c r="B372" s="1">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>37</v>
+        <v>2580</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>38</v>
+        <v>2581</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>39</v>
+        <v>2582</v>
       </c>
       <c r="F372" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G372" s="1"/>
+        <v>2583</v>
+      </c>
+      <c r="G372" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
-        <v>1839</v>
+        <v>2522</v>
       </c>
       <c r="B373" s="1">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>40</v>
+        <v>2584</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>41</v>
+        <v>2585</v>
       </c>
       <c r="E373" s="1" t="s">
-        <v>42</v>
+        <v>2586</v>
       </c>
       <c r="F373" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G373" s="1"/>
+        <v>2587</v>
+      </c>
+      <c r="G373" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
-        <v>1840</v>
+        <v>2523</v>
       </c>
       <c r="B374" s="1">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>43</v>
+        <v>2588</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>44</v>
+        <v>2589</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>45</v>
+        <v>2590</v>
       </c>
       <c r="F374" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G374" s="1"/>
+        <v>2591</v>
+      </c>
+      <c r="G374" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
-        <v>1841</v>
+        <v>2524</v>
       </c>
       <c r="B375" s="1">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>47</v>
+        <v>1036</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>48</v>
+        <v>2592</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>49</v>
+        <v>2593</v>
       </c>
       <c r="F375" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G375" s="1"/>
+        <v>2594</v>
+      </c>
+      <c r="G375" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
-        <v>1842</v>
+        <v>2525</v>
       </c>
       <c r="B376" s="1">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>50</v>
+        <v>2595</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>51</v>
+        <v>2596</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>52</v>
+        <v>2597</v>
       </c>
       <c r="F376" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G376" s="1"/>
+        <v>2598</v>
+      </c>
+      <c r="G376" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
-        <v>1843</v>
+        <v>2526</v>
       </c>
       <c r="B377" s="1">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>54</v>
+        <v>2599</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>55</v>
+        <v>2600</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>56</v>
+        <v>2601</v>
       </c>
       <c r="F377" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G377" s="1"/>
+        <v>2602</v>
+      </c>
+      <c r="G377" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
-        <v>1844</v>
+        <v>2527</v>
       </c>
       <c r="B378" s="1">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>57</v>
+        <v>2603</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>58</v>
+        <v>2604</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>59</v>
+        <v>2605</v>
       </c>
       <c r="F378" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G378" s="1"/>
+        <v>2606</v>
+      </c>
+      <c r="G378" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
-        <v>1845</v>
+        <v>2528</v>
       </c>
       <c r="B379" s="1">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>61</v>
+        <v>2607</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>62</v>
+        <v>2608</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>63</v>
+        <v>2609</v>
       </c>
       <c r="F379" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G379" s="1"/>
+        <v>2610</v>
+      </c>
+      <c r="G379" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
-        <v>1846</v>
+        <v>2529</v>
       </c>
       <c r="B380" s="1">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>64</v>
+        <v>2611</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>65</v>
+        <v>2612</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>66</v>
+        <v>2613</v>
       </c>
       <c r="F380" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G380" s="1"/>
+        <v>2614</v>
+      </c>
+      <c r="G380" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
-        <v>1847</v>
+        <v>2530</v>
       </c>
       <c r="B381" s="1">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>67</v>
+        <v>2615</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>68</v>
+        <v>2616</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>69</v>
+        <v>2617</v>
       </c>
       <c r="F381" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G381" s="1"/>
+        <v>2618</v>
+      </c>
+      <c r="G381" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
-        <v>1848</v>
+        <v>2531</v>
       </c>
       <c r="B382" s="1">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>71</v>
+        <v>2619</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>72</v>
+        <v>2620</v>
       </c>
       <c r="E382" s="1" t="s">
-        <v>73</v>
+        <v>2621</v>
       </c>
       <c r="F382" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G382" s="1"/>
+        <v>2622</v>
+      </c>
+      <c r="G382" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
-        <v>1849</v>
+        <v>2532</v>
       </c>
       <c r="B383" s="1">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>74</v>
+        <v>2623</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>75</v>
+        <v>2624</v>
       </c>
       <c r="E383" s="1" t="s">
-        <v>76</v>
+        <v>2625</v>
       </c>
       <c r="F383" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G383" s="1"/>
+        <v>2626</v>
+      </c>
+      <c r="G383" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
-        <v>1850</v>
+        <v>2533</v>
       </c>
       <c r="B384" s="1">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>77</v>
+        <v>2627</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>78</v>
+        <v>2628</v>
       </c>
       <c r="E384" s="1" t="s">
-        <v>79</v>
+        <v>2629</v>
       </c>
       <c r="F384" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G384" s="1"/>
+        <v>2630</v>
+      </c>
+      <c r="G384" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
-        <v>1851</v>
+        <v>2534</v>
       </c>
       <c r="B385" s="1">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>80</v>
+        <v>2631</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>81</v>
+        <v>2632</v>
       </c>
       <c r="E385" s="1" t="s">
-        <v>82</v>
+        <v>2633</v>
       </c>
       <c r="F385" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G385" s="1"/>
+        <v>2634</v>
+      </c>
+      <c r="G385" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
-        <v>1852</v>
+        <v>2535</v>
       </c>
       <c r="B386" s="1">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>83</v>
+        <v>2635</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>84</v>
+        <v>2636</v>
       </c>
       <c r="E386" s="1" t="s">
-        <v>85</v>
+        <v>2637</v>
       </c>
       <c r="F386" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G386" s="1"/>
+        <v>2638</v>
+      </c>
+      <c r="G386" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
-        <v>1853</v>
+        <v>2536</v>
       </c>
       <c r="B387" s="1">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>86</v>
+        <v>2639</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>87</v>
+        <v>2640</v>
       </c>
       <c r="E387" s="1" t="s">
-        <v>88</v>
+        <v>2641</v>
       </c>
       <c r="F387" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G387" s="1"/>
+        <v>2642</v>
+      </c>
+      <c r="G387" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
-        <v>1854</v>
+        <v>2537</v>
       </c>
       <c r="B388" s="1">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>90</v>
+        <v>2643</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>91</v>
+        <v>2644</v>
       </c>
       <c r="E388" s="1" t="s">
-        <v>92</v>
+        <v>2645</v>
       </c>
       <c r="F388" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G388" s="1"/>
+        <v>2646</v>
+      </c>
+      <c r="G388" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
-        <v>1855</v>
+        <v>2538</v>
       </c>
       <c r="B389" s="1">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>94</v>
+        <v>2647</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>95</v>
+        <v>2648</v>
       </c>
       <c r="E389" s="1" t="s">
-        <v>96</v>
+        <v>2649</v>
       </c>
       <c r="F389" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G389" s="1"/>
+        <v>2650</v>
+      </c>
+      <c r="G389" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
-        <v>1856</v>
+        <v>2539</v>
       </c>
       <c r="B390" s="1">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>97</v>
+        <v>2651</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>98</v>
+        <v>2652</v>
       </c>
       <c r="E390" s="1" t="s">
-        <v>99</v>
+        <v>2653</v>
       </c>
       <c r="F390" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G390" s="1"/>
+        <v>2654</v>
+      </c>
+      <c r="G390" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
-        <v>1857</v>
+        <v>2540</v>
       </c>
       <c r="B391" s="1">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>100</v>
+        <v>2655</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>101</v>
+        <v>2656</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>102</v>
+        <v>2657</v>
       </c>
       <c r="F391" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G391" s="1"/>
+        <v>2658</v>
+      </c>
+      <c r="G391" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
-        <v>1858</v>
+        <v>2659</v>
       </c>
       <c r="B392" s="1">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>103</v>
+        <v>1002</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>104</v>
+        <v>2689</v>
       </c>
       <c r="E392" s="1" t="s">
-        <v>105</v>
+        <v>2690</v>
       </c>
       <c r="F392" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G392" s="1"/>
+        <v>2691</v>
+      </c>
+      <c r="G392" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
-        <v>1859</v>
+        <v>2660</v>
       </c>
       <c r="B393" s="1">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>106</v>
+        <v>2692</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>107</v>
+        <v>2693</v>
       </c>
       <c r="E393" s="1" t="s">
-        <v>108</v>
+        <v>2694</v>
       </c>
       <c r="F393" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G393" s="1"/>
+        <v>2695</v>
+      </c>
+      <c r="G393" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
-        <v>1860</v>
+        <v>2661</v>
       </c>
       <c r="B394" s="1">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>109</v>
+        <v>2696</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>110</v>
+        <v>2697</v>
       </c>
       <c r="E394" s="1" t="s">
-        <v>111</v>
+        <v>2698</v>
       </c>
       <c r="F394" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G394" s="1"/>
+        <v>2699</v>
+      </c>
+      <c r="G394" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
-        <v>1861</v>
+        <v>2662</v>
       </c>
       <c r="B395" s="1">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>112</v>
+        <v>2700</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>113</v>
+        <v>2701</v>
       </c>
       <c r="E395" s="1" t="s">
-        <v>114</v>
+        <v>2702</v>
       </c>
       <c r="F395" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G395" s="1"/>
+        <v>2703</v>
+      </c>
+      <c r="G395" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
-        <v>1862</v>
+        <v>2663</v>
       </c>
       <c r="B396" s="1">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>115</v>
+        <v>2704</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>116</v>
+        <v>2705</v>
       </c>
       <c r="E396" s="1" t="s">
-        <v>117</v>
+        <v>2706</v>
       </c>
       <c r="F396" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G396" s="1"/>
+        <v>2707</v>
+      </c>
+      <c r="G396" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
-        <v>1863</v>
+        <v>2664</v>
       </c>
       <c r="B397" s="1">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>118</v>
+        <v>2708</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>119</v>
+        <v>2709</v>
       </c>
       <c r="E397" s="1" t="s">
-        <v>120</v>
+        <v>2710</v>
       </c>
       <c r="F397" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G397" s="1"/>
+        <v>2711</v>
+      </c>
+      <c r="G397" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
-        <v>1864</v>
+        <v>2665</v>
       </c>
       <c r="B398" s="1">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>121</v>
+        <v>2712</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>122</v>
+        <v>2713</v>
       </c>
       <c r="E398" s="1" t="s">
-        <v>123</v>
+        <v>2714</v>
       </c>
       <c r="F398" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G398" s="1"/>
+        <v>2715</v>
+      </c>
+      <c r="G398" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
-        <v>1865</v>
+        <v>2666</v>
       </c>
       <c r="B399" s="1">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>125</v>
+        <v>2716</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>126</v>
+        <v>2717</v>
       </c>
       <c r="E399" s="1" t="s">
-        <v>127</v>
+        <v>2718</v>
       </c>
       <c r="F399" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G399" s="1"/>
+        <v>2719</v>
+      </c>
+      <c r="G399" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
-        <v>1866</v>
+        <v>2667</v>
       </c>
       <c r="B400" s="1">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>129</v>
+        <v>837</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>130</v>
+        <v>2720</v>
       </c>
       <c r="E400" s="1" t="s">
-        <v>131</v>
+        <v>2721</v>
       </c>
       <c r="F400" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G400" s="1"/>
+        <v>2722</v>
+      </c>
+      <c r="G400" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
-        <v>1867</v>
+        <v>2668</v>
       </c>
       <c r="B401" s="1">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>132</v>
+        <v>2723</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>133</v>
+        <v>2724</v>
       </c>
       <c r="E401" s="1" t="s">
-        <v>134</v>
+        <v>2725</v>
       </c>
       <c r="F401" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G401" s="1"/>
+        <v>2726</v>
+      </c>
+      <c r="G401" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
-        <v>1868</v>
+        <v>2669</v>
       </c>
       <c r="B402" s="1">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>136</v>
+        <v>2727</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>137</v>
+        <v>2728</v>
       </c>
       <c r="E402" s="1" t="s">
-        <v>138</v>
+        <v>2729</v>
       </c>
       <c r="F402" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G402" s="1"/>
+        <v>2730</v>
+      </c>
+      <c r="G402" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
-        <v>1869</v>
+        <v>2670</v>
       </c>
       <c r="B403" s="1">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>140</v>
+        <v>2731</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>141</v>
+        <v>2732</v>
       </c>
       <c r="E403" s="1" t="s">
-        <v>142</v>
+        <v>2733</v>
       </c>
       <c r="F403" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G403" s="1"/>
+        <v>2734</v>
+      </c>
+      <c r="G403" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
-        <v>1870</v>
+        <v>2671</v>
       </c>
       <c r="B404" s="1">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>144</v>
+        <v>2735</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>145</v>
+        <v>2736</v>
       </c>
       <c r="E404" s="1" t="s">
-        <v>146</v>
+        <v>2737</v>
       </c>
       <c r="F404" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G404" s="1"/>
+        <v>2738</v>
+      </c>
+      <c r="G404" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
-        <v>1871</v>
+        <v>2672</v>
       </c>
       <c r="B405" s="1">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>148</v>
+        <v>2739</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>149</v>
+        <v>2740</v>
       </c>
       <c r="E405" s="1" t="s">
-        <v>150</v>
+        <v>2741</v>
       </c>
       <c r="F405" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G405" s="1"/>
+        <v>2742</v>
+      </c>
+      <c r="G405" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
-        <v>1872</v>
+        <v>2673</v>
       </c>
       <c r="B406" s="1">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>153</v>
+        <v>2743</v>
       </c>
       <c r="E406" s="1" t="s">
-        <v>154</v>
+        <v>2744</v>
       </c>
       <c r="F406" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G406" s="1"/>
+        <v>2745</v>
+      </c>
+      <c r="G406" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
-        <v>1873</v>
+        <v>2674</v>
       </c>
       <c r="B407" s="1">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>156</v>
+        <v>2746</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>157</v>
+        <v>2747</v>
       </c>
       <c r="E407" s="1" t="s">
-        <v>158</v>
+        <v>2748</v>
       </c>
       <c r="F407" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G407" s="1"/>
+        <v>2749</v>
+      </c>
+      <c r="G407" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
-        <v>1874</v>
+        <v>2675</v>
       </c>
       <c r="B408" s="1">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>160</v>
+        <v>2750</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>161</v>
+        <v>2751</v>
       </c>
       <c r="E408" s="1" t="s">
-        <v>162</v>
+        <v>2752</v>
       </c>
       <c r="F408" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G408" s="1"/>
+        <v>2753</v>
+      </c>
+      <c r="G408" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
-        <v>1875</v>
+        <v>2676</v>
       </c>
       <c r="B409" s="1">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>164</v>
+        <v>2755</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>165</v>
+        <v>2754</v>
       </c>
       <c r="E409" s="1" t="s">
-        <v>166</v>
+        <v>2756</v>
       </c>
       <c r="F409" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G409" s="1"/>
+        <v>2757</v>
+      </c>
+      <c r="G409" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
-        <v>1876</v>
+        <v>2677</v>
       </c>
       <c r="B410" s="1">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>168</v>
+        <v>2758</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>169</v>
+        <v>2759</v>
       </c>
       <c r="E410" s="1" t="s">
-        <v>170</v>
+        <v>2760</v>
       </c>
       <c r="F410" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G410" s="1"/>
+        <v>2761</v>
+      </c>
+      <c r="G410" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
-        <v>1877</v>
+        <v>2678</v>
       </c>
       <c r="B411" s="1">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>172</v>
+        <v>2762</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>173</v>
+        <v>2763</v>
       </c>
       <c r="E411" s="1" t="s">
-        <v>174</v>
+        <v>2764</v>
       </c>
       <c r="F411" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G411" s="1"/>
+        <v>2765</v>
+      </c>
+      <c r="G411" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
-        <v>1878</v>
+        <v>2679</v>
       </c>
       <c r="B412" s="1">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>176</v>
+        <v>2766</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>177</v>
+        <v>2767</v>
       </c>
       <c r="E412" s="1" t="s">
-        <v>178</v>
+        <v>2768</v>
       </c>
       <c r="F412" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G412" s="1"/>
+        <v>2769</v>
+      </c>
+      <c r="G412" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
-        <v>1879</v>
+        <v>2680</v>
       </c>
       <c r="B413" s="1">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>180</v>
+        <v>2770</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>181</v>
+        <v>2771</v>
       </c>
       <c r="E413" s="1" t="s">
-        <v>182</v>
+        <v>2772</v>
       </c>
       <c r="F413" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G413" s="1"/>
+        <v>2773</v>
+      </c>
+      <c r="G413" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
-        <v>1880</v>
+        <v>2681</v>
       </c>
       <c r="B414" s="1">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>184</v>
+        <v>2774</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>185</v>
+        <v>2775</v>
       </c>
       <c r="E414" s="1" t="s">
-        <v>186</v>
+        <v>2776</v>
       </c>
       <c r="F414" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G414" s="1"/>
+        <v>2777</v>
+      </c>
+      <c r="G414" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
-        <v>1881</v>
+        <v>2682</v>
       </c>
       <c r="B415" s="1">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>188</v>
+        <v>2778</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>189</v>
+        <v>2779</v>
       </c>
       <c r="E415" s="1" t="s">
-        <v>190</v>
+        <v>2780</v>
       </c>
       <c r="F415" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G415" s="1"/>
+        <v>2781</v>
+      </c>
+      <c r="G415" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
-        <v>1882</v>
+        <v>2683</v>
       </c>
       <c r="B416" s="1">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>192</v>
+        <v>2782</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>193</v>
+        <v>2783</v>
       </c>
       <c r="E416" s="1" t="s">
-        <v>194</v>
+        <v>2784</v>
       </c>
       <c r="F416" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G416" s="1"/>
+        <v>2785</v>
+      </c>
+      <c r="G416" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
-        <v>1883</v>
+        <v>2684</v>
       </c>
       <c r="B417" s="1">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>196</v>
+        <v>2786</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>197</v>
+        <v>2787</v>
       </c>
       <c r="E417" s="1" t="s">
-        <v>198</v>
+        <v>2788</v>
       </c>
       <c r="F417" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G417" s="1"/>
+        <v>2789</v>
+      </c>
+      <c r="G417" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
-        <v>1884</v>
+        <v>2685</v>
       </c>
       <c r="B418" s="1">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>200</v>
+        <v>2790</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>201</v>
+        <v>2791</v>
       </c>
       <c r="E418" s="1" t="s">
-        <v>202</v>
+        <v>2792</v>
       </c>
       <c r="F418" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G418" s="1"/>
+        <v>2793</v>
+      </c>
+      <c r="G418" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
-        <v>1885</v>
+        <v>2686</v>
       </c>
       <c r="B419" s="1">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>204</v>
+        <v>2794</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>205</v>
+        <v>2795</v>
       </c>
       <c r="E419" s="1" t="s">
-        <v>206</v>
+        <v>2796</v>
       </c>
       <c r="F419" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G419" s="1"/>
+        <v>2797</v>
+      </c>
+      <c r="G419" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
-        <v>1886</v>
+        <v>2687</v>
       </c>
       <c r="B420" s="1">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>204</v>
+        <v>2798</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>208</v>
+        <v>2799</v>
       </c>
       <c r="E420" s="1" t="s">
-        <v>209</v>
+        <v>2800</v>
       </c>
       <c r="F420" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G420" s="1"/>
+        <v>2801</v>
+      </c>
+      <c r="G420" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
-        <v>1887</v>
+        <v>2688</v>
       </c>
       <c r="B421" s="1">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>211</v>
+        <v>2802</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>212</v>
+        <v>2803</v>
       </c>
       <c r="E421" s="1" t="s">
-        <v>213</v>
+        <v>2804</v>
       </c>
       <c r="F421" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="G421" s="1"/>
+        <v>2805</v>
+      </c>
+      <c r="G421" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
-        <v>1888</v>
+        <v>1828</v>
       </c>
       <c r="B422" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>215</v>
+        <v>6</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
       <c r="E422" s="1" t="s">
-        <v>217</v>
+        <v>8</v>
       </c>
       <c r="F422" s="1" t="s">
-        <v>218</v>
+        <v>9</v>
       </c>
       <c r="G422" s="1"/>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
-        <v>1889</v>
+        <v>1829</v>
       </c>
       <c r="B423" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>219</v>
+        <v>10</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>220</v>
+        <v>11</v>
       </c>
       <c r="E423" s="1" t="s">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="F423" s="1" t="s">
-        <v>222</v>
+        <v>9</v>
       </c>
       <c r="G423" s="1"/>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
-        <v>1890</v>
+        <v>1830</v>
       </c>
       <c r="B424" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>223</v>
+        <v>13</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>224</v>
+        <v>14</v>
       </c>
       <c r="E424" s="1" t="s">
-        <v>225</v>
+        <v>15</v>
       </c>
       <c r="F424" s="1" t="s">
-        <v>226</v>
+        <v>9</v>
       </c>
       <c r="G424" s="1"/>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
-        <v>1891</v>
+        <v>1831</v>
       </c>
       <c r="B425" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>227</v>
+        <v>16</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>228</v>
+        <v>17</v>
       </c>
       <c r="E425" s="1" t="s">
-        <v>229</v>
+        <v>18</v>
       </c>
       <c r="F425" s="1" t="s">
-        <v>230</v>
+        <v>9</v>
       </c>
       <c r="G425" s="1"/>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
-        <v>1892</v>
+        <v>1832</v>
       </c>
       <c r="B426" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>231</v>
+        <v>19</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>232</v>
+        <v>20</v>
       </c>
       <c r="E426" s="1" t="s">
-        <v>233</v>
+        <v>21</v>
       </c>
       <c r="F426" s="1" t="s">
-        <v>234</v>
+        <v>9</v>
       </c>
       <c r="G426" s="1"/>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
-        <v>1893</v>
+        <v>1833</v>
       </c>
       <c r="B427" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>235</v>
+        <v>22</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>236</v>
+        <v>23</v>
       </c>
       <c r="E427" s="1" t="s">
-        <v>237</v>
+        <v>24</v>
       </c>
       <c r="F427" s="1" t="s">
-        <v>238</v>
+        <v>9</v>
       </c>
       <c r="G427" s="1"/>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
-        <v>1894</v>
+        <v>1834</v>
       </c>
       <c r="B428" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>239</v>
+        <v>25</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>240</v>
+        <v>26</v>
       </c>
       <c r="E428" s="1" t="s">
-        <v>241</v>
+        <v>27</v>
       </c>
       <c r="F428" s="1" t="s">
-        <v>242</v>
+        <v>9</v>
       </c>
       <c r="G428" s="1"/>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
-        <v>1895</v>
+        <v>1835</v>
       </c>
       <c r="B429" s="1">
+        <v>26</v>
+      </c>
+      <c r="C429" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C429" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="D429" s="1" t="s">
-        <v>244</v>
+        <v>29</v>
       </c>
       <c r="E429" s="1" t="s">
-        <v>245</v>
+        <v>30</v>
       </c>
       <c r="F429" s="1" t="s">
-        <v>246</v>
+        <v>9</v>
       </c>
       <c r="G429" s="1"/>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
-        <v>1896</v>
+        <v>1836</v>
       </c>
       <c r="B430" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>247</v>
+        <v>31</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>248</v>
+        <v>32</v>
       </c>
       <c r="E430" s="1" t="s">
-        <v>249</v>
+        <v>33</v>
       </c>
       <c r="F430" s="1" t="s">
-        <v>250</v>
+        <v>9</v>
       </c>
       <c r="G430" s="1"/>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
-        <v>1897</v>
+        <v>1837</v>
       </c>
       <c r="B431" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>251</v>
+        <v>34</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>252</v>
+        <v>35</v>
       </c>
       <c r="E431" s="1" t="s">
-        <v>253</v>
+        <v>36</v>
       </c>
       <c r="F431" s="1" t="s">
-        <v>254</v>
+        <v>9</v>
       </c>
       <c r="G431" s="1"/>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
-        <v>1898</v>
+        <v>1838</v>
       </c>
       <c r="B432" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>255</v>
+        <v>37</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>256</v>
+        <v>38</v>
       </c>
       <c r="E432" s="1" t="s">
-        <v>257</v>
+        <v>39</v>
       </c>
       <c r="F432" s="1" t="s">
-        <v>258</v>
+        <v>9</v>
       </c>
       <c r="G432" s="1"/>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
-        <v>1899</v>
+        <v>1839</v>
       </c>
       <c r="B433" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>259</v>
+        <v>40</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E433" s="1"/>
-      <c r="F433" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="E433" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F433" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="G433" s="1"/>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
-        <v>1900</v>
+        <v>1840</v>
       </c>
       <c r="B434" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>261</v>
+        <v>43</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>262</v>
+        <v>44</v>
       </c>
       <c r="E434" s="1" t="s">
-        <v>263</v>
+        <v>45</v>
       </c>
       <c r="F434" s="1" t="s">
-        <v>264</v>
+        <v>46</v>
       </c>
       <c r="G434" s="1"/>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
-        <v>1901</v>
+        <v>1841</v>
       </c>
       <c r="B435" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>265</v>
+        <v>47</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>266</v>
+        <v>48</v>
       </c>
       <c r="E435" s="1" t="s">
-        <v>267</v>
+        <v>49</v>
       </c>
       <c r="F435" s="1" t="s">
-        <v>268</v>
+        <v>9</v>
       </c>
       <c r="G435" s="1"/>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
-        <v>1902</v>
+        <v>1842</v>
       </c>
       <c r="B436" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>269</v>
+        <v>50</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>270</v>
+        <v>51</v>
       </c>
       <c r="E436" s="1" t="s">
-        <v>271</v>
+        <v>52</v>
       </c>
       <c r="F436" s="1" t="s">
-        <v>272</v>
+        <v>53</v>
       </c>
       <c r="G436" s="1"/>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
-        <v>1903</v>
+        <v>1843</v>
       </c>
       <c r="B437" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>273</v>
+        <v>55</v>
       </c>
       <c r="E437" s="1" t="s">
-        <v>274</v>
+        <v>56</v>
       </c>
       <c r="F437" s="1" t="s">
-        <v>275</v>
+        <v>9</v>
       </c>
       <c r="G437" s="1"/>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
-        <v>1904</v>
+        <v>1844</v>
       </c>
       <c r="B438" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>276</v>
+        <v>57</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>277</v>
+        <v>58</v>
       </c>
       <c r="E438" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F438" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="F438" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="G438" s="1"/>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
-        <v>1905</v>
+        <v>1845</v>
       </c>
       <c r="B439" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>279</v>
+        <v>61</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>280</v>
+        <v>62</v>
       </c>
       <c r="E439" s="1" t="s">
-        <v>281</v>
+        <v>63</v>
       </c>
       <c r="F439" s="1" t="s">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="G439" s="1"/>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
-        <v>1906</v>
+        <v>1846</v>
       </c>
       <c r="B440" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>283</v>
+        <v>64</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>284</v>
+        <v>65</v>
       </c>
       <c r="E440" s="1" t="s">
-        <v>285</v>
+        <v>66</v>
       </c>
       <c r="F440" s="1" t="s">
-        <v>286</v>
+        <v>9</v>
       </c>
       <c r="G440" s="1"/>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
-        <v>1907</v>
+        <v>1847</v>
       </c>
       <c r="B441" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>287</v>
+        <v>67</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>288</v>
+        <v>68</v>
       </c>
       <c r="E441" s="1" t="s">
-        <v>289</v>
+        <v>69</v>
       </c>
       <c r="F441" s="1" t="s">
-        <v>290</v>
+        <v>70</v>
       </c>
       <c r="G441" s="1"/>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
-        <v>1908</v>
+        <v>1848</v>
       </c>
       <c r="B442" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>291</v>
+        <v>71</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>292</v>
+        <v>72</v>
       </c>
       <c r="E442" s="1" t="s">
-        <v>293</v>
+        <v>73</v>
       </c>
       <c r="F442" s="1" t="s">
-        <v>294</v>
+        <v>9</v>
       </c>
       <c r="G442" s="1"/>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
-        <v>1909</v>
+        <v>1849</v>
       </c>
       <c r="B443" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>295</v>
+        <v>74</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>296</v>
+        <v>75</v>
       </c>
       <c r="E443" s="1" t="s">
-        <v>297</v>
+        <v>76</v>
       </c>
       <c r="F443" s="1" t="s">
-        <v>298</v>
+        <v>9</v>
       </c>
       <c r="G443" s="1"/>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
-        <v>1910</v>
+        <v>1850</v>
       </c>
       <c r="B444" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>299</v>
+        <v>77</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>300</v>
+        <v>78</v>
       </c>
       <c r="E444" s="1" t="s">
-        <v>301</v>
+        <v>79</v>
       </c>
       <c r="F444" s="1" t="s">
-        <v>302</v>
+        <v>9</v>
       </c>
       <c r="G444" s="1"/>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
-        <v>1911</v>
+        <v>1851</v>
       </c>
       <c r="B445" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>303</v>
+        <v>80</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>304</v>
+        <v>81</v>
       </c>
       <c r="E445" s="1" t="s">
-        <v>305</v>
+        <v>82</v>
       </c>
       <c r="F445" s="1" t="s">
-        <v>306</v>
+        <v>9</v>
       </c>
       <c r="G445" s="1"/>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
-        <v>1912</v>
+        <v>1852</v>
       </c>
       <c r="B446" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>307</v>
+        <v>83</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>308</v>
+        <v>84</v>
       </c>
       <c r="E446" s="1" t="s">
-        <v>309</v>
+        <v>85</v>
       </c>
       <c r="F446" s="1" t="s">
-        <v>310</v>
+        <v>9</v>
       </c>
       <c r="G446" s="1"/>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
-        <v>1913</v>
+        <v>1853</v>
       </c>
       <c r="B447" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>311</v>
+        <v>86</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>312</v>
+        <v>87</v>
       </c>
       <c r="E447" s="1" t="s">
-        <v>313</v>
+        <v>88</v>
       </c>
       <c r="F447" s="1" t="s">
-        <v>314</v>
+        <v>89</v>
       </c>
       <c r="G447" s="1"/>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
-        <v>1914</v>
+        <v>1854</v>
       </c>
       <c r="B448" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>315</v>
+        <v>90</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>316</v>
+        <v>91</v>
       </c>
       <c r="E448" s="1" t="s">
-        <v>317</v>
+        <v>92</v>
       </c>
       <c r="F448" s="1" t="s">
-        <v>318</v>
+        <v>93</v>
       </c>
       <c r="G448" s="1"/>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="s">
-        <v>1915</v>
+        <v>1855</v>
       </c>
       <c r="B449" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>319</v>
+        <v>94</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>320</v>
+        <v>95</v>
       </c>
       <c r="E449" s="1" t="s">
-        <v>321</v>
+        <v>96</v>
       </c>
       <c r="F449" s="1" t="s">
-        <v>322</v>
+        <v>9</v>
       </c>
       <c r="G449" s="1"/>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
-        <v>1916</v>
+        <v>1856</v>
       </c>
       <c r="B450" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>323</v>
+        <v>97</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>324</v>
+        <v>98</v>
       </c>
       <c r="E450" s="1" t="s">
-        <v>325</v>
+        <v>99</v>
       </c>
       <c r="F450" s="1" t="s">
-        <v>326</v>
+        <v>9</v>
       </c>
       <c r="G450" s="1"/>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
-        <v>1917</v>
+        <v>1857</v>
       </c>
       <c r="B451" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>327</v>
+        <v>100</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>328</v>
+        <v>101</v>
       </c>
       <c r="E451" s="1" t="s">
-        <v>329</v>
+        <v>102</v>
       </c>
       <c r="F451" s="1" t="s">
-        <v>330</v>
+        <v>9</v>
       </c>
       <c r="G451" s="1"/>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
-        <v>1918</v>
+        <v>1858</v>
       </c>
       <c r="B452" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>331</v>
+        <v>103</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>332</v>
+        <v>104</v>
       </c>
       <c r="E452" s="1" t="s">
-        <v>333</v>
+        <v>105</v>
       </c>
       <c r="F452" s="1" t="s">
-        <v>334</v>
+        <v>9</v>
       </c>
       <c r="G452" s="1"/>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
-        <v>1919</v>
+        <v>1859</v>
       </c>
       <c r="B453" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>335</v>
+        <v>106</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>336</v>
+        <v>107</v>
       </c>
       <c r="E453" s="1" t="s">
-        <v>337</v>
+        <v>108</v>
       </c>
       <c r="F453" s="1" t="s">
-        <v>338</v>
+        <v>9</v>
       </c>
       <c r="G453" s="1"/>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
-        <v>1920</v>
+        <v>1860</v>
       </c>
       <c r="B454" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>339</v>
+        <v>109</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>340</v>
+        <v>110</v>
       </c>
       <c r="E454" s="1" t="s">
-        <v>341</v>
+        <v>111</v>
       </c>
       <c r="F454" s="1" t="s">
-        <v>342</v>
+        <v>9</v>
       </c>
       <c r="G454" s="1"/>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
-        <v>1921</v>
+        <v>1861</v>
       </c>
       <c r="B455" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>343</v>
+        <v>112</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>344</v>
+        <v>113</v>
       </c>
       <c r="E455" s="1" t="s">
-        <v>345</v>
+        <v>114</v>
       </c>
       <c r="F455" s="1" t="s">
-        <v>346</v>
+        <v>9</v>
       </c>
       <c r="G455" s="1"/>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
-        <v>1922</v>
+        <v>1862</v>
       </c>
       <c r="B456" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>347</v>
+        <v>115</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>348</v>
+        <v>116</v>
       </c>
       <c r="E456" s="1" t="s">
-        <v>349</v>
+        <v>117</v>
       </c>
       <c r="F456" s="1" t="s">
-        <v>350</v>
+        <v>9</v>
       </c>
       <c r="G456" s="1"/>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A457" s="1" t="s">
-        <v>1923</v>
+        <v>1863</v>
       </c>
       <c r="B457" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>351</v>
+        <v>118</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>352</v>
+        <v>119</v>
       </c>
       <c r="E457" s="1" t="s">
-        <v>353</v>
+        <v>120</v>
       </c>
       <c r="F457" s="1" t="s">
-        <v>354</v>
+        <v>9</v>
       </c>
       <c r="G457" s="1"/>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
-        <v>1924</v>
+        <v>1864</v>
       </c>
       <c r="B458" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>355</v>
+        <v>121</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>356</v>
+        <v>122</v>
       </c>
       <c r="E458" s="1" t="s">
-        <v>357</v>
+        <v>123</v>
       </c>
       <c r="F458" s="1" t="s">
-        <v>358</v>
+        <v>124</v>
       </c>
       <c r="G458" s="1"/>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
-        <v>1925</v>
+        <v>1865</v>
       </c>
       <c r="B459" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>359</v>
+        <v>125</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>360</v>
+        <v>126</v>
       </c>
       <c r="E459" s="1" t="s">
-        <v>361</v>
+        <v>127</v>
       </c>
       <c r="F459" s="1" t="s">
-        <v>362</v>
+        <v>128</v>
       </c>
       <c r="G459" s="1"/>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
-        <v>1926</v>
+        <v>1866</v>
       </c>
       <c r="B460" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>363</v>
+        <v>129</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>364</v>
+        <v>130</v>
       </c>
       <c r="E460" s="1" t="s">
-        <v>365</v>
+        <v>131</v>
       </c>
       <c r="F460" s="1" t="s">
-        <v>366</v>
+        <v>9</v>
       </c>
       <c r="G460" s="1"/>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="s">
-        <v>1927</v>
+        <v>1867</v>
       </c>
       <c r="B461" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>367</v>
+        <v>132</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>368</v>
+        <v>133</v>
       </c>
       <c r="E461" s="1" t="s">
-        <v>369</v>
+        <v>134</v>
       </c>
       <c r="F461" s="1" t="s">
-        <v>370</v>
+        <v>135</v>
       </c>
       <c r="G461" s="1"/>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
-        <v>1928</v>
+        <v>1868</v>
       </c>
       <c r="B462" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>371</v>
+        <v>136</v>
       </c>
       <c r="D462" s="1" t="s">
-        <v>372</v>
+        <v>137</v>
       </c>
       <c r="E462" s="1" t="s">
-        <v>373</v>
+        <v>138</v>
       </c>
       <c r="F462" s="1" t="s">
-        <v>374</v>
+        <v>139</v>
       </c>
       <c r="G462" s="1"/>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A463" s="1" t="s">
-        <v>1929</v>
+        <v>1869</v>
       </c>
       <c r="B463" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>375</v>
+        <v>140</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>376</v>
+        <v>141</v>
       </c>
       <c r="E463" s="1" t="s">
-        <v>377</v>
+        <v>142</v>
       </c>
       <c r="F463" s="1" t="s">
-        <v>378</v>
+        <v>143</v>
       </c>
       <c r="G463" s="1"/>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
-        <v>1930</v>
+        <v>1870</v>
       </c>
       <c r="B464" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>379</v>
+        <v>144</v>
       </c>
       <c r="D464" s="1" t="s">
-        <v>380</v>
+        <v>145</v>
       </c>
       <c r="E464" s="1" t="s">
-        <v>381</v>
+        <v>146</v>
       </c>
       <c r="F464" s="1" t="s">
-        <v>382</v>
+        <v>147</v>
       </c>
       <c r="G464" s="1"/>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
-        <v>1931</v>
+        <v>1871</v>
       </c>
       <c r="B465" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>383</v>
+        <v>148</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>384</v>
+        <v>149</v>
       </c>
       <c r="E465" s="1" t="s">
-        <v>385</v>
+        <v>150</v>
       </c>
       <c r="F465" s="1" t="s">
-        <v>386</v>
+        <v>151</v>
       </c>
       <c r="G465" s="1"/>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
-        <v>1932</v>
+        <v>1872</v>
       </c>
       <c r="B466" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>387</v>
+        <v>152</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>388</v>
+        <v>153</v>
       </c>
       <c r="E466" s="1" t="s">
-        <v>389</v>
+        <v>154</v>
       </c>
       <c r="F466" s="1" t="s">
-        <v>390</v>
+        <v>155</v>
       </c>
       <c r="G466" s="1"/>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
-        <v>1933</v>
+        <v>1873</v>
       </c>
       <c r="B467" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>391</v>
+        <v>156</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>392</v>
+        <v>157</v>
       </c>
       <c r="E467" s="1" t="s">
-        <v>393</v>
+        <v>158</v>
       </c>
       <c r="F467" s="1" t="s">
-        <v>394</v>
+        <v>159</v>
       </c>
       <c r="G467" s="1"/>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
-        <v>1934</v>
+        <v>1874</v>
       </c>
       <c r="B468" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>395</v>
+        <v>160</v>
       </c>
       <c r="D468" s="1" t="s">
-        <v>396</v>
+        <v>161</v>
       </c>
       <c r="E468" s="1" t="s">
-        <v>397</v>
+        <v>162</v>
       </c>
       <c r="F468" s="1" t="s">
-        <v>398</v>
+        <v>163</v>
       </c>
       <c r="G468" s="1"/>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
-        <v>1935</v>
+        <v>1875</v>
       </c>
       <c r="B469" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>399</v>
+        <v>164</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>400</v>
+        <v>165</v>
       </c>
       <c r="E469" s="1" t="s">
-        <v>401</v>
+        <v>166</v>
       </c>
       <c r="F469" s="1" t="s">
-        <v>402</v>
+        <v>167</v>
       </c>
       <c r="G469" s="1"/>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
-        <v>1936</v>
+        <v>1876</v>
       </c>
       <c r="B470" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>403</v>
+        <v>168</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>404</v>
+        <v>169</v>
       </c>
       <c r="E470" s="1" t="s">
-        <v>405</v>
+        <v>170</v>
       </c>
       <c r="F470" s="1" t="s">
-        <v>406</v>
+        <v>171</v>
       </c>
       <c r="G470" s="1"/>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
-        <v>1937</v>
+        <v>1877</v>
       </c>
       <c r="B471" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>407</v>
+        <v>172</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>408</v>
+        <v>173</v>
       </c>
       <c r="E471" s="1" t="s">
-        <v>409</v>
+        <v>174</v>
       </c>
       <c r="F471" s="1" t="s">
-        <v>410</v>
+        <v>175</v>
       </c>
       <c r="G471" s="1"/>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
-        <v>1938</v>
+        <v>1878</v>
       </c>
       <c r="B472" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>411</v>
+        <v>176</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>412</v>
+        <v>177</v>
       </c>
       <c r="E472" s="1" t="s">
-        <v>413</v>
+        <v>178</v>
       </c>
       <c r="F472" s="1" t="s">
-        <v>414</v>
+        <v>179</v>
       </c>
       <c r="G472" s="1"/>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
-        <v>1939</v>
+        <v>1879</v>
       </c>
       <c r="B473" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>415</v>
+        <v>180</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>416</v>
+        <v>181</v>
       </c>
       <c r="E473" s="1" t="s">
-        <v>417</v>
+        <v>182</v>
       </c>
       <c r="F473" s="1" t="s">
-        <v>418</v>
+        <v>183</v>
       </c>
       <c r="G473" s="1"/>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
-        <v>1940</v>
+        <v>1880</v>
       </c>
       <c r="B474" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>419</v>
+        <v>184</v>
       </c>
       <c r="D474" s="1" t="s">
-        <v>420</v>
+        <v>185</v>
       </c>
       <c r="E474" s="1" t="s">
-        <v>421</v>
+        <v>186</v>
       </c>
       <c r="F474" s="1" t="s">
-        <v>422</v>
+        <v>187</v>
       </c>
       <c r="G474" s="1"/>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
-        <v>1941</v>
+        <v>1881</v>
       </c>
       <c r="B475" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>423</v>
+        <v>188</v>
       </c>
       <c r="D475" s="1" t="s">
-        <v>424</v>
+        <v>189</v>
       </c>
       <c r="E475" s="1" t="s">
-        <v>425</v>
+        <v>190</v>
       </c>
       <c r="F475" s="1" t="s">
-        <v>426</v>
+        <v>191</v>
       </c>
       <c r="G475" s="1"/>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
-        <v>1942</v>
+        <v>1882</v>
       </c>
       <c r="B476" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>427</v>
+        <v>192</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>428</v>
+        <v>193</v>
       </c>
       <c r="E476" s="1" t="s">
-        <v>429</v>
+        <v>194</v>
       </c>
       <c r="F476" s="1" t="s">
-        <v>430</v>
+        <v>195</v>
       </c>
       <c r="G476" s="1"/>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
-        <v>1943</v>
+        <v>1883</v>
       </c>
       <c r="B477" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>431</v>
+        <v>196</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>432</v>
+        <v>197</v>
       </c>
       <c r="E477" s="1" t="s">
-        <v>433</v>
+        <v>198</v>
       </c>
       <c r="F477" s="1" t="s">
-        <v>434</v>
+        <v>199</v>
       </c>
       <c r="G477" s="1"/>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
-        <v>1944</v>
+        <v>1884</v>
       </c>
       <c r="B478" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>435</v>
+        <v>200</v>
       </c>
       <c r="D478" s="1" t="s">
-        <v>436</v>
+        <v>201</v>
       </c>
       <c r="E478" s="1" t="s">
-        <v>437</v>
+        <v>202</v>
       </c>
       <c r="F478" s="1" t="s">
-        <v>438</v>
+        <v>203</v>
       </c>
       <c r="G478" s="1"/>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
-        <v>1945</v>
+        <v>1885</v>
       </c>
       <c r="B479" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>439</v>
+        <v>204</v>
       </c>
       <c r="D479" s="1" t="s">
-        <v>440</v>
+        <v>205</v>
       </c>
       <c r="E479" s="1" t="s">
-        <v>441</v>
+        <v>206</v>
       </c>
       <c r="F479" s="1" t="s">
-        <v>442</v>
+        <v>207</v>
       </c>
       <c r="G479" s="1"/>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
-        <v>1946</v>
+        <v>1886</v>
       </c>
       <c r="B480" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>443</v>
+        <v>204</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>444</v>
+        <v>208</v>
       </c>
       <c r="E480" s="1" t="s">
-        <v>445</v>
+        <v>209</v>
       </c>
       <c r="F480" s="1" t="s">
-        <v>446</v>
+        <v>210</v>
       </c>
       <c r="G480" s="1"/>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
-        <v>1947</v>
+        <v>1887</v>
       </c>
       <c r="B481" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>447</v>
+        <v>211</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>448</v>
+        <v>212</v>
       </c>
       <c r="E481" s="1" t="s">
-        <v>449</v>
+        <v>213</v>
       </c>
       <c r="F481" s="1" t="s">
-        <v>450</v>
+        <v>214</v>
       </c>
       <c r="G481" s="1"/>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
-        <v>1948</v>
+        <v>1888</v>
       </c>
       <c r="B482" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>451</v>
+        <v>215</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>452</v>
+        <v>216</v>
       </c>
       <c r="E482" s="1" t="s">
-        <v>453</v>
+        <v>217</v>
       </c>
       <c r="F482" s="1" t="s">
-        <v>454</v>
+        <v>218</v>
       </c>
       <c r="G482" s="1"/>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
-        <v>1949</v>
+        <v>1889</v>
       </c>
       <c r="B483" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>455</v>
+        <v>219</v>
       </c>
       <c r="D483" s="1" t="s">
-        <v>456</v>
+        <v>220</v>
       </c>
       <c r="E483" s="1" t="s">
-        <v>457</v>
+        <v>221</v>
       </c>
       <c r="F483" s="1" t="s">
-        <v>458</v>
+        <v>222</v>
       </c>
       <c r="G483" s="1"/>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
-        <v>1950</v>
+        <v>1890</v>
       </c>
       <c r="B484" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>459</v>
+        <v>223</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>460</v>
+        <v>224</v>
       </c>
       <c r="E484" s="1" t="s">
-        <v>461</v>
+        <v>225</v>
       </c>
       <c r="F484" s="1" t="s">
-        <v>462</v>
+        <v>226</v>
       </c>
       <c r="G484" s="1"/>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
-        <v>1951</v>
+        <v>1891</v>
       </c>
       <c r="B485" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>463</v>
+        <v>227</v>
       </c>
       <c r="D485" s="1" t="s">
-        <v>464</v>
+        <v>228</v>
       </c>
       <c r="E485" s="1" t="s">
-        <v>465</v>
+        <v>229</v>
       </c>
       <c r="F485" s="1" t="s">
-        <v>466</v>
+        <v>230</v>
       </c>
       <c r="G485" s="1"/>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="s">
-        <v>1952</v>
+        <v>1892</v>
       </c>
       <c r="B486" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>467</v>
+        <v>231</v>
       </c>
       <c r="D486" s="1" t="s">
-        <v>468</v>
+        <v>232</v>
       </c>
       <c r="E486" s="1" t="s">
-        <v>469</v>
+        <v>233</v>
       </c>
       <c r="F486" s="1" t="s">
-        <v>470</v>
+        <v>234</v>
       </c>
       <c r="G486" s="1"/>
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
-        <v>1953</v>
+        <v>1893</v>
       </c>
       <c r="B487" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>471</v>
+        <v>235</v>
       </c>
       <c r="D487" s="1" t="s">
-        <v>472</v>
+        <v>236</v>
       </c>
       <c r="E487" s="1" t="s">
-        <v>473</v>
+        <v>237</v>
       </c>
       <c r="F487" s="1" t="s">
-        <v>474</v>
+        <v>238</v>
       </c>
       <c r="G487" s="1"/>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
-        <v>1954</v>
+        <v>1894</v>
       </c>
       <c r="B488" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>475</v>
+        <v>239</v>
       </c>
       <c r="D488" s="1" t="s">
-        <v>476</v>
+        <v>240</v>
       </c>
       <c r="E488" s="1" t="s">
-        <v>477</v>
+        <v>241</v>
       </c>
       <c r="F488" s="1" t="s">
-        <v>478</v>
+        <v>242</v>
       </c>
       <c r="G488" s="1"/>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
-        <v>1955</v>
+        <v>1895</v>
       </c>
       <c r="B489" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>479</v>
+        <v>243</v>
       </c>
       <c r="D489" s="1" t="s">
-        <v>480</v>
+        <v>244</v>
       </c>
       <c r="E489" s="1" t="s">
-        <v>481</v>
+        <v>245</v>
       </c>
       <c r="F489" s="1" t="s">
-        <v>482</v>
+        <v>246</v>
       </c>
       <c r="G489" s="1"/>
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
-        <v>1956</v>
+        <v>1896</v>
       </c>
       <c r="B490" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>483</v>
+        <v>247</v>
       </c>
       <c r="D490" s="1" t="s">
-        <v>484</v>
+        <v>248</v>
       </c>
       <c r="E490" s="1" t="s">
-        <v>485</v>
+        <v>249</v>
       </c>
       <c r="F490" s="1" t="s">
-        <v>486</v>
+        <v>250</v>
       </c>
       <c r="G490" s="1"/>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
-        <v>1957</v>
+        <v>1897</v>
       </c>
       <c r="B491" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>487</v>
+        <v>251</v>
       </c>
       <c r="D491" s="1" t="s">
-        <v>488</v>
+        <v>252</v>
       </c>
       <c r="E491" s="1" t="s">
-        <v>489</v>
+        <v>253</v>
       </c>
       <c r="F491" s="1" t="s">
-        <v>490</v>
+        <v>254</v>
       </c>
       <c r="G491" s="1"/>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
-        <v>1958</v>
+        <v>1898</v>
       </c>
       <c r="B492" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>491</v>
+        <v>255</v>
       </c>
       <c r="D492" s="1" t="s">
-        <v>492</v>
+        <v>256</v>
       </c>
       <c r="E492" s="1" t="s">
-        <v>493</v>
+        <v>257</v>
       </c>
       <c r="F492" s="1" t="s">
-        <v>494</v>
+        <v>258</v>
       </c>
       <c r="G492" s="1"/>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
-        <v>1959</v>
+        <v>1899</v>
       </c>
       <c r="B493" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>495</v>
+        <v>259</v>
       </c>
       <c r="D493" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="E493" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="F493" s="1" t="s">
-        <v>498</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="E493" s="1"/>
+      <c r="F493" s="1"/>
       <c r="G493" s="1"/>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
-        <v>1960</v>
+        <v>1900</v>
       </c>
       <c r="B494" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>499</v>
+        <v>261</v>
       </c>
       <c r="D494" s="1" t="s">
-        <v>500</v>
+        <v>262</v>
       </c>
       <c r="E494" s="1" t="s">
-        <v>501</v>
+        <v>263</v>
       </c>
       <c r="F494" s="1" t="s">
-        <v>502</v>
+        <v>264</v>
       </c>
       <c r="G494" s="1"/>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
-        <v>1961</v>
+        <v>1901</v>
       </c>
       <c r="B495" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>503</v>
+        <v>265</v>
       </c>
       <c r="D495" s="1" t="s">
-        <v>504</v>
+        <v>266</v>
       </c>
       <c r="E495" s="1" t="s">
-        <v>505</v>
+        <v>267</v>
       </c>
       <c r="F495" s="1" t="s">
-        <v>506</v>
+        <v>268</v>
       </c>
       <c r="G495" s="1"/>
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
-        <v>1962</v>
+        <v>1902</v>
       </c>
       <c r="B496" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>507</v>
+        <v>269</v>
       </c>
       <c r="D496" s="1" t="s">
-        <v>508</v>
+        <v>270</v>
       </c>
       <c r="E496" s="1" t="s">
-        <v>509</v>
+        <v>271</v>
       </c>
       <c r="F496" s="1" t="s">
-        <v>510</v>
+        <v>272</v>
       </c>
       <c r="G496" s="1"/>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
-        <v>1963</v>
+        <v>1903</v>
       </c>
       <c r="B497" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>511</v>
+        <v>6</v>
       </c>
       <c r="D497" s="1" t="s">
-        <v>512</v>
+        <v>273</v>
       </c>
       <c r="E497" s="1" t="s">
-        <v>513</v>
+        <v>274</v>
       </c>
       <c r="F497" s="1" t="s">
-        <v>514</v>
+        <v>275</v>
       </c>
       <c r="G497" s="1"/>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
-        <v>1964</v>
+        <v>1904</v>
       </c>
       <c r="B498" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>515</v>
+        <v>276</v>
       </c>
       <c r="D498" s="1" t="s">
-        <v>516</v>
+        <v>277</v>
       </c>
       <c r="E498" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="F498" s="1" t="s">
-        <v>518</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="F498" s="1"/>
       <c r="G498" s="1"/>
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="s">
-        <v>1965</v>
+        <v>1905</v>
       </c>
       <c r="B499" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>519</v>
+        <v>279</v>
       </c>
       <c r="D499" s="1" t="s">
-        <v>520</v>
+        <v>280</v>
       </c>
       <c r="E499" s="1" t="s">
-        <v>521</v>
+        <v>281</v>
       </c>
       <c r="F499" s="1" t="s">
-        <v>522</v>
+        <v>282</v>
       </c>
       <c r="G499" s="1"/>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
-        <v>1966</v>
+        <v>1906</v>
       </c>
       <c r="B500" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>523</v>
+        <v>283</v>
       </c>
       <c r="D500" s="1" t="s">
-        <v>524</v>
+        <v>284</v>
       </c>
       <c r="E500" s="1" t="s">
-        <v>525</v>
+        <v>285</v>
       </c>
       <c r="F500" s="1" t="s">
-        <v>526</v>
+        <v>286</v>
       </c>
       <c r="G500" s="1"/>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
-        <v>1967</v>
+        <v>1907</v>
       </c>
       <c r="B501" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>527</v>
+        <v>287</v>
       </c>
       <c r="D501" s="1" t="s">
-        <v>528</v>
+        <v>288</v>
       </c>
       <c r="E501" s="1" t="s">
-        <v>529</v>
+        <v>289</v>
       </c>
       <c r="F501" s="1" t="s">
-        <v>530</v>
+        <v>290</v>
       </c>
       <c r="G501" s="1"/>
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
-        <v>1968</v>
+        <v>1908</v>
       </c>
       <c r="B502" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>531</v>
+        <v>291</v>
       </c>
       <c r="D502" s="1" t="s">
-        <v>532</v>
+        <v>292</v>
       </c>
       <c r="E502" s="1" t="s">
-        <v>533</v>
+        <v>293</v>
       </c>
       <c r="F502" s="1" t="s">
-        <v>534</v>
+        <v>294</v>
       </c>
       <c r="G502" s="1"/>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A503" s="1" t="s">
-        <v>1969</v>
+        <v>1909</v>
       </c>
       <c r="B503" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>535</v>
+        <v>295</v>
       </c>
       <c r="D503" s="1" t="s">
-        <v>536</v>
+        <v>296</v>
       </c>
       <c r="E503" s="1" t="s">
-        <v>537</v>
+        <v>297</v>
       </c>
       <c r="F503" s="1" t="s">
-        <v>538</v>
+        <v>298</v>
       </c>
       <c r="G503" s="1"/>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
-        <v>1970</v>
+        <v>1910</v>
       </c>
       <c r="B504" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>539</v>
+        <v>299</v>
       </c>
       <c r="D504" s="1" t="s">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="E504" s="1" t="s">
-        <v>541</v>
+        <v>301</v>
       </c>
       <c r="F504" s="1" t="s">
-        <v>542</v>
+        <v>302</v>
       </c>
       <c r="G504" s="1"/>
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="s">
-        <v>1971</v>
+        <v>1911</v>
       </c>
       <c r="B505" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>543</v>
+        <v>303</v>
       </c>
       <c r="D505" s="1" t="s">
-        <v>544</v>
+        <v>304</v>
       </c>
       <c r="E505" s="1" t="s">
-        <v>545</v>
+        <v>305</v>
       </c>
       <c r="F505" s="1" t="s">
-        <v>546</v>
+        <v>306</v>
       </c>
       <c r="G505" s="1"/>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
-        <v>1972</v>
+        <v>1912</v>
       </c>
       <c r="B506" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>547</v>
+        <v>307</v>
       </c>
       <c r="D506" s="1" t="s">
-        <v>548</v>
+        <v>308</v>
       </c>
       <c r="E506" s="1" t="s">
-        <v>549</v>
+        <v>309</v>
       </c>
       <c r="F506" s="1" t="s">
-        <v>550</v>
+        <v>310</v>
       </c>
       <c r="G506" s="1"/>
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
-        <v>1973</v>
+        <v>1913</v>
       </c>
       <c r="B507" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>551</v>
+        <v>311</v>
       </c>
       <c r="D507" s="1" t="s">
-        <v>552</v>
+        <v>312</v>
       </c>
       <c r="E507" s="1" t="s">
-        <v>553</v>
+        <v>313</v>
       </c>
       <c r="F507" s="1" t="s">
-        <v>554</v>
+        <v>314</v>
       </c>
       <c r="G507" s="1"/>
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
-        <v>1974</v>
+        <v>1914</v>
       </c>
       <c r="B508" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>555</v>
+        <v>315</v>
       </c>
       <c r="D508" s="1" t="s">
-        <v>556</v>
+        <v>316</v>
       </c>
       <c r="E508" s="1" t="s">
-        <v>557</v>
+        <v>317</v>
       </c>
       <c r="F508" s="1" t="s">
-        <v>558</v>
+        <v>318</v>
       </c>
       <c r="G508" s="1"/>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
-        <v>1975</v>
+        <v>1915</v>
       </c>
       <c r="B509" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>559</v>
+        <v>319</v>
       </c>
       <c r="D509" s="1" t="s">
-        <v>560</v>
+        <v>320</v>
       </c>
       <c r="E509" s="1" t="s">
-        <v>561</v>
+        <v>321</v>
       </c>
       <c r="F509" s="1" t="s">
-        <v>562</v>
+        <v>322</v>
       </c>
       <c r="G509" s="1"/>
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
-        <v>1976</v>
+        <v>1916</v>
       </c>
       <c r="B510" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>563</v>
+        <v>323</v>
       </c>
       <c r="D510" s="1" t="s">
-        <v>564</v>
+        <v>324</v>
       </c>
       <c r="E510" s="1" t="s">
-        <v>565</v>
+        <v>325</v>
       </c>
       <c r="F510" s="1" t="s">
-        <v>566</v>
+        <v>326</v>
       </c>
       <c r="G510" s="1"/>
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B511" s="1">
+        <v>28</v>
+      </c>
+      <c r="C511" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D511" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E511" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F511" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G511" s="1"/>
+    </row>
+    <row r="512" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A512" s="1" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B512" s="1">
+        <v>29</v>
+      </c>
+      <c r="C512" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D512" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E512" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F512" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G512" s="1"/>
+    </row>
+    <row r="513" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A513" s="1" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B513" s="1">
+        <v>29</v>
+      </c>
+      <c r="C513" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D513" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E513" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F513" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G513" s="1"/>
+    </row>
+    <row r="514" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A514" s="1" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B514" s="1">
+        <v>29</v>
+      </c>
+      <c r="C514" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D514" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E514" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F514" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G514" s="1"/>
+    </row>
+    <row r="515" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A515" s="1" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B515" s="1">
+        <v>29</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D515" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E515" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F515" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G515" s="1"/>
+    </row>
+    <row r="516" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A516" s="1" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B516" s="1">
+        <v>29</v>
+      </c>
+      <c r="C516" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D516" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E516" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F516" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G516" s="1"/>
+    </row>
+    <row r="517" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A517" s="1" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B517" s="1">
+        <v>29</v>
+      </c>
+      <c r="C517" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D517" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E517" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F517" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G517" s="1"/>
+    </row>
+    <row r="518" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A518" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B518" s="1">
+        <v>29</v>
+      </c>
+      <c r="C518" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D518" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E518" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F518" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G518" s="1"/>
+    </row>
+    <row r="519" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A519" s="1" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B519" s="1">
+        <v>29</v>
+      </c>
+      <c r="C519" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D519" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E519" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F519" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G519" s="1"/>
+    </row>
+    <row r="520" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A520" s="1" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B520" s="1">
+        <v>29</v>
+      </c>
+      <c r="C520" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D520" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E520" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F520" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G520" s="1"/>
+    </row>
+    <row r="521" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A521" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B521" s="1">
+        <v>29</v>
+      </c>
+      <c r="C521" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D521" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E521" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F521" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="G521" s="1"/>
+    </row>
+    <row r="522" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A522" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B522" s="1">
+        <v>29</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D522" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E522" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F522" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G522" s="1"/>
+    </row>
+    <row r="523" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A523" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B523" s="1">
+        <v>29</v>
+      </c>
+      <c r="C523" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D523" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E523" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F523" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G523" s="1"/>
+    </row>
+    <row r="524" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A524" s="1" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B524" s="1">
+        <v>29</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D524" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E524" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F524" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G524" s="1"/>
+    </row>
+    <row r="525" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A525" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B525" s="1">
+        <v>29</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D525" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E525" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F525" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="G525" s="1"/>
+    </row>
+    <row r="526" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A526" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B526" s="1">
+        <v>29</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D526" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E526" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F526" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="G526" s="1"/>
+    </row>
+    <row r="527" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A527" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B527" s="1">
+        <v>29</v>
+      </c>
+      <c r="C527" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D527" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E527" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F527" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G527" s="1"/>
+    </row>
+    <row r="528" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A528" s="1" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B528" s="1">
+        <v>29</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D528" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E528" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F528" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="G528" s="1"/>
+    </row>
+    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A529" s="1" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B529" s="1">
+        <v>29</v>
+      </c>
+      <c r="C529" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D529" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E529" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F529" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="G529" s="1"/>
+    </row>
+    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A530" s="1" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B530" s="1">
+        <v>29</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D530" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E530" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F530" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G530" s="1"/>
+    </row>
+    <row r="531" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A531" s="1" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B531" s="1">
+        <v>29</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D531" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E531" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F531" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G531" s="1"/>
+    </row>
+    <row r="532" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A532" s="1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B532" s="1">
+        <v>29</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D532" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E532" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F532" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="G532" s="1"/>
+    </row>
+    <row r="533" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A533" s="1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B533" s="1">
+        <v>29</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D533" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E533" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F533" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G533" s="1"/>
+    </row>
+    <row r="534" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A534" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B534" s="1">
+        <v>29</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D534" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E534" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F534" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G534" s="1"/>
+    </row>
+    <row r="535" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A535" s="1" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B535" s="1">
+        <v>29</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D535" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E535" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="F535" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="G535" s="1"/>
+    </row>
+    <row r="536" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A536" s="1" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B536" s="1">
+        <v>29</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D536" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E536" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="F536" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G536" s="1"/>
+    </row>
+    <row r="537" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A537" s="1" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B537" s="1">
+        <v>29</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D537" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E537" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="F537" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="G537" s="1"/>
+    </row>
+    <row r="538" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A538" s="1" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B538" s="1">
+        <v>29</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D538" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E538" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F538" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="G538" s="1"/>
+    </row>
+    <row r="539" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A539" s="1" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B539" s="1">
+        <v>29</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D539" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E539" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="F539" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="G539" s="1"/>
+    </row>
+    <row r="540" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A540" s="1" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B540" s="1">
+        <v>29</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D540" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E540" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F540" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G540" s="1"/>
+    </row>
+    <row r="541" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A541" s="1" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B541" s="1">
+        <v>29</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D541" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E541" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F541" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="G541" s="1"/>
+    </row>
+    <row r="542" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A542" s="1" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B542" s="1">
+        <v>30</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D542" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E542" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F542" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="G542" s="1"/>
+    </row>
+    <row r="543" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A543" s="1" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B543" s="1">
+        <v>30</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D543" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E543" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F543" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="G543" s="1"/>
+    </row>
+    <row r="544" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A544" s="1" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B544" s="1">
+        <v>30</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D544" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E544" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F544" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="G544" s="1"/>
+    </row>
+    <row r="545" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A545" s="1" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B545" s="1">
+        <v>30</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D545" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E545" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F545" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="G545" s="1"/>
+    </row>
+    <row r="546" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A546" s="1" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B546" s="1">
+        <v>30</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D546" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E546" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F546" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G546" s="1"/>
+    </row>
+    <row r="547" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A547" s="1" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B547" s="1">
+        <v>30</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D547" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E547" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F547" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G547" s="1"/>
+    </row>
+    <row r="548" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A548" s="1" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B548" s="1">
+        <v>30</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D548" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E548" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F548" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="G548" s="1"/>
+    </row>
+    <row r="549" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A549" s="1" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B549" s="1">
+        <v>30</v>
+      </c>
+      <c r="C549" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D549" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E549" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F549" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="G549" s="1"/>
+    </row>
+    <row r="550" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A550" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B550" s="1">
+        <v>30</v>
+      </c>
+      <c r="C550" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D550" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E550" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F550" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G550" s="1"/>
+    </row>
+    <row r="551" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A551" s="1" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B551" s="1">
+        <v>30</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D551" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E551" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F551" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G551" s="1"/>
+    </row>
+    <row r="552" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A552" s="1" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B552" s="1">
+        <v>30</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D552" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E552" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F552" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="G552" s="1"/>
+    </row>
+    <row r="553" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A553" s="1" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B553" s="1">
+        <v>30</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D553" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E553" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F553" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="G553" s="1"/>
+    </row>
+    <row r="554" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A554" s="1" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B554" s="1">
+        <v>30</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D554" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="E554" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F554" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="G554" s="1"/>
+    </row>
+    <row r="555" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A555" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B555" s="1">
+        <v>30</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D555" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E555" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F555" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G555" s="1"/>
+    </row>
+    <row r="556" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A556" s="1" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B556" s="1">
+        <v>30</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D556" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="E556" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F556" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="G556" s="1"/>
+    </row>
+    <row r="557" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A557" s="1" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B557" s="1">
+        <v>30</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D557" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E557" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F557" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="G557" s="1"/>
+    </row>
+    <row r="558" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A558" s="1" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B558" s="1">
+        <v>30</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D558" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E558" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="F558" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="G558" s="1"/>
+    </row>
+    <row r="559" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A559" s="1" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B559" s="1">
+        <v>30</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D559" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E559" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F559" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G559" s="1"/>
+    </row>
+    <row r="560" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A560" s="1" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B560" s="1">
+        <v>30</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D560" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E560" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="F560" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="G560" s="1"/>
+    </row>
+    <row r="561" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A561" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B561" s="1">
+        <v>30</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D561" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E561" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F561" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="G561" s="1"/>
+    </row>
+    <row r="562" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A562" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B562" s="1">
+        <v>30</v>
+      </c>
+      <c r="C562" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D562" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E562" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F562" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="G562" s="1"/>
+    </row>
+    <row r="563" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A563" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B563" s="1">
+        <v>30</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D563" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="E563" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F563" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="G563" s="1"/>
+    </row>
+    <row r="564" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A564" s="1" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B564" s="1">
+        <v>30</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D564" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E564" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="F564" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="G564" s="1"/>
+    </row>
+    <row r="565" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A565" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B565" s="1">
+        <v>30</v>
+      </c>
+      <c r="C565" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D565" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="E565" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F565" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="G565" s="1"/>
+    </row>
+    <row r="566" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A566" s="1" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B566" s="1">
+        <v>30</v>
+      </c>
+      <c r="C566" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D566" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E566" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F566" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="G566" s="1"/>
+    </row>
+    <row r="567" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A567" s="1" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B567" s="1">
+        <v>30</v>
+      </c>
+      <c r="C567" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D567" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E567" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F567" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="G567" s="1"/>
+    </row>
+    <row r="568" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A568" s="1" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B568" s="1">
+        <v>30</v>
+      </c>
+      <c r="C568" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D568" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E568" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F568" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="G568" s="1"/>
+    </row>
+    <row r="569" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A569" s="1" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B569" s="1">
+        <v>30</v>
+      </c>
+      <c r="C569" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D569" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E569" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F569" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="G569" s="1"/>
+    </row>
+    <row r="570" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A570" s="1" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B570" s="1">
+        <v>30</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D570" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E570" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F570" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="G570" s="1"/>
+    </row>
+    <row r="571" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A571" s="1" t="s">
         <v>1977</v>
       </c>
-      <c r="B511" s="1">
+      <c r="B571" s="1">
         <v>30</v>
       </c>
-      <c r="C511" s="1" t="s">
+      <c r="C571" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D511" s="1" t="s">
+      <c r="D571" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="E511" s="1" t="s">
+      <c r="E571" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="F511" s="1" t="s">
+      <c r="F571" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="G511" s="1"/>
+      <c r="G571" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/data/WordStudy.xlsx
+++ b/data/WordStudy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dom/Documents/Dom/english-app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5A7A90-A1CE-C64D-8623-8F06E081BF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B670D4D-7040-394F-83C7-A3DC0AA1E742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50380" yWindow="1600" windowWidth="33600" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="49160" yWindow="2640" windowWidth="34240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3274" uniqueCount="2806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3634" uniqueCount="3105">
   <si>
     <t>ID</t>
   </si>
@@ -8448,6 +8448,903 @@
   </si>
   <si>
     <t>commit to something</t>
+  </si>
+  <si>
+    <t>U15_01</t>
+  </si>
+  <si>
+    <t>U15_02</t>
+  </si>
+  <si>
+    <t>U15_03</t>
+  </si>
+  <si>
+    <t>U15_04</t>
+  </si>
+  <si>
+    <t>U15_05</t>
+  </si>
+  <si>
+    <t>U15_06</t>
+  </si>
+  <si>
+    <t>U15_07</t>
+  </si>
+  <si>
+    <t>U15_08</t>
+  </si>
+  <si>
+    <t>U15_09</t>
+  </si>
+  <si>
+    <t>U15_10</t>
+  </si>
+  <si>
+    <t>U15_11</t>
+  </si>
+  <si>
+    <t>U15_12</t>
+  </si>
+  <si>
+    <t>U15_13</t>
+  </si>
+  <si>
+    <t>U15_14</t>
+  </si>
+  <si>
+    <t>U15_15</t>
+  </si>
+  <si>
+    <t>U15_16</t>
+  </si>
+  <si>
+    <t>U15_17</t>
+  </si>
+  <si>
+    <t>U15_18</t>
+  </si>
+  <si>
+    <t>U15_19</t>
+  </si>
+  <si>
+    <t>U15_20</t>
+  </si>
+  <si>
+    <t>U15_21</t>
+  </si>
+  <si>
+    <t>U15_22</t>
+  </si>
+  <si>
+    <t>U15_23</t>
+  </si>
+  <si>
+    <t>U15_24</t>
+  </si>
+  <si>
+    <t>U15_25</t>
+  </si>
+  <si>
+    <t>U15_26</t>
+  </si>
+  <si>
+    <t>U15_27</t>
+  </si>
+  <si>
+    <t>U15_28</t>
+  </si>
+  <si>
+    <t>U15_29</t>
+  </si>
+  <si>
+    <t>U15_30</t>
+  </si>
+  <si>
+    <t>Tích cực</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>A positive attitude helps you stay strong</t>
+  </si>
+  <si>
+    <t>a positive attitude</t>
+  </si>
+  <si>
+    <t>Đơn giản</t>
+  </si>
+  <si>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t>A simple solution is always the best</t>
+  </si>
+  <si>
+    <t>a simple solution</t>
+  </si>
+  <si>
+    <t>Tiêu cực</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>I try to become more financially independent from my parents</t>
+  </si>
+  <si>
+    <t>A negative attitude kills your energy</t>
+  </si>
+  <si>
+    <t>A negative attitude</t>
+  </si>
+  <si>
+    <t>Độc lập, tự lập</t>
+  </si>
+  <si>
+    <t>Independent</t>
+  </si>
+  <si>
+    <t>Financially independent</t>
+  </si>
+  <si>
+    <t>Chiều cao</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>She is 1.52 meters in height</t>
+  </si>
+  <si>
+    <t>in height</t>
+  </si>
+  <si>
+    <t>Tóc mái</t>
+  </si>
+  <si>
+    <t>Bangs</t>
+  </si>
+  <si>
+    <t>She has short bangs</t>
+  </si>
+  <si>
+    <t>short bangs</t>
+  </si>
+  <si>
+    <t>Đẹp trai</t>
+  </si>
+  <si>
+    <t>Handsome</t>
+  </si>
+  <si>
+    <t>He is a handsome man with a good heart</t>
+  </si>
+  <si>
+    <t>a handsome man</t>
+  </si>
+  <si>
+    <t>Vết sẹo</t>
+  </si>
+  <si>
+    <t>Scar</t>
+  </si>
+  <si>
+    <t>He has a scar on his cheek</t>
+  </si>
+  <si>
+    <t>A scar on somewhere</t>
+  </si>
+  <si>
+    <t>Cẩn thận</t>
+  </si>
+  <si>
+    <t>Careful</t>
+  </si>
+  <si>
+    <t>be careful of the dogs</t>
+  </si>
+  <si>
+    <t>Be careful of something something or somebody</t>
+  </si>
+  <si>
+    <t>Hình dáng</t>
+  </si>
+  <si>
+    <t>Figure</t>
+  </si>
+  <si>
+    <t>She has an hour-glass figure</t>
+  </si>
+  <si>
+    <t>an hour-glass figure</t>
+  </si>
+  <si>
+    <t>Câu nói đùa</t>
+  </si>
+  <si>
+    <t>Joke</t>
+  </si>
+  <si>
+    <t>My friend tells me a joke each time we meet</t>
+  </si>
+  <si>
+    <t>tell a joke</t>
+  </si>
+  <si>
+    <t>Bình thường</t>
+  </si>
+  <si>
+    <t>Ordinary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are just ordinary people, not supermen. </t>
+  </si>
+  <si>
+    <t>ordinary people</t>
+  </si>
+  <si>
+    <t>Thông minh</t>
+  </si>
+  <si>
+    <t>Smart</t>
+  </si>
+  <si>
+    <t>Buying this book is my smartest move ever/thông minh nhất từng làm</t>
+  </si>
+  <si>
+    <t>A smart move / một việc thông minh</t>
+  </si>
+  <si>
+    <t>Có ích</t>
+  </si>
+  <si>
+    <t>Helpful</t>
+  </si>
+  <si>
+    <t>I thank her for the helpful information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helpful information </t>
+  </si>
+  <si>
+    <t>So sánh</t>
+  </si>
+  <si>
+    <t>Compare</t>
+  </si>
+  <si>
+    <t>My mother always compares him to me</t>
+  </si>
+  <si>
+    <t>compare somebody to somebody</t>
+  </si>
+  <si>
+    <t>Thiên tài</t>
+  </si>
+  <si>
+    <t>Genius</t>
+  </si>
+  <si>
+    <t>My brother is a math genius</t>
+  </si>
+  <si>
+    <t>a math genius</t>
+  </si>
+  <si>
+    <t>Sự thông thái</t>
+  </si>
+  <si>
+    <t>Wisdom</t>
+  </si>
+  <si>
+    <t>His grandmother gives him many words of wisdom</t>
+  </si>
+  <si>
+    <t>words of wisdom / Lời khuyên sáng suốt</t>
+  </si>
+  <si>
+    <t>Mô tả</t>
+  </si>
+  <si>
+    <t>Describe</t>
+  </si>
+  <si>
+    <t>Please describe yourself in 3 words</t>
+  </si>
+  <si>
+    <t>describe somebody or something</t>
+  </si>
+  <si>
+    <t>khôn khéo, thông minh</t>
+  </si>
+  <si>
+    <t>Clever</t>
+  </si>
+  <si>
+    <t>My sister is such a clever girl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a clever girl </t>
+  </si>
+  <si>
+    <t>Sự hài hước</t>
+  </si>
+  <si>
+    <t>Humor</t>
+  </si>
+  <si>
+    <t>You have a good sense of humor</t>
+  </si>
+  <si>
+    <t>a sense of humor / khiếu hài hước</t>
+  </si>
+  <si>
+    <t>Thái độ</t>
+  </si>
+  <si>
+    <t>Attitude</t>
+  </si>
+  <si>
+    <t>he shows a bad attitude towards his father</t>
+  </si>
+  <si>
+    <t>an attitude towards sb or sth</t>
+  </si>
+  <si>
+    <t>Tự nhiên</t>
+  </si>
+  <si>
+    <t>Natural</t>
+  </si>
+  <si>
+    <t>it's perfectly natural to need help sometimes</t>
+  </si>
+  <si>
+    <t>perfectly natural / hoàn toàn tự nhiên</t>
+  </si>
+  <si>
+    <t>Nghiêm túc</t>
+  </si>
+  <si>
+    <t>Serious</t>
+  </si>
+  <si>
+    <t>A serious person can hardly relax</t>
+  </si>
+  <si>
+    <t>a serious person</t>
+  </si>
+  <si>
+    <t>Thân thiện</t>
+  </si>
+  <si>
+    <t>Friendly</t>
+  </si>
+  <si>
+    <t>She is friendly to anyone she meets</t>
+  </si>
+  <si>
+    <t>friendly to somebody</t>
+  </si>
+  <si>
+    <t>Đặc biệt là</t>
+  </si>
+  <si>
+    <t>Especially</t>
+  </si>
+  <si>
+    <t>Herbs are especially important in vietnamese food</t>
+  </si>
+  <si>
+    <t>especially important</t>
+  </si>
+  <si>
+    <t>Xinh xắn</t>
+  </si>
+  <si>
+    <t>Pretty</t>
+  </si>
+  <si>
+    <t>She has a pretty face that everyone likes</t>
+  </si>
+  <si>
+    <t>a pretty face</t>
+  </si>
+  <si>
+    <t>May mắn</t>
+  </si>
+  <si>
+    <t>Lucky</t>
+  </si>
+  <si>
+    <t>I feel lucky to pass the exam easily</t>
+  </si>
+  <si>
+    <t>feel lucky</t>
+  </si>
+  <si>
+    <t>Bất cứ khi nào</t>
+  </si>
+  <si>
+    <t>Whenever</t>
+  </si>
+  <si>
+    <t>I like to practice english with you whenever posible</t>
+  </si>
+  <si>
+    <t>Whenever possible</t>
+  </si>
+  <si>
+    <t>Accept</t>
+  </si>
+  <si>
+    <t>He accepts the offer from harvard university</t>
+  </si>
+  <si>
+    <t>accept an offer</t>
+  </si>
+  <si>
+    <t>Hoàn hảo</t>
+  </si>
+  <si>
+    <t>Perfect</t>
+  </si>
+  <si>
+    <t>He is the perfect person for the job</t>
+  </si>
+  <si>
+    <t>a perfect sth or sb</t>
+  </si>
+  <si>
+    <t>U16_01</t>
+  </si>
+  <si>
+    <t>U16_02</t>
+  </si>
+  <si>
+    <t>U16_03</t>
+  </si>
+  <si>
+    <t>U16_04</t>
+  </si>
+  <si>
+    <t>U16_05</t>
+  </si>
+  <si>
+    <t>U16_06</t>
+  </si>
+  <si>
+    <t>U16_07</t>
+  </si>
+  <si>
+    <t>U16_08</t>
+  </si>
+  <si>
+    <t>U16_09</t>
+  </si>
+  <si>
+    <t>U16_10</t>
+  </si>
+  <si>
+    <t>U16_11</t>
+  </si>
+  <si>
+    <t>U16_12</t>
+  </si>
+  <si>
+    <t>U16_13</t>
+  </si>
+  <si>
+    <t>U16_14</t>
+  </si>
+  <si>
+    <t>U16_15</t>
+  </si>
+  <si>
+    <t>U16_16</t>
+  </si>
+  <si>
+    <t>U16_17</t>
+  </si>
+  <si>
+    <t>U16_18</t>
+  </si>
+  <si>
+    <t>U16_19</t>
+  </si>
+  <si>
+    <t>U16_20</t>
+  </si>
+  <si>
+    <t>U16_21</t>
+  </si>
+  <si>
+    <t>U16_22</t>
+  </si>
+  <si>
+    <t>U16_23</t>
+  </si>
+  <si>
+    <t>U16_24</t>
+  </si>
+  <si>
+    <t>U16_25</t>
+  </si>
+  <si>
+    <t>U16_26</t>
+  </si>
+  <si>
+    <t>U16_27</t>
+  </si>
+  <si>
+    <t>U16_28</t>
+  </si>
+  <si>
+    <t>U16_29</t>
+  </si>
+  <si>
+    <t>U16_30</t>
+  </si>
+  <si>
+    <t>Ăn vặt</t>
+  </si>
+  <si>
+    <t>Snack</t>
+  </si>
+  <si>
+    <t>I snack on dried fruits</t>
+  </si>
+  <si>
+    <t>snack on something</t>
+  </si>
+  <si>
+    <t>hạt tiêu</t>
+  </si>
+  <si>
+    <t>Pepper</t>
+  </si>
+  <si>
+    <t>Add some black pepper to make it spicier</t>
+  </si>
+  <si>
+    <t>black pepper</t>
+  </si>
+  <si>
+    <t>Bít tết</t>
+  </si>
+  <si>
+    <t>Steak</t>
+  </si>
+  <si>
+    <t>I want a medium-rare steak</t>
+  </si>
+  <si>
+    <t>a medium-rare steak</t>
+  </si>
+  <si>
+    <t>Thịt bò</t>
+  </si>
+  <si>
+    <t>Beef</t>
+  </si>
+  <si>
+    <t>Beef stew is always my favorite dish</t>
+  </si>
+  <si>
+    <t>beef stew</t>
+  </si>
+  <si>
+    <t>Thịt lợn</t>
+  </si>
+  <si>
+    <t>Pork</t>
+  </si>
+  <si>
+    <t>Com tam is served with grilled port chops</t>
+  </si>
+  <si>
+    <t>grilled pork chops</t>
+  </si>
+  <si>
+    <t>Sườn</t>
+  </si>
+  <si>
+    <t>Rib</t>
+  </si>
+  <si>
+    <t>Braised pork ribs are my go-to dish for parties</t>
+  </si>
+  <si>
+    <t>pork ribs</t>
+  </si>
+  <si>
+    <t>Hải sản</t>
+  </si>
+  <si>
+    <t>Seafood</t>
+  </si>
+  <si>
+    <t>This restaurant has fresh seafood</t>
+  </si>
+  <si>
+    <t>fresh seafood</t>
+  </si>
+  <si>
+    <t>Shrimp</t>
+  </si>
+  <si>
+    <t>Tôm</t>
+  </si>
+  <si>
+    <t>Many people cannot stand shrimp paste</t>
+  </si>
+  <si>
+    <t>shrimp paste / mắm tôm</t>
+  </si>
+  <si>
+    <t>Xoài</t>
+  </si>
+  <si>
+    <t>Mango</t>
+  </si>
+  <si>
+    <t>Thai green mango is good to make a salad</t>
+  </si>
+  <si>
+    <t>A green mango</t>
+  </si>
+  <si>
+    <t>Lưỡi</t>
+  </si>
+  <si>
+    <t>Tongue</t>
+  </si>
+  <si>
+    <t>The boy stricks out his tongue to people on the street</t>
+  </si>
+  <si>
+    <t>stick out one's tongue / lè lưỡi</t>
+  </si>
+  <si>
+    <t>Làm nóng</t>
+  </si>
+  <si>
+    <t>Heat</t>
+  </si>
+  <si>
+    <t>heat up something</t>
+  </si>
+  <si>
+    <t>She heats up the leftovers / đồ ăn thừa</t>
+  </si>
+  <si>
+    <t>Mau chóng</t>
+  </si>
+  <si>
+    <t>Quick</t>
+  </si>
+  <si>
+    <t>Be quick or the goods will run out</t>
+  </si>
+  <si>
+    <t>be quick / nhanh lên</t>
+  </si>
+  <si>
+    <t>Rưới, đổ</t>
+  </si>
+  <si>
+    <t>Pour</t>
+  </si>
+  <si>
+    <t>Let's pour some honey into the tea</t>
+  </si>
+  <si>
+    <t>pour something into something</t>
+  </si>
+  <si>
+    <t>Cái bát</t>
+  </si>
+  <si>
+    <t>Bowl</t>
+  </si>
+  <si>
+    <t>A bowl of soup will warm you up</t>
+  </si>
+  <si>
+    <t>a bowl of soup</t>
+  </si>
+  <si>
+    <t>Nhạt</t>
+  </si>
+  <si>
+    <t>Bland</t>
+  </si>
+  <si>
+    <t>This bland sauce ruins the pasta</t>
+  </si>
+  <si>
+    <t>a bland sauce</t>
+  </si>
+  <si>
+    <t>Lime</t>
+  </si>
+  <si>
+    <t>Quả chanh ta</t>
+  </si>
+  <si>
+    <t>My mother squeezes the lime to make the sauce</t>
+  </si>
+  <si>
+    <t>Squeeze the lime / vắt chanh</t>
+  </si>
+  <si>
+    <t>Mọng nước</t>
+  </si>
+  <si>
+    <t>Juicy</t>
+  </si>
+  <si>
+    <t>Juicy fruits are so refreshing</t>
+  </si>
+  <si>
+    <t>juicy fruits</t>
+  </si>
+  <si>
+    <t>Chua</t>
+  </si>
+  <si>
+    <t>Sour</t>
+  </si>
+  <si>
+    <t>The milk turns sour after 2 days</t>
+  </si>
+  <si>
+    <t>turn sour / bị hỏng bị chua</t>
+  </si>
+  <si>
+    <t>Nuốt trọng</t>
+  </si>
+  <si>
+    <t>Swallow</t>
+  </si>
+  <si>
+    <t>The baby cannot swallow large pills</t>
+  </si>
+  <si>
+    <t>swallow something</t>
+  </si>
+  <si>
+    <t>Cay</t>
+  </si>
+  <si>
+    <t>Spicy</t>
+  </si>
+  <si>
+    <t>Spicy food burns my tongue</t>
+  </si>
+  <si>
+    <t>spicy food</t>
+  </si>
+  <si>
+    <t>Hành</t>
+  </si>
+  <si>
+    <t>Onion</t>
+  </si>
+  <si>
+    <t>chop onions / băm hành tây</t>
+  </si>
+  <si>
+    <t>Chopping onions makes me cry</t>
+  </si>
+  <si>
+    <t>Tỏi</t>
+  </si>
+  <si>
+    <t>Garlic</t>
+  </si>
+  <si>
+    <t>This steak needs a clove of garlic</t>
+  </si>
+  <si>
+    <t>a clove of garlic / một tép tỏi</t>
+  </si>
+  <si>
+    <t>Chiên</t>
+  </si>
+  <si>
+    <t>Fry</t>
+  </si>
+  <si>
+    <t>I fry some eggs for breakfast</t>
+  </si>
+  <si>
+    <t>fry an egg</t>
+  </si>
+  <si>
+    <t>Ngô</t>
+  </si>
+  <si>
+    <t>Corn</t>
+  </si>
+  <si>
+    <t>In america, you see many fields of corn</t>
+  </si>
+  <si>
+    <t>fields of corn</t>
+  </si>
+  <si>
+    <t>Tủ lạnh</t>
+  </si>
+  <si>
+    <t>fridge</t>
+  </si>
+  <si>
+    <t>We store all our food in a household fridge</t>
+  </si>
+  <si>
+    <t>a household fridge / tủ lạnh gia dụng</t>
+  </si>
+  <si>
+    <t>Nồi</t>
+  </si>
+  <si>
+    <t>Pot</t>
+  </si>
+  <si>
+    <t>She makes a pot of braised pork</t>
+  </si>
+  <si>
+    <t>a pot ot something</t>
+  </si>
+  <si>
+    <t>Thái</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>He slices up the small cake</t>
+  </si>
+  <si>
+    <t>Slice up something</t>
+  </si>
+  <si>
+    <t>Khoai tây</t>
+  </si>
+  <si>
+    <t>Potato</t>
+  </si>
+  <si>
+    <t>Could you help me peel some potatoes?</t>
+  </si>
+  <si>
+    <t>peel potatoes / gọt vỏ khoai tây</t>
+  </si>
+  <si>
+    <t>Lò vi sóng</t>
+  </si>
+  <si>
+    <t>Microwave</t>
+  </si>
+  <si>
+    <t>he still uses an old microwave</t>
+  </si>
+  <si>
+    <t>an old microwave</t>
+  </si>
+  <si>
+    <t>Khuấy, đảo</t>
+  </si>
+  <si>
+    <t>Stir</t>
+  </si>
+  <si>
+    <t>Remember to stir the mixture before using</t>
+  </si>
+  <si>
+    <t>Stir the mixture</t>
   </si>
 </sst>
 </file>
@@ -8812,10 +9709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G571"/>
+  <dimension ref="A1:G631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B411" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G421" sqref="G421"/>
+    <sheetView tabSelected="1" topLeftCell="A469" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C482" sqref="C482"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18513,3147 +19410,4527 @@
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
-        <v>1828</v>
+        <v>2806</v>
       </c>
       <c r="B422" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>6</v>
+        <v>2836</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>7</v>
+        <v>2837</v>
       </c>
       <c r="E422" s="1" t="s">
-        <v>8</v>
+        <v>2838</v>
       </c>
       <c r="F422" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G422" s="1"/>
+        <v>2839</v>
+      </c>
+      <c r="G422" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
-        <v>1829</v>
+        <v>2807</v>
       </c>
       <c r="B423" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>10</v>
+        <v>2840</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>11</v>
+        <v>2841</v>
       </c>
       <c r="E423" s="1" t="s">
-        <v>12</v>
+        <v>2842</v>
       </c>
       <c r="F423" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G423" s="1"/>
+        <v>2843</v>
+      </c>
+      <c r="G423" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
-        <v>1830</v>
+        <v>2808</v>
       </c>
       <c r="B424" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>13</v>
+        <v>2844</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>14</v>
+        <v>2845</v>
       </c>
       <c r="E424" s="1" t="s">
-        <v>15</v>
+        <v>2847</v>
       </c>
       <c r="F424" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G424" s="1"/>
+        <v>2848</v>
+      </c>
+      <c r="G424" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
-        <v>1831</v>
+        <v>2809</v>
       </c>
       <c r="B425" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>16</v>
+        <v>2849</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>17</v>
+        <v>2850</v>
       </c>
       <c r="E425" s="1" t="s">
-        <v>18</v>
+        <v>2846</v>
       </c>
       <c r="F425" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G425" s="1"/>
+        <v>2851</v>
+      </c>
+      <c r="G425" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
-        <v>1832</v>
+        <v>2810</v>
       </c>
       <c r="B426" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>19</v>
+        <v>2852</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>20</v>
+        <v>2853</v>
       </c>
       <c r="E426" s="1" t="s">
-        <v>21</v>
+        <v>2854</v>
       </c>
       <c r="F426" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G426" s="1"/>
+        <v>2855</v>
+      </c>
+      <c r="G426" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
-        <v>1833</v>
+        <v>2811</v>
       </c>
       <c r="B427" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>22</v>
+        <v>2856</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>23</v>
+        <v>2857</v>
       </c>
       <c r="E427" s="1" t="s">
-        <v>24</v>
+        <v>2858</v>
       </c>
       <c r="F427" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G427" s="1"/>
+        <v>2859</v>
+      </c>
+      <c r="G427" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
-        <v>1834</v>
+        <v>2812</v>
       </c>
       <c r="B428" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>25</v>
+        <v>2860</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>26</v>
+        <v>2861</v>
       </c>
       <c r="E428" s="1" t="s">
-        <v>27</v>
+        <v>2862</v>
       </c>
       <c r="F428" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G428" s="1"/>
+        <v>2863</v>
+      </c>
+      <c r="G428" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
-        <v>1835</v>
+        <v>2813</v>
       </c>
       <c r="B429" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>28</v>
+        <v>2864</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>29</v>
+        <v>2865</v>
       </c>
       <c r="E429" s="1" t="s">
-        <v>30</v>
+        <v>2866</v>
       </c>
       <c r="F429" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G429" s="1"/>
+        <v>2867</v>
+      </c>
+      <c r="G429" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
-        <v>1836</v>
+        <v>2814</v>
       </c>
       <c r="B430" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>31</v>
+        <v>2868</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>32</v>
+        <v>2869</v>
       </c>
       <c r="E430" s="1" t="s">
-        <v>33</v>
+        <v>2870</v>
       </c>
       <c r="F430" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G430" s="1"/>
+        <v>2871</v>
+      </c>
+      <c r="G430" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
-        <v>1837</v>
+        <v>2815</v>
       </c>
       <c r="B431" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>34</v>
+        <v>2872</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>35</v>
+        <v>2873</v>
       </c>
       <c r="E431" s="1" t="s">
-        <v>36</v>
+        <v>2874</v>
       </c>
       <c r="F431" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G431" s="1"/>
+        <v>2875</v>
+      </c>
+      <c r="G431" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
-        <v>1838</v>
+        <v>2816</v>
       </c>
       <c r="B432" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>37</v>
+        <v>2876</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>38</v>
+        <v>2877</v>
       </c>
       <c r="E432" s="1" t="s">
-        <v>39</v>
+        <v>2878</v>
       </c>
       <c r="F432" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G432" s="1"/>
+        <v>2879</v>
+      </c>
+      <c r="G432" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
-        <v>1839</v>
+        <v>2817</v>
       </c>
       <c r="B433" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>40</v>
+        <v>2880</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>41</v>
+        <v>2881</v>
       </c>
       <c r="E433" s="1" t="s">
-        <v>42</v>
+        <v>2882</v>
       </c>
       <c r="F433" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G433" s="1"/>
+        <v>2883</v>
+      </c>
+      <c r="G433" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
-        <v>1840</v>
+        <v>2818</v>
       </c>
       <c r="B434" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>43</v>
+        <v>2884</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>44</v>
+        <v>2885</v>
       </c>
       <c r="E434" s="1" t="s">
-        <v>45</v>
+        <v>2886</v>
       </c>
       <c r="F434" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G434" s="1"/>
+        <v>2887</v>
+      </c>
+      <c r="G434" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
-        <v>1841</v>
+        <v>2819</v>
       </c>
       <c r="B435" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>47</v>
+        <v>2888</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>48</v>
+        <v>2889</v>
       </c>
       <c r="E435" s="1" t="s">
-        <v>49</v>
+        <v>2890</v>
       </c>
       <c r="F435" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G435" s="1"/>
+        <v>2891</v>
+      </c>
+      <c r="G435" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
-        <v>1842</v>
+        <v>2820</v>
       </c>
       <c r="B436" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>50</v>
+        <v>2892</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>51</v>
+        <v>2893</v>
       </c>
       <c r="E436" s="1" t="s">
-        <v>52</v>
+        <v>2894</v>
       </c>
       <c r="F436" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G436" s="1"/>
+        <v>2895</v>
+      </c>
+      <c r="G436" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
-        <v>1843</v>
+        <v>2821</v>
       </c>
       <c r="B437" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>54</v>
+        <v>2896</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>55</v>
+        <v>2897</v>
       </c>
       <c r="E437" s="1" t="s">
-        <v>56</v>
+        <v>2898</v>
       </c>
       <c r="F437" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G437" s="1"/>
+        <v>2899</v>
+      </c>
+      <c r="G437" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
-        <v>1844</v>
+        <v>2822</v>
       </c>
       <c r="B438" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>57</v>
+        <v>2900</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>58</v>
+        <v>2901</v>
       </c>
       <c r="E438" s="1" t="s">
-        <v>59</v>
+        <v>2902</v>
       </c>
       <c r="F438" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G438" s="1"/>
+        <v>2903</v>
+      </c>
+      <c r="G438" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
-        <v>1845</v>
+        <v>2823</v>
       </c>
       <c r="B439" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>61</v>
+        <v>2904</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>62</v>
+        <v>2905</v>
       </c>
       <c r="E439" s="1" t="s">
-        <v>63</v>
+        <v>2906</v>
       </c>
       <c r="F439" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G439" s="1"/>
+        <v>2907</v>
+      </c>
+      <c r="G439" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
-        <v>1846</v>
+        <v>2824</v>
       </c>
       <c r="B440" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>64</v>
+        <v>2908</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>65</v>
+        <v>2909</v>
       </c>
       <c r="E440" s="1" t="s">
-        <v>66</v>
+        <v>2910</v>
       </c>
       <c r="F440" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G440" s="1"/>
+        <v>2911</v>
+      </c>
+      <c r="G440" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
-        <v>1847</v>
+        <v>2825</v>
       </c>
       <c r="B441" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>67</v>
+        <v>2912</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>68</v>
+        <v>2913</v>
       </c>
       <c r="E441" s="1" t="s">
-        <v>69</v>
+        <v>2914</v>
       </c>
       <c r="F441" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G441" s="1"/>
+        <v>2915</v>
+      </c>
+      <c r="G441" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
-        <v>1848</v>
+        <v>2826</v>
       </c>
       <c r="B442" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>71</v>
+        <v>2916</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>72</v>
+        <v>2917</v>
       </c>
       <c r="E442" s="1" t="s">
-        <v>73</v>
+        <v>2918</v>
       </c>
       <c r="F442" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G442" s="1"/>
+        <v>2919</v>
+      </c>
+      <c r="G442" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
-        <v>1849</v>
+        <v>2827</v>
       </c>
       <c r="B443" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>74</v>
+        <v>2920</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>75</v>
+        <v>2921</v>
       </c>
       <c r="E443" s="1" t="s">
-        <v>76</v>
+        <v>2922</v>
       </c>
       <c r="F443" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G443" s="1"/>
+        <v>2923</v>
+      </c>
+      <c r="G443" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
-        <v>1850</v>
+        <v>2828</v>
       </c>
       <c r="B444" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>77</v>
+        <v>2924</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>78</v>
+        <v>2925</v>
       </c>
       <c r="E444" s="1" t="s">
-        <v>79</v>
+        <v>2926</v>
       </c>
       <c r="F444" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G444" s="1"/>
+        <v>2927</v>
+      </c>
+      <c r="G444" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
-        <v>1851</v>
+        <v>2829</v>
       </c>
       <c r="B445" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>80</v>
+        <v>2928</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>81</v>
+        <v>2929</v>
       </c>
       <c r="E445" s="1" t="s">
-        <v>82</v>
+        <v>2930</v>
       </c>
       <c r="F445" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G445" s="1"/>
+        <v>2931</v>
+      </c>
+      <c r="G445" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
-        <v>1852</v>
+        <v>2830</v>
       </c>
       <c r="B446" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>83</v>
+        <v>2932</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>84</v>
+        <v>2933</v>
       </c>
       <c r="E446" s="1" t="s">
-        <v>85</v>
+        <v>2934</v>
       </c>
       <c r="F446" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G446" s="1"/>
+        <v>2935</v>
+      </c>
+      <c r="G446" s="1" t="s">
+        <v>720</v>
+      </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
-        <v>1853</v>
+        <v>2831</v>
       </c>
       <c r="B447" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>86</v>
+        <v>2936</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>87</v>
+        <v>2937</v>
       </c>
       <c r="E447" s="1" t="s">
-        <v>88</v>
+        <v>2938</v>
       </c>
       <c r="F447" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G447" s="1"/>
+        <v>2939</v>
+      </c>
+      <c r="G447" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
-        <v>1854</v>
+        <v>2832</v>
       </c>
       <c r="B448" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>90</v>
+        <v>2940</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>91</v>
+        <v>2941</v>
       </c>
       <c r="E448" s="1" t="s">
-        <v>92</v>
+        <v>2942</v>
       </c>
       <c r="F448" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G448" s="1"/>
+        <v>2943</v>
+      </c>
+      <c r="G448" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="s">
-        <v>1855</v>
+        <v>2833</v>
       </c>
       <c r="B449" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>94</v>
+        <v>2944</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>95</v>
+        <v>2945</v>
       </c>
       <c r="E449" s="1" t="s">
-        <v>96</v>
+        <v>2946</v>
       </c>
       <c r="F449" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G449" s="1"/>
+        <v>2947</v>
+      </c>
+      <c r="G449" s="1" t="s">
+        <v>720</v>
+      </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
-        <v>1856</v>
+        <v>2834</v>
       </c>
       <c r="B450" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>97</v>
+        <v>1601</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>98</v>
+        <v>2948</v>
       </c>
       <c r="E450" s="1" t="s">
-        <v>99</v>
+        <v>2949</v>
       </c>
       <c r="F450" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G450" s="1"/>
+        <v>2950</v>
+      </c>
+      <c r="G450" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
-        <v>1857</v>
+        <v>2835</v>
       </c>
       <c r="B451" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>100</v>
+        <v>2951</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>101</v>
+        <v>2952</v>
       </c>
       <c r="E451" s="1" t="s">
-        <v>102</v>
+        <v>2953</v>
       </c>
       <c r="F451" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G451" s="1"/>
+        <v>2954</v>
+      </c>
+      <c r="G451" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
-        <v>1858</v>
+        <v>2955</v>
       </c>
       <c r="B452" s="1">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>103</v>
+        <v>2985</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>104</v>
+        <v>2986</v>
       </c>
       <c r="E452" s="1" t="s">
-        <v>105</v>
+        <v>2987</v>
       </c>
       <c r="F452" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G452" s="1"/>
+        <v>2988</v>
+      </c>
+      <c r="G452" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
-        <v>1859</v>
+        <v>2956</v>
       </c>
       <c r="B453" s="1">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>106</v>
+        <v>2989</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>107</v>
+        <v>2990</v>
       </c>
       <c r="E453" s="1" t="s">
-        <v>108</v>
+        <v>2991</v>
       </c>
       <c r="F453" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G453" s="1"/>
+        <v>2992</v>
+      </c>
+      <c r="G453" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
-        <v>1860</v>
+        <v>2957</v>
       </c>
       <c r="B454" s="1">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>109</v>
+        <v>2993</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>110</v>
+        <v>2994</v>
       </c>
       <c r="E454" s="1" t="s">
-        <v>111</v>
+        <v>2995</v>
       </c>
       <c r="F454" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G454" s="1"/>
+        <v>2996</v>
+      </c>
+      <c r="G454" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
-        <v>1861</v>
+        <v>2958</v>
       </c>
       <c r="B455" s="1">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>112</v>
+        <v>2997</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>113</v>
+        <v>2998</v>
       </c>
       <c r="E455" s="1" t="s">
-        <v>114</v>
+        <v>2999</v>
       </c>
       <c r="F455" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G455" s="1"/>
+        <v>3000</v>
+      </c>
+      <c r="G455" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
-        <v>1862</v>
+        <v>2959</v>
       </c>
       <c r="B456" s="1">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>115</v>
+        <v>3001</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>116</v>
+        <v>3002</v>
       </c>
       <c r="E456" s="1" t="s">
-        <v>117</v>
+        <v>3003</v>
       </c>
       <c r="F456" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G456" s="1"/>
+        <v>3004</v>
+      </c>
+      <c r="G456" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A457" s="1" t="s">
-        <v>1863</v>
+        <v>2960</v>
       </c>
       <c r="B457" s="1">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>118</v>
+        <v>3005</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>119</v>
+        <v>3006</v>
       </c>
       <c r="E457" s="1" t="s">
-        <v>120</v>
+        <v>3007</v>
       </c>
       <c r="F457" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G457" s="1"/>
+        <v>3008</v>
+      </c>
+      <c r="G457" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
-        <v>1864</v>
+        <v>2961</v>
       </c>
       <c r="B458" s="1">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>121</v>
+        <v>3009</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>122</v>
+        <v>3010</v>
       </c>
       <c r="E458" s="1" t="s">
-        <v>123</v>
+        <v>3011</v>
       </c>
       <c r="F458" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G458" s="1"/>
+        <v>3012</v>
+      </c>
+      <c r="G458" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
-        <v>1865</v>
+        <v>2962</v>
       </c>
       <c r="B459" s="1">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>125</v>
+        <v>3014</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>126</v>
+        <v>3013</v>
       </c>
       <c r="E459" s="1" t="s">
-        <v>127</v>
+        <v>3015</v>
       </c>
       <c r="F459" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G459" s="1"/>
+        <v>3016</v>
+      </c>
+      <c r="G459" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
-        <v>1866</v>
+        <v>2963</v>
       </c>
       <c r="B460" s="1">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>129</v>
+        <v>3017</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>130</v>
+        <v>3018</v>
       </c>
       <c r="E460" s="1" t="s">
-        <v>131</v>
+        <v>3019</v>
       </c>
       <c r="F460" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G460" s="1"/>
+        <v>3020</v>
+      </c>
+      <c r="G460" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="s">
-        <v>1867</v>
+        <v>2964</v>
       </c>
       <c r="B461" s="1">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>132</v>
+        <v>3021</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>133</v>
+        <v>3022</v>
       </c>
       <c r="E461" s="1" t="s">
-        <v>134</v>
+        <v>3023</v>
       </c>
       <c r="F461" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G461" s="1"/>
+        <v>3024</v>
+      </c>
+      <c r="G461" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
-        <v>1868</v>
+        <v>2965</v>
       </c>
       <c r="B462" s="1">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>136</v>
+        <v>3025</v>
       </c>
       <c r="D462" s="1" t="s">
-        <v>137</v>
+        <v>3026</v>
       </c>
       <c r="E462" s="1" t="s">
-        <v>138</v>
+        <v>3028</v>
       </c>
       <c r="F462" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G462" s="1"/>
+        <v>3027</v>
+      </c>
+      <c r="G462" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A463" s="1" t="s">
-        <v>1869</v>
+        <v>2966</v>
       </c>
       <c r="B463" s="1">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>140</v>
+        <v>3029</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>141</v>
+        <v>3030</v>
       </c>
       <c r="E463" s="1" t="s">
-        <v>142</v>
+        <v>3031</v>
       </c>
       <c r="F463" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G463" s="1"/>
+        <v>3032</v>
+      </c>
+      <c r="G463" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
-        <v>1870</v>
+        <v>2967</v>
       </c>
       <c r="B464" s="1">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>144</v>
+        <v>3033</v>
       </c>
       <c r="D464" s="1" t="s">
-        <v>145</v>
+        <v>3034</v>
       </c>
       <c r="E464" s="1" t="s">
-        <v>146</v>
+        <v>3035</v>
       </c>
       <c r="F464" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G464" s="1"/>
+        <v>3036</v>
+      </c>
+      <c r="G464" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
-        <v>1871</v>
+        <v>2968</v>
       </c>
       <c r="B465" s="1">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>148</v>
+        <v>3037</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>149</v>
+        <v>3038</v>
       </c>
       <c r="E465" s="1" t="s">
-        <v>150</v>
+        <v>3039</v>
       </c>
       <c r="F465" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G465" s="1"/>
+        <v>3040</v>
+      </c>
+      <c r="G465" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
-        <v>1872</v>
+        <v>2969</v>
       </c>
       <c r="B466" s="1">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>152</v>
+        <v>3041</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>153</v>
+        <v>3042</v>
       </c>
       <c r="E466" s="1" t="s">
-        <v>154</v>
+        <v>3043</v>
       </c>
       <c r="F466" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G466" s="1"/>
+        <v>3044</v>
+      </c>
+      <c r="G466" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
-        <v>1873</v>
+        <v>2970</v>
       </c>
       <c r="B467" s="1">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>156</v>
+        <v>3046</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>157</v>
+        <v>3045</v>
       </c>
       <c r="E467" s="1" t="s">
-        <v>158</v>
+        <v>3047</v>
       </c>
       <c r="F467" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G467" s="1"/>
+        <v>3048</v>
+      </c>
+      <c r="G467" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
-        <v>1874</v>
+        <v>2971</v>
       </c>
       <c r="B468" s="1">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>160</v>
+        <v>3049</v>
       </c>
       <c r="D468" s="1" t="s">
-        <v>161</v>
+        <v>3050</v>
       </c>
       <c r="E468" s="1" t="s">
-        <v>162</v>
+        <v>3051</v>
       </c>
       <c r="F468" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G468" s="1"/>
+        <v>3052</v>
+      </c>
+      <c r="G468" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
-        <v>1875</v>
+        <v>2972</v>
       </c>
       <c r="B469" s="1">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>164</v>
+        <v>3053</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>165</v>
+        <v>3054</v>
       </c>
       <c r="E469" s="1" t="s">
-        <v>166</v>
+        <v>3055</v>
       </c>
       <c r="F469" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G469" s="1"/>
+        <v>3056</v>
+      </c>
+      <c r="G469" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
-        <v>1876</v>
+        <v>2973</v>
       </c>
       <c r="B470" s="1">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>168</v>
+        <v>3057</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>169</v>
+        <v>3058</v>
       </c>
       <c r="E470" s="1" t="s">
-        <v>170</v>
+        <v>3059</v>
       </c>
       <c r="F470" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G470" s="1"/>
+        <v>3060</v>
+      </c>
+      <c r="G470" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
-        <v>1877</v>
+        <v>2974</v>
       </c>
       <c r="B471" s="1">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>172</v>
+        <v>3061</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>173</v>
+        <v>3062</v>
       </c>
       <c r="E471" s="1" t="s">
-        <v>174</v>
+        <v>3063</v>
       </c>
       <c r="F471" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G471" s="1"/>
+        <v>3064</v>
+      </c>
+      <c r="G471" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
-        <v>1878</v>
+        <v>2975</v>
       </c>
       <c r="B472" s="1">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>176</v>
+        <v>3065</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>177</v>
+        <v>3066</v>
       </c>
       <c r="E472" s="1" t="s">
-        <v>178</v>
+        <v>3068</v>
       </c>
       <c r="F472" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G472" s="1"/>
+        <v>3067</v>
+      </c>
+      <c r="G472" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
-        <v>1879</v>
+        <v>2976</v>
       </c>
       <c r="B473" s="1">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>180</v>
+        <v>3069</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>181</v>
+        <v>3070</v>
       </c>
       <c r="E473" s="1" t="s">
-        <v>182</v>
+        <v>3071</v>
       </c>
       <c r="F473" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G473" s="1"/>
+        <v>3072</v>
+      </c>
+      <c r="G473" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
-        <v>1880</v>
+        <v>2977</v>
       </c>
       <c r="B474" s="1">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>184</v>
+        <v>3073</v>
       </c>
       <c r="D474" s="1" t="s">
-        <v>185</v>
+        <v>3074</v>
       </c>
       <c r="E474" s="1" t="s">
-        <v>186</v>
+        <v>3075</v>
       </c>
       <c r="F474" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G474" s="1"/>
+        <v>3076</v>
+      </c>
+      <c r="G474" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
-        <v>1881</v>
+        <v>2978</v>
       </c>
       <c r="B475" s="1">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>188</v>
+        <v>3077</v>
       </c>
       <c r="D475" s="1" t="s">
-        <v>189</v>
+        <v>3078</v>
       </c>
       <c r="E475" s="1" t="s">
-        <v>190</v>
+        <v>3079</v>
       </c>
       <c r="F475" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G475" s="1"/>
+        <v>3080</v>
+      </c>
+      <c r="G475" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
-        <v>1882</v>
+        <v>2979</v>
       </c>
       <c r="B476" s="1">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>192</v>
+        <v>3081</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>193</v>
+        <v>3082</v>
       </c>
       <c r="E476" s="1" t="s">
-        <v>194</v>
+        <v>3083</v>
       </c>
       <c r="F476" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G476" s="1"/>
+        <v>3084</v>
+      </c>
+      <c r="G476" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
-        <v>1883</v>
+        <v>2980</v>
       </c>
       <c r="B477" s="1">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>196</v>
+        <v>3085</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>197</v>
+        <v>3086</v>
       </c>
       <c r="E477" s="1" t="s">
-        <v>198</v>
+        <v>3087</v>
       </c>
       <c r="F477" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G477" s="1"/>
+        <v>3088</v>
+      </c>
+      <c r="G477" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
-        <v>1884</v>
+        <v>2981</v>
       </c>
       <c r="B478" s="1">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>200</v>
+        <v>3089</v>
       </c>
       <c r="D478" s="1" t="s">
-        <v>201</v>
+        <v>3090</v>
       </c>
       <c r="E478" s="1" t="s">
-        <v>202</v>
+        <v>3091</v>
       </c>
       <c r="F478" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G478" s="1"/>
+        <v>3092</v>
+      </c>
+      <c r="G478" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
-        <v>1885</v>
+        <v>2982</v>
       </c>
       <c r="B479" s="1">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>204</v>
+        <v>3093</v>
       </c>
       <c r="D479" s="1" t="s">
-        <v>205</v>
+        <v>3094</v>
       </c>
       <c r="E479" s="1" t="s">
-        <v>206</v>
+        <v>3095</v>
       </c>
       <c r="F479" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G479" s="1"/>
+        <v>3096</v>
+      </c>
+      <c r="G479" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
-        <v>1886</v>
+        <v>2983</v>
       </c>
       <c r="B480" s="1">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>204</v>
+        <v>3097</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>208</v>
+        <v>3098</v>
       </c>
       <c r="E480" s="1" t="s">
-        <v>209</v>
+        <v>3099</v>
       </c>
       <c r="F480" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G480" s="1"/>
+        <v>3100</v>
+      </c>
+      <c r="G480" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
-        <v>1887</v>
+        <v>2984</v>
       </c>
       <c r="B481" s="1">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>211</v>
+        <v>3101</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>212</v>
+        <v>3102</v>
       </c>
       <c r="E481" s="1" t="s">
-        <v>213</v>
+        <v>3103</v>
       </c>
       <c r="F481" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="G481" s="1"/>
+        <v>3104</v>
+      </c>
+      <c r="G481" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
-        <v>1888</v>
+        <v>1828</v>
       </c>
       <c r="B482" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>215</v>
+        <v>6</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
       <c r="E482" s="1" t="s">
-        <v>217</v>
+        <v>8</v>
       </c>
       <c r="F482" s="1" t="s">
-        <v>218</v>
+        <v>9</v>
       </c>
       <c r="G482" s="1"/>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
-        <v>1889</v>
+        <v>1829</v>
       </c>
       <c r="B483" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>219</v>
+        <v>10</v>
       </c>
       <c r="D483" s="1" t="s">
-        <v>220</v>
+        <v>11</v>
       </c>
       <c r="E483" s="1" t="s">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="F483" s="1" t="s">
-        <v>222</v>
+        <v>9</v>
       </c>
       <c r="G483" s="1"/>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
-        <v>1890</v>
+        <v>1830</v>
       </c>
       <c r="B484" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>223</v>
+        <v>13</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>224</v>
+        <v>14</v>
       </c>
       <c r="E484" s="1" t="s">
-        <v>225</v>
+        <v>15</v>
       </c>
       <c r="F484" s="1" t="s">
-        <v>226</v>
+        <v>9</v>
       </c>
       <c r="G484" s="1"/>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
-        <v>1891</v>
+        <v>1831</v>
       </c>
       <c r="B485" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>227</v>
+        <v>16</v>
       </c>
       <c r="D485" s="1" t="s">
-        <v>228</v>
+        <v>17</v>
       </c>
       <c r="E485" s="1" t="s">
-        <v>229</v>
+        <v>18</v>
       </c>
       <c r="F485" s="1" t="s">
-        <v>230</v>
+        <v>9</v>
       </c>
       <c r="G485" s="1"/>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="s">
-        <v>1892</v>
+        <v>1832</v>
       </c>
       <c r="B486" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>231</v>
+        <v>19</v>
       </c>
       <c r="D486" s="1" t="s">
-        <v>232</v>
+        <v>20</v>
       </c>
       <c r="E486" s="1" t="s">
-        <v>233</v>
+        <v>21</v>
       </c>
       <c r="F486" s="1" t="s">
-        <v>234</v>
+        <v>9</v>
       </c>
       <c r="G486" s="1"/>
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
-        <v>1893</v>
+        <v>1833</v>
       </c>
       <c r="B487" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>235</v>
+        <v>22</v>
       </c>
       <c r="D487" s="1" t="s">
-        <v>236</v>
+        <v>23</v>
       </c>
       <c r="E487" s="1" t="s">
-        <v>237</v>
+        <v>24</v>
       </c>
       <c r="F487" s="1" t="s">
-        <v>238</v>
+        <v>9</v>
       </c>
       <c r="G487" s="1"/>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
-        <v>1894</v>
+        <v>1834</v>
       </c>
       <c r="B488" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>239</v>
+        <v>25</v>
       </c>
       <c r="D488" s="1" t="s">
-        <v>240</v>
+        <v>26</v>
       </c>
       <c r="E488" s="1" t="s">
-        <v>241</v>
+        <v>27</v>
       </c>
       <c r="F488" s="1" t="s">
-        <v>242</v>
+        <v>9</v>
       </c>
       <c r="G488" s="1"/>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
-        <v>1895</v>
+        <v>1835</v>
       </c>
       <c r="B489" s="1">
+        <v>26</v>
+      </c>
+      <c r="C489" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C489" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="D489" s="1" t="s">
-        <v>244</v>
+        <v>29</v>
       </c>
       <c r="E489" s="1" t="s">
-        <v>245</v>
+        <v>30</v>
       </c>
       <c r="F489" s="1" t="s">
-        <v>246</v>
+        <v>9</v>
       </c>
       <c r="G489" s="1"/>
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
-        <v>1896</v>
+        <v>1836</v>
       </c>
       <c r="B490" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>247</v>
+        <v>31</v>
       </c>
       <c r="D490" s="1" t="s">
-        <v>248</v>
+        <v>32</v>
       </c>
       <c r="E490" s="1" t="s">
-        <v>249</v>
+        <v>33</v>
       </c>
       <c r="F490" s="1" t="s">
-        <v>250</v>
+        <v>9</v>
       </c>
       <c r="G490" s="1"/>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
-        <v>1897</v>
+        <v>1837</v>
       </c>
       <c r="B491" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>251</v>
+        <v>34</v>
       </c>
       <c r="D491" s="1" t="s">
-        <v>252</v>
+        <v>35</v>
       </c>
       <c r="E491" s="1" t="s">
-        <v>253</v>
+        <v>36</v>
       </c>
       <c r="F491" s="1" t="s">
-        <v>254</v>
+        <v>9</v>
       </c>
       <c r="G491" s="1"/>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
-        <v>1898</v>
+        <v>1838</v>
       </c>
       <c r="B492" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>255</v>
+        <v>37</v>
       </c>
       <c r="D492" s="1" t="s">
-        <v>256</v>
+        <v>38</v>
       </c>
       <c r="E492" s="1" t="s">
-        <v>257</v>
+        <v>39</v>
       </c>
       <c r="F492" s="1" t="s">
-        <v>258</v>
+        <v>9</v>
       </c>
       <c r="G492" s="1"/>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
-        <v>1899</v>
+        <v>1839</v>
       </c>
       <c r="B493" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>259</v>
+        <v>40</v>
       </c>
       <c r="D493" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E493" s="1"/>
-      <c r="F493" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="E493" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F493" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="G493" s="1"/>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
-        <v>1900</v>
+        <v>1840</v>
       </c>
       <c r="B494" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>261</v>
+        <v>43</v>
       </c>
       <c r="D494" s="1" t="s">
-        <v>262</v>
+        <v>44</v>
       </c>
       <c r="E494" s="1" t="s">
-        <v>263</v>
+        <v>45</v>
       </c>
       <c r="F494" s="1" t="s">
-        <v>264</v>
+        <v>46</v>
       </c>
       <c r="G494" s="1"/>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
-        <v>1901</v>
+        <v>1841</v>
       </c>
       <c r="B495" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>265</v>
+        <v>47</v>
       </c>
       <c r="D495" s="1" t="s">
-        <v>266</v>
+        <v>48</v>
       </c>
       <c r="E495" s="1" t="s">
-        <v>267</v>
+        <v>49</v>
       </c>
       <c r="F495" s="1" t="s">
-        <v>268</v>
+        <v>9</v>
       </c>
       <c r="G495" s="1"/>
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
-        <v>1902</v>
+        <v>1842</v>
       </c>
       <c r="B496" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>269</v>
+        <v>50</v>
       </c>
       <c r="D496" s="1" t="s">
-        <v>270</v>
+        <v>51</v>
       </c>
       <c r="E496" s="1" t="s">
-        <v>271</v>
+        <v>52</v>
       </c>
       <c r="F496" s="1" t="s">
-        <v>272</v>
+        <v>53</v>
       </c>
       <c r="G496" s="1"/>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
-        <v>1903</v>
+        <v>1843</v>
       </c>
       <c r="B497" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D497" s="1" t="s">
-        <v>273</v>
+        <v>55</v>
       </c>
       <c r="E497" s="1" t="s">
-        <v>274</v>
+        <v>56</v>
       </c>
       <c r="F497" s="1" t="s">
-        <v>275</v>
+        <v>9</v>
       </c>
       <c r="G497" s="1"/>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
-        <v>1904</v>
+        <v>1844</v>
       </c>
       <c r="B498" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>276</v>
+        <v>57</v>
       </c>
       <c r="D498" s="1" t="s">
-        <v>277</v>
+        <v>58</v>
       </c>
       <c r="E498" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F498" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="F498" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="G498" s="1"/>
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="s">
-        <v>1905</v>
+        <v>1845</v>
       </c>
       <c r="B499" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>279</v>
+        <v>61</v>
       </c>
       <c r="D499" s="1" t="s">
-        <v>280</v>
+        <v>62</v>
       </c>
       <c r="E499" s="1" t="s">
-        <v>281</v>
+        <v>63</v>
       </c>
       <c r="F499" s="1" t="s">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="G499" s="1"/>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
-        <v>1906</v>
+        <v>1846</v>
       </c>
       <c r="B500" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>283</v>
+        <v>64</v>
       </c>
       <c r="D500" s="1" t="s">
-        <v>284</v>
+        <v>65</v>
       </c>
       <c r="E500" s="1" t="s">
-        <v>285</v>
+        <v>66</v>
       </c>
       <c r="F500" s="1" t="s">
-        <v>286</v>
+        <v>9</v>
       </c>
       <c r="G500" s="1"/>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
-        <v>1907</v>
+        <v>1847</v>
       </c>
       <c r="B501" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>287</v>
+        <v>67</v>
       </c>
       <c r="D501" s="1" t="s">
-        <v>288</v>
+        <v>68</v>
       </c>
       <c r="E501" s="1" t="s">
-        <v>289</v>
+        <v>69</v>
       </c>
       <c r="F501" s="1" t="s">
-        <v>290</v>
+        <v>70</v>
       </c>
       <c r="G501" s="1"/>
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
-        <v>1908</v>
+        <v>1848</v>
       </c>
       <c r="B502" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>291</v>
+        <v>71</v>
       </c>
       <c r="D502" s="1" t="s">
-        <v>292</v>
+        <v>72</v>
       </c>
       <c r="E502" s="1" t="s">
-        <v>293</v>
+        <v>73</v>
       </c>
       <c r="F502" s="1" t="s">
-        <v>294</v>
+        <v>9</v>
       </c>
       <c r="G502" s="1"/>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A503" s="1" t="s">
-        <v>1909</v>
+        <v>1849</v>
       </c>
       <c r="B503" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>295</v>
+        <v>74</v>
       </c>
       <c r="D503" s="1" t="s">
-        <v>296</v>
+        <v>75</v>
       </c>
       <c r="E503" s="1" t="s">
-        <v>297</v>
+        <v>76</v>
       </c>
       <c r="F503" s="1" t="s">
-        <v>298</v>
+        <v>9</v>
       </c>
       <c r="G503" s="1"/>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
-        <v>1910</v>
+        <v>1850</v>
       </c>
       <c r="B504" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>299</v>
+        <v>77</v>
       </c>
       <c r="D504" s="1" t="s">
-        <v>300</v>
+        <v>78</v>
       </c>
       <c r="E504" s="1" t="s">
-        <v>301</v>
+        <v>79</v>
       </c>
       <c r="F504" s="1" t="s">
-        <v>302</v>
+        <v>9</v>
       </c>
       <c r="G504" s="1"/>
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="s">
-        <v>1911</v>
+        <v>1851</v>
       </c>
       <c r="B505" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>303</v>
+        <v>80</v>
       </c>
       <c r="D505" s="1" t="s">
-        <v>304</v>
+        <v>81</v>
       </c>
       <c r="E505" s="1" t="s">
-        <v>305</v>
+        <v>82</v>
       </c>
       <c r="F505" s="1" t="s">
-        <v>306</v>
+        <v>9</v>
       </c>
       <c r="G505" s="1"/>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
-        <v>1912</v>
+        <v>1852</v>
       </c>
       <c r="B506" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>307</v>
+        <v>83</v>
       </c>
       <c r="D506" s="1" t="s">
-        <v>308</v>
+        <v>84</v>
       </c>
       <c r="E506" s="1" t="s">
-        <v>309</v>
+        <v>85</v>
       </c>
       <c r="F506" s="1" t="s">
-        <v>310</v>
+        <v>9</v>
       </c>
       <c r="G506" s="1"/>
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
-        <v>1913</v>
+        <v>1853</v>
       </c>
       <c r="B507" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>311</v>
+        <v>86</v>
       </c>
       <c r="D507" s="1" t="s">
-        <v>312</v>
+        <v>87</v>
       </c>
       <c r="E507" s="1" t="s">
-        <v>313</v>
+        <v>88</v>
       </c>
       <c r="F507" s="1" t="s">
-        <v>314</v>
+        <v>89</v>
       </c>
       <c r="G507" s="1"/>
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
-        <v>1914</v>
+        <v>1854</v>
       </c>
       <c r="B508" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>315</v>
+        <v>90</v>
       </c>
       <c r="D508" s="1" t="s">
-        <v>316</v>
+        <v>91</v>
       </c>
       <c r="E508" s="1" t="s">
-        <v>317</v>
+        <v>92</v>
       </c>
       <c r="F508" s="1" t="s">
-        <v>318</v>
+        <v>93</v>
       </c>
       <c r="G508" s="1"/>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
-        <v>1915</v>
+        <v>1855</v>
       </c>
       <c r="B509" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>319</v>
+        <v>94</v>
       </c>
       <c r="D509" s="1" t="s">
-        <v>320</v>
+        <v>95</v>
       </c>
       <c r="E509" s="1" t="s">
-        <v>321</v>
+        <v>96</v>
       </c>
       <c r="F509" s="1" t="s">
-        <v>322</v>
+        <v>9</v>
       </c>
       <c r="G509" s="1"/>
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
-        <v>1916</v>
+        <v>1856</v>
       </c>
       <c r="B510" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>323</v>
+        <v>97</v>
       </c>
       <c r="D510" s="1" t="s">
-        <v>324</v>
+        <v>98</v>
       </c>
       <c r="E510" s="1" t="s">
-        <v>325</v>
+        <v>99</v>
       </c>
       <c r="F510" s="1" t="s">
-        <v>326</v>
+        <v>9</v>
       </c>
       <c r="G510" s="1"/>
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="s">
-        <v>1917</v>
+        <v>1857</v>
       </c>
       <c r="B511" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>327</v>
+        <v>100</v>
       </c>
       <c r="D511" s="1" t="s">
-        <v>328</v>
+        <v>101</v>
       </c>
       <c r="E511" s="1" t="s">
-        <v>329</v>
+        <v>102</v>
       </c>
       <c r="F511" s="1" t="s">
-        <v>330</v>
+        <v>9</v>
       </c>
       <c r="G511" s="1"/>
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
-        <v>1918</v>
+        <v>1858</v>
       </c>
       <c r="B512" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>331</v>
+        <v>103</v>
       </c>
       <c r="D512" s="1" t="s">
-        <v>332</v>
+        <v>104</v>
       </c>
       <c r="E512" s="1" t="s">
-        <v>333</v>
+        <v>105</v>
       </c>
       <c r="F512" s="1" t="s">
-        <v>334</v>
+        <v>9</v>
       </c>
       <c r="G512" s="1"/>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A513" s="1" t="s">
-        <v>1919</v>
+        <v>1859</v>
       </c>
       <c r="B513" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>335</v>
+        <v>106</v>
       </c>
       <c r="D513" s="1" t="s">
-        <v>336</v>
+        <v>107</v>
       </c>
       <c r="E513" s="1" t="s">
-        <v>337</v>
+        <v>108</v>
       </c>
       <c r="F513" s="1" t="s">
-        <v>338</v>
+        <v>9</v>
       </c>
       <c r="G513" s="1"/>
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
-        <v>1920</v>
+        <v>1860</v>
       </c>
       <c r="B514" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>339</v>
+        <v>109</v>
       </c>
       <c r="D514" s="1" t="s">
-        <v>340</v>
+        <v>110</v>
       </c>
       <c r="E514" s="1" t="s">
-        <v>341</v>
+        <v>111</v>
       </c>
       <c r="F514" s="1" t="s">
-        <v>342</v>
+        <v>9</v>
       </c>
       <c r="G514" s="1"/>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A515" s="1" t="s">
-        <v>1921</v>
+        <v>1861</v>
       </c>
       <c r="B515" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>343</v>
+        <v>112</v>
       </c>
       <c r="D515" s="1" t="s">
-        <v>344</v>
+        <v>113</v>
       </c>
       <c r="E515" s="1" t="s">
-        <v>345</v>
+        <v>114</v>
       </c>
       <c r="F515" s="1" t="s">
-        <v>346</v>
+        <v>9</v>
       </c>
       <c r="G515" s="1"/>
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
-        <v>1922</v>
+        <v>1862</v>
       </c>
       <c r="B516" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>347</v>
+        <v>115</v>
       </c>
       <c r="D516" s="1" t="s">
-        <v>348</v>
+        <v>116</v>
       </c>
       <c r="E516" s="1" t="s">
-        <v>349</v>
+        <v>117</v>
       </c>
       <c r="F516" s="1" t="s">
-        <v>350</v>
+        <v>9</v>
       </c>
       <c r="G516" s="1"/>
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
-        <v>1923</v>
+        <v>1863</v>
       </c>
       <c r="B517" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>351</v>
+        <v>118</v>
       </c>
       <c r="D517" s="1" t="s">
-        <v>352</v>
+        <v>119</v>
       </c>
       <c r="E517" s="1" t="s">
-        <v>353</v>
+        <v>120</v>
       </c>
       <c r="F517" s="1" t="s">
-        <v>354</v>
+        <v>9</v>
       </c>
       <c r="G517" s="1"/>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
-        <v>1924</v>
+        <v>1864</v>
       </c>
       <c r="B518" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>355</v>
+        <v>121</v>
       </c>
       <c r="D518" s="1" t="s">
-        <v>356</v>
+        <v>122</v>
       </c>
       <c r="E518" s="1" t="s">
-        <v>357</v>
+        <v>123</v>
       </c>
       <c r="F518" s="1" t="s">
-        <v>358</v>
+        <v>124</v>
       </c>
       <c r="G518" s="1"/>
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
-        <v>1925</v>
+        <v>1865</v>
       </c>
       <c r="B519" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>359</v>
+        <v>125</v>
       </c>
       <c r="D519" s="1" t="s">
-        <v>360</v>
+        <v>126</v>
       </c>
       <c r="E519" s="1" t="s">
-        <v>361</v>
+        <v>127</v>
       </c>
       <c r="F519" s="1" t="s">
-        <v>362</v>
+        <v>128</v>
       </c>
       <c r="G519" s="1"/>
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="s">
-        <v>1926</v>
+        <v>1866</v>
       </c>
       <c r="B520" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>363</v>
+        <v>129</v>
       </c>
       <c r="D520" s="1" t="s">
-        <v>364</v>
+        <v>130</v>
       </c>
       <c r="E520" s="1" t="s">
-        <v>365</v>
+        <v>131</v>
       </c>
       <c r="F520" s="1" t="s">
-        <v>366</v>
+        <v>9</v>
       </c>
       <c r="G520" s="1"/>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A521" s="1" t="s">
-        <v>1927</v>
+        <v>1867</v>
       </c>
       <c r="B521" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>367</v>
+        <v>132</v>
       </c>
       <c r="D521" s="1" t="s">
-        <v>368</v>
+        <v>133</v>
       </c>
       <c r="E521" s="1" t="s">
-        <v>369</v>
+        <v>134</v>
       </c>
       <c r="F521" s="1" t="s">
-        <v>370</v>
+        <v>135</v>
       </c>
       <c r="G521" s="1"/>
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
-        <v>1928</v>
+        <v>1868</v>
       </c>
       <c r="B522" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>371</v>
+        <v>136</v>
       </c>
       <c r="D522" s="1" t="s">
-        <v>372</v>
+        <v>137</v>
       </c>
       <c r="E522" s="1" t="s">
-        <v>373</v>
+        <v>138</v>
       </c>
       <c r="F522" s="1" t="s">
-        <v>374</v>
+        <v>139</v>
       </c>
       <c r="G522" s="1"/>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A523" s="1" t="s">
-        <v>1929</v>
+        <v>1869</v>
       </c>
       <c r="B523" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>375</v>
+        <v>140</v>
       </c>
       <c r="D523" s="1" t="s">
-        <v>376</v>
+        <v>141</v>
       </c>
       <c r="E523" s="1" t="s">
-        <v>377</v>
+        <v>142</v>
       </c>
       <c r="F523" s="1" t="s">
-        <v>378</v>
+        <v>143</v>
       </c>
       <c r="G523" s="1"/>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
-        <v>1930</v>
+        <v>1870</v>
       </c>
       <c r="B524" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>379</v>
+        <v>144</v>
       </c>
       <c r="D524" s="1" t="s">
-        <v>380</v>
+        <v>145</v>
       </c>
       <c r="E524" s="1" t="s">
-        <v>381</v>
+        <v>146</v>
       </c>
       <c r="F524" s="1" t="s">
-        <v>382</v>
+        <v>147</v>
       </c>
       <c r="G524" s="1"/>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A525" s="1" t="s">
-        <v>1931</v>
+        <v>1871</v>
       </c>
       <c r="B525" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>383</v>
+        <v>148</v>
       </c>
       <c r="D525" s="1" t="s">
-        <v>384</v>
+        <v>149</v>
       </c>
       <c r="E525" s="1" t="s">
-        <v>385</v>
+        <v>150</v>
       </c>
       <c r="F525" s="1" t="s">
-        <v>386</v>
+        <v>151</v>
       </c>
       <c r="G525" s="1"/>
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="s">
-        <v>1932</v>
+        <v>1872</v>
       </c>
       <c r="B526" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>387</v>
+        <v>152</v>
       </c>
       <c r="D526" s="1" t="s">
-        <v>388</v>
+        <v>153</v>
       </c>
       <c r="E526" s="1" t="s">
-        <v>389</v>
+        <v>154</v>
       </c>
       <c r="F526" s="1" t="s">
-        <v>390</v>
+        <v>155</v>
       </c>
       <c r="G526" s="1"/>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A527" s="1" t="s">
-        <v>1933</v>
+        <v>1873</v>
       </c>
       <c r="B527" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>391</v>
+        <v>156</v>
       </c>
       <c r="D527" s="1" t="s">
-        <v>392</v>
+        <v>157</v>
       </c>
       <c r="E527" s="1" t="s">
-        <v>393</v>
+        <v>158</v>
       </c>
       <c r="F527" s="1" t="s">
-        <v>394</v>
+        <v>159</v>
       </c>
       <c r="G527" s="1"/>
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
-        <v>1934</v>
+        <v>1874</v>
       </c>
       <c r="B528" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>395</v>
+        <v>160</v>
       </c>
       <c r="D528" s="1" t="s">
-        <v>396</v>
+        <v>161</v>
       </c>
       <c r="E528" s="1" t="s">
-        <v>397</v>
+        <v>162</v>
       </c>
       <c r="F528" s="1" t="s">
-        <v>398</v>
+        <v>163</v>
       </c>
       <c r="G528" s="1"/>
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A529" s="1" t="s">
-        <v>1935</v>
+        <v>1875</v>
       </c>
       <c r="B529" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>399</v>
+        <v>164</v>
       </c>
       <c r="D529" s="1" t="s">
-        <v>400</v>
+        <v>165</v>
       </c>
       <c r="E529" s="1" t="s">
-        <v>401</v>
+        <v>166</v>
       </c>
       <c r="F529" s="1" t="s">
-        <v>402</v>
+        <v>167</v>
       </c>
       <c r="G529" s="1"/>
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A530" s="1" t="s">
-        <v>1936</v>
+        <v>1876</v>
       </c>
       <c r="B530" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>403</v>
+        <v>168</v>
       </c>
       <c r="D530" s="1" t="s">
-        <v>404</v>
+        <v>169</v>
       </c>
       <c r="E530" s="1" t="s">
-        <v>405</v>
+        <v>170</v>
       </c>
       <c r="F530" s="1" t="s">
-        <v>406</v>
+        <v>171</v>
       </c>
       <c r="G530" s="1"/>
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A531" s="1" t="s">
-        <v>1937</v>
+        <v>1877</v>
       </c>
       <c r="B531" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>407</v>
+        <v>172</v>
       </c>
       <c r="D531" s="1" t="s">
-        <v>408</v>
+        <v>173</v>
       </c>
       <c r="E531" s="1" t="s">
-        <v>409</v>
+        <v>174</v>
       </c>
       <c r="F531" s="1" t="s">
-        <v>410</v>
+        <v>175</v>
       </c>
       <c r="G531" s="1"/>
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
-        <v>1938</v>
+        <v>1878</v>
       </c>
       <c r="B532" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>411</v>
+        <v>176</v>
       </c>
       <c r="D532" s="1" t="s">
-        <v>412</v>
+        <v>177</v>
       </c>
       <c r="E532" s="1" t="s">
-        <v>413</v>
+        <v>178</v>
       </c>
       <c r="F532" s="1" t="s">
-        <v>414</v>
+        <v>179</v>
       </c>
       <c r="G532" s="1"/>
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A533" s="1" t="s">
-        <v>1939</v>
+        <v>1879</v>
       </c>
       <c r="B533" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>415</v>
+        <v>180</v>
       </c>
       <c r="D533" s="1" t="s">
-        <v>416</v>
+        <v>181</v>
       </c>
       <c r="E533" s="1" t="s">
-        <v>417</v>
+        <v>182</v>
       </c>
       <c r="F533" s="1" t="s">
-        <v>418</v>
+        <v>183</v>
       </c>
       <c r="G533" s="1"/>
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
-        <v>1940</v>
+        <v>1880</v>
       </c>
       <c r="B534" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>419</v>
+        <v>184</v>
       </c>
       <c r="D534" s="1" t="s">
-        <v>420</v>
+        <v>185</v>
       </c>
       <c r="E534" s="1" t="s">
-        <v>421</v>
+        <v>186</v>
       </c>
       <c r="F534" s="1" t="s">
-        <v>422</v>
+        <v>187</v>
       </c>
       <c r="G534" s="1"/>
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A535" s="1" t="s">
-        <v>1941</v>
+        <v>1881</v>
       </c>
       <c r="B535" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>423</v>
+        <v>188</v>
       </c>
       <c r="D535" s="1" t="s">
-        <v>424</v>
+        <v>189</v>
       </c>
       <c r="E535" s="1" t="s">
-        <v>425</v>
+        <v>190</v>
       </c>
       <c r="F535" s="1" t="s">
-        <v>426</v>
+        <v>191</v>
       </c>
       <c r="G535" s="1"/>
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A536" s="1" t="s">
-        <v>1942</v>
+        <v>1882</v>
       </c>
       <c r="B536" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>427</v>
+        <v>192</v>
       </c>
       <c r="D536" s="1" t="s">
-        <v>428</v>
+        <v>193</v>
       </c>
       <c r="E536" s="1" t="s">
-        <v>429</v>
+        <v>194</v>
       </c>
       <c r="F536" s="1" t="s">
-        <v>430</v>
+        <v>195</v>
       </c>
       <c r="G536" s="1"/>
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A537" s="1" t="s">
-        <v>1943</v>
+        <v>1883</v>
       </c>
       <c r="B537" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>431</v>
+        <v>196</v>
       </c>
       <c r="D537" s="1" t="s">
-        <v>432</v>
+        <v>197</v>
       </c>
       <c r="E537" s="1" t="s">
-        <v>433</v>
+        <v>198</v>
       </c>
       <c r="F537" s="1" t="s">
-        <v>434</v>
+        <v>199</v>
       </c>
       <c r="G537" s="1"/>
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A538" s="1" t="s">
-        <v>1944</v>
+        <v>1884</v>
       </c>
       <c r="B538" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>435</v>
+        <v>200</v>
       </c>
       <c r="D538" s="1" t="s">
-        <v>436</v>
+        <v>201</v>
       </c>
       <c r="E538" s="1" t="s">
-        <v>437</v>
+        <v>202</v>
       </c>
       <c r="F538" s="1" t="s">
-        <v>438</v>
+        <v>203</v>
       </c>
       <c r="G538" s="1"/>
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A539" s="1" t="s">
-        <v>1945</v>
+        <v>1885</v>
       </c>
       <c r="B539" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>439</v>
+        <v>204</v>
       </c>
       <c r="D539" s="1" t="s">
-        <v>440</v>
+        <v>205</v>
       </c>
       <c r="E539" s="1" t="s">
-        <v>441</v>
+        <v>206</v>
       </c>
       <c r="F539" s="1" t="s">
-        <v>442</v>
+        <v>207</v>
       </c>
       <c r="G539" s="1"/>
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A540" s="1" t="s">
-        <v>1946</v>
+        <v>1886</v>
       </c>
       <c r="B540" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>443</v>
+        <v>204</v>
       </c>
       <c r="D540" s="1" t="s">
-        <v>444</v>
+        <v>208</v>
       </c>
       <c r="E540" s="1" t="s">
-        <v>445</v>
+        <v>209</v>
       </c>
       <c r="F540" s="1" t="s">
-        <v>446</v>
+        <v>210</v>
       </c>
       <c r="G540" s="1"/>
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A541" s="1" t="s">
-        <v>1947</v>
+        <v>1887</v>
       </c>
       <c r="B541" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>447</v>
+        <v>211</v>
       </c>
       <c r="D541" s="1" t="s">
-        <v>448</v>
+        <v>212</v>
       </c>
       <c r="E541" s="1" t="s">
-        <v>449</v>
+        <v>213</v>
       </c>
       <c r="F541" s="1" t="s">
-        <v>450</v>
+        <v>214</v>
       </c>
       <c r="G541" s="1"/>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
-        <v>1948</v>
+        <v>1888</v>
       </c>
       <c r="B542" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>451</v>
+        <v>215</v>
       </c>
       <c r="D542" s="1" t="s">
-        <v>452</v>
+        <v>216</v>
       </c>
       <c r="E542" s="1" t="s">
-        <v>453</v>
+        <v>217</v>
       </c>
       <c r="F542" s="1" t="s">
-        <v>454</v>
+        <v>218</v>
       </c>
       <c r="G542" s="1"/>
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A543" s="1" t="s">
-        <v>1949</v>
+        <v>1889</v>
       </c>
       <c r="B543" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>455</v>
+        <v>219</v>
       </c>
       <c r="D543" s="1" t="s">
-        <v>456</v>
+        <v>220</v>
       </c>
       <c r="E543" s="1" t="s">
-        <v>457</v>
+        <v>221</v>
       </c>
       <c r="F543" s="1" t="s">
-        <v>458</v>
+        <v>222</v>
       </c>
       <c r="G543" s="1"/>
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
-        <v>1950</v>
+        <v>1890</v>
       </c>
       <c r="B544" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>459</v>
+        <v>223</v>
       </c>
       <c r="D544" s="1" t="s">
-        <v>460</v>
+        <v>224</v>
       </c>
       <c r="E544" s="1" t="s">
-        <v>461</v>
+        <v>225</v>
       </c>
       <c r="F544" s="1" t="s">
-        <v>462</v>
+        <v>226</v>
       </c>
       <c r="G544" s="1"/>
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A545" s="1" t="s">
-        <v>1951</v>
+        <v>1891</v>
       </c>
       <c r="B545" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>463</v>
+        <v>227</v>
       </c>
       <c r="D545" s="1" t="s">
-        <v>464</v>
+        <v>228</v>
       </c>
       <c r="E545" s="1" t="s">
-        <v>465</v>
+        <v>229</v>
       </c>
       <c r="F545" s="1" t="s">
-        <v>466</v>
+        <v>230</v>
       </c>
       <c r="G545" s="1"/>
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A546" s="1" t="s">
-        <v>1952</v>
+        <v>1892</v>
       </c>
       <c r="B546" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>467</v>
+        <v>231</v>
       </c>
       <c r="D546" s="1" t="s">
-        <v>468</v>
+        <v>232</v>
       </c>
       <c r="E546" s="1" t="s">
-        <v>469</v>
+        <v>233</v>
       </c>
       <c r="F546" s="1" t="s">
-        <v>470</v>
+        <v>234</v>
       </c>
       <c r="G546" s="1"/>
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
-        <v>1953</v>
+        <v>1893</v>
       </c>
       <c r="B547" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C547" s="1" t="s">
-        <v>471</v>
+        <v>235</v>
       </c>
       <c r="D547" s="1" t="s">
-        <v>472</v>
+        <v>236</v>
       </c>
       <c r="E547" s="1" t="s">
-        <v>473</v>
+        <v>237</v>
       </c>
       <c r="F547" s="1" t="s">
-        <v>474</v>
+        <v>238</v>
       </c>
       <c r="G547" s="1"/>
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A548" s="1" t="s">
-        <v>1954</v>
+        <v>1894</v>
       </c>
       <c r="B548" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>475</v>
+        <v>239</v>
       </c>
       <c r="D548" s="1" t="s">
-        <v>476</v>
+        <v>240</v>
       </c>
       <c r="E548" s="1" t="s">
-        <v>477</v>
+        <v>241</v>
       </c>
       <c r="F548" s="1" t="s">
-        <v>478</v>
+        <v>242</v>
       </c>
       <c r="G548" s="1"/>
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
-        <v>1955</v>
+        <v>1895</v>
       </c>
       <c r="B549" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C549" s="1" t="s">
-        <v>479</v>
+        <v>243</v>
       </c>
       <c r="D549" s="1" t="s">
-        <v>480</v>
+        <v>244</v>
       </c>
       <c r="E549" s="1" t="s">
-        <v>481</v>
+        <v>245</v>
       </c>
       <c r="F549" s="1" t="s">
-        <v>482</v>
+        <v>246</v>
       </c>
       <c r="G549" s="1"/>
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
-        <v>1956</v>
+        <v>1896</v>
       </c>
       <c r="B550" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>483</v>
+        <v>247</v>
       </c>
       <c r="D550" s="1" t="s">
-        <v>484</v>
+        <v>248</v>
       </c>
       <c r="E550" s="1" t="s">
-        <v>485</v>
+        <v>249</v>
       </c>
       <c r="F550" s="1" t="s">
-        <v>486</v>
+        <v>250</v>
       </c>
       <c r="G550" s="1"/>
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
-        <v>1957</v>
+        <v>1897</v>
       </c>
       <c r="B551" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>487</v>
+        <v>251</v>
       </c>
       <c r="D551" s="1" t="s">
-        <v>488</v>
+        <v>252</v>
       </c>
       <c r="E551" s="1" t="s">
-        <v>489</v>
+        <v>253</v>
       </c>
       <c r="F551" s="1" t="s">
-        <v>490</v>
+        <v>254</v>
       </c>
       <c r="G551" s="1"/>
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
-        <v>1958</v>
+        <v>1898</v>
       </c>
       <c r="B552" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>491</v>
+        <v>255</v>
       </c>
       <c r="D552" s="1" t="s">
-        <v>492</v>
+        <v>256</v>
       </c>
       <c r="E552" s="1" t="s">
-        <v>493</v>
+        <v>257</v>
       </c>
       <c r="F552" s="1" t="s">
-        <v>494</v>
+        <v>258</v>
       </c>
       <c r="G552" s="1"/>
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
-        <v>1959</v>
+        <v>1899</v>
       </c>
       <c r="B553" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>495</v>
+        <v>259</v>
       </c>
       <c r="D553" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="E553" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="F553" s="1" t="s">
-        <v>498</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="E553" s="1"/>
+      <c r="F553" s="1"/>
       <c r="G553" s="1"/>
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
-        <v>1960</v>
+        <v>1900</v>
       </c>
       <c r="B554" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>499</v>
+        <v>261</v>
       </c>
       <c r="D554" s="1" t="s">
-        <v>500</v>
+        <v>262</v>
       </c>
       <c r="E554" s="1" t="s">
-        <v>501</v>
+        <v>263</v>
       </c>
       <c r="F554" s="1" t="s">
-        <v>502</v>
+        <v>264</v>
       </c>
       <c r="G554" s="1"/>
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A555" s="1" t="s">
-        <v>1961</v>
+        <v>1901</v>
       </c>
       <c r="B555" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>503</v>
+        <v>265</v>
       </c>
       <c r="D555" s="1" t="s">
-        <v>504</v>
+        <v>266</v>
       </c>
       <c r="E555" s="1" t="s">
-        <v>505</v>
+        <v>267</v>
       </c>
       <c r="F555" s="1" t="s">
-        <v>506</v>
+        <v>268</v>
       </c>
       <c r="G555" s="1"/>
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A556" s="1" t="s">
-        <v>1962</v>
+        <v>1902</v>
       </c>
       <c r="B556" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>507</v>
+        <v>269</v>
       </c>
       <c r="D556" s="1" t="s">
-        <v>508</v>
+        <v>270</v>
       </c>
       <c r="E556" s="1" t="s">
-        <v>509</v>
+        <v>271</v>
       </c>
       <c r="F556" s="1" t="s">
-        <v>510</v>
+        <v>272</v>
       </c>
       <c r="G556" s="1"/>
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
-        <v>1963</v>
+        <v>1903</v>
       </c>
       <c r="B557" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>511</v>
+        <v>6</v>
       </c>
       <c r="D557" s="1" t="s">
-        <v>512</v>
+        <v>273</v>
       </c>
       <c r="E557" s="1" t="s">
-        <v>513</v>
+        <v>274</v>
       </c>
       <c r="F557" s="1" t="s">
-        <v>514</v>
+        <v>275</v>
       </c>
       <c r="G557" s="1"/>
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
-        <v>1964</v>
+        <v>1904</v>
       </c>
       <c r="B558" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C558" s="1" t="s">
-        <v>515</v>
+        <v>276</v>
       </c>
       <c r="D558" s="1" t="s">
-        <v>516</v>
+        <v>277</v>
       </c>
       <c r="E558" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="F558" s="1" t="s">
-        <v>518</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="F558" s="1"/>
       <c r="G558" s="1"/>
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
-        <v>1965</v>
+        <v>1905</v>
       </c>
       <c r="B559" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>519</v>
+        <v>279</v>
       </c>
       <c r="D559" s="1" t="s">
-        <v>520</v>
+        <v>280</v>
       </c>
       <c r="E559" s="1" t="s">
-        <v>521</v>
+        <v>281</v>
       </c>
       <c r="F559" s="1" t="s">
-        <v>522</v>
+        <v>282</v>
       </c>
       <c r="G559" s="1"/>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
-        <v>1966</v>
+        <v>1906</v>
       </c>
       <c r="B560" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>523</v>
+        <v>283</v>
       </c>
       <c r="D560" s="1" t="s">
-        <v>524</v>
+        <v>284</v>
       </c>
       <c r="E560" s="1" t="s">
-        <v>525</v>
+        <v>285</v>
       </c>
       <c r="F560" s="1" t="s">
-        <v>526</v>
+        <v>286</v>
       </c>
       <c r="G560" s="1"/>
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A561" s="1" t="s">
-        <v>1967</v>
+        <v>1907</v>
       </c>
       <c r="B561" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>527</v>
+        <v>287</v>
       </c>
       <c r="D561" s="1" t="s">
-        <v>528</v>
+        <v>288</v>
       </c>
       <c r="E561" s="1" t="s">
-        <v>529</v>
+        <v>289</v>
       </c>
       <c r="F561" s="1" t="s">
-        <v>530</v>
+        <v>290</v>
       </c>
       <c r="G561" s="1"/>
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
-        <v>1968</v>
+        <v>1908</v>
       </c>
       <c r="B562" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>531</v>
+        <v>291</v>
       </c>
       <c r="D562" s="1" t="s">
-        <v>532</v>
+        <v>292</v>
       </c>
       <c r="E562" s="1" t="s">
-        <v>533</v>
+        <v>293</v>
       </c>
       <c r="F562" s="1" t="s">
-        <v>534</v>
+        <v>294</v>
       </c>
       <c r="G562" s="1"/>
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
-        <v>1969</v>
+        <v>1909</v>
       </c>
       <c r="B563" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>535</v>
+        <v>295</v>
       </c>
       <c r="D563" s="1" t="s">
-        <v>536</v>
+        <v>296</v>
       </c>
       <c r="E563" s="1" t="s">
-        <v>537</v>
+        <v>297</v>
       </c>
       <c r="F563" s="1" t="s">
-        <v>538</v>
+        <v>298</v>
       </c>
       <c r="G563" s="1"/>
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
-        <v>1970</v>
+        <v>1910</v>
       </c>
       <c r="B564" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>539</v>
+        <v>299</v>
       </c>
       <c r="D564" s="1" t="s">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="E564" s="1" t="s">
-        <v>541</v>
+        <v>301</v>
       </c>
       <c r="F564" s="1" t="s">
-        <v>542</v>
+        <v>302</v>
       </c>
       <c r="G564" s="1"/>
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A565" s="1" t="s">
-        <v>1971</v>
+        <v>1911</v>
       </c>
       <c r="B565" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>543</v>
+        <v>303</v>
       </c>
       <c r="D565" s="1" t="s">
-        <v>544</v>
+        <v>304</v>
       </c>
       <c r="E565" s="1" t="s">
-        <v>545</v>
+        <v>305</v>
       </c>
       <c r="F565" s="1" t="s">
-        <v>546</v>
+        <v>306</v>
       </c>
       <c r="G565" s="1"/>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
-        <v>1972</v>
+        <v>1912</v>
       </c>
       <c r="B566" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>547</v>
+        <v>307</v>
       </c>
       <c r="D566" s="1" t="s">
-        <v>548</v>
+        <v>308</v>
       </c>
       <c r="E566" s="1" t="s">
-        <v>549</v>
+        <v>309</v>
       </c>
       <c r="F566" s="1" t="s">
-        <v>550</v>
+        <v>310</v>
       </c>
       <c r="G566" s="1"/>
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A567" s="1" t="s">
-        <v>1973</v>
+        <v>1913</v>
       </c>
       <c r="B567" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>551</v>
+        <v>311</v>
       </c>
       <c r="D567" s="1" t="s">
-        <v>552</v>
+        <v>312</v>
       </c>
       <c r="E567" s="1" t="s">
-        <v>553</v>
+        <v>313</v>
       </c>
       <c r="F567" s="1" t="s">
-        <v>554</v>
+        <v>314</v>
       </c>
       <c r="G567" s="1"/>
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A568" s="1" t="s">
-        <v>1974</v>
+        <v>1914</v>
       </c>
       <c r="B568" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>555</v>
+        <v>315</v>
       </c>
       <c r="D568" s="1" t="s">
-        <v>556</v>
+        <v>316</v>
       </c>
       <c r="E568" s="1" t="s">
-        <v>557</v>
+        <v>317</v>
       </c>
       <c r="F568" s="1" t="s">
-        <v>558</v>
+        <v>318</v>
       </c>
       <c r="G568" s="1"/>
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A569" s="1" t="s">
-        <v>1975</v>
+        <v>1915</v>
       </c>
       <c r="B569" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>559</v>
+        <v>319</v>
       </c>
       <c r="D569" s="1" t="s">
-        <v>560</v>
+        <v>320</v>
       </c>
       <c r="E569" s="1" t="s">
-        <v>561</v>
+        <v>321</v>
       </c>
       <c r="F569" s="1" t="s">
-        <v>562</v>
+        <v>322</v>
       </c>
       <c r="G569" s="1"/>
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A570" s="1" t="s">
-        <v>1976</v>
+        <v>1916</v>
       </c>
       <c r="B570" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>563</v>
+        <v>323</v>
       </c>
       <c r="D570" s="1" t="s">
-        <v>564</v>
+        <v>324</v>
       </c>
       <c r="E570" s="1" t="s">
-        <v>565</v>
+        <v>325</v>
       </c>
       <c r="F570" s="1" t="s">
-        <v>566</v>
+        <v>326</v>
       </c>
       <c r="G570" s="1"/>
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A571" s="1" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B571" s="1">
+        <v>28</v>
+      </c>
+      <c r="C571" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D571" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E571" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F571" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G571" s="1"/>
+    </row>
+    <row r="572" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A572" s="1" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B572" s="1">
+        <v>29</v>
+      </c>
+      <c r="C572" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D572" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E572" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F572" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G572" s="1"/>
+    </row>
+    <row r="573" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A573" s="1" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B573" s="1">
+        <v>29</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D573" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E573" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F573" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G573" s="1"/>
+    </row>
+    <row r="574" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A574" s="1" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B574" s="1">
+        <v>29</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D574" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E574" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F574" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G574" s="1"/>
+    </row>
+    <row r="575" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A575" s="1" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B575" s="1">
+        <v>29</v>
+      </c>
+      <c r="C575" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D575" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E575" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F575" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G575" s="1"/>
+    </row>
+    <row r="576" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A576" s="1" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B576" s="1">
+        <v>29</v>
+      </c>
+      <c r="C576" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D576" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E576" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F576" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G576" s="1"/>
+    </row>
+    <row r="577" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A577" s="1" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B577" s="1">
+        <v>29</v>
+      </c>
+      <c r="C577" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D577" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E577" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F577" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G577" s="1"/>
+    </row>
+    <row r="578" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A578" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B578" s="1">
+        <v>29</v>
+      </c>
+      <c r="C578" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D578" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E578" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F578" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G578" s="1"/>
+    </row>
+    <row r="579" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A579" s="1" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B579" s="1">
+        <v>29</v>
+      </c>
+      <c r="C579" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D579" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E579" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F579" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G579" s="1"/>
+    </row>
+    <row r="580" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A580" s="1" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B580" s="1">
+        <v>29</v>
+      </c>
+      <c r="C580" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D580" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E580" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F580" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G580" s="1"/>
+    </row>
+    <row r="581" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A581" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B581" s="1">
+        <v>29</v>
+      </c>
+      <c r="C581" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D581" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E581" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F581" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="G581" s="1"/>
+    </row>
+    <row r="582" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A582" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B582" s="1">
+        <v>29</v>
+      </c>
+      <c r="C582" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D582" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E582" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F582" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G582" s="1"/>
+    </row>
+    <row r="583" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A583" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B583" s="1">
+        <v>29</v>
+      </c>
+      <c r="C583" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D583" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E583" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F583" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G583" s="1"/>
+    </row>
+    <row r="584" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A584" s="1" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B584" s="1">
+        <v>29</v>
+      </c>
+      <c r="C584" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D584" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E584" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F584" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G584" s="1"/>
+    </row>
+    <row r="585" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A585" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B585" s="1">
+        <v>29</v>
+      </c>
+      <c r="C585" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D585" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E585" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F585" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="G585" s="1"/>
+    </row>
+    <row r="586" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A586" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B586" s="1">
+        <v>29</v>
+      </c>
+      <c r="C586" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D586" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E586" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F586" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="G586" s="1"/>
+    </row>
+    <row r="587" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A587" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B587" s="1">
+        <v>29</v>
+      </c>
+      <c r="C587" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D587" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E587" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F587" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G587" s="1"/>
+    </row>
+    <row r="588" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A588" s="1" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B588" s="1">
+        <v>29</v>
+      </c>
+      <c r="C588" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D588" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E588" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F588" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="G588" s="1"/>
+    </row>
+    <row r="589" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A589" s="1" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B589" s="1">
+        <v>29</v>
+      </c>
+      <c r="C589" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D589" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E589" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F589" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="G589" s="1"/>
+    </row>
+    <row r="590" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A590" s="1" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B590" s="1">
+        <v>29</v>
+      </c>
+      <c r="C590" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D590" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E590" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F590" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G590" s="1"/>
+    </row>
+    <row r="591" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A591" s="1" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B591" s="1">
+        <v>29</v>
+      </c>
+      <c r="C591" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D591" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E591" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F591" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G591" s="1"/>
+    </row>
+    <row r="592" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A592" s="1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B592" s="1">
+        <v>29</v>
+      </c>
+      <c r="C592" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D592" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E592" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F592" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="G592" s="1"/>
+    </row>
+    <row r="593" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A593" s="1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B593" s="1">
+        <v>29</v>
+      </c>
+      <c r="C593" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D593" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E593" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F593" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G593" s="1"/>
+    </row>
+    <row r="594" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A594" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B594" s="1">
+        <v>29</v>
+      </c>
+      <c r="C594" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D594" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E594" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F594" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G594" s="1"/>
+    </row>
+    <row r="595" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A595" s="1" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B595" s="1">
+        <v>29</v>
+      </c>
+      <c r="C595" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D595" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E595" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="F595" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="G595" s="1"/>
+    </row>
+    <row r="596" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A596" s="1" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B596" s="1">
+        <v>29</v>
+      </c>
+      <c r="C596" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D596" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E596" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="F596" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G596" s="1"/>
+    </row>
+    <row r="597" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A597" s="1" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B597" s="1">
+        <v>29</v>
+      </c>
+      <c r="C597" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D597" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E597" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="F597" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="G597" s="1"/>
+    </row>
+    <row r="598" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A598" s="1" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B598" s="1">
+        <v>29</v>
+      </c>
+      <c r="C598" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D598" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E598" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F598" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="G598" s="1"/>
+    </row>
+    <row r="599" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A599" s="1" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B599" s="1">
+        <v>29</v>
+      </c>
+      <c r="C599" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D599" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E599" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="F599" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="G599" s="1"/>
+    </row>
+    <row r="600" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A600" s="1" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B600" s="1">
+        <v>29</v>
+      </c>
+      <c r="C600" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D600" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E600" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F600" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G600" s="1"/>
+    </row>
+    <row r="601" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A601" s="1" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B601" s="1">
+        <v>29</v>
+      </c>
+      <c r="C601" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D601" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E601" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F601" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="G601" s="1"/>
+    </row>
+    <row r="602" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A602" s="1" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B602" s="1">
+        <v>30</v>
+      </c>
+      <c r="C602" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D602" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E602" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F602" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="G602" s="1"/>
+    </row>
+    <row r="603" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A603" s="1" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B603" s="1">
+        <v>30</v>
+      </c>
+      <c r="C603" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D603" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E603" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F603" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="G603" s="1"/>
+    </row>
+    <row r="604" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A604" s="1" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B604" s="1">
+        <v>30</v>
+      </c>
+      <c r="C604" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D604" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E604" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F604" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="G604" s="1"/>
+    </row>
+    <row r="605" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A605" s="1" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B605" s="1">
+        <v>30</v>
+      </c>
+      <c r="C605" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D605" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E605" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F605" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="G605" s="1"/>
+    </row>
+    <row r="606" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A606" s="1" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B606" s="1">
+        <v>30</v>
+      </c>
+      <c r="C606" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D606" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E606" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F606" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G606" s="1"/>
+    </row>
+    <row r="607" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A607" s="1" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B607" s="1">
+        <v>30</v>
+      </c>
+      <c r="C607" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D607" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E607" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F607" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G607" s="1"/>
+    </row>
+    <row r="608" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A608" s="1" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B608" s="1">
+        <v>30</v>
+      </c>
+      <c r="C608" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D608" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E608" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F608" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="G608" s="1"/>
+    </row>
+    <row r="609" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A609" s="1" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B609" s="1">
+        <v>30</v>
+      </c>
+      <c r="C609" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D609" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E609" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F609" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="G609" s="1"/>
+    </row>
+    <row r="610" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A610" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B610" s="1">
+        <v>30</v>
+      </c>
+      <c r="C610" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D610" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E610" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F610" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G610" s="1"/>
+    </row>
+    <row r="611" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A611" s="1" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B611" s="1">
+        <v>30</v>
+      </c>
+      <c r="C611" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D611" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E611" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F611" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G611" s="1"/>
+    </row>
+    <row r="612" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A612" s="1" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B612" s="1">
+        <v>30</v>
+      </c>
+      <c r="C612" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D612" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E612" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F612" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="G612" s="1"/>
+    </row>
+    <row r="613" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A613" s="1" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B613" s="1">
+        <v>30</v>
+      </c>
+      <c r="C613" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D613" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E613" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F613" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="G613" s="1"/>
+    </row>
+    <row r="614" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A614" s="1" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B614" s="1">
+        <v>30</v>
+      </c>
+      <c r="C614" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D614" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="E614" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F614" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="G614" s="1"/>
+    </row>
+    <row r="615" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A615" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B615" s="1">
+        <v>30</v>
+      </c>
+      <c r="C615" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D615" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E615" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F615" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G615" s="1"/>
+    </row>
+    <row r="616" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A616" s="1" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B616" s="1">
+        <v>30</v>
+      </c>
+      <c r="C616" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D616" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="E616" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F616" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="G616" s="1"/>
+    </row>
+    <row r="617" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A617" s="1" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B617" s="1">
+        <v>30</v>
+      </c>
+      <c r="C617" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D617" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E617" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F617" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="G617" s="1"/>
+    </row>
+    <row r="618" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A618" s="1" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B618" s="1">
+        <v>30</v>
+      </c>
+      <c r="C618" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D618" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E618" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="F618" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="G618" s="1"/>
+    </row>
+    <row r="619" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A619" s="1" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B619" s="1">
+        <v>30</v>
+      </c>
+      <c r="C619" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D619" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E619" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F619" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G619" s="1"/>
+    </row>
+    <row r="620" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A620" s="1" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B620" s="1">
+        <v>30</v>
+      </c>
+      <c r="C620" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D620" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E620" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="F620" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="G620" s="1"/>
+    </row>
+    <row r="621" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A621" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B621" s="1">
+        <v>30</v>
+      </c>
+      <c r="C621" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D621" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E621" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F621" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="G621" s="1"/>
+    </row>
+    <row r="622" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A622" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B622" s="1">
+        <v>30</v>
+      </c>
+      <c r="C622" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D622" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E622" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F622" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="G622" s="1"/>
+    </row>
+    <row r="623" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A623" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B623" s="1">
+        <v>30</v>
+      </c>
+      <c r="C623" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D623" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="E623" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F623" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="G623" s="1"/>
+    </row>
+    <row r="624" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A624" s="1" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B624" s="1">
+        <v>30</v>
+      </c>
+      <c r="C624" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D624" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E624" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="F624" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="G624" s="1"/>
+    </row>
+    <row r="625" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A625" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B625" s="1">
+        <v>30</v>
+      </c>
+      <c r="C625" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D625" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="E625" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F625" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="G625" s="1"/>
+    </row>
+    <row r="626" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A626" s="1" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B626" s="1">
+        <v>30</v>
+      </c>
+      <c r="C626" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D626" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E626" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F626" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="G626" s="1"/>
+    </row>
+    <row r="627" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A627" s="1" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B627" s="1">
+        <v>30</v>
+      </c>
+      <c r="C627" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D627" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E627" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F627" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="G627" s="1"/>
+    </row>
+    <row r="628" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A628" s="1" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B628" s="1">
+        <v>30</v>
+      </c>
+      <c r="C628" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D628" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E628" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F628" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="G628" s="1"/>
+    </row>
+    <row r="629" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A629" s="1" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B629" s="1">
+        <v>30</v>
+      </c>
+      <c r="C629" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D629" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E629" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F629" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="G629" s="1"/>
+    </row>
+    <row r="630" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A630" s="1" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B630" s="1">
+        <v>30</v>
+      </c>
+      <c r="C630" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D630" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E630" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F630" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="G630" s="1"/>
+    </row>
+    <row r="631" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A631" s="1" t="s">
         <v>1977</v>
       </c>
-      <c r="B571" s="1">
+      <c r="B631" s="1">
         <v>30</v>
       </c>
-      <c r="C571" s="1" t="s">
+      <c r="C631" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D571" s="1" t="s">
+      <c r="D631" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="E571" s="1" t="s">
+      <c r="E631" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="F571" s="1" t="s">
+      <c r="F631" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="G571" s="1"/>
+      <c r="G631" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/data/WordStudy.xlsx
+++ b/data/WordStudy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dom/Documents/Dom/english-app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B670D4D-7040-394F-83C7-A3DC0AA1E742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839E3B57-8719-E443-AF52-9367AC65E18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="49160" yWindow="2640" windowWidth="34240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3634" uniqueCount="3105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3814" uniqueCount="3255">
   <si>
     <t>ID</t>
   </si>
@@ -9345,6 +9345,456 @@
   </si>
   <si>
     <t>Stir the mixture</t>
+  </si>
+  <si>
+    <t>U17_01</t>
+  </si>
+  <si>
+    <t>U17_02</t>
+  </si>
+  <si>
+    <t>U17_03</t>
+  </si>
+  <si>
+    <t>U17_04</t>
+  </si>
+  <si>
+    <t>U17_05</t>
+  </si>
+  <si>
+    <t>U17_06</t>
+  </si>
+  <si>
+    <t>U17_07</t>
+  </si>
+  <si>
+    <t>U17_08</t>
+  </si>
+  <si>
+    <t>U17_09</t>
+  </si>
+  <si>
+    <t>U17_10</t>
+  </si>
+  <si>
+    <t>U17_11</t>
+  </si>
+  <si>
+    <t>U17_12</t>
+  </si>
+  <si>
+    <t>U17_13</t>
+  </si>
+  <si>
+    <t>U17_14</t>
+  </si>
+  <si>
+    <t>U17_15</t>
+  </si>
+  <si>
+    <t>U17_16</t>
+  </si>
+  <si>
+    <t>U17_17</t>
+  </si>
+  <si>
+    <t>U17_18</t>
+  </si>
+  <si>
+    <t>U17_19</t>
+  </si>
+  <si>
+    <t>U17_20</t>
+  </si>
+  <si>
+    <t>U17_21</t>
+  </si>
+  <si>
+    <t>U17_22</t>
+  </si>
+  <si>
+    <t>U17_23</t>
+  </si>
+  <si>
+    <t>U17_24</t>
+  </si>
+  <si>
+    <t>U17_25</t>
+  </si>
+  <si>
+    <t>U17_26</t>
+  </si>
+  <si>
+    <t>U17_27</t>
+  </si>
+  <si>
+    <t>U17_28</t>
+  </si>
+  <si>
+    <t>U17_29</t>
+  </si>
+  <si>
+    <t>U17_30</t>
+  </si>
+  <si>
+    <t>Bữa nửa buổi</t>
+  </si>
+  <si>
+    <t>Brunch</t>
+  </si>
+  <si>
+    <t>I always enjoy a weekend brunch</t>
+  </si>
+  <si>
+    <t>a weekend brunch / bữa nữa buổi dịp cuối tuần</t>
+  </si>
+  <si>
+    <t>Thịt nguội</t>
+  </si>
+  <si>
+    <t>bacon</t>
+  </si>
+  <si>
+    <t>I love having bacon and eggs for breakfast</t>
+  </si>
+  <si>
+    <t>bacon and eggs</t>
+  </si>
+  <si>
+    <t>Phô mai</t>
+  </si>
+  <si>
+    <t>Cheese</t>
+  </si>
+  <si>
+    <t>She orders a cheese plate with a glass of wine</t>
+  </si>
+  <si>
+    <t>a cheese a plate / 1 đĩa phô mai tổng hợp</t>
+  </si>
+  <si>
+    <t>Món ăn, ẩm thực</t>
+  </si>
+  <si>
+    <t>Cuisine</t>
+  </si>
+  <si>
+    <t>italian cuisine is popular globally</t>
+  </si>
+  <si>
+    <t>italian cuisine / ẩm thực ý</t>
+  </si>
+  <si>
+    <t>Chai</t>
+  </si>
+  <si>
+    <t>Bottle</t>
+  </si>
+  <si>
+    <t>I always keep a water bottle at hand</t>
+  </si>
+  <si>
+    <t>a water bottle</t>
+  </si>
+  <si>
+    <t>Đồ uống có cồn</t>
+  </si>
+  <si>
+    <t>Alcohol</t>
+  </si>
+  <si>
+    <t>He never drinks alcohol</t>
+  </si>
+  <si>
+    <t>drink alcohol</t>
+  </si>
+  <si>
+    <t>Sống</t>
+  </si>
+  <si>
+    <t>Raw</t>
+  </si>
+  <si>
+    <t>raw meat is not safe to eat</t>
+  </si>
+  <si>
+    <t>raw meat</t>
+  </si>
+  <si>
+    <t>Đồ muối chua</t>
+  </si>
+  <si>
+    <t>Pickle</t>
+  </si>
+  <si>
+    <t>My cousin sends me some homemade pickles</t>
+  </si>
+  <si>
+    <t>Homemade pickles</t>
+  </si>
+  <si>
+    <t>Sen</t>
+  </si>
+  <si>
+    <t>Lotus</t>
+  </si>
+  <si>
+    <t>A lotus flower blooms in the pond</t>
+  </si>
+  <si>
+    <t>a lotus flower</t>
+  </si>
+  <si>
+    <t>Mì</t>
+  </si>
+  <si>
+    <t>Noodle</t>
+  </si>
+  <si>
+    <t>I ordered some stir-fried noodles</t>
+  </si>
+  <si>
+    <t>stir-fried noodles</t>
+  </si>
+  <si>
+    <t>Sốt</t>
+  </si>
+  <si>
+    <t>Sauce</t>
+  </si>
+  <si>
+    <t>Tomato sauce is essential to pizzas</t>
+  </si>
+  <si>
+    <t>tomato sauce</t>
+  </si>
+  <si>
+    <t>Bột</t>
+  </si>
+  <si>
+    <t>Flour</t>
+  </si>
+  <si>
+    <t>Wheat flour is used in japanese ramen</t>
+  </si>
+  <si>
+    <t>wheat flour / bột mì</t>
+  </si>
+  <si>
+    <t>Khay</t>
+  </si>
+  <si>
+    <t>Tray</t>
+  </si>
+  <si>
+    <t>The waiter carries a large tray of food</t>
+  </si>
+  <si>
+    <t>a tray of food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuốn </t>
+  </si>
+  <si>
+    <t>Roll</t>
+  </si>
+  <si>
+    <t>She rolls the vegetables with rice paper</t>
+  </si>
+  <si>
+    <t>roll something</t>
+  </si>
+  <si>
+    <t>Gia vị</t>
+  </si>
+  <si>
+    <t>Spice</t>
+  </si>
+  <si>
+    <t>She puts a spice jar in the cupboard</t>
+  </si>
+  <si>
+    <t>a spice jar / một hũ gia vị</t>
+  </si>
+  <si>
+    <t>Mật ong</t>
+  </si>
+  <si>
+    <t>Honey</t>
+  </si>
+  <si>
+    <t>He gathers honey from the hive</t>
+  </si>
+  <si>
+    <t>gather honey from the hive / gom mật từ tổ ong</t>
+  </si>
+  <si>
+    <t>Ngon</t>
+  </si>
+  <si>
+    <t>Delicious</t>
+  </si>
+  <si>
+    <t>That cake looks delicious</t>
+  </si>
+  <si>
+    <t>look delicious</t>
+  </si>
+  <si>
+    <t>Món canh hầm</t>
+  </si>
+  <si>
+    <t>Stew</t>
+  </si>
+  <si>
+    <t>He puts some ribs in the pot of stew</t>
+  </si>
+  <si>
+    <t>a pot of stew</t>
+  </si>
+  <si>
+    <t>Đồ nướng</t>
+  </si>
+  <si>
+    <t>Barbecue</t>
+  </si>
+  <si>
+    <t>This restaurant has a great rooftop barbecue</t>
+  </si>
+  <si>
+    <t>rooftop barbecue</t>
+  </si>
+  <si>
+    <t>Dính</t>
+  </si>
+  <si>
+    <t>Stick</t>
+  </si>
+  <si>
+    <t>I always eat sticky rice for breakfast</t>
+  </si>
+  <si>
+    <t>Sticky rice / xôi</t>
+  </si>
+  <si>
+    <t>Dĩa, nĩa</t>
+  </si>
+  <si>
+    <t>Fork</t>
+  </si>
+  <si>
+    <t>Eat your steak wit ha knife and fork</t>
+  </si>
+  <si>
+    <t>eat with a knife and fork</t>
+  </si>
+  <si>
+    <t>Đũa</t>
+  </si>
+  <si>
+    <t>Chopstick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please pass me a pair of chopsticks </t>
+  </si>
+  <si>
+    <t>a pair of chopsticks</t>
+  </si>
+  <si>
+    <t>Miếng</t>
+  </si>
+  <si>
+    <t>Bite</t>
+  </si>
+  <si>
+    <t>My dog wants to take a bite of my cookie</t>
+  </si>
+  <si>
+    <t>take a bite of something</t>
+  </si>
+  <si>
+    <t>Sầu riêng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durian </t>
+  </si>
+  <si>
+    <t>She hates the smell of durian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the smell of durian </t>
+  </si>
+  <si>
+    <t>Món tráng miệng</t>
+  </si>
+  <si>
+    <t>Dessert</t>
+  </si>
+  <si>
+    <t>I would like a chocolate dessert</t>
+  </si>
+  <si>
+    <t>a chocolate dessert</t>
+  </si>
+  <si>
+    <t>Thuộc địa phương</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>Her favorite place is a local restaurant</t>
+  </si>
+  <si>
+    <t>a local restaurant</t>
+  </si>
+  <si>
+    <t>có vị</t>
+  </si>
+  <si>
+    <t>taste</t>
+  </si>
+  <si>
+    <t>Blue cheese tastes like spoiled food</t>
+  </si>
+  <si>
+    <t>taste like something</t>
+  </si>
+  <si>
+    <t>Vị</t>
+  </si>
+  <si>
+    <t>Flavor</t>
+  </si>
+  <si>
+    <t>Pho has a unique flavor</t>
+  </si>
+  <si>
+    <t>unique flavor / hương vị độc đáo</t>
+  </si>
+  <si>
+    <t>Độc đáo</t>
+  </si>
+  <si>
+    <t>Unique</t>
+  </si>
+  <si>
+    <t>Durian is unique to the tropical region</t>
+  </si>
+  <si>
+    <t>unique to sb or sth</t>
+  </si>
+  <si>
+    <t>Khách</t>
+  </si>
+  <si>
+    <t>Guest</t>
+  </si>
+  <si>
+    <t>She is our special guest today</t>
+  </si>
+  <si>
+    <t>a special guest</t>
   </si>
 </sst>
 </file>
@@ -9709,10 +10159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G631"/>
+  <dimension ref="A1:G661"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A469" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C482" sqref="C482"/>
+    <sheetView tabSelected="1" topLeftCell="B504" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G511" sqref="G511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20790,649 +21240,709 @@
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
-        <v>1828</v>
+        <v>3105</v>
       </c>
       <c r="B482" s="1">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>6</v>
+        <v>3135</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>7</v>
+        <v>3136</v>
       </c>
       <c r="E482" s="1" t="s">
-        <v>8</v>
+        <v>3137</v>
       </c>
       <c r="F482" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G482" s="1"/>
+        <v>3138</v>
+      </c>
+      <c r="G482" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
-        <v>1829</v>
+        <v>3106</v>
       </c>
       <c r="B483" s="1">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>10</v>
+        <v>3139</v>
       </c>
       <c r="D483" s="1" t="s">
-        <v>11</v>
+        <v>3140</v>
       </c>
       <c r="E483" s="1" t="s">
-        <v>12</v>
+        <v>3141</v>
       </c>
       <c r="F483" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G483" s="1"/>
+        <v>3142</v>
+      </c>
+      <c r="G483" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
-        <v>1830</v>
+        <v>3107</v>
       </c>
       <c r="B484" s="1">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>13</v>
+        <v>3143</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>14</v>
+        <v>3144</v>
       </c>
       <c r="E484" s="1" t="s">
-        <v>15</v>
+        <v>3145</v>
       </c>
       <c r="F484" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G484" s="1"/>
+        <v>3146</v>
+      </c>
+      <c r="G484" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
-        <v>1831</v>
+        <v>3108</v>
       </c>
       <c r="B485" s="1">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>16</v>
+        <v>3147</v>
       </c>
       <c r="D485" s="1" t="s">
-        <v>17</v>
+        <v>3148</v>
       </c>
       <c r="E485" s="1" t="s">
-        <v>18</v>
+        <v>3149</v>
       </c>
       <c r="F485" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G485" s="1"/>
+        <v>3150</v>
+      </c>
+      <c r="G485" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="s">
-        <v>1832</v>
+        <v>3109</v>
       </c>
       <c r="B486" s="1">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>19</v>
+        <v>3151</v>
       </c>
       <c r="D486" s="1" t="s">
-        <v>20</v>
+        <v>3152</v>
       </c>
       <c r="E486" s="1" t="s">
-        <v>21</v>
+        <v>3153</v>
       </c>
       <c r="F486" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G486" s="1"/>
+        <v>3154</v>
+      </c>
+      <c r="G486" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
-        <v>1833</v>
+        <v>3110</v>
       </c>
       <c r="B487" s="1">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>22</v>
+        <v>3155</v>
       </c>
       <c r="D487" s="1" t="s">
-        <v>23</v>
+        <v>3156</v>
       </c>
       <c r="E487" s="1" t="s">
-        <v>24</v>
+        <v>3157</v>
       </c>
       <c r="F487" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G487" s="1"/>
+        <v>3158</v>
+      </c>
+      <c r="G487" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
-        <v>1834</v>
+        <v>3111</v>
       </c>
       <c r="B488" s="1">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>25</v>
+        <v>3159</v>
       </c>
       <c r="D488" s="1" t="s">
-        <v>26</v>
+        <v>3160</v>
       </c>
       <c r="E488" s="1" t="s">
-        <v>27</v>
+        <v>3161</v>
       </c>
       <c r="F488" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G488" s="1"/>
+        <v>3162</v>
+      </c>
+      <c r="G488" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
-        <v>1835</v>
+        <v>3112</v>
       </c>
       <c r="B489" s="1">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>28</v>
+        <v>3163</v>
       </c>
       <c r="D489" s="1" t="s">
-        <v>29</v>
+        <v>3164</v>
       </c>
       <c r="E489" s="1" t="s">
-        <v>30</v>
+        <v>3165</v>
       </c>
       <c r="F489" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G489" s="1"/>
+        <v>3166</v>
+      </c>
+      <c r="G489" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
-        <v>1836</v>
+        <v>3113</v>
       </c>
       <c r="B490" s="1">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>31</v>
+        <v>3167</v>
       </c>
       <c r="D490" s="1" t="s">
-        <v>32</v>
+        <v>3168</v>
       </c>
       <c r="E490" s="1" t="s">
-        <v>33</v>
+        <v>3169</v>
       </c>
       <c r="F490" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G490" s="1"/>
+        <v>3170</v>
+      </c>
+      <c r="G490" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
-        <v>1837</v>
+        <v>3114</v>
       </c>
       <c r="B491" s="1">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>34</v>
+        <v>3171</v>
       </c>
       <c r="D491" s="1" t="s">
-        <v>35</v>
+        <v>3172</v>
       </c>
       <c r="E491" s="1" t="s">
-        <v>36</v>
+        <v>3173</v>
       </c>
       <c r="F491" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G491" s="1"/>
+        <v>3174</v>
+      </c>
+      <c r="G491" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
-        <v>1838</v>
+        <v>3115</v>
       </c>
       <c r="B492" s="1">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>37</v>
+        <v>3175</v>
       </c>
       <c r="D492" s="1" t="s">
-        <v>38</v>
+        <v>3176</v>
       </c>
       <c r="E492" s="1" t="s">
-        <v>39</v>
+        <v>3177</v>
       </c>
       <c r="F492" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G492" s="1"/>
+        <v>3178</v>
+      </c>
+      <c r="G492" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
-        <v>1839</v>
+        <v>3116</v>
       </c>
       <c r="B493" s="1">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>40</v>
+        <v>3179</v>
       </c>
       <c r="D493" s="1" t="s">
-        <v>41</v>
+        <v>3180</v>
       </c>
       <c r="E493" s="1" t="s">
-        <v>42</v>
+        <v>3181</v>
       </c>
       <c r="F493" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G493" s="1"/>
+        <v>3182</v>
+      </c>
+      <c r="G493" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
-        <v>1840</v>
+        <v>3117</v>
       </c>
       <c r="B494" s="1">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>43</v>
+        <v>3183</v>
       </c>
       <c r="D494" s="1" t="s">
-        <v>44</v>
+        <v>3184</v>
       </c>
       <c r="E494" s="1" t="s">
-        <v>45</v>
+        <v>3185</v>
       </c>
       <c r="F494" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G494" s="1"/>
+        <v>3186</v>
+      </c>
+      <c r="G494" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
-        <v>1841</v>
+        <v>3118</v>
       </c>
       <c r="B495" s="1">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>47</v>
+        <v>3187</v>
       </c>
       <c r="D495" s="1" t="s">
-        <v>48</v>
+        <v>3188</v>
       </c>
       <c r="E495" s="1" t="s">
-        <v>49</v>
+        <v>3189</v>
       </c>
       <c r="F495" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G495" s="1"/>
+        <v>3190</v>
+      </c>
+      <c r="G495" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
-        <v>1842</v>
+        <v>3119</v>
       </c>
       <c r="B496" s="1">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>50</v>
+        <v>3191</v>
       </c>
       <c r="D496" s="1" t="s">
-        <v>51</v>
+        <v>3192</v>
       </c>
       <c r="E496" s="1" t="s">
-        <v>52</v>
+        <v>3193</v>
       </c>
       <c r="F496" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G496" s="1"/>
+        <v>3194</v>
+      </c>
+      <c r="G496" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
-        <v>1843</v>
+        <v>3120</v>
       </c>
       <c r="B497" s="1">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>54</v>
+        <v>3195</v>
       </c>
       <c r="D497" s="1" t="s">
-        <v>55</v>
+        <v>3196</v>
       </c>
       <c r="E497" s="1" t="s">
-        <v>56</v>
+        <v>3197</v>
       </c>
       <c r="F497" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G497" s="1"/>
+        <v>3198</v>
+      </c>
+      <c r="G497" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
-        <v>1844</v>
+        <v>3121</v>
       </c>
       <c r="B498" s="1">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>57</v>
+        <v>3199</v>
       </c>
       <c r="D498" s="1" t="s">
-        <v>58</v>
+        <v>3200</v>
       </c>
       <c r="E498" s="1" t="s">
-        <v>59</v>
+        <v>3201</v>
       </c>
       <c r="F498" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G498" s="1"/>
+        <v>3202</v>
+      </c>
+      <c r="G498" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="s">
-        <v>1845</v>
+        <v>3122</v>
       </c>
       <c r="B499" s="1">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>61</v>
+        <v>3203</v>
       </c>
       <c r="D499" s="1" t="s">
-        <v>62</v>
+        <v>3204</v>
       </c>
       <c r="E499" s="1" t="s">
-        <v>63</v>
+        <v>3205</v>
       </c>
       <c r="F499" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G499" s="1"/>
+        <v>3206</v>
+      </c>
+      <c r="G499" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
-        <v>1846</v>
+        <v>3123</v>
       </c>
       <c r="B500" s="1">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>64</v>
+        <v>3207</v>
       </c>
       <c r="D500" s="1" t="s">
-        <v>65</v>
+        <v>3208</v>
       </c>
       <c r="E500" s="1" t="s">
-        <v>66</v>
+        <v>3209</v>
       </c>
       <c r="F500" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G500" s="1"/>
+        <v>3210</v>
+      </c>
+      <c r="G500" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
-        <v>1847</v>
+        <v>3124</v>
       </c>
       <c r="B501" s="1">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>67</v>
+        <v>3211</v>
       </c>
       <c r="D501" s="1" t="s">
-        <v>68</v>
+        <v>3212</v>
       </c>
       <c r="E501" s="1" t="s">
-        <v>69</v>
+        <v>3213</v>
       </c>
       <c r="F501" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G501" s="1"/>
+        <v>3214</v>
+      </c>
+      <c r="G501" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
-        <v>1848</v>
+        <v>3125</v>
       </c>
       <c r="B502" s="1">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>71</v>
+        <v>3215</v>
       </c>
       <c r="D502" s="1" t="s">
-        <v>72</v>
+        <v>3216</v>
       </c>
       <c r="E502" s="1" t="s">
-        <v>73</v>
+        <v>3217</v>
       </c>
       <c r="F502" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G502" s="1"/>
+        <v>3218</v>
+      </c>
+      <c r="G502" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A503" s="1" t="s">
-        <v>1849</v>
+        <v>3126</v>
       </c>
       <c r="B503" s="1">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>74</v>
+        <v>3219</v>
       </c>
       <c r="D503" s="1" t="s">
-        <v>75</v>
+        <v>3220</v>
       </c>
       <c r="E503" s="1" t="s">
-        <v>76</v>
+        <v>3221</v>
       </c>
       <c r="F503" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G503" s="1"/>
+        <v>3222</v>
+      </c>
+      <c r="G503" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
-        <v>1850</v>
+        <v>3127</v>
       </c>
       <c r="B504" s="1">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>77</v>
+        <v>3223</v>
       </c>
       <c r="D504" s="1" t="s">
-        <v>78</v>
+        <v>3224</v>
       </c>
       <c r="E504" s="1" t="s">
-        <v>79</v>
+        <v>3225</v>
       </c>
       <c r="F504" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G504" s="1"/>
+        <v>3226</v>
+      </c>
+      <c r="G504" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="s">
-        <v>1851</v>
+        <v>3128</v>
       </c>
       <c r="B505" s="1">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>80</v>
+        <v>3227</v>
       </c>
       <c r="D505" s="1" t="s">
-        <v>81</v>
+        <v>3228</v>
       </c>
       <c r="E505" s="1" t="s">
-        <v>82</v>
+        <v>3229</v>
       </c>
       <c r="F505" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G505" s="1"/>
+        <v>3230</v>
+      </c>
+      <c r="G505" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
-        <v>1852</v>
+        <v>3129</v>
       </c>
       <c r="B506" s="1">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>83</v>
+        <v>3231</v>
       </c>
       <c r="D506" s="1" t="s">
-        <v>84</v>
+        <v>3232</v>
       </c>
       <c r="E506" s="1" t="s">
-        <v>85</v>
+        <v>3233</v>
       </c>
       <c r="F506" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G506" s="1"/>
+        <v>3234</v>
+      </c>
+      <c r="G506" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
-        <v>1853</v>
+        <v>3130</v>
       </c>
       <c r="B507" s="1">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>86</v>
+        <v>3235</v>
       </c>
       <c r="D507" s="1" t="s">
-        <v>87</v>
+        <v>3236</v>
       </c>
       <c r="E507" s="1" t="s">
-        <v>88</v>
+        <v>3237</v>
       </c>
       <c r="F507" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G507" s="1"/>
+        <v>3238</v>
+      </c>
+      <c r="G507" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
-        <v>1854</v>
+        <v>3131</v>
       </c>
       <c r="B508" s="1">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>90</v>
+        <v>3239</v>
       </c>
       <c r="D508" s="1" t="s">
-        <v>91</v>
+        <v>3240</v>
       </c>
       <c r="E508" s="1" t="s">
-        <v>92</v>
+        <v>3241</v>
       </c>
       <c r="F508" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G508" s="1"/>
+        <v>3242</v>
+      </c>
+      <c r="G508" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
-        <v>1855</v>
+        <v>3132</v>
       </c>
       <c r="B509" s="1">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>94</v>
+        <v>3243</v>
       </c>
       <c r="D509" s="1" t="s">
-        <v>95</v>
+        <v>3244</v>
       </c>
       <c r="E509" s="1" t="s">
-        <v>96</v>
+        <v>3245</v>
       </c>
       <c r="F509" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G509" s="1"/>
+        <v>3246</v>
+      </c>
+      <c r="G509" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
-        <v>1856</v>
+        <v>3133</v>
       </c>
       <c r="B510" s="1">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>97</v>
+        <v>3247</v>
       </c>
       <c r="D510" s="1" t="s">
-        <v>98</v>
+        <v>3248</v>
       </c>
       <c r="E510" s="1" t="s">
-        <v>99</v>
+        <v>3249</v>
       </c>
       <c r="F510" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G510" s="1"/>
+        <v>3250</v>
+      </c>
+      <c r="G510" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="s">
-        <v>1857</v>
+        <v>3134</v>
       </c>
       <c r="B511" s="1">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>100</v>
+        <v>3251</v>
       </c>
       <c r="D511" s="1" t="s">
-        <v>101</v>
+        <v>3252</v>
       </c>
       <c r="E511" s="1" t="s">
-        <v>102</v>
+        <v>3253</v>
       </c>
       <c r="F511" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G511" s="1"/>
+        <v>3254</v>
+      </c>
+      <c r="G511" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
-        <v>1858</v>
+        <v>1828</v>
       </c>
       <c r="B512" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="D512" s="1" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="E512" s="1" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="F512" s="1" t="s">
         <v>9</v>
@@ -21441,19 +21951,19 @@
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A513" s="1" t="s">
-        <v>1859</v>
+        <v>1829</v>
       </c>
       <c r="B513" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="D513" s="1" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="E513" s="1" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="F513" s="1" t="s">
         <v>9</v>
@@ -21462,19 +21972,19 @@
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
-        <v>1860</v>
+        <v>1830</v>
       </c>
       <c r="B514" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="D514" s="1" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="E514" s="1" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="F514" s="1" t="s">
         <v>9</v>
@@ -21483,19 +21993,19 @@
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A515" s="1" t="s">
-        <v>1861</v>
+        <v>1831</v>
       </c>
       <c r="B515" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="D515" s="1" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="E515" s="1" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="F515" s="1" t="s">
         <v>9</v>
@@ -21504,19 +22014,19 @@
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
-        <v>1862</v>
+        <v>1832</v>
       </c>
       <c r="B516" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="D516" s="1" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="E516" s="1" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="F516" s="1" t="s">
         <v>9</v>
@@ -21525,19 +22035,19 @@
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
-        <v>1863</v>
+        <v>1833</v>
       </c>
       <c r="B517" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="D517" s="1" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="E517" s="1" t="s">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="F517" s="1" t="s">
         <v>9</v>
@@ -21546,61 +22056,61 @@
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
-        <v>1864</v>
+        <v>1834</v>
       </c>
       <c r="B518" s="1">
+        <v>26</v>
+      </c>
+      <c r="C518" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D518" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E518" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C518" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D518" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E518" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="F518" s="1" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="G518" s="1"/>
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
-        <v>1865</v>
+        <v>1835</v>
       </c>
       <c r="B519" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="D519" s="1" t="s">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="E519" s="1" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="F519" s="1" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="G519" s="1"/>
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="s">
-        <v>1866</v>
+        <v>1836</v>
       </c>
       <c r="B520" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="D520" s="1" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="E520" s="1" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="F520" s="1" t="s">
         <v>9</v>
@@ -21609,2328 +22119,2958 @@
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A521" s="1" t="s">
-        <v>1867</v>
+        <v>1837</v>
       </c>
       <c r="B521" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="D521" s="1" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="E521" s="1" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="F521" s="1" t="s">
-        <v>135</v>
+        <v>9</v>
       </c>
       <c r="G521" s="1"/>
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
-        <v>1868</v>
+        <v>1838</v>
       </c>
       <c r="B522" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="D522" s="1" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="E522" s="1" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="F522" s="1" t="s">
-        <v>139</v>
+        <v>9</v>
       </c>
       <c r="G522" s="1"/>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A523" s="1" t="s">
-        <v>1869</v>
+        <v>1839</v>
       </c>
       <c r="B523" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D523" s="1" t="s">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="E523" s="1" t="s">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="F523" s="1" t="s">
-        <v>143</v>
+        <v>9</v>
       </c>
       <c r="G523" s="1"/>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
-        <v>1870</v>
+        <v>1840</v>
       </c>
       <c r="B524" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="D524" s="1" t="s">
-        <v>145</v>
+        <v>44</v>
       </c>
       <c r="E524" s="1" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="F524" s="1" t="s">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="G524" s="1"/>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A525" s="1" t="s">
-        <v>1871</v>
+        <v>1841</v>
       </c>
       <c r="B525" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="D525" s="1" t="s">
-        <v>149</v>
+        <v>48</v>
       </c>
       <c r="E525" s="1" t="s">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="F525" s="1" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="G525" s="1"/>
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="s">
-        <v>1872</v>
+        <v>1842</v>
       </c>
       <c r="B526" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="D526" s="1" t="s">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="E526" s="1" t="s">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c r="F526" s="1" t="s">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="G526" s="1"/>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A527" s="1" t="s">
-        <v>1873</v>
+        <v>1843</v>
       </c>
       <c r="B527" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="D527" s="1" t="s">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c r="E527" s="1" t="s">
-        <v>158</v>
+        <v>56</v>
       </c>
       <c r="F527" s="1" t="s">
-        <v>159</v>
+        <v>9</v>
       </c>
       <c r="G527" s="1"/>
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
-        <v>1874</v>
+        <v>1844</v>
       </c>
       <c r="B528" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>160</v>
+        <v>57</v>
       </c>
       <c r="D528" s="1" t="s">
-        <v>161</v>
+        <v>58</v>
       </c>
       <c r="E528" s="1" t="s">
-        <v>162</v>
+        <v>59</v>
       </c>
       <c r="F528" s="1" t="s">
-        <v>163</v>
+        <v>60</v>
       </c>
       <c r="G528" s="1"/>
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A529" s="1" t="s">
-        <v>1875</v>
+        <v>1845</v>
       </c>
       <c r="B529" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
       <c r="D529" s="1" t="s">
-        <v>165</v>
+        <v>62</v>
       </c>
       <c r="E529" s="1" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="F529" s="1" t="s">
-        <v>167</v>
+        <v>9</v>
       </c>
       <c r="G529" s="1"/>
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A530" s="1" t="s">
-        <v>1876</v>
+        <v>1846</v>
       </c>
       <c r="B530" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>168</v>
+        <v>64</v>
       </c>
       <c r="D530" s="1" t="s">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="E530" s="1" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="F530" s="1" t="s">
-        <v>171</v>
+        <v>9</v>
       </c>
       <c r="G530" s="1"/>
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A531" s="1" t="s">
-        <v>1877</v>
+        <v>1847</v>
       </c>
       <c r="B531" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>172</v>
+        <v>67</v>
       </c>
       <c r="D531" s="1" t="s">
-        <v>173</v>
+        <v>68</v>
       </c>
       <c r="E531" s="1" t="s">
-        <v>174</v>
+        <v>69</v>
       </c>
       <c r="F531" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="G531" s="1"/>
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
-        <v>1878</v>
+        <v>1848</v>
       </c>
       <c r="B532" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>176</v>
+        <v>71</v>
       </c>
       <c r="D532" s="1" t="s">
-        <v>177</v>
+        <v>72</v>
       </c>
       <c r="E532" s="1" t="s">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="F532" s="1" t="s">
-        <v>179</v>
+        <v>9</v>
       </c>
       <c r="G532" s="1"/>
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A533" s="1" t="s">
-        <v>1879</v>
+        <v>1849</v>
       </c>
       <c r="B533" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>180</v>
+        <v>74</v>
       </c>
       <c r="D533" s="1" t="s">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="E533" s="1" t="s">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="F533" s="1" t="s">
-        <v>183</v>
+        <v>9</v>
       </c>
       <c r="G533" s="1"/>
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
-        <v>1880</v>
+        <v>1850</v>
       </c>
       <c r="B534" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="D534" s="1" t="s">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="E534" s="1" t="s">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="F534" s="1" t="s">
-        <v>187</v>
+        <v>9</v>
       </c>
       <c r="G534" s="1"/>
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A535" s="1" t="s">
-        <v>1881</v>
+        <v>1851</v>
       </c>
       <c r="B535" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>188</v>
+        <v>80</v>
       </c>
       <c r="D535" s="1" t="s">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="E535" s="1" t="s">
-        <v>190</v>
+        <v>82</v>
       </c>
       <c r="F535" s="1" t="s">
-        <v>191</v>
+        <v>9</v>
       </c>
       <c r="G535" s="1"/>
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A536" s="1" t="s">
-        <v>1882</v>
+        <v>1852</v>
       </c>
       <c r="B536" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>192</v>
+        <v>83</v>
       </c>
       <c r="D536" s="1" t="s">
-        <v>193</v>
+        <v>84</v>
       </c>
       <c r="E536" s="1" t="s">
-        <v>194</v>
+        <v>85</v>
       </c>
       <c r="F536" s="1" t="s">
-        <v>195</v>
+        <v>9</v>
       </c>
       <c r="G536" s="1"/>
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A537" s="1" t="s">
-        <v>1883</v>
+        <v>1853</v>
       </c>
       <c r="B537" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>196</v>
+        <v>86</v>
       </c>
       <c r="D537" s="1" t="s">
-        <v>197</v>
+        <v>87</v>
       </c>
       <c r="E537" s="1" t="s">
-        <v>198</v>
+        <v>88</v>
       </c>
       <c r="F537" s="1" t="s">
-        <v>199</v>
+        <v>89</v>
       </c>
       <c r="G537" s="1"/>
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A538" s="1" t="s">
-        <v>1884</v>
+        <v>1854</v>
       </c>
       <c r="B538" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="D538" s="1" t="s">
-        <v>201</v>
+        <v>91</v>
       </c>
       <c r="E538" s="1" t="s">
-        <v>202</v>
+        <v>92</v>
       </c>
       <c r="F538" s="1" t="s">
-        <v>203</v>
+        <v>93</v>
       </c>
       <c r="G538" s="1"/>
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A539" s="1" t="s">
-        <v>1885</v>
+        <v>1855</v>
       </c>
       <c r="B539" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>204</v>
+        <v>94</v>
       </c>
       <c r="D539" s="1" t="s">
-        <v>205</v>
+        <v>95</v>
       </c>
       <c r="E539" s="1" t="s">
-        <v>206</v>
+        <v>96</v>
       </c>
       <c r="F539" s="1" t="s">
-        <v>207</v>
+        <v>9</v>
       </c>
       <c r="G539" s="1"/>
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A540" s="1" t="s">
-        <v>1886</v>
+        <v>1856</v>
       </c>
       <c r="B540" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>204</v>
+        <v>97</v>
       </c>
       <c r="D540" s="1" t="s">
-        <v>208</v>
+        <v>98</v>
       </c>
       <c r="E540" s="1" t="s">
-        <v>209</v>
+        <v>99</v>
       </c>
       <c r="F540" s="1" t="s">
-        <v>210</v>
+        <v>9</v>
       </c>
       <c r="G540" s="1"/>
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A541" s="1" t="s">
-        <v>1887</v>
+        <v>1857</v>
       </c>
       <c r="B541" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="D541" s="1" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
       <c r="E541" s="1" t="s">
-        <v>213</v>
+        <v>102</v>
       </c>
       <c r="F541" s="1" t="s">
-        <v>214</v>
+        <v>9</v>
       </c>
       <c r="G541" s="1"/>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
-        <v>1888</v>
+        <v>1858</v>
       </c>
       <c r="B542" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>215</v>
+        <v>103</v>
       </c>
       <c r="D542" s="1" t="s">
-        <v>216</v>
+        <v>104</v>
       </c>
       <c r="E542" s="1" t="s">
-        <v>217</v>
+        <v>105</v>
       </c>
       <c r="F542" s="1" t="s">
-        <v>218</v>
+        <v>9</v>
       </c>
       <c r="G542" s="1"/>
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A543" s="1" t="s">
-        <v>1889</v>
+        <v>1859</v>
       </c>
       <c r="B543" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>219</v>
+        <v>106</v>
       </c>
       <c r="D543" s="1" t="s">
-        <v>220</v>
+        <v>107</v>
       </c>
       <c r="E543" s="1" t="s">
-        <v>221</v>
+        <v>108</v>
       </c>
       <c r="F543" s="1" t="s">
-        <v>222</v>
+        <v>9</v>
       </c>
       <c r="G543" s="1"/>
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
-        <v>1890</v>
+        <v>1860</v>
       </c>
       <c r="B544" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>223</v>
+        <v>109</v>
       </c>
       <c r="D544" s="1" t="s">
-        <v>224</v>
+        <v>110</v>
       </c>
       <c r="E544" s="1" t="s">
-        <v>225</v>
+        <v>111</v>
       </c>
       <c r="F544" s="1" t="s">
-        <v>226</v>
+        <v>9</v>
       </c>
       <c r="G544" s="1"/>
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A545" s="1" t="s">
-        <v>1891</v>
+        <v>1861</v>
       </c>
       <c r="B545" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>227</v>
+        <v>112</v>
       </c>
       <c r="D545" s="1" t="s">
-        <v>228</v>
+        <v>113</v>
       </c>
       <c r="E545" s="1" t="s">
-        <v>229</v>
+        <v>114</v>
       </c>
       <c r="F545" s="1" t="s">
-        <v>230</v>
+        <v>9</v>
       </c>
       <c r="G545" s="1"/>
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A546" s="1" t="s">
-        <v>1892</v>
+        <v>1862</v>
       </c>
       <c r="B546" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>231</v>
+        <v>115</v>
       </c>
       <c r="D546" s="1" t="s">
-        <v>232</v>
+        <v>116</v>
       </c>
       <c r="E546" s="1" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="F546" s="1" t="s">
-        <v>234</v>
+        <v>9</v>
       </c>
       <c r="G546" s="1"/>
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
-        <v>1893</v>
+        <v>1863</v>
       </c>
       <c r="B547" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C547" s="1" t="s">
-        <v>235</v>
+        <v>118</v>
       </c>
       <c r="D547" s="1" t="s">
-        <v>236</v>
+        <v>119</v>
       </c>
       <c r="E547" s="1" t="s">
-        <v>237</v>
+        <v>120</v>
       </c>
       <c r="F547" s="1" t="s">
-        <v>238</v>
+        <v>9</v>
       </c>
       <c r="G547" s="1"/>
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A548" s="1" t="s">
-        <v>1894</v>
+        <v>1864</v>
       </c>
       <c r="B548" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>239</v>
+        <v>121</v>
       </c>
       <c r="D548" s="1" t="s">
-        <v>240</v>
+        <v>122</v>
       </c>
       <c r="E548" s="1" t="s">
-        <v>241</v>
+        <v>123</v>
       </c>
       <c r="F548" s="1" t="s">
-        <v>242</v>
+        <v>124</v>
       </c>
       <c r="G548" s="1"/>
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
-        <v>1895</v>
+        <v>1865</v>
       </c>
       <c r="B549" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C549" s="1" t="s">
-        <v>243</v>
+        <v>125</v>
       </c>
       <c r="D549" s="1" t="s">
-        <v>244</v>
+        <v>126</v>
       </c>
       <c r="E549" s="1" t="s">
-        <v>245</v>
+        <v>127</v>
       </c>
       <c r="F549" s="1" t="s">
-        <v>246</v>
+        <v>128</v>
       </c>
       <c r="G549" s="1"/>
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
-        <v>1896</v>
+        <v>1866</v>
       </c>
       <c r="B550" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>247</v>
+        <v>129</v>
       </c>
       <c r="D550" s="1" t="s">
-        <v>248</v>
+        <v>130</v>
       </c>
       <c r="E550" s="1" t="s">
-        <v>249</v>
+        <v>131</v>
       </c>
       <c r="F550" s="1" t="s">
-        <v>250</v>
+        <v>9</v>
       </c>
       <c r="G550" s="1"/>
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
-        <v>1897</v>
+        <v>1867</v>
       </c>
       <c r="B551" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>251</v>
+        <v>132</v>
       </c>
       <c r="D551" s="1" t="s">
-        <v>252</v>
+        <v>133</v>
       </c>
       <c r="E551" s="1" t="s">
-        <v>253</v>
+        <v>134</v>
       </c>
       <c r="F551" s="1" t="s">
-        <v>254</v>
+        <v>135</v>
       </c>
       <c r="G551" s="1"/>
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
-        <v>1898</v>
+        <v>1868</v>
       </c>
       <c r="B552" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>255</v>
+        <v>136</v>
       </c>
       <c r="D552" s="1" t="s">
-        <v>256</v>
+        <v>137</v>
       </c>
       <c r="E552" s="1" t="s">
-        <v>257</v>
+        <v>138</v>
       </c>
       <c r="F552" s="1" t="s">
-        <v>258</v>
+        <v>139</v>
       </c>
       <c r="G552" s="1"/>
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
-        <v>1899</v>
+        <v>1869</v>
       </c>
       <c r="B553" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>259</v>
+        <v>140</v>
       </c>
       <c r="D553" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E553" s="1"/>
-      <c r="F553" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="E553" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F553" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="G553" s="1"/>
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
-        <v>1900</v>
+        <v>1870</v>
       </c>
       <c r="B554" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>261</v>
+        <v>144</v>
       </c>
       <c r="D554" s="1" t="s">
-        <v>262</v>
+        <v>145</v>
       </c>
       <c r="E554" s="1" t="s">
-        <v>263</v>
+        <v>146</v>
       </c>
       <c r="F554" s="1" t="s">
-        <v>264</v>
+        <v>147</v>
       </c>
       <c r="G554" s="1"/>
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A555" s="1" t="s">
-        <v>1901</v>
+        <v>1871</v>
       </c>
       <c r="B555" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>265</v>
+        <v>148</v>
       </c>
       <c r="D555" s="1" t="s">
-        <v>266</v>
+        <v>149</v>
       </c>
       <c r="E555" s="1" t="s">
-        <v>267</v>
+        <v>150</v>
       </c>
       <c r="F555" s="1" t="s">
-        <v>268</v>
+        <v>151</v>
       </c>
       <c r="G555" s="1"/>
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A556" s="1" t="s">
-        <v>1902</v>
+        <v>1872</v>
       </c>
       <c r="B556" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>269</v>
+        <v>152</v>
       </c>
       <c r="D556" s="1" t="s">
-        <v>270</v>
+        <v>153</v>
       </c>
       <c r="E556" s="1" t="s">
-        <v>271</v>
+        <v>154</v>
       </c>
       <c r="F556" s="1" t="s">
-        <v>272</v>
+        <v>155</v>
       </c>
       <c r="G556" s="1"/>
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
-        <v>1903</v>
+        <v>1873</v>
       </c>
       <c r="B557" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>6</v>
+        <v>156</v>
       </c>
       <c r="D557" s="1" t="s">
-        <v>273</v>
+        <v>157</v>
       </c>
       <c r="E557" s="1" t="s">
-        <v>274</v>
+        <v>158</v>
       </c>
       <c r="F557" s="1" t="s">
-        <v>275</v>
+        <v>159</v>
       </c>
       <c r="G557" s="1"/>
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
-        <v>1904</v>
+        <v>1874</v>
       </c>
       <c r="B558" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C558" s="1" t="s">
-        <v>276</v>
+        <v>160</v>
       </c>
       <c r="D558" s="1" t="s">
-        <v>277</v>
+        <v>161</v>
       </c>
       <c r="E558" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F558" s="1"/>
+        <v>162</v>
+      </c>
+      <c r="F558" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="G558" s="1"/>
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
-        <v>1905</v>
+        <v>1875</v>
       </c>
       <c r="B559" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>279</v>
+        <v>164</v>
       </c>
       <c r="D559" s="1" t="s">
-        <v>280</v>
+        <v>165</v>
       </c>
       <c r="E559" s="1" t="s">
-        <v>281</v>
+        <v>166</v>
       </c>
       <c r="F559" s="1" t="s">
-        <v>282</v>
+        <v>167</v>
       </c>
       <c r="G559" s="1"/>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
-        <v>1906</v>
+        <v>1876</v>
       </c>
       <c r="B560" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>283</v>
+        <v>168</v>
       </c>
       <c r="D560" s="1" t="s">
-        <v>284</v>
+        <v>169</v>
       </c>
       <c r="E560" s="1" t="s">
-        <v>285</v>
+        <v>170</v>
       </c>
       <c r="F560" s="1" t="s">
-        <v>286</v>
+        <v>171</v>
       </c>
       <c r="G560" s="1"/>
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A561" s="1" t="s">
-        <v>1907</v>
+        <v>1877</v>
       </c>
       <c r="B561" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>287</v>
+        <v>172</v>
       </c>
       <c r="D561" s="1" t="s">
-        <v>288</v>
+        <v>173</v>
       </c>
       <c r="E561" s="1" t="s">
-        <v>289</v>
+        <v>174</v>
       </c>
       <c r="F561" s="1" t="s">
-        <v>290</v>
+        <v>175</v>
       </c>
       <c r="G561" s="1"/>
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
-        <v>1908</v>
+        <v>1878</v>
       </c>
       <c r="B562" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>291</v>
+        <v>176</v>
       </c>
       <c r="D562" s="1" t="s">
-        <v>292</v>
+        <v>177</v>
       </c>
       <c r="E562" s="1" t="s">
-        <v>293</v>
+        <v>178</v>
       </c>
       <c r="F562" s="1" t="s">
-        <v>294</v>
+        <v>179</v>
       </c>
       <c r="G562" s="1"/>
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
-        <v>1909</v>
+        <v>1879</v>
       </c>
       <c r="B563" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>295</v>
+        <v>180</v>
       </c>
       <c r="D563" s="1" t="s">
-        <v>296</v>
+        <v>181</v>
       </c>
       <c r="E563" s="1" t="s">
-        <v>297</v>
+        <v>182</v>
       </c>
       <c r="F563" s="1" t="s">
-        <v>298</v>
+        <v>183</v>
       </c>
       <c r="G563" s="1"/>
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
-        <v>1910</v>
+        <v>1880</v>
       </c>
       <c r="B564" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>299</v>
+        <v>184</v>
       </c>
       <c r="D564" s="1" t="s">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="E564" s="1" t="s">
-        <v>301</v>
+        <v>186</v>
       </c>
       <c r="F564" s="1" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="G564" s="1"/>
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A565" s="1" t="s">
-        <v>1911</v>
+        <v>1881</v>
       </c>
       <c r="B565" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>303</v>
+        <v>188</v>
       </c>
       <c r="D565" s="1" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="E565" s="1" t="s">
-        <v>305</v>
+        <v>190</v>
       </c>
       <c r="F565" s="1" t="s">
-        <v>306</v>
+        <v>191</v>
       </c>
       <c r="G565" s="1"/>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
-        <v>1912</v>
+        <v>1882</v>
       </c>
       <c r="B566" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>307</v>
+        <v>192</v>
       </c>
       <c r="D566" s="1" t="s">
-        <v>308</v>
+        <v>193</v>
       </c>
       <c r="E566" s="1" t="s">
-        <v>309</v>
+        <v>194</v>
       </c>
       <c r="F566" s="1" t="s">
-        <v>310</v>
+        <v>195</v>
       </c>
       <c r="G566" s="1"/>
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A567" s="1" t="s">
-        <v>1913</v>
+        <v>1883</v>
       </c>
       <c r="B567" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>311</v>
+        <v>196</v>
       </c>
       <c r="D567" s="1" t="s">
-        <v>312</v>
+        <v>197</v>
       </c>
       <c r="E567" s="1" t="s">
-        <v>313</v>
+        <v>198</v>
       </c>
       <c r="F567" s="1" t="s">
-        <v>314</v>
+        <v>199</v>
       </c>
       <c r="G567" s="1"/>
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A568" s="1" t="s">
-        <v>1914</v>
+        <v>1884</v>
       </c>
       <c r="B568" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>315</v>
+        <v>200</v>
       </c>
       <c r="D568" s="1" t="s">
-        <v>316</v>
+        <v>201</v>
       </c>
       <c r="E568" s="1" t="s">
-        <v>317</v>
+        <v>202</v>
       </c>
       <c r="F568" s="1" t="s">
-        <v>318</v>
+        <v>203</v>
       </c>
       <c r="G568" s="1"/>
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A569" s="1" t="s">
-        <v>1915</v>
+        <v>1885</v>
       </c>
       <c r="B569" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>319</v>
+        <v>204</v>
       </c>
       <c r="D569" s="1" t="s">
-        <v>320</v>
+        <v>205</v>
       </c>
       <c r="E569" s="1" t="s">
-        <v>321</v>
+        <v>206</v>
       </c>
       <c r="F569" s="1" t="s">
-        <v>322</v>
+        <v>207</v>
       </c>
       <c r="G569" s="1"/>
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A570" s="1" t="s">
-        <v>1916</v>
+        <v>1886</v>
       </c>
       <c r="B570" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>323</v>
+        <v>204</v>
       </c>
       <c r="D570" s="1" t="s">
-        <v>324</v>
+        <v>208</v>
       </c>
       <c r="E570" s="1" t="s">
-        <v>325</v>
+        <v>209</v>
       </c>
       <c r="F570" s="1" t="s">
-        <v>326</v>
+        <v>210</v>
       </c>
       <c r="G570" s="1"/>
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A571" s="1" t="s">
-        <v>1917</v>
+        <v>1887</v>
       </c>
       <c r="B571" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>327</v>
+        <v>211</v>
       </c>
       <c r="D571" s="1" t="s">
-        <v>328</v>
+        <v>212</v>
       </c>
       <c r="E571" s="1" t="s">
-        <v>329</v>
+        <v>213</v>
       </c>
       <c r="F571" s="1" t="s">
-        <v>330</v>
+        <v>214</v>
       </c>
       <c r="G571" s="1"/>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
-        <v>1918</v>
+        <v>1888</v>
       </c>
       <c r="B572" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>331</v>
+        <v>215</v>
       </c>
       <c r="D572" s="1" t="s">
-        <v>332</v>
+        <v>216</v>
       </c>
       <c r="E572" s="1" t="s">
-        <v>333</v>
+        <v>217</v>
       </c>
       <c r="F572" s="1" t="s">
-        <v>334</v>
+        <v>218</v>
       </c>
       <c r="G572" s="1"/>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A573" s="1" t="s">
-        <v>1919</v>
+        <v>1889</v>
       </c>
       <c r="B573" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C573" s="1" t="s">
-        <v>335</v>
+        <v>219</v>
       </c>
       <c r="D573" s="1" t="s">
-        <v>336</v>
+        <v>220</v>
       </c>
       <c r="E573" s="1" t="s">
-        <v>337</v>
+        <v>221</v>
       </c>
       <c r="F573" s="1" t="s">
-        <v>338</v>
+        <v>222</v>
       </c>
       <c r="G573" s="1"/>
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A574" s="1" t="s">
-        <v>1920</v>
+        <v>1890</v>
       </c>
       <c r="B574" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>339</v>
+        <v>223</v>
       </c>
       <c r="D574" s="1" t="s">
-        <v>340</v>
+        <v>224</v>
       </c>
       <c r="E574" s="1" t="s">
-        <v>341</v>
+        <v>225</v>
       </c>
       <c r="F574" s="1" t="s">
-        <v>342</v>
+        <v>226</v>
       </c>
       <c r="G574" s="1"/>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A575" s="1" t="s">
-        <v>1921</v>
+        <v>1891</v>
       </c>
       <c r="B575" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>343</v>
+        <v>227</v>
       </c>
       <c r="D575" s="1" t="s">
-        <v>344</v>
+        <v>228</v>
       </c>
       <c r="E575" s="1" t="s">
-        <v>345</v>
+        <v>229</v>
       </c>
       <c r="F575" s="1" t="s">
-        <v>346</v>
+        <v>230</v>
       </c>
       <c r="G575" s="1"/>
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
-        <v>1922</v>
+        <v>1892</v>
       </c>
       <c r="B576" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>347</v>
+        <v>231</v>
       </c>
       <c r="D576" s="1" t="s">
-        <v>348</v>
+        <v>232</v>
       </c>
       <c r="E576" s="1" t="s">
-        <v>349</v>
+        <v>233</v>
       </c>
       <c r="F576" s="1" t="s">
-        <v>350</v>
+        <v>234</v>
       </c>
       <c r="G576" s="1"/>
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A577" s="1" t="s">
-        <v>1923</v>
+        <v>1893</v>
       </c>
       <c r="B577" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>351</v>
+        <v>235</v>
       </c>
       <c r="D577" s="1" t="s">
-        <v>352</v>
+        <v>236</v>
       </c>
       <c r="E577" s="1" t="s">
-        <v>353</v>
+        <v>237</v>
       </c>
       <c r="F577" s="1" t="s">
-        <v>354</v>
+        <v>238</v>
       </c>
       <c r="G577" s="1"/>
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="s">
-        <v>1924</v>
+        <v>1894</v>
       </c>
       <c r="B578" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>355</v>
+        <v>239</v>
       </c>
       <c r="D578" s="1" t="s">
-        <v>356</v>
+        <v>240</v>
       </c>
       <c r="E578" s="1" t="s">
-        <v>357</v>
+        <v>241</v>
       </c>
       <c r="F578" s="1" t="s">
-        <v>358</v>
+        <v>242</v>
       </c>
       <c r="G578" s="1"/>
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A579" s="1" t="s">
-        <v>1925</v>
+        <v>1895</v>
       </c>
       <c r="B579" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>359</v>
+        <v>243</v>
       </c>
       <c r="D579" s="1" t="s">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="E579" s="1" t="s">
-        <v>361</v>
+        <v>245</v>
       </c>
       <c r="F579" s="1" t="s">
-        <v>362</v>
+        <v>246</v>
       </c>
       <c r="G579" s="1"/>
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A580" s="1" t="s">
-        <v>1926</v>
+        <v>1896</v>
       </c>
       <c r="B580" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>363</v>
+        <v>247</v>
       </c>
       <c r="D580" s="1" t="s">
-        <v>364</v>
+        <v>248</v>
       </c>
       <c r="E580" s="1" t="s">
-        <v>365</v>
+        <v>249</v>
       </c>
       <c r="F580" s="1" t="s">
-        <v>366</v>
+        <v>250</v>
       </c>
       <c r="G580" s="1"/>
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A581" s="1" t="s">
-        <v>1927</v>
+        <v>1897</v>
       </c>
       <c r="B581" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C581" s="1" t="s">
-        <v>367</v>
+        <v>251</v>
       </c>
       <c r="D581" s="1" t="s">
-        <v>368</v>
+        <v>252</v>
       </c>
       <c r="E581" s="1" t="s">
-        <v>369</v>
+        <v>253</v>
       </c>
       <c r="F581" s="1" t="s">
-        <v>370</v>
+        <v>254</v>
       </c>
       <c r="G581" s="1"/>
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A582" s="1" t="s">
-        <v>1928</v>
+        <v>1898</v>
       </c>
       <c r="B582" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>371</v>
+        <v>255</v>
       </c>
       <c r="D582" s="1" t="s">
-        <v>372</v>
+        <v>256</v>
       </c>
       <c r="E582" s="1" t="s">
-        <v>373</v>
+        <v>257</v>
       </c>
       <c r="F582" s="1" t="s">
-        <v>374</v>
+        <v>258</v>
       </c>
       <c r="G582" s="1"/>
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A583" s="1" t="s">
-        <v>1929</v>
+        <v>1899</v>
       </c>
       <c r="B583" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>375</v>
+        <v>259</v>
       </c>
       <c r="D583" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="E583" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="F583" s="1" t="s">
-        <v>378</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="E583" s="1"/>
+      <c r="F583" s="1"/>
       <c r="G583" s="1"/>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A584" s="1" t="s">
-        <v>1930</v>
+        <v>1900</v>
       </c>
       <c r="B584" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>379</v>
+        <v>261</v>
       </c>
       <c r="D584" s="1" t="s">
-        <v>380</v>
+        <v>262</v>
       </c>
       <c r="E584" s="1" t="s">
-        <v>381</v>
+        <v>263</v>
       </c>
       <c r="F584" s="1" t="s">
-        <v>382</v>
+        <v>264</v>
       </c>
       <c r="G584" s="1"/>
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A585" s="1" t="s">
-        <v>1931</v>
+        <v>1901</v>
       </c>
       <c r="B585" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C585" s="1" t="s">
-        <v>383</v>
+        <v>265</v>
       </c>
       <c r="D585" s="1" t="s">
-        <v>384</v>
+        <v>266</v>
       </c>
       <c r="E585" s="1" t="s">
-        <v>385</v>
+        <v>267</v>
       </c>
       <c r="F585" s="1" t="s">
-        <v>386</v>
+        <v>268</v>
       </c>
       <c r="G585" s="1"/>
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A586" s="1" t="s">
-        <v>1932</v>
+        <v>1902</v>
       </c>
       <c r="B586" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>387</v>
+        <v>269</v>
       </c>
       <c r="D586" s="1" t="s">
-        <v>388</v>
+        <v>270</v>
       </c>
       <c r="E586" s="1" t="s">
-        <v>389</v>
+        <v>271</v>
       </c>
       <c r="F586" s="1" t="s">
-        <v>390</v>
+        <v>272</v>
       </c>
       <c r="G586" s="1"/>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A587" s="1" t="s">
-        <v>1933</v>
+        <v>1903</v>
       </c>
       <c r="B587" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
       <c r="D587" s="1" t="s">
-        <v>392</v>
+        <v>273</v>
       </c>
       <c r="E587" s="1" t="s">
-        <v>393</v>
+        <v>274</v>
       </c>
       <c r="F587" s="1" t="s">
-        <v>394</v>
+        <v>275</v>
       </c>
       <c r="G587" s="1"/>
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A588" s="1" t="s">
-        <v>1934</v>
+        <v>1904</v>
       </c>
       <c r="B588" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>395</v>
+        <v>276</v>
       </c>
       <c r="D588" s="1" t="s">
-        <v>396</v>
+        <v>277</v>
       </c>
       <c r="E588" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="F588" s="1" t="s">
-        <v>398</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="F588" s="1"/>
       <c r="G588" s="1"/>
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A589" s="1" t="s">
-        <v>1935</v>
+        <v>1905</v>
       </c>
       <c r="B589" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C589" s="1" t="s">
-        <v>399</v>
+        <v>279</v>
       </c>
       <c r="D589" s="1" t="s">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="E589" s="1" t="s">
-        <v>401</v>
+        <v>281</v>
       </c>
       <c r="F589" s="1" t="s">
-        <v>402</v>
+        <v>282</v>
       </c>
       <c r="G589" s="1"/>
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
-        <v>1936</v>
+        <v>1906</v>
       </c>
       <c r="B590" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C590" s="1" t="s">
-        <v>403</v>
+        <v>283</v>
       </c>
       <c r="D590" s="1" t="s">
-        <v>404</v>
+        <v>284</v>
       </c>
       <c r="E590" s="1" t="s">
-        <v>405</v>
+        <v>285</v>
       </c>
       <c r="F590" s="1" t="s">
-        <v>406</v>
+        <v>286</v>
       </c>
       <c r="G590" s="1"/>
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A591" s="1" t="s">
-        <v>1937</v>
+        <v>1907</v>
       </c>
       <c r="B591" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C591" s="1" t="s">
-        <v>407</v>
+        <v>287</v>
       </c>
       <c r="D591" s="1" t="s">
-        <v>408</v>
+        <v>288</v>
       </c>
       <c r="E591" s="1" t="s">
-        <v>409</v>
+        <v>289</v>
       </c>
       <c r="F591" s="1" t="s">
-        <v>410</v>
+        <v>290</v>
       </c>
       <c r="G591" s="1"/>
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
-        <v>1938</v>
+        <v>1908</v>
       </c>
       <c r="B592" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C592" s="1" t="s">
-        <v>411</v>
+        <v>291</v>
       </c>
       <c r="D592" s="1" t="s">
-        <v>412</v>
+        <v>292</v>
       </c>
       <c r="E592" s="1" t="s">
-        <v>413</v>
+        <v>293</v>
       </c>
       <c r="F592" s="1" t="s">
-        <v>414</v>
+        <v>294</v>
       </c>
       <c r="G592" s="1"/>
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A593" s="1" t="s">
-        <v>1939</v>
+        <v>1909</v>
       </c>
       <c r="B593" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C593" s="1" t="s">
-        <v>415</v>
+        <v>295</v>
       </c>
       <c r="D593" s="1" t="s">
-        <v>416</v>
+        <v>296</v>
       </c>
       <c r="E593" s="1" t="s">
-        <v>417</v>
+        <v>297</v>
       </c>
       <c r="F593" s="1" t="s">
-        <v>418</v>
+        <v>298</v>
       </c>
       <c r="G593" s="1"/>
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
-        <v>1940</v>
+        <v>1910</v>
       </c>
       <c r="B594" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C594" s="1" t="s">
-        <v>419</v>
+        <v>299</v>
       </c>
       <c r="D594" s="1" t="s">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="E594" s="1" t="s">
-        <v>421</v>
+        <v>301</v>
       </c>
       <c r="F594" s="1" t="s">
-        <v>422</v>
+        <v>302</v>
       </c>
       <c r="G594" s="1"/>
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
-        <v>1941</v>
+        <v>1911</v>
       </c>
       <c r="B595" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C595" s="1" t="s">
-        <v>423</v>
+        <v>303</v>
       </c>
       <c r="D595" s="1" t="s">
-        <v>424</v>
+        <v>304</v>
       </c>
       <c r="E595" s="1" t="s">
-        <v>425</v>
+        <v>305</v>
       </c>
       <c r="F595" s="1" t="s">
-        <v>426</v>
+        <v>306</v>
       </c>
       <c r="G595" s="1"/>
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
-        <v>1942</v>
+        <v>1912</v>
       </c>
       <c r="B596" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C596" s="1" t="s">
-        <v>427</v>
+        <v>307</v>
       </c>
       <c r="D596" s="1" t="s">
-        <v>428</v>
+        <v>308</v>
       </c>
       <c r="E596" s="1" t="s">
-        <v>429</v>
+        <v>309</v>
       </c>
       <c r="F596" s="1" t="s">
-        <v>430</v>
+        <v>310</v>
       </c>
       <c r="G596" s="1"/>
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
-        <v>1943</v>
+        <v>1913</v>
       </c>
       <c r="B597" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C597" s="1" t="s">
-        <v>431</v>
+        <v>311</v>
       </c>
       <c r="D597" s="1" t="s">
-        <v>432</v>
+        <v>312</v>
       </c>
       <c r="E597" s="1" t="s">
-        <v>433</v>
+        <v>313</v>
       </c>
       <c r="F597" s="1" t="s">
-        <v>434</v>
+        <v>314</v>
       </c>
       <c r="G597" s="1"/>
     </row>
     <row r="598" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
-        <v>1944</v>
+        <v>1914</v>
       </c>
       <c r="B598" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C598" s="1" t="s">
-        <v>435</v>
+        <v>315</v>
       </c>
       <c r="D598" s="1" t="s">
-        <v>436</v>
+        <v>316</v>
       </c>
       <c r="E598" s="1" t="s">
-        <v>437</v>
+        <v>317</v>
       </c>
       <c r="F598" s="1" t="s">
-        <v>438</v>
+        <v>318</v>
       </c>
       <c r="G598" s="1"/>
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A599" s="1" t="s">
-        <v>1945</v>
+        <v>1915</v>
       </c>
       <c r="B599" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C599" s="1" t="s">
-        <v>439</v>
+        <v>319</v>
       </c>
       <c r="D599" s="1" t="s">
-        <v>440</v>
+        <v>320</v>
       </c>
       <c r="E599" s="1" t="s">
-        <v>441</v>
+        <v>321</v>
       </c>
       <c r="F599" s="1" t="s">
-        <v>442</v>
+        <v>322</v>
       </c>
       <c r="G599" s="1"/>
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
-        <v>1946</v>
+        <v>1916</v>
       </c>
       <c r="B600" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C600" s="1" t="s">
-        <v>443</v>
+        <v>323</v>
       </c>
       <c r="D600" s="1" t="s">
-        <v>444</v>
+        <v>324</v>
       </c>
       <c r="E600" s="1" t="s">
-        <v>445</v>
+        <v>325</v>
       </c>
       <c r="F600" s="1" t="s">
-        <v>446</v>
+        <v>326</v>
       </c>
       <c r="G600" s="1"/>
     </row>
     <row r="601" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A601" s="1" t="s">
-        <v>1947</v>
+        <v>1917</v>
       </c>
       <c r="B601" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C601" s="1" t="s">
-        <v>447</v>
+        <v>327</v>
       </c>
       <c r="D601" s="1" t="s">
-        <v>448</v>
+        <v>328</v>
       </c>
       <c r="E601" s="1" t="s">
-        <v>449</v>
+        <v>329</v>
       </c>
       <c r="F601" s="1" t="s">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="G601" s="1"/>
     </row>
     <row r="602" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
-        <v>1948</v>
+        <v>1918</v>
       </c>
       <c r="B602" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C602" s="1" t="s">
-        <v>451</v>
+        <v>331</v>
       </c>
       <c r="D602" s="1" t="s">
-        <v>452</v>
+        <v>332</v>
       </c>
       <c r="E602" s="1" t="s">
-        <v>453</v>
+        <v>333</v>
       </c>
       <c r="F602" s="1" t="s">
-        <v>454</v>
+        <v>334</v>
       </c>
       <c r="G602" s="1"/>
     </row>
     <row r="603" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
-        <v>1949</v>
+        <v>1919</v>
       </c>
       <c r="B603" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C603" s="1" t="s">
-        <v>455</v>
+        <v>335</v>
       </c>
       <c r="D603" s="1" t="s">
-        <v>456</v>
+        <v>336</v>
       </c>
       <c r="E603" s="1" t="s">
-        <v>457</v>
+        <v>337</v>
       </c>
       <c r="F603" s="1" t="s">
-        <v>458</v>
+        <v>338</v>
       </c>
       <c r="G603" s="1"/>
     </row>
     <row r="604" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
-        <v>1950</v>
+        <v>1920</v>
       </c>
       <c r="B604" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C604" s="1" t="s">
-        <v>459</v>
+        <v>339</v>
       </c>
       <c r="D604" s="1" t="s">
-        <v>460</v>
+        <v>340</v>
       </c>
       <c r="E604" s="1" t="s">
-        <v>461</v>
+        <v>341</v>
       </c>
       <c r="F604" s="1" t="s">
-        <v>462</v>
+        <v>342</v>
       </c>
       <c r="G604" s="1"/>
     </row>
     <row r="605" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A605" s="1" t="s">
-        <v>1951</v>
+        <v>1921</v>
       </c>
       <c r="B605" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C605" s="1" t="s">
-        <v>463</v>
+        <v>343</v>
       </c>
       <c r="D605" s="1" t="s">
-        <v>464</v>
+        <v>344</v>
       </c>
       <c r="E605" s="1" t="s">
-        <v>465</v>
+        <v>345</v>
       </c>
       <c r="F605" s="1" t="s">
-        <v>466</v>
+        <v>346</v>
       </c>
       <c r="G605" s="1"/>
     </row>
     <row r="606" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A606" s="1" t="s">
-        <v>1952</v>
+        <v>1922</v>
       </c>
       <c r="B606" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C606" s="1" t="s">
-        <v>467</v>
+        <v>347</v>
       </c>
       <c r="D606" s="1" t="s">
-        <v>468</v>
+        <v>348</v>
       </c>
       <c r="E606" s="1" t="s">
-        <v>469</v>
+        <v>349</v>
       </c>
       <c r="F606" s="1" t="s">
-        <v>470</v>
+        <v>350</v>
       </c>
       <c r="G606" s="1"/>
     </row>
     <row r="607" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A607" s="1" t="s">
-        <v>1953</v>
+        <v>1923</v>
       </c>
       <c r="B607" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C607" s="1" t="s">
-        <v>471</v>
+        <v>351</v>
       </c>
       <c r="D607" s="1" t="s">
-        <v>472</v>
+        <v>352</v>
       </c>
       <c r="E607" s="1" t="s">
-        <v>473</v>
+        <v>353</v>
       </c>
       <c r="F607" s="1" t="s">
-        <v>474</v>
+        <v>354</v>
       </c>
       <c r="G607" s="1"/>
     </row>
     <row r="608" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A608" s="1" t="s">
-        <v>1954</v>
+        <v>1924</v>
       </c>
       <c r="B608" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C608" s="1" t="s">
-        <v>475</v>
+        <v>355</v>
       </c>
       <c r="D608" s="1" t="s">
-        <v>476</v>
+        <v>356</v>
       </c>
       <c r="E608" s="1" t="s">
-        <v>477</v>
+        <v>357</v>
       </c>
       <c r="F608" s="1" t="s">
-        <v>478</v>
+        <v>358</v>
       </c>
       <c r="G608" s="1"/>
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A609" s="1" t="s">
-        <v>1955</v>
+        <v>1925</v>
       </c>
       <c r="B609" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C609" s="1" t="s">
-        <v>479</v>
+        <v>359</v>
       </c>
       <c r="D609" s="1" t="s">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="E609" s="1" t="s">
-        <v>481</v>
+        <v>361</v>
       </c>
       <c r="F609" s="1" t="s">
-        <v>482</v>
+        <v>362</v>
       </c>
       <c r="G609" s="1"/>
     </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
-        <v>1956</v>
+        <v>1926</v>
       </c>
       <c r="B610" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C610" s="1" t="s">
-        <v>483</v>
+        <v>363</v>
       </c>
       <c r="D610" s="1" t="s">
-        <v>484</v>
+        <v>364</v>
       </c>
       <c r="E610" s="1" t="s">
-        <v>485</v>
+        <v>365</v>
       </c>
       <c r="F610" s="1" t="s">
-        <v>486</v>
+        <v>366</v>
       </c>
       <c r="G610" s="1"/>
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A611" s="1" t="s">
-        <v>1957</v>
+        <v>1927</v>
       </c>
       <c r="B611" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C611" s="1" t="s">
-        <v>487</v>
+        <v>367</v>
       </c>
       <c r="D611" s="1" t="s">
-        <v>488</v>
+        <v>368</v>
       </c>
       <c r="E611" s="1" t="s">
-        <v>489</v>
+        <v>369</v>
       </c>
       <c r="F611" s="1" t="s">
-        <v>490</v>
+        <v>370</v>
       </c>
       <c r="G611" s="1"/>
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A612" s="1" t="s">
-        <v>1958</v>
+        <v>1928</v>
       </c>
       <c r="B612" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C612" s="1" t="s">
-        <v>491</v>
+        <v>371</v>
       </c>
       <c r="D612" s="1" t="s">
-        <v>492</v>
+        <v>372</v>
       </c>
       <c r="E612" s="1" t="s">
-        <v>493</v>
+        <v>373</v>
       </c>
       <c r="F612" s="1" t="s">
-        <v>494</v>
+        <v>374</v>
       </c>
       <c r="G612" s="1"/>
     </row>
     <row r="613" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A613" s="1" t="s">
-        <v>1959</v>
+        <v>1929</v>
       </c>
       <c r="B613" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C613" s="1" t="s">
-        <v>495</v>
+        <v>375</v>
       </c>
       <c r="D613" s="1" t="s">
-        <v>496</v>
+        <v>376</v>
       </c>
       <c r="E613" s="1" t="s">
-        <v>497</v>
+        <v>377</v>
       </c>
       <c r="F613" s="1" t="s">
-        <v>498</v>
+        <v>378</v>
       </c>
       <c r="G613" s="1"/>
     </row>
     <row r="614" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A614" s="1" t="s">
-        <v>1960</v>
+        <v>1930</v>
       </c>
       <c r="B614" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C614" s="1" t="s">
-        <v>499</v>
+        <v>379</v>
       </c>
       <c r="D614" s="1" t="s">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="E614" s="1" t="s">
-        <v>501</v>
+        <v>381</v>
       </c>
       <c r="F614" s="1" t="s">
-        <v>502</v>
+        <v>382</v>
       </c>
       <c r="G614" s="1"/>
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A615" s="1" t="s">
-        <v>1961</v>
+        <v>1931</v>
       </c>
       <c r="B615" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C615" s="1" t="s">
-        <v>503</v>
+        <v>383</v>
       </c>
       <c r="D615" s="1" t="s">
-        <v>504</v>
+        <v>384</v>
       </c>
       <c r="E615" s="1" t="s">
-        <v>505</v>
+        <v>385</v>
       </c>
       <c r="F615" s="1" t="s">
-        <v>506</v>
+        <v>386</v>
       </c>
       <c r="G615" s="1"/>
     </row>
     <row r="616" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A616" s="1" t="s">
-        <v>1962</v>
+        <v>1932</v>
       </c>
       <c r="B616" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C616" s="1" t="s">
-        <v>507</v>
+        <v>387</v>
       </c>
       <c r="D616" s="1" t="s">
-        <v>508</v>
+        <v>388</v>
       </c>
       <c r="E616" s="1" t="s">
-        <v>509</v>
+        <v>389</v>
       </c>
       <c r="F616" s="1" t="s">
-        <v>510</v>
+        <v>390</v>
       </c>
       <c r="G616" s="1"/>
     </row>
     <row r="617" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A617" s="1" t="s">
-        <v>1963</v>
+        <v>1933</v>
       </c>
       <c r="B617" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C617" s="1" t="s">
-        <v>511</v>
+        <v>391</v>
       </c>
       <c r="D617" s="1" t="s">
-        <v>512</v>
+        <v>392</v>
       </c>
       <c r="E617" s="1" t="s">
-        <v>513</v>
+        <v>393</v>
       </c>
       <c r="F617" s="1" t="s">
-        <v>514</v>
+        <v>394</v>
       </c>
       <c r="G617" s="1"/>
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A618" s="1" t="s">
-        <v>1964</v>
+        <v>1934</v>
       </c>
       <c r="B618" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C618" s="1" t="s">
-        <v>515</v>
+        <v>395</v>
       </c>
       <c r="D618" s="1" t="s">
-        <v>516</v>
+        <v>396</v>
       </c>
       <c r="E618" s="1" t="s">
-        <v>517</v>
+        <v>397</v>
       </c>
       <c r="F618" s="1" t="s">
-        <v>518</v>
+        <v>398</v>
       </c>
       <c r="G618" s="1"/>
     </row>
     <row r="619" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A619" s="1" t="s">
-        <v>1965</v>
+        <v>1935</v>
       </c>
       <c r="B619" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C619" s="1" t="s">
-        <v>519</v>
+        <v>399</v>
       </c>
       <c r="D619" s="1" t="s">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="E619" s="1" t="s">
-        <v>521</v>
+        <v>401</v>
       </c>
       <c r="F619" s="1" t="s">
-        <v>522</v>
+        <v>402</v>
       </c>
       <c r="G619" s="1"/>
     </row>
     <row r="620" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A620" s="1" t="s">
-        <v>1966</v>
+        <v>1936</v>
       </c>
       <c r="B620" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C620" s="1" t="s">
-        <v>523</v>
+        <v>403</v>
       </c>
       <c r="D620" s="1" t="s">
-        <v>524</v>
+        <v>404</v>
       </c>
       <c r="E620" s="1" t="s">
-        <v>525</v>
+        <v>405</v>
       </c>
       <c r="F620" s="1" t="s">
-        <v>526</v>
+        <v>406</v>
       </c>
       <c r="G620" s="1"/>
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A621" s="1" t="s">
-        <v>1967</v>
+        <v>1937</v>
       </c>
       <c r="B621" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C621" s="1" t="s">
-        <v>527</v>
+        <v>407</v>
       </c>
       <c r="D621" s="1" t="s">
-        <v>528</v>
+        <v>408</v>
       </c>
       <c r="E621" s="1" t="s">
-        <v>529</v>
+        <v>409</v>
       </c>
       <c r="F621" s="1" t="s">
-        <v>530</v>
+        <v>410</v>
       </c>
       <c r="G621" s="1"/>
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A622" s="1" t="s">
-        <v>1968</v>
+        <v>1938</v>
       </c>
       <c r="B622" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C622" s="1" t="s">
-        <v>531</v>
+        <v>411</v>
       </c>
       <c r="D622" s="1" t="s">
-        <v>532</v>
+        <v>412</v>
       </c>
       <c r="E622" s="1" t="s">
-        <v>533</v>
+        <v>413</v>
       </c>
       <c r="F622" s="1" t="s">
-        <v>534</v>
+        <v>414</v>
       </c>
       <c r="G622" s="1"/>
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A623" s="1" t="s">
-        <v>1969</v>
+        <v>1939</v>
       </c>
       <c r="B623" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C623" s="1" t="s">
-        <v>535</v>
+        <v>415</v>
       </c>
       <c r="D623" s="1" t="s">
-        <v>536</v>
+        <v>416</v>
       </c>
       <c r="E623" s="1" t="s">
-        <v>537</v>
+        <v>417</v>
       </c>
       <c r="F623" s="1" t="s">
-        <v>538</v>
+        <v>418</v>
       </c>
       <c r="G623" s="1"/>
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A624" s="1" t="s">
-        <v>1970</v>
+        <v>1940</v>
       </c>
       <c r="B624" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C624" s="1" t="s">
-        <v>539</v>
+        <v>419</v>
       </c>
       <c r="D624" s="1" t="s">
-        <v>540</v>
+        <v>420</v>
       </c>
       <c r="E624" s="1" t="s">
-        <v>541</v>
+        <v>421</v>
       </c>
       <c r="F624" s="1" t="s">
-        <v>542</v>
+        <v>422</v>
       </c>
       <c r="G624" s="1"/>
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A625" s="1" t="s">
-        <v>1971</v>
+        <v>1941</v>
       </c>
       <c r="B625" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C625" s="1" t="s">
-        <v>543</v>
+        <v>423</v>
       </c>
       <c r="D625" s="1" t="s">
-        <v>544</v>
+        <v>424</v>
       </c>
       <c r="E625" s="1" t="s">
-        <v>545</v>
+        <v>425</v>
       </c>
       <c r="F625" s="1" t="s">
-        <v>546</v>
+        <v>426</v>
       </c>
       <c r="G625" s="1"/>
     </row>
     <row r="626" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A626" s="1" t="s">
-        <v>1972</v>
+        <v>1942</v>
       </c>
       <c r="B626" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C626" s="1" t="s">
-        <v>547</v>
+        <v>427</v>
       </c>
       <c r="D626" s="1" t="s">
-        <v>548</v>
+        <v>428</v>
       </c>
       <c r="E626" s="1" t="s">
-        <v>549</v>
+        <v>429</v>
       </c>
       <c r="F626" s="1" t="s">
-        <v>550</v>
+        <v>430</v>
       </c>
       <c r="G626" s="1"/>
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A627" s="1" t="s">
-        <v>1973</v>
+        <v>1943</v>
       </c>
       <c r="B627" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C627" s="1" t="s">
-        <v>551</v>
+        <v>431</v>
       </c>
       <c r="D627" s="1" t="s">
-        <v>552</v>
+        <v>432</v>
       </c>
       <c r="E627" s="1" t="s">
-        <v>553</v>
+        <v>433</v>
       </c>
       <c r="F627" s="1" t="s">
-        <v>554</v>
+        <v>434</v>
       </c>
       <c r="G627" s="1"/>
     </row>
     <row r="628" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A628" s="1" t="s">
-        <v>1974</v>
+        <v>1944</v>
       </c>
       <c r="B628" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C628" s="1" t="s">
-        <v>555</v>
+        <v>435</v>
       </c>
       <c r="D628" s="1" t="s">
-        <v>556</v>
+        <v>436</v>
       </c>
       <c r="E628" s="1" t="s">
-        <v>557</v>
+        <v>437</v>
       </c>
       <c r="F628" s="1" t="s">
-        <v>558</v>
+        <v>438</v>
       </c>
       <c r="G628" s="1"/>
     </row>
     <row r="629" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A629" s="1" t="s">
-        <v>1975</v>
+        <v>1945</v>
       </c>
       <c r="B629" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C629" s="1" t="s">
-        <v>559</v>
+        <v>439</v>
       </c>
       <c r="D629" s="1" t="s">
-        <v>560</v>
+        <v>440</v>
       </c>
       <c r="E629" s="1" t="s">
-        <v>561</v>
+        <v>441</v>
       </c>
       <c r="F629" s="1" t="s">
-        <v>562</v>
+        <v>442</v>
       </c>
       <c r="G629" s="1"/>
     </row>
     <row r="630" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A630" s="1" t="s">
-        <v>1976</v>
+        <v>1946</v>
       </c>
       <c r="B630" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C630" s="1" t="s">
-        <v>563</v>
+        <v>443</v>
       </c>
       <c r="D630" s="1" t="s">
-        <v>564</v>
+        <v>444</v>
       </c>
       <c r="E630" s="1" t="s">
-        <v>565</v>
+        <v>445</v>
       </c>
       <c r="F630" s="1" t="s">
-        <v>566</v>
+        <v>446</v>
       </c>
       <c r="G630" s="1"/>
     </row>
     <row r="631" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A631" s="1" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B631" s="1">
+        <v>29</v>
+      </c>
+      <c r="C631" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D631" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E631" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F631" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="G631" s="1"/>
+    </row>
+    <row r="632" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A632" s="1" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B632" s="1">
+        <v>30</v>
+      </c>
+      <c r="C632" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D632" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E632" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F632" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="G632" s="1"/>
+    </row>
+    <row r="633" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A633" s="1" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B633" s="1">
+        <v>30</v>
+      </c>
+      <c r="C633" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D633" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E633" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F633" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="G633" s="1"/>
+    </row>
+    <row r="634" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A634" s="1" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B634" s="1">
+        <v>30</v>
+      </c>
+      <c r="C634" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D634" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E634" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F634" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="G634" s="1"/>
+    </row>
+    <row r="635" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A635" s="1" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B635" s="1">
+        <v>30</v>
+      </c>
+      <c r="C635" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D635" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E635" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F635" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="G635" s="1"/>
+    </row>
+    <row r="636" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A636" s="1" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B636" s="1">
+        <v>30</v>
+      </c>
+      <c r="C636" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D636" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E636" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F636" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G636" s="1"/>
+    </row>
+    <row r="637" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A637" s="1" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B637" s="1">
+        <v>30</v>
+      </c>
+      <c r="C637" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D637" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E637" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F637" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G637" s="1"/>
+    </row>
+    <row r="638" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A638" s="1" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B638" s="1">
+        <v>30</v>
+      </c>
+      <c r="C638" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D638" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E638" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F638" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="G638" s="1"/>
+    </row>
+    <row r="639" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A639" s="1" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B639" s="1">
+        <v>30</v>
+      </c>
+      <c r="C639" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D639" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E639" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F639" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="G639" s="1"/>
+    </row>
+    <row r="640" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A640" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B640" s="1">
+        <v>30</v>
+      </c>
+      <c r="C640" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D640" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E640" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F640" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G640" s="1"/>
+    </row>
+    <row r="641" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A641" s="1" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B641" s="1">
+        <v>30</v>
+      </c>
+      <c r="C641" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D641" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E641" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F641" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G641" s="1"/>
+    </row>
+    <row r="642" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A642" s="1" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B642" s="1">
+        <v>30</v>
+      </c>
+      <c r="C642" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D642" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E642" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F642" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="G642" s="1"/>
+    </row>
+    <row r="643" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A643" s="1" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B643" s="1">
+        <v>30</v>
+      </c>
+      <c r="C643" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D643" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E643" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F643" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="G643" s="1"/>
+    </row>
+    <row r="644" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A644" s="1" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B644" s="1">
+        <v>30</v>
+      </c>
+      <c r="C644" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D644" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="E644" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F644" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="G644" s="1"/>
+    </row>
+    <row r="645" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A645" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B645" s="1">
+        <v>30</v>
+      </c>
+      <c r="C645" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D645" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E645" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F645" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G645" s="1"/>
+    </row>
+    <row r="646" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A646" s="1" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B646" s="1">
+        <v>30</v>
+      </c>
+      <c r="C646" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D646" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="E646" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F646" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="G646" s="1"/>
+    </row>
+    <row r="647" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A647" s="1" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B647" s="1">
+        <v>30</v>
+      </c>
+      <c r="C647" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D647" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E647" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F647" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="G647" s="1"/>
+    </row>
+    <row r="648" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A648" s="1" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B648" s="1">
+        <v>30</v>
+      </c>
+      <c r="C648" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D648" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E648" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="F648" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="G648" s="1"/>
+    </row>
+    <row r="649" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A649" s="1" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B649" s="1">
+        <v>30</v>
+      </c>
+      <c r="C649" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D649" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E649" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F649" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G649" s="1"/>
+    </row>
+    <row r="650" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A650" s="1" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B650" s="1">
+        <v>30</v>
+      </c>
+      <c r="C650" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D650" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E650" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="F650" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="G650" s="1"/>
+    </row>
+    <row r="651" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A651" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B651" s="1">
+        <v>30</v>
+      </c>
+      <c r="C651" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D651" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E651" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F651" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="G651" s="1"/>
+    </row>
+    <row r="652" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A652" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B652" s="1">
+        <v>30</v>
+      </c>
+      <c r="C652" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D652" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E652" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F652" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="G652" s="1"/>
+    </row>
+    <row r="653" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A653" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B653" s="1">
+        <v>30</v>
+      </c>
+      <c r="C653" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D653" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="E653" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F653" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="G653" s="1"/>
+    </row>
+    <row r="654" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A654" s="1" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B654" s="1">
+        <v>30</v>
+      </c>
+      <c r="C654" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D654" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E654" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="F654" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="G654" s="1"/>
+    </row>
+    <row r="655" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A655" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B655" s="1">
+        <v>30</v>
+      </c>
+      <c r="C655" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D655" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="E655" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F655" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="G655" s="1"/>
+    </row>
+    <row r="656" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A656" s="1" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B656" s="1">
+        <v>30</v>
+      </c>
+      <c r="C656" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D656" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E656" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F656" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="G656" s="1"/>
+    </row>
+    <row r="657" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A657" s="1" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B657" s="1">
+        <v>30</v>
+      </c>
+      <c r="C657" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D657" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E657" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F657" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="G657" s="1"/>
+    </row>
+    <row r="658" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A658" s="1" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B658" s="1">
+        <v>30</v>
+      </c>
+      <c r="C658" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D658" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E658" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F658" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="G658" s="1"/>
+    </row>
+    <row r="659" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A659" s="1" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B659" s="1">
+        <v>30</v>
+      </c>
+      <c r="C659" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D659" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E659" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F659" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="G659" s="1"/>
+    </row>
+    <row r="660" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A660" s="1" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B660" s="1">
+        <v>30</v>
+      </c>
+      <c r="C660" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D660" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E660" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F660" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="G660" s="1"/>
+    </row>
+    <row r="661" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A661" s="1" t="s">
         <v>1977</v>
       </c>
-      <c r="B631" s="1">
+      <c r="B661" s="1">
         <v>30</v>
       </c>
-      <c r="C631" s="1" t="s">
+      <c r="C661" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D631" s="1" t="s">
+      <c r="D661" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="E631" s="1" t="s">
+      <c r="E661" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="F631" s="1" t="s">
+      <c r="F661" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="G631" s="1"/>
+      <c r="G661" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/data/WordStudy.xlsx
+++ b/data/WordStudy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dom/Documents/Dom/english-app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839E3B57-8719-E443-AF52-9367AC65E18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE2C119-66D3-7A46-81BE-B0C169399A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="49160" yWindow="2640" windowWidth="34240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3814" uniqueCount="3255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3994" uniqueCount="3405">
   <si>
     <t>ID</t>
   </si>
@@ -9795,6 +9795,456 @@
   </si>
   <si>
     <t>a special guest</t>
+  </si>
+  <si>
+    <t>U18_01</t>
+  </si>
+  <si>
+    <t>U18_02</t>
+  </si>
+  <si>
+    <t>U18_03</t>
+  </si>
+  <si>
+    <t>U18_04</t>
+  </si>
+  <si>
+    <t>U18_05</t>
+  </si>
+  <si>
+    <t>U18_06</t>
+  </si>
+  <si>
+    <t>U18_07</t>
+  </si>
+  <si>
+    <t>U18_08</t>
+  </si>
+  <si>
+    <t>U18_09</t>
+  </si>
+  <si>
+    <t>U18_10</t>
+  </si>
+  <si>
+    <t>U18_11</t>
+  </si>
+  <si>
+    <t>U18_12</t>
+  </si>
+  <si>
+    <t>U18_13</t>
+  </si>
+  <si>
+    <t>U18_14</t>
+  </si>
+  <si>
+    <t>U18_15</t>
+  </si>
+  <si>
+    <t>U18_16</t>
+  </si>
+  <si>
+    <t>U18_17</t>
+  </si>
+  <si>
+    <t>U18_18</t>
+  </si>
+  <si>
+    <t>U18_19</t>
+  </si>
+  <si>
+    <t>U18_20</t>
+  </si>
+  <si>
+    <t>U18_21</t>
+  </si>
+  <si>
+    <t>U18_22</t>
+  </si>
+  <si>
+    <t>U18_23</t>
+  </si>
+  <si>
+    <t>U18_24</t>
+  </si>
+  <si>
+    <t>U18_25</t>
+  </si>
+  <si>
+    <t>U18_26</t>
+  </si>
+  <si>
+    <t>U18_27</t>
+  </si>
+  <si>
+    <t>U18_28</t>
+  </si>
+  <si>
+    <t>U18_29</t>
+  </si>
+  <si>
+    <t>U18_30</t>
+  </si>
+  <si>
+    <t>Bỏ qua</t>
+  </si>
+  <si>
+    <t>Skip</t>
+  </si>
+  <si>
+    <t>I may skip breakfast</t>
+  </si>
+  <si>
+    <t>skip breakfast</t>
+  </si>
+  <si>
+    <t>Tránh</t>
+  </si>
+  <si>
+    <t>Avoid</t>
+  </si>
+  <si>
+    <t>You should avoid losing this key at all costs</t>
+  </si>
+  <si>
+    <t>avoid something at all costs / tránh bằng mọi giá</t>
+  </si>
+  <si>
+    <t>Lành mạnh</t>
+  </si>
+  <si>
+    <t>Healthy</t>
+  </si>
+  <si>
+    <t>He insists on having a healthy diet</t>
+  </si>
+  <si>
+    <t>a healthy diet</t>
+  </si>
+  <si>
+    <t>Nướng</t>
+  </si>
+  <si>
+    <t>Bake</t>
+  </si>
+  <si>
+    <t>I bake a cake for his birthday</t>
+  </si>
+  <si>
+    <t>Bake a cake</t>
+  </si>
+  <si>
+    <t>Lò nướng</t>
+  </si>
+  <si>
+    <t>Oven</t>
+  </si>
+  <si>
+    <t>I put the chicken into a wood-fired oven</t>
+  </si>
+  <si>
+    <t>a wood-fired oven</t>
+  </si>
+  <si>
+    <t>Hấp</t>
+  </si>
+  <si>
+    <t>Steam</t>
+  </si>
+  <si>
+    <t>He steams all the buns</t>
+  </si>
+  <si>
+    <t>steam something</t>
+  </si>
+  <si>
+    <t>The whole family is gathering for Tet</t>
+  </si>
+  <si>
+    <t>Toàn bộ</t>
+  </si>
+  <si>
+    <t>Whole</t>
+  </si>
+  <si>
+    <t>The whole family</t>
+  </si>
+  <si>
+    <t>Cá hồi</t>
+  </si>
+  <si>
+    <t>Salmon</t>
+  </si>
+  <si>
+    <t>I love grilled salmon</t>
+  </si>
+  <si>
+    <t>grilled salmon</t>
+  </si>
+  <si>
+    <t>Khẩu phần</t>
+  </si>
+  <si>
+    <t>Portion</t>
+  </si>
+  <si>
+    <t>She gives me a generous portion of meat</t>
+  </si>
+  <si>
+    <t>a generous portion of / một phần đồ ăn lớn</t>
+  </si>
+  <si>
+    <t>Đủ</t>
+  </si>
+  <si>
+    <t>Enough</t>
+  </si>
+  <si>
+    <t>That cake is not good enough</t>
+  </si>
+  <si>
+    <t>Not good enough</t>
+  </si>
+  <si>
+    <t>Tổng cộng</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>The total cost of the meal is acceptable</t>
+  </si>
+  <si>
+    <t>Total cost</t>
+  </si>
+  <si>
+    <t>Chứa</t>
+  </si>
+  <si>
+    <t>Contain</t>
+  </si>
+  <si>
+    <t>This dish contains a lot of sugar</t>
+  </si>
+  <si>
+    <t>contain something</t>
+  </si>
+  <si>
+    <t>Dầu</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>Use some cooking oil to prevent burning</t>
+  </si>
+  <si>
+    <t>Cooking oil</t>
+  </si>
+  <si>
+    <t>Rau củ</t>
+  </si>
+  <si>
+    <t>Vegetable</t>
+  </si>
+  <si>
+    <t>Carrot is a type of root vegetable</t>
+  </si>
+  <si>
+    <t>Root vegetable</t>
+  </si>
+  <si>
+    <t>Trộn</t>
+  </si>
+  <si>
+    <t>Mix</t>
+  </si>
+  <si>
+    <t>Mix the beef and spices together</t>
+  </si>
+  <si>
+    <t>Mix a and b together</t>
+  </si>
+  <si>
+    <t>Luộc, đun sôi</t>
+  </si>
+  <si>
+    <t>Boil</t>
+  </si>
+  <si>
+    <t>Please boil some water for 10 minutes</t>
+  </si>
+  <si>
+    <t>boil some water</t>
+  </si>
+  <si>
+    <t>Công thức</t>
+  </si>
+  <si>
+    <t>Recipe</t>
+  </si>
+  <si>
+    <t>Pho Thin has secret family recipe</t>
+  </si>
+  <si>
+    <t>a secret family recipe / công thức gia truyền</t>
+  </si>
+  <si>
+    <t>Nguyên liệu, thành phần</t>
+  </si>
+  <si>
+    <t>Ingredient</t>
+  </si>
+  <si>
+    <t>Turmeric is a special ingredient in Asian cuisine</t>
+  </si>
+  <si>
+    <t>A special ingredient</t>
+  </si>
+  <si>
+    <t>Rau thơm</t>
+  </si>
+  <si>
+    <t>Herb</t>
+  </si>
+  <si>
+    <t>Many urban families have an herb garden</t>
+  </si>
+  <si>
+    <t>an herb garden</t>
+  </si>
+  <si>
+    <t>Nước hoa quả</t>
+  </si>
+  <si>
+    <t>Juice</t>
+  </si>
+  <si>
+    <t>Her lemon juice is too sour</t>
+  </si>
+  <si>
+    <t>lemon juice</t>
+  </si>
+  <si>
+    <t>Tự làm tại nhà</t>
+  </si>
+  <si>
+    <t>Homemade</t>
+  </si>
+  <si>
+    <t>He sends me some homemade cookies</t>
+  </si>
+  <si>
+    <t>homemade cookies</t>
+  </si>
+  <si>
+    <t>Bữa ăn</t>
+  </si>
+  <si>
+    <t>Meal</t>
+  </si>
+  <si>
+    <t>We often go out for a meal</t>
+  </si>
+  <si>
+    <t>go out for a meal</t>
+  </si>
+  <si>
+    <t>Hữu cơ</t>
+  </si>
+  <si>
+    <t>Organic</t>
+  </si>
+  <si>
+    <t>Food from organic farming is more expensive</t>
+  </si>
+  <si>
+    <t>organic farming</t>
+  </si>
+  <si>
+    <t>Nạc</t>
+  </si>
+  <si>
+    <t>Lean</t>
+  </si>
+  <si>
+    <t>She prefers eating lean meat</t>
+  </si>
+  <si>
+    <t>lean meat</t>
+  </si>
+  <si>
+    <t>Sữa chua</t>
+  </si>
+  <si>
+    <t>Yogurt</t>
+  </si>
+  <si>
+    <t>Greek yogurt is a healthy choice</t>
+  </si>
+  <si>
+    <t>Greek yogurt</t>
+  </si>
+  <si>
+    <t>Ngũ cốc</t>
+  </si>
+  <si>
+    <t>Cereal</t>
+  </si>
+  <si>
+    <t>My breakfast is a bowl of cereal</t>
+  </si>
+  <si>
+    <t>a bowl of cereal</t>
+  </si>
+  <si>
+    <t>Khoa học</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Modern science is evolving every day</t>
+  </si>
+  <si>
+    <t>Modern science</t>
+  </si>
+  <si>
+    <t>Giảm bớt</t>
+  </si>
+  <si>
+    <t>Cut down on</t>
+  </si>
+  <si>
+    <t>You should cut down on smoking</t>
+  </si>
+  <si>
+    <t>cut down on doing something</t>
+  </si>
+  <si>
+    <t>Lượng</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>He cooks a huge amount of food</t>
+  </si>
+  <si>
+    <t>a huge amount of something</t>
+  </si>
+  <si>
+    <t>Thiết yếu</t>
+  </si>
+  <si>
+    <t>Essential</t>
+  </si>
+  <si>
+    <t>Protein is essential to our body</t>
+  </si>
+  <si>
+    <t>Eessential to something</t>
   </si>
 </sst>
 </file>
@@ -10159,10 +10609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G661"/>
+  <dimension ref="A1:G691"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B504" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G511" sqref="G511"/>
+    <sheetView tabSelected="1" topLeftCell="A527" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G541" sqref="G541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21930,649 +22380,709 @@
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
-        <v>1828</v>
+        <v>3255</v>
       </c>
       <c r="B512" s="1">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>6</v>
+        <v>3285</v>
       </c>
       <c r="D512" s="1" t="s">
-        <v>7</v>
+        <v>3286</v>
       </c>
       <c r="E512" s="1" t="s">
-        <v>8</v>
+        <v>3287</v>
       </c>
       <c r="F512" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G512" s="1"/>
+        <v>3288</v>
+      </c>
+      <c r="G512" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A513" s="1" t="s">
-        <v>1829</v>
+        <v>3256</v>
       </c>
       <c r="B513" s="1">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>10</v>
+        <v>3289</v>
       </c>
       <c r="D513" s="1" t="s">
-        <v>11</v>
+        <v>3290</v>
       </c>
       <c r="E513" s="1" t="s">
-        <v>12</v>
+        <v>3291</v>
       </c>
       <c r="F513" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G513" s="1"/>
+        <v>3292</v>
+      </c>
+      <c r="G513" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
-        <v>1830</v>
+        <v>3257</v>
       </c>
       <c r="B514" s="1">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>13</v>
+        <v>3293</v>
       </c>
       <c r="D514" s="1" t="s">
-        <v>14</v>
+        <v>3294</v>
       </c>
       <c r="E514" s="1" t="s">
-        <v>15</v>
+        <v>3295</v>
       </c>
       <c r="F514" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G514" s="1"/>
+        <v>3296</v>
+      </c>
+      <c r="G514" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A515" s="1" t="s">
-        <v>1831</v>
+        <v>3258</v>
       </c>
       <c r="B515" s="1">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>16</v>
+        <v>3297</v>
       </c>
       <c r="D515" s="1" t="s">
-        <v>17</v>
+        <v>3298</v>
       </c>
       <c r="E515" s="1" t="s">
-        <v>18</v>
+        <v>3299</v>
       </c>
       <c r="F515" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G515" s="1"/>
+        <v>3300</v>
+      </c>
+      <c r="G515" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
-        <v>1832</v>
+        <v>3259</v>
       </c>
       <c r="B516" s="1">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>19</v>
+        <v>3301</v>
       </c>
       <c r="D516" s="1" t="s">
-        <v>20</v>
+        <v>3302</v>
       </c>
       <c r="E516" s="1" t="s">
-        <v>21</v>
+        <v>3303</v>
       </c>
       <c r="F516" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G516" s="1"/>
+        <v>3304</v>
+      </c>
+      <c r="G516" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
-        <v>1833</v>
+        <v>3260</v>
       </c>
       <c r="B517" s="1">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>22</v>
+        <v>3305</v>
       </c>
       <c r="D517" s="1" t="s">
-        <v>23</v>
+        <v>3306</v>
       </c>
       <c r="E517" s="1" t="s">
-        <v>24</v>
+        <v>3307</v>
       </c>
       <c r="F517" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G517" s="1"/>
+        <v>3308</v>
+      </c>
+      <c r="G517" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
-        <v>1834</v>
+        <v>3261</v>
       </c>
       <c r="B518" s="1">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>25</v>
+        <v>3310</v>
       </c>
       <c r="D518" s="1" t="s">
-        <v>26</v>
+        <v>3311</v>
       </c>
       <c r="E518" s="1" t="s">
-        <v>27</v>
+        <v>3309</v>
       </c>
       <c r="F518" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G518" s="1"/>
+        <v>3312</v>
+      </c>
+      <c r="G518" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
-        <v>1835</v>
+        <v>3262</v>
       </c>
       <c r="B519" s="1">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>28</v>
+        <v>3313</v>
       </c>
       <c r="D519" s="1" t="s">
-        <v>29</v>
+        <v>3314</v>
       </c>
       <c r="E519" s="1" t="s">
-        <v>30</v>
+        <v>3315</v>
       </c>
       <c r="F519" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G519" s="1"/>
+        <v>3316</v>
+      </c>
+      <c r="G519" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="s">
-        <v>1836</v>
+        <v>3263</v>
       </c>
       <c r="B520" s="1">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>31</v>
+        <v>3317</v>
       </c>
       <c r="D520" s="1" t="s">
-        <v>32</v>
+        <v>3318</v>
       </c>
       <c r="E520" s="1" t="s">
-        <v>33</v>
+        <v>3319</v>
       </c>
       <c r="F520" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G520" s="1"/>
+        <v>3320</v>
+      </c>
+      <c r="G520" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A521" s="1" t="s">
-        <v>1837</v>
+        <v>3264</v>
       </c>
       <c r="B521" s="1">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>34</v>
+        <v>3321</v>
       </c>
       <c r="D521" s="1" t="s">
-        <v>35</v>
+        <v>3322</v>
       </c>
       <c r="E521" s="1" t="s">
-        <v>36</v>
+        <v>3323</v>
       </c>
       <c r="F521" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G521" s="1"/>
+        <v>3324</v>
+      </c>
+      <c r="G521" s="1" t="s">
+        <v>720</v>
+      </c>
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
-        <v>1838</v>
+        <v>3265</v>
       </c>
       <c r="B522" s="1">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>37</v>
+        <v>3325</v>
       </c>
       <c r="D522" s="1" t="s">
-        <v>38</v>
+        <v>3326</v>
       </c>
       <c r="E522" s="1" t="s">
-        <v>39</v>
+        <v>3327</v>
       </c>
       <c r="F522" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G522" s="1"/>
+        <v>3328</v>
+      </c>
+      <c r="G522" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A523" s="1" t="s">
-        <v>1839</v>
+        <v>3266</v>
       </c>
       <c r="B523" s="1">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>40</v>
+        <v>3329</v>
       </c>
       <c r="D523" s="1" t="s">
-        <v>41</v>
+        <v>3330</v>
       </c>
       <c r="E523" s="1" t="s">
-        <v>42</v>
+        <v>3331</v>
       </c>
       <c r="F523" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G523" s="1"/>
+        <v>3332</v>
+      </c>
+      <c r="G523" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
-        <v>1840</v>
+        <v>3267</v>
       </c>
       <c r="B524" s="1">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>43</v>
+        <v>3333</v>
       </c>
       <c r="D524" s="1" t="s">
-        <v>44</v>
+        <v>3334</v>
       </c>
       <c r="E524" s="1" t="s">
-        <v>45</v>
+        <v>3335</v>
       </c>
       <c r="F524" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G524" s="1"/>
+        <v>3336</v>
+      </c>
+      <c r="G524" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A525" s="1" t="s">
-        <v>1841</v>
+        <v>3268</v>
       </c>
       <c r="B525" s="1">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>47</v>
+        <v>3337</v>
       </c>
       <c r="D525" s="1" t="s">
-        <v>48</v>
+        <v>3338</v>
       </c>
       <c r="E525" s="1" t="s">
-        <v>49</v>
+        <v>3339</v>
       </c>
       <c r="F525" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G525" s="1"/>
+        <v>3340</v>
+      </c>
+      <c r="G525" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="s">
-        <v>1842</v>
+        <v>3269</v>
       </c>
       <c r="B526" s="1">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>50</v>
+        <v>3341</v>
       </c>
       <c r="D526" s="1" t="s">
-        <v>51</v>
+        <v>3342</v>
       </c>
       <c r="E526" s="1" t="s">
-        <v>52</v>
+        <v>3343</v>
       </c>
       <c r="F526" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G526" s="1"/>
+        <v>3344</v>
+      </c>
+      <c r="G526" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A527" s="1" t="s">
-        <v>1843</v>
+        <v>3270</v>
       </c>
       <c r="B527" s="1">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>54</v>
+        <v>3345</v>
       </c>
       <c r="D527" s="1" t="s">
-        <v>55</v>
+        <v>3346</v>
       </c>
       <c r="E527" s="1" t="s">
-        <v>56</v>
+        <v>3347</v>
       </c>
       <c r="F527" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G527" s="1"/>
+        <v>3348</v>
+      </c>
+      <c r="G527" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
-        <v>1844</v>
+        <v>3271</v>
       </c>
       <c r="B528" s="1">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>57</v>
+        <v>3349</v>
       </c>
       <c r="D528" s="1" t="s">
-        <v>58</v>
+        <v>3350</v>
       </c>
       <c r="E528" s="1" t="s">
-        <v>59</v>
+        <v>3351</v>
       </c>
       <c r="F528" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G528" s="1"/>
+        <v>3352</v>
+      </c>
+      <c r="G528" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A529" s="1" t="s">
-        <v>1845</v>
+        <v>3272</v>
       </c>
       <c r="B529" s="1">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>61</v>
+        <v>3353</v>
       </c>
       <c r="D529" s="1" t="s">
-        <v>62</v>
+        <v>3354</v>
       </c>
       <c r="E529" s="1" t="s">
-        <v>63</v>
+        <v>3355</v>
       </c>
       <c r="F529" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G529" s="1"/>
+        <v>3356</v>
+      </c>
+      <c r="G529" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A530" s="1" t="s">
-        <v>1846</v>
+        <v>3273</v>
       </c>
       <c r="B530" s="1">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>64</v>
+        <v>3357</v>
       </c>
       <c r="D530" s="1" t="s">
-        <v>65</v>
+        <v>3358</v>
       </c>
       <c r="E530" s="1" t="s">
-        <v>66</v>
+        <v>3359</v>
       </c>
       <c r="F530" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G530" s="1"/>
+        <v>3360</v>
+      </c>
+      <c r="G530" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A531" s="1" t="s">
-        <v>1847</v>
+        <v>3274</v>
       </c>
       <c r="B531" s="1">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>67</v>
+        <v>3361</v>
       </c>
       <c r="D531" s="1" t="s">
-        <v>68</v>
+        <v>3362</v>
       </c>
       <c r="E531" s="1" t="s">
-        <v>69</v>
+        <v>3363</v>
       </c>
       <c r="F531" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G531" s="1"/>
+        <v>3364</v>
+      </c>
+      <c r="G531" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
-        <v>1848</v>
+        <v>3275</v>
       </c>
       <c r="B532" s="1">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>71</v>
+        <v>3365</v>
       </c>
       <c r="D532" s="1" t="s">
-        <v>72</v>
+        <v>3366</v>
       </c>
       <c r="E532" s="1" t="s">
-        <v>73</v>
+        <v>3367</v>
       </c>
       <c r="F532" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G532" s="1"/>
+        <v>3368</v>
+      </c>
+      <c r="G532" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A533" s="1" t="s">
-        <v>1849</v>
+        <v>3276</v>
       </c>
       <c r="B533" s="1">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>74</v>
+        <v>3369</v>
       </c>
       <c r="D533" s="1" t="s">
-        <v>75</v>
+        <v>3370</v>
       </c>
       <c r="E533" s="1" t="s">
-        <v>76</v>
+        <v>3371</v>
       </c>
       <c r="F533" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G533" s="1"/>
+        <v>3372</v>
+      </c>
+      <c r="G533" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
-        <v>1850</v>
+        <v>3277</v>
       </c>
       <c r="B534" s="1">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>77</v>
+        <v>3373</v>
       </c>
       <c r="D534" s="1" t="s">
-        <v>78</v>
+        <v>3374</v>
       </c>
       <c r="E534" s="1" t="s">
-        <v>79</v>
+        <v>3375</v>
       </c>
       <c r="F534" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G534" s="1"/>
+        <v>3376</v>
+      </c>
+      <c r="G534" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A535" s="1" t="s">
-        <v>1851</v>
+        <v>3278</v>
       </c>
       <c r="B535" s="1">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>80</v>
+        <v>3377</v>
       </c>
       <c r="D535" s="1" t="s">
-        <v>81</v>
+        <v>3378</v>
       </c>
       <c r="E535" s="1" t="s">
-        <v>82</v>
+        <v>3379</v>
       </c>
       <c r="F535" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G535" s="1"/>
+        <v>3380</v>
+      </c>
+      <c r="G535" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A536" s="1" t="s">
-        <v>1852</v>
+        <v>3279</v>
       </c>
       <c r="B536" s="1">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>83</v>
+        <v>3381</v>
       </c>
       <c r="D536" s="1" t="s">
-        <v>84</v>
+        <v>3382</v>
       </c>
       <c r="E536" s="1" t="s">
-        <v>85</v>
+        <v>3383</v>
       </c>
       <c r="F536" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G536" s="1"/>
+        <v>3384</v>
+      </c>
+      <c r="G536" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A537" s="1" t="s">
-        <v>1853</v>
+        <v>3280</v>
       </c>
       <c r="B537" s="1">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>86</v>
+        <v>3385</v>
       </c>
       <c r="D537" s="1" t="s">
-        <v>87</v>
+        <v>3386</v>
       </c>
       <c r="E537" s="1" t="s">
-        <v>88</v>
+        <v>3387</v>
       </c>
       <c r="F537" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G537" s="1"/>
+        <v>3388</v>
+      </c>
+      <c r="G537" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A538" s="1" t="s">
-        <v>1854</v>
+        <v>3281</v>
       </c>
       <c r="B538" s="1">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>90</v>
+        <v>3389</v>
       </c>
       <c r="D538" s="1" t="s">
-        <v>91</v>
+        <v>3390</v>
       </c>
       <c r="E538" s="1" t="s">
-        <v>92</v>
+        <v>3391</v>
       </c>
       <c r="F538" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G538" s="1"/>
+        <v>3392</v>
+      </c>
+      <c r="G538" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A539" s="1" t="s">
-        <v>1855</v>
+        <v>3282</v>
       </c>
       <c r="B539" s="1">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>94</v>
+        <v>3393</v>
       </c>
       <c r="D539" s="1" t="s">
-        <v>95</v>
+        <v>3394</v>
       </c>
       <c r="E539" s="1" t="s">
-        <v>96</v>
+        <v>3395</v>
       </c>
       <c r="F539" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G539" s="1"/>
+        <v>3396</v>
+      </c>
+      <c r="G539" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A540" s="1" t="s">
-        <v>1856</v>
+        <v>3283</v>
       </c>
       <c r="B540" s="1">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>97</v>
+        <v>3397</v>
       </c>
       <c r="D540" s="1" t="s">
-        <v>98</v>
+        <v>3398</v>
       </c>
       <c r="E540" s="1" t="s">
-        <v>99</v>
+        <v>3399</v>
       </c>
       <c r="F540" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G540" s="1"/>
+        <v>3400</v>
+      </c>
+      <c r="G540" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A541" s="1" t="s">
-        <v>1857</v>
+        <v>3284</v>
       </c>
       <c r="B541" s="1">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>100</v>
+        <v>3401</v>
       </c>
       <c r="D541" s="1" t="s">
-        <v>101</v>
+        <v>3402</v>
       </c>
       <c r="E541" s="1" t="s">
-        <v>102</v>
+        <v>3403</v>
       </c>
       <c r="F541" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G541" s="1"/>
+        <v>3404</v>
+      </c>
+      <c r="G541" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
-        <v>1858</v>
+        <v>1828</v>
       </c>
       <c r="B542" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="D542" s="1" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="E542" s="1" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="F542" s="1" t="s">
         <v>9</v>
@@ -22581,19 +23091,19 @@
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A543" s="1" t="s">
-        <v>1859</v>
+        <v>1829</v>
       </c>
       <c r="B543" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="D543" s="1" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="E543" s="1" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="F543" s="1" t="s">
         <v>9</v>
@@ -22602,19 +23112,19 @@
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
-        <v>1860</v>
+        <v>1830</v>
       </c>
       <c r="B544" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="D544" s="1" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="E544" s="1" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="F544" s="1" t="s">
         <v>9</v>
@@ -22623,19 +23133,19 @@
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A545" s="1" t="s">
-        <v>1861</v>
+        <v>1831</v>
       </c>
       <c r="B545" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="D545" s="1" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="E545" s="1" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="F545" s="1" t="s">
         <v>9</v>
@@ -22644,19 +23154,19 @@
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A546" s="1" t="s">
-        <v>1862</v>
+        <v>1832</v>
       </c>
       <c r="B546" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="D546" s="1" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="E546" s="1" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="F546" s="1" t="s">
         <v>9</v>
@@ -22665,19 +23175,19 @@
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
-        <v>1863</v>
+        <v>1833</v>
       </c>
       <c r="B547" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C547" s="1" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="D547" s="1" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="E547" s="1" t="s">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="F547" s="1" t="s">
         <v>9</v>
@@ -22686,61 +23196,61 @@
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A548" s="1" t="s">
-        <v>1864</v>
+        <v>1834</v>
       </c>
       <c r="B548" s="1">
+        <v>26</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D548" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E548" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C548" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D548" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E548" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="F548" s="1" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="G548" s="1"/>
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
-        <v>1865</v>
+        <v>1835</v>
       </c>
       <c r="B549" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C549" s="1" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="D549" s="1" t="s">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="E549" s="1" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="F549" s="1" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="G549" s="1"/>
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
-        <v>1866</v>
+        <v>1836</v>
       </c>
       <c r="B550" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="D550" s="1" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="E550" s="1" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="F550" s="1" t="s">
         <v>9</v>
@@ -22749,2328 +23259,2958 @@
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
-        <v>1867</v>
+        <v>1837</v>
       </c>
       <c r="B551" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="D551" s="1" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="E551" s="1" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="F551" s="1" t="s">
-        <v>135</v>
+        <v>9</v>
       </c>
       <c r="G551" s="1"/>
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
-        <v>1868</v>
+        <v>1838</v>
       </c>
       <c r="B552" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="D552" s="1" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="E552" s="1" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="F552" s="1" t="s">
-        <v>139</v>
+        <v>9</v>
       </c>
       <c r="G552" s="1"/>
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
-        <v>1869</v>
+        <v>1839</v>
       </c>
       <c r="B553" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D553" s="1" t="s">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="E553" s="1" t="s">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="F553" s="1" t="s">
-        <v>143</v>
+        <v>9</v>
       </c>
       <c r="G553" s="1"/>
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
-        <v>1870</v>
+        <v>1840</v>
       </c>
       <c r="B554" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="D554" s="1" t="s">
-        <v>145</v>
+        <v>44</v>
       </c>
       <c r="E554" s="1" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="F554" s="1" t="s">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="G554" s="1"/>
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A555" s="1" t="s">
-        <v>1871</v>
+        <v>1841</v>
       </c>
       <c r="B555" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="D555" s="1" t="s">
-        <v>149</v>
+        <v>48</v>
       </c>
       <c r="E555" s="1" t="s">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="F555" s="1" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="G555" s="1"/>
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A556" s="1" t="s">
-        <v>1872</v>
+        <v>1842</v>
       </c>
       <c r="B556" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="D556" s="1" t="s">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="E556" s="1" t="s">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c r="F556" s="1" t="s">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="G556" s="1"/>
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
-        <v>1873</v>
+        <v>1843</v>
       </c>
       <c r="B557" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="D557" s="1" t="s">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c r="E557" s="1" t="s">
-        <v>158</v>
+        <v>56</v>
       </c>
       <c r="F557" s="1" t="s">
-        <v>159</v>
+        <v>9</v>
       </c>
       <c r="G557" s="1"/>
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
-        <v>1874</v>
+        <v>1844</v>
       </c>
       <c r="B558" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C558" s="1" t="s">
-        <v>160</v>
+        <v>57</v>
       </c>
       <c r="D558" s="1" t="s">
-        <v>161</v>
+        <v>58</v>
       </c>
       <c r="E558" s="1" t="s">
-        <v>162</v>
+        <v>59</v>
       </c>
       <c r="F558" s="1" t="s">
-        <v>163</v>
+        <v>60</v>
       </c>
       <c r="G558" s="1"/>
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
-        <v>1875</v>
+        <v>1845</v>
       </c>
       <c r="B559" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
       <c r="D559" s="1" t="s">
-        <v>165</v>
+        <v>62</v>
       </c>
       <c r="E559" s="1" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="F559" s="1" t="s">
-        <v>167</v>
+        <v>9</v>
       </c>
       <c r="G559" s="1"/>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
-        <v>1876</v>
+        <v>1846</v>
       </c>
       <c r="B560" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>168</v>
+        <v>64</v>
       </c>
       <c r="D560" s="1" t="s">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="E560" s="1" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="F560" s="1" t="s">
-        <v>171</v>
+        <v>9</v>
       </c>
       <c r="G560" s="1"/>
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A561" s="1" t="s">
-        <v>1877</v>
+        <v>1847</v>
       </c>
       <c r="B561" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>172</v>
+        <v>67</v>
       </c>
       <c r="D561" s="1" t="s">
-        <v>173</v>
+        <v>68</v>
       </c>
       <c r="E561" s="1" t="s">
-        <v>174</v>
+        <v>69</v>
       </c>
       <c r="F561" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="G561" s="1"/>
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
-        <v>1878</v>
+        <v>1848</v>
       </c>
       <c r="B562" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>176</v>
+        <v>71</v>
       </c>
       <c r="D562" s="1" t="s">
-        <v>177</v>
+        <v>72</v>
       </c>
       <c r="E562" s="1" t="s">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="F562" s="1" t="s">
-        <v>179</v>
+        <v>9</v>
       </c>
       <c r="G562" s="1"/>
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
-        <v>1879</v>
+        <v>1849</v>
       </c>
       <c r="B563" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>180</v>
+        <v>74</v>
       </c>
       <c r="D563" s="1" t="s">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="E563" s="1" t="s">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="F563" s="1" t="s">
-        <v>183</v>
+        <v>9</v>
       </c>
       <c r="G563" s="1"/>
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
-        <v>1880</v>
+        <v>1850</v>
       </c>
       <c r="B564" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="D564" s="1" t="s">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="E564" s="1" t="s">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="F564" s="1" t="s">
-        <v>187</v>
+        <v>9</v>
       </c>
       <c r="G564" s="1"/>
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A565" s="1" t="s">
-        <v>1881</v>
+        <v>1851</v>
       </c>
       <c r="B565" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>188</v>
+        <v>80</v>
       </c>
       <c r="D565" s="1" t="s">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="E565" s="1" t="s">
-        <v>190</v>
+        <v>82</v>
       </c>
       <c r="F565" s="1" t="s">
-        <v>191</v>
+        <v>9</v>
       </c>
       <c r="G565" s="1"/>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
-        <v>1882</v>
+        <v>1852</v>
       </c>
       <c r="B566" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>192</v>
+        <v>83</v>
       </c>
       <c r="D566" s="1" t="s">
-        <v>193</v>
+        <v>84</v>
       </c>
       <c r="E566" s="1" t="s">
-        <v>194</v>
+        <v>85</v>
       </c>
       <c r="F566" s="1" t="s">
-        <v>195</v>
+        <v>9</v>
       </c>
       <c r="G566" s="1"/>
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A567" s="1" t="s">
-        <v>1883</v>
+        <v>1853</v>
       </c>
       <c r="B567" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>196</v>
+        <v>86</v>
       </c>
       <c r="D567" s="1" t="s">
-        <v>197</v>
+        <v>87</v>
       </c>
       <c r="E567" s="1" t="s">
-        <v>198</v>
+        <v>88</v>
       </c>
       <c r="F567" s="1" t="s">
-        <v>199</v>
+        <v>89</v>
       </c>
       <c r="G567" s="1"/>
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A568" s="1" t="s">
-        <v>1884</v>
+        <v>1854</v>
       </c>
       <c r="B568" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="D568" s="1" t="s">
-        <v>201</v>
+        <v>91</v>
       </c>
       <c r="E568" s="1" t="s">
-        <v>202</v>
+        <v>92</v>
       </c>
       <c r="F568" s="1" t="s">
-        <v>203</v>
+        <v>93</v>
       </c>
       <c r="G568" s="1"/>
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A569" s="1" t="s">
-        <v>1885</v>
+        <v>1855</v>
       </c>
       <c r="B569" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>204</v>
+        <v>94</v>
       </c>
       <c r="D569" s="1" t="s">
-        <v>205</v>
+        <v>95</v>
       </c>
       <c r="E569" s="1" t="s">
-        <v>206</v>
+        <v>96</v>
       </c>
       <c r="F569" s="1" t="s">
-        <v>207</v>
+        <v>9</v>
       </c>
       <c r="G569" s="1"/>
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A570" s="1" t="s">
-        <v>1886</v>
+        <v>1856</v>
       </c>
       <c r="B570" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>204</v>
+        <v>97</v>
       </c>
       <c r="D570" s="1" t="s">
-        <v>208</v>
+        <v>98</v>
       </c>
       <c r="E570" s="1" t="s">
-        <v>209</v>
+        <v>99</v>
       </c>
       <c r="F570" s="1" t="s">
-        <v>210</v>
+        <v>9</v>
       </c>
       <c r="G570" s="1"/>
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A571" s="1" t="s">
-        <v>1887</v>
+        <v>1857</v>
       </c>
       <c r="B571" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="D571" s="1" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
       <c r="E571" s="1" t="s">
-        <v>213</v>
+        <v>102</v>
       </c>
       <c r="F571" s="1" t="s">
-        <v>214</v>
+        <v>9</v>
       </c>
       <c r="G571" s="1"/>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
-        <v>1888</v>
+        <v>1858</v>
       </c>
       <c r="B572" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>215</v>
+        <v>103</v>
       </c>
       <c r="D572" s="1" t="s">
-        <v>216</v>
+        <v>104</v>
       </c>
       <c r="E572" s="1" t="s">
-        <v>217</v>
+        <v>105</v>
       </c>
       <c r="F572" s="1" t="s">
-        <v>218</v>
+        <v>9</v>
       </c>
       <c r="G572" s="1"/>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A573" s="1" t="s">
-        <v>1889</v>
+        <v>1859</v>
       </c>
       <c r="B573" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C573" s="1" t="s">
-        <v>219</v>
+        <v>106</v>
       </c>
       <c r="D573" s="1" t="s">
-        <v>220</v>
+        <v>107</v>
       </c>
       <c r="E573" s="1" t="s">
-        <v>221</v>
+        <v>108</v>
       </c>
       <c r="F573" s="1" t="s">
-        <v>222</v>
+        <v>9</v>
       </c>
       <c r="G573" s="1"/>
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A574" s="1" t="s">
-        <v>1890</v>
+        <v>1860</v>
       </c>
       <c r="B574" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>223</v>
+        <v>109</v>
       </c>
       <c r="D574" s="1" t="s">
-        <v>224</v>
+        <v>110</v>
       </c>
       <c r="E574" s="1" t="s">
-        <v>225</v>
+        <v>111</v>
       </c>
       <c r="F574" s="1" t="s">
-        <v>226</v>
+        <v>9</v>
       </c>
       <c r="G574" s="1"/>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A575" s="1" t="s">
-        <v>1891</v>
+        <v>1861</v>
       </c>
       <c r="B575" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>227</v>
+        <v>112</v>
       </c>
       <c r="D575" s="1" t="s">
-        <v>228</v>
+        <v>113</v>
       </c>
       <c r="E575" s="1" t="s">
-        <v>229</v>
+        <v>114</v>
       </c>
       <c r="F575" s="1" t="s">
-        <v>230</v>
+        <v>9</v>
       </c>
       <c r="G575" s="1"/>
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
-        <v>1892</v>
+        <v>1862</v>
       </c>
       <c r="B576" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>231</v>
+        <v>115</v>
       </c>
       <c r="D576" s="1" t="s">
-        <v>232</v>
+        <v>116</v>
       </c>
       <c r="E576" s="1" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="F576" s="1" t="s">
-        <v>234</v>
+        <v>9</v>
       </c>
       <c r="G576" s="1"/>
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A577" s="1" t="s">
-        <v>1893</v>
+        <v>1863</v>
       </c>
       <c r="B577" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>235</v>
+        <v>118</v>
       </c>
       <c r="D577" s="1" t="s">
-        <v>236</v>
+        <v>119</v>
       </c>
       <c r="E577" s="1" t="s">
-        <v>237</v>
+        <v>120</v>
       </c>
       <c r="F577" s="1" t="s">
-        <v>238</v>
+        <v>9</v>
       </c>
       <c r="G577" s="1"/>
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="s">
-        <v>1894</v>
+        <v>1864</v>
       </c>
       <c r="B578" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>239</v>
+        <v>121</v>
       </c>
       <c r="D578" s="1" t="s">
-        <v>240</v>
+        <v>122</v>
       </c>
       <c r="E578" s="1" t="s">
-        <v>241</v>
+        <v>123</v>
       </c>
       <c r="F578" s="1" t="s">
-        <v>242</v>
+        <v>124</v>
       </c>
       <c r="G578" s="1"/>
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A579" s="1" t="s">
-        <v>1895</v>
+        <v>1865</v>
       </c>
       <c r="B579" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>243</v>
+        <v>125</v>
       </c>
       <c r="D579" s="1" t="s">
-        <v>244</v>
+        <v>126</v>
       </c>
       <c r="E579" s="1" t="s">
-        <v>245</v>
+        <v>127</v>
       </c>
       <c r="F579" s="1" t="s">
-        <v>246</v>
+        <v>128</v>
       </c>
       <c r="G579" s="1"/>
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A580" s="1" t="s">
-        <v>1896</v>
+        <v>1866</v>
       </c>
       <c r="B580" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>247</v>
+        <v>129</v>
       </c>
       <c r="D580" s="1" t="s">
-        <v>248</v>
+        <v>130</v>
       </c>
       <c r="E580" s="1" t="s">
-        <v>249</v>
+        <v>131</v>
       </c>
       <c r="F580" s="1" t="s">
-        <v>250</v>
+        <v>9</v>
       </c>
       <c r="G580" s="1"/>
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A581" s="1" t="s">
-        <v>1897</v>
+        <v>1867</v>
       </c>
       <c r="B581" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C581" s="1" t="s">
-        <v>251</v>
+        <v>132</v>
       </c>
       <c r="D581" s="1" t="s">
-        <v>252</v>
+        <v>133</v>
       </c>
       <c r="E581" s="1" t="s">
-        <v>253</v>
+        <v>134</v>
       </c>
       <c r="F581" s="1" t="s">
-        <v>254</v>
+        <v>135</v>
       </c>
       <c r="G581" s="1"/>
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A582" s="1" t="s">
-        <v>1898</v>
+        <v>1868</v>
       </c>
       <c r="B582" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>255</v>
+        <v>136</v>
       </c>
       <c r="D582" s="1" t="s">
-        <v>256</v>
+        <v>137</v>
       </c>
       <c r="E582" s="1" t="s">
-        <v>257</v>
+        <v>138</v>
       </c>
       <c r="F582" s="1" t="s">
-        <v>258</v>
+        <v>139</v>
       </c>
       <c r="G582" s="1"/>
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A583" s="1" t="s">
-        <v>1899</v>
+        <v>1869</v>
       </c>
       <c r="B583" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>259</v>
+        <v>140</v>
       </c>
       <c r="D583" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E583" s="1"/>
-      <c r="F583" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="E583" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F583" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="G583" s="1"/>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A584" s="1" t="s">
-        <v>1900</v>
+        <v>1870</v>
       </c>
       <c r="B584" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>261</v>
+        <v>144</v>
       </c>
       <c r="D584" s="1" t="s">
-        <v>262</v>
+        <v>145</v>
       </c>
       <c r="E584" s="1" t="s">
-        <v>263</v>
+        <v>146</v>
       </c>
       <c r="F584" s="1" t="s">
-        <v>264</v>
+        <v>147</v>
       </c>
       <c r="G584" s="1"/>
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A585" s="1" t="s">
-        <v>1901</v>
+        <v>1871</v>
       </c>
       <c r="B585" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C585" s="1" t="s">
-        <v>265</v>
+        <v>148</v>
       </c>
       <c r="D585" s="1" t="s">
-        <v>266</v>
+        <v>149</v>
       </c>
       <c r="E585" s="1" t="s">
-        <v>267</v>
+        <v>150</v>
       </c>
       <c r="F585" s="1" t="s">
-        <v>268</v>
+        <v>151</v>
       </c>
       <c r="G585" s="1"/>
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A586" s="1" t="s">
-        <v>1902</v>
+        <v>1872</v>
       </c>
       <c r="B586" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>269</v>
+        <v>152</v>
       </c>
       <c r="D586" s="1" t="s">
-        <v>270</v>
+        <v>153</v>
       </c>
       <c r="E586" s="1" t="s">
-        <v>271</v>
+        <v>154</v>
       </c>
       <c r="F586" s="1" t="s">
-        <v>272</v>
+        <v>155</v>
       </c>
       <c r="G586" s="1"/>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A587" s="1" t="s">
-        <v>1903</v>
+        <v>1873</v>
       </c>
       <c r="B587" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>6</v>
+        <v>156</v>
       </c>
       <c r="D587" s="1" t="s">
-        <v>273</v>
+        <v>157</v>
       </c>
       <c r="E587" s="1" t="s">
-        <v>274</v>
+        <v>158</v>
       </c>
       <c r="F587" s="1" t="s">
-        <v>275</v>
+        <v>159</v>
       </c>
       <c r="G587" s="1"/>
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A588" s="1" t="s">
-        <v>1904</v>
+        <v>1874</v>
       </c>
       <c r="B588" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>276</v>
+        <v>160</v>
       </c>
       <c r="D588" s="1" t="s">
-        <v>277</v>
+        <v>161</v>
       </c>
       <c r="E588" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F588" s="1"/>
+        <v>162</v>
+      </c>
+      <c r="F588" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="G588" s="1"/>
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A589" s="1" t="s">
-        <v>1905</v>
+        <v>1875</v>
       </c>
       <c r="B589" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C589" s="1" t="s">
-        <v>279</v>
+        <v>164</v>
       </c>
       <c r="D589" s="1" t="s">
-        <v>280</v>
+        <v>165</v>
       </c>
       <c r="E589" s="1" t="s">
-        <v>281</v>
+        <v>166</v>
       </c>
       <c r="F589" s="1" t="s">
-        <v>282</v>
+        <v>167</v>
       </c>
       <c r="G589" s="1"/>
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
-        <v>1906</v>
+        <v>1876</v>
       </c>
       <c r="B590" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C590" s="1" t="s">
-        <v>283</v>
+        <v>168</v>
       </c>
       <c r="D590" s="1" t="s">
-        <v>284</v>
+        <v>169</v>
       </c>
       <c r="E590" s="1" t="s">
-        <v>285</v>
+        <v>170</v>
       </c>
       <c r="F590" s="1" t="s">
-        <v>286</v>
+        <v>171</v>
       </c>
       <c r="G590" s="1"/>
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A591" s="1" t="s">
-        <v>1907</v>
+        <v>1877</v>
       </c>
       <c r="B591" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C591" s="1" t="s">
-        <v>287</v>
+        <v>172</v>
       </c>
       <c r="D591" s="1" t="s">
-        <v>288</v>
+        <v>173</v>
       </c>
       <c r="E591" s="1" t="s">
-        <v>289</v>
+        <v>174</v>
       </c>
       <c r="F591" s="1" t="s">
-        <v>290</v>
+        <v>175</v>
       </c>
       <c r="G591" s="1"/>
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
-        <v>1908</v>
+        <v>1878</v>
       </c>
       <c r="B592" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C592" s="1" t="s">
-        <v>291</v>
+        <v>176</v>
       </c>
       <c r="D592" s="1" t="s">
-        <v>292</v>
+        <v>177</v>
       </c>
       <c r="E592" s="1" t="s">
-        <v>293</v>
+        <v>178</v>
       </c>
       <c r="F592" s="1" t="s">
-        <v>294</v>
+        <v>179</v>
       </c>
       <c r="G592" s="1"/>
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A593" s="1" t="s">
-        <v>1909</v>
+        <v>1879</v>
       </c>
       <c r="B593" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C593" s="1" t="s">
-        <v>295</v>
+        <v>180</v>
       </c>
       <c r="D593" s="1" t="s">
-        <v>296</v>
+        <v>181</v>
       </c>
       <c r="E593" s="1" t="s">
-        <v>297</v>
+        <v>182</v>
       </c>
       <c r="F593" s="1" t="s">
-        <v>298</v>
+        <v>183</v>
       </c>
       <c r="G593" s="1"/>
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
-        <v>1910</v>
+        <v>1880</v>
       </c>
       <c r="B594" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C594" s="1" t="s">
-        <v>299</v>
+        <v>184</v>
       </c>
       <c r="D594" s="1" t="s">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="E594" s="1" t="s">
-        <v>301</v>
+        <v>186</v>
       </c>
       <c r="F594" s="1" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="G594" s="1"/>
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
-        <v>1911</v>
+        <v>1881</v>
       </c>
       <c r="B595" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C595" s="1" t="s">
-        <v>303</v>
+        <v>188</v>
       </c>
       <c r="D595" s="1" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="E595" s="1" t="s">
-        <v>305</v>
+        <v>190</v>
       </c>
       <c r="F595" s="1" t="s">
-        <v>306</v>
+        <v>191</v>
       </c>
       <c r="G595" s="1"/>
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
-        <v>1912</v>
+        <v>1882</v>
       </c>
       <c r="B596" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C596" s="1" t="s">
-        <v>307</v>
+        <v>192</v>
       </c>
       <c r="D596" s="1" t="s">
-        <v>308</v>
+        <v>193</v>
       </c>
       <c r="E596" s="1" t="s">
-        <v>309</v>
+        <v>194</v>
       </c>
       <c r="F596" s="1" t="s">
-        <v>310</v>
+        <v>195</v>
       </c>
       <c r="G596" s="1"/>
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
-        <v>1913</v>
+        <v>1883</v>
       </c>
       <c r="B597" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C597" s="1" t="s">
-        <v>311</v>
+        <v>196</v>
       </c>
       <c r="D597" s="1" t="s">
-        <v>312</v>
+        <v>197</v>
       </c>
       <c r="E597" s="1" t="s">
-        <v>313</v>
+        <v>198</v>
       </c>
       <c r="F597" s="1" t="s">
-        <v>314</v>
+        <v>199</v>
       </c>
       <c r="G597" s="1"/>
     </row>
     <row r="598" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
-        <v>1914</v>
+        <v>1884</v>
       </c>
       <c r="B598" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C598" s="1" t="s">
-        <v>315</v>
+        <v>200</v>
       </c>
       <c r="D598" s="1" t="s">
-        <v>316</v>
+        <v>201</v>
       </c>
       <c r="E598" s="1" t="s">
-        <v>317</v>
+        <v>202</v>
       </c>
       <c r="F598" s="1" t="s">
-        <v>318</v>
+        <v>203</v>
       </c>
       <c r="G598" s="1"/>
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A599" s="1" t="s">
-        <v>1915</v>
+        <v>1885</v>
       </c>
       <c r="B599" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C599" s="1" t="s">
-        <v>319</v>
+        <v>204</v>
       </c>
       <c r="D599" s="1" t="s">
-        <v>320</v>
+        <v>205</v>
       </c>
       <c r="E599" s="1" t="s">
-        <v>321</v>
+        <v>206</v>
       </c>
       <c r="F599" s="1" t="s">
-        <v>322</v>
+        <v>207</v>
       </c>
       <c r="G599" s="1"/>
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
-        <v>1916</v>
+        <v>1886</v>
       </c>
       <c r="B600" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C600" s="1" t="s">
-        <v>323</v>
+        <v>204</v>
       </c>
       <c r="D600" s="1" t="s">
-        <v>324</v>
+        <v>208</v>
       </c>
       <c r="E600" s="1" t="s">
-        <v>325</v>
+        <v>209</v>
       </c>
       <c r="F600" s="1" t="s">
-        <v>326</v>
+        <v>210</v>
       </c>
       <c r="G600" s="1"/>
     </row>
     <row r="601" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A601" s="1" t="s">
-        <v>1917</v>
+        <v>1887</v>
       </c>
       <c r="B601" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C601" s="1" t="s">
-        <v>327</v>
+        <v>211</v>
       </c>
       <c r="D601" s="1" t="s">
-        <v>328</v>
+        <v>212</v>
       </c>
       <c r="E601" s="1" t="s">
-        <v>329</v>
+        <v>213</v>
       </c>
       <c r="F601" s="1" t="s">
-        <v>330</v>
+        <v>214</v>
       </c>
       <c r="G601" s="1"/>
     </row>
     <row r="602" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
-        <v>1918</v>
+        <v>1888</v>
       </c>
       <c r="B602" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C602" s="1" t="s">
-        <v>331</v>
+        <v>215</v>
       </c>
       <c r="D602" s="1" t="s">
-        <v>332</v>
+        <v>216</v>
       </c>
       <c r="E602" s="1" t="s">
-        <v>333</v>
+        <v>217</v>
       </c>
       <c r="F602" s="1" t="s">
-        <v>334</v>
+        <v>218</v>
       </c>
       <c r="G602" s="1"/>
     </row>
     <row r="603" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
-        <v>1919</v>
+        <v>1889</v>
       </c>
       <c r="B603" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C603" s="1" t="s">
-        <v>335</v>
+        <v>219</v>
       </c>
       <c r="D603" s="1" t="s">
-        <v>336</v>
+        <v>220</v>
       </c>
       <c r="E603" s="1" t="s">
-        <v>337</v>
+        <v>221</v>
       </c>
       <c r="F603" s="1" t="s">
-        <v>338</v>
+        <v>222</v>
       </c>
       <c r="G603" s="1"/>
     </row>
     <row r="604" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
-        <v>1920</v>
+        <v>1890</v>
       </c>
       <c r="B604" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C604" s="1" t="s">
-        <v>339</v>
+        <v>223</v>
       </c>
       <c r="D604" s="1" t="s">
-        <v>340</v>
+        <v>224</v>
       </c>
       <c r="E604" s="1" t="s">
-        <v>341</v>
+        <v>225</v>
       </c>
       <c r="F604" s="1" t="s">
-        <v>342</v>
+        <v>226</v>
       </c>
       <c r="G604" s="1"/>
     </row>
     <row r="605" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A605" s="1" t="s">
-        <v>1921</v>
+        <v>1891</v>
       </c>
       <c r="B605" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C605" s="1" t="s">
-        <v>343</v>
+        <v>227</v>
       </c>
       <c r="D605" s="1" t="s">
-        <v>344</v>
+        <v>228</v>
       </c>
       <c r="E605" s="1" t="s">
-        <v>345</v>
+        <v>229</v>
       </c>
       <c r="F605" s="1" t="s">
-        <v>346</v>
+        <v>230</v>
       </c>
       <c r="G605" s="1"/>
     </row>
     <row r="606" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A606" s="1" t="s">
-        <v>1922</v>
+        <v>1892</v>
       </c>
       <c r="B606" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C606" s="1" t="s">
-        <v>347</v>
+        <v>231</v>
       </c>
       <c r="D606" s="1" t="s">
-        <v>348</v>
+        <v>232</v>
       </c>
       <c r="E606" s="1" t="s">
-        <v>349</v>
+        <v>233</v>
       </c>
       <c r="F606" s="1" t="s">
-        <v>350</v>
+        <v>234</v>
       </c>
       <c r="G606" s="1"/>
     </row>
     <row r="607" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A607" s="1" t="s">
-        <v>1923</v>
+        <v>1893</v>
       </c>
       <c r="B607" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C607" s="1" t="s">
-        <v>351</v>
+        <v>235</v>
       </c>
       <c r="D607" s="1" t="s">
-        <v>352</v>
+        <v>236</v>
       </c>
       <c r="E607" s="1" t="s">
-        <v>353</v>
+        <v>237</v>
       </c>
       <c r="F607" s="1" t="s">
-        <v>354</v>
+        <v>238</v>
       </c>
       <c r="G607" s="1"/>
     </row>
     <row r="608" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A608" s="1" t="s">
-        <v>1924</v>
+        <v>1894</v>
       </c>
       <c r="B608" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C608" s="1" t="s">
-        <v>355</v>
+        <v>239</v>
       </c>
       <c r="D608" s="1" t="s">
-        <v>356</v>
+        <v>240</v>
       </c>
       <c r="E608" s="1" t="s">
-        <v>357</v>
+        <v>241</v>
       </c>
       <c r="F608" s="1" t="s">
-        <v>358</v>
+        <v>242</v>
       </c>
       <c r="G608" s="1"/>
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A609" s="1" t="s">
-        <v>1925</v>
+        <v>1895</v>
       </c>
       <c r="B609" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C609" s="1" t="s">
-        <v>359</v>
+        <v>243</v>
       </c>
       <c r="D609" s="1" t="s">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="E609" s="1" t="s">
-        <v>361</v>
+        <v>245</v>
       </c>
       <c r="F609" s="1" t="s">
-        <v>362</v>
+        <v>246</v>
       </c>
       <c r="G609" s="1"/>
     </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
-        <v>1926</v>
+        <v>1896</v>
       </c>
       <c r="B610" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C610" s="1" t="s">
-        <v>363</v>
+        <v>247</v>
       </c>
       <c r="D610" s="1" t="s">
-        <v>364</v>
+        <v>248</v>
       </c>
       <c r="E610" s="1" t="s">
-        <v>365</v>
+        <v>249</v>
       </c>
       <c r="F610" s="1" t="s">
-        <v>366</v>
+        <v>250</v>
       </c>
       <c r="G610" s="1"/>
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A611" s="1" t="s">
-        <v>1927</v>
+        <v>1897</v>
       </c>
       <c r="B611" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C611" s="1" t="s">
-        <v>367</v>
+        <v>251</v>
       </c>
       <c r="D611" s="1" t="s">
-        <v>368</v>
+        <v>252</v>
       </c>
       <c r="E611" s="1" t="s">
-        <v>369</v>
+        <v>253</v>
       </c>
       <c r="F611" s="1" t="s">
-        <v>370</v>
+        <v>254</v>
       </c>
       <c r="G611" s="1"/>
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A612" s="1" t="s">
-        <v>1928</v>
+        <v>1898</v>
       </c>
       <c r="B612" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C612" s="1" t="s">
-        <v>371</v>
+        <v>255</v>
       </c>
       <c r="D612" s="1" t="s">
-        <v>372</v>
+        <v>256</v>
       </c>
       <c r="E612" s="1" t="s">
-        <v>373</v>
+        <v>257</v>
       </c>
       <c r="F612" s="1" t="s">
-        <v>374</v>
+        <v>258</v>
       </c>
       <c r="G612" s="1"/>
     </row>
     <row r="613" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A613" s="1" t="s">
-        <v>1929</v>
+        <v>1899</v>
       </c>
       <c r="B613" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C613" s="1" t="s">
-        <v>375</v>
+        <v>259</v>
       </c>
       <c r="D613" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="E613" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="F613" s="1" t="s">
-        <v>378</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="E613" s="1"/>
+      <c r="F613" s="1"/>
       <c r="G613" s="1"/>
     </row>
     <row r="614" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A614" s="1" t="s">
-        <v>1930</v>
+        <v>1900</v>
       </c>
       <c r="B614" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C614" s="1" t="s">
-        <v>379</v>
+        <v>261</v>
       </c>
       <c r="D614" s="1" t="s">
-        <v>380</v>
+        <v>262</v>
       </c>
       <c r="E614" s="1" t="s">
-        <v>381</v>
+        <v>263</v>
       </c>
       <c r="F614" s="1" t="s">
-        <v>382</v>
+        <v>264</v>
       </c>
       <c r="G614" s="1"/>
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A615" s="1" t="s">
-        <v>1931</v>
+        <v>1901</v>
       </c>
       <c r="B615" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C615" s="1" t="s">
-        <v>383</v>
+        <v>265</v>
       </c>
       <c r="D615" s="1" t="s">
-        <v>384</v>
+        <v>266</v>
       </c>
       <c r="E615" s="1" t="s">
-        <v>385</v>
+        <v>267</v>
       </c>
       <c r="F615" s="1" t="s">
-        <v>386</v>
+        <v>268</v>
       </c>
       <c r="G615" s="1"/>
     </row>
     <row r="616" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A616" s="1" t="s">
-        <v>1932</v>
+        <v>1902</v>
       </c>
       <c r="B616" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C616" s="1" t="s">
-        <v>387</v>
+        <v>269</v>
       </c>
       <c r="D616" s="1" t="s">
-        <v>388</v>
+        <v>270</v>
       </c>
       <c r="E616" s="1" t="s">
-        <v>389</v>
+        <v>271</v>
       </c>
       <c r="F616" s="1" t="s">
-        <v>390</v>
+        <v>272</v>
       </c>
       <c r="G616" s="1"/>
     </row>
     <row r="617" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A617" s="1" t="s">
-        <v>1933</v>
+        <v>1903</v>
       </c>
       <c r="B617" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C617" s="1" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
       <c r="D617" s="1" t="s">
-        <v>392</v>
+        <v>273</v>
       </c>
       <c r="E617" s="1" t="s">
-        <v>393</v>
+        <v>274</v>
       </c>
       <c r="F617" s="1" t="s">
-        <v>394</v>
+        <v>275</v>
       </c>
       <c r="G617" s="1"/>
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A618" s="1" t="s">
-        <v>1934</v>
+        <v>1904</v>
       </c>
       <c r="B618" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C618" s="1" t="s">
-        <v>395</v>
+        <v>276</v>
       </c>
       <c r="D618" s="1" t="s">
-        <v>396</v>
+        <v>277</v>
       </c>
       <c r="E618" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="F618" s="1" t="s">
-        <v>398</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="F618" s="1"/>
       <c r="G618" s="1"/>
     </row>
     <row r="619" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A619" s="1" t="s">
-        <v>1935</v>
+        <v>1905</v>
       </c>
       <c r="B619" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C619" s="1" t="s">
-        <v>399</v>
+        <v>279</v>
       </c>
       <c r="D619" s="1" t="s">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="E619" s="1" t="s">
-        <v>401</v>
+        <v>281</v>
       </c>
       <c r="F619" s="1" t="s">
-        <v>402</v>
+        <v>282</v>
       </c>
       <c r="G619" s="1"/>
     </row>
     <row r="620" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A620" s="1" t="s">
-        <v>1936</v>
+        <v>1906</v>
       </c>
       <c r="B620" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C620" s="1" t="s">
-        <v>403</v>
+        <v>283</v>
       </c>
       <c r="D620" s="1" t="s">
-        <v>404</v>
+        <v>284</v>
       </c>
       <c r="E620" s="1" t="s">
-        <v>405</v>
+        <v>285</v>
       </c>
       <c r="F620" s="1" t="s">
-        <v>406</v>
+        <v>286</v>
       </c>
       <c r="G620" s="1"/>
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A621" s="1" t="s">
-        <v>1937</v>
+        <v>1907</v>
       </c>
       <c r="B621" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C621" s="1" t="s">
-        <v>407</v>
+        <v>287</v>
       </c>
       <c r="D621" s="1" t="s">
-        <v>408</v>
+        <v>288</v>
       </c>
       <c r="E621" s="1" t="s">
-        <v>409</v>
+        <v>289</v>
       </c>
       <c r="F621" s="1" t="s">
-        <v>410</v>
+        <v>290</v>
       </c>
       <c r="G621" s="1"/>
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A622" s="1" t="s">
-        <v>1938</v>
+        <v>1908</v>
       </c>
       <c r="B622" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C622" s="1" t="s">
-        <v>411</v>
+        <v>291</v>
       </c>
       <c r="D622" s="1" t="s">
-        <v>412</v>
+        <v>292</v>
       </c>
       <c r="E622" s="1" t="s">
-        <v>413</v>
+        <v>293</v>
       </c>
       <c r="F622" s="1" t="s">
-        <v>414</v>
+        <v>294</v>
       </c>
       <c r="G622" s="1"/>
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A623" s="1" t="s">
-        <v>1939</v>
+        <v>1909</v>
       </c>
       <c r="B623" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C623" s="1" t="s">
-        <v>415</v>
+        <v>295</v>
       </c>
       <c r="D623" s="1" t="s">
-        <v>416</v>
+        <v>296</v>
       </c>
       <c r="E623" s="1" t="s">
-        <v>417</v>
+        <v>297</v>
       </c>
       <c r="F623" s="1" t="s">
-        <v>418</v>
+        <v>298</v>
       </c>
       <c r="G623" s="1"/>
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A624" s="1" t="s">
-        <v>1940</v>
+        <v>1910</v>
       </c>
       <c r="B624" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C624" s="1" t="s">
-        <v>419</v>
+        <v>299</v>
       </c>
       <c r="D624" s="1" t="s">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="E624" s="1" t="s">
-        <v>421</v>
+        <v>301</v>
       </c>
       <c r="F624" s="1" t="s">
-        <v>422</v>
+        <v>302</v>
       </c>
       <c r="G624" s="1"/>
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A625" s="1" t="s">
-        <v>1941</v>
+        <v>1911</v>
       </c>
       <c r="B625" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C625" s="1" t="s">
-        <v>423</v>
+        <v>303</v>
       </c>
       <c r="D625" s="1" t="s">
-        <v>424</v>
+        <v>304</v>
       </c>
       <c r="E625" s="1" t="s">
-        <v>425</v>
+        <v>305</v>
       </c>
       <c r="F625" s="1" t="s">
-        <v>426</v>
+        <v>306</v>
       </c>
       <c r="G625" s="1"/>
     </row>
     <row r="626" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A626" s="1" t="s">
-        <v>1942</v>
+        <v>1912</v>
       </c>
       <c r="B626" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C626" s="1" t="s">
-        <v>427</v>
+        <v>307</v>
       </c>
       <c r="D626" s="1" t="s">
-        <v>428</v>
+        <v>308</v>
       </c>
       <c r="E626" s="1" t="s">
-        <v>429</v>
+        <v>309</v>
       </c>
       <c r="F626" s="1" t="s">
-        <v>430</v>
+        <v>310</v>
       </c>
       <c r="G626" s="1"/>
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A627" s="1" t="s">
-        <v>1943</v>
+        <v>1913</v>
       </c>
       <c r="B627" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C627" s="1" t="s">
-        <v>431</v>
+        <v>311</v>
       </c>
       <c r="D627" s="1" t="s">
-        <v>432</v>
+        <v>312</v>
       </c>
       <c r="E627" s="1" t="s">
-        <v>433</v>
+        <v>313</v>
       </c>
       <c r="F627" s="1" t="s">
-        <v>434</v>
+        <v>314</v>
       </c>
       <c r="G627" s="1"/>
     </row>
     <row r="628" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A628" s="1" t="s">
-        <v>1944</v>
+        <v>1914</v>
       </c>
       <c r="B628" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C628" s="1" t="s">
-        <v>435</v>
+        <v>315</v>
       </c>
       <c r="D628" s="1" t="s">
-        <v>436</v>
+        <v>316</v>
       </c>
       <c r="E628" s="1" t="s">
-        <v>437</v>
+        <v>317</v>
       </c>
       <c r="F628" s="1" t="s">
-        <v>438</v>
+        <v>318</v>
       </c>
       <c r="G628" s="1"/>
     </row>
     <row r="629" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A629" s="1" t="s">
-        <v>1945</v>
+        <v>1915</v>
       </c>
       <c r="B629" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C629" s="1" t="s">
-        <v>439</v>
+        <v>319</v>
       </c>
       <c r="D629" s="1" t="s">
-        <v>440</v>
+        <v>320</v>
       </c>
       <c r="E629" s="1" t="s">
-        <v>441</v>
+        <v>321</v>
       </c>
       <c r="F629" s="1" t="s">
-        <v>442</v>
+        <v>322</v>
       </c>
       <c r="G629" s="1"/>
     </row>
     <row r="630" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A630" s="1" t="s">
-        <v>1946</v>
+        <v>1916</v>
       </c>
       <c r="B630" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C630" s="1" t="s">
-        <v>443</v>
+        <v>323</v>
       </c>
       <c r="D630" s="1" t="s">
-        <v>444</v>
+        <v>324</v>
       </c>
       <c r="E630" s="1" t="s">
-        <v>445</v>
+        <v>325</v>
       </c>
       <c r="F630" s="1" t="s">
-        <v>446</v>
+        <v>326</v>
       </c>
       <c r="G630" s="1"/>
     </row>
     <row r="631" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A631" s="1" t="s">
-        <v>1947</v>
+        <v>1917</v>
       </c>
       <c r="B631" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C631" s="1" t="s">
-        <v>447</v>
+        <v>327</v>
       </c>
       <c r="D631" s="1" t="s">
-        <v>448</v>
+        <v>328</v>
       </c>
       <c r="E631" s="1" t="s">
-        <v>449</v>
+        <v>329</v>
       </c>
       <c r="F631" s="1" t="s">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="G631" s="1"/>
     </row>
     <row r="632" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A632" s="1" t="s">
-        <v>1948</v>
+        <v>1918</v>
       </c>
       <c r="B632" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C632" s="1" t="s">
-        <v>451</v>
+        <v>331</v>
       </c>
       <c r="D632" s="1" t="s">
-        <v>452</v>
+        <v>332</v>
       </c>
       <c r="E632" s="1" t="s">
-        <v>453</v>
+        <v>333</v>
       </c>
       <c r="F632" s="1" t="s">
-        <v>454</v>
+        <v>334</v>
       </c>
       <c r="G632" s="1"/>
     </row>
     <row r="633" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A633" s="1" t="s">
-        <v>1949</v>
+        <v>1919</v>
       </c>
       <c r="B633" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C633" s="1" t="s">
-        <v>455</v>
+        <v>335</v>
       </c>
       <c r="D633" s="1" t="s">
-        <v>456</v>
+        <v>336</v>
       </c>
       <c r="E633" s="1" t="s">
-        <v>457</v>
+        <v>337</v>
       </c>
       <c r="F633" s="1" t="s">
-        <v>458</v>
+        <v>338</v>
       </c>
       <c r="G633" s="1"/>
     </row>
     <row r="634" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A634" s="1" t="s">
-        <v>1950</v>
+        <v>1920</v>
       </c>
       <c r="B634" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C634" s="1" t="s">
-        <v>459</v>
+        <v>339</v>
       </c>
       <c r="D634" s="1" t="s">
-        <v>460</v>
+        <v>340</v>
       </c>
       <c r="E634" s="1" t="s">
-        <v>461</v>
+        <v>341</v>
       </c>
       <c r="F634" s="1" t="s">
-        <v>462</v>
+        <v>342</v>
       </c>
       <c r="G634" s="1"/>
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A635" s="1" t="s">
-        <v>1951</v>
+        <v>1921</v>
       </c>
       <c r="B635" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C635" s="1" t="s">
-        <v>463</v>
+        <v>343</v>
       </c>
       <c r="D635" s="1" t="s">
-        <v>464</v>
+        <v>344</v>
       </c>
       <c r="E635" s="1" t="s">
-        <v>465</v>
+        <v>345</v>
       </c>
       <c r="F635" s="1" t="s">
-        <v>466</v>
+        <v>346</v>
       </c>
       <c r="G635" s="1"/>
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A636" s="1" t="s">
-        <v>1952</v>
+        <v>1922</v>
       </c>
       <c r="B636" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C636" s="1" t="s">
-        <v>467</v>
+        <v>347</v>
       </c>
       <c r="D636" s="1" t="s">
-        <v>468</v>
+        <v>348</v>
       </c>
       <c r="E636" s="1" t="s">
-        <v>469</v>
+        <v>349</v>
       </c>
       <c r="F636" s="1" t="s">
-        <v>470</v>
+        <v>350</v>
       </c>
       <c r="G636" s="1"/>
     </row>
     <row r="637" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A637" s="1" t="s">
-        <v>1953</v>
+        <v>1923</v>
       </c>
       <c r="B637" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C637" s="1" t="s">
-        <v>471</v>
+        <v>351</v>
       </c>
       <c r="D637" s="1" t="s">
-        <v>472</v>
+        <v>352</v>
       </c>
       <c r="E637" s="1" t="s">
-        <v>473</v>
+        <v>353</v>
       </c>
       <c r="F637" s="1" t="s">
-        <v>474</v>
+        <v>354</v>
       </c>
       <c r="G637" s="1"/>
     </row>
     <row r="638" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A638" s="1" t="s">
-        <v>1954</v>
+        <v>1924</v>
       </c>
       <c r="B638" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C638" s="1" t="s">
-        <v>475</v>
+        <v>355</v>
       </c>
       <c r="D638" s="1" t="s">
-        <v>476</v>
+        <v>356</v>
       </c>
       <c r="E638" s="1" t="s">
-        <v>477</v>
+        <v>357</v>
       </c>
       <c r="F638" s="1" t="s">
-        <v>478</v>
+        <v>358</v>
       </c>
       <c r="G638" s="1"/>
     </row>
     <row r="639" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A639" s="1" t="s">
-        <v>1955</v>
+        <v>1925</v>
       </c>
       <c r="B639" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C639" s="1" t="s">
-        <v>479</v>
+        <v>359</v>
       </c>
       <c r="D639" s="1" t="s">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="E639" s="1" t="s">
-        <v>481</v>
+        <v>361</v>
       </c>
       <c r="F639" s="1" t="s">
-        <v>482</v>
+        <v>362</v>
       </c>
       <c r="G639" s="1"/>
     </row>
     <row r="640" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A640" s="1" t="s">
-        <v>1956</v>
+        <v>1926</v>
       </c>
       <c r="B640" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C640" s="1" t="s">
-        <v>483</v>
+        <v>363</v>
       </c>
       <c r="D640" s="1" t="s">
-        <v>484</v>
+        <v>364</v>
       </c>
       <c r="E640" s="1" t="s">
-        <v>485</v>
+        <v>365</v>
       </c>
       <c r="F640" s="1" t="s">
-        <v>486</v>
+        <v>366</v>
       </c>
       <c r="G640" s="1"/>
     </row>
     <row r="641" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A641" s="1" t="s">
-        <v>1957</v>
+        <v>1927</v>
       </c>
       <c r="B641" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C641" s="1" t="s">
-        <v>487</v>
+        <v>367</v>
       </c>
       <c r="D641" s="1" t="s">
-        <v>488</v>
+        <v>368</v>
       </c>
       <c r="E641" s="1" t="s">
-        <v>489</v>
+        <v>369</v>
       </c>
       <c r="F641" s="1" t="s">
-        <v>490</v>
+        <v>370</v>
       </c>
       <c r="G641" s="1"/>
     </row>
     <row r="642" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A642" s="1" t="s">
-        <v>1958</v>
+        <v>1928</v>
       </c>
       <c r="B642" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C642" s="1" t="s">
-        <v>491</v>
+        <v>371</v>
       </c>
       <c r="D642" s="1" t="s">
-        <v>492</v>
+        <v>372</v>
       </c>
       <c r="E642" s="1" t="s">
-        <v>493</v>
+        <v>373</v>
       </c>
       <c r="F642" s="1" t="s">
-        <v>494</v>
+        <v>374</v>
       </c>
       <c r="G642" s="1"/>
     </row>
     <row r="643" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A643" s="1" t="s">
-        <v>1959</v>
+        <v>1929</v>
       </c>
       <c r="B643" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C643" s="1" t="s">
-        <v>495</v>
+        <v>375</v>
       </c>
       <c r="D643" s="1" t="s">
-        <v>496</v>
+        <v>376</v>
       </c>
       <c r="E643" s="1" t="s">
-        <v>497</v>
+        <v>377</v>
       </c>
       <c r="F643" s="1" t="s">
-        <v>498</v>
+        <v>378</v>
       </c>
       <c r="G643" s="1"/>
     </row>
     <row r="644" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A644" s="1" t="s">
-        <v>1960</v>
+        <v>1930</v>
       </c>
       <c r="B644" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C644" s="1" t="s">
-        <v>499</v>
+        <v>379</v>
       </c>
       <c r="D644" s="1" t="s">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="E644" s="1" t="s">
-        <v>501</v>
+        <v>381</v>
       </c>
       <c r="F644" s="1" t="s">
-        <v>502</v>
+        <v>382</v>
       </c>
       <c r="G644" s="1"/>
     </row>
     <row r="645" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A645" s="1" t="s">
-        <v>1961</v>
+        <v>1931</v>
       </c>
       <c r="B645" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C645" s="1" t="s">
-        <v>503</v>
+        <v>383</v>
       </c>
       <c r="D645" s="1" t="s">
-        <v>504</v>
+        <v>384</v>
       </c>
       <c r="E645" s="1" t="s">
-        <v>505</v>
+        <v>385</v>
       </c>
       <c r="F645" s="1" t="s">
-        <v>506</v>
+        <v>386</v>
       </c>
       <c r="G645" s="1"/>
     </row>
     <row r="646" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A646" s="1" t="s">
-        <v>1962</v>
+        <v>1932</v>
       </c>
       <c r="B646" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C646" s="1" t="s">
-        <v>507</v>
+        <v>387</v>
       </c>
       <c r="D646" s="1" t="s">
-        <v>508</v>
+        <v>388</v>
       </c>
       <c r="E646" s="1" t="s">
-        <v>509</v>
+        <v>389</v>
       </c>
       <c r="F646" s="1" t="s">
-        <v>510</v>
+        <v>390</v>
       </c>
       <c r="G646" s="1"/>
     </row>
     <row r="647" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A647" s="1" t="s">
-        <v>1963</v>
+        <v>1933</v>
       </c>
       <c r="B647" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C647" s="1" t="s">
-        <v>511</v>
+        <v>391</v>
       </c>
       <c r="D647" s="1" t="s">
-        <v>512</v>
+        <v>392</v>
       </c>
       <c r="E647" s="1" t="s">
-        <v>513</v>
+        <v>393</v>
       </c>
       <c r="F647" s="1" t="s">
-        <v>514</v>
+        <v>394</v>
       </c>
       <c r="G647" s="1"/>
     </row>
     <row r="648" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A648" s="1" t="s">
-        <v>1964</v>
+        <v>1934</v>
       </c>
       <c r="B648" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C648" s="1" t="s">
-        <v>515</v>
+        <v>395</v>
       </c>
       <c r="D648" s="1" t="s">
-        <v>516</v>
+        <v>396</v>
       </c>
       <c r="E648" s="1" t="s">
-        <v>517</v>
+        <v>397</v>
       </c>
       <c r="F648" s="1" t="s">
-        <v>518</v>
+        <v>398</v>
       </c>
       <c r="G648" s="1"/>
     </row>
     <row r="649" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A649" s="1" t="s">
-        <v>1965</v>
+        <v>1935</v>
       </c>
       <c r="B649" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C649" s="1" t="s">
-        <v>519</v>
+        <v>399</v>
       </c>
       <c r="D649" s="1" t="s">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="E649" s="1" t="s">
-        <v>521</v>
+        <v>401</v>
       </c>
       <c r="F649" s="1" t="s">
-        <v>522</v>
+        <v>402</v>
       </c>
       <c r="G649" s="1"/>
     </row>
     <row r="650" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A650" s="1" t="s">
-        <v>1966</v>
+        <v>1936</v>
       </c>
       <c r="B650" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C650" s="1" t="s">
-        <v>523</v>
+        <v>403</v>
       </c>
       <c r="D650" s="1" t="s">
-        <v>524</v>
+        <v>404</v>
       </c>
       <c r="E650" s="1" t="s">
-        <v>525</v>
+        <v>405</v>
       </c>
       <c r="F650" s="1" t="s">
-        <v>526</v>
+        <v>406</v>
       </c>
       <c r="G650" s="1"/>
     </row>
     <row r="651" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A651" s="1" t="s">
-        <v>1967</v>
+        <v>1937</v>
       </c>
       <c r="B651" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C651" s="1" t="s">
-        <v>527</v>
+        <v>407</v>
       </c>
       <c r="D651" s="1" t="s">
-        <v>528</v>
+        <v>408</v>
       </c>
       <c r="E651" s="1" t="s">
-        <v>529</v>
+        <v>409</v>
       </c>
       <c r="F651" s="1" t="s">
-        <v>530</v>
+        <v>410</v>
       </c>
       <c r="G651" s="1"/>
     </row>
     <row r="652" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A652" s="1" t="s">
-        <v>1968</v>
+        <v>1938</v>
       </c>
       <c r="B652" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C652" s="1" t="s">
-        <v>531</v>
+        <v>411</v>
       </c>
       <c r="D652" s="1" t="s">
-        <v>532</v>
+        <v>412</v>
       </c>
       <c r="E652" s="1" t="s">
-        <v>533</v>
+        <v>413</v>
       </c>
       <c r="F652" s="1" t="s">
-        <v>534</v>
+        <v>414</v>
       </c>
       <c r="G652" s="1"/>
     </row>
     <row r="653" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A653" s="1" t="s">
-        <v>1969</v>
+        <v>1939</v>
       </c>
       <c r="B653" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C653" s="1" t="s">
-        <v>535</v>
+        <v>415</v>
       </c>
       <c r="D653" s="1" t="s">
-        <v>536</v>
+        <v>416</v>
       </c>
       <c r="E653" s="1" t="s">
-        <v>537</v>
+        <v>417</v>
       </c>
       <c r="F653" s="1" t="s">
-        <v>538</v>
+        <v>418</v>
       </c>
       <c r="G653" s="1"/>
     </row>
     <row r="654" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A654" s="1" t="s">
-        <v>1970</v>
+        <v>1940</v>
       </c>
       <c r="B654" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C654" s="1" t="s">
-        <v>539</v>
+        <v>419</v>
       </c>
       <c r="D654" s="1" t="s">
-        <v>540</v>
+        <v>420</v>
       </c>
       <c r="E654" s="1" t="s">
-        <v>541</v>
+        <v>421</v>
       </c>
       <c r="F654" s="1" t="s">
-        <v>542</v>
+        <v>422</v>
       </c>
       <c r="G654" s="1"/>
     </row>
     <row r="655" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A655" s="1" t="s">
-        <v>1971</v>
+        <v>1941</v>
       </c>
       <c r="B655" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C655" s="1" t="s">
-        <v>543</v>
+        <v>423</v>
       </c>
       <c r="D655" s="1" t="s">
-        <v>544</v>
+        <v>424</v>
       </c>
       <c r="E655" s="1" t="s">
-        <v>545</v>
+        <v>425</v>
       </c>
       <c r="F655" s="1" t="s">
-        <v>546</v>
+        <v>426</v>
       </c>
       <c r="G655" s="1"/>
     </row>
     <row r="656" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A656" s="1" t="s">
-        <v>1972</v>
+        <v>1942</v>
       </c>
       <c r="B656" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C656" s="1" t="s">
-        <v>547</v>
+        <v>427</v>
       </c>
       <c r="D656" s="1" t="s">
-        <v>548</v>
+        <v>428</v>
       </c>
       <c r="E656" s="1" t="s">
-        <v>549</v>
+        <v>429</v>
       </c>
       <c r="F656" s="1" t="s">
-        <v>550</v>
+        <v>430</v>
       </c>
       <c r="G656" s="1"/>
     </row>
     <row r="657" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A657" s="1" t="s">
-        <v>1973</v>
+        <v>1943</v>
       </c>
       <c r="B657" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C657" s="1" t="s">
-        <v>551</v>
+        <v>431</v>
       </c>
       <c r="D657" s="1" t="s">
-        <v>552</v>
+        <v>432</v>
       </c>
       <c r="E657" s="1" t="s">
-        <v>553</v>
+        <v>433</v>
       </c>
       <c r="F657" s="1" t="s">
-        <v>554</v>
+        <v>434</v>
       </c>
       <c r="G657" s="1"/>
     </row>
     <row r="658" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A658" s="1" t="s">
-        <v>1974</v>
+        <v>1944</v>
       </c>
       <c r="B658" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C658" s="1" t="s">
-        <v>555</v>
+        <v>435</v>
       </c>
       <c r="D658" s="1" t="s">
-        <v>556</v>
+        <v>436</v>
       </c>
       <c r="E658" s="1" t="s">
-        <v>557</v>
+        <v>437</v>
       </c>
       <c r="F658" s="1" t="s">
-        <v>558</v>
+        <v>438</v>
       </c>
       <c r="G658" s="1"/>
     </row>
     <row r="659" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A659" s="1" t="s">
-        <v>1975</v>
+        <v>1945</v>
       </c>
       <c r="B659" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C659" s="1" t="s">
-        <v>559</v>
+        <v>439</v>
       </c>
       <c r="D659" s="1" t="s">
-        <v>560</v>
+        <v>440</v>
       </c>
       <c r="E659" s="1" t="s">
-        <v>561</v>
+        <v>441</v>
       </c>
       <c r="F659" s="1" t="s">
-        <v>562</v>
+        <v>442</v>
       </c>
       <c r="G659" s="1"/>
     </row>
     <row r="660" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A660" s="1" t="s">
-        <v>1976</v>
+        <v>1946</v>
       </c>
       <c r="B660" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C660" s="1" t="s">
-        <v>563</v>
+        <v>443</v>
       </c>
       <c r="D660" s="1" t="s">
-        <v>564</v>
+        <v>444</v>
       </c>
       <c r="E660" s="1" t="s">
-        <v>565</v>
+        <v>445</v>
       </c>
       <c r="F660" s="1" t="s">
-        <v>566</v>
+        <v>446</v>
       </c>
       <c r="G660" s="1"/>
     </row>
     <row r="661" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A661" s="1" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B661" s="1">
+        <v>29</v>
+      </c>
+      <c r="C661" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D661" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E661" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F661" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="G661" s="1"/>
+    </row>
+    <row r="662" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A662" s="1" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B662" s="1">
+        <v>30</v>
+      </c>
+      <c r="C662" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D662" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E662" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F662" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="G662" s="1"/>
+    </row>
+    <row r="663" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A663" s="1" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B663" s="1">
+        <v>30</v>
+      </c>
+      <c r="C663" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D663" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E663" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F663" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="G663" s="1"/>
+    </row>
+    <row r="664" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A664" s="1" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B664" s="1">
+        <v>30</v>
+      </c>
+      <c r="C664" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D664" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E664" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F664" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="G664" s="1"/>
+    </row>
+    <row r="665" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A665" s="1" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B665" s="1">
+        <v>30</v>
+      </c>
+      <c r="C665" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D665" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E665" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F665" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="G665" s="1"/>
+    </row>
+    <row r="666" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A666" s="1" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B666" s="1">
+        <v>30</v>
+      </c>
+      <c r="C666" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D666" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E666" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F666" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G666" s="1"/>
+    </row>
+    <row r="667" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A667" s="1" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B667" s="1">
+        <v>30</v>
+      </c>
+      <c r="C667" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D667" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E667" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F667" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G667" s="1"/>
+    </row>
+    <row r="668" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A668" s="1" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B668" s="1">
+        <v>30</v>
+      </c>
+      <c r="C668" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D668" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E668" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F668" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="G668" s="1"/>
+    </row>
+    <row r="669" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A669" s="1" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B669" s="1">
+        <v>30</v>
+      </c>
+      <c r="C669" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D669" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E669" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F669" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="G669" s="1"/>
+    </row>
+    <row r="670" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A670" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B670" s="1">
+        <v>30</v>
+      </c>
+      <c r="C670" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D670" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E670" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F670" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G670" s="1"/>
+    </row>
+    <row r="671" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A671" s="1" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B671" s="1">
+        <v>30</v>
+      </c>
+      <c r="C671" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D671" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E671" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F671" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G671" s="1"/>
+    </row>
+    <row r="672" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A672" s="1" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B672" s="1">
+        <v>30</v>
+      </c>
+      <c r="C672" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D672" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E672" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F672" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="G672" s="1"/>
+    </row>
+    <row r="673" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A673" s="1" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B673" s="1">
+        <v>30</v>
+      </c>
+      <c r="C673" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D673" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E673" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F673" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="G673" s="1"/>
+    </row>
+    <row r="674" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A674" s="1" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B674" s="1">
+        <v>30</v>
+      </c>
+      <c r="C674" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D674" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="E674" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F674" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="G674" s="1"/>
+    </row>
+    <row r="675" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A675" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B675" s="1">
+        <v>30</v>
+      </c>
+      <c r="C675" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D675" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E675" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F675" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G675" s="1"/>
+    </row>
+    <row r="676" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A676" s="1" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B676" s="1">
+        <v>30</v>
+      </c>
+      <c r="C676" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D676" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="E676" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F676" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="G676" s="1"/>
+    </row>
+    <row r="677" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A677" s="1" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B677" s="1">
+        <v>30</v>
+      </c>
+      <c r="C677" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D677" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E677" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F677" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="G677" s="1"/>
+    </row>
+    <row r="678" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A678" s="1" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B678" s="1">
+        <v>30</v>
+      </c>
+      <c r="C678" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D678" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E678" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="F678" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="G678" s="1"/>
+    </row>
+    <row r="679" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A679" s="1" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B679" s="1">
+        <v>30</v>
+      </c>
+      <c r="C679" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D679" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E679" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F679" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G679" s="1"/>
+    </row>
+    <row r="680" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A680" s="1" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B680" s="1">
+        <v>30</v>
+      </c>
+      <c r="C680" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D680" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E680" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="F680" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="G680" s="1"/>
+    </row>
+    <row r="681" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A681" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B681" s="1">
+        <v>30</v>
+      </c>
+      <c r="C681" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D681" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E681" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F681" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="G681" s="1"/>
+    </row>
+    <row r="682" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A682" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B682" s="1">
+        <v>30</v>
+      </c>
+      <c r="C682" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D682" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E682" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F682" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="G682" s="1"/>
+    </row>
+    <row r="683" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A683" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B683" s="1">
+        <v>30</v>
+      </c>
+      <c r="C683" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D683" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="E683" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F683" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="G683" s="1"/>
+    </row>
+    <row r="684" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A684" s="1" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B684" s="1">
+        <v>30</v>
+      </c>
+      <c r="C684" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D684" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E684" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="F684" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="G684" s="1"/>
+    </row>
+    <row r="685" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A685" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B685" s="1">
+        <v>30</v>
+      </c>
+      <c r="C685" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D685" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="E685" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F685" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="G685" s="1"/>
+    </row>
+    <row r="686" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A686" s="1" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B686" s="1">
+        <v>30</v>
+      </c>
+      <c r="C686" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D686" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E686" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F686" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="G686" s="1"/>
+    </row>
+    <row r="687" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A687" s="1" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B687" s="1">
+        <v>30</v>
+      </c>
+      <c r="C687" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D687" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E687" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F687" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="G687" s="1"/>
+    </row>
+    <row r="688" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A688" s="1" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B688" s="1">
+        <v>30</v>
+      </c>
+      <c r="C688" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D688" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E688" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F688" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="G688" s="1"/>
+    </row>
+    <row r="689" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A689" s="1" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B689" s="1">
+        <v>30</v>
+      </c>
+      <c r="C689" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D689" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E689" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F689" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="G689" s="1"/>
+    </row>
+    <row r="690" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A690" s="1" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B690" s="1">
+        <v>30</v>
+      </c>
+      <c r="C690" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D690" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E690" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F690" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="G690" s="1"/>
+    </row>
+    <row r="691" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A691" s="1" t="s">
         <v>1977</v>
       </c>
-      <c r="B661" s="1">
+      <c r="B691" s="1">
         <v>30</v>
       </c>
-      <c r="C661" s="1" t="s">
+      <c r="C691" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D661" s="1" t="s">
+      <c r="D691" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="E661" s="1" t="s">
+      <c r="E691" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="F661" s="1" t="s">
+      <c r="F691" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="G661" s="1"/>
+      <c r="G691" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/data/WordStudy.xlsx
+++ b/data/WordStudy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dom/Documents/Dom/english-app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE2C119-66D3-7A46-81BE-B0C169399A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325A2FA3-9896-1F4E-8FD5-E9366BB0263A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="49160" yWindow="2640" windowWidth="34240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3994" uniqueCount="3405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4174" uniqueCount="3555">
   <si>
     <t>ID</t>
   </si>
@@ -10245,6 +10245,456 @@
   </si>
   <si>
     <t>Eessential to something</t>
+  </si>
+  <si>
+    <t>U19_01</t>
+  </si>
+  <si>
+    <t>U19_02</t>
+  </si>
+  <si>
+    <t>U19_03</t>
+  </si>
+  <si>
+    <t>U19_04</t>
+  </si>
+  <si>
+    <t>U19_05</t>
+  </si>
+  <si>
+    <t>U19_06</t>
+  </si>
+  <si>
+    <t>U19_07</t>
+  </si>
+  <si>
+    <t>U19_08</t>
+  </si>
+  <si>
+    <t>U19_09</t>
+  </si>
+  <si>
+    <t>U19_10</t>
+  </si>
+  <si>
+    <t>U19_11</t>
+  </si>
+  <si>
+    <t>U19_12</t>
+  </si>
+  <si>
+    <t>U19_13</t>
+  </si>
+  <si>
+    <t>U19_14</t>
+  </si>
+  <si>
+    <t>U19_15</t>
+  </si>
+  <si>
+    <t>U19_16</t>
+  </si>
+  <si>
+    <t>U19_17</t>
+  </si>
+  <si>
+    <t>U19_18</t>
+  </si>
+  <si>
+    <t>U19_19</t>
+  </si>
+  <si>
+    <t>U19_20</t>
+  </si>
+  <si>
+    <t>U19_21</t>
+  </si>
+  <si>
+    <t>U19_22</t>
+  </si>
+  <si>
+    <t>U19_23</t>
+  </si>
+  <si>
+    <t>U19_24</t>
+  </si>
+  <si>
+    <t>U19_25</t>
+  </si>
+  <si>
+    <t>U19_26</t>
+  </si>
+  <si>
+    <t>U19_27</t>
+  </si>
+  <si>
+    <t>U19_28</t>
+  </si>
+  <si>
+    <t>U19_29</t>
+  </si>
+  <si>
+    <t>U19_30</t>
+  </si>
+  <si>
+    <t>Bị bệnh, bị mệt</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>The weather makes me feel sick today</t>
+  </si>
+  <si>
+    <t>feel sick</t>
+  </si>
+  <si>
+    <t>Cơn đau đầu</t>
+  </si>
+  <si>
+    <t>Headache</t>
+  </si>
+  <si>
+    <t>She has a headache</t>
+  </si>
+  <si>
+    <t>have a headache</t>
+  </si>
+  <si>
+    <t>Nha sĩ</t>
+  </si>
+  <si>
+    <t>Dentist</t>
+  </si>
+  <si>
+    <t>I am forced to go to the dentist</t>
+  </si>
+  <si>
+    <t>go to the dentist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cúm </t>
+  </si>
+  <si>
+    <t>Flu</t>
+  </si>
+  <si>
+    <t>I got the flu, so I stay home</t>
+  </si>
+  <si>
+    <t>get the flu</t>
+  </si>
+  <si>
+    <t>Throat</t>
+  </si>
+  <si>
+    <t>Cổ họng</t>
+  </si>
+  <si>
+    <t>She cannot talk baceuse of a sore throat</t>
+  </si>
+  <si>
+    <t>a sore throat</t>
+  </si>
+  <si>
+    <t>Mắc bệnh</t>
+  </si>
+  <si>
+    <t>Catch</t>
+  </si>
+  <si>
+    <t>I walked in the rain and caught a cold</t>
+  </si>
+  <si>
+    <t>catch a cold</t>
+  </si>
+  <si>
+    <t>Dạ dày, bụng</t>
+  </si>
+  <si>
+    <t>Stomatch</t>
+  </si>
+  <si>
+    <t>Street food gives me an upset stomach</t>
+  </si>
+  <si>
+    <t>an upset stomach</t>
+  </si>
+  <si>
+    <t>Trường hợp cấp cứu</t>
+  </si>
+  <si>
+    <t>Emergency</t>
+  </si>
+  <si>
+    <t>In an emergency, please call 115</t>
+  </si>
+  <si>
+    <t>In an emergency</t>
+  </si>
+  <si>
+    <t>Nôn</t>
+  </si>
+  <si>
+    <t>Throw up</t>
+  </si>
+  <si>
+    <t>He throws up the food he just ate</t>
+  </si>
+  <si>
+    <t>Throw up something</t>
+  </si>
+  <si>
+    <t>Phòng khám</t>
+  </si>
+  <si>
+    <t>Clinic</t>
+  </si>
+  <si>
+    <t>Some people do not trust their local clinic</t>
+  </si>
+  <si>
+    <t>local clinic</t>
+  </si>
+  <si>
+    <t>Mang thai</t>
+  </si>
+  <si>
+    <t>Pregnant</t>
+  </si>
+  <si>
+    <t>She gets pregnant soon after the wedding</t>
+  </si>
+  <si>
+    <t>get pregnant</t>
+  </si>
+  <si>
+    <t>Ca phẫu thuật</t>
+  </si>
+  <si>
+    <t>Surgenry</t>
+  </si>
+  <si>
+    <t>Don't worry, it is only a minor surgenry</t>
+  </si>
+  <si>
+    <t>minor surgenry</t>
+  </si>
+  <si>
+    <t>Bị đau</t>
+  </si>
+  <si>
+    <t>Hurt</t>
+  </si>
+  <si>
+    <t>He gets hurt due to the fall</t>
+  </si>
+  <si>
+    <t>Get hurt</t>
+  </si>
+  <si>
+    <t>Xe lăn</t>
+  </si>
+  <si>
+    <t>Wheelchair</t>
+  </si>
+  <si>
+    <t>She has to move in a wheelchair now</t>
+  </si>
+  <si>
+    <t>In a wheelchair</t>
+  </si>
+  <si>
+    <t>Vết thương</t>
+  </si>
+  <si>
+    <t>Wound</t>
+  </si>
+  <si>
+    <t>He has an open wound from falling</t>
+  </si>
+  <si>
+    <t>An open wound</t>
+  </si>
+  <si>
+    <t>Máu</t>
+  </si>
+  <si>
+    <t>Blood</t>
+  </si>
+  <si>
+    <t>We must be in good health to donate blood</t>
+  </si>
+  <si>
+    <t>donate blood</t>
+  </si>
+  <si>
+    <t>Nhiệt độ</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>A high body temperature indicates a fever</t>
+  </si>
+  <si>
+    <t>high body temperature</t>
+  </si>
+  <si>
+    <t>Cơn đau</t>
+  </si>
+  <si>
+    <t>Pain</t>
+  </si>
+  <si>
+    <t>If you are in pain, don't move</t>
+  </si>
+  <si>
+    <t>in pain</t>
+  </si>
+  <si>
+    <t>Mức độ</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>His fever is at a high level</t>
+  </si>
+  <si>
+    <t>at a high level</t>
+  </si>
+  <si>
+    <t>Chăm sóc</t>
+  </si>
+  <si>
+    <t>Look after</t>
+  </si>
+  <si>
+    <t>His mother always looks after him</t>
+  </si>
+  <si>
+    <t>look after somebody</t>
+  </si>
+  <si>
+    <t>Hệ thống</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Vietnam's healthcare system is quite good</t>
+  </si>
+  <si>
+    <t>healthcare system</t>
+  </si>
+  <si>
+    <t>Một cách tồi tệ</t>
+  </si>
+  <si>
+    <t>Badly</t>
+  </si>
+  <si>
+    <t>Everyone thiknks she sings badly</t>
+  </si>
+  <si>
+    <t>sing badly</t>
+  </si>
+  <si>
+    <t>Sự điều trị</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>The hospital provides treatment for critically ill people</t>
+  </si>
+  <si>
+    <t>Provide treatment</t>
+  </si>
+  <si>
+    <t>Viên thuốc</t>
+  </si>
+  <si>
+    <t>Pill</t>
+  </si>
+  <si>
+    <t>Take a vitamin pill once a day</t>
+  </si>
+  <si>
+    <t>a vitamin pill</t>
+  </si>
+  <si>
+    <t>Dưỡng chất</t>
+  </si>
+  <si>
+    <t>Nutrient</t>
+  </si>
+  <si>
+    <t>Essential nutrients include proteins, fát, vitamins, etc</t>
+  </si>
+  <si>
+    <t>Essential nutrients</t>
+  </si>
+  <si>
+    <t>Đơn thuốc</t>
+  </si>
+  <si>
+    <t>Prescription</t>
+  </si>
+  <si>
+    <t>He is given a prescription for a sore throat</t>
+  </si>
+  <si>
+    <t>Prescription for something</t>
+  </si>
+  <si>
+    <t>Thuốc</t>
+  </si>
+  <si>
+    <t>Medicine</t>
+  </si>
+  <si>
+    <t>I have to take medicine for my flu</t>
+  </si>
+  <si>
+    <t>take medicine</t>
+  </si>
+  <si>
+    <t>Hiệu thuốc</t>
+  </si>
+  <si>
+    <t>Pharmacy</t>
+  </si>
+  <si>
+    <t>I go to the pharmacy to buy some medicine</t>
+  </si>
+  <si>
+    <t>go to pharmacy</t>
+  </si>
+  <si>
+    <t>Căn bệnh, bệnh tật</t>
+  </si>
+  <si>
+    <t>Disease</t>
+  </si>
+  <si>
+    <t>Vaccines can help prevent disease</t>
+  </si>
+  <si>
+    <t>prevent disease / ngăn ngừa bệnh</t>
+  </si>
+  <si>
+    <t>Nguy hiểm</t>
+  </si>
+  <si>
+    <t>Dangerous</t>
+  </si>
+  <si>
+    <t>Infections are dangerous for pregnant women</t>
+  </si>
+  <si>
+    <t>dangerous for somebody</t>
   </si>
 </sst>
 </file>
@@ -10609,10 +11059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G691"/>
+  <dimension ref="A1:G721"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A527" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G541" sqref="G541"/>
+    <sheetView tabSelected="1" topLeftCell="B561" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G571" sqref="G571"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23070,649 +23520,709 @@
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
-        <v>1828</v>
+        <v>3405</v>
       </c>
       <c r="B542" s="1">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>6</v>
+        <v>3435</v>
       </c>
       <c r="D542" s="1" t="s">
-        <v>7</v>
+        <v>3436</v>
       </c>
       <c r="E542" s="1" t="s">
-        <v>8</v>
+        <v>3437</v>
       </c>
       <c r="F542" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G542" s="1"/>
+        <v>3438</v>
+      </c>
+      <c r="G542" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A543" s="1" t="s">
-        <v>1829</v>
+        <v>3406</v>
       </c>
       <c r="B543" s="1">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>10</v>
+        <v>3439</v>
       </c>
       <c r="D543" s="1" t="s">
-        <v>11</v>
+        <v>3440</v>
       </c>
       <c r="E543" s="1" t="s">
-        <v>12</v>
+        <v>3441</v>
       </c>
       <c r="F543" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G543" s="1"/>
+        <v>3442</v>
+      </c>
+      <c r="G543" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
-        <v>1830</v>
+        <v>3407</v>
       </c>
       <c r="B544" s="1">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>13</v>
+        <v>3443</v>
       </c>
       <c r="D544" s="1" t="s">
-        <v>14</v>
+        <v>3444</v>
       </c>
       <c r="E544" s="1" t="s">
-        <v>15</v>
+        <v>3445</v>
       </c>
       <c r="F544" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G544" s="1"/>
+        <v>3446</v>
+      </c>
+      <c r="G544" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A545" s="1" t="s">
-        <v>1831</v>
+        <v>3408</v>
       </c>
       <c r="B545" s="1">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>16</v>
+        <v>3447</v>
       </c>
       <c r="D545" s="1" t="s">
-        <v>17</v>
+        <v>3448</v>
       </c>
       <c r="E545" s="1" t="s">
-        <v>18</v>
+        <v>3449</v>
       </c>
       <c r="F545" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G545" s="1"/>
+        <v>3450</v>
+      </c>
+      <c r="G545" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A546" s="1" t="s">
-        <v>1832</v>
+        <v>3409</v>
       </c>
       <c r="B546" s="1">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>19</v>
+        <v>3452</v>
       </c>
       <c r="D546" s="1" t="s">
-        <v>20</v>
+        <v>3451</v>
       </c>
       <c r="E546" s="1" t="s">
-        <v>21</v>
+        <v>3453</v>
       </c>
       <c r="F546" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G546" s="1"/>
+        <v>3454</v>
+      </c>
+      <c r="G546" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
-        <v>1833</v>
+        <v>3410</v>
       </c>
       <c r="B547" s="1">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C547" s="1" t="s">
-        <v>22</v>
+        <v>3455</v>
       </c>
       <c r="D547" s="1" t="s">
-        <v>23</v>
+        <v>3456</v>
       </c>
       <c r="E547" s="1" t="s">
-        <v>24</v>
+        <v>3457</v>
       </c>
       <c r="F547" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G547" s="1"/>
+        <v>3458</v>
+      </c>
+      <c r="G547" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A548" s="1" t="s">
-        <v>1834</v>
+        <v>3411</v>
       </c>
       <c r="B548" s="1">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>25</v>
+        <v>3459</v>
       </c>
       <c r="D548" s="1" t="s">
-        <v>26</v>
+        <v>3460</v>
       </c>
       <c r="E548" s="1" t="s">
-        <v>27</v>
+        <v>3461</v>
       </c>
       <c r="F548" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G548" s="1"/>
+        <v>3462</v>
+      </c>
+      <c r="G548" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
-        <v>1835</v>
+        <v>3412</v>
       </c>
       <c r="B549" s="1">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C549" s="1" t="s">
-        <v>28</v>
+        <v>3463</v>
       </c>
       <c r="D549" s="1" t="s">
-        <v>29</v>
+        <v>3464</v>
       </c>
       <c r="E549" s="1" t="s">
-        <v>30</v>
+        <v>3465</v>
       </c>
       <c r="F549" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G549" s="1"/>
+        <v>3466</v>
+      </c>
+      <c r="G549" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
-        <v>1836</v>
+        <v>3413</v>
       </c>
       <c r="B550" s="1">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>31</v>
+        <v>3467</v>
       </c>
       <c r="D550" s="1" t="s">
-        <v>32</v>
+        <v>3468</v>
       </c>
       <c r="E550" s="1" t="s">
-        <v>33</v>
+        <v>3469</v>
       </c>
       <c r="F550" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G550" s="1"/>
+        <v>3470</v>
+      </c>
+      <c r="G550" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
-        <v>1837</v>
+        <v>3414</v>
       </c>
       <c r="B551" s="1">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>34</v>
+        <v>3471</v>
       </c>
       <c r="D551" s="1" t="s">
-        <v>35</v>
+        <v>3472</v>
       </c>
       <c r="E551" s="1" t="s">
-        <v>36</v>
+        <v>3473</v>
       </c>
       <c r="F551" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G551" s="1"/>
+        <v>3474</v>
+      </c>
+      <c r="G551" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
-        <v>1838</v>
+        <v>3415</v>
       </c>
       <c r="B552" s="1">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>37</v>
+        <v>3475</v>
       </c>
       <c r="D552" s="1" t="s">
-        <v>38</v>
+        <v>3476</v>
       </c>
       <c r="E552" s="1" t="s">
-        <v>39</v>
+        <v>3477</v>
       </c>
       <c r="F552" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G552" s="1"/>
+        <v>3478</v>
+      </c>
+      <c r="G552" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
-        <v>1839</v>
+        <v>3416</v>
       </c>
       <c r="B553" s="1">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>40</v>
+        <v>3479</v>
       </c>
       <c r="D553" s="1" t="s">
-        <v>41</v>
+        <v>3480</v>
       </c>
       <c r="E553" s="1" t="s">
-        <v>42</v>
+        <v>3481</v>
       </c>
       <c r="F553" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G553" s="1"/>
+        <v>3482</v>
+      </c>
+      <c r="G553" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
-        <v>1840</v>
+        <v>3417</v>
       </c>
       <c r="B554" s="1">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>43</v>
+        <v>3483</v>
       </c>
       <c r="D554" s="1" t="s">
-        <v>44</v>
+        <v>3484</v>
       </c>
       <c r="E554" s="1" t="s">
-        <v>45</v>
+        <v>3485</v>
       </c>
       <c r="F554" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G554" s="1"/>
+        <v>3486</v>
+      </c>
+      <c r="G554" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A555" s="1" t="s">
-        <v>1841</v>
+        <v>3418</v>
       </c>
       <c r="B555" s="1">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>47</v>
+        <v>3487</v>
       </c>
       <c r="D555" s="1" t="s">
-        <v>48</v>
+        <v>3488</v>
       </c>
       <c r="E555" s="1" t="s">
-        <v>49</v>
+        <v>3489</v>
       </c>
       <c r="F555" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G555" s="1"/>
+        <v>3490</v>
+      </c>
+      <c r="G555" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A556" s="1" t="s">
-        <v>1842</v>
+        <v>3419</v>
       </c>
       <c r="B556" s="1">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>50</v>
+        <v>3491</v>
       </c>
       <c r="D556" s="1" t="s">
-        <v>51</v>
+        <v>3492</v>
       </c>
       <c r="E556" s="1" t="s">
-        <v>52</v>
+        <v>3493</v>
       </c>
       <c r="F556" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G556" s="1"/>
+        <v>3494</v>
+      </c>
+      <c r="G556" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
-        <v>1843</v>
+        <v>3420</v>
       </c>
       <c r="B557" s="1">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>54</v>
+        <v>3495</v>
       </c>
       <c r="D557" s="1" t="s">
-        <v>55</v>
+        <v>3496</v>
       </c>
       <c r="E557" s="1" t="s">
-        <v>56</v>
+        <v>3497</v>
       </c>
       <c r="F557" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G557" s="1"/>
+        <v>3498</v>
+      </c>
+      <c r="G557" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
-        <v>1844</v>
+        <v>3421</v>
       </c>
       <c r="B558" s="1">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C558" s="1" t="s">
-        <v>57</v>
+        <v>3499</v>
       </c>
       <c r="D558" s="1" t="s">
-        <v>58</v>
+        <v>3500</v>
       </c>
       <c r="E558" s="1" t="s">
-        <v>59</v>
+        <v>3501</v>
       </c>
       <c r="F558" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G558" s="1"/>
+        <v>3502</v>
+      </c>
+      <c r="G558" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
-        <v>1845</v>
+        <v>3422</v>
       </c>
       <c r="B559" s="1">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>61</v>
+        <v>3503</v>
       </c>
       <c r="D559" s="1" t="s">
-        <v>62</v>
+        <v>3504</v>
       </c>
       <c r="E559" s="1" t="s">
-        <v>63</v>
+        <v>3505</v>
       </c>
       <c r="F559" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G559" s="1"/>
+        <v>3506</v>
+      </c>
+      <c r="G559" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
-        <v>1846</v>
+        <v>3423</v>
       </c>
       <c r="B560" s="1">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>64</v>
+        <v>3507</v>
       </c>
       <c r="D560" s="1" t="s">
-        <v>65</v>
+        <v>3508</v>
       </c>
       <c r="E560" s="1" t="s">
-        <v>66</v>
+        <v>3509</v>
       </c>
       <c r="F560" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G560" s="1"/>
+        <v>3510</v>
+      </c>
+      <c r="G560" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A561" s="1" t="s">
-        <v>1847</v>
+        <v>3424</v>
       </c>
       <c r="B561" s="1">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>67</v>
+        <v>3511</v>
       </c>
       <c r="D561" s="1" t="s">
-        <v>68</v>
+        <v>3512</v>
       </c>
       <c r="E561" s="1" t="s">
-        <v>69</v>
+        <v>3513</v>
       </c>
       <c r="F561" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G561" s="1"/>
+        <v>3514</v>
+      </c>
+      <c r="G561" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
-        <v>1848</v>
+        <v>3425</v>
       </c>
       <c r="B562" s="1">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>71</v>
+        <v>3515</v>
       </c>
       <c r="D562" s="1" t="s">
-        <v>72</v>
+        <v>3516</v>
       </c>
       <c r="E562" s="1" t="s">
-        <v>73</v>
+        <v>3517</v>
       </c>
       <c r="F562" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G562" s="1"/>
+        <v>3518</v>
+      </c>
+      <c r="G562" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
-        <v>1849</v>
+        <v>3426</v>
       </c>
       <c r="B563" s="1">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>74</v>
+        <v>3519</v>
       </c>
       <c r="D563" s="1" t="s">
-        <v>75</v>
+        <v>3520</v>
       </c>
       <c r="E563" s="1" t="s">
-        <v>76</v>
+        <v>3521</v>
       </c>
       <c r="F563" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G563" s="1"/>
+        <v>3522</v>
+      </c>
+      <c r="G563" s="1" t="s">
+        <v>720</v>
+      </c>
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
-        <v>1850</v>
+        <v>3427</v>
       </c>
       <c r="B564" s="1">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>77</v>
+        <v>3523</v>
       </c>
       <c r="D564" s="1" t="s">
-        <v>78</v>
+        <v>3524</v>
       </c>
       <c r="E564" s="1" t="s">
-        <v>79</v>
+        <v>3525</v>
       </c>
       <c r="F564" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G564" s="1"/>
+        <v>3526</v>
+      </c>
+      <c r="G564" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A565" s="1" t="s">
-        <v>1851</v>
+        <v>3428</v>
       </c>
       <c r="B565" s="1">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>80</v>
+        <v>3527</v>
       </c>
       <c r="D565" s="1" t="s">
-        <v>81</v>
+        <v>3528</v>
       </c>
       <c r="E565" s="1" t="s">
-        <v>82</v>
+        <v>3529</v>
       </c>
       <c r="F565" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G565" s="1"/>
+        <v>3530</v>
+      </c>
+      <c r="G565" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
-        <v>1852</v>
+        <v>3429</v>
       </c>
       <c r="B566" s="1">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>83</v>
+        <v>3531</v>
       </c>
       <c r="D566" s="1" t="s">
-        <v>84</v>
+        <v>3532</v>
       </c>
       <c r="E566" s="1" t="s">
-        <v>85</v>
+        <v>3533</v>
       </c>
       <c r="F566" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G566" s="1"/>
+        <v>3534</v>
+      </c>
+      <c r="G566" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A567" s="1" t="s">
-        <v>1853</v>
+        <v>3430</v>
       </c>
       <c r="B567" s="1">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>86</v>
+        <v>3535</v>
       </c>
       <c r="D567" s="1" t="s">
-        <v>87</v>
+        <v>3536</v>
       </c>
       <c r="E567" s="1" t="s">
-        <v>88</v>
+        <v>3537</v>
       </c>
       <c r="F567" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G567" s="1"/>
+        <v>3538</v>
+      </c>
+      <c r="G567" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A568" s="1" t="s">
-        <v>1854</v>
+        <v>3431</v>
       </c>
       <c r="B568" s="1">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>90</v>
+        <v>3539</v>
       </c>
       <c r="D568" s="1" t="s">
-        <v>91</v>
+        <v>3540</v>
       </c>
       <c r="E568" s="1" t="s">
-        <v>92</v>
+        <v>3541</v>
       </c>
       <c r="F568" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G568" s="1"/>
+        <v>3542</v>
+      </c>
+      <c r="G568" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A569" s="1" t="s">
-        <v>1855</v>
+        <v>3432</v>
       </c>
       <c r="B569" s="1">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>94</v>
+        <v>3543</v>
       </c>
       <c r="D569" s="1" t="s">
-        <v>95</v>
+        <v>3544</v>
       </c>
       <c r="E569" s="1" t="s">
-        <v>96</v>
+        <v>3545</v>
       </c>
       <c r="F569" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G569" s="1"/>
+        <v>3546</v>
+      </c>
+      <c r="G569" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A570" s="1" t="s">
-        <v>1856</v>
+        <v>3433</v>
       </c>
       <c r="B570" s="1">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>97</v>
+        <v>3547</v>
       </c>
       <c r="D570" s="1" t="s">
-        <v>98</v>
+        <v>3548</v>
       </c>
       <c r="E570" s="1" t="s">
-        <v>99</v>
+        <v>3549</v>
       </c>
       <c r="F570" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G570" s="1"/>
+        <v>3550</v>
+      </c>
+      <c r="G570" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A571" s="1" t="s">
-        <v>1857</v>
+        <v>3434</v>
       </c>
       <c r="B571" s="1">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>100</v>
+        <v>3551</v>
       </c>
       <c r="D571" s="1" t="s">
-        <v>101</v>
+        <v>3552</v>
       </c>
       <c r="E571" s="1" t="s">
-        <v>102</v>
+        <v>3553</v>
       </c>
       <c r="F571" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G571" s="1"/>
+        <v>3554</v>
+      </c>
+      <c r="G571" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
-        <v>1858</v>
+        <v>1828</v>
       </c>
       <c r="B572" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="D572" s="1" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="E572" s="1" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="F572" s="1" t="s">
         <v>9</v>
@@ -23721,19 +24231,19 @@
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A573" s="1" t="s">
-        <v>1859</v>
+        <v>1829</v>
       </c>
       <c r="B573" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C573" s="1" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="D573" s="1" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="E573" s="1" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="F573" s="1" t="s">
         <v>9</v>
@@ -23742,19 +24252,19 @@
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A574" s="1" t="s">
-        <v>1860</v>
+        <v>1830</v>
       </c>
       <c r="B574" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="D574" s="1" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="E574" s="1" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="F574" s="1" t="s">
         <v>9</v>
@@ -23763,19 +24273,19 @@
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A575" s="1" t="s">
-        <v>1861</v>
+        <v>1831</v>
       </c>
       <c r="B575" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="D575" s="1" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="E575" s="1" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="F575" s="1" t="s">
         <v>9</v>
@@ -23784,19 +24294,19 @@
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
-        <v>1862</v>
+        <v>1832</v>
       </c>
       <c r="B576" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="D576" s="1" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="E576" s="1" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="F576" s="1" t="s">
         <v>9</v>
@@ -23805,19 +24315,19 @@
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A577" s="1" t="s">
-        <v>1863</v>
+        <v>1833</v>
       </c>
       <c r="B577" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="D577" s="1" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="E577" s="1" t="s">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="F577" s="1" t="s">
         <v>9</v>
@@ -23826,61 +24336,61 @@
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="s">
-        <v>1864</v>
+        <v>1834</v>
       </c>
       <c r="B578" s="1">
+        <v>26</v>
+      </c>
+      <c r="C578" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D578" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E578" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C578" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D578" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E578" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="F578" s="1" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="G578" s="1"/>
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A579" s="1" t="s">
-        <v>1865</v>
+        <v>1835</v>
       </c>
       <c r="B579" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="D579" s="1" t="s">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="E579" s="1" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="F579" s="1" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="G579" s="1"/>
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A580" s="1" t="s">
-        <v>1866</v>
+        <v>1836</v>
       </c>
       <c r="B580" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="D580" s="1" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="E580" s="1" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="F580" s="1" t="s">
         <v>9</v>
@@ -23889,2328 +24399,2958 @@
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A581" s="1" t="s">
-        <v>1867</v>
+        <v>1837</v>
       </c>
       <c r="B581" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C581" s="1" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="D581" s="1" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="E581" s="1" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="F581" s="1" t="s">
-        <v>135</v>
+        <v>9</v>
       </c>
       <c r="G581" s="1"/>
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A582" s="1" t="s">
-        <v>1868</v>
+        <v>1838</v>
       </c>
       <c r="B582" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="D582" s="1" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="E582" s="1" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="F582" s="1" t="s">
-        <v>139</v>
+        <v>9</v>
       </c>
       <c r="G582" s="1"/>
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A583" s="1" t="s">
-        <v>1869</v>
+        <v>1839</v>
       </c>
       <c r="B583" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D583" s="1" t="s">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="E583" s="1" t="s">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="F583" s="1" t="s">
-        <v>143</v>
+        <v>9</v>
       </c>
       <c r="G583" s="1"/>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A584" s="1" t="s">
-        <v>1870</v>
+        <v>1840</v>
       </c>
       <c r="B584" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="D584" s="1" t="s">
-        <v>145</v>
+        <v>44</v>
       </c>
       <c r="E584" s="1" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="F584" s="1" t="s">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="G584" s="1"/>
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A585" s="1" t="s">
-        <v>1871</v>
+        <v>1841</v>
       </c>
       <c r="B585" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C585" s="1" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="D585" s="1" t="s">
-        <v>149</v>
+        <v>48</v>
       </c>
       <c r="E585" s="1" t="s">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="F585" s="1" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="G585" s="1"/>
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A586" s="1" t="s">
-        <v>1872</v>
+        <v>1842</v>
       </c>
       <c r="B586" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="D586" s="1" t="s">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="E586" s="1" t="s">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c r="F586" s="1" t="s">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="G586" s="1"/>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A587" s="1" t="s">
-        <v>1873</v>
+        <v>1843</v>
       </c>
       <c r="B587" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="D587" s="1" t="s">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c r="E587" s="1" t="s">
-        <v>158</v>
+        <v>56</v>
       </c>
       <c r="F587" s="1" t="s">
-        <v>159</v>
+        <v>9</v>
       </c>
       <c r="G587" s="1"/>
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A588" s="1" t="s">
-        <v>1874</v>
+        <v>1844</v>
       </c>
       <c r="B588" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>160</v>
+        <v>57</v>
       </c>
       <c r="D588" s="1" t="s">
-        <v>161</v>
+        <v>58</v>
       </c>
       <c r="E588" s="1" t="s">
-        <v>162</v>
+        <v>59</v>
       </c>
       <c r="F588" s="1" t="s">
-        <v>163</v>
+        <v>60</v>
       </c>
       <c r="G588" s="1"/>
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A589" s="1" t="s">
-        <v>1875</v>
+        <v>1845</v>
       </c>
       <c r="B589" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C589" s="1" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
       <c r="D589" s="1" t="s">
-        <v>165</v>
+        <v>62</v>
       </c>
       <c r="E589" s="1" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="F589" s="1" t="s">
-        <v>167</v>
+        <v>9</v>
       </c>
       <c r="G589" s="1"/>
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
-        <v>1876</v>
+        <v>1846</v>
       </c>
       <c r="B590" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C590" s="1" t="s">
-        <v>168</v>
+        <v>64</v>
       </c>
       <c r="D590" s="1" t="s">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="E590" s="1" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="F590" s="1" t="s">
-        <v>171</v>
+        <v>9</v>
       </c>
       <c r="G590" s="1"/>
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A591" s="1" t="s">
-        <v>1877</v>
+        <v>1847</v>
       </c>
       <c r="B591" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C591" s="1" t="s">
-        <v>172</v>
+        <v>67</v>
       </c>
       <c r="D591" s="1" t="s">
-        <v>173</v>
+        <v>68</v>
       </c>
       <c r="E591" s="1" t="s">
-        <v>174</v>
+        <v>69</v>
       </c>
       <c r="F591" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="G591" s="1"/>
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
-        <v>1878</v>
+        <v>1848</v>
       </c>
       <c r="B592" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C592" s="1" t="s">
-        <v>176</v>
+        <v>71</v>
       </c>
       <c r="D592" s="1" t="s">
-        <v>177</v>
+        <v>72</v>
       </c>
       <c r="E592" s="1" t="s">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="F592" s="1" t="s">
-        <v>179</v>
+        <v>9</v>
       </c>
       <c r="G592" s="1"/>
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A593" s="1" t="s">
-        <v>1879</v>
+        <v>1849</v>
       </c>
       <c r="B593" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C593" s="1" t="s">
-        <v>180</v>
+        <v>74</v>
       </c>
       <c r="D593" s="1" t="s">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="E593" s="1" t="s">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="F593" s="1" t="s">
-        <v>183</v>
+        <v>9</v>
       </c>
       <c r="G593" s="1"/>
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
-        <v>1880</v>
+        <v>1850</v>
       </c>
       <c r="B594" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C594" s="1" t="s">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="D594" s="1" t="s">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="E594" s="1" t="s">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="F594" s="1" t="s">
-        <v>187</v>
+        <v>9</v>
       </c>
       <c r="G594" s="1"/>
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
-        <v>1881</v>
+        <v>1851</v>
       </c>
       <c r="B595" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C595" s="1" t="s">
-        <v>188</v>
+        <v>80</v>
       </c>
       <c r="D595" s="1" t="s">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="E595" s="1" t="s">
-        <v>190</v>
+        <v>82</v>
       </c>
       <c r="F595" s="1" t="s">
-        <v>191</v>
+        <v>9</v>
       </c>
       <c r="G595" s="1"/>
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
-        <v>1882</v>
+        <v>1852</v>
       </c>
       <c r="B596" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C596" s="1" t="s">
-        <v>192</v>
+        <v>83</v>
       </c>
       <c r="D596" s="1" t="s">
-        <v>193</v>
+        <v>84</v>
       </c>
       <c r="E596" s="1" t="s">
-        <v>194</v>
+        <v>85</v>
       </c>
       <c r="F596" s="1" t="s">
-        <v>195</v>
+        <v>9</v>
       </c>
       <c r="G596" s="1"/>
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
-        <v>1883</v>
+        <v>1853</v>
       </c>
       <c r="B597" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C597" s="1" t="s">
-        <v>196</v>
+        <v>86</v>
       </c>
       <c r="D597" s="1" t="s">
-        <v>197</v>
+        <v>87</v>
       </c>
       <c r="E597" s="1" t="s">
-        <v>198</v>
+        <v>88</v>
       </c>
       <c r="F597" s="1" t="s">
-        <v>199</v>
+        <v>89</v>
       </c>
       <c r="G597" s="1"/>
     </row>
     <row r="598" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
-        <v>1884</v>
+        <v>1854</v>
       </c>
       <c r="B598" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C598" s="1" t="s">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="D598" s="1" t="s">
-        <v>201</v>
+        <v>91</v>
       </c>
       <c r="E598" s="1" t="s">
-        <v>202</v>
+        <v>92</v>
       </c>
       <c r="F598" s="1" t="s">
-        <v>203</v>
+        <v>93</v>
       </c>
       <c r="G598" s="1"/>
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A599" s="1" t="s">
-        <v>1885</v>
+        <v>1855</v>
       </c>
       <c r="B599" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C599" s="1" t="s">
-        <v>204</v>
+        <v>94</v>
       </c>
       <c r="D599" s="1" t="s">
-        <v>205</v>
+        <v>95</v>
       </c>
       <c r="E599" s="1" t="s">
-        <v>206</v>
+        <v>96</v>
       </c>
       <c r="F599" s="1" t="s">
-        <v>207</v>
+        <v>9</v>
       </c>
       <c r="G599" s="1"/>
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
-        <v>1886</v>
+        <v>1856</v>
       </c>
       <c r="B600" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C600" s="1" t="s">
-        <v>204</v>
+        <v>97</v>
       </c>
       <c r="D600" s="1" t="s">
-        <v>208</v>
+        <v>98</v>
       </c>
       <c r="E600" s="1" t="s">
-        <v>209</v>
+        <v>99</v>
       </c>
       <c r="F600" s="1" t="s">
-        <v>210</v>
+        <v>9</v>
       </c>
       <c r="G600" s="1"/>
     </row>
     <row r="601" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A601" s="1" t="s">
-        <v>1887</v>
+        <v>1857</v>
       </c>
       <c r="B601" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C601" s="1" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="D601" s="1" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
       <c r="E601" s="1" t="s">
-        <v>213</v>
+        <v>102</v>
       </c>
       <c r="F601" s="1" t="s">
-        <v>214</v>
+        <v>9</v>
       </c>
       <c r="G601" s="1"/>
     </row>
     <row r="602" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
-        <v>1888</v>
+        <v>1858</v>
       </c>
       <c r="B602" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C602" s="1" t="s">
-        <v>215</v>
+        <v>103</v>
       </c>
       <c r="D602" s="1" t="s">
-        <v>216</v>
+        <v>104</v>
       </c>
       <c r="E602" s="1" t="s">
-        <v>217</v>
+        <v>105</v>
       </c>
       <c r="F602" s="1" t="s">
-        <v>218</v>
+        <v>9</v>
       </c>
       <c r="G602" s="1"/>
     </row>
     <row r="603" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
-        <v>1889</v>
+        <v>1859</v>
       </c>
       <c r="B603" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C603" s="1" t="s">
-        <v>219</v>
+        <v>106</v>
       </c>
       <c r="D603" s="1" t="s">
-        <v>220</v>
+        <v>107</v>
       </c>
       <c r="E603" s="1" t="s">
-        <v>221</v>
+        <v>108</v>
       </c>
       <c r="F603" s="1" t="s">
-        <v>222</v>
+        <v>9</v>
       </c>
       <c r="G603" s="1"/>
     </row>
     <row r="604" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
-        <v>1890</v>
+        <v>1860</v>
       </c>
       <c r="B604" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C604" s="1" t="s">
-        <v>223</v>
+        <v>109</v>
       </c>
       <c r="D604" s="1" t="s">
-        <v>224</v>
+        <v>110</v>
       </c>
       <c r="E604" s="1" t="s">
-        <v>225</v>
+        <v>111</v>
       </c>
       <c r="F604" s="1" t="s">
-        <v>226</v>
+        <v>9</v>
       </c>
       <c r="G604" s="1"/>
     </row>
     <row r="605" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A605" s="1" t="s">
-        <v>1891</v>
+        <v>1861</v>
       </c>
       <c r="B605" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C605" s="1" t="s">
-        <v>227</v>
+        <v>112</v>
       </c>
       <c r="D605" s="1" t="s">
-        <v>228</v>
+        <v>113</v>
       </c>
       <c r="E605" s="1" t="s">
-        <v>229</v>
+        <v>114</v>
       </c>
       <c r="F605" s="1" t="s">
-        <v>230</v>
+        <v>9</v>
       </c>
       <c r="G605" s="1"/>
     </row>
     <row r="606" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A606" s="1" t="s">
-        <v>1892</v>
+        <v>1862</v>
       </c>
       <c r="B606" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C606" s="1" t="s">
-        <v>231</v>
+        <v>115</v>
       </c>
       <c r="D606" s="1" t="s">
-        <v>232</v>
+        <v>116</v>
       </c>
       <c r="E606" s="1" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="F606" s="1" t="s">
-        <v>234</v>
+        <v>9</v>
       </c>
       <c r="G606" s="1"/>
     </row>
     <row r="607" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A607" s="1" t="s">
-        <v>1893</v>
+        <v>1863</v>
       </c>
       <c r="B607" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C607" s="1" t="s">
-        <v>235</v>
+        <v>118</v>
       </c>
       <c r="D607" s="1" t="s">
-        <v>236</v>
+        <v>119</v>
       </c>
       <c r="E607" s="1" t="s">
-        <v>237</v>
+        <v>120</v>
       </c>
       <c r="F607" s="1" t="s">
-        <v>238</v>
+        <v>9</v>
       </c>
       <c r="G607" s="1"/>
     </row>
     <row r="608" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A608" s="1" t="s">
-        <v>1894</v>
+        <v>1864</v>
       </c>
       <c r="B608" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C608" s="1" t="s">
-        <v>239</v>
+        <v>121</v>
       </c>
       <c r="D608" s="1" t="s">
-        <v>240</v>
+        <v>122</v>
       </c>
       <c r="E608" s="1" t="s">
-        <v>241</v>
+        <v>123</v>
       </c>
       <c r="F608" s="1" t="s">
-        <v>242</v>
+        <v>124</v>
       </c>
       <c r="G608" s="1"/>
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A609" s="1" t="s">
-        <v>1895</v>
+        <v>1865</v>
       </c>
       <c r="B609" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C609" s="1" t="s">
-        <v>243</v>
+        <v>125</v>
       </c>
       <c r="D609" s="1" t="s">
-        <v>244</v>
+        <v>126</v>
       </c>
       <c r="E609" s="1" t="s">
-        <v>245</v>
+        <v>127</v>
       </c>
       <c r="F609" s="1" t="s">
-        <v>246</v>
+        <v>128</v>
       </c>
       <c r="G609" s="1"/>
     </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
-        <v>1896</v>
+        <v>1866</v>
       </c>
       <c r="B610" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C610" s="1" t="s">
-        <v>247</v>
+        <v>129</v>
       </c>
       <c r="D610" s="1" t="s">
-        <v>248</v>
+        <v>130</v>
       </c>
       <c r="E610" s="1" t="s">
-        <v>249</v>
+        <v>131</v>
       </c>
       <c r="F610" s="1" t="s">
-        <v>250</v>
+        <v>9</v>
       </c>
       <c r="G610" s="1"/>
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A611" s="1" t="s">
-        <v>1897</v>
+        <v>1867</v>
       </c>
       <c r="B611" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C611" s="1" t="s">
-        <v>251</v>
+        <v>132</v>
       </c>
       <c r="D611" s="1" t="s">
-        <v>252</v>
+        <v>133</v>
       </c>
       <c r="E611" s="1" t="s">
-        <v>253</v>
+        <v>134</v>
       </c>
       <c r="F611" s="1" t="s">
-        <v>254</v>
+        <v>135</v>
       </c>
       <c r="G611" s="1"/>
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A612" s="1" t="s">
-        <v>1898</v>
+        <v>1868</v>
       </c>
       <c r="B612" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C612" s="1" t="s">
-        <v>255</v>
+        <v>136</v>
       </c>
       <c r="D612" s="1" t="s">
-        <v>256</v>
+        <v>137</v>
       </c>
       <c r="E612" s="1" t="s">
-        <v>257</v>
+        <v>138</v>
       </c>
       <c r="F612" s="1" t="s">
-        <v>258</v>
+        <v>139</v>
       </c>
       <c r="G612" s="1"/>
     </row>
     <row r="613" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A613" s="1" t="s">
-        <v>1899</v>
+        <v>1869</v>
       </c>
       <c r="B613" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C613" s="1" t="s">
-        <v>259</v>
+        <v>140</v>
       </c>
       <c r="D613" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E613" s="1"/>
-      <c r="F613" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="E613" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F613" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="G613" s="1"/>
     </row>
     <row r="614" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A614" s="1" t="s">
-        <v>1900</v>
+        <v>1870</v>
       </c>
       <c r="B614" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C614" s="1" t="s">
-        <v>261</v>
+        <v>144</v>
       </c>
       <c r="D614" s="1" t="s">
-        <v>262</v>
+        <v>145</v>
       </c>
       <c r="E614" s="1" t="s">
-        <v>263</v>
+        <v>146</v>
       </c>
       <c r="F614" s="1" t="s">
-        <v>264</v>
+        <v>147</v>
       </c>
       <c r="G614" s="1"/>
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A615" s="1" t="s">
-        <v>1901</v>
+        <v>1871</v>
       </c>
       <c r="B615" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C615" s="1" t="s">
-        <v>265</v>
+        <v>148</v>
       </c>
       <c r="D615" s="1" t="s">
-        <v>266</v>
+        <v>149</v>
       </c>
       <c r="E615" s="1" t="s">
-        <v>267</v>
+        <v>150</v>
       </c>
       <c r="F615" s="1" t="s">
-        <v>268</v>
+        <v>151</v>
       </c>
       <c r="G615" s="1"/>
     </row>
     <row r="616" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A616" s="1" t="s">
-        <v>1902</v>
+        <v>1872</v>
       </c>
       <c r="B616" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C616" s="1" t="s">
-        <v>269</v>
+        <v>152</v>
       </c>
       <c r="D616" s="1" t="s">
-        <v>270</v>
+        <v>153</v>
       </c>
       <c r="E616" s="1" t="s">
-        <v>271</v>
+        <v>154</v>
       </c>
       <c r="F616" s="1" t="s">
-        <v>272</v>
+        <v>155</v>
       </c>
       <c r="G616" s="1"/>
     </row>
     <row r="617" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A617" s="1" t="s">
-        <v>1903</v>
+        <v>1873</v>
       </c>
       <c r="B617" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C617" s="1" t="s">
-        <v>6</v>
+        <v>156</v>
       </c>
       <c r="D617" s="1" t="s">
-        <v>273</v>
+        <v>157</v>
       </c>
       <c r="E617" s="1" t="s">
-        <v>274</v>
+        <v>158</v>
       </c>
       <c r="F617" s="1" t="s">
-        <v>275</v>
+        <v>159</v>
       </c>
       <c r="G617" s="1"/>
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A618" s="1" t="s">
-        <v>1904</v>
+        <v>1874</v>
       </c>
       <c r="B618" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C618" s="1" t="s">
-        <v>276</v>
+        <v>160</v>
       </c>
       <c r="D618" s="1" t="s">
-        <v>277</v>
+        <v>161</v>
       </c>
       <c r="E618" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F618" s="1"/>
+        <v>162</v>
+      </c>
+      <c r="F618" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="G618" s="1"/>
     </row>
     <row r="619" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A619" s="1" t="s">
-        <v>1905</v>
+        <v>1875</v>
       </c>
       <c r="B619" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C619" s="1" t="s">
-        <v>279</v>
+        <v>164</v>
       </c>
       <c r="D619" s="1" t="s">
-        <v>280</v>
+        <v>165</v>
       </c>
       <c r="E619" s="1" t="s">
-        <v>281</v>
+        <v>166</v>
       </c>
       <c r="F619" s="1" t="s">
-        <v>282</v>
+        <v>167</v>
       </c>
       <c r="G619" s="1"/>
     </row>
     <row r="620" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A620" s="1" t="s">
-        <v>1906</v>
+        <v>1876</v>
       </c>
       <c r="B620" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C620" s="1" t="s">
-        <v>283</v>
+        <v>168</v>
       </c>
       <c r="D620" s="1" t="s">
-        <v>284</v>
+        <v>169</v>
       </c>
       <c r="E620" s="1" t="s">
-        <v>285</v>
+        <v>170</v>
       </c>
       <c r="F620" s="1" t="s">
-        <v>286</v>
+        <v>171</v>
       </c>
       <c r="G620" s="1"/>
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A621" s="1" t="s">
-        <v>1907</v>
+        <v>1877</v>
       </c>
       <c r="B621" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C621" s="1" t="s">
-        <v>287</v>
+        <v>172</v>
       </c>
       <c r="D621" s="1" t="s">
-        <v>288</v>
+        <v>173</v>
       </c>
       <c r="E621" s="1" t="s">
-        <v>289</v>
+        <v>174</v>
       </c>
       <c r="F621" s="1" t="s">
-        <v>290</v>
+        <v>175</v>
       </c>
       <c r="G621" s="1"/>
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A622" s="1" t="s">
-        <v>1908</v>
+        <v>1878</v>
       </c>
       <c r="B622" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C622" s="1" t="s">
-        <v>291</v>
+        <v>176</v>
       </c>
       <c r="D622" s="1" t="s">
-        <v>292</v>
+        <v>177</v>
       </c>
       <c r="E622" s="1" t="s">
-        <v>293</v>
+        <v>178</v>
       </c>
       <c r="F622" s="1" t="s">
-        <v>294</v>
+        <v>179</v>
       </c>
       <c r="G622" s="1"/>
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A623" s="1" t="s">
-        <v>1909</v>
+        <v>1879</v>
       </c>
       <c r="B623" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C623" s="1" t="s">
-        <v>295</v>
+        <v>180</v>
       </c>
       <c r="D623" s="1" t="s">
-        <v>296</v>
+        <v>181</v>
       </c>
       <c r="E623" s="1" t="s">
-        <v>297</v>
+        <v>182</v>
       </c>
       <c r="F623" s="1" t="s">
-        <v>298</v>
+        <v>183</v>
       </c>
       <c r="G623" s="1"/>
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A624" s="1" t="s">
-        <v>1910</v>
+        <v>1880</v>
       </c>
       <c r="B624" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C624" s="1" t="s">
-        <v>299</v>
+        <v>184</v>
       </c>
       <c r="D624" s="1" t="s">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="E624" s="1" t="s">
-        <v>301</v>
+        <v>186</v>
       </c>
       <c r="F624" s="1" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="G624" s="1"/>
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A625" s="1" t="s">
-        <v>1911</v>
+        <v>1881</v>
       </c>
       <c r="B625" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C625" s="1" t="s">
-        <v>303</v>
+        <v>188</v>
       </c>
       <c r="D625" s="1" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="E625" s="1" t="s">
-        <v>305</v>
+        <v>190</v>
       </c>
       <c r="F625" s="1" t="s">
-        <v>306</v>
+        <v>191</v>
       </c>
       <c r="G625" s="1"/>
     </row>
     <row r="626" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A626" s="1" t="s">
-        <v>1912</v>
+        <v>1882</v>
       </c>
       <c r="B626" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C626" s="1" t="s">
-        <v>307</v>
+        <v>192</v>
       </c>
       <c r="D626" s="1" t="s">
-        <v>308</v>
+        <v>193</v>
       </c>
       <c r="E626" s="1" t="s">
-        <v>309</v>
+        <v>194</v>
       </c>
       <c r="F626" s="1" t="s">
-        <v>310</v>
+        <v>195</v>
       </c>
       <c r="G626" s="1"/>
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A627" s="1" t="s">
-        <v>1913</v>
+        <v>1883</v>
       </c>
       <c r="B627" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C627" s="1" t="s">
-        <v>311</v>
+        <v>196</v>
       </c>
       <c r="D627" s="1" t="s">
-        <v>312</v>
+        <v>197</v>
       </c>
       <c r="E627" s="1" t="s">
-        <v>313</v>
+        <v>198</v>
       </c>
       <c r="F627" s="1" t="s">
-        <v>314</v>
+        <v>199</v>
       </c>
       <c r="G627" s="1"/>
     </row>
     <row r="628" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A628" s="1" t="s">
-        <v>1914</v>
+        <v>1884</v>
       </c>
       <c r="B628" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C628" s="1" t="s">
-        <v>315</v>
+        <v>200</v>
       </c>
       <c r="D628" s="1" t="s">
-        <v>316</v>
+        <v>201</v>
       </c>
       <c r="E628" s="1" t="s">
-        <v>317</v>
+        <v>202</v>
       </c>
       <c r="F628" s="1" t="s">
-        <v>318</v>
+        <v>203</v>
       </c>
       <c r="G628" s="1"/>
     </row>
     <row r="629" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A629" s="1" t="s">
-        <v>1915</v>
+        <v>1885</v>
       </c>
       <c r="B629" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C629" s="1" t="s">
-        <v>319</v>
+        <v>204</v>
       </c>
       <c r="D629" s="1" t="s">
-        <v>320</v>
+        <v>205</v>
       </c>
       <c r="E629" s="1" t="s">
-        <v>321</v>
+        <v>206</v>
       </c>
       <c r="F629" s="1" t="s">
-        <v>322</v>
+        <v>207</v>
       </c>
       <c r="G629" s="1"/>
     </row>
     <row r="630" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A630" s="1" t="s">
-        <v>1916</v>
+        <v>1886</v>
       </c>
       <c r="B630" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C630" s="1" t="s">
-        <v>323</v>
+        <v>204</v>
       </c>
       <c r="D630" s="1" t="s">
-        <v>324</v>
+        <v>208</v>
       </c>
       <c r="E630" s="1" t="s">
-        <v>325</v>
+        <v>209</v>
       </c>
       <c r="F630" s="1" t="s">
-        <v>326</v>
+        <v>210</v>
       </c>
       <c r="G630" s="1"/>
     </row>
     <row r="631" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A631" s="1" t="s">
-        <v>1917</v>
+        <v>1887</v>
       </c>
       <c r="B631" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C631" s="1" t="s">
-        <v>327</v>
+        <v>211</v>
       </c>
       <c r="D631" s="1" t="s">
-        <v>328</v>
+        <v>212</v>
       </c>
       <c r="E631" s="1" t="s">
-        <v>329</v>
+        <v>213</v>
       </c>
       <c r="F631" s="1" t="s">
-        <v>330</v>
+        <v>214</v>
       </c>
       <c r="G631" s="1"/>
     </row>
     <row r="632" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A632" s="1" t="s">
-        <v>1918</v>
+        <v>1888</v>
       </c>
       <c r="B632" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C632" s="1" t="s">
-        <v>331</v>
+        <v>215</v>
       </c>
       <c r="D632" s="1" t="s">
-        <v>332</v>
+        <v>216</v>
       </c>
       <c r="E632" s="1" t="s">
-        <v>333</v>
+        <v>217</v>
       </c>
       <c r="F632" s="1" t="s">
-        <v>334</v>
+        <v>218</v>
       </c>
       <c r="G632" s="1"/>
     </row>
     <row r="633" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A633" s="1" t="s">
-        <v>1919</v>
+        <v>1889</v>
       </c>
       <c r="B633" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C633" s="1" t="s">
-        <v>335</v>
+        <v>219</v>
       </c>
       <c r="D633" s="1" t="s">
-        <v>336</v>
+        <v>220</v>
       </c>
       <c r="E633" s="1" t="s">
-        <v>337</v>
+        <v>221</v>
       </c>
       <c r="F633" s="1" t="s">
-        <v>338</v>
+        <v>222</v>
       </c>
       <c r="G633" s="1"/>
     </row>
     <row r="634" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A634" s="1" t="s">
-        <v>1920</v>
+        <v>1890</v>
       </c>
       <c r="B634" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C634" s="1" t="s">
-        <v>339</v>
+        <v>223</v>
       </c>
       <c r="D634" s="1" t="s">
-        <v>340</v>
+        <v>224</v>
       </c>
       <c r="E634" s="1" t="s">
-        <v>341</v>
+        <v>225</v>
       </c>
       <c r="F634" s="1" t="s">
-        <v>342</v>
+        <v>226</v>
       </c>
       <c r="G634" s="1"/>
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A635" s="1" t="s">
-        <v>1921</v>
+        <v>1891</v>
       </c>
       <c r="B635" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C635" s="1" t="s">
-        <v>343</v>
+        <v>227</v>
       </c>
       <c r="D635" s="1" t="s">
-        <v>344</v>
+        <v>228</v>
       </c>
       <c r="E635" s="1" t="s">
-        <v>345</v>
+        <v>229</v>
       </c>
       <c r="F635" s="1" t="s">
-        <v>346</v>
+        <v>230</v>
       </c>
       <c r="G635" s="1"/>
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A636" s="1" t="s">
-        <v>1922</v>
+        <v>1892</v>
       </c>
       <c r="B636" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C636" s="1" t="s">
-        <v>347</v>
+        <v>231</v>
       </c>
       <c r="D636" s="1" t="s">
-        <v>348</v>
+        <v>232</v>
       </c>
       <c r="E636" s="1" t="s">
-        <v>349</v>
+        <v>233</v>
       </c>
       <c r="F636" s="1" t="s">
-        <v>350</v>
+        <v>234</v>
       </c>
       <c r="G636" s="1"/>
     </row>
     <row r="637" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A637" s="1" t="s">
-        <v>1923</v>
+        <v>1893</v>
       </c>
       <c r="B637" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C637" s="1" t="s">
-        <v>351</v>
+        <v>235</v>
       </c>
       <c r="D637" s="1" t="s">
-        <v>352</v>
+        <v>236</v>
       </c>
       <c r="E637" s="1" t="s">
-        <v>353</v>
+        <v>237</v>
       </c>
       <c r="F637" s="1" t="s">
-        <v>354</v>
+        <v>238</v>
       </c>
       <c r="G637" s="1"/>
     </row>
     <row r="638" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A638" s="1" t="s">
-        <v>1924</v>
+        <v>1894</v>
       </c>
       <c r="B638" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C638" s="1" t="s">
-        <v>355</v>
+        <v>239</v>
       </c>
       <c r="D638" s="1" t="s">
-        <v>356</v>
+        <v>240</v>
       </c>
       <c r="E638" s="1" t="s">
-        <v>357</v>
+        <v>241</v>
       </c>
       <c r="F638" s="1" t="s">
-        <v>358</v>
+        <v>242</v>
       </c>
       <c r="G638" s="1"/>
     </row>
     <row r="639" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A639" s="1" t="s">
-        <v>1925</v>
+        <v>1895</v>
       </c>
       <c r="B639" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C639" s="1" t="s">
-        <v>359</v>
+        <v>243</v>
       </c>
       <c r="D639" s="1" t="s">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="E639" s="1" t="s">
-        <v>361</v>
+        <v>245</v>
       </c>
       <c r="F639" s="1" t="s">
-        <v>362</v>
+        <v>246</v>
       </c>
       <c r="G639" s="1"/>
     </row>
     <row r="640" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A640" s="1" t="s">
-        <v>1926</v>
+        <v>1896</v>
       </c>
       <c r="B640" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C640" s="1" t="s">
-        <v>363</v>
+        <v>247</v>
       </c>
       <c r="D640" s="1" t="s">
-        <v>364</v>
+        <v>248</v>
       </c>
       <c r="E640" s="1" t="s">
-        <v>365</v>
+        <v>249</v>
       </c>
       <c r="F640" s="1" t="s">
-        <v>366</v>
+        <v>250</v>
       </c>
       <c r="G640" s="1"/>
     </row>
     <row r="641" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A641" s="1" t="s">
-        <v>1927</v>
+        <v>1897</v>
       </c>
       <c r="B641" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C641" s="1" t="s">
-        <v>367</v>
+        <v>251</v>
       </c>
       <c r="D641" s="1" t="s">
-        <v>368</v>
+        <v>252</v>
       </c>
       <c r="E641" s="1" t="s">
-        <v>369</v>
+        <v>253</v>
       </c>
       <c r="F641" s="1" t="s">
-        <v>370</v>
+        <v>254</v>
       </c>
       <c r="G641" s="1"/>
     </row>
     <row r="642" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A642" s="1" t="s">
-        <v>1928</v>
+        <v>1898</v>
       </c>
       <c r="B642" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C642" s="1" t="s">
-        <v>371</v>
+        <v>255</v>
       </c>
       <c r="D642" s="1" t="s">
-        <v>372</v>
+        <v>256</v>
       </c>
       <c r="E642" s="1" t="s">
-        <v>373</v>
+        <v>257</v>
       </c>
       <c r="F642" s="1" t="s">
-        <v>374</v>
+        <v>258</v>
       </c>
       <c r="G642" s="1"/>
     </row>
     <row r="643" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A643" s="1" t="s">
-        <v>1929</v>
+        <v>1899</v>
       </c>
       <c r="B643" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C643" s="1" t="s">
-        <v>375</v>
+        <v>259</v>
       </c>
       <c r="D643" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="E643" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="F643" s="1" t="s">
-        <v>378</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="E643" s="1"/>
+      <c r="F643" s="1"/>
       <c r="G643" s="1"/>
     </row>
     <row r="644" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A644" s="1" t="s">
-        <v>1930</v>
+        <v>1900</v>
       </c>
       <c r="B644" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C644" s="1" t="s">
-        <v>379</v>
+        <v>261</v>
       </c>
       <c r="D644" s="1" t="s">
-        <v>380</v>
+        <v>262</v>
       </c>
       <c r="E644" s="1" t="s">
-        <v>381</v>
+        <v>263</v>
       </c>
       <c r="F644" s="1" t="s">
-        <v>382</v>
+        <v>264</v>
       </c>
       <c r="G644" s="1"/>
     </row>
     <row r="645" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A645" s="1" t="s">
-        <v>1931</v>
+        <v>1901</v>
       </c>
       <c r="B645" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C645" s="1" t="s">
-        <v>383</v>
+        <v>265</v>
       </c>
       <c r="D645" s="1" t="s">
-        <v>384</v>
+        <v>266</v>
       </c>
       <c r="E645" s="1" t="s">
-        <v>385</v>
+        <v>267</v>
       </c>
       <c r="F645" s="1" t="s">
-        <v>386</v>
+        <v>268</v>
       </c>
       <c r="G645" s="1"/>
     </row>
     <row r="646" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A646" s="1" t="s">
-        <v>1932</v>
+        <v>1902</v>
       </c>
       <c r="B646" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C646" s="1" t="s">
-        <v>387</v>
+        <v>269</v>
       </c>
       <c r="D646" s="1" t="s">
-        <v>388</v>
+        <v>270</v>
       </c>
       <c r="E646" s="1" t="s">
-        <v>389</v>
+        <v>271</v>
       </c>
       <c r="F646" s="1" t="s">
-        <v>390</v>
+        <v>272</v>
       </c>
       <c r="G646" s="1"/>
     </row>
     <row r="647" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A647" s="1" t="s">
-        <v>1933</v>
+        <v>1903</v>
       </c>
       <c r="B647" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C647" s="1" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
       <c r="D647" s="1" t="s">
-        <v>392</v>
+        <v>273</v>
       </c>
       <c r="E647" s="1" t="s">
-        <v>393</v>
+        <v>274</v>
       </c>
       <c r="F647" s="1" t="s">
-        <v>394</v>
+        <v>275</v>
       </c>
       <c r="G647" s="1"/>
     </row>
     <row r="648" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A648" s="1" t="s">
-        <v>1934</v>
+        <v>1904</v>
       </c>
       <c r="B648" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C648" s="1" t="s">
-        <v>395</v>
+        <v>276</v>
       </c>
       <c r="D648" s="1" t="s">
-        <v>396</v>
+        <v>277</v>
       </c>
       <c r="E648" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="F648" s="1" t="s">
-        <v>398</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="F648" s="1"/>
       <c r="G648" s="1"/>
     </row>
     <row r="649" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A649" s="1" t="s">
-        <v>1935</v>
+        <v>1905</v>
       </c>
       <c r="B649" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C649" s="1" t="s">
-        <v>399</v>
+        <v>279</v>
       </c>
       <c r="D649" s="1" t="s">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="E649" s="1" t="s">
-        <v>401</v>
+        <v>281</v>
       </c>
       <c r="F649" s="1" t="s">
-        <v>402</v>
+        <v>282</v>
       </c>
       <c r="G649" s="1"/>
     </row>
     <row r="650" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A650" s="1" t="s">
-        <v>1936</v>
+        <v>1906</v>
       </c>
       <c r="B650" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C650" s="1" t="s">
-        <v>403</v>
+        <v>283</v>
       </c>
       <c r="D650" s="1" t="s">
-        <v>404</v>
+        <v>284</v>
       </c>
       <c r="E650" s="1" t="s">
-        <v>405</v>
+        <v>285</v>
       </c>
       <c r="F650" s="1" t="s">
-        <v>406</v>
+        <v>286</v>
       </c>
       <c r="G650" s="1"/>
     </row>
     <row r="651" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A651" s="1" t="s">
-        <v>1937</v>
+        <v>1907</v>
       </c>
       <c r="B651" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C651" s="1" t="s">
-        <v>407</v>
+        <v>287</v>
       </c>
       <c r="D651" s="1" t="s">
-        <v>408</v>
+        <v>288</v>
       </c>
       <c r="E651" s="1" t="s">
-        <v>409</v>
+        <v>289</v>
       </c>
       <c r="F651" s="1" t="s">
-        <v>410</v>
+        <v>290</v>
       </c>
       <c r="G651" s="1"/>
     </row>
     <row r="652" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A652" s="1" t="s">
-        <v>1938</v>
+        <v>1908</v>
       </c>
       <c r="B652" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C652" s="1" t="s">
-        <v>411</v>
+        <v>291</v>
       </c>
       <c r="D652" s="1" t="s">
-        <v>412</v>
+        <v>292</v>
       </c>
       <c r="E652" s="1" t="s">
-        <v>413</v>
+        <v>293</v>
       </c>
       <c r="F652" s="1" t="s">
-        <v>414</v>
+        <v>294</v>
       </c>
       <c r="G652" s="1"/>
     </row>
     <row r="653" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A653" s="1" t="s">
-        <v>1939</v>
+        <v>1909</v>
       </c>
       <c r="B653" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C653" s="1" t="s">
-        <v>415</v>
+        <v>295</v>
       </c>
       <c r="D653" s="1" t="s">
-        <v>416</v>
+        <v>296</v>
       </c>
       <c r="E653" s="1" t="s">
-        <v>417</v>
+        <v>297</v>
       </c>
       <c r="F653" s="1" t="s">
-        <v>418</v>
+        <v>298</v>
       </c>
       <c r="G653" s="1"/>
     </row>
     <row r="654" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A654" s="1" t="s">
-        <v>1940</v>
+        <v>1910</v>
       </c>
       <c r="B654" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C654" s="1" t="s">
-        <v>419</v>
+        <v>299</v>
       </c>
       <c r="D654" s="1" t="s">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="E654" s="1" t="s">
-        <v>421</v>
+        <v>301</v>
       </c>
       <c r="F654" s="1" t="s">
-        <v>422</v>
+        <v>302</v>
       </c>
       <c r="G654" s="1"/>
     </row>
     <row r="655" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A655" s="1" t="s">
-        <v>1941</v>
+        <v>1911</v>
       </c>
       <c r="B655" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C655" s="1" t="s">
-        <v>423</v>
+        <v>303</v>
       </c>
       <c r="D655" s="1" t="s">
-        <v>424</v>
+        <v>304</v>
       </c>
       <c r="E655" s="1" t="s">
-        <v>425</v>
+        <v>305</v>
       </c>
       <c r="F655" s="1" t="s">
-        <v>426</v>
+        <v>306</v>
       </c>
       <c r="G655" s="1"/>
     </row>
     <row r="656" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A656" s="1" t="s">
-        <v>1942</v>
+        <v>1912</v>
       </c>
       <c r="B656" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C656" s="1" t="s">
-        <v>427</v>
+        <v>307</v>
       </c>
       <c r="D656" s="1" t="s">
-        <v>428</v>
+        <v>308</v>
       </c>
       <c r="E656" s="1" t="s">
-        <v>429</v>
+        <v>309</v>
       </c>
       <c r="F656" s="1" t="s">
-        <v>430</v>
+        <v>310</v>
       </c>
       <c r="G656" s="1"/>
     </row>
     <row r="657" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A657" s="1" t="s">
-        <v>1943</v>
+        <v>1913</v>
       </c>
       <c r="B657" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C657" s="1" t="s">
-        <v>431</v>
+        <v>311</v>
       </c>
       <c r="D657" s="1" t="s">
-        <v>432</v>
+        <v>312</v>
       </c>
       <c r="E657" s="1" t="s">
-        <v>433</v>
+        <v>313</v>
       </c>
       <c r="F657" s="1" t="s">
-        <v>434</v>
+        <v>314</v>
       </c>
       <c r="G657" s="1"/>
     </row>
     <row r="658" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A658" s="1" t="s">
-        <v>1944</v>
+        <v>1914</v>
       </c>
       <c r="B658" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C658" s="1" t="s">
-        <v>435</v>
+        <v>315</v>
       </c>
       <c r="D658" s="1" t="s">
-        <v>436</v>
+        <v>316</v>
       </c>
       <c r="E658" s="1" t="s">
-        <v>437</v>
+        <v>317</v>
       </c>
       <c r="F658" s="1" t="s">
-        <v>438</v>
+        <v>318</v>
       </c>
       <c r="G658" s="1"/>
     </row>
     <row r="659" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A659" s="1" t="s">
-        <v>1945</v>
+        <v>1915</v>
       </c>
       <c r="B659" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C659" s="1" t="s">
-        <v>439</v>
+        <v>319</v>
       </c>
       <c r="D659" s="1" t="s">
-        <v>440</v>
+        <v>320</v>
       </c>
       <c r="E659" s="1" t="s">
-        <v>441</v>
+        <v>321</v>
       </c>
       <c r="F659" s="1" t="s">
-        <v>442</v>
+        <v>322</v>
       </c>
       <c r="G659" s="1"/>
     </row>
     <row r="660" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A660" s="1" t="s">
-        <v>1946</v>
+        <v>1916</v>
       </c>
       <c r="B660" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C660" s="1" t="s">
-        <v>443</v>
+        <v>323</v>
       </c>
       <c r="D660" s="1" t="s">
-        <v>444</v>
+        <v>324</v>
       </c>
       <c r="E660" s="1" t="s">
-        <v>445</v>
+        <v>325</v>
       </c>
       <c r="F660" s="1" t="s">
-        <v>446</v>
+        <v>326</v>
       </c>
       <c r="G660" s="1"/>
     </row>
     <row r="661" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A661" s="1" t="s">
-        <v>1947</v>
+        <v>1917</v>
       </c>
       <c r="B661" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C661" s="1" t="s">
-        <v>447</v>
+        <v>327</v>
       </c>
       <c r="D661" s="1" t="s">
-        <v>448</v>
+        <v>328</v>
       </c>
       <c r="E661" s="1" t="s">
-        <v>449</v>
+        <v>329</v>
       </c>
       <c r="F661" s="1" t="s">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="G661" s="1"/>
     </row>
     <row r="662" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A662" s="1" t="s">
-        <v>1948</v>
+        <v>1918</v>
       </c>
       <c r="B662" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C662" s="1" t="s">
-        <v>451</v>
+        <v>331</v>
       </c>
       <c r="D662" s="1" t="s">
-        <v>452</v>
+        <v>332</v>
       </c>
       <c r="E662" s="1" t="s">
-        <v>453</v>
+        <v>333</v>
       </c>
       <c r="F662" s="1" t="s">
-        <v>454</v>
+        <v>334</v>
       </c>
       <c r="G662" s="1"/>
     </row>
     <row r="663" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A663" s="1" t="s">
-        <v>1949</v>
+        <v>1919</v>
       </c>
       <c r="B663" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C663" s="1" t="s">
-        <v>455</v>
+        <v>335</v>
       </c>
       <c r="D663" s="1" t="s">
-        <v>456</v>
+        <v>336</v>
       </c>
       <c r="E663" s="1" t="s">
-        <v>457</v>
+        <v>337</v>
       </c>
       <c r="F663" s="1" t="s">
-        <v>458</v>
+        <v>338</v>
       </c>
       <c r="G663" s="1"/>
     </row>
     <row r="664" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A664" s="1" t="s">
-        <v>1950</v>
+        <v>1920</v>
       </c>
       <c r="B664" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C664" s="1" t="s">
-        <v>459</v>
+        <v>339</v>
       </c>
       <c r="D664" s="1" t="s">
-        <v>460</v>
+        <v>340</v>
       </c>
       <c r="E664" s="1" t="s">
-        <v>461</v>
+        <v>341</v>
       </c>
       <c r="F664" s="1" t="s">
-        <v>462</v>
+        <v>342</v>
       </c>
       <c r="G664" s="1"/>
     </row>
     <row r="665" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A665" s="1" t="s">
-        <v>1951</v>
+        <v>1921</v>
       </c>
       <c r="B665" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C665" s="1" t="s">
-        <v>463</v>
+        <v>343</v>
       </c>
       <c r="D665" s="1" t="s">
-        <v>464</v>
+        <v>344</v>
       </c>
       <c r="E665" s="1" t="s">
-        <v>465</v>
+        <v>345</v>
       </c>
       <c r="F665" s="1" t="s">
-        <v>466</v>
+        <v>346</v>
       </c>
       <c r="G665" s="1"/>
     </row>
     <row r="666" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A666" s="1" t="s">
-        <v>1952</v>
+        <v>1922</v>
       </c>
       <c r="B666" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C666" s="1" t="s">
-        <v>467</v>
+        <v>347</v>
       </c>
       <c r="D666" s="1" t="s">
-        <v>468</v>
+        <v>348</v>
       </c>
       <c r="E666" s="1" t="s">
-        <v>469</v>
+        <v>349</v>
       </c>
       <c r="F666" s="1" t="s">
-        <v>470</v>
+        <v>350</v>
       </c>
       <c r="G666" s="1"/>
     </row>
     <row r="667" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A667" s="1" t="s">
-        <v>1953</v>
+        <v>1923</v>
       </c>
       <c r="B667" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C667" s="1" t="s">
-        <v>471</v>
+        <v>351</v>
       </c>
       <c r="D667" s="1" t="s">
-        <v>472</v>
+        <v>352</v>
       </c>
       <c r="E667" s="1" t="s">
-        <v>473</v>
+        <v>353</v>
       </c>
       <c r="F667" s="1" t="s">
-        <v>474</v>
+        <v>354</v>
       </c>
       <c r="G667" s="1"/>
     </row>
     <row r="668" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A668" s="1" t="s">
-        <v>1954</v>
+        <v>1924</v>
       </c>
       <c r="B668" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C668" s="1" t="s">
-        <v>475</v>
+        <v>355</v>
       </c>
       <c r="D668" s="1" t="s">
-        <v>476</v>
+        <v>356</v>
       </c>
       <c r="E668" s="1" t="s">
-        <v>477</v>
+        <v>357</v>
       </c>
       <c r="F668" s="1" t="s">
-        <v>478</v>
+        <v>358</v>
       </c>
       <c r="G668" s="1"/>
     </row>
     <row r="669" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A669" s="1" t="s">
-        <v>1955</v>
+        <v>1925</v>
       </c>
       <c r="B669" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C669" s="1" t="s">
-        <v>479</v>
+        <v>359</v>
       </c>
       <c r="D669" s="1" t="s">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="E669" s="1" t="s">
-        <v>481</v>
+        <v>361</v>
       </c>
       <c r="F669" s="1" t="s">
-        <v>482</v>
+        <v>362</v>
       </c>
       <c r="G669" s="1"/>
     </row>
     <row r="670" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A670" s="1" t="s">
-        <v>1956</v>
+        <v>1926</v>
       </c>
       <c r="B670" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C670" s="1" t="s">
-        <v>483</v>
+        <v>363</v>
       </c>
       <c r="D670" s="1" t="s">
-        <v>484</v>
+        <v>364</v>
       </c>
       <c r="E670" s="1" t="s">
-        <v>485</v>
+        <v>365</v>
       </c>
       <c r="F670" s="1" t="s">
-        <v>486</v>
+        <v>366</v>
       </c>
       <c r="G670" s="1"/>
     </row>
     <row r="671" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A671" s="1" t="s">
-        <v>1957</v>
+        <v>1927</v>
       </c>
       <c r="B671" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C671" s="1" t="s">
-        <v>487</v>
+        <v>367</v>
       </c>
       <c r="D671" s="1" t="s">
-        <v>488</v>
+        <v>368</v>
       </c>
       <c r="E671" s="1" t="s">
-        <v>489</v>
+        <v>369</v>
       </c>
       <c r="F671" s="1" t="s">
-        <v>490</v>
+        <v>370</v>
       </c>
       <c r="G671" s="1"/>
     </row>
     <row r="672" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A672" s="1" t="s">
-        <v>1958</v>
+        <v>1928</v>
       </c>
       <c r="B672" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C672" s="1" t="s">
-        <v>491</v>
+        <v>371</v>
       </c>
       <c r="D672" s="1" t="s">
-        <v>492</v>
+        <v>372</v>
       </c>
       <c r="E672" s="1" t="s">
-        <v>493</v>
+        <v>373</v>
       </c>
       <c r="F672" s="1" t="s">
-        <v>494</v>
+        <v>374</v>
       </c>
       <c r="G672" s="1"/>
     </row>
     <row r="673" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A673" s="1" t="s">
-        <v>1959</v>
+        <v>1929</v>
       </c>
       <c r="B673" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C673" s="1" t="s">
-        <v>495</v>
+        <v>375</v>
       </c>
       <c r="D673" s="1" t="s">
-        <v>496</v>
+        <v>376</v>
       </c>
       <c r="E673" s="1" t="s">
-        <v>497</v>
+        <v>377</v>
       </c>
       <c r="F673" s="1" t="s">
-        <v>498</v>
+        <v>378</v>
       </c>
       <c r="G673" s="1"/>
     </row>
     <row r="674" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A674" s="1" t="s">
-        <v>1960</v>
+        <v>1930</v>
       </c>
       <c r="B674" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C674" s="1" t="s">
-        <v>499</v>
+        <v>379</v>
       </c>
       <c r="D674" s="1" t="s">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="E674" s="1" t="s">
-        <v>501</v>
+        <v>381</v>
       </c>
       <c r="F674" s="1" t="s">
-        <v>502</v>
+        <v>382</v>
       </c>
       <c r="G674" s="1"/>
     </row>
     <row r="675" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A675" s="1" t="s">
-        <v>1961</v>
+        <v>1931</v>
       </c>
       <c r="B675" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C675" s="1" t="s">
-        <v>503</v>
+        <v>383</v>
       </c>
       <c r="D675" s="1" t="s">
-        <v>504</v>
+        <v>384</v>
       </c>
       <c r="E675" s="1" t="s">
-        <v>505</v>
+        <v>385</v>
       </c>
       <c r="F675" s="1" t="s">
-        <v>506</v>
+        <v>386</v>
       </c>
       <c r="G675" s="1"/>
     </row>
     <row r="676" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A676" s="1" t="s">
-        <v>1962</v>
+        <v>1932</v>
       </c>
       <c r="B676" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C676" s="1" t="s">
-        <v>507</v>
+        <v>387</v>
       </c>
       <c r="D676" s="1" t="s">
-        <v>508</v>
+        <v>388</v>
       </c>
       <c r="E676" s="1" t="s">
-        <v>509</v>
+        <v>389</v>
       </c>
       <c r="F676" s="1" t="s">
-        <v>510</v>
+        <v>390</v>
       </c>
       <c r="G676" s="1"/>
     </row>
     <row r="677" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A677" s="1" t="s">
-        <v>1963</v>
+        <v>1933</v>
       </c>
       <c r="B677" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C677" s="1" t="s">
-        <v>511</v>
+        <v>391</v>
       </c>
       <c r="D677" s="1" t="s">
-        <v>512</v>
+        <v>392</v>
       </c>
       <c r="E677" s="1" t="s">
-        <v>513</v>
+        <v>393</v>
       </c>
       <c r="F677" s="1" t="s">
-        <v>514</v>
+        <v>394</v>
       </c>
       <c r="G677" s="1"/>
     </row>
     <row r="678" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A678" s="1" t="s">
-        <v>1964</v>
+        <v>1934</v>
       </c>
       <c r="B678" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C678" s="1" t="s">
-        <v>515</v>
+        <v>395</v>
       </c>
       <c r="D678" s="1" t="s">
-        <v>516</v>
+        <v>396</v>
       </c>
       <c r="E678" s="1" t="s">
-        <v>517</v>
+        <v>397</v>
       </c>
       <c r="F678" s="1" t="s">
-        <v>518</v>
+        <v>398</v>
       </c>
       <c r="G678" s="1"/>
     </row>
     <row r="679" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A679" s="1" t="s">
-        <v>1965</v>
+        <v>1935</v>
       </c>
       <c r="B679" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C679" s="1" t="s">
-        <v>519</v>
+        <v>399</v>
       </c>
       <c r="D679" s="1" t="s">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="E679" s="1" t="s">
-        <v>521</v>
+        <v>401</v>
       </c>
       <c r="F679" s="1" t="s">
-        <v>522</v>
+        <v>402</v>
       </c>
       <c r="G679" s="1"/>
     </row>
     <row r="680" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A680" s="1" t="s">
-        <v>1966</v>
+        <v>1936</v>
       </c>
       <c r="B680" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C680" s="1" t="s">
-        <v>523</v>
+        <v>403</v>
       </c>
       <c r="D680" s="1" t="s">
-        <v>524</v>
+        <v>404</v>
       </c>
       <c r="E680" s="1" t="s">
-        <v>525</v>
+        <v>405</v>
       </c>
       <c r="F680" s="1" t="s">
-        <v>526</v>
+        <v>406</v>
       </c>
       <c r="G680" s="1"/>
     </row>
     <row r="681" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A681" s="1" t="s">
-        <v>1967</v>
+        <v>1937</v>
       </c>
       <c r="B681" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C681" s="1" t="s">
-        <v>527</v>
+        <v>407</v>
       </c>
       <c r="D681" s="1" t="s">
-        <v>528</v>
+        <v>408</v>
       </c>
       <c r="E681" s="1" t="s">
-        <v>529</v>
+        <v>409</v>
       </c>
       <c r="F681" s="1" t="s">
-        <v>530</v>
+        <v>410</v>
       </c>
       <c r="G681" s="1"/>
     </row>
     <row r="682" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A682" s="1" t="s">
-        <v>1968</v>
+        <v>1938</v>
       </c>
       <c r="B682" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C682" s="1" t="s">
-        <v>531</v>
+        <v>411</v>
       </c>
       <c r="D682" s="1" t="s">
-        <v>532</v>
+        <v>412</v>
       </c>
       <c r="E682" s="1" t="s">
-        <v>533</v>
+        <v>413</v>
       </c>
       <c r="F682" s="1" t="s">
-        <v>534</v>
+        <v>414</v>
       </c>
       <c r="G682" s="1"/>
     </row>
     <row r="683" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A683" s="1" t="s">
-        <v>1969</v>
+        <v>1939</v>
       </c>
       <c r="B683" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C683" s="1" t="s">
-        <v>535</v>
+        <v>415</v>
       </c>
       <c r="D683" s="1" t="s">
-        <v>536</v>
+        <v>416</v>
       </c>
       <c r="E683" s="1" t="s">
-        <v>537</v>
+        <v>417</v>
       </c>
       <c r="F683" s="1" t="s">
-        <v>538</v>
+        <v>418</v>
       </c>
       <c r="G683" s="1"/>
     </row>
     <row r="684" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A684" s="1" t="s">
-        <v>1970</v>
+        <v>1940</v>
       </c>
       <c r="B684" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C684" s="1" t="s">
-        <v>539</v>
+        <v>419</v>
       </c>
       <c r="D684" s="1" t="s">
-        <v>540</v>
+        <v>420</v>
       </c>
       <c r="E684" s="1" t="s">
-        <v>541</v>
+        <v>421</v>
       </c>
       <c r="F684" s="1" t="s">
-        <v>542</v>
+        <v>422</v>
       </c>
       <c r="G684" s="1"/>
     </row>
     <row r="685" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A685" s="1" t="s">
-        <v>1971</v>
+        <v>1941</v>
       </c>
       <c r="B685" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C685" s="1" t="s">
-        <v>543</v>
+        <v>423</v>
       </c>
       <c r="D685" s="1" t="s">
-        <v>544</v>
+        <v>424</v>
       </c>
       <c r="E685" s="1" t="s">
-        <v>545</v>
+        <v>425</v>
       </c>
       <c r="F685" s="1" t="s">
-        <v>546</v>
+        <v>426</v>
       </c>
       <c r="G685" s="1"/>
     </row>
     <row r="686" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A686" s="1" t="s">
-        <v>1972</v>
+        <v>1942</v>
       </c>
       <c r="B686" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C686" s="1" t="s">
-        <v>547</v>
+        <v>427</v>
       </c>
       <c r="D686" s="1" t="s">
-        <v>548</v>
+        <v>428</v>
       </c>
       <c r="E686" s="1" t="s">
-        <v>549</v>
+        <v>429</v>
       </c>
       <c r="F686" s="1" t="s">
-        <v>550</v>
+        <v>430</v>
       </c>
       <c r="G686" s="1"/>
     </row>
     <row r="687" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A687" s="1" t="s">
-        <v>1973</v>
+        <v>1943</v>
       </c>
       <c r="B687" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C687" s="1" t="s">
-        <v>551</v>
+        <v>431</v>
       </c>
       <c r="D687" s="1" t="s">
-        <v>552</v>
+        <v>432</v>
       </c>
       <c r="E687" s="1" t="s">
-        <v>553</v>
+        <v>433</v>
       </c>
       <c r="F687" s="1" t="s">
-        <v>554</v>
+        <v>434</v>
       </c>
       <c r="G687" s="1"/>
     </row>
     <row r="688" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A688" s="1" t="s">
-        <v>1974</v>
+        <v>1944</v>
       </c>
       <c r="B688" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C688" s="1" t="s">
-        <v>555</v>
+        <v>435</v>
       </c>
       <c r="D688" s="1" t="s">
-        <v>556</v>
+        <v>436</v>
       </c>
       <c r="E688" s="1" t="s">
-        <v>557</v>
+        <v>437</v>
       </c>
       <c r="F688" s="1" t="s">
-        <v>558</v>
+        <v>438</v>
       </c>
       <c r="G688" s="1"/>
     </row>
     <row r="689" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A689" s="1" t="s">
-        <v>1975</v>
+        <v>1945</v>
       </c>
       <c r="B689" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C689" s="1" t="s">
-        <v>559</v>
+        <v>439</v>
       </c>
       <c r="D689" s="1" t="s">
-        <v>560</v>
+        <v>440</v>
       </c>
       <c r="E689" s="1" t="s">
-        <v>561</v>
+        <v>441</v>
       </c>
       <c r="F689" s="1" t="s">
-        <v>562</v>
+        <v>442</v>
       </c>
       <c r="G689" s="1"/>
     </row>
     <row r="690" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A690" s="1" t="s">
-        <v>1976</v>
+        <v>1946</v>
       </c>
       <c r="B690" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C690" s="1" t="s">
-        <v>563</v>
+        <v>443</v>
       </c>
       <c r="D690" s="1" t="s">
-        <v>564</v>
+        <v>444</v>
       </c>
       <c r="E690" s="1" t="s">
-        <v>565</v>
+        <v>445</v>
       </c>
       <c r="F690" s="1" t="s">
-        <v>566</v>
+        <v>446</v>
       </c>
       <c r="G690" s="1"/>
     </row>
     <row r="691" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A691" s="1" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B691" s="1">
+        <v>29</v>
+      </c>
+      <c r="C691" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D691" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E691" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F691" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="G691" s="1"/>
+    </row>
+    <row r="692" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A692" s="1" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B692" s="1">
+        <v>30</v>
+      </c>
+      <c r="C692" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D692" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E692" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F692" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="G692" s="1"/>
+    </row>
+    <row r="693" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A693" s="1" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B693" s="1">
+        <v>30</v>
+      </c>
+      <c r="C693" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D693" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E693" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F693" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="G693" s="1"/>
+    </row>
+    <row r="694" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A694" s="1" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B694" s="1">
+        <v>30</v>
+      </c>
+      <c r="C694" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D694" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E694" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F694" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="G694" s="1"/>
+    </row>
+    <row r="695" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A695" s="1" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B695" s="1">
+        <v>30</v>
+      </c>
+      <c r="C695" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D695" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E695" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F695" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="G695" s="1"/>
+    </row>
+    <row r="696" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A696" s="1" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B696" s="1">
+        <v>30</v>
+      </c>
+      <c r="C696" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D696" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E696" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F696" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G696" s="1"/>
+    </row>
+    <row r="697" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A697" s="1" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B697" s="1">
+        <v>30</v>
+      </c>
+      <c r="C697" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D697" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E697" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F697" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G697" s="1"/>
+    </row>
+    <row r="698" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A698" s="1" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B698" s="1">
+        <v>30</v>
+      </c>
+      <c r="C698" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D698" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E698" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F698" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="G698" s="1"/>
+    </row>
+    <row r="699" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A699" s="1" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B699" s="1">
+        <v>30</v>
+      </c>
+      <c r="C699" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D699" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E699" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F699" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="G699" s="1"/>
+    </row>
+    <row r="700" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A700" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B700" s="1">
+        <v>30</v>
+      </c>
+      <c r="C700" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D700" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E700" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F700" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G700" s="1"/>
+    </row>
+    <row r="701" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A701" s="1" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B701" s="1">
+        <v>30</v>
+      </c>
+      <c r="C701" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D701" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E701" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F701" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G701" s="1"/>
+    </row>
+    <row r="702" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A702" s="1" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B702" s="1">
+        <v>30</v>
+      </c>
+      <c r="C702" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D702" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E702" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F702" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="G702" s="1"/>
+    </row>
+    <row r="703" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A703" s="1" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B703" s="1">
+        <v>30</v>
+      </c>
+      <c r="C703" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D703" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E703" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F703" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="G703" s="1"/>
+    </row>
+    <row r="704" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A704" s="1" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B704" s="1">
+        <v>30</v>
+      </c>
+      <c r="C704" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D704" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="E704" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F704" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="G704" s="1"/>
+    </row>
+    <row r="705" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A705" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B705" s="1">
+        <v>30</v>
+      </c>
+      <c r="C705" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D705" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E705" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F705" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G705" s="1"/>
+    </row>
+    <row r="706" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A706" s="1" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B706" s="1">
+        <v>30</v>
+      </c>
+      <c r="C706" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D706" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="E706" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F706" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="G706" s="1"/>
+    </row>
+    <row r="707" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A707" s="1" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B707" s="1">
+        <v>30</v>
+      </c>
+      <c r="C707" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D707" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E707" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F707" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="G707" s="1"/>
+    </row>
+    <row r="708" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A708" s="1" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B708" s="1">
+        <v>30</v>
+      </c>
+      <c r="C708" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D708" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E708" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="F708" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="G708" s="1"/>
+    </row>
+    <row r="709" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A709" s="1" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B709" s="1">
+        <v>30</v>
+      </c>
+      <c r="C709" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D709" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E709" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F709" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G709" s="1"/>
+    </row>
+    <row r="710" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A710" s="1" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B710" s="1">
+        <v>30</v>
+      </c>
+      <c r="C710" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D710" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E710" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="F710" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="G710" s="1"/>
+    </row>
+    <row r="711" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A711" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B711" s="1">
+        <v>30</v>
+      </c>
+      <c r="C711" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D711" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E711" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F711" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="G711" s="1"/>
+    </row>
+    <row r="712" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A712" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B712" s="1">
+        <v>30</v>
+      </c>
+      <c r="C712" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D712" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E712" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F712" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="G712" s="1"/>
+    </row>
+    <row r="713" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A713" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B713" s="1">
+        <v>30</v>
+      </c>
+      <c r="C713" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D713" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="E713" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F713" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="G713" s="1"/>
+    </row>
+    <row r="714" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A714" s="1" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B714" s="1">
+        <v>30</v>
+      </c>
+      <c r="C714" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D714" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E714" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="F714" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="G714" s="1"/>
+    </row>
+    <row r="715" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A715" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B715" s="1">
+        <v>30</v>
+      </c>
+      <c r="C715" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D715" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="E715" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F715" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="G715" s="1"/>
+    </row>
+    <row r="716" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A716" s="1" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B716" s="1">
+        <v>30</v>
+      </c>
+      <c r="C716" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D716" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E716" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F716" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="G716" s="1"/>
+    </row>
+    <row r="717" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A717" s="1" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B717" s="1">
+        <v>30</v>
+      </c>
+      <c r="C717" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D717" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E717" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F717" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="G717" s="1"/>
+    </row>
+    <row r="718" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A718" s="1" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B718" s="1">
+        <v>30</v>
+      </c>
+      <c r="C718" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D718" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E718" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F718" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="G718" s="1"/>
+    </row>
+    <row r="719" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A719" s="1" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B719" s="1">
+        <v>30</v>
+      </c>
+      <c r="C719" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D719" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E719" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F719" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="G719" s="1"/>
+    </row>
+    <row r="720" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A720" s="1" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B720" s="1">
+        <v>30</v>
+      </c>
+      <c r="C720" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D720" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E720" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F720" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="G720" s="1"/>
+    </row>
+    <row r="721" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A721" s="1" t="s">
         <v>1977</v>
       </c>
-      <c r="B691" s="1">
+      <c r="B721" s="1">
         <v>30</v>
       </c>
-      <c r="C691" s="1" t="s">
+      <c r="C721" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D691" s="1" t="s">
+      <c r="D721" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="E691" s="1" t="s">
+      <c r="E721" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="F691" s="1" t="s">
+      <c r="F721" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="G691" s="1"/>
+      <c r="G721" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/data/WordStudy.xlsx
+++ b/data/WordStudy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dom/Documents/Dom/english-app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325A2FA3-9896-1F4E-8FD5-E9366BB0263A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABE59DE-0608-2841-802E-2468AACDC97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49160" yWindow="2640" windowWidth="34240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51300" yWindow="560" windowWidth="34240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4174" uniqueCount="3555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4354" uniqueCount="3704">
   <si>
     <t>ID</t>
   </si>
@@ -10695,6 +10695,453 @@
   </si>
   <si>
     <t>dangerous for somebody</t>
+  </si>
+  <si>
+    <t>U20_01</t>
+  </si>
+  <si>
+    <t>U20_02</t>
+  </si>
+  <si>
+    <t>U20_03</t>
+  </si>
+  <si>
+    <t>U20_04</t>
+  </si>
+  <si>
+    <t>U20_05</t>
+  </si>
+  <si>
+    <t>U20_06</t>
+  </si>
+  <si>
+    <t>U20_07</t>
+  </si>
+  <si>
+    <t>U20_08</t>
+  </si>
+  <si>
+    <t>U20_09</t>
+  </si>
+  <si>
+    <t>U20_10</t>
+  </si>
+  <si>
+    <t>U20_11</t>
+  </si>
+  <si>
+    <t>U20_12</t>
+  </si>
+  <si>
+    <t>U20_13</t>
+  </si>
+  <si>
+    <t>U20_14</t>
+  </si>
+  <si>
+    <t>U20_15</t>
+  </si>
+  <si>
+    <t>U20_16</t>
+  </si>
+  <si>
+    <t>U20_17</t>
+  </si>
+  <si>
+    <t>U20_18</t>
+  </si>
+  <si>
+    <t>U20_19</t>
+  </si>
+  <si>
+    <t>U20_20</t>
+  </si>
+  <si>
+    <t>U20_21</t>
+  </si>
+  <si>
+    <t>U20_22</t>
+  </si>
+  <si>
+    <t>U20_23</t>
+  </si>
+  <si>
+    <t>U20_24</t>
+  </si>
+  <si>
+    <t>U20_25</t>
+  </si>
+  <si>
+    <t>U20_26</t>
+  </si>
+  <si>
+    <t>U20_27</t>
+  </si>
+  <si>
+    <t>U20_28</t>
+  </si>
+  <si>
+    <t>U20_29</t>
+  </si>
+  <si>
+    <t>U20_30</t>
+  </si>
+  <si>
+    <t>Trạng thái khỏe khắn</t>
+  </si>
+  <si>
+    <t>Fitness</t>
+  </si>
+  <si>
+    <t>My fitness instructor has a nice body</t>
+  </si>
+  <si>
+    <t>fitness instructor / huấn luyện viên thể dục</t>
+  </si>
+  <si>
+    <t>Tập thể dục</t>
+  </si>
+  <si>
+    <t>Work out</t>
+  </si>
+  <si>
+    <t>I work out at the gym</t>
+  </si>
+  <si>
+    <t>work out at the gym</t>
+  </si>
+  <si>
+    <t>Khởi động</t>
+  </si>
+  <si>
+    <t>Warm up</t>
+  </si>
+  <si>
+    <t>I need to warm up before playing sports</t>
+  </si>
+  <si>
+    <t>Warm up before doing something</t>
+  </si>
+  <si>
+    <t>Sự xóa bóp</t>
+  </si>
+  <si>
+    <t>give me somebody a massge</t>
+  </si>
+  <si>
+    <t>He gives me a massage when my body is sore</t>
+  </si>
+  <si>
+    <t>Bảo vệ</t>
+  </si>
+  <si>
+    <t>Protect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Face mask protect us from many diseases </t>
+  </si>
+  <si>
+    <t>Protect somebody from something</t>
+  </si>
+  <si>
+    <t>Chấn thương</t>
+  </si>
+  <si>
+    <t>Injury</t>
+  </si>
+  <si>
+    <t>the footballer suffers serious injuries</t>
+  </si>
+  <si>
+    <t>a serious injury</t>
+  </si>
+  <si>
+    <t>Sự an toàn</t>
+  </si>
+  <si>
+    <t>Safety</t>
+  </si>
+  <si>
+    <t>Safety first is hung at every construction site</t>
+  </si>
+  <si>
+    <t>Safety first</t>
+  </si>
+  <si>
+    <t>Cổ</t>
+  </si>
+  <si>
+    <t>Neck</t>
+  </si>
+  <si>
+    <t>giraffes can eat leaves of tall trees thanks to their long necks</t>
+  </si>
+  <si>
+    <t>long neck</t>
+  </si>
+  <si>
+    <t>Đầu gối</t>
+  </si>
+  <si>
+    <t>Knee</t>
+  </si>
+  <si>
+    <t>She cannot bend her knee after the surgery</t>
+  </si>
+  <si>
+    <t>bend one's knee / khụy đầu gối</t>
+  </si>
+  <si>
+    <t>Giảm nhiệt</t>
+  </si>
+  <si>
+    <t>Cool down</t>
+  </si>
+  <si>
+    <t>Some iced tea can cool you down</t>
+  </si>
+  <si>
+    <t>cool down something</t>
+  </si>
+  <si>
+    <t>Cơn ho</t>
+  </si>
+  <si>
+    <t>Cough</t>
+  </si>
+  <si>
+    <t>He seems to have a bad cough</t>
+  </si>
+  <si>
+    <t>have a bad cough</t>
+  </si>
+  <si>
+    <t>Ankle</t>
+  </si>
+  <si>
+    <t>Mắc cá chân</t>
+  </si>
+  <si>
+    <t>She has an ankle injury from playing soccer</t>
+  </si>
+  <si>
+    <t>ankle injury</t>
+  </si>
+  <si>
+    <t>Vai</t>
+  </si>
+  <si>
+    <t>Shoulder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He injures his shoulder when playing basketball </t>
+  </si>
+  <si>
+    <t>injure one's shoulder</t>
+  </si>
+  <si>
+    <t>Cứng</t>
+  </si>
+  <si>
+    <t>Stiff</t>
+  </si>
+  <si>
+    <t>I've got a stiff neck</t>
+  </si>
+  <si>
+    <t>a stiff neck</t>
+  </si>
+  <si>
+    <t>Cổ tay</t>
+  </si>
+  <si>
+    <t>Wrist</t>
+  </si>
+  <si>
+    <t>I twist my wrist, and it hurts</t>
+  </si>
+  <si>
+    <t>twist one's wrist / trật cổ tay</t>
+  </si>
+  <si>
+    <t>Xương</t>
+  </si>
+  <si>
+    <t>bone</t>
+  </si>
+  <si>
+    <t>Any bone in your body can break</t>
+  </si>
+  <si>
+    <t>bone in your body</t>
+  </si>
+  <si>
+    <t>Bệnh ung thư</t>
+  </si>
+  <si>
+    <t>cancer</t>
+  </si>
+  <si>
+    <t>Lung cancer kills so many people each year</t>
+  </si>
+  <si>
+    <t>lung cancer / bệnh ung thư phổi</t>
+  </si>
+  <si>
+    <t>Sức khỏe</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>My grandparents are still in good health</t>
+  </si>
+  <si>
+    <t>in good health</t>
+  </si>
+  <si>
+    <t>Hồi phục</t>
+  </si>
+  <si>
+    <t>Recover</t>
+  </si>
+  <si>
+    <t>He finally recovers from the stroke</t>
+  </si>
+  <si>
+    <t>recover from something</t>
+  </si>
+  <si>
+    <t>Cách chữa bệnh</t>
+  </si>
+  <si>
+    <t>Cure</t>
+  </si>
+  <si>
+    <t>There's no cure for this disease</t>
+  </si>
+  <si>
+    <t>a cure for something</t>
+  </si>
+  <si>
+    <t>Uống cong, gập</t>
+  </si>
+  <si>
+    <t>Bend</t>
+  </si>
+  <si>
+    <t>The wind bends the flagpole</t>
+  </si>
+  <si>
+    <t>bend something</t>
+  </si>
+  <si>
+    <t>Nắm lấy, cầm lấy</t>
+  </si>
+  <si>
+    <t>Grab</t>
+  </si>
+  <si>
+    <t>He grabs the phone and throws it away</t>
+  </si>
+  <si>
+    <t>Grab something</t>
+  </si>
+  <si>
+    <t>Nâng</t>
+  </si>
+  <si>
+    <t>Lift</t>
+  </si>
+  <si>
+    <t>She lifts her dog up for examination</t>
+  </si>
+  <si>
+    <t>Lift somebody or something up</t>
+  </si>
+  <si>
+    <t>Rèn luyện</t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>I train my dog to stand up</t>
+  </si>
+  <si>
+    <t>train somebody or something</t>
+  </si>
+  <si>
+    <t>Thường xuyên</t>
+  </si>
+  <si>
+    <t>Frequent</t>
+  </si>
+  <si>
+    <t>He is a frequent visitor of our library</t>
+  </si>
+  <si>
+    <t>a frequent visitor</t>
+  </si>
+  <si>
+    <t>Duy trì</t>
+  </si>
+  <si>
+    <t>Maintain</t>
+  </si>
+  <si>
+    <t>It is hard to maintain a healthy diet</t>
+  </si>
+  <si>
+    <t>maintain something</t>
+  </si>
+  <si>
+    <t>Phương pháp</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Some people prefer traditional methods of treatment</t>
+  </si>
+  <si>
+    <t>traditional methods</t>
+  </si>
+  <si>
+    <t>Khuỷu tay</t>
+  </si>
+  <si>
+    <t>Elbow</t>
+  </si>
+  <si>
+    <t>Straighten your elbow when hitting a ball</t>
+  </si>
+  <si>
+    <t>straighten one's elbow</t>
+  </si>
+  <si>
+    <t>Não bộ</t>
+  </si>
+  <si>
+    <t>Brain</t>
+  </si>
+  <si>
+    <t>The human brian is very complex</t>
+  </si>
+  <si>
+    <t>human brian</t>
+  </si>
+  <si>
+    <t>Tăng lên</t>
+  </si>
+  <si>
+    <t>Gain</t>
+  </si>
+  <si>
+    <t>She gains weight during winter</t>
+  </si>
+  <si>
+    <t>gain something</t>
   </si>
 </sst>
 </file>
@@ -11059,10 +11506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G721"/>
+  <dimension ref="A1:G751"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B561" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G571" sqref="G571"/>
+    <sheetView tabSelected="1" topLeftCell="B588" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C602" sqref="C602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24210,649 +24657,709 @@
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
-        <v>1828</v>
+        <v>3555</v>
       </c>
       <c r="B572" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>6</v>
+        <v>3585</v>
       </c>
       <c r="D572" s="1" t="s">
-        <v>7</v>
+        <v>3586</v>
       </c>
       <c r="E572" s="1" t="s">
-        <v>8</v>
+        <v>3587</v>
       </c>
       <c r="F572" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G572" s="1"/>
+        <v>3588</v>
+      </c>
+      <c r="G572" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A573" s="1" t="s">
-        <v>1829</v>
+        <v>3556</v>
       </c>
       <c r="B573" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C573" s="1" t="s">
-        <v>10</v>
+        <v>3589</v>
       </c>
       <c r="D573" s="1" t="s">
-        <v>11</v>
+        <v>3590</v>
       </c>
       <c r="E573" s="1" t="s">
-        <v>12</v>
+        <v>3591</v>
       </c>
       <c r="F573" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G573" s="1"/>
+        <v>3592</v>
+      </c>
+      <c r="G573" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A574" s="1" t="s">
-        <v>1830</v>
+        <v>3557</v>
       </c>
       <c r="B574" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>13</v>
+        <v>3593</v>
       </c>
       <c r="D574" s="1" t="s">
-        <v>14</v>
+        <v>3594</v>
       </c>
       <c r="E574" s="1" t="s">
-        <v>15</v>
+        <v>3595</v>
       </c>
       <c r="F574" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G574" s="1"/>
+        <v>3596</v>
+      </c>
+      <c r="G574" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A575" s="1" t="s">
-        <v>1831</v>
+        <v>3558</v>
       </c>
       <c r="B575" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>16</v>
+        <v>3597</v>
       </c>
       <c r="D575" s="1" t="s">
-        <v>17</v>
+        <v>2308</v>
       </c>
       <c r="E575" s="1" t="s">
-        <v>18</v>
+        <v>3599</v>
       </c>
       <c r="F575" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G575" s="1"/>
+        <v>3598</v>
+      </c>
+      <c r="G575" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
-        <v>1832</v>
+        <v>3559</v>
       </c>
       <c r="B576" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>19</v>
+        <v>3600</v>
       </c>
       <c r="D576" s="1" t="s">
-        <v>20</v>
+        <v>3601</v>
       </c>
       <c r="E576" s="1" t="s">
-        <v>21</v>
+        <v>3602</v>
       </c>
       <c r="F576" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G576" s="1"/>
+        <v>3603</v>
+      </c>
+      <c r="G576" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A577" s="1" t="s">
-        <v>1833</v>
+        <v>3560</v>
       </c>
       <c r="B577" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>22</v>
+        <v>3604</v>
       </c>
       <c r="D577" s="1" t="s">
-        <v>23</v>
+        <v>3605</v>
       </c>
       <c r="E577" s="1" t="s">
-        <v>24</v>
+        <v>3606</v>
       </c>
       <c r="F577" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G577" s="1"/>
+        <v>3607</v>
+      </c>
+      <c r="G577" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="s">
-        <v>1834</v>
+        <v>3561</v>
       </c>
       <c r="B578" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>25</v>
+        <v>3608</v>
       </c>
       <c r="D578" s="1" t="s">
-        <v>26</v>
+        <v>3609</v>
       </c>
       <c r="E578" s="1" t="s">
-        <v>27</v>
+        <v>3610</v>
       </c>
       <c r="F578" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G578" s="1"/>
+        <v>3611</v>
+      </c>
+      <c r="G578" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A579" s="1" t="s">
-        <v>1835</v>
+        <v>3562</v>
       </c>
       <c r="B579" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>28</v>
+        <v>3612</v>
       </c>
       <c r="D579" s="1" t="s">
-        <v>29</v>
+        <v>3613</v>
       </c>
       <c r="E579" s="1" t="s">
-        <v>30</v>
+        <v>3614</v>
       </c>
       <c r="F579" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G579" s="1"/>
+        <v>3615</v>
+      </c>
+      <c r="G579" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A580" s="1" t="s">
-        <v>1836</v>
+        <v>3563</v>
       </c>
       <c r="B580" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>31</v>
+        <v>3616</v>
       </c>
       <c r="D580" s="1" t="s">
-        <v>32</v>
+        <v>3617</v>
       </c>
       <c r="E580" s="1" t="s">
-        <v>33</v>
+        <v>3618</v>
       </c>
       <c r="F580" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G580" s="1"/>
+        <v>3619</v>
+      </c>
+      <c r="G580" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A581" s="1" t="s">
-        <v>1837</v>
+        <v>3564</v>
       </c>
       <c r="B581" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C581" s="1" t="s">
-        <v>34</v>
+        <v>3620</v>
       </c>
       <c r="D581" s="1" t="s">
-        <v>35</v>
+        <v>3621</v>
       </c>
       <c r="E581" s="1" t="s">
-        <v>36</v>
+        <v>3622</v>
       </c>
       <c r="F581" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G581" s="1"/>
+        <v>3623</v>
+      </c>
+      <c r="G581" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A582" s="1" t="s">
-        <v>1838</v>
+        <v>3565</v>
       </c>
       <c r="B582" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>37</v>
+        <v>3624</v>
       </c>
       <c r="D582" s="1" t="s">
-        <v>38</v>
+        <v>3625</v>
       </c>
       <c r="E582" s="1" t="s">
-        <v>39</v>
+        <v>3626</v>
       </c>
       <c r="F582" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G582" s="1"/>
+        <v>3627</v>
+      </c>
+      <c r="G582" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A583" s="1" t="s">
-        <v>1839</v>
+        <v>3566</v>
       </c>
       <c r="B583" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>40</v>
+        <v>3629</v>
       </c>
       <c r="D583" s="1" t="s">
-        <v>41</v>
+        <v>3628</v>
       </c>
       <c r="E583" s="1" t="s">
-        <v>42</v>
+        <v>3630</v>
       </c>
       <c r="F583" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G583" s="1"/>
+        <v>3631</v>
+      </c>
+      <c r="G583" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A584" s="1" t="s">
-        <v>1840</v>
+        <v>3567</v>
       </c>
       <c r="B584" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>43</v>
+        <v>3632</v>
       </c>
       <c r="D584" s="1" t="s">
-        <v>44</v>
+        <v>3633</v>
       </c>
       <c r="E584" s="1" t="s">
-        <v>45</v>
+        <v>3634</v>
       </c>
       <c r="F584" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G584" s="1"/>
+        <v>3635</v>
+      </c>
+      <c r="G584" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A585" s="1" t="s">
-        <v>1841</v>
+        <v>3568</v>
       </c>
       <c r="B585" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C585" s="1" t="s">
-        <v>47</v>
+        <v>3636</v>
       </c>
       <c r="D585" s="1" t="s">
-        <v>48</v>
+        <v>3637</v>
       </c>
       <c r="E585" s="1" t="s">
-        <v>49</v>
+        <v>3638</v>
       </c>
       <c r="F585" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G585" s="1"/>
+        <v>3639</v>
+      </c>
+      <c r="G585" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A586" s="1" t="s">
-        <v>1842</v>
+        <v>3569</v>
       </c>
       <c r="B586" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>50</v>
+        <v>3640</v>
       </c>
       <c r="D586" s="1" t="s">
-        <v>51</v>
+        <v>3641</v>
       </c>
       <c r="E586" s="1" t="s">
-        <v>52</v>
+        <v>3642</v>
       </c>
       <c r="F586" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G586" s="1"/>
+        <v>3643</v>
+      </c>
+      <c r="G586" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A587" s="1" t="s">
-        <v>1843</v>
+        <v>3570</v>
       </c>
       <c r="B587" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>54</v>
+        <v>3644</v>
       </c>
       <c r="D587" s="1" t="s">
-        <v>55</v>
+        <v>3645</v>
       </c>
       <c r="E587" s="1" t="s">
-        <v>56</v>
+        <v>3646</v>
       </c>
       <c r="F587" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G587" s="1"/>
+        <v>3647</v>
+      </c>
+      <c r="G587" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A588" s="1" t="s">
-        <v>1844</v>
+        <v>3571</v>
       </c>
       <c r="B588" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>57</v>
+        <v>3648</v>
       </c>
       <c r="D588" s="1" t="s">
-        <v>58</v>
+        <v>3649</v>
       </c>
       <c r="E588" s="1" t="s">
-        <v>59</v>
+        <v>3650</v>
       </c>
       <c r="F588" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G588" s="1"/>
+        <v>3651</v>
+      </c>
+      <c r="G588" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A589" s="1" t="s">
-        <v>1845</v>
+        <v>3572</v>
       </c>
       <c r="B589" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C589" s="1" t="s">
-        <v>61</v>
+        <v>3652</v>
       </c>
       <c r="D589" s="1" t="s">
-        <v>62</v>
+        <v>3653</v>
       </c>
       <c r="E589" s="1" t="s">
-        <v>63</v>
+        <v>3654</v>
       </c>
       <c r="F589" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G589" s="1"/>
+        <v>3655</v>
+      </c>
+      <c r="G589" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
-        <v>1846</v>
+        <v>3573</v>
       </c>
       <c r="B590" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C590" s="1" t="s">
-        <v>64</v>
+        <v>3656</v>
       </c>
       <c r="D590" s="1" t="s">
-        <v>65</v>
+        <v>3657</v>
       </c>
       <c r="E590" s="1" t="s">
-        <v>66</v>
+        <v>3658</v>
       </c>
       <c r="F590" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G590" s="1"/>
+        <v>3659</v>
+      </c>
+      <c r="G590" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A591" s="1" t="s">
-        <v>1847</v>
+        <v>3574</v>
       </c>
       <c r="B591" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C591" s="1" t="s">
-        <v>67</v>
+        <v>3660</v>
       </c>
       <c r="D591" s="1" t="s">
-        <v>68</v>
+        <v>3661</v>
       </c>
       <c r="E591" s="1" t="s">
-        <v>69</v>
+        <v>3662</v>
       </c>
       <c r="F591" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G591" s="1"/>
+        <v>3663</v>
+      </c>
+      <c r="G591" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
-        <v>1848</v>
+        <v>3575</v>
       </c>
       <c r="B592" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C592" s="1" t="s">
-        <v>71</v>
+        <v>3664</v>
       </c>
       <c r="D592" s="1" t="s">
-        <v>72</v>
+        <v>3665</v>
       </c>
       <c r="E592" s="1" t="s">
-        <v>73</v>
+        <v>3666</v>
       </c>
       <c r="F592" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G592" s="1"/>
+        <v>3667</v>
+      </c>
+      <c r="G592" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A593" s="1" t="s">
-        <v>1849</v>
+        <v>3576</v>
       </c>
       <c r="B593" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C593" s="1" t="s">
-        <v>74</v>
+        <v>3668</v>
       </c>
       <c r="D593" s="1" t="s">
-        <v>75</v>
+        <v>3669</v>
       </c>
       <c r="E593" s="1" t="s">
-        <v>76</v>
+        <v>3670</v>
       </c>
       <c r="F593" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G593" s="1"/>
+        <v>3671</v>
+      </c>
+      <c r="G593" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
-        <v>1850</v>
+        <v>3577</v>
       </c>
       <c r="B594" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C594" s="1" t="s">
-        <v>77</v>
+        <v>3672</v>
       </c>
       <c r="D594" s="1" t="s">
-        <v>78</v>
+        <v>3673</v>
       </c>
       <c r="E594" s="1" t="s">
-        <v>79</v>
+        <v>3674</v>
       </c>
       <c r="F594" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G594" s="1"/>
+        <v>3675</v>
+      </c>
+      <c r="G594" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
-        <v>1851</v>
+        <v>3578</v>
       </c>
       <c r="B595" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C595" s="1" t="s">
-        <v>80</v>
+        <v>3676</v>
       </c>
       <c r="D595" s="1" t="s">
-        <v>81</v>
+        <v>3677</v>
       </c>
       <c r="E595" s="1" t="s">
-        <v>82</v>
+        <v>3678</v>
       </c>
       <c r="F595" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G595" s="1"/>
+        <v>3679</v>
+      </c>
+      <c r="G595" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
-        <v>1852</v>
+        <v>3579</v>
       </c>
       <c r="B596" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C596" s="1" t="s">
-        <v>83</v>
+        <v>3680</v>
       </c>
       <c r="D596" s="1" t="s">
-        <v>84</v>
+        <v>3681</v>
       </c>
       <c r="E596" s="1" t="s">
-        <v>85</v>
+        <v>3682</v>
       </c>
       <c r="F596" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G596" s="1"/>
+        <v>3683</v>
+      </c>
+      <c r="G596" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
-        <v>1853</v>
+        <v>3580</v>
       </c>
       <c r="B597" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C597" s="1" t="s">
-        <v>86</v>
+        <v>3684</v>
       </c>
       <c r="D597" s="1" t="s">
-        <v>87</v>
+        <v>3685</v>
       </c>
       <c r="E597" s="1" t="s">
-        <v>88</v>
+        <v>3686</v>
       </c>
       <c r="F597" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G597" s="1"/>
+        <v>3687</v>
+      </c>
+      <c r="G597" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="598" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
-        <v>1854</v>
+        <v>3581</v>
       </c>
       <c r="B598" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C598" s="1" t="s">
-        <v>90</v>
+        <v>3688</v>
       </c>
       <c r="D598" s="1" t="s">
-        <v>91</v>
+        <v>3689</v>
       </c>
       <c r="E598" s="1" t="s">
-        <v>92</v>
+        <v>3690</v>
       </c>
       <c r="F598" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G598" s="1"/>
+        <v>3691</v>
+      </c>
+      <c r="G598" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A599" s="1" t="s">
-        <v>1855</v>
+        <v>3582</v>
       </c>
       <c r="B599" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C599" s="1" t="s">
-        <v>94</v>
+        <v>3692</v>
       </c>
       <c r="D599" s="1" t="s">
-        <v>95</v>
+        <v>3693</v>
       </c>
       <c r="E599" s="1" t="s">
-        <v>96</v>
+        <v>3694</v>
       </c>
       <c r="F599" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G599" s="1"/>
+        <v>3695</v>
+      </c>
+      <c r="G599" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
-        <v>1856</v>
+        <v>3583</v>
       </c>
       <c r="B600" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C600" s="1" t="s">
-        <v>97</v>
+        <v>3696</v>
       </c>
       <c r="D600" s="1" t="s">
-        <v>98</v>
+        <v>3697</v>
       </c>
       <c r="E600" s="1" t="s">
-        <v>99</v>
+        <v>3698</v>
       </c>
       <c r="F600" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G600" s="1"/>
+        <v>3699</v>
+      </c>
+      <c r="G600" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="601" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A601" s="1" t="s">
-        <v>1857</v>
+        <v>3584</v>
       </c>
       <c r="B601" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C601" s="1" t="s">
-        <v>100</v>
+        <v>3700</v>
       </c>
       <c r="D601" s="1" t="s">
-        <v>101</v>
+        <v>3701</v>
       </c>
       <c r="E601" s="1" t="s">
-        <v>102</v>
+        <v>3702</v>
       </c>
       <c r="F601" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G601" s="1"/>
+        <v>3703</v>
+      </c>
+      <c r="G601" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="602" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
-        <v>1858</v>
+        <v>1828</v>
       </c>
       <c r="B602" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C602" s="1" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="D602" s="1" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="E602" s="1" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="F602" s="1" t="s">
         <v>9</v>
@@ -24861,19 +25368,19 @@
     </row>
     <row r="603" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
-        <v>1859</v>
+        <v>1829</v>
       </c>
       <c r="B603" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C603" s="1" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="D603" s="1" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="E603" s="1" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="F603" s="1" t="s">
         <v>9</v>
@@ -24882,19 +25389,19 @@
     </row>
     <row r="604" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
-        <v>1860</v>
+        <v>1830</v>
       </c>
       <c r="B604" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C604" s="1" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="D604" s="1" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="E604" s="1" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="F604" s="1" t="s">
         <v>9</v>
@@ -24903,19 +25410,19 @@
     </row>
     <row r="605" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A605" s="1" t="s">
-        <v>1861</v>
+        <v>1831</v>
       </c>
       <c r="B605" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C605" s="1" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="D605" s="1" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="E605" s="1" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="F605" s="1" t="s">
         <v>9</v>
@@ -24924,19 +25431,19 @@
     </row>
     <row r="606" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A606" s="1" t="s">
-        <v>1862</v>
+        <v>1832</v>
       </c>
       <c r="B606" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C606" s="1" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="D606" s="1" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="E606" s="1" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="F606" s="1" t="s">
         <v>9</v>
@@ -24945,19 +25452,19 @@
     </row>
     <row r="607" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A607" s="1" t="s">
-        <v>1863</v>
+        <v>1833</v>
       </c>
       <c r="B607" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C607" s="1" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="D607" s="1" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="E607" s="1" t="s">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="F607" s="1" t="s">
         <v>9</v>
@@ -24966,61 +25473,61 @@
     </row>
     <row r="608" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A608" s="1" t="s">
-        <v>1864</v>
+        <v>1834</v>
       </c>
       <c r="B608" s="1">
+        <v>26</v>
+      </c>
+      <c r="C608" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D608" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E608" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C608" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D608" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E608" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="F608" s="1" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="G608" s="1"/>
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A609" s="1" t="s">
-        <v>1865</v>
+        <v>1835</v>
       </c>
       <c r="B609" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C609" s="1" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="D609" s="1" t="s">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="E609" s="1" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="F609" s="1" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="G609" s="1"/>
     </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
-        <v>1866</v>
+        <v>1836</v>
       </c>
       <c r="B610" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C610" s="1" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="D610" s="1" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="E610" s="1" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="F610" s="1" t="s">
         <v>9</v>
@@ -25029,2328 +25536,2958 @@
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A611" s="1" t="s">
-        <v>1867</v>
+        <v>1837</v>
       </c>
       <c r="B611" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C611" s="1" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="D611" s="1" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="E611" s="1" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="F611" s="1" t="s">
-        <v>135</v>
+        <v>9</v>
       </c>
       <c r="G611" s="1"/>
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A612" s="1" t="s">
-        <v>1868</v>
+        <v>1838</v>
       </c>
       <c r="B612" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C612" s="1" t="s">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="D612" s="1" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="E612" s="1" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="F612" s="1" t="s">
-        <v>139</v>
+        <v>9</v>
       </c>
       <c r="G612" s="1"/>
     </row>
     <row r="613" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A613" s="1" t="s">
-        <v>1869</v>
+        <v>1839</v>
       </c>
       <c r="B613" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C613" s="1" t="s">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D613" s="1" t="s">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="E613" s="1" t="s">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="F613" s="1" t="s">
-        <v>143</v>
+        <v>9</v>
       </c>
       <c r="G613" s="1"/>
     </row>
     <row r="614" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A614" s="1" t="s">
-        <v>1870</v>
+        <v>1840</v>
       </c>
       <c r="B614" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C614" s="1" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="D614" s="1" t="s">
-        <v>145</v>
+        <v>44</v>
       </c>
       <c r="E614" s="1" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="F614" s="1" t="s">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="G614" s="1"/>
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A615" s="1" t="s">
-        <v>1871</v>
+        <v>1841</v>
       </c>
       <c r="B615" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C615" s="1" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="D615" s="1" t="s">
-        <v>149</v>
+        <v>48</v>
       </c>
       <c r="E615" s="1" t="s">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="F615" s="1" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="G615" s="1"/>
     </row>
     <row r="616" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A616" s="1" t="s">
-        <v>1872</v>
+        <v>1842</v>
       </c>
       <c r="B616" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C616" s="1" t="s">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="D616" s="1" t="s">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="E616" s="1" t="s">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c r="F616" s="1" t="s">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="G616" s="1"/>
     </row>
     <row r="617" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A617" s="1" t="s">
-        <v>1873</v>
+        <v>1843</v>
       </c>
       <c r="B617" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C617" s="1" t="s">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="D617" s="1" t="s">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c r="E617" s="1" t="s">
-        <v>158</v>
+        <v>56</v>
       </c>
       <c r="F617" s="1" t="s">
-        <v>159</v>
+        <v>9</v>
       </c>
       <c r="G617" s="1"/>
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A618" s="1" t="s">
-        <v>1874</v>
+        <v>1844</v>
       </c>
       <c r="B618" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C618" s="1" t="s">
-        <v>160</v>
+        <v>57</v>
       </c>
       <c r="D618" s="1" t="s">
-        <v>161</v>
+        <v>58</v>
       </c>
       <c r="E618" s="1" t="s">
-        <v>162</v>
+        <v>59</v>
       </c>
       <c r="F618" s="1" t="s">
-        <v>163</v>
+        <v>60</v>
       </c>
       <c r="G618" s="1"/>
     </row>
     <row r="619" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A619" s="1" t="s">
-        <v>1875</v>
+        <v>1845</v>
       </c>
       <c r="B619" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C619" s="1" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
       <c r="D619" s="1" t="s">
-        <v>165</v>
+        <v>62</v>
       </c>
       <c r="E619" s="1" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="F619" s="1" t="s">
-        <v>167</v>
+        <v>9</v>
       </c>
       <c r="G619" s="1"/>
     </row>
     <row r="620" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A620" s="1" t="s">
-        <v>1876</v>
+        <v>1846</v>
       </c>
       <c r="B620" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C620" s="1" t="s">
-        <v>168</v>
+        <v>64</v>
       </c>
       <c r="D620" s="1" t="s">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="E620" s="1" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="F620" s="1" t="s">
-        <v>171</v>
+        <v>9</v>
       </c>
       <c r="G620" s="1"/>
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A621" s="1" t="s">
-        <v>1877</v>
+        <v>1847</v>
       </c>
       <c r="B621" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C621" s="1" t="s">
-        <v>172</v>
+        <v>67</v>
       </c>
       <c r="D621" s="1" t="s">
-        <v>173</v>
+        <v>68</v>
       </c>
       <c r="E621" s="1" t="s">
-        <v>174</v>
+        <v>69</v>
       </c>
       <c r="F621" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="G621" s="1"/>
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A622" s="1" t="s">
-        <v>1878</v>
+        <v>1848</v>
       </c>
       <c r="B622" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C622" s="1" t="s">
-        <v>176</v>
+        <v>71</v>
       </c>
       <c r="D622" s="1" t="s">
-        <v>177</v>
+        <v>72</v>
       </c>
       <c r="E622" s="1" t="s">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="F622" s="1" t="s">
-        <v>179</v>
+        <v>9</v>
       </c>
       <c r="G622" s="1"/>
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A623" s="1" t="s">
-        <v>1879</v>
+        <v>1849</v>
       </c>
       <c r="B623" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C623" s="1" t="s">
-        <v>180</v>
+        <v>74</v>
       </c>
       <c r="D623" s="1" t="s">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="E623" s="1" t="s">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="F623" s="1" t="s">
-        <v>183</v>
+        <v>9</v>
       </c>
       <c r="G623" s="1"/>
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A624" s="1" t="s">
-        <v>1880</v>
+        <v>1850</v>
       </c>
       <c r="B624" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C624" s="1" t="s">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="D624" s="1" t="s">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="E624" s="1" t="s">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="F624" s="1" t="s">
-        <v>187</v>
+        <v>9</v>
       </c>
       <c r="G624" s="1"/>
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A625" s="1" t="s">
-        <v>1881</v>
+        <v>1851</v>
       </c>
       <c r="B625" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C625" s="1" t="s">
-        <v>188</v>
+        <v>80</v>
       </c>
       <c r="D625" s="1" t="s">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="E625" s="1" t="s">
-        <v>190</v>
+        <v>82</v>
       </c>
       <c r="F625" s="1" t="s">
-        <v>191</v>
+        <v>9</v>
       </c>
       <c r="G625" s="1"/>
     </row>
     <row r="626" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A626" s="1" t="s">
-        <v>1882</v>
+        <v>1852</v>
       </c>
       <c r="B626" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C626" s="1" t="s">
-        <v>192</v>
+        <v>83</v>
       </c>
       <c r="D626" s="1" t="s">
-        <v>193</v>
+        <v>84</v>
       </c>
       <c r="E626" s="1" t="s">
-        <v>194</v>
+        <v>85</v>
       </c>
       <c r="F626" s="1" t="s">
-        <v>195</v>
+        <v>9</v>
       </c>
       <c r="G626" s="1"/>
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A627" s="1" t="s">
-        <v>1883</v>
+        <v>1853</v>
       </c>
       <c r="B627" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C627" s="1" t="s">
-        <v>196</v>
+        <v>86</v>
       </c>
       <c r="D627" s="1" t="s">
-        <v>197</v>
+        <v>87</v>
       </c>
       <c r="E627" s="1" t="s">
-        <v>198</v>
+        <v>88</v>
       </c>
       <c r="F627" s="1" t="s">
-        <v>199</v>
+        <v>89</v>
       </c>
       <c r="G627" s="1"/>
     </row>
     <row r="628" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A628" s="1" t="s">
-        <v>1884</v>
+        <v>1854</v>
       </c>
       <c r="B628" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C628" s="1" t="s">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="D628" s="1" t="s">
-        <v>201</v>
+        <v>91</v>
       </c>
       <c r="E628" s="1" t="s">
-        <v>202</v>
+        <v>92</v>
       </c>
       <c r="F628" s="1" t="s">
-        <v>203</v>
+        <v>93</v>
       </c>
       <c r="G628" s="1"/>
     </row>
     <row r="629" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A629" s="1" t="s">
-        <v>1885</v>
+        <v>1855</v>
       </c>
       <c r="B629" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C629" s="1" t="s">
-        <v>204</v>
+        <v>94</v>
       </c>
       <c r="D629" s="1" t="s">
-        <v>205</v>
+        <v>95</v>
       </c>
       <c r="E629" s="1" t="s">
-        <v>206</v>
+        <v>96</v>
       </c>
       <c r="F629" s="1" t="s">
-        <v>207</v>
+        <v>9</v>
       </c>
       <c r="G629" s="1"/>
     </row>
     <row r="630" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A630" s="1" t="s">
-        <v>1886</v>
+        <v>1856</v>
       </c>
       <c r="B630" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C630" s="1" t="s">
-        <v>204</v>
+        <v>97</v>
       </c>
       <c r="D630" s="1" t="s">
-        <v>208</v>
+        <v>98</v>
       </c>
       <c r="E630" s="1" t="s">
-        <v>209</v>
+        <v>99</v>
       </c>
       <c r="F630" s="1" t="s">
-        <v>210</v>
+        <v>9</v>
       </c>
       <c r="G630" s="1"/>
     </row>
     <row r="631" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A631" s="1" t="s">
-        <v>1887</v>
+        <v>1857</v>
       </c>
       <c r="B631" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C631" s="1" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="D631" s="1" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
       <c r="E631" s="1" t="s">
-        <v>213</v>
+        <v>102</v>
       </c>
       <c r="F631" s="1" t="s">
-        <v>214</v>
+        <v>9</v>
       </c>
       <c r="G631" s="1"/>
     </row>
     <row r="632" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A632" s="1" t="s">
-        <v>1888</v>
+        <v>1858</v>
       </c>
       <c r="B632" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C632" s="1" t="s">
-        <v>215</v>
+        <v>103</v>
       </c>
       <c r="D632" s="1" t="s">
-        <v>216</v>
+        <v>104</v>
       </c>
       <c r="E632" s="1" t="s">
-        <v>217</v>
+        <v>105</v>
       </c>
       <c r="F632" s="1" t="s">
-        <v>218</v>
+        <v>9</v>
       </c>
       <c r="G632" s="1"/>
     </row>
     <row r="633" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A633" s="1" t="s">
-        <v>1889</v>
+        <v>1859</v>
       </c>
       <c r="B633" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C633" s="1" t="s">
-        <v>219</v>
+        <v>106</v>
       </c>
       <c r="D633" s="1" t="s">
-        <v>220</v>
+        <v>107</v>
       </c>
       <c r="E633" s="1" t="s">
-        <v>221</v>
+        <v>108</v>
       </c>
       <c r="F633" s="1" t="s">
-        <v>222</v>
+        <v>9</v>
       </c>
       <c r="G633" s="1"/>
     </row>
     <row r="634" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A634" s="1" t="s">
-        <v>1890</v>
+        <v>1860</v>
       </c>
       <c r="B634" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C634" s="1" t="s">
-        <v>223</v>
+        <v>109</v>
       </c>
       <c r="D634" s="1" t="s">
-        <v>224</v>
+        <v>110</v>
       </c>
       <c r="E634" s="1" t="s">
-        <v>225</v>
+        <v>111</v>
       </c>
       <c r="F634" s="1" t="s">
-        <v>226</v>
+        <v>9</v>
       </c>
       <c r="G634" s="1"/>
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A635" s="1" t="s">
-        <v>1891</v>
+        <v>1861</v>
       </c>
       <c r="B635" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C635" s="1" t="s">
-        <v>227</v>
+        <v>112</v>
       </c>
       <c r="D635" s="1" t="s">
-        <v>228</v>
+        <v>113</v>
       </c>
       <c r="E635" s="1" t="s">
-        <v>229</v>
+        <v>114</v>
       </c>
       <c r="F635" s="1" t="s">
-        <v>230</v>
+        <v>9</v>
       </c>
       <c r="G635" s="1"/>
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A636" s="1" t="s">
-        <v>1892</v>
+        <v>1862</v>
       </c>
       <c r="B636" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C636" s="1" t="s">
-        <v>231</v>
+        <v>115</v>
       </c>
       <c r="D636" s="1" t="s">
-        <v>232</v>
+        <v>116</v>
       </c>
       <c r="E636" s="1" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="F636" s="1" t="s">
-        <v>234</v>
+        <v>9</v>
       </c>
       <c r="G636" s="1"/>
     </row>
     <row r="637" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A637" s="1" t="s">
-        <v>1893</v>
+        <v>1863</v>
       </c>
       <c r="B637" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C637" s="1" t="s">
-        <v>235</v>
+        <v>118</v>
       </c>
       <c r="D637" s="1" t="s">
-        <v>236</v>
+        <v>119</v>
       </c>
       <c r="E637" s="1" t="s">
-        <v>237</v>
+        <v>120</v>
       </c>
       <c r="F637" s="1" t="s">
-        <v>238</v>
+        <v>9</v>
       </c>
       <c r="G637" s="1"/>
     </row>
     <row r="638" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A638" s="1" t="s">
-        <v>1894</v>
+        <v>1864</v>
       </c>
       <c r="B638" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C638" s="1" t="s">
-        <v>239</v>
+        <v>121</v>
       </c>
       <c r="D638" s="1" t="s">
-        <v>240</v>
+        <v>122</v>
       </c>
       <c r="E638" s="1" t="s">
-        <v>241</v>
+        <v>123</v>
       </c>
       <c r="F638" s="1" t="s">
-        <v>242</v>
+        <v>124</v>
       </c>
       <c r="G638" s="1"/>
     </row>
     <row r="639" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A639" s="1" t="s">
-        <v>1895</v>
+        <v>1865</v>
       </c>
       <c r="B639" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C639" s="1" t="s">
-        <v>243</v>
+        <v>125</v>
       </c>
       <c r="D639" s="1" t="s">
-        <v>244</v>
+        <v>126</v>
       </c>
       <c r="E639" s="1" t="s">
-        <v>245</v>
+        <v>127</v>
       </c>
       <c r="F639" s="1" t="s">
-        <v>246</v>
+        <v>128</v>
       </c>
       <c r="G639" s="1"/>
     </row>
     <row r="640" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A640" s="1" t="s">
-        <v>1896</v>
+        <v>1866</v>
       </c>
       <c r="B640" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C640" s="1" t="s">
-        <v>247</v>
+        <v>129</v>
       </c>
       <c r="D640" s="1" t="s">
-        <v>248</v>
+        <v>130</v>
       </c>
       <c r="E640" s="1" t="s">
-        <v>249</v>
+        <v>131</v>
       </c>
       <c r="F640" s="1" t="s">
-        <v>250</v>
+        <v>9</v>
       </c>
       <c r="G640" s="1"/>
     </row>
     <row r="641" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A641" s="1" t="s">
-        <v>1897</v>
+        <v>1867</v>
       </c>
       <c r="B641" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C641" s="1" t="s">
-        <v>251</v>
+        <v>132</v>
       </c>
       <c r="D641" s="1" t="s">
-        <v>252</v>
+        <v>133</v>
       </c>
       <c r="E641" s="1" t="s">
-        <v>253</v>
+        <v>134</v>
       </c>
       <c r="F641" s="1" t="s">
-        <v>254</v>
+        <v>135</v>
       </c>
       <c r="G641" s="1"/>
     </row>
     <row r="642" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A642" s="1" t="s">
-        <v>1898</v>
+        <v>1868</v>
       </c>
       <c r="B642" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C642" s="1" t="s">
-        <v>255</v>
+        <v>136</v>
       </c>
       <c r="D642" s="1" t="s">
-        <v>256</v>
+        <v>137</v>
       </c>
       <c r="E642" s="1" t="s">
-        <v>257</v>
+        <v>138</v>
       </c>
       <c r="F642" s="1" t="s">
-        <v>258</v>
+        <v>139</v>
       </c>
       <c r="G642" s="1"/>
     </row>
     <row r="643" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A643" s="1" t="s">
-        <v>1899</v>
+        <v>1869</v>
       </c>
       <c r="B643" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C643" s="1" t="s">
-        <v>259</v>
+        <v>140</v>
       </c>
       <c r="D643" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E643" s="1"/>
-      <c r="F643" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="E643" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F643" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="G643" s="1"/>
     </row>
     <row r="644" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A644" s="1" t="s">
-        <v>1900</v>
+        <v>1870</v>
       </c>
       <c r="B644" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C644" s="1" t="s">
-        <v>261</v>
+        <v>144</v>
       </c>
       <c r="D644" s="1" t="s">
-        <v>262</v>
+        <v>145</v>
       </c>
       <c r="E644" s="1" t="s">
-        <v>263</v>
+        <v>146</v>
       </c>
       <c r="F644" s="1" t="s">
-        <v>264</v>
+        <v>147</v>
       </c>
       <c r="G644" s="1"/>
     </row>
     <row r="645" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A645" s="1" t="s">
-        <v>1901</v>
+        <v>1871</v>
       </c>
       <c r="B645" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C645" s="1" t="s">
-        <v>265</v>
+        <v>148</v>
       </c>
       <c r="D645" s="1" t="s">
-        <v>266</v>
+        <v>149</v>
       </c>
       <c r="E645" s="1" t="s">
-        <v>267</v>
+        <v>150</v>
       </c>
       <c r="F645" s="1" t="s">
-        <v>268</v>
+        <v>151</v>
       </c>
       <c r="G645" s="1"/>
     </row>
     <row r="646" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A646" s="1" t="s">
-        <v>1902</v>
+        <v>1872</v>
       </c>
       <c r="B646" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C646" s="1" t="s">
-        <v>269</v>
+        <v>152</v>
       </c>
       <c r="D646" s="1" t="s">
-        <v>270</v>
+        <v>153</v>
       </c>
       <c r="E646" s="1" t="s">
-        <v>271</v>
+        <v>154</v>
       </c>
       <c r="F646" s="1" t="s">
-        <v>272</v>
+        <v>155</v>
       </c>
       <c r="G646" s="1"/>
     </row>
     <row r="647" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A647" s="1" t="s">
-        <v>1903</v>
+        <v>1873</v>
       </c>
       <c r="B647" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C647" s="1" t="s">
-        <v>6</v>
+        <v>156</v>
       </c>
       <c r="D647" s="1" t="s">
-        <v>273</v>
+        <v>157</v>
       </c>
       <c r="E647" s="1" t="s">
-        <v>274</v>
+        <v>158</v>
       </c>
       <c r="F647" s="1" t="s">
-        <v>275</v>
+        <v>159</v>
       </c>
       <c r="G647" s="1"/>
     </row>
     <row r="648" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A648" s="1" t="s">
-        <v>1904</v>
+        <v>1874</v>
       </c>
       <c r="B648" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C648" s="1" t="s">
-        <v>276</v>
+        <v>160</v>
       </c>
       <c r="D648" s="1" t="s">
-        <v>277</v>
+        <v>161</v>
       </c>
       <c r="E648" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F648" s="1"/>
+        <v>162</v>
+      </c>
+      <c r="F648" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="G648" s="1"/>
     </row>
     <row r="649" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A649" s="1" t="s">
-        <v>1905</v>
+        <v>1875</v>
       </c>
       <c r="B649" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C649" s="1" t="s">
-        <v>279</v>
+        <v>164</v>
       </c>
       <c r="D649" s="1" t="s">
-        <v>280</v>
+        <v>165</v>
       </c>
       <c r="E649" s="1" t="s">
-        <v>281</v>
+        <v>166</v>
       </c>
       <c r="F649" s="1" t="s">
-        <v>282</v>
+        <v>167</v>
       </c>
       <c r="G649" s="1"/>
     </row>
     <row r="650" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A650" s="1" t="s">
-        <v>1906</v>
+        <v>1876</v>
       </c>
       <c r="B650" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C650" s="1" t="s">
-        <v>283</v>
+        <v>168</v>
       </c>
       <c r="D650" s="1" t="s">
-        <v>284</v>
+        <v>169</v>
       </c>
       <c r="E650" s="1" t="s">
-        <v>285</v>
+        <v>170</v>
       </c>
       <c r="F650" s="1" t="s">
-        <v>286</v>
+        <v>171</v>
       </c>
       <c r="G650" s="1"/>
     </row>
     <row r="651" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A651" s="1" t="s">
-        <v>1907</v>
+        <v>1877</v>
       </c>
       <c r="B651" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C651" s="1" t="s">
-        <v>287</v>
+        <v>172</v>
       </c>
       <c r="D651" s="1" t="s">
-        <v>288</v>
+        <v>173</v>
       </c>
       <c r="E651" s="1" t="s">
-        <v>289</v>
+        <v>174</v>
       </c>
       <c r="F651" s="1" t="s">
-        <v>290</v>
+        <v>175</v>
       </c>
       <c r="G651" s="1"/>
     </row>
     <row r="652" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A652" s="1" t="s">
-        <v>1908</v>
+        <v>1878</v>
       </c>
       <c r="B652" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C652" s="1" t="s">
-        <v>291</v>
+        <v>176</v>
       </c>
       <c r="D652" s="1" t="s">
-        <v>292</v>
+        <v>177</v>
       </c>
       <c r="E652" s="1" t="s">
-        <v>293</v>
+        <v>178</v>
       </c>
       <c r="F652" s="1" t="s">
-        <v>294</v>
+        <v>179</v>
       </c>
       <c r="G652" s="1"/>
     </row>
     <row r="653" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A653" s="1" t="s">
-        <v>1909</v>
+        <v>1879</v>
       </c>
       <c r="B653" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C653" s="1" t="s">
-        <v>295</v>
+        <v>180</v>
       </c>
       <c r="D653" s="1" t="s">
-        <v>296</v>
+        <v>181</v>
       </c>
       <c r="E653" s="1" t="s">
-        <v>297</v>
+        <v>182</v>
       </c>
       <c r="F653" s="1" t="s">
-        <v>298</v>
+        <v>183</v>
       </c>
       <c r="G653" s="1"/>
     </row>
     <row r="654" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A654" s="1" t="s">
-        <v>1910</v>
+        <v>1880</v>
       </c>
       <c r="B654" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C654" s="1" t="s">
-        <v>299</v>
+        <v>184</v>
       </c>
       <c r="D654" s="1" t="s">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="E654" s="1" t="s">
-        <v>301</v>
+        <v>186</v>
       </c>
       <c r="F654" s="1" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="G654" s="1"/>
     </row>
     <row r="655" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A655" s="1" t="s">
-        <v>1911</v>
+        <v>1881</v>
       </c>
       <c r="B655" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C655" s="1" t="s">
-        <v>303</v>
+        <v>188</v>
       </c>
       <c r="D655" s="1" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="E655" s="1" t="s">
-        <v>305</v>
+        <v>190</v>
       </c>
       <c r="F655" s="1" t="s">
-        <v>306</v>
+        <v>191</v>
       </c>
       <c r="G655" s="1"/>
     </row>
     <row r="656" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A656" s="1" t="s">
-        <v>1912</v>
+        <v>1882</v>
       </c>
       <c r="B656" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C656" s="1" t="s">
-        <v>307</v>
+        <v>192</v>
       </c>
       <c r="D656" s="1" t="s">
-        <v>308</v>
+        <v>193</v>
       </c>
       <c r="E656" s="1" t="s">
-        <v>309</v>
+        <v>194</v>
       </c>
       <c r="F656" s="1" t="s">
-        <v>310</v>
+        <v>195</v>
       </c>
       <c r="G656" s="1"/>
     </row>
     <row r="657" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A657" s="1" t="s">
-        <v>1913</v>
+        <v>1883</v>
       </c>
       <c r="B657" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C657" s="1" t="s">
-        <v>311</v>
+        <v>196</v>
       </c>
       <c r="D657" s="1" t="s">
-        <v>312</v>
+        <v>197</v>
       </c>
       <c r="E657" s="1" t="s">
-        <v>313</v>
+        <v>198</v>
       </c>
       <c r="F657" s="1" t="s">
-        <v>314</v>
+        <v>199</v>
       </c>
       <c r="G657" s="1"/>
     </row>
     <row r="658" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A658" s="1" t="s">
-        <v>1914</v>
+        <v>1884</v>
       </c>
       <c r="B658" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C658" s="1" t="s">
-        <v>315</v>
+        <v>200</v>
       </c>
       <c r="D658" s="1" t="s">
-        <v>316</v>
+        <v>201</v>
       </c>
       <c r="E658" s="1" t="s">
-        <v>317</v>
+        <v>202</v>
       </c>
       <c r="F658" s="1" t="s">
-        <v>318</v>
+        <v>203</v>
       </c>
       <c r="G658" s="1"/>
     </row>
     <row r="659" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A659" s="1" t="s">
-        <v>1915</v>
+        <v>1885</v>
       </c>
       <c r="B659" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C659" s="1" t="s">
-        <v>319</v>
+        <v>204</v>
       </c>
       <c r="D659" s="1" t="s">
-        <v>320</v>
+        <v>205</v>
       </c>
       <c r="E659" s="1" t="s">
-        <v>321</v>
+        <v>206</v>
       </c>
       <c r="F659" s="1" t="s">
-        <v>322</v>
+        <v>207</v>
       </c>
       <c r="G659" s="1"/>
     </row>
     <row r="660" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A660" s="1" t="s">
-        <v>1916</v>
+        <v>1886</v>
       </c>
       <c r="B660" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C660" s="1" t="s">
-        <v>323</v>
+        <v>204</v>
       </c>
       <c r="D660" s="1" t="s">
-        <v>324</v>
+        <v>208</v>
       </c>
       <c r="E660" s="1" t="s">
-        <v>325</v>
+        <v>209</v>
       </c>
       <c r="F660" s="1" t="s">
-        <v>326</v>
+        <v>210</v>
       </c>
       <c r="G660" s="1"/>
     </row>
     <row r="661" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A661" s="1" t="s">
-        <v>1917</v>
+        <v>1887</v>
       </c>
       <c r="B661" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C661" s="1" t="s">
-        <v>327</v>
+        <v>211</v>
       </c>
       <c r="D661" s="1" t="s">
-        <v>328</v>
+        <v>212</v>
       </c>
       <c r="E661" s="1" t="s">
-        <v>329</v>
+        <v>213</v>
       </c>
       <c r="F661" s="1" t="s">
-        <v>330</v>
+        <v>214</v>
       </c>
       <c r="G661" s="1"/>
     </row>
     <row r="662" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A662" s="1" t="s">
-        <v>1918</v>
+        <v>1888</v>
       </c>
       <c r="B662" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C662" s="1" t="s">
-        <v>331</v>
+        <v>215</v>
       </c>
       <c r="D662" s="1" t="s">
-        <v>332</v>
+        <v>216</v>
       </c>
       <c r="E662" s="1" t="s">
-        <v>333</v>
+        <v>217</v>
       </c>
       <c r="F662" s="1" t="s">
-        <v>334</v>
+        <v>218</v>
       </c>
       <c r="G662" s="1"/>
     </row>
     <row r="663" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A663" s="1" t="s">
-        <v>1919</v>
+        <v>1889</v>
       </c>
       <c r="B663" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C663" s="1" t="s">
-        <v>335</v>
+        <v>219</v>
       </c>
       <c r="D663" s="1" t="s">
-        <v>336</v>
+        <v>220</v>
       </c>
       <c r="E663" s="1" t="s">
-        <v>337</v>
+        <v>221</v>
       </c>
       <c r="F663" s="1" t="s">
-        <v>338</v>
+        <v>222</v>
       </c>
       <c r="G663" s="1"/>
     </row>
     <row r="664" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A664" s="1" t="s">
-        <v>1920</v>
+        <v>1890</v>
       </c>
       <c r="B664" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C664" s="1" t="s">
-        <v>339</v>
+        <v>223</v>
       </c>
       <c r="D664" s="1" t="s">
-        <v>340</v>
+        <v>224</v>
       </c>
       <c r="E664" s="1" t="s">
-        <v>341</v>
+        <v>225</v>
       </c>
       <c r="F664" s="1" t="s">
-        <v>342</v>
+        <v>226</v>
       </c>
       <c r="G664" s="1"/>
     </row>
     <row r="665" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A665" s="1" t="s">
-        <v>1921</v>
+        <v>1891</v>
       </c>
       <c r="B665" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C665" s="1" t="s">
-        <v>343</v>
+        <v>227</v>
       </c>
       <c r="D665" s="1" t="s">
-        <v>344</v>
+        <v>228</v>
       </c>
       <c r="E665" s="1" t="s">
-        <v>345</v>
+        <v>229</v>
       </c>
       <c r="F665" s="1" t="s">
-        <v>346</v>
+        <v>230</v>
       </c>
       <c r="G665" s="1"/>
     </row>
     <row r="666" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A666" s="1" t="s">
-        <v>1922</v>
+        <v>1892</v>
       </c>
       <c r="B666" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C666" s="1" t="s">
-        <v>347</v>
+        <v>231</v>
       </c>
       <c r="D666" s="1" t="s">
-        <v>348</v>
+        <v>232</v>
       </c>
       <c r="E666" s="1" t="s">
-        <v>349</v>
+        <v>233</v>
       </c>
       <c r="F666" s="1" t="s">
-        <v>350</v>
+        <v>234</v>
       </c>
       <c r="G666" s="1"/>
     </row>
     <row r="667" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A667" s="1" t="s">
-        <v>1923</v>
+        <v>1893</v>
       </c>
       <c r="B667" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C667" s="1" t="s">
-        <v>351</v>
+        <v>235</v>
       </c>
       <c r="D667" s="1" t="s">
-        <v>352</v>
+        <v>236</v>
       </c>
       <c r="E667" s="1" t="s">
-        <v>353</v>
+        <v>237</v>
       </c>
       <c r="F667" s="1" t="s">
-        <v>354</v>
+        <v>238</v>
       </c>
       <c r="G667" s="1"/>
     </row>
     <row r="668" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A668" s="1" t="s">
-        <v>1924</v>
+        <v>1894</v>
       </c>
       <c r="B668" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C668" s="1" t="s">
-        <v>355</v>
+        <v>239</v>
       </c>
       <c r="D668" s="1" t="s">
-        <v>356</v>
+        <v>240</v>
       </c>
       <c r="E668" s="1" t="s">
-        <v>357</v>
+        <v>241</v>
       </c>
       <c r="F668" s="1" t="s">
-        <v>358</v>
+        <v>242</v>
       </c>
       <c r="G668" s="1"/>
     </row>
     <row r="669" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A669" s="1" t="s">
-        <v>1925</v>
+        <v>1895</v>
       </c>
       <c r="B669" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C669" s="1" t="s">
-        <v>359</v>
+        <v>243</v>
       </c>
       <c r="D669" s="1" t="s">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="E669" s="1" t="s">
-        <v>361</v>
+        <v>245</v>
       </c>
       <c r="F669" s="1" t="s">
-        <v>362</v>
+        <v>246</v>
       </c>
       <c r="G669" s="1"/>
     </row>
     <row r="670" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A670" s="1" t="s">
-        <v>1926</v>
+        <v>1896</v>
       </c>
       <c r="B670" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C670" s="1" t="s">
-        <v>363</v>
+        <v>247</v>
       </c>
       <c r="D670" s="1" t="s">
-        <v>364</v>
+        <v>248</v>
       </c>
       <c r="E670" s="1" t="s">
-        <v>365</v>
+        <v>249</v>
       </c>
       <c r="F670" s="1" t="s">
-        <v>366</v>
+        <v>250</v>
       </c>
       <c r="G670" s="1"/>
     </row>
     <row r="671" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A671" s="1" t="s">
-        <v>1927</v>
+        <v>1897</v>
       </c>
       <c r="B671" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C671" s="1" t="s">
-        <v>367</v>
+        <v>251</v>
       </c>
       <c r="D671" s="1" t="s">
-        <v>368</v>
+        <v>252</v>
       </c>
       <c r="E671" s="1" t="s">
-        <v>369</v>
+        <v>253</v>
       </c>
       <c r="F671" s="1" t="s">
-        <v>370</v>
+        <v>254</v>
       </c>
       <c r="G671" s="1"/>
     </row>
     <row r="672" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A672" s="1" t="s">
-        <v>1928</v>
+        <v>1898</v>
       </c>
       <c r="B672" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C672" s="1" t="s">
-        <v>371</v>
+        <v>255</v>
       </c>
       <c r="D672" s="1" t="s">
-        <v>372</v>
+        <v>256</v>
       </c>
       <c r="E672" s="1" t="s">
-        <v>373</v>
+        <v>257</v>
       </c>
       <c r="F672" s="1" t="s">
-        <v>374</v>
+        <v>258</v>
       </c>
       <c r="G672" s="1"/>
     </row>
     <row r="673" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A673" s="1" t="s">
-        <v>1929</v>
+        <v>1899</v>
       </c>
       <c r="B673" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C673" s="1" t="s">
-        <v>375</v>
+        <v>259</v>
       </c>
       <c r="D673" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="E673" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="F673" s="1" t="s">
-        <v>378</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="E673" s="1"/>
+      <c r="F673" s="1"/>
       <c r="G673" s="1"/>
     </row>
     <row r="674" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A674" s="1" t="s">
-        <v>1930</v>
+        <v>1900</v>
       </c>
       <c r="B674" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C674" s="1" t="s">
-        <v>379</v>
+        <v>261</v>
       </c>
       <c r="D674" s="1" t="s">
-        <v>380</v>
+        <v>262</v>
       </c>
       <c r="E674" s="1" t="s">
-        <v>381</v>
+        <v>263</v>
       </c>
       <c r="F674" s="1" t="s">
-        <v>382</v>
+        <v>264</v>
       </c>
       <c r="G674" s="1"/>
     </row>
     <row r="675" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A675" s="1" t="s">
-        <v>1931</v>
+        <v>1901</v>
       </c>
       <c r="B675" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C675" s="1" t="s">
-        <v>383</v>
+        <v>265</v>
       </c>
       <c r="D675" s="1" t="s">
-        <v>384</v>
+        <v>266</v>
       </c>
       <c r="E675" s="1" t="s">
-        <v>385</v>
+        <v>267</v>
       </c>
       <c r="F675" s="1" t="s">
-        <v>386</v>
+        <v>268</v>
       </c>
       <c r="G675" s="1"/>
     </row>
     <row r="676" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A676" s="1" t="s">
-        <v>1932</v>
+        <v>1902</v>
       </c>
       <c r="B676" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C676" s="1" t="s">
-        <v>387</v>
+        <v>269</v>
       </c>
       <c r="D676" s="1" t="s">
-        <v>388</v>
+        <v>270</v>
       </c>
       <c r="E676" s="1" t="s">
-        <v>389</v>
+        <v>271</v>
       </c>
       <c r="F676" s="1" t="s">
-        <v>390</v>
+        <v>272</v>
       </c>
       <c r="G676" s="1"/>
     </row>
     <row r="677" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A677" s="1" t="s">
-        <v>1933</v>
+        <v>1903</v>
       </c>
       <c r="B677" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C677" s="1" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
       <c r="D677" s="1" t="s">
-        <v>392</v>
+        <v>273</v>
       </c>
       <c r="E677" s="1" t="s">
-        <v>393</v>
+        <v>274</v>
       </c>
       <c r="F677" s="1" t="s">
-        <v>394</v>
+        <v>275</v>
       </c>
       <c r="G677" s="1"/>
     </row>
     <row r="678" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A678" s="1" t="s">
-        <v>1934</v>
+        <v>1904</v>
       </c>
       <c r="B678" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C678" s="1" t="s">
-        <v>395</v>
+        <v>276</v>
       </c>
       <c r="D678" s="1" t="s">
-        <v>396</v>
+        <v>277</v>
       </c>
       <c r="E678" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="F678" s="1" t="s">
-        <v>398</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="F678" s="1"/>
       <c r="G678" s="1"/>
     </row>
     <row r="679" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A679" s="1" t="s">
-        <v>1935</v>
+        <v>1905</v>
       </c>
       <c r="B679" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C679" s="1" t="s">
-        <v>399</v>
+        <v>279</v>
       </c>
       <c r="D679" s="1" t="s">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="E679" s="1" t="s">
-        <v>401</v>
+        <v>281</v>
       </c>
       <c r="F679" s="1" t="s">
-        <v>402</v>
+        <v>282</v>
       </c>
       <c r="G679" s="1"/>
     </row>
     <row r="680" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A680" s="1" t="s">
-        <v>1936</v>
+        <v>1906</v>
       </c>
       <c r="B680" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C680" s="1" t="s">
-        <v>403</v>
+        <v>283</v>
       </c>
       <c r="D680" s="1" t="s">
-        <v>404</v>
+        <v>284</v>
       </c>
       <c r="E680" s="1" t="s">
-        <v>405</v>
+        <v>285</v>
       </c>
       <c r="F680" s="1" t="s">
-        <v>406</v>
+        <v>286</v>
       </c>
       <c r="G680" s="1"/>
     </row>
     <row r="681" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A681" s="1" t="s">
-        <v>1937</v>
+        <v>1907</v>
       </c>
       <c r="B681" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C681" s="1" t="s">
-        <v>407</v>
+        <v>287</v>
       </c>
       <c r="D681" s="1" t="s">
-        <v>408</v>
+        <v>288</v>
       </c>
       <c r="E681" s="1" t="s">
-        <v>409</v>
+        <v>289</v>
       </c>
       <c r="F681" s="1" t="s">
-        <v>410</v>
+        <v>290</v>
       </c>
       <c r="G681" s="1"/>
     </row>
     <row r="682" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A682" s="1" t="s">
-        <v>1938</v>
+        <v>1908</v>
       </c>
       <c r="B682" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C682" s="1" t="s">
-        <v>411</v>
+        <v>291</v>
       </c>
       <c r="D682" s="1" t="s">
-        <v>412</v>
+        <v>292</v>
       </c>
       <c r="E682" s="1" t="s">
-        <v>413</v>
+        <v>293</v>
       </c>
       <c r="F682" s="1" t="s">
-        <v>414</v>
+        <v>294</v>
       </c>
       <c r="G682" s="1"/>
     </row>
     <row r="683" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A683" s="1" t="s">
-        <v>1939</v>
+        <v>1909</v>
       </c>
       <c r="B683" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C683" s="1" t="s">
-        <v>415</v>
+        <v>295</v>
       </c>
       <c r="D683" s="1" t="s">
-        <v>416</v>
+        <v>296</v>
       </c>
       <c r="E683" s="1" t="s">
-        <v>417</v>
+        <v>297</v>
       </c>
       <c r="F683" s="1" t="s">
-        <v>418</v>
+        <v>298</v>
       </c>
       <c r="G683" s="1"/>
     </row>
     <row r="684" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A684" s="1" t="s">
-        <v>1940</v>
+        <v>1910</v>
       </c>
       <c r="B684" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C684" s="1" t="s">
-        <v>419</v>
+        <v>299</v>
       </c>
       <c r="D684" s="1" t="s">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="E684" s="1" t="s">
-        <v>421</v>
+        <v>301</v>
       </c>
       <c r="F684" s="1" t="s">
-        <v>422</v>
+        <v>302</v>
       </c>
       <c r="G684" s="1"/>
     </row>
     <row r="685" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A685" s="1" t="s">
-        <v>1941</v>
+        <v>1911</v>
       </c>
       <c r="B685" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C685" s="1" t="s">
-        <v>423</v>
+        <v>303</v>
       </c>
       <c r="D685" s="1" t="s">
-        <v>424</v>
+        <v>304</v>
       </c>
       <c r="E685" s="1" t="s">
-        <v>425</v>
+        <v>305</v>
       </c>
       <c r="F685" s="1" t="s">
-        <v>426</v>
+        <v>306</v>
       </c>
       <c r="G685" s="1"/>
     </row>
     <row r="686" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A686" s="1" t="s">
-        <v>1942</v>
+        <v>1912</v>
       </c>
       <c r="B686" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C686" s="1" t="s">
-        <v>427</v>
+        <v>307</v>
       </c>
       <c r="D686" s="1" t="s">
-        <v>428</v>
+        <v>308</v>
       </c>
       <c r="E686" s="1" t="s">
-        <v>429</v>
+        <v>309</v>
       </c>
       <c r="F686" s="1" t="s">
-        <v>430</v>
+        <v>310</v>
       </c>
       <c r="G686" s="1"/>
     </row>
     <row r="687" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A687" s="1" t="s">
-        <v>1943</v>
+        <v>1913</v>
       </c>
       <c r="B687" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C687" s="1" t="s">
-        <v>431</v>
+        <v>311</v>
       </c>
       <c r="D687" s="1" t="s">
-        <v>432</v>
+        <v>312</v>
       </c>
       <c r="E687" s="1" t="s">
-        <v>433</v>
+        <v>313</v>
       </c>
       <c r="F687" s="1" t="s">
-        <v>434</v>
+        <v>314</v>
       </c>
       <c r="G687" s="1"/>
     </row>
     <row r="688" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A688" s="1" t="s">
-        <v>1944</v>
+        <v>1914</v>
       </c>
       <c r="B688" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C688" s="1" t="s">
-        <v>435</v>
+        <v>315</v>
       </c>
       <c r="D688" s="1" t="s">
-        <v>436</v>
+        <v>316</v>
       </c>
       <c r="E688" s="1" t="s">
-        <v>437</v>
+        <v>317</v>
       </c>
       <c r="F688" s="1" t="s">
-        <v>438</v>
+        <v>318</v>
       </c>
       <c r="G688" s="1"/>
     </row>
     <row r="689" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A689" s="1" t="s">
-        <v>1945</v>
+        <v>1915</v>
       </c>
       <c r="B689" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C689" s="1" t="s">
-        <v>439</v>
+        <v>319</v>
       </c>
       <c r="D689" s="1" t="s">
-        <v>440</v>
+        <v>320</v>
       </c>
       <c r="E689" s="1" t="s">
-        <v>441</v>
+        <v>321</v>
       </c>
       <c r="F689" s="1" t="s">
-        <v>442</v>
+        <v>322</v>
       </c>
       <c r="G689" s="1"/>
     </row>
     <row r="690" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A690" s="1" t="s">
-        <v>1946</v>
+        <v>1916</v>
       </c>
       <c r="B690" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C690" s="1" t="s">
-        <v>443</v>
+        <v>323</v>
       </c>
       <c r="D690" s="1" t="s">
-        <v>444</v>
+        <v>324</v>
       </c>
       <c r="E690" s="1" t="s">
-        <v>445</v>
+        <v>325</v>
       </c>
       <c r="F690" s="1" t="s">
-        <v>446</v>
+        <v>326</v>
       </c>
       <c r="G690" s="1"/>
     </row>
     <row r="691" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A691" s="1" t="s">
-        <v>1947</v>
+        <v>1917</v>
       </c>
       <c r="B691" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C691" s="1" t="s">
-        <v>447</v>
+        <v>327</v>
       </c>
       <c r="D691" s="1" t="s">
-        <v>448</v>
+        <v>328</v>
       </c>
       <c r="E691" s="1" t="s">
-        <v>449</v>
+        <v>329</v>
       </c>
       <c r="F691" s="1" t="s">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="G691" s="1"/>
     </row>
     <row r="692" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A692" s="1" t="s">
-        <v>1948</v>
+        <v>1918</v>
       </c>
       <c r="B692" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C692" s="1" t="s">
-        <v>451</v>
+        <v>331</v>
       </c>
       <c r="D692" s="1" t="s">
-        <v>452</v>
+        <v>332</v>
       </c>
       <c r="E692" s="1" t="s">
-        <v>453</v>
+        <v>333</v>
       </c>
       <c r="F692" s="1" t="s">
-        <v>454</v>
+        <v>334</v>
       </c>
       <c r="G692" s="1"/>
     </row>
     <row r="693" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A693" s="1" t="s">
-        <v>1949</v>
+        <v>1919</v>
       </c>
       <c r="B693" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C693" s="1" t="s">
-        <v>455</v>
+        <v>335</v>
       </c>
       <c r="D693" s="1" t="s">
-        <v>456</v>
+        <v>336</v>
       </c>
       <c r="E693" s="1" t="s">
-        <v>457</v>
+        <v>337</v>
       </c>
       <c r="F693" s="1" t="s">
-        <v>458</v>
+        <v>338</v>
       </c>
       <c r="G693" s="1"/>
     </row>
     <row r="694" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A694" s="1" t="s">
-        <v>1950</v>
+        <v>1920</v>
       </c>
       <c r="B694" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C694" s="1" t="s">
-        <v>459</v>
+        <v>339</v>
       </c>
       <c r="D694" s="1" t="s">
-        <v>460</v>
+        <v>340</v>
       </c>
       <c r="E694" s="1" t="s">
-        <v>461</v>
+        <v>341</v>
       </c>
       <c r="F694" s="1" t="s">
-        <v>462</v>
+        <v>342</v>
       </c>
       <c r="G694" s="1"/>
     </row>
     <row r="695" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A695" s="1" t="s">
-        <v>1951</v>
+        <v>1921</v>
       </c>
       <c r="B695" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C695" s="1" t="s">
-        <v>463</v>
+        <v>343</v>
       </c>
       <c r="D695" s="1" t="s">
-        <v>464</v>
+        <v>344</v>
       </c>
       <c r="E695" s="1" t="s">
-        <v>465</v>
+        <v>345</v>
       </c>
       <c r="F695" s="1" t="s">
-        <v>466</v>
+        <v>346</v>
       </c>
       <c r="G695" s="1"/>
     </row>
     <row r="696" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A696" s="1" t="s">
-        <v>1952</v>
+        <v>1922</v>
       </c>
       <c r="B696" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C696" s="1" t="s">
-        <v>467</v>
+        <v>347</v>
       </c>
       <c r="D696" s="1" t="s">
-        <v>468</v>
+        <v>348</v>
       </c>
       <c r="E696" s="1" t="s">
-        <v>469</v>
+        <v>349</v>
       </c>
       <c r="F696" s="1" t="s">
-        <v>470</v>
+        <v>350</v>
       </c>
       <c r="G696" s="1"/>
     </row>
     <row r="697" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A697" s="1" t="s">
-        <v>1953</v>
+        <v>1923</v>
       </c>
       <c r="B697" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C697" s="1" t="s">
-        <v>471</v>
+        <v>351</v>
       </c>
       <c r="D697" s="1" t="s">
-        <v>472</v>
+        <v>352</v>
       </c>
       <c r="E697" s="1" t="s">
-        <v>473</v>
+        <v>353</v>
       </c>
       <c r="F697" s="1" t="s">
-        <v>474</v>
+        <v>354</v>
       </c>
       <c r="G697" s="1"/>
     </row>
     <row r="698" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A698" s="1" t="s">
-        <v>1954</v>
+        <v>1924</v>
       </c>
       <c r="B698" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C698" s="1" t="s">
-        <v>475</v>
+        <v>355</v>
       </c>
       <c r="D698" s="1" t="s">
-        <v>476</v>
+        <v>356</v>
       </c>
       <c r="E698" s="1" t="s">
-        <v>477</v>
+        <v>357</v>
       </c>
       <c r="F698" s="1" t="s">
-        <v>478</v>
+        <v>358</v>
       </c>
       <c r="G698" s="1"/>
     </row>
     <row r="699" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A699" s="1" t="s">
-        <v>1955</v>
+        <v>1925</v>
       </c>
       <c r="B699" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C699" s="1" t="s">
-        <v>479</v>
+        <v>359</v>
       </c>
       <c r="D699" s="1" t="s">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="E699" s="1" t="s">
-        <v>481</v>
+        <v>361</v>
       </c>
       <c r="F699" s="1" t="s">
-        <v>482</v>
+        <v>362</v>
       </c>
       <c r="G699" s="1"/>
     </row>
     <row r="700" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A700" s="1" t="s">
-        <v>1956</v>
+        <v>1926</v>
       </c>
       <c r="B700" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C700" s="1" t="s">
-        <v>483</v>
+        <v>363</v>
       </c>
       <c r="D700" s="1" t="s">
-        <v>484</v>
+        <v>364</v>
       </c>
       <c r="E700" s="1" t="s">
-        <v>485</v>
+        <v>365</v>
       </c>
       <c r="F700" s="1" t="s">
-        <v>486</v>
+        <v>366</v>
       </c>
       <c r="G700" s="1"/>
     </row>
     <row r="701" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A701" s="1" t="s">
-        <v>1957</v>
+        <v>1927</v>
       </c>
       <c r="B701" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C701" s="1" t="s">
-        <v>487</v>
+        <v>367</v>
       </c>
       <c r="D701" s="1" t="s">
-        <v>488</v>
+        <v>368</v>
       </c>
       <c r="E701" s="1" t="s">
-        <v>489</v>
+        <v>369</v>
       </c>
       <c r="F701" s="1" t="s">
-        <v>490</v>
+        <v>370</v>
       </c>
       <c r="G701" s="1"/>
     </row>
     <row r="702" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A702" s="1" t="s">
-        <v>1958</v>
+        <v>1928</v>
       </c>
       <c r="B702" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C702" s="1" t="s">
-        <v>491</v>
+        <v>371</v>
       </c>
       <c r="D702" s="1" t="s">
-        <v>492</v>
+        <v>372</v>
       </c>
       <c r="E702" s="1" t="s">
-        <v>493</v>
+        <v>373</v>
       </c>
       <c r="F702" s="1" t="s">
-        <v>494</v>
+        <v>374</v>
       </c>
       <c r="G702" s="1"/>
     </row>
     <row r="703" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A703" s="1" t="s">
-        <v>1959</v>
+        <v>1929</v>
       </c>
       <c r="B703" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C703" s="1" t="s">
-        <v>495</v>
+        <v>375</v>
       </c>
       <c r="D703" s="1" t="s">
-        <v>496</v>
+        <v>376</v>
       </c>
       <c r="E703" s="1" t="s">
-        <v>497</v>
+        <v>377</v>
       </c>
       <c r="F703" s="1" t="s">
-        <v>498</v>
+        <v>378</v>
       </c>
       <c r="G703" s="1"/>
     </row>
     <row r="704" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A704" s="1" t="s">
-        <v>1960</v>
+        <v>1930</v>
       </c>
       <c r="B704" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C704" s="1" t="s">
-        <v>499</v>
+        <v>379</v>
       </c>
       <c r="D704" s="1" t="s">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="E704" s="1" t="s">
-        <v>501</v>
+        <v>381</v>
       </c>
       <c r="F704" s="1" t="s">
-        <v>502</v>
+        <v>382</v>
       </c>
       <c r="G704" s="1"/>
     </row>
     <row r="705" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A705" s="1" t="s">
-        <v>1961</v>
+        <v>1931</v>
       </c>
       <c r="B705" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C705" s="1" t="s">
-        <v>503</v>
+        <v>383</v>
       </c>
       <c r="D705" s="1" t="s">
-        <v>504</v>
+        <v>384</v>
       </c>
       <c r="E705" s="1" t="s">
-        <v>505</v>
+        <v>385</v>
       </c>
       <c r="F705" s="1" t="s">
-        <v>506</v>
+        <v>386</v>
       </c>
       <c r="G705" s="1"/>
     </row>
     <row r="706" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A706" s="1" t="s">
-        <v>1962</v>
+        <v>1932</v>
       </c>
       <c r="B706" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C706" s="1" t="s">
-        <v>507</v>
+        <v>387</v>
       </c>
       <c r="D706" s="1" t="s">
-        <v>508</v>
+        <v>388</v>
       </c>
       <c r="E706" s="1" t="s">
-        <v>509</v>
+        <v>389</v>
       </c>
       <c r="F706" s="1" t="s">
-        <v>510</v>
+        <v>390</v>
       </c>
       <c r="G706" s="1"/>
     </row>
     <row r="707" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A707" s="1" t="s">
-        <v>1963</v>
+        <v>1933</v>
       </c>
       <c r="B707" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C707" s="1" t="s">
-        <v>511</v>
+        <v>391</v>
       </c>
       <c r="D707" s="1" t="s">
-        <v>512</v>
+        <v>392</v>
       </c>
       <c r="E707" s="1" t="s">
-        <v>513</v>
+        <v>393</v>
       </c>
       <c r="F707" s="1" t="s">
-        <v>514</v>
+        <v>394</v>
       </c>
       <c r="G707" s="1"/>
     </row>
     <row r="708" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A708" s="1" t="s">
-        <v>1964</v>
+        <v>1934</v>
       </c>
       <c r="B708" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C708" s="1" t="s">
-        <v>515</v>
+        <v>395</v>
       </c>
       <c r="D708" s="1" t="s">
-        <v>516</v>
+        <v>396</v>
       </c>
       <c r="E708" s="1" t="s">
-        <v>517</v>
+        <v>397</v>
       </c>
       <c r="F708" s="1" t="s">
-        <v>518</v>
+        <v>398</v>
       </c>
       <c r="G708" s="1"/>
     </row>
     <row r="709" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A709" s="1" t="s">
-        <v>1965</v>
+        <v>1935</v>
       </c>
       <c r="B709" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C709" s="1" t="s">
-        <v>519</v>
+        <v>399</v>
       </c>
       <c r="D709" s="1" t="s">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="E709" s="1" t="s">
-        <v>521</v>
+        <v>401</v>
       </c>
       <c r="F709" s="1" t="s">
-        <v>522</v>
+        <v>402</v>
       </c>
       <c r="G709" s="1"/>
     </row>
     <row r="710" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A710" s="1" t="s">
-        <v>1966</v>
+        <v>1936</v>
       </c>
       <c r="B710" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C710" s="1" t="s">
-        <v>523</v>
+        <v>403</v>
       </c>
       <c r="D710" s="1" t="s">
-        <v>524</v>
+        <v>404</v>
       </c>
       <c r="E710" s="1" t="s">
-        <v>525</v>
+        <v>405</v>
       </c>
       <c r="F710" s="1" t="s">
-        <v>526</v>
+        <v>406</v>
       </c>
       <c r="G710" s="1"/>
     </row>
     <row r="711" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A711" s="1" t="s">
-        <v>1967</v>
+        <v>1937</v>
       </c>
       <c r="B711" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C711" s="1" t="s">
-        <v>527</v>
+        <v>407</v>
       </c>
       <c r="D711" s="1" t="s">
-        <v>528</v>
+        <v>408</v>
       </c>
       <c r="E711" s="1" t="s">
-        <v>529</v>
+        <v>409</v>
       </c>
       <c r="F711" s="1" t="s">
-        <v>530</v>
+        <v>410</v>
       </c>
       <c r="G711" s="1"/>
     </row>
     <row r="712" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A712" s="1" t="s">
-        <v>1968</v>
+        <v>1938</v>
       </c>
       <c r="B712" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C712" s="1" t="s">
-        <v>531</v>
+        <v>411</v>
       </c>
       <c r="D712" s="1" t="s">
-        <v>532</v>
+        <v>412</v>
       </c>
       <c r="E712" s="1" t="s">
-        <v>533</v>
+        <v>413</v>
       </c>
       <c r="F712" s="1" t="s">
-        <v>534</v>
+        <v>414</v>
       </c>
       <c r="G712" s="1"/>
     </row>
     <row r="713" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A713" s="1" t="s">
-        <v>1969</v>
+        <v>1939</v>
       </c>
       <c r="B713" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C713" s="1" t="s">
-        <v>535</v>
+        <v>415</v>
       </c>
       <c r="D713" s="1" t="s">
-        <v>536</v>
+        <v>416</v>
       </c>
       <c r="E713" s="1" t="s">
-        <v>537</v>
+        <v>417</v>
       </c>
       <c r="F713" s="1" t="s">
-        <v>538</v>
+        <v>418</v>
       </c>
       <c r="G713" s="1"/>
     </row>
     <row r="714" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A714" s="1" t="s">
-        <v>1970</v>
+        <v>1940</v>
       </c>
       <c r="B714" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C714" s="1" t="s">
-        <v>539</v>
+        <v>419</v>
       </c>
       <c r="D714" s="1" t="s">
-        <v>540</v>
+        <v>420</v>
       </c>
       <c r="E714" s="1" t="s">
-        <v>541</v>
+        <v>421</v>
       </c>
       <c r="F714" s="1" t="s">
-        <v>542</v>
+        <v>422</v>
       </c>
       <c r="G714" s="1"/>
     </row>
     <row r="715" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A715" s="1" t="s">
-        <v>1971</v>
+        <v>1941</v>
       </c>
       <c r="B715" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C715" s="1" t="s">
-        <v>543</v>
+        <v>423</v>
       </c>
       <c r="D715" s="1" t="s">
-        <v>544</v>
+        <v>424</v>
       </c>
       <c r="E715" s="1" t="s">
-        <v>545</v>
+        <v>425</v>
       </c>
       <c r="F715" s="1" t="s">
-        <v>546</v>
+        <v>426</v>
       </c>
       <c r="G715" s="1"/>
     </row>
     <row r="716" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A716" s="1" t="s">
-        <v>1972</v>
+        <v>1942</v>
       </c>
       <c r="B716" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C716" s="1" t="s">
-        <v>547</v>
+        <v>427</v>
       </c>
       <c r="D716" s="1" t="s">
-        <v>548</v>
+        <v>428</v>
       </c>
       <c r="E716" s="1" t="s">
-        <v>549</v>
+        <v>429</v>
       </c>
       <c r="F716" s="1" t="s">
-        <v>550</v>
+        <v>430</v>
       </c>
       <c r="G716" s="1"/>
     </row>
     <row r="717" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A717" s="1" t="s">
-        <v>1973</v>
+        <v>1943</v>
       </c>
       <c r="B717" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C717" s="1" t="s">
-        <v>551</v>
+        <v>431</v>
       </c>
       <c r="D717" s="1" t="s">
-        <v>552</v>
+        <v>432</v>
       </c>
       <c r="E717" s="1" t="s">
-        <v>553</v>
+        <v>433</v>
       </c>
       <c r="F717" s="1" t="s">
-        <v>554</v>
+        <v>434</v>
       </c>
       <c r="G717" s="1"/>
     </row>
     <row r="718" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A718" s="1" t="s">
-        <v>1974</v>
+        <v>1944</v>
       </c>
       <c r="B718" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C718" s="1" t="s">
-        <v>555</v>
+        <v>435</v>
       </c>
       <c r="D718" s="1" t="s">
-        <v>556</v>
+        <v>436</v>
       </c>
       <c r="E718" s="1" t="s">
-        <v>557</v>
+        <v>437</v>
       </c>
       <c r="F718" s="1" t="s">
-        <v>558</v>
+        <v>438</v>
       </c>
       <c r="G718" s="1"/>
     </row>
     <row r="719" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A719" s="1" t="s">
-        <v>1975</v>
+        <v>1945</v>
       </c>
       <c r="B719" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C719" s="1" t="s">
-        <v>559</v>
+        <v>439</v>
       </c>
       <c r="D719" s="1" t="s">
-        <v>560</v>
+        <v>440</v>
       </c>
       <c r="E719" s="1" t="s">
-        <v>561</v>
+        <v>441</v>
       </c>
       <c r="F719" s="1" t="s">
-        <v>562</v>
+        <v>442</v>
       </c>
       <c r="G719" s="1"/>
     </row>
     <row r="720" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A720" s="1" t="s">
-        <v>1976</v>
+        <v>1946</v>
       </c>
       <c r="B720" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C720" s="1" t="s">
-        <v>563</v>
+        <v>443</v>
       </c>
       <c r="D720" s="1" t="s">
-        <v>564</v>
+        <v>444</v>
       </c>
       <c r="E720" s="1" t="s">
-        <v>565</v>
+        <v>445</v>
       </c>
       <c r="F720" s="1" t="s">
-        <v>566</v>
+        <v>446</v>
       </c>
       <c r="G720" s="1"/>
     </row>
     <row r="721" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A721" s="1" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B721" s="1">
+        <v>29</v>
+      </c>
+      <c r="C721" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D721" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E721" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F721" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="G721" s="1"/>
+    </row>
+    <row r="722" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A722" s="1" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B722" s="1">
+        <v>30</v>
+      </c>
+      <c r="C722" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D722" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E722" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F722" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="G722" s="1"/>
+    </row>
+    <row r="723" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A723" s="1" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B723" s="1">
+        <v>30</v>
+      </c>
+      <c r="C723" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D723" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E723" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F723" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="G723" s="1"/>
+    </row>
+    <row r="724" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A724" s="1" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B724" s="1">
+        <v>30</v>
+      </c>
+      <c r="C724" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D724" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E724" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F724" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="G724" s="1"/>
+    </row>
+    <row r="725" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A725" s="1" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B725" s="1">
+        <v>30</v>
+      </c>
+      <c r="C725" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D725" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E725" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F725" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="G725" s="1"/>
+    </row>
+    <row r="726" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A726" s="1" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B726" s="1">
+        <v>30</v>
+      </c>
+      <c r="C726" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D726" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E726" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F726" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G726" s="1"/>
+    </row>
+    <row r="727" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A727" s="1" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B727" s="1">
+        <v>30</v>
+      </c>
+      <c r="C727" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D727" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E727" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F727" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G727" s="1"/>
+    </row>
+    <row r="728" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A728" s="1" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B728" s="1">
+        <v>30</v>
+      </c>
+      <c r="C728" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D728" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E728" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F728" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="G728" s="1"/>
+    </row>
+    <row r="729" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A729" s="1" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B729" s="1">
+        <v>30</v>
+      </c>
+      <c r="C729" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D729" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E729" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F729" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="G729" s="1"/>
+    </row>
+    <row r="730" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A730" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B730" s="1">
+        <v>30</v>
+      </c>
+      <c r="C730" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D730" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E730" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F730" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G730" s="1"/>
+    </row>
+    <row r="731" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A731" s="1" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B731" s="1">
+        <v>30</v>
+      </c>
+      <c r="C731" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D731" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E731" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F731" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G731" s="1"/>
+    </row>
+    <row r="732" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A732" s="1" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B732" s="1">
+        <v>30</v>
+      </c>
+      <c r="C732" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D732" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E732" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F732" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="G732" s="1"/>
+    </row>
+    <row r="733" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A733" s="1" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B733" s="1">
+        <v>30</v>
+      </c>
+      <c r="C733" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D733" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E733" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F733" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="G733" s="1"/>
+    </row>
+    <row r="734" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A734" s="1" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B734" s="1">
+        <v>30</v>
+      </c>
+      <c r="C734" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D734" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="E734" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F734" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="G734" s="1"/>
+    </row>
+    <row r="735" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A735" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B735" s="1">
+        <v>30</v>
+      </c>
+      <c r="C735" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D735" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E735" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F735" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G735" s="1"/>
+    </row>
+    <row r="736" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A736" s="1" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B736" s="1">
+        <v>30</v>
+      </c>
+      <c r="C736" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D736" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="E736" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F736" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="G736" s="1"/>
+    </row>
+    <row r="737" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A737" s="1" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B737" s="1">
+        <v>30</v>
+      </c>
+      <c r="C737" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D737" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E737" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F737" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="G737" s="1"/>
+    </row>
+    <row r="738" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A738" s="1" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B738" s="1">
+        <v>30</v>
+      </c>
+      <c r="C738" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D738" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E738" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="F738" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="G738" s="1"/>
+    </row>
+    <row r="739" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A739" s="1" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B739" s="1">
+        <v>30</v>
+      </c>
+      <c r="C739" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D739" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E739" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F739" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G739" s="1"/>
+    </row>
+    <row r="740" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A740" s="1" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B740" s="1">
+        <v>30</v>
+      </c>
+      <c r="C740" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D740" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E740" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="F740" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="G740" s="1"/>
+    </row>
+    <row r="741" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A741" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B741" s="1">
+        <v>30</v>
+      </c>
+      <c r="C741" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D741" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E741" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F741" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="G741" s="1"/>
+    </row>
+    <row r="742" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A742" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B742" s="1">
+        <v>30</v>
+      </c>
+      <c r="C742" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D742" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E742" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F742" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="G742" s="1"/>
+    </row>
+    <row r="743" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A743" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B743" s="1">
+        <v>30</v>
+      </c>
+      <c r="C743" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D743" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="E743" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F743" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="G743" s="1"/>
+    </row>
+    <row r="744" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A744" s="1" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B744" s="1">
+        <v>30</v>
+      </c>
+      <c r="C744" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D744" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E744" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="F744" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="G744" s="1"/>
+    </row>
+    <row r="745" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A745" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B745" s="1">
+        <v>30</v>
+      </c>
+      <c r="C745" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D745" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="E745" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F745" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="G745" s="1"/>
+    </row>
+    <row r="746" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A746" s="1" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B746" s="1">
+        <v>30</v>
+      </c>
+      <c r="C746" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D746" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E746" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F746" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="G746" s="1"/>
+    </row>
+    <row r="747" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A747" s="1" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B747" s="1">
+        <v>30</v>
+      </c>
+      <c r="C747" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D747" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E747" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F747" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="G747" s="1"/>
+    </row>
+    <row r="748" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A748" s="1" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B748" s="1">
+        <v>30</v>
+      </c>
+      <c r="C748" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D748" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E748" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F748" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="G748" s="1"/>
+    </row>
+    <row r="749" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A749" s="1" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B749" s="1">
+        <v>30</v>
+      </c>
+      <c r="C749" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D749" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E749" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F749" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="G749" s="1"/>
+    </row>
+    <row r="750" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A750" s="1" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B750" s="1">
+        <v>30</v>
+      </c>
+      <c r="C750" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D750" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E750" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F750" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="G750" s="1"/>
+    </row>
+    <row r="751" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A751" s="1" t="s">
         <v>1977</v>
       </c>
-      <c r="B721" s="1">
+      <c r="B751" s="1">
         <v>30</v>
       </c>
-      <c r="C721" s="1" t="s">
+      <c r="C751" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D721" s="1" t="s">
+      <c r="D751" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="E721" s="1" t="s">
+      <c r="E751" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="F721" s="1" t="s">
+      <c r="F751" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="G721" s="1"/>
+      <c r="G751" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/data/WordStudy.xlsx
+++ b/data/WordStudy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dom/Documents/Dom/english-app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABE59DE-0608-2841-802E-2468AACDC97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82A9587-B534-6F43-AB60-83B187E3E127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51300" yWindow="560" windowWidth="34240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51240" yWindow="-2100" windowWidth="29840" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4354" uniqueCount="3704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4534" uniqueCount="3851">
   <si>
     <t>ID</t>
   </si>
@@ -11142,6 +11142,447 @@
   </si>
   <si>
     <t>gain something</t>
+  </si>
+  <si>
+    <t>U21_01</t>
+  </si>
+  <si>
+    <t>U21_02</t>
+  </si>
+  <si>
+    <t>U21_03</t>
+  </si>
+  <si>
+    <t>U21_04</t>
+  </si>
+  <si>
+    <t>U21_05</t>
+  </si>
+  <si>
+    <t>U21_06</t>
+  </si>
+  <si>
+    <t>U21_07</t>
+  </si>
+  <si>
+    <t>U21_08</t>
+  </si>
+  <si>
+    <t>U21_09</t>
+  </si>
+  <si>
+    <t>U21_10</t>
+  </si>
+  <si>
+    <t>U21_11</t>
+  </si>
+  <si>
+    <t>U21_12</t>
+  </si>
+  <si>
+    <t>U21_13</t>
+  </si>
+  <si>
+    <t>U21_14</t>
+  </si>
+  <si>
+    <t>U21_15</t>
+  </si>
+  <si>
+    <t>U21_16</t>
+  </si>
+  <si>
+    <t>U21_17</t>
+  </si>
+  <si>
+    <t>U21_18</t>
+  </si>
+  <si>
+    <t>U21_19</t>
+  </si>
+  <si>
+    <t>U21_20</t>
+  </si>
+  <si>
+    <t>U21_21</t>
+  </si>
+  <si>
+    <t>U21_22</t>
+  </si>
+  <si>
+    <t>U21_23</t>
+  </si>
+  <si>
+    <t>U21_24</t>
+  </si>
+  <si>
+    <t>U21_25</t>
+  </si>
+  <si>
+    <t>U21_26</t>
+  </si>
+  <si>
+    <t>U21_27</t>
+  </si>
+  <si>
+    <t>U21_28</t>
+  </si>
+  <si>
+    <t>U21_29</t>
+  </si>
+  <si>
+    <t>U21_30</t>
+  </si>
+  <si>
+    <t>Cái bẫy</t>
+  </si>
+  <si>
+    <t>Trap</t>
+  </si>
+  <si>
+    <t>The street market has become such a tourist trap</t>
+  </si>
+  <si>
+    <t>Tourist trap / bẫy du khách</t>
+  </si>
+  <si>
+    <t>Thoát khỏi</t>
+  </si>
+  <si>
+    <t>Get away</t>
+  </si>
+  <si>
+    <t>She tries to get away from the city</t>
+  </si>
+  <si>
+    <t>get away from sb or sth</t>
+  </si>
+  <si>
+    <t>Trip</t>
+  </si>
+  <si>
+    <t>we go on a trip to sapa</t>
+  </si>
+  <si>
+    <t>go on a trip</t>
+  </si>
+  <si>
+    <t>Làm hài lòng</t>
+  </si>
+  <si>
+    <t>satisfy</t>
+  </si>
+  <si>
+    <t>She can never satisfy him</t>
+  </si>
+  <si>
+    <t>satisfy somebody</t>
+  </si>
+  <si>
+    <t>Chuyến du ngoạn trên biển</t>
+  </si>
+  <si>
+    <t>Cruise</t>
+  </si>
+  <si>
+    <t>A luxury</t>
+  </si>
+  <si>
+    <t>cruise costs a lot</t>
+  </si>
+  <si>
+    <t>Khu nghỉ dưỡng</t>
+  </si>
+  <si>
+    <t>Resort</t>
+  </si>
+  <si>
+    <t>Phu Quoc has many tourist resorts</t>
+  </si>
+  <si>
+    <t>a tourist resort</t>
+  </si>
+  <si>
+    <t>Sảnh</t>
+  </si>
+  <si>
+    <t>Lobby</t>
+  </si>
+  <si>
+    <t>Wait for me at the hotel lobby</t>
+  </si>
+  <si>
+    <t>A hotel lobby</t>
+  </si>
+  <si>
+    <t>Trả phòng</t>
+  </si>
+  <si>
+    <t>Check out</t>
+  </si>
+  <si>
+    <t>We check out of our room before noon</t>
+  </si>
+  <si>
+    <t>Check out of one's room</t>
+  </si>
+  <si>
+    <t>Việc đặt trước chỗ</t>
+  </si>
+  <si>
+    <t>Reservation</t>
+  </si>
+  <si>
+    <t>She makes a reservation at Sen Ho Tay</t>
+  </si>
+  <si>
+    <t>Make a reservation</t>
+  </si>
+  <si>
+    <t>Đặt cọc tiền</t>
+  </si>
+  <si>
+    <t>Deposit</t>
+  </si>
+  <si>
+    <t>We deposit some money for the house</t>
+  </si>
+  <si>
+    <t>deposit some money</t>
+  </si>
+  <si>
+    <t>Qua đêm</t>
+  </si>
+  <si>
+    <t>Overnight</t>
+  </si>
+  <si>
+    <t>Her mother never lets us stay overnight</t>
+  </si>
+  <si>
+    <t>stay overnight</t>
+  </si>
+  <si>
+    <t>Du lịch</t>
+  </si>
+  <si>
+    <t>Travel</t>
+  </si>
+  <si>
+    <t>travel around the world</t>
+  </si>
+  <si>
+    <t>Hộ chiếu</t>
+  </si>
+  <si>
+    <t>Passport</t>
+  </si>
+  <si>
+    <t>You need a valid passport to travel</t>
+  </si>
+  <si>
+    <t>a valid passport</t>
+  </si>
+  <si>
+    <t>Kính râm</t>
+  </si>
+  <si>
+    <t>Sunglasses</t>
+  </si>
+  <si>
+    <t>She buys a pair of sunglasses</t>
+  </si>
+  <si>
+    <t>a pair of sunglasses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gối </t>
+  </si>
+  <si>
+    <t>Pillow</t>
+  </si>
+  <si>
+    <t>A comfortable pillow will fix your stiff neck</t>
+  </si>
+  <si>
+    <t>a comfortable pillow</t>
+  </si>
+  <si>
+    <t>Việc khởi hành</t>
+  </si>
+  <si>
+    <t>Departure</t>
+  </si>
+  <si>
+    <t>Departure from HN is at 11 am</t>
+  </si>
+  <si>
+    <t>departure from</t>
+  </si>
+  <si>
+    <t>Điểm đến</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>You will arrive at your destination at 2 PM</t>
+  </si>
+  <si>
+    <t>arrive at your destination</t>
+  </si>
+  <si>
+    <t>Điểm du lịch</t>
+  </si>
+  <si>
+    <t>Attraction</t>
+  </si>
+  <si>
+    <t>Hạ Long Bay is a popular tourist attraction</t>
+  </si>
+  <si>
+    <t>Tourist attraction</t>
+  </si>
+  <si>
+    <t>Đỉnh</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>He lives on top of the mountain</t>
+  </si>
+  <si>
+    <t>on top of something</t>
+  </si>
+  <si>
+    <t>Bản đồ</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Please follow the map to reach our hourse</t>
+  </si>
+  <si>
+    <t>Follow the map</t>
+  </si>
+  <si>
+    <t>bằng gỗ</t>
+  </si>
+  <si>
+    <t>Wooden</t>
+  </si>
+  <si>
+    <t>This house has a wooden door</t>
+  </si>
+  <si>
+    <t>a wooden door</t>
+  </si>
+  <si>
+    <t>Cave</t>
+  </si>
+  <si>
+    <t>Quanh Binh Has many underground caves</t>
+  </si>
+  <si>
+    <t>an underground cave / một hang động dưới lòng đất</t>
+  </si>
+  <si>
+    <t>Thiên nhiên</t>
+  </si>
+  <si>
+    <t>Nature</t>
+  </si>
+  <si>
+    <t>The beauty of nature really amazes us</t>
+  </si>
+  <si>
+    <t>The beauty of nature</t>
+  </si>
+  <si>
+    <t>Cầu</t>
+  </si>
+  <si>
+    <t>Bridge</t>
+  </si>
+  <si>
+    <t>It takes 20 minutes to cross the bridge</t>
+  </si>
+  <si>
+    <t>cross the bridge</t>
+  </si>
+  <si>
+    <t>Sân bay</t>
+  </si>
+  <si>
+    <t>Airport</t>
+  </si>
+  <si>
+    <t>Noi Bai is an internation airport</t>
+  </si>
+  <si>
+    <t>An international airport</t>
+  </si>
+  <si>
+    <t>Đoàn, đội, tổ</t>
+  </si>
+  <si>
+    <t>Crew</t>
+  </si>
+  <si>
+    <t>Crew members treat the passengers nicely</t>
+  </si>
+  <si>
+    <t>crew members / thuyền viên, nhân viên phi hành đoàn</t>
+  </si>
+  <si>
+    <t>Sự trì hoãn</t>
+  </si>
+  <si>
+    <t>Delay</t>
+  </si>
+  <si>
+    <t>The storm causes a delay in delivery</t>
+  </si>
+  <si>
+    <t>a delay in something</t>
+  </si>
+  <si>
+    <t>Quá trình vận chuyển</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transit </t>
+  </si>
+  <si>
+    <t>Some goods are lost in transit</t>
+  </si>
+  <si>
+    <t>in transit</t>
+  </si>
+  <si>
+    <t>Thăm thú</t>
+  </si>
+  <si>
+    <t>Look around</t>
+  </si>
+  <si>
+    <t>I just want to look around the store</t>
+  </si>
+  <si>
+    <t>Look around a place</t>
+  </si>
+  <si>
+    <t>Cổ đại</t>
+  </si>
+  <si>
+    <t>Axient</t>
+  </si>
+  <si>
+    <t>The maya civilization is a famous ancient culture</t>
+  </si>
+  <si>
+    <t>ancient culture</t>
   </si>
 </sst>
 </file>
@@ -11506,10 +11947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G751"/>
+  <dimension ref="A1:G781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B588" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C602" sqref="C602"/>
+    <sheetView tabSelected="1" topLeftCell="B611" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F628" sqref="F628"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25347,649 +25788,709 @@
     </row>
     <row r="602" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
-        <v>1828</v>
+        <v>3704</v>
       </c>
       <c r="B602" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C602" s="1" t="s">
-        <v>6</v>
+        <v>3734</v>
       </c>
       <c r="D602" s="1" t="s">
-        <v>7</v>
+        <v>3735</v>
       </c>
       <c r="E602" s="1" t="s">
-        <v>8</v>
+        <v>3736</v>
       </c>
       <c r="F602" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G602" s="1"/>
+        <v>3737</v>
+      </c>
+      <c r="G602" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="603" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
-        <v>1829</v>
+        <v>3705</v>
       </c>
       <c r="B603" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C603" s="1" t="s">
-        <v>10</v>
+        <v>3738</v>
       </c>
       <c r="D603" s="1" t="s">
-        <v>11</v>
+        <v>3739</v>
       </c>
       <c r="E603" s="1" t="s">
-        <v>12</v>
+        <v>3740</v>
       </c>
       <c r="F603" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G603" s="1"/>
+        <v>3741</v>
+      </c>
+      <c r="G603" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="604" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
-        <v>1830</v>
+        <v>3706</v>
       </c>
       <c r="B604" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C604" s="1" t="s">
-        <v>13</v>
+        <v>303</v>
       </c>
       <c r="D604" s="1" t="s">
-        <v>14</v>
+        <v>3742</v>
       </c>
       <c r="E604" s="1" t="s">
-        <v>15</v>
+        <v>3743</v>
       </c>
       <c r="F604" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G604" s="1"/>
+        <v>3744</v>
+      </c>
+      <c r="G604" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="605" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A605" s="1" t="s">
-        <v>1831</v>
+        <v>3707</v>
       </c>
       <c r="B605" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C605" s="1" t="s">
-        <v>16</v>
+        <v>3745</v>
       </c>
       <c r="D605" s="1" t="s">
-        <v>17</v>
+        <v>3746</v>
       </c>
       <c r="E605" s="1" t="s">
-        <v>18</v>
+        <v>3747</v>
       </c>
       <c r="F605" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G605" s="1"/>
+        <v>3748</v>
+      </c>
+      <c r="G605" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="606" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A606" s="1" t="s">
-        <v>1832</v>
+        <v>3708</v>
       </c>
       <c r="B606" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C606" s="1" t="s">
-        <v>19</v>
+        <v>3749</v>
       </c>
       <c r="D606" s="1" t="s">
-        <v>20</v>
+        <v>3750</v>
       </c>
       <c r="E606" s="1" t="s">
-        <v>21</v>
+        <v>3751</v>
       </c>
       <c r="F606" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G606" s="1"/>
+        <v>3752</v>
+      </c>
+      <c r="G606" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="607" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A607" s="1" t="s">
-        <v>1833</v>
+        <v>3709</v>
       </c>
       <c r="B607" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C607" s="1" t="s">
-        <v>22</v>
+        <v>3753</v>
       </c>
       <c r="D607" s="1" t="s">
-        <v>23</v>
+        <v>3754</v>
       </c>
       <c r="E607" s="1" t="s">
-        <v>24</v>
+        <v>3755</v>
       </c>
       <c r="F607" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G607" s="1"/>
+        <v>3756</v>
+      </c>
+      <c r="G607" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="608" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A608" s="1" t="s">
-        <v>1834</v>
+        <v>3710</v>
       </c>
       <c r="B608" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C608" s="1" t="s">
-        <v>25</v>
+        <v>3757</v>
       </c>
       <c r="D608" s="1" t="s">
-        <v>26</v>
+        <v>3758</v>
       </c>
       <c r="E608" s="1" t="s">
-        <v>27</v>
+        <v>3759</v>
       </c>
       <c r="F608" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G608" s="1"/>
+        <v>3760</v>
+      </c>
+      <c r="G608" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A609" s="1" t="s">
-        <v>1835</v>
+        <v>3711</v>
       </c>
       <c r="B609" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C609" s="1" t="s">
-        <v>28</v>
+        <v>3761</v>
       </c>
       <c r="D609" s="1" t="s">
-        <v>29</v>
+        <v>3762</v>
       </c>
       <c r="E609" s="1" t="s">
-        <v>30</v>
+        <v>3763</v>
       </c>
       <c r="F609" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G609" s="1"/>
+        <v>3764</v>
+      </c>
+      <c r="G609" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
-        <v>1836</v>
+        <v>3712</v>
       </c>
       <c r="B610" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C610" s="1" t="s">
-        <v>31</v>
+        <v>3765</v>
       </c>
       <c r="D610" s="1" t="s">
-        <v>32</v>
+        <v>3766</v>
       </c>
       <c r="E610" s="1" t="s">
-        <v>33</v>
+        <v>3767</v>
       </c>
       <c r="F610" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G610" s="1"/>
+        <v>3768</v>
+      </c>
+      <c r="G610" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A611" s="1" t="s">
-        <v>1837</v>
+        <v>3713</v>
       </c>
       <c r="B611" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C611" s="1" t="s">
-        <v>34</v>
+        <v>3769</v>
       </c>
       <c r="D611" s="1" t="s">
-        <v>35</v>
+        <v>3770</v>
       </c>
       <c r="E611" s="1" t="s">
-        <v>36</v>
+        <v>3771</v>
       </c>
       <c r="F611" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G611" s="1"/>
+        <v>3772</v>
+      </c>
+      <c r="G611" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A612" s="1" t="s">
-        <v>1838</v>
+        <v>3714</v>
       </c>
       <c r="B612" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C612" s="1" t="s">
-        <v>37</v>
+        <v>3773</v>
       </c>
       <c r="D612" s="1" t="s">
-        <v>38</v>
+        <v>3774</v>
       </c>
       <c r="E612" s="1" t="s">
-        <v>39</v>
+        <v>3775</v>
       </c>
       <c r="F612" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G612" s="1"/>
+        <v>3776</v>
+      </c>
+      <c r="G612" s="1" t="s">
+        <v>720</v>
+      </c>
     </row>
     <row r="613" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A613" s="1" t="s">
-        <v>1839</v>
+        <v>3715</v>
       </c>
       <c r="B613" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C613" s="1" t="s">
-        <v>40</v>
+        <v>3777</v>
       </c>
       <c r="D613" s="1" t="s">
-        <v>41</v>
+        <v>3778</v>
       </c>
       <c r="E613" s="1" t="s">
-        <v>42</v>
+        <v>2567</v>
       </c>
       <c r="F613" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G613" s="1"/>
+        <v>3779</v>
+      </c>
+      <c r="G613" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="614" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A614" s="1" t="s">
-        <v>1840</v>
+        <v>3716</v>
       </c>
       <c r="B614" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C614" s="1" t="s">
-        <v>43</v>
+        <v>3780</v>
       </c>
       <c r="D614" s="1" t="s">
-        <v>44</v>
+        <v>3781</v>
       </c>
       <c r="E614" s="1" t="s">
-        <v>45</v>
+        <v>3782</v>
       </c>
       <c r="F614" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G614" s="1"/>
+        <v>3783</v>
+      </c>
+      <c r="G614" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A615" s="1" t="s">
-        <v>1841</v>
+        <v>3717</v>
       </c>
       <c r="B615" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C615" s="1" t="s">
-        <v>47</v>
+        <v>3784</v>
       </c>
       <c r="D615" s="1" t="s">
-        <v>48</v>
+        <v>3785</v>
       </c>
       <c r="E615" s="1" t="s">
-        <v>49</v>
+        <v>3786</v>
       </c>
       <c r="F615" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G615" s="1"/>
+        <v>3787</v>
+      </c>
+      <c r="G615" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="616" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A616" s="1" t="s">
-        <v>1842</v>
+        <v>3718</v>
       </c>
       <c r="B616" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C616" s="1" t="s">
-        <v>50</v>
+        <v>3788</v>
       </c>
       <c r="D616" s="1" t="s">
-        <v>51</v>
+        <v>3789</v>
       </c>
       <c r="E616" s="1" t="s">
-        <v>52</v>
+        <v>3790</v>
       </c>
       <c r="F616" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G616" s="1"/>
+        <v>3791</v>
+      </c>
+      <c r="G616" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="617" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A617" s="1" t="s">
-        <v>1843</v>
+        <v>3719</v>
       </c>
       <c r="B617" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C617" s="1" t="s">
-        <v>54</v>
+        <v>3792</v>
       </c>
       <c r="D617" s="1" t="s">
-        <v>55</v>
+        <v>3793</v>
       </c>
       <c r="E617" s="1" t="s">
-        <v>56</v>
+        <v>3794</v>
       </c>
       <c r="F617" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G617" s="1"/>
+        <v>3795</v>
+      </c>
+      <c r="G617" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A618" s="1" t="s">
-        <v>1844</v>
+        <v>3720</v>
       </c>
       <c r="B618" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C618" s="1" t="s">
-        <v>57</v>
+        <v>3796</v>
       </c>
       <c r="D618" s="1" t="s">
-        <v>58</v>
+        <v>3797</v>
       </c>
       <c r="E618" s="1" t="s">
-        <v>59</v>
+        <v>3798</v>
       </c>
       <c r="F618" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G618" s="1"/>
+        <v>3799</v>
+      </c>
+      <c r="G618" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="619" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A619" s="1" t="s">
-        <v>1845</v>
+        <v>3721</v>
       </c>
       <c r="B619" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C619" s="1" t="s">
-        <v>61</v>
+        <v>3800</v>
       </c>
       <c r="D619" s="1" t="s">
-        <v>62</v>
+        <v>3801</v>
       </c>
       <c r="E619" s="1" t="s">
-        <v>63</v>
+        <v>3802</v>
       </c>
       <c r="F619" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G619" s="1"/>
+        <v>3803</v>
+      </c>
+      <c r="G619" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="620" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A620" s="1" t="s">
-        <v>1846</v>
+        <v>3722</v>
       </c>
       <c r="B620" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C620" s="1" t="s">
-        <v>64</v>
+        <v>3804</v>
       </c>
       <c r="D620" s="1" t="s">
-        <v>65</v>
+        <v>3805</v>
       </c>
       <c r="E620" s="1" t="s">
-        <v>66</v>
+        <v>3806</v>
       </c>
       <c r="F620" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G620" s="1"/>
+        <v>3807</v>
+      </c>
+      <c r="G620" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A621" s="1" t="s">
-        <v>1847</v>
+        <v>3723</v>
       </c>
       <c r="B621" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C621" s="1" t="s">
-        <v>67</v>
+        <v>3808</v>
       </c>
       <c r="D621" s="1" t="s">
-        <v>68</v>
+        <v>3809</v>
       </c>
       <c r="E621" s="1" t="s">
-        <v>69</v>
+        <v>3810</v>
       </c>
       <c r="F621" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G621" s="1"/>
+        <v>3811</v>
+      </c>
+      <c r="G621" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A622" s="1" t="s">
-        <v>1848</v>
+        <v>3724</v>
       </c>
       <c r="B622" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C622" s="1" t="s">
-        <v>71</v>
+        <v>3812</v>
       </c>
       <c r="D622" s="1" t="s">
-        <v>72</v>
+        <v>3813</v>
       </c>
       <c r="E622" s="1" t="s">
-        <v>73</v>
+        <v>3814</v>
       </c>
       <c r="F622" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G622" s="1"/>
+        <v>3815</v>
+      </c>
+      <c r="G622" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A623" s="1" t="s">
-        <v>1849</v>
+        <v>3725</v>
       </c>
       <c r="B623" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C623" s="1" t="s">
-        <v>74</v>
+        <v>637</v>
       </c>
       <c r="D623" s="1" t="s">
-        <v>75</v>
+        <v>3816</v>
       </c>
       <c r="E623" s="1" t="s">
-        <v>76</v>
+        <v>3817</v>
       </c>
       <c r="F623" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G623" s="1"/>
+        <v>3818</v>
+      </c>
+      <c r="G623" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A624" s="1" t="s">
-        <v>1850</v>
+        <v>3726</v>
       </c>
       <c r="B624" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C624" s="1" t="s">
-        <v>77</v>
+        <v>3819</v>
       </c>
       <c r="D624" s="1" t="s">
-        <v>78</v>
+        <v>3820</v>
       </c>
       <c r="E624" s="1" t="s">
-        <v>79</v>
+        <v>3821</v>
       </c>
       <c r="F624" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G624" s="1"/>
+        <v>3822</v>
+      </c>
+      <c r="G624" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A625" s="1" t="s">
-        <v>1851</v>
+        <v>3727</v>
       </c>
       <c r="B625" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C625" s="1" t="s">
-        <v>80</v>
+        <v>3823</v>
       </c>
       <c r="D625" s="1" t="s">
-        <v>81</v>
+        <v>3824</v>
       </c>
       <c r="E625" s="1" t="s">
-        <v>82</v>
+        <v>3825</v>
       </c>
       <c r="F625" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G625" s="1"/>
+        <v>3826</v>
+      </c>
+      <c r="G625" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="626" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A626" s="1" t="s">
-        <v>1852</v>
+        <v>3728</v>
       </c>
       <c r="B626" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C626" s="1" t="s">
-        <v>83</v>
+        <v>3827</v>
       </c>
       <c r="D626" s="1" t="s">
-        <v>84</v>
+        <v>3828</v>
       </c>
       <c r="E626" s="1" t="s">
-        <v>85</v>
+        <v>3829</v>
       </c>
       <c r="F626" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G626" s="1"/>
+        <v>3830</v>
+      </c>
+      <c r="G626" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A627" s="1" t="s">
-        <v>1853</v>
+        <v>3729</v>
       </c>
       <c r="B627" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C627" s="1" t="s">
-        <v>86</v>
+        <v>3831</v>
       </c>
       <c r="D627" s="1" t="s">
-        <v>87</v>
+        <v>3832</v>
       </c>
       <c r="E627" s="1" t="s">
-        <v>88</v>
+        <v>3833</v>
       </c>
       <c r="F627" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G627" s="1"/>
+        <v>3834</v>
+      </c>
+      <c r="G627" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="628" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A628" s="1" t="s">
-        <v>1854</v>
+        <v>3730</v>
       </c>
       <c r="B628" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C628" s="1" t="s">
-        <v>90</v>
+        <v>3835</v>
       </c>
       <c r="D628" s="1" t="s">
-        <v>91</v>
+        <v>3836</v>
       </c>
       <c r="E628" s="1" t="s">
-        <v>92</v>
+        <v>3837</v>
       </c>
       <c r="F628" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G628" s="1"/>
+        <v>3838</v>
+      </c>
+      <c r="G628" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="629" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A629" s="1" t="s">
-        <v>1855</v>
+        <v>3731</v>
       </c>
       <c r="B629" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C629" s="1" t="s">
-        <v>94</v>
+        <v>3839</v>
       </c>
       <c r="D629" s="1" t="s">
-        <v>95</v>
+        <v>3840</v>
       </c>
       <c r="E629" s="1" t="s">
-        <v>96</v>
+        <v>3841</v>
       </c>
       <c r="F629" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G629" s="1"/>
+        <v>3842</v>
+      </c>
+      <c r="G629" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="630" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A630" s="1" t="s">
-        <v>1856</v>
+        <v>3732</v>
       </c>
       <c r="B630" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C630" s="1" t="s">
-        <v>97</v>
+        <v>3843</v>
       </c>
       <c r="D630" s="1" t="s">
-        <v>98</v>
+        <v>3844</v>
       </c>
       <c r="E630" s="1" t="s">
-        <v>99</v>
+        <v>3845</v>
       </c>
       <c r="F630" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G630" s="1"/>
+        <v>3846</v>
+      </c>
+      <c r="G630" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="631" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A631" s="1" t="s">
-        <v>1857</v>
+        <v>3733</v>
       </c>
       <c r="B631" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C631" s="1" t="s">
-        <v>100</v>
+        <v>3847</v>
       </c>
       <c r="D631" s="1" t="s">
-        <v>101</v>
+        <v>3848</v>
       </c>
       <c r="E631" s="1" t="s">
-        <v>102</v>
+        <v>3849</v>
       </c>
       <c r="F631" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G631" s="1"/>
+        <v>3850</v>
+      </c>
+      <c r="G631" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="632" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A632" s="1" t="s">
-        <v>1858</v>
+        <v>1828</v>
       </c>
       <c r="B632" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C632" s="1" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="D632" s="1" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="E632" s="1" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="F632" s="1" t="s">
         <v>9</v>
@@ -25998,19 +26499,19 @@
     </row>
     <row r="633" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A633" s="1" t="s">
-        <v>1859</v>
+        <v>1829</v>
       </c>
       <c r="B633" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C633" s="1" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="D633" s="1" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="E633" s="1" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="F633" s="1" t="s">
         <v>9</v>
@@ -26019,19 +26520,19 @@
     </row>
     <row r="634" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A634" s="1" t="s">
-        <v>1860</v>
+        <v>1830</v>
       </c>
       <c r="B634" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C634" s="1" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="D634" s="1" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="E634" s="1" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="F634" s="1" t="s">
         <v>9</v>
@@ -26040,19 +26541,19 @@
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A635" s="1" t="s">
-        <v>1861</v>
+        <v>1831</v>
       </c>
       <c r="B635" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C635" s="1" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="D635" s="1" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="E635" s="1" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="F635" s="1" t="s">
         <v>9</v>
@@ -26061,19 +26562,19 @@
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A636" s="1" t="s">
-        <v>1862</v>
+        <v>1832</v>
       </c>
       <c r="B636" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C636" s="1" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="D636" s="1" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="E636" s="1" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="F636" s="1" t="s">
         <v>9</v>
@@ -26082,19 +26583,19 @@
     </row>
     <row r="637" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A637" s="1" t="s">
-        <v>1863</v>
+        <v>1833</v>
       </c>
       <c r="B637" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C637" s="1" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="D637" s="1" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="E637" s="1" t="s">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="F637" s="1" t="s">
         <v>9</v>
@@ -26103,61 +26604,61 @@
     </row>
     <row r="638" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A638" s="1" t="s">
-        <v>1864</v>
+        <v>1834</v>
       </c>
       <c r="B638" s="1">
+        <v>26</v>
+      </c>
+      <c r="C638" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D638" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E638" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C638" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D638" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E638" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="F638" s="1" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="G638" s="1"/>
     </row>
     <row r="639" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A639" s="1" t="s">
-        <v>1865</v>
+        <v>1835</v>
       </c>
       <c r="B639" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C639" s="1" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="D639" s="1" t="s">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="E639" s="1" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="F639" s="1" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="G639" s="1"/>
     </row>
     <row r="640" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A640" s="1" t="s">
-        <v>1866</v>
+        <v>1836</v>
       </c>
       <c r="B640" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C640" s="1" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="D640" s="1" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="E640" s="1" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="F640" s="1" t="s">
         <v>9</v>
@@ -26166,2328 +26667,2958 @@
     </row>
     <row r="641" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A641" s="1" t="s">
-        <v>1867</v>
+        <v>1837</v>
       </c>
       <c r="B641" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C641" s="1" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="D641" s="1" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="E641" s="1" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="F641" s="1" t="s">
-        <v>135</v>
+        <v>9</v>
       </c>
       <c r="G641" s="1"/>
     </row>
     <row r="642" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A642" s="1" t="s">
-        <v>1868</v>
+        <v>1838</v>
       </c>
       <c r="B642" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C642" s="1" t="s">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="D642" s="1" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="E642" s="1" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="F642" s="1" t="s">
-        <v>139</v>
+        <v>9</v>
       </c>
       <c r="G642" s="1"/>
     </row>
     <row r="643" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A643" s="1" t="s">
-        <v>1869</v>
+        <v>1839</v>
       </c>
       <c r="B643" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C643" s="1" t="s">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D643" s="1" t="s">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="E643" s="1" t="s">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="F643" s="1" t="s">
-        <v>143</v>
+        <v>9</v>
       </c>
       <c r="G643" s="1"/>
     </row>
     <row r="644" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A644" s="1" t="s">
-        <v>1870</v>
+        <v>1840</v>
       </c>
       <c r="B644" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C644" s="1" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="D644" s="1" t="s">
-        <v>145</v>
+        <v>44</v>
       </c>
       <c r="E644" s="1" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="F644" s="1" t="s">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="G644" s="1"/>
     </row>
     <row r="645" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A645" s="1" t="s">
-        <v>1871</v>
+        <v>1841</v>
       </c>
       <c r="B645" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C645" s="1" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="D645" s="1" t="s">
-        <v>149</v>
+        <v>48</v>
       </c>
       <c r="E645" s="1" t="s">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="F645" s="1" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="G645" s="1"/>
     </row>
     <row r="646" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A646" s="1" t="s">
-        <v>1872</v>
+        <v>1842</v>
       </c>
       <c r="B646" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C646" s="1" t="s">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="D646" s="1" t="s">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="E646" s="1" t="s">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c r="F646" s="1" t="s">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="G646" s="1"/>
     </row>
     <row r="647" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A647" s="1" t="s">
-        <v>1873</v>
+        <v>1843</v>
       </c>
       <c r="B647" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C647" s="1" t="s">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="D647" s="1" t="s">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c r="E647" s="1" t="s">
-        <v>158</v>
+        <v>56</v>
       </c>
       <c r="F647" s="1" t="s">
-        <v>159</v>
+        <v>9</v>
       </c>
       <c r="G647" s="1"/>
     </row>
     <row r="648" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A648" s="1" t="s">
-        <v>1874</v>
+        <v>1844</v>
       </c>
       <c r="B648" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C648" s="1" t="s">
-        <v>160</v>
+        <v>57</v>
       </c>
       <c r="D648" s="1" t="s">
-        <v>161</v>
+        <v>58</v>
       </c>
       <c r="E648" s="1" t="s">
-        <v>162</v>
+        <v>59</v>
       </c>
       <c r="F648" s="1" t="s">
-        <v>163</v>
+        <v>60</v>
       </c>
       <c r="G648" s="1"/>
     </row>
     <row r="649" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A649" s="1" t="s">
-        <v>1875</v>
+        <v>1845</v>
       </c>
       <c r="B649" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C649" s="1" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
       <c r="D649" s="1" t="s">
-        <v>165</v>
+        <v>62</v>
       </c>
       <c r="E649" s="1" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="F649" s="1" t="s">
-        <v>167</v>
+        <v>9</v>
       </c>
       <c r="G649" s="1"/>
     </row>
     <row r="650" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A650" s="1" t="s">
-        <v>1876</v>
+        <v>1846</v>
       </c>
       <c r="B650" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C650" s="1" t="s">
-        <v>168</v>
+        <v>64</v>
       </c>
       <c r="D650" s="1" t="s">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="E650" s="1" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="F650" s="1" t="s">
-        <v>171</v>
+        <v>9</v>
       </c>
       <c r="G650" s="1"/>
     </row>
     <row r="651" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A651" s="1" t="s">
-        <v>1877</v>
+        <v>1847</v>
       </c>
       <c r="B651" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C651" s="1" t="s">
-        <v>172</v>
+        <v>67</v>
       </c>
       <c r="D651" s="1" t="s">
-        <v>173</v>
+        <v>68</v>
       </c>
       <c r="E651" s="1" t="s">
-        <v>174</v>
+        <v>69</v>
       </c>
       <c r="F651" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="G651" s="1"/>
     </row>
     <row r="652" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A652" s="1" t="s">
-        <v>1878</v>
+        <v>1848</v>
       </c>
       <c r="B652" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C652" s="1" t="s">
-        <v>176</v>
+        <v>71</v>
       </c>
       <c r="D652" s="1" t="s">
-        <v>177</v>
+        <v>72</v>
       </c>
       <c r="E652" s="1" t="s">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="F652" s="1" t="s">
-        <v>179</v>
+        <v>9</v>
       </c>
       <c r="G652" s="1"/>
     </row>
     <row r="653" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A653" s="1" t="s">
-        <v>1879</v>
+        <v>1849</v>
       </c>
       <c r="B653" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C653" s="1" t="s">
-        <v>180</v>
+        <v>74</v>
       </c>
       <c r="D653" s="1" t="s">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="E653" s="1" t="s">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="F653" s="1" t="s">
-        <v>183</v>
+        <v>9</v>
       </c>
       <c r="G653" s="1"/>
     </row>
     <row r="654" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A654" s="1" t="s">
-        <v>1880</v>
+        <v>1850</v>
       </c>
       <c r="B654" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C654" s="1" t="s">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="D654" s="1" t="s">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="E654" s="1" t="s">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="F654" s="1" t="s">
-        <v>187</v>
+        <v>9</v>
       </c>
       <c r="G654" s="1"/>
     </row>
     <row r="655" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A655" s="1" t="s">
-        <v>1881</v>
+        <v>1851</v>
       </c>
       <c r="B655" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C655" s="1" t="s">
-        <v>188</v>
+        <v>80</v>
       </c>
       <c r="D655" s="1" t="s">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="E655" s="1" t="s">
-        <v>190</v>
+        <v>82</v>
       </c>
       <c r="F655" s="1" t="s">
-        <v>191</v>
+        <v>9</v>
       </c>
       <c r="G655" s="1"/>
     </row>
     <row r="656" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A656" s="1" t="s">
-        <v>1882</v>
+        <v>1852</v>
       </c>
       <c r="B656" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C656" s="1" t="s">
-        <v>192</v>
+        <v>83</v>
       </c>
       <c r="D656" s="1" t="s">
-        <v>193</v>
+        <v>84</v>
       </c>
       <c r="E656" s="1" t="s">
-        <v>194</v>
+        <v>85</v>
       </c>
       <c r="F656" s="1" t="s">
-        <v>195</v>
+        <v>9</v>
       </c>
       <c r="G656" s="1"/>
     </row>
     <row r="657" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A657" s="1" t="s">
-        <v>1883</v>
+        <v>1853</v>
       </c>
       <c r="B657" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C657" s="1" t="s">
-        <v>196</v>
+        <v>86</v>
       </c>
       <c r="D657" s="1" t="s">
-        <v>197</v>
+        <v>87</v>
       </c>
       <c r="E657" s="1" t="s">
-        <v>198</v>
+        <v>88</v>
       </c>
       <c r="F657" s="1" t="s">
-        <v>199</v>
+        <v>89</v>
       </c>
       <c r="G657" s="1"/>
     </row>
     <row r="658" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A658" s="1" t="s">
-        <v>1884</v>
+        <v>1854</v>
       </c>
       <c r="B658" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C658" s="1" t="s">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="D658" s="1" t="s">
-        <v>201</v>
+        <v>91</v>
       </c>
       <c r="E658" s="1" t="s">
-        <v>202</v>
+        <v>92</v>
       </c>
       <c r="F658" s="1" t="s">
-        <v>203</v>
+        <v>93</v>
       </c>
       <c r="G658" s="1"/>
     </row>
     <row r="659" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A659" s="1" t="s">
-        <v>1885</v>
+        <v>1855</v>
       </c>
       <c r="B659" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C659" s="1" t="s">
-        <v>204</v>
+        <v>94</v>
       </c>
       <c r="D659" s="1" t="s">
-        <v>205</v>
+        <v>95</v>
       </c>
       <c r="E659" s="1" t="s">
-        <v>206</v>
+        <v>96</v>
       </c>
       <c r="F659" s="1" t="s">
-        <v>207</v>
+        <v>9</v>
       </c>
       <c r="G659" s="1"/>
     </row>
     <row r="660" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A660" s="1" t="s">
-        <v>1886</v>
+        <v>1856</v>
       </c>
       <c r="B660" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C660" s="1" t="s">
-        <v>204</v>
+        <v>97</v>
       </c>
       <c r="D660" s="1" t="s">
-        <v>208</v>
+        <v>98</v>
       </c>
       <c r="E660" s="1" t="s">
-        <v>209</v>
+        <v>99</v>
       </c>
       <c r="F660" s="1" t="s">
-        <v>210</v>
+        <v>9</v>
       </c>
       <c r="G660" s="1"/>
     </row>
     <row r="661" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A661" s="1" t="s">
-        <v>1887</v>
+        <v>1857</v>
       </c>
       <c r="B661" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C661" s="1" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="D661" s="1" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
       <c r="E661" s="1" t="s">
-        <v>213</v>
+        <v>102</v>
       </c>
       <c r="F661" s="1" t="s">
-        <v>214</v>
+        <v>9</v>
       </c>
       <c r="G661" s="1"/>
     </row>
     <row r="662" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A662" s="1" t="s">
-        <v>1888</v>
+        <v>1858</v>
       </c>
       <c r="B662" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C662" s="1" t="s">
-        <v>215</v>
+        <v>103</v>
       </c>
       <c r="D662" s="1" t="s">
-        <v>216</v>
+        <v>104</v>
       </c>
       <c r="E662" s="1" t="s">
-        <v>217</v>
+        <v>105</v>
       </c>
       <c r="F662" s="1" t="s">
-        <v>218</v>
+        <v>9</v>
       </c>
       <c r="G662" s="1"/>
     </row>
     <row r="663" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A663" s="1" t="s">
-        <v>1889</v>
+        <v>1859</v>
       </c>
       <c r="B663" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C663" s="1" t="s">
-        <v>219</v>
+        <v>106</v>
       </c>
       <c r="D663" s="1" t="s">
-        <v>220</v>
+        <v>107</v>
       </c>
       <c r="E663" s="1" t="s">
-        <v>221</v>
+        <v>108</v>
       </c>
       <c r="F663" s="1" t="s">
-        <v>222</v>
+        <v>9</v>
       </c>
       <c r="G663" s="1"/>
     </row>
     <row r="664" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A664" s="1" t="s">
-        <v>1890</v>
+        <v>1860</v>
       </c>
       <c r="B664" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C664" s="1" t="s">
-        <v>223</v>
+        <v>109</v>
       </c>
       <c r="D664" s="1" t="s">
-        <v>224</v>
+        <v>110</v>
       </c>
       <c r="E664" s="1" t="s">
-        <v>225</v>
+        <v>111</v>
       </c>
       <c r="F664" s="1" t="s">
-        <v>226</v>
+        <v>9</v>
       </c>
       <c r="G664" s="1"/>
     </row>
     <row r="665" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A665" s="1" t="s">
-        <v>1891</v>
+        <v>1861</v>
       </c>
       <c r="B665" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C665" s="1" t="s">
-        <v>227</v>
+        <v>112</v>
       </c>
       <c r="D665" s="1" t="s">
-        <v>228</v>
+        <v>113</v>
       </c>
       <c r="E665" s="1" t="s">
-        <v>229</v>
+        <v>114</v>
       </c>
       <c r="F665" s="1" t="s">
-        <v>230</v>
+        <v>9</v>
       </c>
       <c r="G665" s="1"/>
     </row>
     <row r="666" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A666" s="1" t="s">
-        <v>1892</v>
+        <v>1862</v>
       </c>
       <c r="B666" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C666" s="1" t="s">
-        <v>231</v>
+        <v>115</v>
       </c>
       <c r="D666" s="1" t="s">
-        <v>232</v>
+        <v>116</v>
       </c>
       <c r="E666" s="1" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="F666" s="1" t="s">
-        <v>234</v>
+        <v>9</v>
       </c>
       <c r="G666" s="1"/>
     </row>
     <row r="667" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A667" s="1" t="s">
-        <v>1893</v>
+        <v>1863</v>
       </c>
       <c r="B667" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C667" s="1" t="s">
-        <v>235</v>
+        <v>118</v>
       </c>
       <c r="D667" s="1" t="s">
-        <v>236</v>
+        <v>119</v>
       </c>
       <c r="E667" s="1" t="s">
-        <v>237</v>
+        <v>120</v>
       </c>
       <c r="F667" s="1" t="s">
-        <v>238</v>
+        <v>9</v>
       </c>
       <c r="G667" s="1"/>
     </row>
     <row r="668" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A668" s="1" t="s">
-        <v>1894</v>
+        <v>1864</v>
       </c>
       <c r="B668" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C668" s="1" t="s">
-        <v>239</v>
+        <v>121</v>
       </c>
       <c r="D668" s="1" t="s">
-        <v>240</v>
+        <v>122</v>
       </c>
       <c r="E668" s="1" t="s">
-        <v>241</v>
+        <v>123</v>
       </c>
       <c r="F668" s="1" t="s">
-        <v>242</v>
+        <v>124</v>
       </c>
       <c r="G668" s="1"/>
     </row>
     <row r="669" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A669" s="1" t="s">
-        <v>1895</v>
+        <v>1865</v>
       </c>
       <c r="B669" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C669" s="1" t="s">
-        <v>243</v>
+        <v>125</v>
       </c>
       <c r="D669" s="1" t="s">
-        <v>244</v>
+        <v>126</v>
       </c>
       <c r="E669" s="1" t="s">
-        <v>245</v>
+        <v>127</v>
       </c>
       <c r="F669" s="1" t="s">
-        <v>246</v>
+        <v>128</v>
       </c>
       <c r="G669" s="1"/>
     </row>
     <row r="670" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A670" s="1" t="s">
-        <v>1896</v>
+        <v>1866</v>
       </c>
       <c r="B670" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C670" s="1" t="s">
-        <v>247</v>
+        <v>129</v>
       </c>
       <c r="D670" s="1" t="s">
-        <v>248</v>
+        <v>130</v>
       </c>
       <c r="E670" s="1" t="s">
-        <v>249</v>
+        <v>131</v>
       </c>
       <c r="F670" s="1" t="s">
-        <v>250</v>
+        <v>9</v>
       </c>
       <c r="G670" s="1"/>
     </row>
     <row r="671" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A671" s="1" t="s">
-        <v>1897</v>
+        <v>1867</v>
       </c>
       <c r="B671" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C671" s="1" t="s">
-        <v>251</v>
+        <v>132</v>
       </c>
       <c r="D671" s="1" t="s">
-        <v>252</v>
+        <v>133</v>
       </c>
       <c r="E671" s="1" t="s">
-        <v>253</v>
+        <v>134</v>
       </c>
       <c r="F671" s="1" t="s">
-        <v>254</v>
+        <v>135</v>
       </c>
       <c r="G671" s="1"/>
     </row>
     <row r="672" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A672" s="1" t="s">
-        <v>1898</v>
+        <v>1868</v>
       </c>
       <c r="B672" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C672" s="1" t="s">
-        <v>255</v>
+        <v>136</v>
       </c>
       <c r="D672" s="1" t="s">
-        <v>256</v>
+        <v>137</v>
       </c>
       <c r="E672" s="1" t="s">
-        <v>257</v>
+        <v>138</v>
       </c>
       <c r="F672" s="1" t="s">
-        <v>258</v>
+        <v>139</v>
       </c>
       <c r="G672" s="1"/>
     </row>
     <row r="673" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A673" s="1" t="s">
-        <v>1899</v>
+        <v>1869</v>
       </c>
       <c r="B673" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C673" s="1" t="s">
-        <v>259</v>
+        <v>140</v>
       </c>
       <c r="D673" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E673" s="1"/>
-      <c r="F673" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="E673" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F673" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="G673" s="1"/>
     </row>
     <row r="674" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A674" s="1" t="s">
-        <v>1900</v>
+        <v>1870</v>
       </c>
       <c r="B674" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C674" s="1" t="s">
-        <v>261</v>
+        <v>144</v>
       </c>
       <c r="D674" s="1" t="s">
-        <v>262</v>
+        <v>145</v>
       </c>
       <c r="E674" s="1" t="s">
-        <v>263</v>
+        <v>146</v>
       </c>
       <c r="F674" s="1" t="s">
-        <v>264</v>
+        <v>147</v>
       </c>
       <c r="G674" s="1"/>
     </row>
     <row r="675" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A675" s="1" t="s">
-        <v>1901</v>
+        <v>1871</v>
       </c>
       <c r="B675" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C675" s="1" t="s">
-        <v>265</v>
+        <v>148</v>
       </c>
       <c r="D675" s="1" t="s">
-        <v>266</v>
+        <v>149</v>
       </c>
       <c r="E675" s="1" t="s">
-        <v>267</v>
+        <v>150</v>
       </c>
       <c r="F675" s="1" t="s">
-        <v>268</v>
+        <v>151</v>
       </c>
       <c r="G675" s="1"/>
     </row>
     <row r="676" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A676" s="1" t="s">
-        <v>1902</v>
+        <v>1872</v>
       </c>
       <c r="B676" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C676" s="1" t="s">
-        <v>269</v>
+        <v>152</v>
       </c>
       <c r="D676" s="1" t="s">
-        <v>270</v>
+        <v>153</v>
       </c>
       <c r="E676" s="1" t="s">
-        <v>271</v>
+        <v>154</v>
       </c>
       <c r="F676" s="1" t="s">
-        <v>272</v>
+        <v>155</v>
       </c>
       <c r="G676" s="1"/>
     </row>
     <row r="677" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A677" s="1" t="s">
-        <v>1903</v>
+        <v>1873</v>
       </c>
       <c r="B677" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C677" s="1" t="s">
-        <v>6</v>
+        <v>156</v>
       </c>
       <c r="D677" s="1" t="s">
-        <v>273</v>
+        <v>157</v>
       </c>
       <c r="E677" s="1" t="s">
-        <v>274</v>
+        <v>158</v>
       </c>
       <c r="F677" s="1" t="s">
-        <v>275</v>
+        <v>159</v>
       </c>
       <c r="G677" s="1"/>
     </row>
     <row r="678" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A678" s="1" t="s">
-        <v>1904</v>
+        <v>1874</v>
       </c>
       <c r="B678" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C678" s="1" t="s">
-        <v>276</v>
+        <v>160</v>
       </c>
       <c r="D678" s="1" t="s">
-        <v>277</v>
+        <v>161</v>
       </c>
       <c r="E678" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F678" s="1"/>
+        <v>162</v>
+      </c>
+      <c r="F678" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="G678" s="1"/>
     </row>
     <row r="679" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A679" s="1" t="s">
-        <v>1905</v>
+        <v>1875</v>
       </c>
       <c r="B679" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C679" s="1" t="s">
-        <v>279</v>
+        <v>164</v>
       </c>
       <c r="D679" s="1" t="s">
-        <v>280</v>
+        <v>165</v>
       </c>
       <c r="E679" s="1" t="s">
-        <v>281</v>
+        <v>166</v>
       </c>
       <c r="F679" s="1" t="s">
-        <v>282</v>
+        <v>167</v>
       </c>
       <c r="G679" s="1"/>
     </row>
     <row r="680" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A680" s="1" t="s">
-        <v>1906</v>
+        <v>1876</v>
       </c>
       <c r="B680" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C680" s="1" t="s">
-        <v>283</v>
+        <v>168</v>
       </c>
       <c r="D680" s="1" t="s">
-        <v>284</v>
+        <v>169</v>
       </c>
       <c r="E680" s="1" t="s">
-        <v>285</v>
+        <v>170</v>
       </c>
       <c r="F680" s="1" t="s">
-        <v>286</v>
+        <v>171</v>
       </c>
       <c r="G680" s="1"/>
     </row>
     <row r="681" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A681" s="1" t="s">
-        <v>1907</v>
+        <v>1877</v>
       </c>
       <c r="B681" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C681" s="1" t="s">
-        <v>287</v>
+        <v>172</v>
       </c>
       <c r="D681" s="1" t="s">
-        <v>288</v>
+        <v>173</v>
       </c>
       <c r="E681" s="1" t="s">
-        <v>289</v>
+        <v>174</v>
       </c>
       <c r="F681" s="1" t="s">
-        <v>290</v>
+        <v>175</v>
       </c>
       <c r="G681" s="1"/>
     </row>
     <row r="682" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A682" s="1" t="s">
-        <v>1908</v>
+        <v>1878</v>
       </c>
       <c r="B682" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C682" s="1" t="s">
-        <v>291</v>
+        <v>176</v>
       </c>
       <c r="D682" s="1" t="s">
-        <v>292</v>
+        <v>177</v>
       </c>
       <c r="E682" s="1" t="s">
-        <v>293</v>
+        <v>178</v>
       </c>
       <c r="F682" s="1" t="s">
-        <v>294</v>
+        <v>179</v>
       </c>
       <c r="G682" s="1"/>
     </row>
     <row r="683" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A683" s="1" t="s">
-        <v>1909</v>
+        <v>1879</v>
       </c>
       <c r="B683" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C683" s="1" t="s">
-        <v>295</v>
+        <v>180</v>
       </c>
       <c r="D683" s="1" t="s">
-        <v>296</v>
+        <v>181</v>
       </c>
       <c r="E683" s="1" t="s">
-        <v>297</v>
+        <v>182</v>
       </c>
       <c r="F683" s="1" t="s">
-        <v>298</v>
+        <v>183</v>
       </c>
       <c r="G683" s="1"/>
     </row>
     <row r="684" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A684" s="1" t="s">
-        <v>1910</v>
+        <v>1880</v>
       </c>
       <c r="B684" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C684" s="1" t="s">
-        <v>299</v>
+        <v>184</v>
       </c>
       <c r="D684" s="1" t="s">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="E684" s="1" t="s">
-        <v>301</v>
+        <v>186</v>
       </c>
       <c r="F684" s="1" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="G684" s="1"/>
     </row>
     <row r="685" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A685" s="1" t="s">
-        <v>1911</v>
+        <v>1881</v>
       </c>
       <c r="B685" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C685" s="1" t="s">
-        <v>303</v>
+        <v>188</v>
       </c>
       <c r="D685" s="1" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="E685" s="1" t="s">
-        <v>305</v>
+        <v>190</v>
       </c>
       <c r="F685" s="1" t="s">
-        <v>306</v>
+        <v>191</v>
       </c>
       <c r="G685" s="1"/>
     </row>
     <row r="686" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A686" s="1" t="s">
-        <v>1912</v>
+        <v>1882</v>
       </c>
       <c r="B686" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C686" s="1" t="s">
-        <v>307</v>
+        <v>192</v>
       </c>
       <c r="D686" s="1" t="s">
-        <v>308</v>
+        <v>193</v>
       </c>
       <c r="E686" s="1" t="s">
-        <v>309</v>
+        <v>194</v>
       </c>
       <c r="F686" s="1" t="s">
-        <v>310</v>
+        <v>195</v>
       </c>
       <c r="G686" s="1"/>
     </row>
     <row r="687" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A687" s="1" t="s">
-        <v>1913</v>
+        <v>1883</v>
       </c>
       <c r="B687" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C687" s="1" t="s">
-        <v>311</v>
+        <v>196</v>
       </c>
       <c r="D687" s="1" t="s">
-        <v>312</v>
+        <v>197</v>
       </c>
       <c r="E687" s="1" t="s">
-        <v>313</v>
+        <v>198</v>
       </c>
       <c r="F687" s="1" t="s">
-        <v>314</v>
+        <v>199</v>
       </c>
       <c r="G687" s="1"/>
     </row>
     <row r="688" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A688" s="1" t="s">
-        <v>1914</v>
+        <v>1884</v>
       </c>
       <c r="B688" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C688" s="1" t="s">
-        <v>315</v>
+        <v>200</v>
       </c>
       <c r="D688" s="1" t="s">
-        <v>316</v>
+        <v>201</v>
       </c>
       <c r="E688" s="1" t="s">
-        <v>317</v>
+        <v>202</v>
       </c>
       <c r="F688" s="1" t="s">
-        <v>318</v>
+        <v>203</v>
       </c>
       <c r="G688" s="1"/>
     </row>
     <row r="689" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A689" s="1" t="s">
-        <v>1915</v>
+        <v>1885</v>
       </c>
       <c r="B689" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C689" s="1" t="s">
-        <v>319</v>
+        <v>204</v>
       </c>
       <c r="D689" s="1" t="s">
-        <v>320</v>
+        <v>205</v>
       </c>
       <c r="E689" s="1" t="s">
-        <v>321</v>
+        <v>206</v>
       </c>
       <c r="F689" s="1" t="s">
-        <v>322</v>
+        <v>207</v>
       </c>
       <c r="G689" s="1"/>
     </row>
     <row r="690" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A690" s="1" t="s">
-        <v>1916</v>
+        <v>1886</v>
       </c>
       <c r="B690" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C690" s="1" t="s">
-        <v>323</v>
+        <v>204</v>
       </c>
       <c r="D690" s="1" t="s">
-        <v>324</v>
+        <v>208</v>
       </c>
       <c r="E690" s="1" t="s">
-        <v>325</v>
+        <v>209</v>
       </c>
       <c r="F690" s="1" t="s">
-        <v>326</v>
+        <v>210</v>
       </c>
       <c r="G690" s="1"/>
     </row>
     <row r="691" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A691" s="1" t="s">
-        <v>1917</v>
+        <v>1887</v>
       </c>
       <c r="B691" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C691" s="1" t="s">
-        <v>327</v>
+        <v>211</v>
       </c>
       <c r="D691" s="1" t="s">
-        <v>328</v>
+        <v>212</v>
       </c>
       <c r="E691" s="1" t="s">
-        <v>329</v>
+        <v>213</v>
       </c>
       <c r="F691" s="1" t="s">
-        <v>330</v>
+        <v>214</v>
       </c>
       <c r="G691" s="1"/>
     </row>
     <row r="692" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A692" s="1" t="s">
-        <v>1918</v>
+        <v>1888</v>
       </c>
       <c r="B692" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C692" s="1" t="s">
-        <v>331</v>
+        <v>215</v>
       </c>
       <c r="D692" s="1" t="s">
-        <v>332</v>
+        <v>216</v>
       </c>
       <c r="E692" s="1" t="s">
-        <v>333</v>
+        <v>217</v>
       </c>
       <c r="F692" s="1" t="s">
-        <v>334</v>
+        <v>218</v>
       </c>
       <c r="G692" s="1"/>
     </row>
     <row r="693" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A693" s="1" t="s">
-        <v>1919</v>
+        <v>1889</v>
       </c>
       <c r="B693" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C693" s="1" t="s">
-        <v>335</v>
+        <v>219</v>
       </c>
       <c r="D693" s="1" t="s">
-        <v>336</v>
+        <v>220</v>
       </c>
       <c r="E693" s="1" t="s">
-        <v>337</v>
+        <v>221</v>
       </c>
       <c r="F693" s="1" t="s">
-        <v>338</v>
+        <v>222</v>
       </c>
       <c r="G693" s="1"/>
     </row>
     <row r="694" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A694" s="1" t="s">
-        <v>1920</v>
+        <v>1890</v>
       </c>
       <c r="B694" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C694" s="1" t="s">
-        <v>339</v>
+        <v>223</v>
       </c>
       <c r="D694" s="1" t="s">
-        <v>340</v>
+        <v>224</v>
       </c>
       <c r="E694" s="1" t="s">
-        <v>341</v>
+        <v>225</v>
       </c>
       <c r="F694" s="1" t="s">
-        <v>342</v>
+        <v>226</v>
       </c>
       <c r="G694" s="1"/>
     </row>
     <row r="695" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A695" s="1" t="s">
-        <v>1921</v>
+        <v>1891</v>
       </c>
       <c r="B695" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C695" s="1" t="s">
-        <v>343</v>
+        <v>227</v>
       </c>
       <c r="D695" s="1" t="s">
-        <v>344</v>
+        <v>228</v>
       </c>
       <c r="E695" s="1" t="s">
-        <v>345</v>
+        <v>229</v>
       </c>
       <c r="F695" s="1" t="s">
-        <v>346</v>
+        <v>230</v>
       </c>
       <c r="G695" s="1"/>
     </row>
     <row r="696" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A696" s="1" t="s">
-        <v>1922</v>
+        <v>1892</v>
       </c>
       <c r="B696" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C696" s="1" t="s">
-        <v>347</v>
+        <v>231</v>
       </c>
       <c r="D696" s="1" t="s">
-        <v>348</v>
+        <v>232</v>
       </c>
       <c r="E696" s="1" t="s">
-        <v>349</v>
+        <v>233</v>
       </c>
       <c r="F696" s="1" t="s">
-        <v>350</v>
+        <v>234</v>
       </c>
       <c r="G696" s="1"/>
     </row>
     <row r="697" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A697" s="1" t="s">
-        <v>1923</v>
+        <v>1893</v>
       </c>
       <c r="B697" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C697" s="1" t="s">
-        <v>351</v>
+        <v>235</v>
       </c>
       <c r="D697" s="1" t="s">
-        <v>352</v>
+        <v>236</v>
       </c>
       <c r="E697" s="1" t="s">
-        <v>353</v>
+        <v>237</v>
       </c>
       <c r="F697" s="1" t="s">
-        <v>354</v>
+        <v>238</v>
       </c>
       <c r="G697" s="1"/>
     </row>
     <row r="698" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A698" s="1" t="s">
-        <v>1924</v>
+        <v>1894</v>
       </c>
       <c r="B698" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C698" s="1" t="s">
-        <v>355</v>
+        <v>239</v>
       </c>
       <c r="D698" s="1" t="s">
-        <v>356</v>
+        <v>240</v>
       </c>
       <c r="E698" s="1" t="s">
-        <v>357</v>
+        <v>241</v>
       </c>
       <c r="F698" s="1" t="s">
-        <v>358</v>
+        <v>242</v>
       </c>
       <c r="G698" s="1"/>
     </row>
     <row r="699" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A699" s="1" t="s">
-        <v>1925</v>
+        <v>1895</v>
       </c>
       <c r="B699" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C699" s="1" t="s">
-        <v>359</v>
+        <v>243</v>
       </c>
       <c r="D699" s="1" t="s">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="E699" s="1" t="s">
-        <v>361</v>
+        <v>245</v>
       </c>
       <c r="F699" s="1" t="s">
-        <v>362</v>
+        <v>246</v>
       </c>
       <c r="G699" s="1"/>
     </row>
     <row r="700" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A700" s="1" t="s">
-        <v>1926</v>
+        <v>1896</v>
       </c>
       <c r="B700" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C700" s="1" t="s">
-        <v>363</v>
+        <v>247</v>
       </c>
       <c r="D700" s="1" t="s">
-        <v>364</v>
+        <v>248</v>
       </c>
       <c r="E700" s="1" t="s">
-        <v>365</v>
+        <v>249</v>
       </c>
       <c r="F700" s="1" t="s">
-        <v>366</v>
+        <v>250</v>
       </c>
       <c r="G700" s="1"/>
     </row>
     <row r="701" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A701" s="1" t="s">
-        <v>1927</v>
+        <v>1897</v>
       </c>
       <c r="B701" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C701" s="1" t="s">
-        <v>367</v>
+        <v>251</v>
       </c>
       <c r="D701" s="1" t="s">
-        <v>368</v>
+        <v>252</v>
       </c>
       <c r="E701" s="1" t="s">
-        <v>369</v>
+        <v>253</v>
       </c>
       <c r="F701" s="1" t="s">
-        <v>370</v>
+        <v>254</v>
       </c>
       <c r="G701" s="1"/>
     </row>
     <row r="702" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A702" s="1" t="s">
-        <v>1928</v>
+        <v>1898</v>
       </c>
       <c r="B702" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C702" s="1" t="s">
-        <v>371</v>
+        <v>255</v>
       </c>
       <c r="D702" s="1" t="s">
-        <v>372</v>
+        <v>256</v>
       </c>
       <c r="E702" s="1" t="s">
-        <v>373</v>
+        <v>257</v>
       </c>
       <c r="F702" s="1" t="s">
-        <v>374</v>
+        <v>258</v>
       </c>
       <c r="G702" s="1"/>
     </row>
     <row r="703" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A703" s="1" t="s">
-        <v>1929</v>
+        <v>1899</v>
       </c>
       <c r="B703" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C703" s="1" t="s">
-        <v>375</v>
+        <v>259</v>
       </c>
       <c r="D703" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="E703" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="F703" s="1" t="s">
-        <v>378</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="E703" s="1"/>
+      <c r="F703" s="1"/>
       <c r="G703" s="1"/>
     </row>
     <row r="704" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A704" s="1" t="s">
-        <v>1930</v>
+        <v>1900</v>
       </c>
       <c r="B704" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C704" s="1" t="s">
-        <v>379</v>
+        <v>261</v>
       </c>
       <c r="D704" s="1" t="s">
-        <v>380</v>
+        <v>262</v>
       </c>
       <c r="E704" s="1" t="s">
-        <v>381</v>
+        <v>263</v>
       </c>
       <c r="F704" s="1" t="s">
-        <v>382</v>
+        <v>264</v>
       </c>
       <c r="G704" s="1"/>
     </row>
     <row r="705" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A705" s="1" t="s">
-        <v>1931</v>
+        <v>1901</v>
       </c>
       <c r="B705" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C705" s="1" t="s">
-        <v>383</v>
+        <v>265</v>
       </c>
       <c r="D705" s="1" t="s">
-        <v>384</v>
+        <v>266</v>
       </c>
       <c r="E705" s="1" t="s">
-        <v>385</v>
+        <v>267</v>
       </c>
       <c r="F705" s="1" t="s">
-        <v>386</v>
+        <v>268</v>
       </c>
       <c r="G705" s="1"/>
     </row>
     <row r="706" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A706" s="1" t="s">
-        <v>1932</v>
+        <v>1902</v>
       </c>
       <c r="B706" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C706" s="1" t="s">
-        <v>387</v>
+        <v>269</v>
       </c>
       <c r="D706" s="1" t="s">
-        <v>388</v>
+        <v>270</v>
       </c>
       <c r="E706" s="1" t="s">
-        <v>389</v>
+        <v>271</v>
       </c>
       <c r="F706" s="1" t="s">
-        <v>390</v>
+        <v>272</v>
       </c>
       <c r="G706" s="1"/>
     </row>
     <row r="707" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A707" s="1" t="s">
-        <v>1933</v>
+        <v>1903</v>
       </c>
       <c r="B707" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C707" s="1" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
       <c r="D707" s="1" t="s">
-        <v>392</v>
+        <v>273</v>
       </c>
       <c r="E707" s="1" t="s">
-        <v>393</v>
+        <v>274</v>
       </c>
       <c r="F707" s="1" t="s">
-        <v>394</v>
+        <v>275</v>
       </c>
       <c r="G707" s="1"/>
     </row>
     <row r="708" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A708" s="1" t="s">
-        <v>1934</v>
+        <v>1904</v>
       </c>
       <c r="B708" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C708" s="1" t="s">
-        <v>395</v>
+        <v>276</v>
       </c>
       <c r="D708" s="1" t="s">
-        <v>396</v>
+        <v>277</v>
       </c>
       <c r="E708" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="F708" s="1" t="s">
-        <v>398</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="F708" s="1"/>
       <c r="G708" s="1"/>
     </row>
     <row r="709" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A709" s="1" t="s">
-        <v>1935</v>
+        <v>1905</v>
       </c>
       <c r="B709" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C709" s="1" t="s">
-        <v>399</v>
+        <v>279</v>
       </c>
       <c r="D709" s="1" t="s">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="E709" s="1" t="s">
-        <v>401</v>
+        <v>281</v>
       </c>
       <c r="F709" s="1" t="s">
-        <v>402</v>
+        <v>282</v>
       </c>
       <c r="G709" s="1"/>
     </row>
     <row r="710" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A710" s="1" t="s">
-        <v>1936</v>
+        <v>1906</v>
       </c>
       <c r="B710" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C710" s="1" t="s">
-        <v>403</v>
+        <v>283</v>
       </c>
       <c r="D710" s="1" t="s">
-        <v>404</v>
+        <v>284</v>
       </c>
       <c r="E710" s="1" t="s">
-        <v>405</v>
+        <v>285</v>
       </c>
       <c r="F710" s="1" t="s">
-        <v>406</v>
+        <v>286</v>
       </c>
       <c r="G710" s="1"/>
     </row>
     <row r="711" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A711" s="1" t="s">
-        <v>1937</v>
+        <v>1907</v>
       </c>
       <c r="B711" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C711" s="1" t="s">
-        <v>407</v>
+        <v>287</v>
       </c>
       <c r="D711" s="1" t="s">
-        <v>408</v>
+        <v>288</v>
       </c>
       <c r="E711" s="1" t="s">
-        <v>409</v>
+        <v>289</v>
       </c>
       <c r="F711" s="1" t="s">
-        <v>410</v>
+        <v>290</v>
       </c>
       <c r="G711" s="1"/>
     </row>
     <row r="712" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A712" s="1" t="s">
-        <v>1938</v>
+        <v>1908</v>
       </c>
       <c r="B712" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C712" s="1" t="s">
-        <v>411</v>
+        <v>291</v>
       </c>
       <c r="D712" s="1" t="s">
-        <v>412</v>
+        <v>292</v>
       </c>
       <c r="E712" s="1" t="s">
-        <v>413</v>
+        <v>293</v>
       </c>
       <c r="F712" s="1" t="s">
-        <v>414</v>
+        <v>294</v>
       </c>
       <c r="G712" s="1"/>
     </row>
     <row r="713" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A713" s="1" t="s">
-        <v>1939</v>
+        <v>1909</v>
       </c>
       <c r="B713" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C713" s="1" t="s">
-        <v>415</v>
+        <v>295</v>
       </c>
       <c r="D713" s="1" t="s">
-        <v>416</v>
+        <v>296</v>
       </c>
       <c r="E713" s="1" t="s">
-        <v>417</v>
+        <v>297</v>
       </c>
       <c r="F713" s="1" t="s">
-        <v>418</v>
+        <v>298</v>
       </c>
       <c r="G713" s="1"/>
     </row>
     <row r="714" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A714" s="1" t="s">
-        <v>1940</v>
+        <v>1910</v>
       </c>
       <c r="B714" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C714" s="1" t="s">
-        <v>419</v>
+        <v>299</v>
       </c>
       <c r="D714" s="1" t="s">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="E714" s="1" t="s">
-        <v>421</v>
+        <v>301</v>
       </c>
       <c r="F714" s="1" t="s">
-        <v>422</v>
+        <v>302</v>
       </c>
       <c r="G714" s="1"/>
     </row>
     <row r="715" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A715" s="1" t="s">
-        <v>1941</v>
+        <v>1911</v>
       </c>
       <c r="B715" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C715" s="1" t="s">
-        <v>423</v>
+        <v>303</v>
       </c>
       <c r="D715" s="1" t="s">
-        <v>424</v>
+        <v>304</v>
       </c>
       <c r="E715" s="1" t="s">
-        <v>425</v>
+        <v>305</v>
       </c>
       <c r="F715" s="1" t="s">
-        <v>426</v>
+        <v>306</v>
       </c>
       <c r="G715" s="1"/>
     </row>
     <row r="716" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A716" s="1" t="s">
-        <v>1942</v>
+        <v>1912</v>
       </c>
       <c r="B716" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C716" s="1" t="s">
-        <v>427</v>
+        <v>307</v>
       </c>
       <c r="D716" s="1" t="s">
-        <v>428</v>
+        <v>308</v>
       </c>
       <c r="E716" s="1" t="s">
-        <v>429</v>
+        <v>309</v>
       </c>
       <c r="F716" s="1" t="s">
-        <v>430</v>
+        <v>310</v>
       </c>
       <c r="G716" s="1"/>
     </row>
     <row r="717" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A717" s="1" t="s">
-        <v>1943</v>
+        <v>1913</v>
       </c>
       <c r="B717" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C717" s="1" t="s">
-        <v>431</v>
+        <v>311</v>
       </c>
       <c r="D717" s="1" t="s">
-        <v>432</v>
+        <v>312</v>
       </c>
       <c r="E717" s="1" t="s">
-        <v>433</v>
+        <v>313</v>
       </c>
       <c r="F717" s="1" t="s">
-        <v>434</v>
+        <v>314</v>
       </c>
       <c r="G717" s="1"/>
     </row>
     <row r="718" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A718" s="1" t="s">
-        <v>1944</v>
+        <v>1914</v>
       </c>
       <c r="B718" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C718" s="1" t="s">
-        <v>435</v>
+        <v>315</v>
       </c>
       <c r="D718" s="1" t="s">
-        <v>436</v>
+        <v>316</v>
       </c>
       <c r="E718" s="1" t="s">
-        <v>437</v>
+        <v>317</v>
       </c>
       <c r="F718" s="1" t="s">
-        <v>438</v>
+        <v>318</v>
       </c>
       <c r="G718" s="1"/>
     </row>
     <row r="719" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A719" s="1" t="s">
-        <v>1945</v>
+        <v>1915</v>
       </c>
       <c r="B719" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C719" s="1" t="s">
-        <v>439</v>
+        <v>319</v>
       </c>
       <c r="D719" s="1" t="s">
-        <v>440</v>
+        <v>320</v>
       </c>
       <c r="E719" s="1" t="s">
-        <v>441</v>
+        <v>321</v>
       </c>
       <c r="F719" s="1" t="s">
-        <v>442</v>
+        <v>322</v>
       </c>
       <c r="G719" s="1"/>
     </row>
     <row r="720" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A720" s="1" t="s">
-        <v>1946</v>
+        <v>1916</v>
       </c>
       <c r="B720" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C720" s="1" t="s">
-        <v>443</v>
+        <v>323</v>
       </c>
       <c r="D720" s="1" t="s">
-        <v>444</v>
+        <v>324</v>
       </c>
       <c r="E720" s="1" t="s">
-        <v>445</v>
+        <v>325</v>
       </c>
       <c r="F720" s="1" t="s">
-        <v>446</v>
+        <v>326</v>
       </c>
       <c r="G720" s="1"/>
     </row>
     <row r="721" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A721" s="1" t="s">
-        <v>1947</v>
+        <v>1917</v>
       </c>
       <c r="B721" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C721" s="1" t="s">
-        <v>447</v>
+        <v>327</v>
       </c>
       <c r="D721" s="1" t="s">
-        <v>448</v>
+        <v>328</v>
       </c>
       <c r="E721" s="1" t="s">
-        <v>449</v>
+        <v>329</v>
       </c>
       <c r="F721" s="1" t="s">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="G721" s="1"/>
     </row>
     <row r="722" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A722" s="1" t="s">
-        <v>1948</v>
+        <v>1918</v>
       </c>
       <c r="B722" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C722" s="1" t="s">
-        <v>451</v>
+        <v>331</v>
       </c>
       <c r="D722" s="1" t="s">
-        <v>452</v>
+        <v>332</v>
       </c>
       <c r="E722" s="1" t="s">
-        <v>453</v>
+        <v>333</v>
       </c>
       <c r="F722" s="1" t="s">
-        <v>454</v>
+        <v>334</v>
       </c>
       <c r="G722" s="1"/>
     </row>
     <row r="723" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A723" s="1" t="s">
-        <v>1949</v>
+        <v>1919</v>
       </c>
       <c r="B723" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C723" s="1" t="s">
-        <v>455</v>
+        <v>335</v>
       </c>
       <c r="D723" s="1" t="s">
-        <v>456</v>
+        <v>336</v>
       </c>
       <c r="E723" s="1" t="s">
-        <v>457</v>
+        <v>337</v>
       </c>
       <c r="F723" s="1" t="s">
-        <v>458</v>
+        <v>338</v>
       </c>
       <c r="G723" s="1"/>
     </row>
     <row r="724" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A724" s="1" t="s">
-        <v>1950</v>
+        <v>1920</v>
       </c>
       <c r="B724" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C724" s="1" t="s">
-        <v>459</v>
+        <v>339</v>
       </c>
       <c r="D724" s="1" t="s">
-        <v>460</v>
+        <v>340</v>
       </c>
       <c r="E724" s="1" t="s">
-        <v>461</v>
+        <v>341</v>
       </c>
       <c r="F724" s="1" t="s">
-        <v>462</v>
+        <v>342</v>
       </c>
       <c r="G724" s="1"/>
     </row>
     <row r="725" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A725" s="1" t="s">
-        <v>1951</v>
+        <v>1921</v>
       </c>
       <c r="B725" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C725" s="1" t="s">
-        <v>463</v>
+        <v>343</v>
       </c>
       <c r="D725" s="1" t="s">
-        <v>464</v>
+        <v>344</v>
       </c>
       <c r="E725" s="1" t="s">
-        <v>465</v>
+        <v>345</v>
       </c>
       <c r="F725" s="1" t="s">
-        <v>466</v>
+        <v>346</v>
       </c>
       <c r="G725" s="1"/>
     </row>
     <row r="726" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A726" s="1" t="s">
-        <v>1952</v>
+        <v>1922</v>
       </c>
       <c r="B726" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C726" s="1" t="s">
-        <v>467</v>
+        <v>347</v>
       </c>
       <c r="D726" s="1" t="s">
-        <v>468</v>
+        <v>348</v>
       </c>
       <c r="E726" s="1" t="s">
-        <v>469</v>
+        <v>349</v>
       </c>
       <c r="F726" s="1" t="s">
-        <v>470</v>
+        <v>350</v>
       </c>
       <c r="G726" s="1"/>
     </row>
     <row r="727" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A727" s="1" t="s">
-        <v>1953</v>
+        <v>1923</v>
       </c>
       <c r="B727" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C727" s="1" t="s">
-        <v>471</v>
+        <v>351</v>
       </c>
       <c r="D727" s="1" t="s">
-        <v>472</v>
+        <v>352</v>
       </c>
       <c r="E727" s="1" t="s">
-        <v>473</v>
+        <v>353</v>
       </c>
       <c r="F727" s="1" t="s">
-        <v>474</v>
+        <v>354</v>
       </c>
       <c r="G727" s="1"/>
     </row>
     <row r="728" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A728" s="1" t="s">
-        <v>1954</v>
+        <v>1924</v>
       </c>
       <c r="B728" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C728" s="1" t="s">
-        <v>475</v>
+        <v>355</v>
       </c>
       <c r="D728" s="1" t="s">
-        <v>476</v>
+        <v>356</v>
       </c>
       <c r="E728" s="1" t="s">
-        <v>477</v>
+        <v>357</v>
       </c>
       <c r="F728" s="1" t="s">
-        <v>478</v>
+        <v>358</v>
       </c>
       <c r="G728" s="1"/>
     </row>
     <row r="729" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A729" s="1" t="s">
-        <v>1955</v>
+        <v>1925</v>
       </c>
       <c r="B729" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C729" s="1" t="s">
-        <v>479</v>
+        <v>359</v>
       </c>
       <c r="D729" s="1" t="s">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="E729" s="1" t="s">
-        <v>481</v>
+        <v>361</v>
       </c>
       <c r="F729" s="1" t="s">
-        <v>482</v>
+        <v>362</v>
       </c>
       <c r="G729" s="1"/>
     </row>
     <row r="730" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A730" s="1" t="s">
-        <v>1956</v>
+        <v>1926</v>
       </c>
       <c r="B730" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C730" s="1" t="s">
-        <v>483</v>
+        <v>363</v>
       </c>
       <c r="D730" s="1" t="s">
-        <v>484</v>
+        <v>364</v>
       </c>
       <c r="E730" s="1" t="s">
-        <v>485</v>
+        <v>365</v>
       </c>
       <c r="F730" s="1" t="s">
-        <v>486</v>
+        <v>366</v>
       </c>
       <c r="G730" s="1"/>
     </row>
     <row r="731" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A731" s="1" t="s">
-        <v>1957</v>
+        <v>1927</v>
       </c>
       <c r="B731" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C731" s="1" t="s">
-        <v>487</v>
+        <v>367</v>
       </c>
       <c r="D731" s="1" t="s">
-        <v>488</v>
+        <v>368</v>
       </c>
       <c r="E731" s="1" t="s">
-        <v>489</v>
+        <v>369</v>
       </c>
       <c r="F731" s="1" t="s">
-        <v>490</v>
+        <v>370</v>
       </c>
       <c r="G731" s="1"/>
     </row>
     <row r="732" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A732" s="1" t="s">
-        <v>1958</v>
+        <v>1928</v>
       </c>
       <c r="B732" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C732" s="1" t="s">
-        <v>491</v>
+        <v>371</v>
       </c>
       <c r="D732" s="1" t="s">
-        <v>492</v>
+        <v>372</v>
       </c>
       <c r="E732" s="1" t="s">
-        <v>493</v>
+        <v>373</v>
       </c>
       <c r="F732" s="1" t="s">
-        <v>494</v>
+        <v>374</v>
       </c>
       <c r="G732" s="1"/>
     </row>
     <row r="733" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A733" s="1" t="s">
-        <v>1959</v>
+        <v>1929</v>
       </c>
       <c r="B733" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C733" s="1" t="s">
-        <v>495</v>
+        <v>375</v>
       </c>
       <c r="D733" s="1" t="s">
-        <v>496</v>
+        <v>376</v>
       </c>
       <c r="E733" s="1" t="s">
-        <v>497</v>
+        <v>377</v>
       </c>
       <c r="F733" s="1" t="s">
-        <v>498</v>
+        <v>378</v>
       </c>
       <c r="G733" s="1"/>
     </row>
     <row r="734" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A734" s="1" t="s">
-        <v>1960</v>
+        <v>1930</v>
       </c>
       <c r="B734" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C734" s="1" t="s">
-        <v>499</v>
+        <v>379</v>
       </c>
       <c r="D734" s="1" t="s">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="E734" s="1" t="s">
-        <v>501</v>
+        <v>381</v>
       </c>
       <c r="F734" s="1" t="s">
-        <v>502</v>
+        <v>382</v>
       </c>
       <c r="G734" s="1"/>
     </row>
     <row r="735" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A735" s="1" t="s">
-        <v>1961</v>
+        <v>1931</v>
       </c>
       <c r="B735" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C735" s="1" t="s">
-        <v>503</v>
+        <v>383</v>
       </c>
       <c r="D735" s="1" t="s">
-        <v>504</v>
+        <v>384</v>
       </c>
       <c r="E735" s="1" t="s">
-        <v>505</v>
+        <v>385</v>
       </c>
       <c r="F735" s="1" t="s">
-        <v>506</v>
+        <v>386</v>
       </c>
       <c r="G735" s="1"/>
     </row>
     <row r="736" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A736" s="1" t="s">
-        <v>1962</v>
+        <v>1932</v>
       </c>
       <c r="B736" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C736" s="1" t="s">
-        <v>507</v>
+        <v>387</v>
       </c>
       <c r="D736" s="1" t="s">
-        <v>508</v>
+        <v>388</v>
       </c>
       <c r="E736" s="1" t="s">
-        <v>509</v>
+        <v>389</v>
       </c>
       <c r="F736" s="1" t="s">
-        <v>510</v>
+        <v>390</v>
       </c>
       <c r="G736" s="1"/>
     </row>
     <row r="737" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A737" s="1" t="s">
-        <v>1963</v>
+        <v>1933</v>
       </c>
       <c r="B737" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C737" s="1" t="s">
-        <v>511</v>
+        <v>391</v>
       </c>
       <c r="D737" s="1" t="s">
-        <v>512</v>
+        <v>392</v>
       </c>
       <c r="E737" s="1" t="s">
-        <v>513</v>
+        <v>393</v>
       </c>
       <c r="F737" s="1" t="s">
-        <v>514</v>
+        <v>394</v>
       </c>
       <c r="G737" s="1"/>
     </row>
     <row r="738" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A738" s="1" t="s">
-        <v>1964</v>
+        <v>1934</v>
       </c>
       <c r="B738" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C738" s="1" t="s">
-        <v>515</v>
+        <v>395</v>
       </c>
       <c r="D738" s="1" t="s">
-        <v>516</v>
+        <v>396</v>
       </c>
       <c r="E738" s="1" t="s">
-        <v>517</v>
+        <v>397</v>
       </c>
       <c r="F738" s="1" t="s">
-        <v>518</v>
+        <v>398</v>
       </c>
       <c r="G738" s="1"/>
     </row>
     <row r="739" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A739" s="1" t="s">
-        <v>1965</v>
+        <v>1935</v>
       </c>
       <c r="B739" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C739" s="1" t="s">
-        <v>519</v>
+        <v>399</v>
       </c>
       <c r="D739" s="1" t="s">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="E739" s="1" t="s">
-        <v>521</v>
+        <v>401</v>
       </c>
       <c r="F739" s="1" t="s">
-        <v>522</v>
+        <v>402</v>
       </c>
       <c r="G739" s="1"/>
     </row>
     <row r="740" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A740" s="1" t="s">
-        <v>1966</v>
+        <v>1936</v>
       </c>
       <c r="B740" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C740" s="1" t="s">
-        <v>523</v>
+        <v>403</v>
       </c>
       <c r="D740" s="1" t="s">
-        <v>524</v>
+        <v>404</v>
       </c>
       <c r="E740" s="1" t="s">
-        <v>525</v>
+        <v>405</v>
       </c>
       <c r="F740" s="1" t="s">
-        <v>526</v>
+        <v>406</v>
       </c>
       <c r="G740" s="1"/>
     </row>
     <row r="741" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A741" s="1" t="s">
-        <v>1967</v>
+        <v>1937</v>
       </c>
       <c r="B741" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C741" s="1" t="s">
-        <v>527</v>
+        <v>407</v>
       </c>
       <c r="D741" s="1" t="s">
-        <v>528</v>
+        <v>408</v>
       </c>
       <c r="E741" s="1" t="s">
-        <v>529</v>
+        <v>409</v>
       </c>
       <c r="F741" s="1" t="s">
-        <v>530</v>
+        <v>410</v>
       </c>
       <c r="G741" s="1"/>
     </row>
     <row r="742" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A742" s="1" t="s">
-        <v>1968</v>
+        <v>1938</v>
       </c>
       <c r="B742" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C742" s="1" t="s">
-        <v>531</v>
+        <v>411</v>
       </c>
       <c r="D742" s="1" t="s">
-        <v>532</v>
+        <v>412</v>
       </c>
       <c r="E742" s="1" t="s">
-        <v>533</v>
+        <v>413</v>
       </c>
       <c r="F742" s="1" t="s">
-        <v>534</v>
+        <v>414</v>
       </c>
       <c r="G742" s="1"/>
     </row>
     <row r="743" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A743" s="1" t="s">
-        <v>1969</v>
+        <v>1939</v>
       </c>
       <c r="B743" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C743" s="1" t="s">
-        <v>535</v>
+        <v>415</v>
       </c>
       <c r="D743" s="1" t="s">
-        <v>536</v>
+        <v>416</v>
       </c>
       <c r="E743" s="1" t="s">
-        <v>537</v>
+        <v>417</v>
       </c>
       <c r="F743" s="1" t="s">
-        <v>538</v>
+        <v>418</v>
       </c>
       <c r="G743" s="1"/>
     </row>
     <row r="744" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A744" s="1" t="s">
-        <v>1970</v>
+        <v>1940</v>
       </c>
       <c r="B744" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C744" s="1" t="s">
-        <v>539</v>
+        <v>419</v>
       </c>
       <c r="D744" s="1" t="s">
-        <v>540</v>
+        <v>420</v>
       </c>
       <c r="E744" s="1" t="s">
-        <v>541</v>
+        <v>421</v>
       </c>
       <c r="F744" s="1" t="s">
-        <v>542</v>
+        <v>422</v>
       </c>
       <c r="G744" s="1"/>
     </row>
     <row r="745" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A745" s="1" t="s">
-        <v>1971</v>
+        <v>1941</v>
       </c>
       <c r="B745" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C745" s="1" t="s">
-        <v>543</v>
+        <v>423</v>
       </c>
       <c r="D745" s="1" t="s">
-        <v>544</v>
+        <v>424</v>
       </c>
       <c r="E745" s="1" t="s">
-        <v>545</v>
+        <v>425</v>
       </c>
       <c r="F745" s="1" t="s">
-        <v>546</v>
+        <v>426</v>
       </c>
       <c r="G745" s="1"/>
     </row>
     <row r="746" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A746" s="1" t="s">
-        <v>1972</v>
+        <v>1942</v>
       </c>
       <c r="B746" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C746" s="1" t="s">
-        <v>547</v>
+        <v>427</v>
       </c>
       <c r="D746" s="1" t="s">
-        <v>548</v>
+        <v>428</v>
       </c>
       <c r="E746" s="1" t="s">
-        <v>549</v>
+        <v>429</v>
       </c>
       <c r="F746" s="1" t="s">
-        <v>550</v>
+        <v>430</v>
       </c>
       <c r="G746" s="1"/>
     </row>
     <row r="747" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A747" s="1" t="s">
-        <v>1973</v>
+        <v>1943</v>
       </c>
       <c r="B747" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C747" s="1" t="s">
-        <v>551</v>
+        <v>431</v>
       </c>
       <c r="D747" s="1" t="s">
-        <v>552</v>
+        <v>432</v>
       </c>
       <c r="E747" s="1" t="s">
-        <v>553</v>
+        <v>433</v>
       </c>
       <c r="F747" s="1" t="s">
-        <v>554</v>
+        <v>434</v>
       </c>
       <c r="G747" s="1"/>
     </row>
     <row r="748" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A748" s="1" t="s">
-        <v>1974</v>
+        <v>1944</v>
       </c>
       <c r="B748" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C748" s="1" t="s">
-        <v>555</v>
+        <v>435</v>
       </c>
       <c r="D748" s="1" t="s">
-        <v>556</v>
+        <v>436</v>
       </c>
       <c r="E748" s="1" t="s">
-        <v>557</v>
+        <v>437</v>
       </c>
       <c r="F748" s="1" t="s">
-        <v>558</v>
+        <v>438</v>
       </c>
       <c r="G748" s="1"/>
     </row>
     <row r="749" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A749" s="1" t="s">
-        <v>1975</v>
+        <v>1945</v>
       </c>
       <c r="B749" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C749" s="1" t="s">
-        <v>559</v>
+        <v>439</v>
       </c>
       <c r="D749" s="1" t="s">
-        <v>560</v>
+        <v>440</v>
       </c>
       <c r="E749" s="1" t="s">
-        <v>561</v>
+        <v>441</v>
       </c>
       <c r="F749" s="1" t="s">
-        <v>562</v>
+        <v>442</v>
       </c>
       <c r="G749" s="1"/>
     </row>
     <row r="750" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A750" s="1" t="s">
-        <v>1976</v>
+        <v>1946</v>
       </c>
       <c r="B750" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C750" s="1" t="s">
-        <v>563</v>
+        <v>443</v>
       </c>
       <c r="D750" s="1" t="s">
-        <v>564</v>
+        <v>444</v>
       </c>
       <c r="E750" s="1" t="s">
-        <v>565</v>
+        <v>445</v>
       </c>
       <c r="F750" s="1" t="s">
-        <v>566</v>
+        <v>446</v>
       </c>
       <c r="G750" s="1"/>
     </row>
     <row r="751" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A751" s="1" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B751" s="1">
+        <v>29</v>
+      </c>
+      <c r="C751" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D751" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E751" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F751" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="G751" s="1"/>
+    </row>
+    <row r="752" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A752" s="1" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B752" s="1">
+        <v>30</v>
+      </c>
+      <c r="C752" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D752" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E752" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F752" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="G752" s="1"/>
+    </row>
+    <row r="753" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A753" s="1" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B753" s="1">
+        <v>30</v>
+      </c>
+      <c r="C753" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D753" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E753" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F753" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="G753" s="1"/>
+    </row>
+    <row r="754" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A754" s="1" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B754" s="1">
+        <v>30</v>
+      </c>
+      <c r="C754" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D754" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E754" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F754" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="G754" s="1"/>
+    </row>
+    <row r="755" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A755" s="1" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B755" s="1">
+        <v>30</v>
+      </c>
+      <c r="C755" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D755" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E755" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F755" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="G755" s="1"/>
+    </row>
+    <row r="756" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A756" s="1" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B756" s="1">
+        <v>30</v>
+      </c>
+      <c r="C756" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D756" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E756" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F756" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G756" s="1"/>
+    </row>
+    <row r="757" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A757" s="1" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B757" s="1">
+        <v>30</v>
+      </c>
+      <c r="C757" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D757" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E757" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F757" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G757" s="1"/>
+    </row>
+    <row r="758" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A758" s="1" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B758" s="1">
+        <v>30</v>
+      </c>
+      <c r="C758" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D758" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E758" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F758" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="G758" s="1"/>
+    </row>
+    <row r="759" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A759" s="1" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B759" s="1">
+        <v>30</v>
+      </c>
+      <c r="C759" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D759" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E759" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F759" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="G759" s="1"/>
+    </row>
+    <row r="760" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A760" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B760" s="1">
+        <v>30</v>
+      </c>
+      <c r="C760" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D760" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E760" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F760" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G760" s="1"/>
+    </row>
+    <row r="761" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A761" s="1" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B761" s="1">
+        <v>30</v>
+      </c>
+      <c r="C761" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D761" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E761" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F761" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G761" s="1"/>
+    </row>
+    <row r="762" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A762" s="1" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B762" s="1">
+        <v>30</v>
+      </c>
+      <c r="C762" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D762" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E762" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F762" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="G762" s="1"/>
+    </row>
+    <row r="763" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A763" s="1" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B763" s="1">
+        <v>30</v>
+      </c>
+      <c r="C763" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D763" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E763" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F763" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="G763" s="1"/>
+    </row>
+    <row r="764" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A764" s="1" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B764" s="1">
+        <v>30</v>
+      </c>
+      <c r="C764" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D764" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="E764" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F764" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="G764" s="1"/>
+    </row>
+    <row r="765" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A765" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B765" s="1">
+        <v>30</v>
+      </c>
+      <c r="C765" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D765" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E765" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F765" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G765" s="1"/>
+    </row>
+    <row r="766" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A766" s="1" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B766" s="1">
+        <v>30</v>
+      </c>
+      <c r="C766" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D766" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="E766" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F766" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="G766" s="1"/>
+    </row>
+    <row r="767" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A767" s="1" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B767" s="1">
+        <v>30</v>
+      </c>
+      <c r="C767" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D767" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E767" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F767" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="G767" s="1"/>
+    </row>
+    <row r="768" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A768" s="1" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B768" s="1">
+        <v>30</v>
+      </c>
+      <c r="C768" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D768" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E768" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="F768" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="G768" s="1"/>
+    </row>
+    <row r="769" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A769" s="1" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B769" s="1">
+        <v>30</v>
+      </c>
+      <c r="C769" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D769" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E769" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F769" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G769" s="1"/>
+    </row>
+    <row r="770" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A770" s="1" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B770" s="1">
+        <v>30</v>
+      </c>
+      <c r="C770" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D770" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E770" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="F770" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="G770" s="1"/>
+    </row>
+    <row r="771" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A771" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B771" s="1">
+        <v>30</v>
+      </c>
+      <c r="C771" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D771" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E771" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F771" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="G771" s="1"/>
+    </row>
+    <row r="772" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A772" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B772" s="1">
+        <v>30</v>
+      </c>
+      <c r="C772" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D772" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E772" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F772" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="G772" s="1"/>
+    </row>
+    <row r="773" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A773" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B773" s="1">
+        <v>30</v>
+      </c>
+      <c r="C773" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D773" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="E773" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F773" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="G773" s="1"/>
+    </row>
+    <row r="774" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A774" s="1" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B774" s="1">
+        <v>30</v>
+      </c>
+      <c r="C774" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D774" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E774" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="F774" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="G774" s="1"/>
+    </row>
+    <row r="775" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A775" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B775" s="1">
+        <v>30</v>
+      </c>
+      <c r="C775" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D775" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="E775" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F775" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="G775" s="1"/>
+    </row>
+    <row r="776" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A776" s="1" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B776" s="1">
+        <v>30</v>
+      </c>
+      <c r="C776" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D776" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E776" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F776" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="G776" s="1"/>
+    </row>
+    <row r="777" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A777" s="1" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B777" s="1">
+        <v>30</v>
+      </c>
+      <c r="C777" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D777" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E777" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F777" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="G777" s="1"/>
+    </row>
+    <row r="778" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A778" s="1" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B778" s="1">
+        <v>30</v>
+      </c>
+      <c r="C778" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D778" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E778" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F778" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="G778" s="1"/>
+    </row>
+    <row r="779" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A779" s="1" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B779" s="1">
+        <v>30</v>
+      </c>
+      <c r="C779" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D779" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E779" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F779" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="G779" s="1"/>
+    </row>
+    <row r="780" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A780" s="1" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B780" s="1">
+        <v>30</v>
+      </c>
+      <c r="C780" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D780" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E780" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F780" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="G780" s="1"/>
+    </row>
+    <row r="781" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A781" s="1" t="s">
         <v>1977</v>
       </c>
-      <c r="B751" s="1">
+      <c r="B781" s="1">
         <v>30</v>
       </c>
-      <c r="C751" s="1" t="s">
+      <c r="C781" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D751" s="1" t="s">
+      <c r="D781" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="E751" s="1" t="s">
+      <c r="E781" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="F751" s="1" t="s">
+      <c r="F781" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="G751" s="1"/>
+      <c r="G781" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/data/WordStudy.xlsx
+++ b/data/WordStudy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dom/Documents/Dom/english-app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82A9587-B534-6F43-AB60-83B187E3E127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84126FD0-6632-F94B-825E-A47F33B48A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51240" yWindow="-2100" windowWidth="29840" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4534" uniqueCount="3851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4594" uniqueCount="3900">
   <si>
     <t>ID</t>
   </si>
@@ -11583,6 +11583,153 @@
   </si>
   <si>
     <t>ancient culture</t>
+  </si>
+  <si>
+    <t>U22_01</t>
+  </si>
+  <si>
+    <t>U22_02</t>
+  </si>
+  <si>
+    <t>U22_03</t>
+  </si>
+  <si>
+    <t>U22_04</t>
+  </si>
+  <si>
+    <t>U22_05</t>
+  </si>
+  <si>
+    <t>U22_06</t>
+  </si>
+  <si>
+    <t>U22_07</t>
+  </si>
+  <si>
+    <t>U22_08</t>
+  </si>
+  <si>
+    <t>U22_09</t>
+  </si>
+  <si>
+    <t>U22_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biên giới </t>
+  </si>
+  <si>
+    <t>Border</t>
+  </si>
+  <si>
+    <t>This train crosses the border between Austria and Germany</t>
+  </si>
+  <si>
+    <t>cross the border</t>
+  </si>
+  <si>
+    <t>Dây an toàn</t>
+  </si>
+  <si>
+    <t>Belt</t>
+  </si>
+  <si>
+    <t>Please fasten the seat belt whenever you sit down</t>
+  </si>
+  <si>
+    <t>fasten the seat belt / thắt dây an toàn</t>
+  </si>
+  <si>
+    <t>Dự định</t>
+  </si>
+  <si>
+    <t>intend</t>
+  </si>
+  <si>
+    <t>He intends to travel after graduation</t>
+  </si>
+  <si>
+    <t>intend to do something / có dự định làm gì đó</t>
+  </si>
+  <si>
+    <t>Thông báo</t>
+  </si>
+  <si>
+    <t>Announce</t>
+  </si>
+  <si>
+    <t>She announces her marriage to the whole family</t>
+  </si>
+  <si>
+    <t>announce something to somebody</t>
+  </si>
+  <si>
+    <t>Miễn thuế</t>
+  </si>
+  <si>
+    <t>Duty-free</t>
+  </si>
+  <si>
+    <t>That cologne is from a duty-free shop</t>
+  </si>
+  <si>
+    <t>Duty-free shop</t>
+  </si>
+  <si>
+    <t>Gây ấn tượng</t>
+  </si>
+  <si>
+    <t>Impressive</t>
+  </si>
+  <si>
+    <t>She has an impressive performance</t>
+  </si>
+  <si>
+    <t>an impressive performance</t>
+  </si>
+  <si>
+    <t>Việc đặt trưuocws</t>
+  </si>
+  <si>
+    <t>Booking</t>
+  </si>
+  <si>
+    <t>She calls to make a booking</t>
+  </si>
+  <si>
+    <t>make a booking</t>
+  </si>
+  <si>
+    <t>Người lớn</t>
+  </si>
+  <si>
+    <t>Adult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I would like to book an adult ticket for this flight </t>
+  </si>
+  <si>
+    <t>an adult ticket</t>
+  </si>
+  <si>
+    <t>airline</t>
+  </si>
+  <si>
+    <t>Jetstar is a low-cost airline</t>
+  </si>
+  <si>
+    <t>a low-cost airline</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>We cancel the show due to th rain</t>
+  </si>
+  <si>
+    <t>cancel something</t>
+  </si>
+  <si>
+    <t>Hãng hàng không</t>
   </si>
 </sst>
 </file>
@@ -11947,10 +12094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G781"/>
+  <dimension ref="A1:G791"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B611" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F628" sqref="F628"/>
+    <sheetView tabSelected="1" topLeftCell="B624" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E634" sqref="E634"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26478,229 +26625,249 @@
     </row>
     <row r="632" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A632" s="1" t="s">
-        <v>1828</v>
+        <v>3851</v>
       </c>
       <c r="B632" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C632" s="1" t="s">
-        <v>6</v>
+        <v>3861</v>
       </c>
       <c r="D632" s="1" t="s">
-        <v>7</v>
+        <v>3862</v>
       </c>
       <c r="E632" s="1" t="s">
-        <v>8</v>
+        <v>3863</v>
       </c>
       <c r="F632" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G632" s="1"/>
+        <v>3864</v>
+      </c>
+      <c r="G632" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="633" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A633" s="1" t="s">
-        <v>1829</v>
+        <v>3852</v>
       </c>
       <c r="B633" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C633" s="1" t="s">
-        <v>10</v>
+        <v>3865</v>
       </c>
       <c r="D633" s="1" t="s">
-        <v>11</v>
+        <v>3866</v>
       </c>
       <c r="E633" s="1" t="s">
-        <v>12</v>
+        <v>3867</v>
       </c>
       <c r="F633" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G633" s="1"/>
+        <v>3868</v>
+      </c>
+      <c r="G633" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="634" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A634" s="1" t="s">
-        <v>1830</v>
+        <v>3853</v>
       </c>
       <c r="B634" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C634" s="1" t="s">
-        <v>13</v>
+        <v>3869</v>
       </c>
       <c r="D634" s="1" t="s">
-        <v>14</v>
+        <v>3870</v>
       </c>
       <c r="E634" s="1" t="s">
-        <v>15</v>
+        <v>3871</v>
       </c>
       <c r="F634" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G634" s="1"/>
+        <v>3872</v>
+      </c>
+      <c r="G634" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A635" s="1" t="s">
-        <v>1831</v>
+        <v>3854</v>
       </c>
       <c r="B635" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C635" s="1" t="s">
-        <v>16</v>
+        <v>3873</v>
       </c>
       <c r="D635" s="1" t="s">
-        <v>17</v>
+        <v>3874</v>
       </c>
       <c r="E635" s="1" t="s">
-        <v>18</v>
+        <v>3875</v>
       </c>
       <c r="F635" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G635" s="1"/>
+        <v>3876</v>
+      </c>
+      <c r="G635" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A636" s="1" t="s">
-        <v>1832</v>
+        <v>3855</v>
       </c>
       <c r="B636" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C636" s="1" t="s">
-        <v>19</v>
+        <v>3877</v>
       </c>
       <c r="D636" s="1" t="s">
-        <v>20</v>
+        <v>3878</v>
       </c>
       <c r="E636" s="1" t="s">
-        <v>21</v>
+        <v>3879</v>
       </c>
       <c r="F636" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G636" s="1"/>
+        <v>3880</v>
+      </c>
+      <c r="G636" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="637" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A637" s="1" t="s">
-        <v>1833</v>
+        <v>3856</v>
       </c>
       <c r="B637" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C637" s="1" t="s">
-        <v>22</v>
+        <v>3881</v>
       </c>
       <c r="D637" s="1" t="s">
-        <v>23</v>
+        <v>3882</v>
       </c>
       <c r="E637" s="1" t="s">
-        <v>24</v>
+        <v>3883</v>
       </c>
       <c r="F637" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G637" s="1"/>
+        <v>3884</v>
+      </c>
+      <c r="G637" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="638" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A638" s="1" t="s">
-        <v>1834</v>
+        <v>3857</v>
       </c>
       <c r="B638" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C638" s="1" t="s">
-        <v>25</v>
+        <v>3885</v>
       </c>
       <c r="D638" s="1" t="s">
-        <v>26</v>
+        <v>3886</v>
       </c>
       <c r="E638" s="1" t="s">
-        <v>27</v>
+        <v>3887</v>
       </c>
       <c r="F638" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G638" s="1"/>
+        <v>3888</v>
+      </c>
+      <c r="G638" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="639" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A639" s="1" t="s">
-        <v>1835</v>
+        <v>3858</v>
       </c>
       <c r="B639" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C639" s="1" t="s">
-        <v>28</v>
+        <v>3889</v>
       </c>
       <c r="D639" s="1" t="s">
-        <v>29</v>
+        <v>3890</v>
       </c>
       <c r="E639" s="1" t="s">
-        <v>30</v>
+        <v>3891</v>
       </c>
       <c r="F639" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G639" s="1"/>
+        <v>3892</v>
+      </c>
+      <c r="G639" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="640" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A640" s="1" t="s">
-        <v>1836</v>
+        <v>3859</v>
       </c>
       <c r="B640" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C640" s="1" t="s">
-        <v>31</v>
+        <v>3899</v>
       </c>
       <c r="D640" s="1" t="s">
-        <v>32</v>
+        <v>3893</v>
       </c>
       <c r="E640" s="1" t="s">
-        <v>33</v>
+        <v>3894</v>
       </c>
       <c r="F640" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G640" s="1"/>
+        <v>3895</v>
+      </c>
+      <c r="G640" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="641" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A641" s="1" t="s">
-        <v>1837</v>
+        <v>3860</v>
       </c>
       <c r="B641" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C641" s="1" t="s">
-        <v>34</v>
+        <v>1472</v>
       </c>
       <c r="D641" s="1" t="s">
-        <v>35</v>
+        <v>3896</v>
       </c>
       <c r="E641" s="1" t="s">
-        <v>36</v>
+        <v>3897</v>
       </c>
       <c r="F641" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G641" s="1"/>
+        <v>3898</v>
+      </c>
+      <c r="G641" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="642" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A642" s="1" t="s">
-        <v>1838</v>
+        <v>1828</v>
       </c>
       <c r="B642" s="1">
         <v>26</v>
       </c>
       <c r="C642" s="1" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="D642" s="1" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="E642" s="1" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="F642" s="1" t="s">
         <v>9</v>
@@ -26709,19 +26876,19 @@
     </row>
     <row r="643" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A643" s="1" t="s">
-        <v>1839</v>
+        <v>1829</v>
       </c>
       <c r="B643" s="1">
         <v>26</v>
       </c>
       <c r="C643" s="1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D643" s="1" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="E643" s="1" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="F643" s="1" t="s">
         <v>9</v>
@@ -26730,40 +26897,40 @@
     </row>
     <row r="644" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A644" s="1" t="s">
-        <v>1840</v>
+        <v>1830</v>
       </c>
       <c r="B644" s="1">
         <v>26</v>
       </c>
       <c r="C644" s="1" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D644" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="E644" s="1" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F644" s="1" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="G644" s="1"/>
     </row>
     <row r="645" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A645" s="1" t="s">
-        <v>1841</v>
+        <v>1831</v>
       </c>
       <c r="B645" s="1">
         <v>26</v>
       </c>
       <c r="C645" s="1" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D645" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E645" s="1" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="F645" s="1" t="s">
         <v>9</v>
@@ -26772,40 +26939,40 @@
     </row>
     <row r="646" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A646" s="1" t="s">
-        <v>1842</v>
+        <v>1832</v>
       </c>
       <c r="B646" s="1">
         <v>26</v>
       </c>
       <c r="C646" s="1" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D646" s="1" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="E646" s="1" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="F646" s="1" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="G646" s="1"/>
     </row>
     <row r="647" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A647" s="1" t="s">
-        <v>1843</v>
+        <v>1833</v>
       </c>
       <c r="B647" s="1">
         <v>26</v>
       </c>
       <c r="C647" s="1" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D647" s="1" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E647" s="1" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="F647" s="1" t="s">
         <v>9</v>
@@ -26814,40 +26981,40 @@
     </row>
     <row r="648" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A648" s="1" t="s">
-        <v>1844</v>
+        <v>1834</v>
       </c>
       <c r="B648" s="1">
         <v>26</v>
       </c>
       <c r="C648" s="1" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="D648" s="1" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="E648" s="1" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="F648" s="1" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="G648" s="1"/>
     </row>
     <row r="649" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A649" s="1" t="s">
-        <v>1845</v>
+        <v>1835</v>
       </c>
       <c r="B649" s="1">
         <v>26</v>
       </c>
       <c r="C649" s="1" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="D649" s="1" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="E649" s="1" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="F649" s="1" t="s">
         <v>9</v>
@@ -26856,19 +27023,19 @@
     </row>
     <row r="650" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A650" s="1" t="s">
-        <v>1846</v>
+        <v>1836</v>
       </c>
       <c r="B650" s="1">
         <v>26</v>
       </c>
       <c r="C650" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="D650" s="1" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="E650" s="1" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="F650" s="1" t="s">
         <v>9</v>
@@ -26877,40 +27044,40 @@
     </row>
     <row r="651" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A651" s="1" t="s">
-        <v>1847</v>
+        <v>1837</v>
       </c>
       <c r="B651" s="1">
         <v>26</v>
       </c>
       <c r="C651" s="1" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="D651" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="E651" s="1" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="F651" s="1" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="G651" s="1"/>
     </row>
     <row r="652" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A652" s="1" t="s">
-        <v>1848</v>
+        <v>1838</v>
       </c>
       <c r="B652" s="1">
         <v>26</v>
       </c>
       <c r="C652" s="1" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="D652" s="1" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="E652" s="1" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="F652" s="1" t="s">
         <v>9</v>
@@ -26919,19 +27086,19 @@
     </row>
     <row r="653" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A653" s="1" t="s">
-        <v>1849</v>
+        <v>1839</v>
       </c>
       <c r="B653" s="1">
         <v>26</v>
       </c>
       <c r="C653" s="1" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="D653" s="1" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="E653" s="1" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="F653" s="1" t="s">
         <v>9</v>
@@ -26940,40 +27107,40 @@
     </row>
     <row r="654" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A654" s="1" t="s">
-        <v>1850</v>
+        <v>1840</v>
       </c>
       <c r="B654" s="1">
         <v>26</v>
       </c>
       <c r="C654" s="1" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="D654" s="1" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="E654" s="1" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="F654" s="1" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="G654" s="1"/>
     </row>
     <row r="655" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A655" s="1" t="s">
-        <v>1851</v>
+        <v>1841</v>
       </c>
       <c r="B655" s="1">
         <v>26</v>
       </c>
       <c r="C655" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="D655" s="1" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="E655" s="1" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="F655" s="1" t="s">
         <v>9</v>
@@ -26982,82 +27149,82 @@
     </row>
     <row r="656" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A656" s="1" t="s">
-        <v>1852</v>
+        <v>1842</v>
       </c>
       <c r="B656" s="1">
         <v>26</v>
       </c>
       <c r="C656" s="1" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="D656" s="1" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="E656" s="1" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="F656" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="G656" s="1"/>
     </row>
     <row r="657" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A657" s="1" t="s">
-        <v>1853</v>
+        <v>1843</v>
       </c>
       <c r="B657" s="1">
         <v>26</v>
       </c>
       <c r="C657" s="1" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="D657" s="1" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="E657" s="1" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="F657" s="1" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="G657" s="1"/>
     </row>
     <row r="658" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A658" s="1" t="s">
-        <v>1854</v>
+        <v>1844</v>
       </c>
       <c r="B658" s="1">
         <v>26</v>
       </c>
       <c r="C658" s="1" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="D658" s="1" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="E658" s="1" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="F658" s="1" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="G658" s="1"/>
     </row>
     <row r="659" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A659" s="1" t="s">
-        <v>1855</v>
+        <v>1845</v>
       </c>
       <c r="B659" s="1">
         <v>26</v>
       </c>
       <c r="C659" s="1" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="D659" s="1" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="E659" s="1" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="F659" s="1" t="s">
         <v>9</v>
@@ -27066,19 +27233,19 @@
     </row>
     <row r="660" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A660" s="1" t="s">
-        <v>1856</v>
+        <v>1846</v>
       </c>
       <c r="B660" s="1">
         <v>26</v>
       </c>
       <c r="C660" s="1" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="D660" s="1" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="E660" s="1" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="F660" s="1" t="s">
         <v>9</v>
@@ -27087,40 +27254,40 @@
     </row>
     <row r="661" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A661" s="1" t="s">
-        <v>1857</v>
+        <v>1847</v>
       </c>
       <c r="B661" s="1">
         <v>26</v>
       </c>
       <c r="C661" s="1" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D661" s="1" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="E661" s="1" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="F661" s="1" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="G661" s="1"/>
     </row>
     <row r="662" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A662" s="1" t="s">
-        <v>1858</v>
+        <v>1848</v>
       </c>
       <c r="B662" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C662" s="1" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="D662" s="1" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="E662" s="1" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="F662" s="1" t="s">
         <v>9</v>
@@ -27129,19 +27296,19 @@
     </row>
     <row r="663" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A663" s="1" t="s">
-        <v>1859</v>
+        <v>1849</v>
       </c>
       <c r="B663" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C663" s="1" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="D663" s="1" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="E663" s="1" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="F663" s="1" t="s">
         <v>9</v>
@@ -27150,19 +27317,19 @@
     </row>
     <row r="664" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A664" s="1" t="s">
-        <v>1860</v>
+        <v>1850</v>
       </c>
       <c r="B664" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C664" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="D664" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="E664" s="1" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="F664" s="1" t="s">
         <v>9</v>
@@ -27171,19 +27338,19 @@
     </row>
     <row r="665" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A665" s="1" t="s">
-        <v>1861</v>
+        <v>1851</v>
       </c>
       <c r="B665" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C665" s="1" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="D665" s="1" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="E665" s="1" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="F665" s="1" t="s">
         <v>9</v>
@@ -27192,19 +27359,19 @@
     </row>
     <row r="666" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A666" s="1" t="s">
-        <v>1862</v>
+        <v>1852</v>
       </c>
       <c r="B666" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C666" s="1" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="D666" s="1" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="E666" s="1" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="F666" s="1" t="s">
         <v>9</v>
@@ -27213,82 +27380,82 @@
     </row>
     <row r="667" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A667" s="1" t="s">
-        <v>1863</v>
+        <v>1853</v>
       </c>
       <c r="B667" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C667" s="1" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="D667" s="1" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="E667" s="1" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="F667" s="1" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="G667" s="1"/>
     </row>
     <row r="668" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A668" s="1" t="s">
-        <v>1864</v>
+        <v>1854</v>
       </c>
       <c r="B668" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C668" s="1" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="D668" s="1" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="E668" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="F668" s="1" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="G668" s="1"/>
     </row>
     <row r="669" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A669" s="1" t="s">
-        <v>1865</v>
+        <v>1855</v>
       </c>
       <c r="B669" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C669" s="1" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="D669" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="E669" s="1" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="F669" s="1" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="G669" s="1"/>
     </row>
     <row r="670" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A670" s="1" t="s">
-        <v>1866</v>
+        <v>1856</v>
       </c>
       <c r="B670" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C670" s="1" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="D670" s="1" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="E670" s="1" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="F670" s="1" t="s">
         <v>9</v>
@@ -27297,2328 +27464,2538 @@
     </row>
     <row r="671" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A671" s="1" t="s">
-        <v>1867</v>
+        <v>1857</v>
       </c>
       <c r="B671" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C671" s="1" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="D671" s="1" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="E671" s="1" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="F671" s="1" t="s">
-        <v>135</v>
+        <v>9</v>
       </c>
       <c r="G671" s="1"/>
     </row>
     <row r="672" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A672" s="1" t="s">
-        <v>1868</v>
+        <v>1858</v>
       </c>
       <c r="B672" s="1">
         <v>27</v>
       </c>
       <c r="C672" s="1" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="D672" s="1" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="E672" s="1" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="F672" s="1" t="s">
-        <v>139</v>
+        <v>9</v>
       </c>
       <c r="G672" s="1"/>
     </row>
     <row r="673" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A673" s="1" t="s">
-        <v>1869</v>
+        <v>1859</v>
       </c>
       <c r="B673" s="1">
         <v>27</v>
       </c>
       <c r="C673" s="1" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="D673" s="1" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="E673" s="1" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="F673" s="1" t="s">
-        <v>143</v>
+        <v>9</v>
       </c>
       <c r="G673" s="1"/>
     </row>
     <row r="674" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A674" s="1" t="s">
-        <v>1870</v>
+        <v>1860</v>
       </c>
       <c r="B674" s="1">
         <v>27</v>
       </c>
       <c r="C674" s="1" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="D674" s="1" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E674" s="1" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F674" s="1" t="s">
-        <v>147</v>
+        <v>9</v>
       </c>
       <c r="G674" s="1"/>
     </row>
     <row r="675" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A675" s="1" t="s">
-        <v>1871</v>
+        <v>1861</v>
       </c>
       <c r="B675" s="1">
         <v>27</v>
       </c>
       <c r="C675" s="1" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="D675" s="1" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="E675" s="1" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="F675" s="1" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="G675" s="1"/>
     </row>
     <row r="676" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A676" s="1" t="s">
-        <v>1872</v>
+        <v>1862</v>
       </c>
       <c r="B676" s="1">
         <v>27</v>
       </c>
       <c r="C676" s="1" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="D676" s="1" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="E676" s="1" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="F676" s="1" t="s">
-        <v>155</v>
+        <v>9</v>
       </c>
       <c r="G676" s="1"/>
     </row>
     <row r="677" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A677" s="1" t="s">
-        <v>1873</v>
+        <v>1863</v>
       </c>
       <c r="B677" s="1">
         <v>27</v>
       </c>
       <c r="C677" s="1" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="D677" s="1" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="E677" s="1" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="F677" s="1" t="s">
-        <v>159</v>
+        <v>9</v>
       </c>
       <c r="G677" s="1"/>
     </row>
     <row r="678" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A678" s="1" t="s">
-        <v>1874</v>
+        <v>1864</v>
       </c>
       <c r="B678" s="1">
         <v>27</v>
       </c>
       <c r="C678" s="1" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="D678" s="1" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="E678" s="1" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="F678" s="1" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="G678" s="1"/>
     </row>
     <row r="679" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A679" s="1" t="s">
-        <v>1875</v>
+        <v>1865</v>
       </c>
       <c r="B679" s="1">
         <v>27</v>
       </c>
       <c r="C679" s="1" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="D679" s="1" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="E679" s="1" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="F679" s="1" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="G679" s="1"/>
     </row>
     <row r="680" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A680" s="1" t="s">
-        <v>1876</v>
+        <v>1866</v>
       </c>
       <c r="B680" s="1">
         <v>27</v>
       </c>
       <c r="C680" s="1" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="D680" s="1" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="E680" s="1" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="F680" s="1" t="s">
-        <v>171</v>
+        <v>9</v>
       </c>
       <c r="G680" s="1"/>
     </row>
     <row r="681" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A681" s="1" t="s">
-        <v>1877</v>
+        <v>1867</v>
       </c>
       <c r="B681" s="1">
         <v>27</v>
       </c>
       <c r="C681" s="1" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="D681" s="1" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="E681" s="1" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="F681" s="1" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="G681" s="1"/>
     </row>
     <row r="682" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A682" s="1" t="s">
-        <v>1878</v>
+        <v>1868</v>
       </c>
       <c r="B682" s="1">
         <v>27</v>
       </c>
       <c r="C682" s="1" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="D682" s="1" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="E682" s="1" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="F682" s="1" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="G682" s="1"/>
     </row>
     <row r="683" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A683" s="1" t="s">
-        <v>1879</v>
+        <v>1869</v>
       </c>
       <c r="B683" s="1">
         <v>27</v>
       </c>
       <c r="C683" s="1" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="D683" s="1" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="E683" s="1" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="F683" s="1" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="G683" s="1"/>
     </row>
     <row r="684" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A684" s="1" t="s">
-        <v>1880</v>
+        <v>1870</v>
       </c>
       <c r="B684" s="1">
         <v>27</v>
       </c>
       <c r="C684" s="1" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="D684" s="1" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="E684" s="1" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="F684" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="G684" s="1"/>
     </row>
     <row r="685" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A685" s="1" t="s">
-        <v>1881</v>
+        <v>1871</v>
       </c>
       <c r="B685" s="1">
         <v>27</v>
       </c>
       <c r="C685" s="1" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="D685" s="1" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="E685" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="F685" s="1" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="G685" s="1"/>
     </row>
     <row r="686" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A686" s="1" t="s">
-        <v>1882</v>
+        <v>1872</v>
       </c>
       <c r="B686" s="1">
         <v>27</v>
       </c>
       <c r="C686" s="1" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="D686" s="1" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="E686" s="1" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="F686" s="1" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="G686" s="1"/>
     </row>
     <row r="687" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A687" s="1" t="s">
-        <v>1883</v>
+        <v>1873</v>
       </c>
       <c r="B687" s="1">
         <v>27</v>
       </c>
       <c r="C687" s="1" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="D687" s="1" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="E687" s="1" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="F687" s="1" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="G687" s="1"/>
     </row>
     <row r="688" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A688" s="1" t="s">
-        <v>1884</v>
+        <v>1874</v>
       </c>
       <c r="B688" s="1">
         <v>27</v>
       </c>
       <c r="C688" s="1" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="D688" s="1" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="E688" s="1" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="F688" s="1" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="G688" s="1"/>
     </row>
     <row r="689" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A689" s="1" t="s">
-        <v>1885</v>
+        <v>1875</v>
       </c>
       <c r="B689" s="1">
         <v>27</v>
       </c>
       <c r="C689" s="1" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="D689" s="1" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="E689" s="1" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="F689" s="1" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="G689" s="1"/>
     </row>
     <row r="690" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A690" s="1" t="s">
-        <v>1886</v>
+        <v>1876</v>
       </c>
       <c r="B690" s="1">
         <v>27</v>
       </c>
       <c r="C690" s="1" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="D690" s="1" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="E690" s="1" t="s">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c r="F690" s="1" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="G690" s="1"/>
     </row>
     <row r="691" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A691" s="1" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
       <c r="B691" s="1">
         <v>27</v>
       </c>
       <c r="C691" s="1" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="D691" s="1" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="E691" s="1" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="F691" s="1" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="G691" s="1"/>
     </row>
     <row r="692" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A692" s="1" t="s">
-        <v>1888</v>
+        <v>1878</v>
       </c>
       <c r="B692" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C692" s="1" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="D692" s="1" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="E692" s="1" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="F692" s="1" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="G692" s="1"/>
     </row>
     <row r="693" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A693" s="1" t="s">
-        <v>1889</v>
+        <v>1879</v>
       </c>
       <c r="B693" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C693" s="1" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="D693" s="1" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="E693" s="1" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="F693" s="1" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="G693" s="1"/>
     </row>
     <row r="694" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A694" s="1" t="s">
-        <v>1890</v>
+        <v>1880</v>
       </c>
       <c r="B694" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C694" s="1" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="D694" s="1" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="E694" s="1" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="F694" s="1" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="G694" s="1"/>
     </row>
     <row r="695" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A695" s="1" t="s">
-        <v>1891</v>
+        <v>1881</v>
       </c>
       <c r="B695" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C695" s="1" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="D695" s="1" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="E695" s="1" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="F695" s="1" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="G695" s="1"/>
     </row>
     <row r="696" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A696" s="1" t="s">
-        <v>1892</v>
+        <v>1882</v>
       </c>
       <c r="B696" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C696" s="1" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="D696" s="1" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="E696" s="1" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="F696" s="1" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="G696" s="1"/>
     </row>
     <row r="697" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A697" s="1" t="s">
-        <v>1893</v>
+        <v>1883</v>
       </c>
       <c r="B697" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C697" s="1" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="D697" s="1" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="E697" s="1" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="F697" s="1" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="G697" s="1"/>
     </row>
     <row r="698" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A698" s="1" t="s">
-        <v>1894</v>
+        <v>1884</v>
       </c>
       <c r="B698" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C698" s="1" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="D698" s="1" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="E698" s="1" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="F698" s="1" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="G698" s="1"/>
     </row>
     <row r="699" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A699" s="1" t="s">
-        <v>1895</v>
+        <v>1885</v>
       </c>
       <c r="B699" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C699" s="1" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="D699" s="1" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="E699" s="1" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="F699" s="1" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="G699" s="1"/>
     </row>
     <row r="700" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A700" s="1" t="s">
-        <v>1896</v>
+        <v>1886</v>
       </c>
       <c r="B700" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C700" s="1" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="D700" s="1" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="E700" s="1" t="s">
-        <v>249</v>
+        <v>209</v>
       </c>
       <c r="F700" s="1" t="s">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="G700" s="1"/>
     </row>
     <row r="701" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A701" s="1" t="s">
-        <v>1897</v>
+        <v>1887</v>
       </c>
       <c r="B701" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C701" s="1" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="D701" s="1" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="E701" s="1" t="s">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="F701" s="1" t="s">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c r="G701" s="1"/>
     </row>
     <row r="702" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A702" s="1" t="s">
-        <v>1898</v>
+        <v>1888</v>
       </c>
       <c r="B702" s="1">
         <v>28</v>
       </c>
       <c r="C702" s="1" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="D702" s="1" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="E702" s="1" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="F702" s="1" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="G702" s="1"/>
     </row>
     <row r="703" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A703" s="1" t="s">
-        <v>1899</v>
+        <v>1889</v>
       </c>
       <c r="B703" s="1">
         <v>28</v>
       </c>
       <c r="C703" s="1" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
       <c r="D703" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E703" s="1"/>
-      <c r="F703" s="1"/>
+        <v>220</v>
+      </c>
+      <c r="E703" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F703" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="G703" s="1"/>
     </row>
     <row r="704" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A704" s="1" t="s">
-        <v>1900</v>
+        <v>1890</v>
       </c>
       <c r="B704" s="1">
         <v>28</v>
       </c>
       <c r="C704" s="1" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="D704" s="1" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="E704" s="1" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="F704" s="1" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="G704" s="1"/>
     </row>
     <row r="705" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A705" s="1" t="s">
-        <v>1901</v>
+        <v>1891</v>
       </c>
       <c r="B705" s="1">
         <v>28</v>
       </c>
       <c r="C705" s="1" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="D705" s="1" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="E705" s="1" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="F705" s="1" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="G705" s="1"/>
     </row>
     <row r="706" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A706" s="1" t="s">
-        <v>1902</v>
+        <v>1892</v>
       </c>
       <c r="B706" s="1">
         <v>28</v>
       </c>
       <c r="C706" s="1" t="s">
-        <v>269</v>
+        <v>231</v>
       </c>
       <c r="D706" s="1" t="s">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="E706" s="1" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="F706" s="1" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="G706" s="1"/>
     </row>
     <row r="707" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A707" s="1" t="s">
-        <v>1903</v>
+        <v>1893</v>
       </c>
       <c r="B707" s="1">
         <v>28</v>
       </c>
       <c r="C707" s="1" t="s">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="D707" s="1" t="s">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="E707" s="1" t="s">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="F707" s="1" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c r="G707" s="1"/>
     </row>
     <row r="708" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A708" s="1" t="s">
-        <v>1904</v>
+        <v>1894</v>
       </c>
       <c r="B708" s="1">
         <v>28</v>
       </c>
       <c r="C708" s="1" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="D708" s="1" t="s">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="E708" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F708" s="1"/>
+        <v>241</v>
+      </c>
+      <c r="F708" s="1" t="s">
+        <v>242</v>
+      </c>
       <c r="G708" s="1"/>
     </row>
     <row r="709" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A709" s="1" t="s">
-        <v>1905</v>
+        <v>1895</v>
       </c>
       <c r="B709" s="1">
         <v>28</v>
       </c>
       <c r="C709" s="1" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="D709" s="1" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="E709" s="1" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="F709" s="1" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="G709" s="1"/>
     </row>
     <row r="710" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A710" s="1" t="s">
-        <v>1906</v>
+        <v>1896</v>
       </c>
       <c r="B710" s="1">
         <v>28</v>
       </c>
       <c r="C710" s="1" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="D710" s="1" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="E710" s="1" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="F710" s="1" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="G710" s="1"/>
     </row>
     <row r="711" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A711" s="1" t="s">
-        <v>1907</v>
+        <v>1897</v>
       </c>
       <c r="B711" s="1">
         <v>28</v>
       </c>
       <c r="C711" s="1" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="D711" s="1" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="E711" s="1" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="F711" s="1" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="G711" s="1"/>
     </row>
     <row r="712" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A712" s="1" t="s">
-        <v>1908</v>
+        <v>1898</v>
       </c>
       <c r="B712" s="1">
         <v>28</v>
       </c>
       <c r="C712" s="1" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="D712" s="1" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="E712" s="1" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="F712" s="1" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="G712" s="1"/>
     </row>
     <row r="713" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A713" s="1" t="s">
-        <v>1909</v>
+        <v>1899</v>
       </c>
       <c r="B713" s="1">
         <v>28</v>
       </c>
       <c r="C713" s="1" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="D713" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E713" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="F713" s="1" t="s">
-        <v>298</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="E713" s="1"/>
+      <c r="F713" s="1"/>
       <c r="G713" s="1"/>
     </row>
     <row r="714" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A714" s="1" t="s">
-        <v>1910</v>
+        <v>1900</v>
       </c>
       <c r="B714" s="1">
         <v>28</v>
       </c>
       <c r="C714" s="1" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="D714" s="1" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="E714" s="1" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="F714" s="1" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
       <c r="G714" s="1"/>
     </row>
     <row r="715" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A715" s="1" t="s">
-        <v>1911</v>
+        <v>1901</v>
       </c>
       <c r="B715" s="1">
         <v>28</v>
       </c>
       <c r="C715" s="1" t="s">
-        <v>303</v>
+        <v>265</v>
       </c>
       <c r="D715" s="1" t="s">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="E715" s="1" t="s">
-        <v>305</v>
+        <v>267</v>
       </c>
       <c r="F715" s="1" t="s">
-        <v>306</v>
+        <v>268</v>
       </c>
       <c r="G715" s="1"/>
     </row>
     <row r="716" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A716" s="1" t="s">
-        <v>1912</v>
+        <v>1902</v>
       </c>
       <c r="B716" s="1">
         <v>28</v>
       </c>
       <c r="C716" s="1" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
       <c r="D716" s="1" t="s">
-        <v>308</v>
+        <v>270</v>
       </c>
       <c r="E716" s="1" t="s">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="F716" s="1" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="G716" s="1"/>
     </row>
     <row r="717" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A717" s="1" t="s">
-        <v>1913</v>
+        <v>1903</v>
       </c>
       <c r="B717" s="1">
         <v>28</v>
       </c>
       <c r="C717" s="1" t="s">
-        <v>311</v>
+        <v>6</v>
       </c>
       <c r="D717" s="1" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="E717" s="1" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="F717" s="1" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="G717" s="1"/>
     </row>
     <row r="718" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A718" s="1" t="s">
-        <v>1914</v>
+        <v>1904</v>
       </c>
       <c r="B718" s="1">
         <v>28</v>
       </c>
       <c r="C718" s="1" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="D718" s="1" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="E718" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="F718" s="1" t="s">
-        <v>318</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="F718" s="1"/>
       <c r="G718" s="1"/>
     </row>
     <row r="719" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A719" s="1" t="s">
-        <v>1915</v>
+        <v>1905</v>
       </c>
       <c r="B719" s="1">
         <v>28</v>
       </c>
       <c r="C719" s="1" t="s">
-        <v>319</v>
+        <v>279</v>
       </c>
       <c r="D719" s="1" t="s">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="E719" s="1" t="s">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="F719" s="1" t="s">
-        <v>322</v>
+        <v>282</v>
       </c>
       <c r="G719" s="1"/>
     </row>
     <row r="720" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A720" s="1" t="s">
-        <v>1916</v>
+        <v>1906</v>
       </c>
       <c r="B720" s="1">
         <v>28</v>
       </c>
       <c r="C720" s="1" t="s">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="D720" s="1" t="s">
-        <v>324</v>
+        <v>284</v>
       </c>
       <c r="E720" s="1" t="s">
-        <v>325</v>
+        <v>285</v>
       </c>
       <c r="F720" s="1" t="s">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="G720" s="1"/>
     </row>
     <row r="721" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A721" s="1" t="s">
-        <v>1917</v>
+        <v>1907</v>
       </c>
       <c r="B721" s="1">
         <v>28</v>
       </c>
       <c r="C721" s="1" t="s">
-        <v>327</v>
+        <v>287</v>
       </c>
       <c r="D721" s="1" t="s">
-        <v>328</v>
+        <v>288</v>
       </c>
       <c r="E721" s="1" t="s">
-        <v>329</v>
+        <v>289</v>
       </c>
       <c r="F721" s="1" t="s">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="G721" s="1"/>
     </row>
     <row r="722" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A722" s="1" t="s">
-        <v>1918</v>
+        <v>1908</v>
       </c>
       <c r="B722" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C722" s="1" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="D722" s="1" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="E722" s="1" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="F722" s="1" t="s">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="G722" s="1"/>
     </row>
     <row r="723" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A723" s="1" t="s">
-        <v>1919</v>
+        <v>1909</v>
       </c>
       <c r="B723" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C723" s="1" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="D723" s="1" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="E723" s="1" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="F723" s="1" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="G723" s="1"/>
     </row>
     <row r="724" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A724" s="1" t="s">
-        <v>1920</v>
+        <v>1910</v>
       </c>
       <c r="B724" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C724" s="1" t="s">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="D724" s="1" t="s">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="E724" s="1" t="s">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="F724" s="1" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="G724" s="1"/>
     </row>
     <row r="725" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A725" s="1" t="s">
-        <v>1921</v>
+        <v>1911</v>
       </c>
       <c r="B725" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C725" s="1" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D725" s="1" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="E725" s="1" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="F725" s="1" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="G725" s="1"/>
     </row>
     <row r="726" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A726" s="1" t="s">
-        <v>1922</v>
+        <v>1912</v>
       </c>
       <c r="B726" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C726" s="1" t="s">
-        <v>347</v>
+        <v>307</v>
       </c>
       <c r="D726" s="1" t="s">
-        <v>348</v>
+        <v>308</v>
       </c>
       <c r="E726" s="1" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="F726" s="1" t="s">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="G726" s="1"/>
     </row>
     <row r="727" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A727" s="1" t="s">
-        <v>1923</v>
+        <v>1913</v>
       </c>
       <c r="B727" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C727" s="1" t="s">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="D727" s="1" t="s">
-        <v>352</v>
+        <v>312</v>
       </c>
       <c r="E727" s="1" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="F727" s="1" t="s">
-        <v>354</v>
+        <v>314</v>
       </c>
       <c r="G727" s="1"/>
     </row>
     <row r="728" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A728" s="1" t="s">
-        <v>1924</v>
+        <v>1914</v>
       </c>
       <c r="B728" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C728" s="1" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="D728" s="1" t="s">
-        <v>356</v>
+        <v>316</v>
       </c>
       <c r="E728" s="1" t="s">
-        <v>357</v>
+        <v>317</v>
       </c>
       <c r="F728" s="1" t="s">
-        <v>358</v>
+        <v>318</v>
       </c>
       <c r="G728" s="1"/>
     </row>
     <row r="729" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A729" s="1" t="s">
-        <v>1925</v>
+        <v>1915</v>
       </c>
       <c r="B729" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C729" s="1" t="s">
-        <v>359</v>
+        <v>319</v>
       </c>
       <c r="D729" s="1" t="s">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="E729" s="1" t="s">
-        <v>361</v>
+        <v>321</v>
       </c>
       <c r="F729" s="1" t="s">
-        <v>362</v>
+        <v>322</v>
       </c>
       <c r="G729" s="1"/>
     </row>
     <row r="730" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A730" s="1" t="s">
-        <v>1926</v>
+        <v>1916</v>
       </c>
       <c r="B730" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C730" s="1" t="s">
-        <v>363</v>
+        <v>323</v>
       </c>
       <c r="D730" s="1" t="s">
-        <v>364</v>
+        <v>324</v>
       </c>
       <c r="E730" s="1" t="s">
-        <v>365</v>
+        <v>325</v>
       </c>
       <c r="F730" s="1" t="s">
-        <v>366</v>
+        <v>326</v>
       </c>
       <c r="G730" s="1"/>
     </row>
     <row r="731" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A731" s="1" t="s">
-        <v>1927</v>
+        <v>1917</v>
       </c>
       <c r="B731" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C731" s="1" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="D731" s="1" t="s">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="E731" s="1" t="s">
-        <v>369</v>
+        <v>329</v>
       </c>
       <c r="F731" s="1" t="s">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="G731" s="1"/>
     </row>
     <row r="732" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A732" s="1" t="s">
-        <v>1928</v>
+        <v>1918</v>
       </c>
       <c r="B732" s="1">
         <v>29</v>
       </c>
       <c r="C732" s="1" t="s">
-        <v>371</v>
+        <v>331</v>
       </c>
       <c r="D732" s="1" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="E732" s="1" t="s">
-        <v>373</v>
+        <v>333</v>
       </c>
       <c r="F732" s="1" t="s">
-        <v>374</v>
+        <v>334</v>
       </c>
       <c r="G732" s="1"/>
     </row>
     <row r="733" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A733" s="1" t="s">
-        <v>1929</v>
+        <v>1919</v>
       </c>
       <c r="B733" s="1">
         <v>29</v>
       </c>
       <c r="C733" s="1" t="s">
-        <v>375</v>
+        <v>335</v>
       </c>
       <c r="D733" s="1" t="s">
-        <v>376</v>
+        <v>336</v>
       </c>
       <c r="E733" s="1" t="s">
-        <v>377</v>
+        <v>337</v>
       </c>
       <c r="F733" s="1" t="s">
-        <v>378</v>
+        <v>338</v>
       </c>
       <c r="G733" s="1"/>
     </row>
     <row r="734" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A734" s="1" t="s">
-        <v>1930</v>
+        <v>1920</v>
       </c>
       <c r="B734" s="1">
         <v>29</v>
       </c>
       <c r="C734" s="1" t="s">
-        <v>379</v>
+        <v>339</v>
       </c>
       <c r="D734" s="1" t="s">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="E734" s="1" t="s">
-        <v>381</v>
+        <v>341</v>
       </c>
       <c r="F734" s="1" t="s">
-        <v>382</v>
+        <v>342</v>
       </c>
       <c r="G734" s="1"/>
     </row>
     <row r="735" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A735" s="1" t="s">
-        <v>1931</v>
+        <v>1921</v>
       </c>
       <c r="B735" s="1">
         <v>29</v>
       </c>
       <c r="C735" s="1" t="s">
-        <v>383</v>
+        <v>343</v>
       </c>
       <c r="D735" s="1" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="E735" s="1" t="s">
-        <v>385</v>
+        <v>345</v>
       </c>
       <c r="F735" s="1" t="s">
-        <v>386</v>
+        <v>346</v>
       </c>
       <c r="G735" s="1"/>
     </row>
     <row r="736" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A736" s="1" t="s">
-        <v>1932</v>
+        <v>1922</v>
       </c>
       <c r="B736" s="1">
         <v>29</v>
       </c>
       <c r="C736" s="1" t="s">
-        <v>387</v>
+        <v>347</v>
       </c>
       <c r="D736" s="1" t="s">
-        <v>388</v>
+        <v>348</v>
       </c>
       <c r="E736" s="1" t="s">
-        <v>389</v>
+        <v>349</v>
       </c>
       <c r="F736" s="1" t="s">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="G736" s="1"/>
     </row>
     <row r="737" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A737" s="1" t="s">
-        <v>1933</v>
+        <v>1923</v>
       </c>
       <c r="B737" s="1">
         <v>29</v>
       </c>
       <c r="C737" s="1" t="s">
-        <v>391</v>
+        <v>351</v>
       </c>
       <c r="D737" s="1" t="s">
-        <v>392</v>
+        <v>352</v>
       </c>
       <c r="E737" s="1" t="s">
-        <v>393</v>
+        <v>353</v>
       </c>
       <c r="F737" s="1" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="G737" s="1"/>
     </row>
     <row r="738" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A738" s="1" t="s">
-        <v>1934</v>
+        <v>1924</v>
       </c>
       <c r="B738" s="1">
         <v>29</v>
       </c>
       <c r="C738" s="1" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="D738" s="1" t="s">
-        <v>396</v>
+        <v>356</v>
       </c>
       <c r="E738" s="1" t="s">
-        <v>397</v>
+        <v>357</v>
       </c>
       <c r="F738" s="1" t="s">
-        <v>398</v>
+        <v>358</v>
       </c>
       <c r="G738" s="1"/>
     </row>
     <row r="739" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A739" s="1" t="s">
-        <v>1935</v>
+        <v>1925</v>
       </c>
       <c r="B739" s="1">
         <v>29</v>
       </c>
       <c r="C739" s="1" t="s">
-        <v>399</v>
+        <v>359</v>
       </c>
       <c r="D739" s="1" t="s">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="E739" s="1" t="s">
-        <v>401</v>
+        <v>361</v>
       </c>
       <c r="F739" s="1" t="s">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="G739" s="1"/>
     </row>
     <row r="740" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A740" s="1" t="s">
-        <v>1936</v>
+        <v>1926</v>
       </c>
       <c r="B740" s="1">
         <v>29</v>
       </c>
       <c r="C740" s="1" t="s">
-        <v>403</v>
+        <v>363</v>
       </c>
       <c r="D740" s="1" t="s">
-        <v>404</v>
+        <v>364</v>
       </c>
       <c r="E740" s="1" t="s">
-        <v>405</v>
+        <v>365</v>
       </c>
       <c r="F740" s="1" t="s">
-        <v>406</v>
+        <v>366</v>
       </c>
       <c r="G740" s="1"/>
     </row>
     <row r="741" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A741" s="1" t="s">
-        <v>1937</v>
+        <v>1927</v>
       </c>
       <c r="B741" s="1">
         <v>29</v>
       </c>
       <c r="C741" s="1" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="D741" s="1" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="E741" s="1" t="s">
-        <v>409</v>
+        <v>369</v>
       </c>
       <c r="F741" s="1" t="s">
-        <v>410</v>
+        <v>370</v>
       </c>
       <c r="G741" s="1"/>
     </row>
     <row r="742" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A742" s="1" t="s">
-        <v>1938</v>
+        <v>1928</v>
       </c>
       <c r="B742" s="1">
         <v>29</v>
       </c>
       <c r="C742" s="1" t="s">
-        <v>411</v>
+        <v>371</v>
       </c>
       <c r="D742" s="1" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="E742" s="1" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="F742" s="1" t="s">
-        <v>414</v>
+        <v>374</v>
       </c>
       <c r="G742" s="1"/>
     </row>
     <row r="743" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A743" s="1" t="s">
-        <v>1939</v>
+        <v>1929</v>
       </c>
       <c r="B743" s="1">
         <v>29</v>
       </c>
       <c r="C743" s="1" t="s">
-        <v>415</v>
+        <v>375</v>
       </c>
       <c r="D743" s="1" t="s">
-        <v>416</v>
+        <v>376</v>
       </c>
       <c r="E743" s="1" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="F743" s="1" t="s">
-        <v>418</v>
+        <v>378</v>
       </c>
       <c r="G743" s="1"/>
     </row>
     <row r="744" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A744" s="1" t="s">
-        <v>1940</v>
+        <v>1930</v>
       </c>
       <c r="B744" s="1">
         <v>29</v>
       </c>
       <c r="C744" s="1" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="D744" s="1" t="s">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="E744" s="1" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="F744" s="1" t="s">
-        <v>422</v>
+        <v>382</v>
       </c>
       <c r="G744" s="1"/>
     </row>
     <row r="745" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A745" s="1" t="s">
-        <v>1941</v>
+        <v>1931</v>
       </c>
       <c r="B745" s="1">
         <v>29</v>
       </c>
       <c r="C745" s="1" t="s">
-        <v>423</v>
+        <v>383</v>
       </c>
       <c r="D745" s="1" t="s">
-        <v>424</v>
+        <v>384</v>
       </c>
       <c r="E745" s="1" t="s">
-        <v>425</v>
+        <v>385</v>
       </c>
       <c r="F745" s="1" t="s">
-        <v>426</v>
+        <v>386</v>
       </c>
       <c r="G745" s="1"/>
     </row>
     <row r="746" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A746" s="1" t="s">
-        <v>1942</v>
+        <v>1932</v>
       </c>
       <c r="B746" s="1">
         <v>29</v>
       </c>
       <c r="C746" s="1" t="s">
-        <v>427</v>
+        <v>387</v>
       </c>
       <c r="D746" s="1" t="s">
-        <v>428</v>
+        <v>388</v>
       </c>
       <c r="E746" s="1" t="s">
-        <v>429</v>
+        <v>389</v>
       </c>
       <c r="F746" s="1" t="s">
-        <v>430</v>
+        <v>390</v>
       </c>
       <c r="G746" s="1"/>
     </row>
     <row r="747" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A747" s="1" t="s">
-        <v>1943</v>
+        <v>1933</v>
       </c>
       <c r="B747" s="1">
         <v>29</v>
       </c>
       <c r="C747" s="1" t="s">
-        <v>431</v>
+        <v>391</v>
       </c>
       <c r="D747" s="1" t="s">
-        <v>432</v>
+        <v>392</v>
       </c>
       <c r="E747" s="1" t="s">
-        <v>433</v>
+        <v>393</v>
       </c>
       <c r="F747" s="1" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
       <c r="G747" s="1"/>
     </row>
     <row r="748" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A748" s="1" t="s">
-        <v>1944</v>
+        <v>1934</v>
       </c>
       <c r="B748" s="1">
         <v>29</v>
       </c>
       <c r="C748" s="1" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
       <c r="D748" s="1" t="s">
-        <v>436</v>
+        <v>396</v>
       </c>
       <c r="E748" s="1" t="s">
-        <v>437</v>
+        <v>397</v>
       </c>
       <c r="F748" s="1" t="s">
-        <v>438</v>
+        <v>398</v>
       </c>
       <c r="G748" s="1"/>
     </row>
     <row r="749" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A749" s="1" t="s">
-        <v>1945</v>
+        <v>1935</v>
       </c>
       <c r="B749" s="1">
         <v>29</v>
       </c>
       <c r="C749" s="1" t="s">
-        <v>439</v>
+        <v>399</v>
       </c>
       <c r="D749" s="1" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="E749" s="1" t="s">
-        <v>441</v>
+        <v>401</v>
       </c>
       <c r="F749" s="1" t="s">
-        <v>442</v>
+        <v>402</v>
       </c>
       <c r="G749" s="1"/>
     </row>
     <row r="750" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A750" s="1" t="s">
-        <v>1946</v>
+        <v>1936</v>
       </c>
       <c r="B750" s="1">
         <v>29</v>
       </c>
       <c r="C750" s="1" t="s">
-        <v>443</v>
+        <v>403</v>
       </c>
       <c r="D750" s="1" t="s">
-        <v>444</v>
+        <v>404</v>
       </c>
       <c r="E750" s="1" t="s">
-        <v>445</v>
+        <v>405</v>
       </c>
       <c r="F750" s="1" t="s">
-        <v>446</v>
+        <v>406</v>
       </c>
       <c r="G750" s="1"/>
     </row>
     <row r="751" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A751" s="1" t="s">
-        <v>1947</v>
+        <v>1937</v>
       </c>
       <c r="B751" s="1">
         <v>29</v>
       </c>
       <c r="C751" s="1" t="s">
-        <v>447</v>
+        <v>407</v>
       </c>
       <c r="D751" s="1" t="s">
-        <v>448</v>
+        <v>408</v>
       </c>
       <c r="E751" s="1" t="s">
-        <v>449</v>
+        <v>409</v>
       </c>
       <c r="F751" s="1" t="s">
-        <v>450</v>
+        <v>410</v>
       </c>
       <c r="G751" s="1"/>
     </row>
     <row r="752" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A752" s="1" t="s">
-        <v>1948</v>
+        <v>1938</v>
       </c>
       <c r="B752" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C752" s="1" t="s">
-        <v>451</v>
+        <v>411</v>
       </c>
       <c r="D752" s="1" t="s">
-        <v>452</v>
+        <v>412</v>
       </c>
       <c r="E752" s="1" t="s">
-        <v>453</v>
+        <v>413</v>
       </c>
       <c r="F752" s="1" t="s">
-        <v>454</v>
+        <v>414</v>
       </c>
       <c r="G752" s="1"/>
     </row>
     <row r="753" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A753" s="1" t="s">
-        <v>1949</v>
+        <v>1939</v>
       </c>
       <c r="B753" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C753" s="1" t="s">
-        <v>455</v>
+        <v>415</v>
       </c>
       <c r="D753" s="1" t="s">
-        <v>456</v>
+        <v>416</v>
       </c>
       <c r="E753" s="1" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="F753" s="1" t="s">
-        <v>458</v>
+        <v>418</v>
       </c>
       <c r="G753" s="1"/>
     </row>
     <row r="754" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A754" s="1" t="s">
-        <v>1950</v>
+        <v>1940</v>
       </c>
       <c r="B754" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C754" s="1" t="s">
-        <v>459</v>
+        <v>419</v>
       </c>
       <c r="D754" s="1" t="s">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="E754" s="1" t="s">
-        <v>461</v>
+        <v>421</v>
       </c>
       <c r="F754" s="1" t="s">
-        <v>462</v>
+        <v>422</v>
       </c>
       <c r="G754" s="1"/>
     </row>
     <row r="755" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A755" s="1" t="s">
-        <v>1951</v>
+        <v>1941</v>
       </c>
       <c r="B755" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C755" s="1" t="s">
-        <v>463</v>
+        <v>423</v>
       </c>
       <c r="D755" s="1" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="E755" s="1" t="s">
-        <v>465</v>
+        <v>425</v>
       </c>
       <c r="F755" s="1" t="s">
-        <v>466</v>
+        <v>426</v>
       </c>
       <c r="G755" s="1"/>
     </row>
     <row r="756" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A756" s="1" t="s">
-        <v>1952</v>
+        <v>1942</v>
       </c>
       <c r="B756" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C756" s="1" t="s">
-        <v>467</v>
+        <v>427</v>
       </c>
       <c r="D756" s="1" t="s">
-        <v>468</v>
+        <v>428</v>
       </c>
       <c r="E756" s="1" t="s">
-        <v>469</v>
+        <v>429</v>
       </c>
       <c r="F756" s="1" t="s">
-        <v>470</v>
+        <v>430</v>
       </c>
       <c r="G756" s="1"/>
     </row>
     <row r="757" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A757" s="1" t="s">
-        <v>1953</v>
+        <v>1943</v>
       </c>
       <c r="B757" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C757" s="1" t="s">
-        <v>471</v>
+        <v>431</v>
       </c>
       <c r="D757" s="1" t="s">
-        <v>472</v>
+        <v>432</v>
       </c>
       <c r="E757" s="1" t="s">
-        <v>473</v>
+        <v>433</v>
       </c>
       <c r="F757" s="1" t="s">
-        <v>474</v>
+        <v>434</v>
       </c>
       <c r="G757" s="1"/>
     </row>
     <row r="758" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A758" s="1" t="s">
-        <v>1954</v>
+        <v>1944</v>
       </c>
       <c r="B758" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C758" s="1" t="s">
-        <v>475</v>
+        <v>435</v>
       </c>
       <c r="D758" s="1" t="s">
-        <v>476</v>
+        <v>436</v>
       </c>
       <c r="E758" s="1" t="s">
-        <v>477</v>
+        <v>437</v>
       </c>
       <c r="F758" s="1" t="s">
-        <v>478</v>
+        <v>438</v>
       </c>
       <c r="G758" s="1"/>
     </row>
     <row r="759" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A759" s="1" t="s">
-        <v>1955</v>
+        <v>1945</v>
       </c>
       <c r="B759" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C759" s="1" t="s">
-        <v>479</v>
+        <v>439</v>
       </c>
       <c r="D759" s="1" t="s">
-        <v>480</v>
+        <v>440</v>
       </c>
       <c r="E759" s="1" t="s">
-        <v>481</v>
+        <v>441</v>
       </c>
       <c r="F759" s="1" t="s">
-        <v>482</v>
+        <v>442</v>
       </c>
       <c r="G759" s="1"/>
     </row>
     <row r="760" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A760" s="1" t="s">
-        <v>1956</v>
+        <v>1946</v>
       </c>
       <c r="B760" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C760" s="1" t="s">
-        <v>483</v>
+        <v>443</v>
       </c>
       <c r="D760" s="1" t="s">
-        <v>484</v>
+        <v>444</v>
       </c>
       <c r="E760" s="1" t="s">
-        <v>485</v>
+        <v>445</v>
       </c>
       <c r="F760" s="1" t="s">
-        <v>486</v>
+        <v>446</v>
       </c>
       <c r="G760" s="1"/>
     </row>
     <row r="761" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A761" s="1" t="s">
-        <v>1957</v>
+        <v>1947</v>
       </c>
       <c r="B761" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C761" s="1" t="s">
-        <v>487</v>
+        <v>447</v>
       </c>
       <c r="D761" s="1" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
       <c r="E761" s="1" t="s">
-        <v>489</v>
+        <v>449</v>
       </c>
       <c r="F761" s="1" t="s">
-        <v>490</v>
+        <v>450</v>
       </c>
       <c r="G761" s="1"/>
     </row>
     <row r="762" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A762" s="1" t="s">
-        <v>1958</v>
+        <v>1948</v>
       </c>
       <c r="B762" s="1">
         <v>30</v>
       </c>
       <c r="C762" s="1" t="s">
-        <v>491</v>
+        <v>451</v>
       </c>
       <c r="D762" s="1" t="s">
-        <v>492</v>
+        <v>452</v>
       </c>
       <c r="E762" s="1" t="s">
-        <v>493</v>
+        <v>453</v>
       </c>
       <c r="F762" s="1" t="s">
-        <v>494</v>
+        <v>454</v>
       </c>
       <c r="G762" s="1"/>
     </row>
     <row r="763" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A763" s="1" t="s">
-        <v>1959</v>
+        <v>1949</v>
       </c>
       <c r="B763" s="1">
         <v>30</v>
       </c>
       <c r="C763" s="1" t="s">
-        <v>495</v>
+        <v>455</v>
       </c>
       <c r="D763" s="1" t="s">
-        <v>496</v>
+        <v>456</v>
       </c>
       <c r="E763" s="1" t="s">
-        <v>497</v>
+        <v>457</v>
       </c>
       <c r="F763" s="1" t="s">
-        <v>498</v>
+        <v>458</v>
       </c>
       <c r="G763" s="1"/>
     </row>
     <row r="764" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A764" s="1" t="s">
-        <v>1960</v>
+        <v>1950</v>
       </c>
       <c r="B764" s="1">
         <v>30</v>
       </c>
       <c r="C764" s="1" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="D764" s="1" t="s">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="E764" s="1" t="s">
-        <v>501</v>
+        <v>461</v>
       </c>
       <c r="F764" s="1" t="s">
-        <v>502</v>
+        <v>462</v>
       </c>
       <c r="G764" s="1"/>
     </row>
     <row r="765" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A765" s="1" t="s">
-        <v>1961</v>
+        <v>1951</v>
       </c>
       <c r="B765" s="1">
         <v>30</v>
       </c>
       <c r="C765" s="1" t="s">
-        <v>503</v>
+        <v>463</v>
       </c>
       <c r="D765" s="1" t="s">
-        <v>504</v>
+        <v>464</v>
       </c>
       <c r="E765" s="1" t="s">
-        <v>505</v>
+        <v>465</v>
       </c>
       <c r="F765" s="1" t="s">
-        <v>506</v>
+        <v>466</v>
       </c>
       <c r="G765" s="1"/>
     </row>
     <row r="766" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A766" s="1" t="s">
-        <v>1962</v>
+        <v>1952</v>
       </c>
       <c r="B766" s="1">
         <v>30</v>
       </c>
       <c r="C766" s="1" t="s">
-        <v>507</v>
+        <v>467</v>
       </c>
       <c r="D766" s="1" t="s">
-        <v>508</v>
+        <v>468</v>
       </c>
       <c r="E766" s="1" t="s">
-        <v>509</v>
+        <v>469</v>
       </c>
       <c r="F766" s="1" t="s">
-        <v>510</v>
+        <v>470</v>
       </c>
       <c r="G766" s="1"/>
     </row>
     <row r="767" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A767" s="1" t="s">
-        <v>1963</v>
+        <v>1953</v>
       </c>
       <c r="B767" s="1">
         <v>30</v>
       </c>
       <c r="C767" s="1" t="s">
-        <v>511</v>
+        <v>471</v>
       </c>
       <c r="D767" s="1" t="s">
-        <v>512</v>
+        <v>472</v>
       </c>
       <c r="E767" s="1" t="s">
-        <v>513</v>
+        <v>473</v>
       </c>
       <c r="F767" s="1" t="s">
-        <v>514</v>
+        <v>474</v>
       </c>
       <c r="G767" s="1"/>
     </row>
     <row r="768" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A768" s="1" t="s">
-        <v>1964</v>
+        <v>1954</v>
       </c>
       <c r="B768" s="1">
         <v>30</v>
       </c>
       <c r="C768" s="1" t="s">
-        <v>515</v>
+        <v>475</v>
       </c>
       <c r="D768" s="1" t="s">
-        <v>516</v>
+        <v>476</v>
       </c>
       <c r="E768" s="1" t="s">
-        <v>517</v>
+        <v>477</v>
       </c>
       <c r="F768" s="1" t="s">
-        <v>518</v>
+        <v>478</v>
       </c>
       <c r="G768" s="1"/>
     </row>
     <row r="769" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A769" s="1" t="s">
-        <v>1965</v>
+        <v>1955</v>
       </c>
       <c r="B769" s="1">
         <v>30</v>
       </c>
       <c r="C769" s="1" t="s">
-        <v>519</v>
+        <v>479</v>
       </c>
       <c r="D769" s="1" t="s">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="E769" s="1" t="s">
-        <v>521</v>
+        <v>481</v>
       </c>
       <c r="F769" s="1" t="s">
-        <v>522</v>
+        <v>482</v>
       </c>
       <c r="G769" s="1"/>
     </row>
     <row r="770" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A770" s="1" t="s">
-        <v>1966</v>
+        <v>1956</v>
       </c>
       <c r="B770" s="1">
         <v>30</v>
       </c>
       <c r="C770" s="1" t="s">
-        <v>523</v>
+        <v>483</v>
       </c>
       <c r="D770" s="1" t="s">
-        <v>524</v>
+        <v>484</v>
       </c>
       <c r="E770" s="1" t="s">
-        <v>525</v>
+        <v>485</v>
       </c>
       <c r="F770" s="1" t="s">
-        <v>526</v>
+        <v>486</v>
       </c>
       <c r="G770" s="1"/>
     </row>
     <row r="771" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A771" s="1" t="s">
-        <v>1967</v>
+        <v>1957</v>
       </c>
       <c r="B771" s="1">
         <v>30</v>
       </c>
       <c r="C771" s="1" t="s">
-        <v>527</v>
+        <v>487</v>
       </c>
       <c r="D771" s="1" t="s">
-        <v>528</v>
+        <v>488</v>
       </c>
       <c r="E771" s="1" t="s">
-        <v>529</v>
+        <v>489</v>
       </c>
       <c r="F771" s="1" t="s">
-        <v>530</v>
+        <v>490</v>
       </c>
       <c r="G771" s="1"/>
     </row>
     <row r="772" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A772" s="1" t="s">
-        <v>1968</v>
+        <v>1958</v>
       </c>
       <c r="B772" s="1">
         <v>30</v>
       </c>
       <c r="C772" s="1" t="s">
-        <v>531</v>
+        <v>491</v>
       </c>
       <c r="D772" s="1" t="s">
-        <v>532</v>
+        <v>492</v>
       </c>
       <c r="E772" s="1" t="s">
-        <v>533</v>
+        <v>493</v>
       </c>
       <c r="F772" s="1" t="s">
-        <v>534</v>
+        <v>494</v>
       </c>
       <c r="G772" s="1"/>
     </row>
     <row r="773" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A773" s="1" t="s">
-        <v>1969</v>
+        <v>1959</v>
       </c>
       <c r="B773" s="1">
         <v>30</v>
       </c>
       <c r="C773" s="1" t="s">
-        <v>535</v>
+        <v>495</v>
       </c>
       <c r="D773" s="1" t="s">
-        <v>536</v>
+        <v>496</v>
       </c>
       <c r="E773" s="1" t="s">
-        <v>537</v>
+        <v>497</v>
       </c>
       <c r="F773" s="1" t="s">
-        <v>538</v>
+        <v>498</v>
       </c>
       <c r="G773" s="1"/>
     </row>
     <row r="774" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A774" s="1" t="s">
-        <v>1970</v>
+        <v>1960</v>
       </c>
       <c r="B774" s="1">
         <v>30</v>
       </c>
       <c r="C774" s="1" t="s">
-        <v>539</v>
+        <v>499</v>
       </c>
       <c r="D774" s="1" t="s">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="E774" s="1" t="s">
-        <v>541</v>
+        <v>501</v>
       </c>
       <c r="F774" s="1" t="s">
-        <v>542</v>
+        <v>502</v>
       </c>
       <c r="G774" s="1"/>
     </row>
     <row r="775" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A775" s="1" t="s">
-        <v>1971</v>
+        <v>1961</v>
       </c>
       <c r="B775" s="1">
         <v>30</v>
       </c>
       <c r="C775" s="1" t="s">
-        <v>543</v>
+        <v>503</v>
       </c>
       <c r="D775" s="1" t="s">
-        <v>544</v>
+        <v>504</v>
       </c>
       <c r="E775" s="1" t="s">
-        <v>545</v>
+        <v>505</v>
       </c>
       <c r="F775" s="1" t="s">
-        <v>546</v>
+        <v>506</v>
       </c>
       <c r="G775" s="1"/>
     </row>
     <row r="776" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A776" s="1" t="s">
-        <v>1972</v>
+        <v>1962</v>
       </c>
       <c r="B776" s="1">
         <v>30</v>
       </c>
       <c r="C776" s="1" t="s">
-        <v>547</v>
+        <v>507</v>
       </c>
       <c r="D776" s="1" t="s">
-        <v>548</v>
+        <v>508</v>
       </c>
       <c r="E776" s="1" t="s">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="F776" s="1" t="s">
-        <v>550</v>
+        <v>510</v>
       </c>
       <c r="G776" s="1"/>
     </row>
     <row r="777" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A777" s="1" t="s">
-        <v>1973</v>
+        <v>1963</v>
       </c>
       <c r="B777" s="1">
         <v>30</v>
       </c>
       <c r="C777" s="1" t="s">
-        <v>551</v>
+        <v>511</v>
       </c>
       <c r="D777" s="1" t="s">
-        <v>552</v>
+        <v>512</v>
       </c>
       <c r="E777" s="1" t="s">
-        <v>553</v>
+        <v>513</v>
       </c>
       <c r="F777" s="1" t="s">
-        <v>554</v>
+        <v>514</v>
       </c>
       <c r="G777" s="1"/>
     </row>
     <row r="778" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A778" s="1" t="s">
-        <v>1974</v>
+        <v>1964</v>
       </c>
       <c r="B778" s="1">
         <v>30</v>
       </c>
       <c r="C778" s="1" t="s">
-        <v>555</v>
+        <v>515</v>
       </c>
       <c r="D778" s="1" t="s">
-        <v>556</v>
+        <v>516</v>
       </c>
       <c r="E778" s="1" t="s">
-        <v>557</v>
+        <v>517</v>
       </c>
       <c r="F778" s="1" t="s">
-        <v>558</v>
+        <v>518</v>
       </c>
       <c r="G778" s="1"/>
     </row>
     <row r="779" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A779" s="1" t="s">
-        <v>1975</v>
+        <v>1965</v>
       </c>
       <c r="B779" s="1">
         <v>30</v>
       </c>
       <c r="C779" s="1" t="s">
-        <v>559</v>
+        <v>519</v>
       </c>
       <c r="D779" s="1" t="s">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="E779" s="1" t="s">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="F779" s="1" t="s">
-        <v>562</v>
+        <v>522</v>
       </c>
       <c r="G779" s="1"/>
     </row>
     <row r="780" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A780" s="1" t="s">
-        <v>1976</v>
+        <v>1966</v>
       </c>
       <c r="B780" s="1">
         <v>30</v>
       </c>
       <c r="C780" s="1" t="s">
-        <v>563</v>
+        <v>523</v>
       </c>
       <c r="D780" s="1" t="s">
-        <v>564</v>
+        <v>524</v>
       </c>
       <c r="E780" s="1" t="s">
-        <v>565</v>
+        <v>525</v>
       </c>
       <c r="F780" s="1" t="s">
-        <v>566</v>
+        <v>526</v>
       </c>
       <c r="G780" s="1"/>
     </row>
     <row r="781" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A781" s="1" t="s">
-        <v>1977</v>
+        <v>1967</v>
       </c>
       <c r="B781" s="1">
         <v>30</v>
       </c>
       <c r="C781" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D781" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E781" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F781" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="G781" s="1"/>
+    </row>
+    <row r="782" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A782" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B782" s="1">
+        <v>30</v>
+      </c>
+      <c r="C782" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D782" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E782" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F782" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="G782" s="1"/>
+    </row>
+    <row r="783" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A783" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B783" s="1">
+        <v>30</v>
+      </c>
+      <c r="C783" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D783" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="E783" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F783" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="G783" s="1"/>
+    </row>
+    <row r="784" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A784" s="1" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B784" s="1">
+        <v>30</v>
+      </c>
+      <c r="C784" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D784" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E784" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="F784" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="G784" s="1"/>
+    </row>
+    <row r="785" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A785" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B785" s="1">
+        <v>30</v>
+      </c>
+      <c r="C785" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D785" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="E785" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F785" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="G785" s="1"/>
+    </row>
+    <row r="786" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A786" s="1" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B786" s="1">
+        <v>30</v>
+      </c>
+      <c r="C786" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D786" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E786" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F786" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="G786" s="1"/>
+    </row>
+    <row r="787" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A787" s="1" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B787" s="1">
+        <v>30</v>
+      </c>
+      <c r="C787" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D787" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E787" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F787" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="G787" s="1"/>
+    </row>
+    <row r="788" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A788" s="1" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B788" s="1">
+        <v>30</v>
+      </c>
+      <c r="C788" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D788" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E788" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F788" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="G788" s="1"/>
+    </row>
+    <row r="789" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A789" s="1" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B789" s="1">
+        <v>30</v>
+      </c>
+      <c r="C789" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D789" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E789" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F789" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="G789" s="1"/>
+    </row>
+    <row r="790" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A790" s="1" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B790" s="1">
+        <v>30</v>
+      </c>
+      <c r="C790" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D790" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E790" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F790" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="G790" s="1"/>
+    </row>
+    <row r="791" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A791" s="1" t="s">
+        <v>1977</v>
+      </c>
+      <c r="B791" s="1">
+        <v>30</v>
+      </c>
+      <c r="C791" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D781" s="1" t="s">
+      <c r="D791" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="E781" s="1" t="s">
+      <c r="E791" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="F781" s="1" t="s">
+      <c r="F791" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="G781" s="1"/>
+      <c r="G791" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/data/WordStudy.xlsx
+++ b/data/WordStudy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dom/Documents/Dom/english-app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84126FD0-6632-F94B-825E-A47F33B48A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5E1B7F-5FE6-F746-B13F-AD3F4CF56275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51240" yWindow="-2100" windowWidth="29840" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48660" yWindow="-3020" windowWidth="29840" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4594" uniqueCount="3900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5074" uniqueCount="4295">
   <si>
     <t>ID</t>
   </si>
@@ -11730,6 +11730,1191 @@
   </si>
   <si>
     <t>Hãng hàng không</t>
+  </si>
+  <si>
+    <t>U22_11</t>
+  </si>
+  <si>
+    <t>U22_12</t>
+  </si>
+  <si>
+    <t>U22_13</t>
+  </si>
+  <si>
+    <t>U22_14</t>
+  </si>
+  <si>
+    <t>U22_15</t>
+  </si>
+  <si>
+    <t>U22_16</t>
+  </si>
+  <si>
+    <t>U22_17</t>
+  </si>
+  <si>
+    <t>U22_18</t>
+  </si>
+  <si>
+    <t>U22_19</t>
+  </si>
+  <si>
+    <t>U22_20</t>
+  </si>
+  <si>
+    <t>U22_21</t>
+  </si>
+  <si>
+    <t>U22_22</t>
+  </si>
+  <si>
+    <t>U22_23</t>
+  </si>
+  <si>
+    <t>U22_24</t>
+  </si>
+  <si>
+    <t>U22_25</t>
+  </si>
+  <si>
+    <t>U22_26</t>
+  </si>
+  <si>
+    <t>U22_27</t>
+  </si>
+  <si>
+    <t>U22_28</t>
+  </si>
+  <si>
+    <t>U22_29</t>
+  </si>
+  <si>
+    <t>U22_30</t>
+  </si>
+  <si>
+    <t>Tuần trăng mật</t>
+  </si>
+  <si>
+    <t>Honeymoon</t>
+  </si>
+  <si>
+    <t>Newlyweds often go on honeymoon</t>
+  </si>
+  <si>
+    <t>Go on honeymoon</t>
+  </si>
+  <si>
+    <t>Đảo</t>
+  </si>
+  <si>
+    <t>Island</t>
+  </si>
+  <si>
+    <t>The lonely guy lives on a remote island</t>
+  </si>
+  <si>
+    <t>a remote island</t>
+  </si>
+  <si>
+    <t>Sách giới thiệu</t>
+  </si>
+  <si>
+    <t>Brochure</t>
+  </si>
+  <si>
+    <t>A travel brochure gives us so much information</t>
+  </si>
+  <si>
+    <t>a travel brochure</t>
+  </si>
+  <si>
+    <t>Du khách</t>
+  </si>
+  <si>
+    <t>Tourist</t>
+  </si>
+  <si>
+    <t>A foreign tourist asks me the direction to the airport</t>
+  </si>
+  <si>
+    <t>a foreign tourist</t>
+  </si>
+  <si>
+    <t>Hình thức du lịch bụi</t>
+  </si>
+  <si>
+    <t>Backpacking</t>
+  </si>
+  <si>
+    <t>Many foreigners go backpacking in vietnam</t>
+  </si>
+  <si>
+    <t>go backpacking</t>
+  </si>
+  <si>
+    <t>Đi dã ngoại đường dài</t>
+  </si>
+  <si>
+    <t>Hiking</t>
+  </si>
+  <si>
+    <t>I only used my hiking boots once</t>
+  </si>
+  <si>
+    <t>Hiking boots</t>
+  </si>
+  <si>
+    <t>Trung tâm</t>
+  </si>
+  <si>
+    <t>Center</t>
+  </si>
+  <si>
+    <t>We booked a hotel in the city center</t>
+  </si>
+  <si>
+    <t>city center</t>
+  </si>
+  <si>
+    <t>Khám phá</t>
+  </si>
+  <si>
+    <t>Discover</t>
+  </si>
+  <si>
+    <t>She discovers a new sightseeing spot</t>
+  </si>
+  <si>
+    <t>discover something</t>
+  </si>
+  <si>
+    <t>Cát</t>
+  </si>
+  <si>
+    <t>Sand</t>
+  </si>
+  <si>
+    <t>We put our toes in the sand</t>
+  </si>
+  <si>
+    <t>in the sand</t>
+  </si>
+  <si>
+    <t>Chuyến du lịch</t>
+  </si>
+  <si>
+    <t>Tour</t>
+  </si>
+  <si>
+    <t>A walking tour is offered at west lake</t>
+  </si>
+  <si>
+    <t>a walking tour</t>
+  </si>
+  <si>
+    <t>Lý tưởng</t>
+  </si>
+  <si>
+    <t>Ideal</t>
+  </si>
+  <si>
+    <t>This house is ideal for our family</t>
+  </si>
+  <si>
+    <t>I deal for sb or sth</t>
+  </si>
+  <si>
+    <t>Việc vào cửa</t>
+  </si>
+  <si>
+    <t>Admission</t>
+  </si>
+  <si>
+    <t>The admission price for this museum is so high</t>
+  </si>
+  <si>
+    <t>Admission price</t>
+  </si>
+  <si>
+    <t>Gấp đôi</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>I have to sleep on a double bed</t>
+  </si>
+  <si>
+    <t>double bed</t>
+  </si>
+  <si>
+    <t>Chi phí</t>
+  </si>
+  <si>
+    <t>Expense</t>
+  </si>
+  <si>
+    <t>Our travel expenses are shared equally</t>
+  </si>
+  <si>
+    <t>Travel expense</t>
+  </si>
+  <si>
+    <t>Thủ công mỹ nghệ</t>
+  </si>
+  <si>
+    <t>Craft</t>
+  </si>
+  <si>
+    <t>I like joining a craft workshop</t>
+  </si>
+  <si>
+    <t>A craft workshop</t>
+  </si>
+  <si>
+    <t>Lợi thế</t>
+  </si>
+  <si>
+    <t>Advantage</t>
+  </si>
+  <si>
+    <t>She takes advantage of his kindness</t>
+  </si>
+  <si>
+    <t>take advantage of sb or sth / lợi dụng ai đó hoặc cái gì đó</t>
+  </si>
+  <si>
+    <t>Linh hoạt</t>
+  </si>
+  <si>
+    <t>Flexible</t>
+  </si>
+  <si>
+    <t>I am flexible about what to eat</t>
+  </si>
+  <si>
+    <t>flexible about something</t>
+  </si>
+  <si>
+    <t>Nghỉ ngơi, thư giãn</t>
+  </si>
+  <si>
+    <t>Relax</t>
+  </si>
+  <si>
+    <t>She relaxes by watching netflix</t>
+  </si>
+  <si>
+    <t>relax by doing something / thư giãn bằng cách làm cái gì đó</t>
+  </si>
+  <si>
+    <t>Bạn thân</t>
+  </si>
+  <si>
+    <t>Buddy</t>
+  </si>
+  <si>
+    <t>He is a close buddy of mine</t>
+  </si>
+  <si>
+    <t>a close buddy / một người bạn thân</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cơ sở </t>
+  </si>
+  <si>
+    <t>Facility</t>
+  </si>
+  <si>
+    <t>A swimming pool is a leisure facility</t>
+  </si>
+  <si>
+    <t>leisure facility / nơi để giải trí</t>
+  </si>
+  <si>
+    <t>U23_01</t>
+  </si>
+  <si>
+    <t>U23_02</t>
+  </si>
+  <si>
+    <t>U23_03</t>
+  </si>
+  <si>
+    <t>U23_04</t>
+  </si>
+  <si>
+    <t>U23_05</t>
+  </si>
+  <si>
+    <t>U23_06</t>
+  </si>
+  <si>
+    <t>U23_07</t>
+  </si>
+  <si>
+    <t>U23_08</t>
+  </si>
+  <si>
+    <t>U23_09</t>
+  </si>
+  <si>
+    <t>U23_10</t>
+  </si>
+  <si>
+    <t>U23_11</t>
+  </si>
+  <si>
+    <t>U23_12</t>
+  </si>
+  <si>
+    <t>U23_13</t>
+  </si>
+  <si>
+    <t>U23_14</t>
+  </si>
+  <si>
+    <t>U23_15</t>
+  </si>
+  <si>
+    <t>U23_16</t>
+  </si>
+  <si>
+    <t>U23_17</t>
+  </si>
+  <si>
+    <t>U23_18</t>
+  </si>
+  <si>
+    <t>U23_19</t>
+  </si>
+  <si>
+    <t>U23_20</t>
+  </si>
+  <si>
+    <t>U23_21</t>
+  </si>
+  <si>
+    <t>U23_22</t>
+  </si>
+  <si>
+    <t>U23_23</t>
+  </si>
+  <si>
+    <t>U23_24</t>
+  </si>
+  <si>
+    <t>U23_25</t>
+  </si>
+  <si>
+    <t>U23_26</t>
+  </si>
+  <si>
+    <t>U23_27</t>
+  </si>
+  <si>
+    <t>U23_28</t>
+  </si>
+  <si>
+    <t>U23_29</t>
+  </si>
+  <si>
+    <t>U23_30</t>
+  </si>
+  <si>
+    <t>Cả đời</t>
+  </si>
+  <si>
+    <t>Lifetime</t>
+  </si>
+  <si>
+    <t>I hope to visit israel once in my lifetime</t>
+  </si>
+  <si>
+    <t>in one's lifetime / trong cuộc đời của một người</t>
+  </si>
+  <si>
+    <t>Thật ra</t>
+  </si>
+  <si>
+    <t>Actually</t>
+  </si>
+  <si>
+    <t>Actually not / thật ra là không</t>
+  </si>
+  <si>
+    <t>The food was actually not expensive</t>
+  </si>
+  <si>
+    <t>Nghĩ lại</t>
+  </si>
+  <si>
+    <t>Reflect</t>
+  </si>
+  <si>
+    <t>I often reflect on our days in high school together</t>
+  </si>
+  <si>
+    <t>Reflect on something</t>
+  </si>
+  <si>
+    <t>Phép màu</t>
+  </si>
+  <si>
+    <t>Miracle</t>
+  </si>
+  <si>
+    <t>His survival is a miracle</t>
+  </si>
+  <si>
+    <t>something is a miracle</t>
+  </si>
+  <si>
+    <t>Nhớ lại</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>I recall the last meeting with her</t>
+  </si>
+  <si>
+    <t>recall something</t>
+  </si>
+  <si>
+    <t>Trước đây</t>
+  </si>
+  <si>
+    <t>Ago</t>
+  </si>
+  <si>
+    <t>The Le Dynasty callapsed a long time ago</t>
+  </si>
+  <si>
+    <t>a long time ago</t>
+  </si>
+  <si>
+    <t>Băn khoăn, tự hỏi</t>
+  </si>
+  <si>
+    <t>Wonder</t>
+  </si>
+  <si>
+    <t>I wonder about the reason behind her action</t>
+  </si>
+  <si>
+    <t>wonder about something</t>
+  </si>
+  <si>
+    <t>Chính xác</t>
+  </si>
+  <si>
+    <t>Exact</t>
+  </si>
+  <si>
+    <t>Your GPA is 3.8 to be exact</t>
+  </si>
+  <si>
+    <t>to be exact / chính xác là</t>
+  </si>
+  <si>
+    <t>Chính</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Please drive until you reach the main road</t>
+  </si>
+  <si>
+    <t>main road</t>
+  </si>
+  <si>
+    <t>Quý giá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precious </t>
+  </si>
+  <si>
+    <t>I remember all the precious memories</t>
+  </si>
+  <si>
+    <t>Precious memories / những kỷ niệm quý giá</t>
+  </si>
+  <si>
+    <t>Hoảng sợ</t>
+  </si>
+  <si>
+    <t>Panic</t>
+  </si>
+  <si>
+    <t>I always panic about the bills every month</t>
+  </si>
+  <si>
+    <t>panic about something</t>
+  </si>
+  <si>
+    <t>Cơn ác mộng</t>
+  </si>
+  <si>
+    <t>Nightmare</t>
+  </si>
+  <si>
+    <t>I had a horrible nightmare yesterday</t>
+  </si>
+  <si>
+    <t>a horrible nightmare</t>
+  </si>
+  <si>
+    <t>sự việc, sự cố</t>
+  </si>
+  <si>
+    <t>incident</t>
+  </si>
+  <si>
+    <t>A serious incident stops the festival</t>
+  </si>
+  <si>
+    <t>a serious incident</t>
+  </si>
+  <si>
+    <t>Biến mất</t>
+  </si>
+  <si>
+    <t>Disappear</t>
+  </si>
+  <si>
+    <t>The book disappears from the shelf</t>
+  </si>
+  <si>
+    <t>disappear from something</t>
+  </si>
+  <si>
+    <t>Lời phàn nàn, lời khiếu nại</t>
+  </si>
+  <si>
+    <t>Complaint</t>
+  </si>
+  <si>
+    <t>She files a complaint about workplace safety</t>
+  </si>
+  <si>
+    <t>a complaint about sb or sth / lời khiếu nại …</t>
+  </si>
+  <si>
+    <t>Crisis</t>
+  </si>
+  <si>
+    <t>khủng hoảng</t>
+  </si>
+  <si>
+    <t>Our company is facing a financial crisis</t>
+  </si>
+  <si>
+    <t>a financial crisis</t>
+  </si>
+  <si>
+    <t>Khó xử</t>
+  </si>
+  <si>
+    <t>Awkward</t>
+  </si>
+  <si>
+    <t>We all feel an awkward silence</t>
+  </si>
+  <si>
+    <t>an awkward silence</t>
+  </si>
+  <si>
+    <t>Xảy ra</t>
+  </si>
+  <si>
+    <t>Happen</t>
+  </si>
+  <si>
+    <t>Whatever happens, I will stay beside you</t>
+  </si>
+  <si>
+    <t>Whatever happen / dù thế nào đi nữa</t>
+  </si>
+  <si>
+    <t>Disagree</t>
+  </si>
+  <si>
+    <t>She completely disagrees with me</t>
+  </si>
+  <si>
+    <t>Disagree with somebody/ không đồng ý với ai đó</t>
+  </si>
+  <si>
+    <t>Tưởng tượng</t>
+  </si>
+  <si>
+    <t>Không đồng ý</t>
+  </si>
+  <si>
+    <t>Imagine</t>
+  </si>
+  <si>
+    <t>She always imagines her ideal boyfriend</t>
+  </si>
+  <si>
+    <t>imagine something</t>
+  </si>
+  <si>
+    <t>Ngay lập tức</t>
+  </si>
+  <si>
+    <t>Immediate</t>
+  </si>
+  <si>
+    <t>Please take immediate action to secure your account</t>
+  </si>
+  <si>
+    <t>take immediate action / hành động ngay lập tức</t>
+  </si>
+  <si>
+    <t>Dần dần, chậm rãi</t>
+  </si>
+  <si>
+    <t>slowly</t>
+  </si>
+  <si>
+    <t>Older people should walk slowly</t>
+  </si>
+  <si>
+    <t>walk slowly</t>
+  </si>
+  <si>
+    <t>Thừa nhận</t>
+  </si>
+  <si>
+    <t>Admit</t>
+  </si>
+  <si>
+    <t>He admits to lying to me</t>
+  </si>
+  <si>
+    <t>admit to doing something</t>
+  </si>
+  <si>
+    <t>Định mệnh, số phận</t>
+  </si>
+  <si>
+    <t>Fate</t>
+  </si>
+  <si>
+    <t>No one can control his or her fate</t>
+  </si>
+  <si>
+    <t>control one's fate / kiểm soát số phận của ai đó</t>
+  </si>
+  <si>
+    <t>Fantastic</t>
+  </si>
+  <si>
+    <t>Travelling to japan is a fantastic experience</t>
+  </si>
+  <si>
+    <t>a fantastic experience</t>
+  </si>
+  <si>
+    <t>Thành công</t>
+  </si>
+  <si>
+    <t>Successful</t>
+  </si>
+  <si>
+    <t>he is successful in his career</t>
+  </si>
+  <si>
+    <t>Successful in something</t>
+  </si>
+  <si>
+    <t>Gây ra, tạo ra</t>
+  </si>
+  <si>
+    <t>Cause</t>
+  </si>
+  <si>
+    <t>I don't want to cause trouble for anyone</t>
+  </si>
+  <si>
+    <t>Cause trouble for somebody / gây rắc rối cho ai đó</t>
+  </si>
+  <si>
+    <t>Cơ hội</t>
+  </si>
+  <si>
+    <t>Opportunity</t>
+  </si>
+  <si>
+    <t>Don't miss this rare opportunity</t>
+  </si>
+  <si>
+    <t>a rare opportunity</t>
+  </si>
+  <si>
+    <t>Bình tĩnh</t>
+  </si>
+  <si>
+    <t>Calm</t>
+  </si>
+  <si>
+    <t>Please stay calm and do not move</t>
+  </si>
+  <si>
+    <t>stay calm / giữ bình tĩnh</t>
+  </si>
+  <si>
+    <t>Hóa ra là</t>
+  </si>
+  <si>
+    <t>Turn out</t>
+  </si>
+  <si>
+    <t>It turns out to be the last meeting with her</t>
+  </si>
+  <si>
+    <t>turn out to be something / hóa ra là một thứ gì đó</t>
+  </si>
+  <si>
+    <t>U24_01</t>
+  </si>
+  <si>
+    <t>U24_02</t>
+  </si>
+  <si>
+    <t>U24_03</t>
+  </si>
+  <si>
+    <t>U24_04</t>
+  </si>
+  <si>
+    <t>U24_05</t>
+  </si>
+  <si>
+    <t>U24_06</t>
+  </si>
+  <si>
+    <t>U24_07</t>
+  </si>
+  <si>
+    <t>U24_08</t>
+  </si>
+  <si>
+    <t>U24_09</t>
+  </si>
+  <si>
+    <t>U24_10</t>
+  </si>
+  <si>
+    <t>U24_11</t>
+  </si>
+  <si>
+    <t>U24_12</t>
+  </si>
+  <si>
+    <t>U24_13</t>
+  </si>
+  <si>
+    <t>U24_14</t>
+  </si>
+  <si>
+    <t>U24_15</t>
+  </si>
+  <si>
+    <t>U24_16</t>
+  </si>
+  <si>
+    <t>U24_17</t>
+  </si>
+  <si>
+    <t>U24_18</t>
+  </si>
+  <si>
+    <t>U24_19</t>
+  </si>
+  <si>
+    <t>U24_20</t>
+  </si>
+  <si>
+    <t>U24_21</t>
+  </si>
+  <si>
+    <t>U24_22</t>
+  </si>
+  <si>
+    <t>U24_23</t>
+  </si>
+  <si>
+    <t>U24_24</t>
+  </si>
+  <si>
+    <t>U24_25</t>
+  </si>
+  <si>
+    <t>U24_26</t>
+  </si>
+  <si>
+    <t>U24_27</t>
+  </si>
+  <si>
+    <t>U24_28</t>
+  </si>
+  <si>
+    <t>U24_29</t>
+  </si>
+  <si>
+    <t>U24_30</t>
+  </si>
+  <si>
+    <t>Đủ khả năng chi trả</t>
+  </si>
+  <si>
+    <t>Afford</t>
+  </si>
+  <si>
+    <t>I cannot afford a new phone</t>
+  </si>
+  <si>
+    <t>afford something</t>
+  </si>
+  <si>
+    <t>giúp đỡ</t>
+  </si>
+  <si>
+    <t>Help out</t>
+  </si>
+  <si>
+    <t>Please help me out I am stuck</t>
+  </si>
+  <si>
+    <t>help someone out</t>
+  </si>
+  <si>
+    <t>Mượn</t>
+  </si>
+  <si>
+    <t>Borrow</t>
+  </si>
+  <si>
+    <t>She borrows the car from her father</t>
+  </si>
+  <si>
+    <t>Borrow something from somebody</t>
+  </si>
+  <si>
+    <t>Trả</t>
+  </si>
+  <si>
+    <t>Pay</t>
+  </si>
+  <si>
+    <t>We paid off our debt after fifteen years</t>
+  </si>
+  <si>
+    <t>Pay off a debt / trả hết nợ</t>
+  </si>
+  <si>
+    <t>Sở hữu</t>
+  </si>
+  <si>
+    <t>Own</t>
+  </si>
+  <si>
+    <t>I do not own my house</t>
+  </si>
+  <si>
+    <t>own my house</t>
+  </si>
+  <si>
+    <t>Giá</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Retail proces are different between stores</t>
+  </si>
+  <si>
+    <t>retail price / giá bán lẻ</t>
+  </si>
+  <si>
+    <t>Hợp lý</t>
+  </si>
+  <si>
+    <t>Reasonable</t>
+  </si>
+  <si>
+    <t>She has a reasonable offer for me</t>
+  </si>
+  <si>
+    <t>A reasonable offer / một lời đề nghị hợp lý</t>
+  </si>
+  <si>
+    <t>Tiêu</t>
+  </si>
+  <si>
+    <t>Spend</t>
+  </si>
+  <si>
+    <t>I spend so much time on exercising</t>
+  </si>
+  <si>
+    <t>Spend something on something</t>
+  </si>
+  <si>
+    <t>Trị giá, tốn</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>That villa costs a fortune</t>
+  </si>
+  <si>
+    <t>cost a fortune / tốn cả gia tài</t>
+  </si>
+  <si>
+    <t>Hàng tháng</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>I have to join a monthly meeting</t>
+  </si>
+  <si>
+    <t>a monthly meeting / một cuộc họp hàng tháng</t>
+  </si>
+  <si>
+    <t>Giảm giá</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>She gets a discount for her car</t>
+  </si>
+  <si>
+    <t>get a discount</t>
+  </si>
+  <si>
+    <t>Tín dụng</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>He bought the car on credit</t>
+  </si>
+  <si>
+    <t>on credit / bằng tín dụng</t>
+  </si>
+  <si>
+    <t>Đáng giá</t>
+  </si>
+  <si>
+    <t>Worth</t>
+  </si>
+  <si>
+    <t>The ring is worth 1 milion dollars</t>
+  </si>
+  <si>
+    <t>worth something</t>
+  </si>
+  <si>
+    <t>Chuyển</t>
+  </si>
+  <si>
+    <t>Transfer</t>
+  </si>
+  <si>
+    <t>I transfer the money to her via the internet</t>
+  </si>
+  <si>
+    <t>transfer something to somebody</t>
+  </si>
+  <si>
+    <t>Giá trị</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>This phone has an excellent value for money</t>
+  </si>
+  <si>
+    <t>value for money / xứng đáng với mức giá</t>
+  </si>
+  <si>
+    <t>Khoảng</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>VinMart offers a wide range of consumer goods</t>
+  </si>
+  <si>
+    <t>A wide range of something / một loạt các thứ gì đó</t>
+  </si>
+  <si>
+    <t>Rút khỏi</t>
+  </si>
+  <si>
+    <t>Withdraw</t>
+  </si>
+  <si>
+    <t>I withdraw some money from the ATM</t>
+  </si>
+  <si>
+    <t>Withdraw something</t>
+  </si>
+  <si>
+    <t>Giảm</t>
+  </si>
+  <si>
+    <t>Decrease</t>
+  </si>
+  <si>
+    <t>please decrease the temperature. It is hot</t>
+  </si>
+  <si>
+    <t>decrease something</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>Please add sugar to the mixture</t>
+  </si>
+  <si>
+    <t>add something to something</t>
+  </si>
+  <si>
+    <t>Tăng</t>
+  </si>
+  <si>
+    <t>Increase</t>
+  </si>
+  <si>
+    <t>Please increase the temperature. It is cold</t>
+  </si>
+  <si>
+    <t>increase something</t>
+  </si>
+  <si>
+    <t>Tiết kiệm</t>
+  </si>
+  <si>
+    <t>Save up</t>
+  </si>
+  <si>
+    <t>She saves up money to buy a car</t>
+  </si>
+  <si>
+    <t>Save up money</t>
+  </si>
+  <si>
+    <t>Dành dụm</t>
+  </si>
+  <si>
+    <t>Set aside</t>
+  </si>
+  <si>
+    <t>She sets aside some money every month</t>
+  </si>
+  <si>
+    <t>set aside something</t>
+  </si>
+  <si>
+    <t>Drop</t>
+  </si>
+  <si>
+    <t>The price of port meat has dropped significantly</t>
+  </si>
+  <si>
+    <t>The price drops</t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t>She earns some extra money from selling clothes</t>
+  </si>
+  <si>
+    <t>Extra money / tiền có thêm</t>
+  </si>
+  <si>
+    <t>Vé</t>
+  </si>
+  <si>
+    <t>Ticket</t>
+  </si>
+  <si>
+    <t>She works at a ticket office</t>
+  </si>
+  <si>
+    <t>A ticket office</t>
+  </si>
+  <si>
+    <t>Tặng miễn phí, cho đi</t>
+  </si>
+  <si>
+    <t>Give away</t>
+  </si>
+  <si>
+    <t>He gives away lots of money</t>
+  </si>
+  <si>
+    <t>give away something</t>
+  </si>
+  <si>
+    <t>Valuable</t>
+  </si>
+  <si>
+    <t>This motorbike is a valuable asset to me</t>
+  </si>
+  <si>
+    <t>valuable asset</t>
+  </si>
+  <si>
+    <t>Trung bình</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Hanoi's average cost of housing is high</t>
+  </si>
+  <si>
+    <t>an average cost/ chi phí trung bình</t>
+  </si>
+  <si>
+    <t>Thích hợp, tử tế</t>
+  </si>
+  <si>
+    <t>Proper</t>
+  </si>
+  <si>
+    <t>I never have a proper meal</t>
+  </si>
+  <si>
+    <t>a proper meal / một bữa ăn tử tế</t>
+  </si>
+  <si>
+    <t>Sự giàu có</t>
+  </si>
+  <si>
+    <t>Wealth</t>
+  </si>
+  <si>
+    <t>She destroys a large amount of wealth</t>
+  </si>
+  <si>
+    <t>a large amount of wealth / một lượng lớn của cải</t>
   </si>
 </sst>
 </file>
@@ -12094,10 +13279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G791"/>
+  <dimension ref="A1:G871"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B624" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E634" sqref="E634"/>
+    <sheetView tabSelected="1" topLeftCell="A706" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C722" sqref="C722"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26855,3147 +28040,4987 @@
     </row>
     <row r="642" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A642" s="1" t="s">
-        <v>1828</v>
+        <v>3900</v>
       </c>
       <c r="B642" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C642" s="1" t="s">
-        <v>6</v>
+        <v>3920</v>
       </c>
       <c r="D642" s="1" t="s">
-        <v>7</v>
+        <v>3921</v>
       </c>
       <c r="E642" s="1" t="s">
-        <v>8</v>
+        <v>3922</v>
       </c>
       <c r="F642" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G642" s="1"/>
+        <v>3923</v>
+      </c>
+      <c r="G642" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="643" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A643" s="1" t="s">
-        <v>1829</v>
+        <v>3901</v>
       </c>
       <c r="B643" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C643" s="1" t="s">
-        <v>10</v>
+        <v>3924</v>
       </c>
       <c r="D643" s="1" t="s">
-        <v>11</v>
+        <v>3925</v>
       </c>
       <c r="E643" s="1" t="s">
-        <v>12</v>
+        <v>3926</v>
       </c>
       <c r="F643" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G643" s="1"/>
+        <v>3927</v>
+      </c>
+      <c r="G643" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="644" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A644" s="1" t="s">
-        <v>1830</v>
+        <v>3902</v>
       </c>
       <c r="B644" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C644" s="1" t="s">
-        <v>13</v>
+        <v>3928</v>
       </c>
       <c r="D644" s="1" t="s">
-        <v>14</v>
+        <v>3929</v>
       </c>
       <c r="E644" s="1" t="s">
-        <v>15</v>
+        <v>3930</v>
       </c>
       <c r="F644" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G644" s="1"/>
+        <v>3931</v>
+      </c>
+      <c r="G644" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="645" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A645" s="1" t="s">
-        <v>1831</v>
+        <v>3903</v>
       </c>
       <c r="B645" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C645" s="1" t="s">
-        <v>16</v>
+        <v>3932</v>
       </c>
       <c r="D645" s="1" t="s">
-        <v>17</v>
+        <v>3933</v>
       </c>
       <c r="E645" s="1" t="s">
-        <v>18</v>
+        <v>3934</v>
       </c>
       <c r="F645" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G645" s="1"/>
+        <v>3935</v>
+      </c>
+      <c r="G645" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="646" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A646" s="1" t="s">
-        <v>1832</v>
+        <v>3904</v>
       </c>
       <c r="B646" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C646" s="1" t="s">
-        <v>19</v>
+        <v>3936</v>
       </c>
       <c r="D646" s="1" t="s">
-        <v>20</v>
+        <v>3937</v>
       </c>
       <c r="E646" s="1" t="s">
-        <v>21</v>
+        <v>3938</v>
       </c>
       <c r="F646" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G646" s="1"/>
+        <v>3939</v>
+      </c>
+      <c r="G646" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="647" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A647" s="1" t="s">
-        <v>1833</v>
+        <v>3905</v>
       </c>
       <c r="B647" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C647" s="1" t="s">
-        <v>22</v>
+        <v>3940</v>
       </c>
       <c r="D647" s="1" t="s">
-        <v>23</v>
+        <v>3941</v>
       </c>
       <c r="E647" s="1" t="s">
-        <v>24</v>
+        <v>3942</v>
       </c>
       <c r="F647" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G647" s="1"/>
+        <v>3943</v>
+      </c>
+      <c r="G647" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="648" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A648" s="1" t="s">
-        <v>1834</v>
+        <v>3906</v>
       </c>
       <c r="B648" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C648" s="1" t="s">
-        <v>25</v>
+        <v>3944</v>
       </c>
       <c r="D648" s="1" t="s">
-        <v>26</v>
+        <v>3945</v>
       </c>
       <c r="E648" s="1" t="s">
-        <v>27</v>
+        <v>3946</v>
       </c>
       <c r="F648" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G648" s="1"/>
+        <v>3947</v>
+      </c>
+      <c r="G648" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="649" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A649" s="1" t="s">
-        <v>1835</v>
+        <v>3907</v>
       </c>
       <c r="B649" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C649" s="1" t="s">
-        <v>28</v>
+        <v>3948</v>
       </c>
       <c r="D649" s="1" t="s">
-        <v>29</v>
+        <v>3949</v>
       </c>
       <c r="E649" s="1" t="s">
-        <v>30</v>
+        <v>3950</v>
       </c>
       <c r="F649" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G649" s="1"/>
+        <v>3951</v>
+      </c>
+      <c r="G649" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="650" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A650" s="1" t="s">
-        <v>1836</v>
+        <v>3908</v>
       </c>
       <c r="B650" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C650" s="1" t="s">
-        <v>31</v>
+        <v>3952</v>
       </c>
       <c r="D650" s="1" t="s">
-        <v>32</v>
+        <v>3953</v>
       </c>
       <c r="E650" s="1" t="s">
-        <v>33</v>
+        <v>3954</v>
       </c>
       <c r="F650" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G650" s="1"/>
+        <v>3955</v>
+      </c>
+      <c r="G650" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="651" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A651" s="1" t="s">
-        <v>1837</v>
+        <v>3909</v>
       </c>
       <c r="B651" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C651" s="1" t="s">
-        <v>34</v>
+        <v>3956</v>
       </c>
       <c r="D651" s="1" t="s">
-        <v>35</v>
+        <v>3957</v>
       </c>
       <c r="E651" s="1" t="s">
-        <v>36</v>
+        <v>3958</v>
       </c>
       <c r="F651" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G651" s="1"/>
+        <v>3959</v>
+      </c>
+      <c r="G651" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="652" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A652" s="1" t="s">
-        <v>1838</v>
+        <v>3910</v>
       </c>
       <c r="B652" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C652" s="1" t="s">
-        <v>37</v>
+        <v>3960</v>
       </c>
       <c r="D652" s="1" t="s">
-        <v>38</v>
+        <v>3961</v>
       </c>
       <c r="E652" s="1" t="s">
-        <v>39</v>
+        <v>3962</v>
       </c>
       <c r="F652" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G652" s="1"/>
+        <v>3963</v>
+      </c>
+      <c r="G652" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="653" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A653" s="1" t="s">
-        <v>1839</v>
+        <v>3911</v>
       </c>
       <c r="B653" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C653" s="1" t="s">
-        <v>40</v>
+        <v>3964</v>
       </c>
       <c r="D653" s="1" t="s">
-        <v>41</v>
+        <v>3965</v>
       </c>
       <c r="E653" s="1" t="s">
-        <v>42</v>
+        <v>3966</v>
       </c>
       <c r="F653" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G653" s="1"/>
+        <v>3967</v>
+      </c>
+      <c r="G653" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="654" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A654" s="1" t="s">
-        <v>1840</v>
+        <v>3912</v>
       </c>
       <c r="B654" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C654" s="1" t="s">
-        <v>43</v>
+        <v>3968</v>
       </c>
       <c r="D654" s="1" t="s">
-        <v>44</v>
+        <v>3969</v>
       </c>
       <c r="E654" s="1" t="s">
-        <v>45</v>
+        <v>3970</v>
       </c>
       <c r="F654" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G654" s="1"/>
+        <v>3971</v>
+      </c>
+      <c r="G654" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="655" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A655" s="1" t="s">
-        <v>1841</v>
+        <v>3913</v>
       </c>
       <c r="B655" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C655" s="1" t="s">
-        <v>47</v>
+        <v>3972</v>
       </c>
       <c r="D655" s="1" t="s">
-        <v>48</v>
+        <v>3973</v>
       </c>
       <c r="E655" s="1" t="s">
-        <v>49</v>
+        <v>3974</v>
       </c>
       <c r="F655" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G655" s="1"/>
+        <v>3975</v>
+      </c>
+      <c r="G655" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="656" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A656" s="1" t="s">
-        <v>1842</v>
+        <v>3914</v>
       </c>
       <c r="B656" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C656" s="1" t="s">
-        <v>50</v>
+        <v>3976</v>
       </c>
       <c r="D656" s="1" t="s">
-        <v>51</v>
+        <v>3977</v>
       </c>
       <c r="E656" s="1" t="s">
-        <v>52</v>
+        <v>3978</v>
       </c>
       <c r="F656" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G656" s="1"/>
+        <v>3979</v>
+      </c>
+      <c r="G656" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="657" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A657" s="1" t="s">
-        <v>1843</v>
+        <v>3915</v>
       </c>
       <c r="B657" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C657" s="1" t="s">
-        <v>54</v>
+        <v>3980</v>
       </c>
       <c r="D657" s="1" t="s">
-        <v>55</v>
+        <v>3981</v>
       </c>
       <c r="E657" s="1" t="s">
-        <v>56</v>
+        <v>3982</v>
       </c>
       <c r="F657" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G657" s="1"/>
+        <v>3983</v>
+      </c>
+      <c r="G657" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="658" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A658" s="1" t="s">
-        <v>1844</v>
+        <v>3916</v>
       </c>
       <c r="B658" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C658" s="1" t="s">
-        <v>57</v>
+        <v>3984</v>
       </c>
       <c r="D658" s="1" t="s">
-        <v>58</v>
+        <v>3985</v>
       </c>
       <c r="E658" s="1" t="s">
-        <v>59</v>
+        <v>3986</v>
       </c>
       <c r="F658" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G658" s="1"/>
+        <v>3987</v>
+      </c>
+      <c r="G658" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="659" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A659" s="1" t="s">
-        <v>1845</v>
+        <v>3917</v>
       </c>
       <c r="B659" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C659" s="1" t="s">
-        <v>61</v>
+        <v>3988</v>
       </c>
       <c r="D659" s="1" t="s">
-        <v>62</v>
+        <v>3989</v>
       </c>
       <c r="E659" s="1" t="s">
-        <v>63</v>
+        <v>3990</v>
       </c>
       <c r="F659" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G659" s="1"/>
+        <v>3991</v>
+      </c>
+      <c r="G659" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="660" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A660" s="1" t="s">
-        <v>1846</v>
+        <v>3918</v>
       </c>
       <c r="B660" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C660" s="1" t="s">
-        <v>64</v>
+        <v>3992</v>
       </c>
       <c r="D660" s="1" t="s">
-        <v>65</v>
+        <v>3993</v>
       </c>
       <c r="E660" s="1" t="s">
-        <v>66</v>
+        <v>3994</v>
       </c>
       <c r="F660" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G660" s="1"/>
+        <v>3995</v>
+      </c>
+      <c r="G660" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="661" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A661" s="1" t="s">
-        <v>1847</v>
+        <v>3919</v>
       </c>
       <c r="B661" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C661" s="1" t="s">
-        <v>67</v>
+        <v>3996</v>
       </c>
       <c r="D661" s="1" t="s">
-        <v>68</v>
+        <v>3997</v>
       </c>
       <c r="E661" s="1" t="s">
-        <v>69</v>
+        <v>3998</v>
       </c>
       <c r="F661" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G661" s="1"/>
+        <v>3999</v>
+      </c>
+      <c r="G661" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="662" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A662" s="1" t="s">
-        <v>1848</v>
+        <v>4000</v>
       </c>
       <c r="B662" s="1">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C662" s="1" t="s">
-        <v>71</v>
+        <v>4030</v>
       </c>
       <c r="D662" s="1" t="s">
-        <v>72</v>
+        <v>4031</v>
       </c>
       <c r="E662" s="1" t="s">
-        <v>73</v>
+        <v>4032</v>
       </c>
       <c r="F662" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G662" s="1"/>
+        <v>4033</v>
+      </c>
+      <c r="G662" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="663" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A663" s="1" t="s">
-        <v>1849</v>
+        <v>4001</v>
       </c>
       <c r="B663" s="1">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C663" s="1" t="s">
-        <v>74</v>
+        <v>4034</v>
       </c>
       <c r="D663" s="1" t="s">
-        <v>75</v>
+        <v>4035</v>
       </c>
       <c r="E663" s="1" t="s">
-        <v>76</v>
+        <v>4037</v>
       </c>
       <c r="F663" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G663" s="1"/>
+        <v>4036</v>
+      </c>
+      <c r="G663" s="1" t="s">
+        <v>720</v>
+      </c>
     </row>
     <row r="664" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A664" s="1" t="s">
-        <v>1850</v>
+        <v>4002</v>
       </c>
       <c r="B664" s="1">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C664" s="1" t="s">
-        <v>77</v>
+        <v>4038</v>
       </c>
       <c r="D664" s="1" t="s">
-        <v>78</v>
+        <v>4039</v>
       </c>
       <c r="E664" s="1" t="s">
-        <v>79</v>
+        <v>4040</v>
       </c>
       <c r="F664" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G664" s="1"/>
+        <v>4041</v>
+      </c>
+      <c r="G664" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="665" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A665" s="1" t="s">
-        <v>1851</v>
+        <v>4003</v>
       </c>
       <c r="B665" s="1">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C665" s="1" t="s">
-        <v>80</v>
+        <v>4042</v>
       </c>
       <c r="D665" s="1" t="s">
-        <v>81</v>
+        <v>4043</v>
       </c>
       <c r="E665" s="1" t="s">
-        <v>82</v>
+        <v>4044</v>
       </c>
       <c r="F665" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G665" s="1"/>
+        <v>4045</v>
+      </c>
+      <c r="G665" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="666" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A666" s="1" t="s">
-        <v>1852</v>
+        <v>4004</v>
       </c>
       <c r="B666" s="1">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C666" s="1" t="s">
-        <v>83</v>
+        <v>4046</v>
       </c>
       <c r="D666" s="1" t="s">
-        <v>84</v>
+        <v>4047</v>
       </c>
       <c r="E666" s="1" t="s">
-        <v>85</v>
+        <v>4048</v>
       </c>
       <c r="F666" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G666" s="1"/>
+        <v>4049</v>
+      </c>
+      <c r="G666" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="667" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A667" s="1" t="s">
-        <v>1853</v>
+        <v>4005</v>
       </c>
       <c r="B667" s="1">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C667" s="1" t="s">
-        <v>86</v>
+        <v>4050</v>
       </c>
       <c r="D667" s="1" t="s">
-        <v>87</v>
+        <v>4051</v>
       </c>
       <c r="E667" s="1" t="s">
-        <v>88</v>
+        <v>4052</v>
       </c>
       <c r="F667" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G667" s="1"/>
+        <v>4053</v>
+      </c>
+      <c r="G667" s="1" t="s">
+        <v>720</v>
+      </c>
     </row>
     <row r="668" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A668" s="1" t="s">
-        <v>1854</v>
+        <v>4006</v>
       </c>
       <c r="B668" s="1">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C668" s="1" t="s">
-        <v>90</v>
+        <v>4054</v>
       </c>
       <c r="D668" s="1" t="s">
-        <v>91</v>
+        <v>4055</v>
       </c>
       <c r="E668" s="1" t="s">
-        <v>92</v>
+        <v>4056</v>
       </c>
       <c r="F668" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G668" s="1"/>
+        <v>4057</v>
+      </c>
+      <c r="G668" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="669" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A669" s="1" t="s">
-        <v>1855</v>
+        <v>4007</v>
       </c>
       <c r="B669" s="1">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C669" s="1" t="s">
-        <v>94</v>
+        <v>4058</v>
       </c>
       <c r="D669" s="1" t="s">
-        <v>95</v>
+        <v>4059</v>
       </c>
       <c r="E669" s="1" t="s">
-        <v>96</v>
+        <v>4060</v>
       </c>
       <c r="F669" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G669" s="1"/>
+        <v>4061</v>
+      </c>
+      <c r="G669" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="670" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A670" s="1" t="s">
-        <v>1856</v>
+        <v>4008</v>
       </c>
       <c r="B670" s="1">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C670" s="1" t="s">
-        <v>97</v>
+        <v>4062</v>
       </c>
       <c r="D670" s="1" t="s">
-        <v>98</v>
+        <v>4063</v>
       </c>
       <c r="E670" s="1" t="s">
-        <v>99</v>
+        <v>4064</v>
       </c>
       <c r="F670" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G670" s="1"/>
+        <v>4065</v>
+      </c>
+      <c r="G670" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="671" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A671" s="1" t="s">
-        <v>1857</v>
+        <v>4009</v>
       </c>
       <c r="B671" s="1">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C671" s="1" t="s">
-        <v>100</v>
+        <v>4066</v>
       </c>
       <c r="D671" s="1" t="s">
-        <v>101</v>
+        <v>4067</v>
       </c>
       <c r="E671" s="1" t="s">
-        <v>102</v>
+        <v>4068</v>
       </c>
       <c r="F671" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G671" s="1"/>
+        <v>4069</v>
+      </c>
+      <c r="G671" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="672" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A672" s="1" t="s">
-        <v>1858</v>
+        <v>4010</v>
       </c>
       <c r="B672" s="1">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C672" s="1" t="s">
-        <v>103</v>
+        <v>4070</v>
       </c>
       <c r="D672" s="1" t="s">
-        <v>104</v>
+        <v>4071</v>
       </c>
       <c r="E672" s="1" t="s">
-        <v>105</v>
+        <v>4072</v>
       </c>
       <c r="F672" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G672" s="1"/>
+        <v>4073</v>
+      </c>
+      <c r="G672" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="673" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A673" s="1" t="s">
-        <v>1859</v>
+        <v>4011</v>
       </c>
       <c r="B673" s="1">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C673" s="1" t="s">
-        <v>106</v>
+        <v>4074</v>
       </c>
       <c r="D673" s="1" t="s">
-        <v>107</v>
+        <v>4075</v>
       </c>
       <c r="E673" s="1" t="s">
-        <v>108</v>
+        <v>4076</v>
       </c>
       <c r="F673" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G673" s="1"/>
+        <v>4077</v>
+      </c>
+      <c r="G673" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="674" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A674" s="1" t="s">
-        <v>1860</v>
+        <v>4012</v>
       </c>
       <c r="B674" s="1">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C674" s="1" t="s">
-        <v>109</v>
+        <v>4078</v>
       </c>
       <c r="D674" s="1" t="s">
-        <v>110</v>
+        <v>4079</v>
       </c>
       <c r="E674" s="1" t="s">
-        <v>111</v>
+        <v>4080</v>
       </c>
       <c r="F674" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G674" s="1"/>
+        <v>4081</v>
+      </c>
+      <c r="G674" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="675" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A675" s="1" t="s">
-        <v>1861</v>
+        <v>4013</v>
       </c>
       <c r="B675" s="1">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C675" s="1" t="s">
-        <v>112</v>
+        <v>4082</v>
       </c>
       <c r="D675" s="1" t="s">
-        <v>113</v>
+        <v>4083</v>
       </c>
       <c r="E675" s="1" t="s">
-        <v>114</v>
+        <v>4084</v>
       </c>
       <c r="F675" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G675" s="1"/>
+        <v>4085</v>
+      </c>
+      <c r="G675" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="676" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A676" s="1" t="s">
-        <v>1862</v>
+        <v>4014</v>
       </c>
       <c r="B676" s="1">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C676" s="1" t="s">
-        <v>115</v>
+        <v>4086</v>
       </c>
       <c r="D676" s="1" t="s">
-        <v>116</v>
+        <v>4087</v>
       </c>
       <c r="E676" s="1" t="s">
-        <v>117</v>
+        <v>4088</v>
       </c>
       <c r="F676" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G676" s="1"/>
+        <v>4089</v>
+      </c>
+      <c r="G676" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="677" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A677" s="1" t="s">
-        <v>1863</v>
+        <v>4015</v>
       </c>
       <c r="B677" s="1">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C677" s="1" t="s">
-        <v>118</v>
+        <v>4091</v>
       </c>
       <c r="D677" s="1" t="s">
-        <v>119</v>
+        <v>4090</v>
       </c>
       <c r="E677" s="1" t="s">
-        <v>120</v>
+        <v>4092</v>
       </c>
       <c r="F677" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G677" s="1"/>
+        <v>4093</v>
+      </c>
+      <c r="G677" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="678" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A678" s="1" t="s">
-        <v>1864</v>
+        <v>4016</v>
       </c>
       <c r="B678" s="1">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C678" s="1" t="s">
-        <v>121</v>
+        <v>4094</v>
       </c>
       <c r="D678" s="1" t="s">
-        <v>122</v>
+        <v>4095</v>
       </c>
       <c r="E678" s="1" t="s">
-        <v>123</v>
+        <v>4096</v>
       </c>
       <c r="F678" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G678" s="1"/>
+        <v>4097</v>
+      </c>
+      <c r="G678" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="679" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A679" s="1" t="s">
-        <v>1865</v>
+        <v>4017</v>
       </c>
       <c r="B679" s="1">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C679" s="1" t="s">
-        <v>125</v>
+        <v>4098</v>
       </c>
       <c r="D679" s="1" t="s">
-        <v>126</v>
+        <v>4099</v>
       </c>
       <c r="E679" s="1" t="s">
-        <v>127</v>
+        <v>4100</v>
       </c>
       <c r="F679" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G679" s="1"/>
+        <v>4101</v>
+      </c>
+      <c r="G679" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="680" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A680" s="1" t="s">
-        <v>1866</v>
+        <v>4018</v>
       </c>
       <c r="B680" s="1">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C680" s="1" t="s">
-        <v>129</v>
+        <v>4106</v>
       </c>
       <c r="D680" s="1" t="s">
-        <v>130</v>
+        <v>4102</v>
       </c>
       <c r="E680" s="1" t="s">
-        <v>131</v>
+        <v>4103</v>
       </c>
       <c r="F680" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G680" s="1"/>
+        <v>4104</v>
+      </c>
+      <c r="G680" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="681" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A681" s="1" t="s">
-        <v>1867</v>
+        <v>4019</v>
       </c>
       <c r="B681" s="1">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C681" s="1" t="s">
-        <v>132</v>
+        <v>4105</v>
       </c>
       <c r="D681" s="1" t="s">
-        <v>133</v>
+        <v>4107</v>
       </c>
       <c r="E681" s="1" t="s">
-        <v>134</v>
+        <v>4108</v>
       </c>
       <c r="F681" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G681" s="1"/>
+        <v>4109</v>
+      </c>
+      <c r="G681" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="682" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A682" s="1" t="s">
-        <v>1868</v>
+        <v>4020</v>
       </c>
       <c r="B682" s="1">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C682" s="1" t="s">
-        <v>136</v>
+        <v>4110</v>
       </c>
       <c r="D682" s="1" t="s">
-        <v>137</v>
+        <v>4111</v>
       </c>
       <c r="E682" s="1" t="s">
-        <v>138</v>
+        <v>4112</v>
       </c>
       <c r="F682" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G682" s="1"/>
+        <v>4113</v>
+      </c>
+      <c r="G682" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="683" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A683" s="1" t="s">
-        <v>1869</v>
+        <v>4021</v>
       </c>
       <c r="B683" s="1">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C683" s="1" t="s">
-        <v>140</v>
+        <v>4114</v>
       </c>
       <c r="D683" s="1" t="s">
-        <v>141</v>
+        <v>4115</v>
       </c>
       <c r="E683" s="1" t="s">
-        <v>142</v>
+        <v>4116</v>
       </c>
       <c r="F683" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G683" s="1"/>
+        <v>4117</v>
+      </c>
+      <c r="G683" s="1" t="s">
+        <v>720</v>
+      </c>
     </row>
     <row r="684" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A684" s="1" t="s">
-        <v>1870</v>
+        <v>4022</v>
       </c>
       <c r="B684" s="1">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C684" s="1" t="s">
-        <v>144</v>
+        <v>4118</v>
       </c>
       <c r="D684" s="1" t="s">
-        <v>145</v>
+        <v>4119</v>
       </c>
       <c r="E684" s="1" t="s">
-        <v>146</v>
+        <v>4120</v>
       </c>
       <c r="F684" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G684" s="1"/>
+        <v>4121</v>
+      </c>
+      <c r="G684" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="685" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A685" s="1" t="s">
-        <v>1871</v>
+        <v>4023</v>
       </c>
       <c r="B685" s="1">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C685" s="1" t="s">
-        <v>148</v>
+        <v>4122</v>
       </c>
       <c r="D685" s="1" t="s">
-        <v>149</v>
+        <v>4123</v>
       </c>
       <c r="E685" s="1" t="s">
-        <v>150</v>
+        <v>4124</v>
       </c>
       <c r="F685" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G685" s="1"/>
+        <v>4125</v>
+      </c>
+      <c r="G685" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="686" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A686" s="1" t="s">
-        <v>1872</v>
+        <v>4024</v>
       </c>
       <c r="B686" s="1">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C686" s="1" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="D686" s="1" t="s">
-        <v>153</v>
+        <v>4126</v>
       </c>
       <c r="E686" s="1" t="s">
-        <v>154</v>
+        <v>4127</v>
       </c>
       <c r="F686" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G686" s="1"/>
+        <v>4128</v>
+      </c>
+      <c r="G686" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="687" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A687" s="1" t="s">
-        <v>1873</v>
+        <v>4025</v>
       </c>
       <c r="B687" s="1">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C687" s="1" t="s">
-        <v>156</v>
+        <v>4129</v>
       </c>
       <c r="D687" s="1" t="s">
-        <v>157</v>
+        <v>4130</v>
       </c>
       <c r="E687" s="1" t="s">
-        <v>158</v>
+        <v>4131</v>
       </c>
       <c r="F687" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G687" s="1"/>
+        <v>4132</v>
+      </c>
+      <c r="G687" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="688" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A688" s="1" t="s">
-        <v>1874</v>
+        <v>4026</v>
       </c>
       <c r="B688" s="1">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C688" s="1" t="s">
-        <v>160</v>
+        <v>4133</v>
       </c>
       <c r="D688" s="1" t="s">
-        <v>161</v>
+        <v>4134</v>
       </c>
       <c r="E688" s="1" t="s">
-        <v>162</v>
+        <v>4135</v>
       </c>
       <c r="F688" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G688" s="1"/>
+        <v>4136</v>
+      </c>
+      <c r="G688" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="689" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A689" s="1" t="s">
-        <v>1875</v>
+        <v>4027</v>
       </c>
       <c r="B689" s="1">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C689" s="1" t="s">
-        <v>164</v>
+        <v>4137</v>
       </c>
       <c r="D689" s="1" t="s">
-        <v>165</v>
+        <v>4138</v>
       </c>
       <c r="E689" s="1" t="s">
-        <v>166</v>
+        <v>4139</v>
       </c>
       <c r="F689" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G689" s="1"/>
+        <v>4140</v>
+      </c>
+      <c r="G689" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="690" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A690" s="1" t="s">
-        <v>1876</v>
+        <v>4028</v>
       </c>
       <c r="B690" s="1">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C690" s="1" t="s">
-        <v>168</v>
+        <v>4141</v>
       </c>
       <c r="D690" s="1" t="s">
-        <v>169</v>
+        <v>4142</v>
       </c>
       <c r="E690" s="1" t="s">
-        <v>170</v>
+        <v>4143</v>
       </c>
       <c r="F690" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G690" s="1"/>
+        <v>4144</v>
+      </c>
+      <c r="G690" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="691" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A691" s="1" t="s">
-        <v>1877</v>
+        <v>4029</v>
       </c>
       <c r="B691" s="1">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C691" s="1" t="s">
-        <v>172</v>
+        <v>4145</v>
       </c>
       <c r="D691" s="1" t="s">
-        <v>173</v>
+        <v>4146</v>
       </c>
       <c r="E691" s="1" t="s">
-        <v>174</v>
+        <v>4147</v>
       </c>
       <c r="F691" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G691" s="1"/>
+        <v>4148</v>
+      </c>
+      <c r="G691" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="692" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A692" s="1" t="s">
-        <v>1878</v>
+        <v>4149</v>
       </c>
       <c r="B692" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C692" s="1" t="s">
-        <v>176</v>
+        <v>4179</v>
       </c>
       <c r="D692" s="1" t="s">
-        <v>177</v>
+        <v>4180</v>
       </c>
       <c r="E692" s="1" t="s">
-        <v>178</v>
+        <v>4181</v>
       </c>
       <c r="F692" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G692" s="1"/>
+        <v>4182</v>
+      </c>
+      <c r="G692" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="693" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A693" s="1" t="s">
-        <v>1879</v>
+        <v>4150</v>
       </c>
       <c r="B693" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C693" s="1" t="s">
-        <v>180</v>
+        <v>4183</v>
       </c>
       <c r="D693" s="1" t="s">
-        <v>181</v>
+        <v>4184</v>
       </c>
       <c r="E693" s="1" t="s">
-        <v>182</v>
+        <v>4185</v>
       </c>
       <c r="F693" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G693" s="1"/>
+        <v>4186</v>
+      </c>
+      <c r="G693" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="694" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A694" s="1" t="s">
-        <v>1880</v>
+        <v>4151</v>
       </c>
       <c r="B694" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C694" s="1" t="s">
-        <v>184</v>
+        <v>4187</v>
       </c>
       <c r="D694" s="1" t="s">
-        <v>185</v>
+        <v>4188</v>
       </c>
       <c r="E694" s="1" t="s">
-        <v>186</v>
+        <v>4189</v>
       </c>
       <c r="F694" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G694" s="1"/>
+        <v>4190</v>
+      </c>
+      <c r="G694" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="695" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A695" s="1" t="s">
-        <v>1881</v>
+        <v>4152</v>
       </c>
       <c r="B695" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C695" s="1" t="s">
-        <v>188</v>
+        <v>4191</v>
       </c>
       <c r="D695" s="1" t="s">
-        <v>189</v>
+        <v>4192</v>
       </c>
       <c r="E695" s="1" t="s">
-        <v>190</v>
+        <v>4193</v>
       </c>
       <c r="F695" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G695" s="1"/>
+        <v>4194</v>
+      </c>
+      <c r="G695" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="696" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A696" s="1" t="s">
-        <v>1882</v>
+        <v>4153</v>
       </c>
       <c r="B696" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C696" s="1" t="s">
-        <v>192</v>
+        <v>4195</v>
       </c>
       <c r="D696" s="1" t="s">
-        <v>193</v>
+        <v>4196</v>
       </c>
       <c r="E696" s="1" t="s">
-        <v>194</v>
+        <v>4197</v>
       </c>
       <c r="F696" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G696" s="1"/>
+        <v>4198</v>
+      </c>
+      <c r="G696" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="697" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A697" s="1" t="s">
-        <v>1883</v>
+        <v>4154</v>
       </c>
       <c r="B697" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C697" s="1" t="s">
-        <v>196</v>
+        <v>4199</v>
       </c>
       <c r="D697" s="1" t="s">
-        <v>197</v>
+        <v>4200</v>
       </c>
       <c r="E697" s="1" t="s">
-        <v>198</v>
+        <v>4201</v>
       </c>
       <c r="F697" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G697" s="1"/>
+        <v>4202</v>
+      </c>
+      <c r="G697" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="698" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A698" s="1" t="s">
-        <v>1884</v>
+        <v>4155</v>
       </c>
       <c r="B698" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C698" s="1" t="s">
-        <v>200</v>
+        <v>4203</v>
       </c>
       <c r="D698" s="1" t="s">
-        <v>201</v>
+        <v>4204</v>
       </c>
       <c r="E698" s="1" t="s">
-        <v>202</v>
+        <v>4205</v>
       </c>
       <c r="F698" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G698" s="1"/>
+        <v>4206</v>
+      </c>
+      <c r="G698" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="699" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A699" s="1" t="s">
-        <v>1885</v>
+        <v>4156</v>
       </c>
       <c r="B699" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C699" s="1" t="s">
-        <v>204</v>
+        <v>4207</v>
       </c>
       <c r="D699" s="1" t="s">
-        <v>205</v>
+        <v>4208</v>
       </c>
       <c r="E699" s="1" t="s">
-        <v>206</v>
+        <v>4209</v>
       </c>
       <c r="F699" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G699" s="1"/>
+        <v>4210</v>
+      </c>
+      <c r="G699" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="700" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A700" s="1" t="s">
-        <v>1886</v>
+        <v>4157</v>
       </c>
       <c r="B700" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C700" s="1" t="s">
-        <v>204</v>
+        <v>4211</v>
       </c>
       <c r="D700" s="1" t="s">
-        <v>208</v>
+        <v>4212</v>
       </c>
       <c r="E700" s="1" t="s">
-        <v>209</v>
+        <v>4213</v>
       </c>
       <c r="F700" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G700" s="1"/>
+        <v>4214</v>
+      </c>
+      <c r="G700" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="701" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A701" s="1" t="s">
-        <v>1887</v>
+        <v>4158</v>
       </c>
       <c r="B701" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C701" s="1" t="s">
-        <v>211</v>
+        <v>4215</v>
       </c>
       <c r="D701" s="1" t="s">
-        <v>212</v>
+        <v>4216</v>
       </c>
       <c r="E701" s="1" t="s">
-        <v>213</v>
+        <v>4217</v>
       </c>
       <c r="F701" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="G701" s="1"/>
+        <v>4218</v>
+      </c>
+      <c r="G701" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="702" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A702" s="1" t="s">
-        <v>1888</v>
+        <v>4159</v>
       </c>
       <c r="B702" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C702" s="1" t="s">
-        <v>215</v>
+        <v>4219</v>
       </c>
       <c r="D702" s="1" t="s">
-        <v>216</v>
+        <v>4220</v>
       </c>
       <c r="E702" s="1" t="s">
-        <v>217</v>
+        <v>4221</v>
       </c>
       <c r="F702" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="G702" s="1"/>
+        <v>4222</v>
+      </c>
+      <c r="G702" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="703" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A703" s="1" t="s">
-        <v>1889</v>
+        <v>4160</v>
       </c>
       <c r="B703" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C703" s="1" t="s">
-        <v>219</v>
+        <v>4223</v>
       </c>
       <c r="D703" s="1" t="s">
-        <v>220</v>
+        <v>4224</v>
       </c>
       <c r="E703" s="1" t="s">
-        <v>221</v>
+        <v>4225</v>
       </c>
       <c r="F703" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="G703" s="1"/>
+        <v>4226</v>
+      </c>
+      <c r="G703" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="704" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A704" s="1" t="s">
-        <v>1890</v>
+        <v>4161</v>
       </c>
       <c r="B704" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C704" s="1" t="s">
-        <v>223</v>
+        <v>4227</v>
       </c>
       <c r="D704" s="1" t="s">
-        <v>224</v>
+        <v>4228</v>
       </c>
       <c r="E704" s="1" t="s">
-        <v>225</v>
+        <v>4229</v>
       </c>
       <c r="F704" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G704" s="1"/>
+        <v>4230</v>
+      </c>
+      <c r="G704" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="705" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A705" s="1" t="s">
-        <v>1891</v>
+        <v>4162</v>
       </c>
       <c r="B705" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C705" s="1" t="s">
-        <v>227</v>
+        <v>4231</v>
       </c>
       <c r="D705" s="1" t="s">
-        <v>228</v>
+        <v>4232</v>
       </c>
       <c r="E705" s="1" t="s">
-        <v>229</v>
+        <v>4233</v>
       </c>
       <c r="F705" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G705" s="1"/>
+        <v>4234</v>
+      </c>
+      <c r="G705" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="706" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A706" s="1" t="s">
-        <v>1892</v>
+        <v>4163</v>
       </c>
       <c r="B706" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C706" s="1" t="s">
-        <v>231</v>
+        <v>4235</v>
       </c>
       <c r="D706" s="1" t="s">
-        <v>232</v>
+        <v>4236</v>
       </c>
       <c r="E706" s="1" t="s">
-        <v>233</v>
+        <v>4237</v>
       </c>
       <c r="F706" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G706" s="1"/>
+        <v>4238</v>
+      </c>
+      <c r="G706" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="707" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A707" s="1" t="s">
-        <v>1893</v>
+        <v>4164</v>
       </c>
       <c r="B707" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C707" s="1" t="s">
-        <v>235</v>
+        <v>4239</v>
       </c>
       <c r="D707" s="1" t="s">
-        <v>236</v>
+        <v>4240</v>
       </c>
       <c r="E707" s="1" t="s">
-        <v>237</v>
+        <v>4241</v>
       </c>
       <c r="F707" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G707" s="1"/>
+        <v>4242</v>
+      </c>
+      <c r="G707" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="708" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A708" s="1" t="s">
-        <v>1894</v>
+        <v>4165</v>
       </c>
       <c r="B708" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C708" s="1" t="s">
-        <v>239</v>
+        <v>4243</v>
       </c>
       <c r="D708" s="1" t="s">
-        <v>240</v>
+        <v>4244</v>
       </c>
       <c r="E708" s="1" t="s">
-        <v>241</v>
+        <v>4245</v>
       </c>
       <c r="F708" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="G708" s="1"/>
+        <v>4246</v>
+      </c>
+      <c r="G708" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="709" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A709" s="1" t="s">
-        <v>1895</v>
+        <v>4166</v>
       </c>
       <c r="B709" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C709" s="1" t="s">
-        <v>243</v>
+        <v>4247</v>
       </c>
       <c r="D709" s="1" t="s">
-        <v>244</v>
+        <v>4248</v>
       </c>
       <c r="E709" s="1" t="s">
-        <v>245</v>
+        <v>4249</v>
       </c>
       <c r="F709" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G709" s="1"/>
+        <v>4250</v>
+      </c>
+      <c r="G709" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="710" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A710" s="1" t="s">
-        <v>1896</v>
+        <v>4167</v>
       </c>
       <c r="B710" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C710" s="1" t="s">
-        <v>247</v>
+        <v>1076</v>
       </c>
       <c r="D710" s="1" t="s">
-        <v>248</v>
+        <v>4251</v>
       </c>
       <c r="E710" s="1" t="s">
-        <v>249</v>
+        <v>4252</v>
       </c>
       <c r="F710" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="G710" s="1"/>
+        <v>4253</v>
+      </c>
+      <c r="G710" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="711" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A711" s="1" t="s">
-        <v>1897</v>
+        <v>4168</v>
       </c>
       <c r="B711" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C711" s="1" t="s">
-        <v>251</v>
+        <v>4254</v>
       </c>
       <c r="D711" s="1" t="s">
-        <v>252</v>
+        <v>4255</v>
       </c>
       <c r="E711" s="1" t="s">
-        <v>253</v>
+        <v>4256</v>
       </c>
       <c r="F711" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="G711" s="1"/>
+        <v>4257</v>
+      </c>
+      <c r="G711" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="712" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A712" s="1" t="s">
-        <v>1898</v>
+        <v>4169</v>
       </c>
       <c r="B712" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C712" s="1" t="s">
-        <v>255</v>
+        <v>4258</v>
       </c>
       <c r="D712" s="1" t="s">
-        <v>256</v>
+        <v>4259</v>
       </c>
       <c r="E712" s="1" t="s">
-        <v>257</v>
+        <v>4260</v>
       </c>
       <c r="F712" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="G712" s="1"/>
+        <v>4261</v>
+      </c>
+      <c r="G712" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="713" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A713" s="1" t="s">
-        <v>1899</v>
+        <v>4170</v>
       </c>
       <c r="B713" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C713" s="1" t="s">
-        <v>259</v>
+        <v>4262</v>
       </c>
       <c r="D713" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E713" s="1"/>
-      <c r="F713" s="1"/>
-      <c r="G713" s="1"/>
+        <v>4263</v>
+      </c>
+      <c r="E713" s="1" t="s">
+        <v>4264</v>
+      </c>
+      <c r="F713" s="1" t="s">
+        <v>4265</v>
+      </c>
+      <c r="G713" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="714" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A714" s="1" t="s">
-        <v>1900</v>
+        <v>4171</v>
       </c>
       <c r="B714" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C714" s="1" t="s">
-        <v>261</v>
+        <v>4247</v>
       </c>
       <c r="D714" s="1" t="s">
-        <v>262</v>
+        <v>4266</v>
       </c>
       <c r="E714" s="1" t="s">
-        <v>263</v>
+        <v>4267</v>
       </c>
       <c r="F714" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="G714" s="1"/>
+        <v>4268</v>
+      </c>
+      <c r="G714" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="715" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A715" s="1" t="s">
-        <v>1901</v>
+        <v>4172</v>
       </c>
       <c r="B715" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C715" s="1" t="s">
-        <v>265</v>
+        <v>1076</v>
       </c>
       <c r="D715" s="1" t="s">
-        <v>266</v>
+        <v>4269</v>
       </c>
       <c r="E715" s="1" t="s">
-        <v>267</v>
+        <v>4270</v>
       </c>
       <c r="F715" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="G715" s="1"/>
+        <v>4271</v>
+      </c>
+      <c r="G715" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="716" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A716" s="1" t="s">
-        <v>1902</v>
+        <v>4173</v>
       </c>
       <c r="B716" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C716" s="1" t="s">
-        <v>269</v>
+        <v>4272</v>
       </c>
       <c r="D716" s="1" t="s">
-        <v>270</v>
+        <v>4273</v>
       </c>
       <c r="E716" s="1" t="s">
-        <v>271</v>
+        <v>4274</v>
       </c>
       <c r="F716" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="G716" s="1"/>
+        <v>4275</v>
+      </c>
+      <c r="G716" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="717" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A717" s="1" t="s">
-        <v>1903</v>
+        <v>4174</v>
       </c>
       <c r="B717" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C717" s="1" t="s">
-        <v>6</v>
+        <v>4276</v>
       </c>
       <c r="D717" s="1" t="s">
-        <v>273</v>
+        <v>4277</v>
       </c>
       <c r="E717" s="1" t="s">
-        <v>274</v>
+        <v>4278</v>
       </c>
       <c r="F717" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="G717" s="1"/>
+        <v>4279</v>
+      </c>
+      <c r="G717" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="718" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A718" s="1" t="s">
-        <v>1904</v>
+        <v>4175</v>
       </c>
       <c r="B718" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C718" s="1" t="s">
-        <v>276</v>
+        <v>4235</v>
       </c>
       <c r="D718" s="1" t="s">
-        <v>277</v>
+        <v>4280</v>
       </c>
       <c r="E718" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F718" s="1"/>
-      <c r="G718" s="1"/>
+        <v>4281</v>
+      </c>
+      <c r="F718" s="1" t="s">
+        <v>4282</v>
+      </c>
+      <c r="G718" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="719" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A719" s="1" t="s">
-        <v>1905</v>
+        <v>4176</v>
       </c>
       <c r="B719" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C719" s="1" t="s">
-        <v>279</v>
+        <v>4283</v>
       </c>
       <c r="D719" s="1" t="s">
-        <v>280</v>
+        <v>4284</v>
       </c>
       <c r="E719" s="1" t="s">
-        <v>281</v>
+        <v>4285</v>
       </c>
       <c r="F719" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="G719" s="1"/>
+        <v>4286</v>
+      </c>
+      <c r="G719" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="720" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A720" s="1" t="s">
-        <v>1906</v>
+        <v>4177</v>
       </c>
       <c r="B720" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C720" s="1" t="s">
-        <v>283</v>
+        <v>4287</v>
       </c>
       <c r="D720" s="1" t="s">
-        <v>284</v>
+        <v>4288</v>
       </c>
       <c r="E720" s="1" t="s">
-        <v>285</v>
+        <v>4289</v>
       </c>
       <c r="F720" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G720" s="1"/>
+        <v>4290</v>
+      </c>
+      <c r="G720" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="721" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A721" s="1" t="s">
-        <v>1907</v>
+        <v>4178</v>
       </c>
       <c r="B721" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C721" s="1" t="s">
-        <v>287</v>
+        <v>4291</v>
       </c>
       <c r="D721" s="1" t="s">
-        <v>288</v>
+        <v>4292</v>
       </c>
       <c r="E721" s="1" t="s">
-        <v>289</v>
+        <v>4293</v>
       </c>
       <c r="F721" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="G721" s="1"/>
+        <v>4294</v>
+      </c>
+      <c r="G721" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="722" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A722" s="1" t="s">
-        <v>1908</v>
+        <v>1828</v>
       </c>
       <c r="B722" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C722" s="1" t="s">
-        <v>291</v>
+        <v>6</v>
       </c>
       <c r="D722" s="1" t="s">
-        <v>292</v>
+        <v>7</v>
       </c>
       <c r="E722" s="1" t="s">
-        <v>293</v>
+        <v>8</v>
       </c>
       <c r="F722" s="1" t="s">
-        <v>294</v>
+        <v>9</v>
       </c>
       <c r="G722" s="1"/>
     </row>
     <row r="723" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A723" s="1" t="s">
-        <v>1909</v>
+        <v>1829</v>
       </c>
       <c r="B723" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C723" s="1" t="s">
-        <v>295</v>
+        <v>10</v>
       </c>
       <c r="D723" s="1" t="s">
-        <v>296</v>
+        <v>11</v>
       </c>
       <c r="E723" s="1" t="s">
-        <v>297</v>
+        <v>12</v>
       </c>
       <c r="F723" s="1" t="s">
-        <v>298</v>
+        <v>9</v>
       </c>
       <c r="G723" s="1"/>
     </row>
     <row r="724" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A724" s="1" t="s">
-        <v>1910</v>
+        <v>1830</v>
       </c>
       <c r="B724" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C724" s="1" t="s">
-        <v>299</v>
+        <v>13</v>
       </c>
       <c r="D724" s="1" t="s">
-        <v>300</v>
+        <v>14</v>
       </c>
       <c r="E724" s="1" t="s">
-        <v>301</v>
+        <v>15</v>
       </c>
       <c r="F724" s="1" t="s">
-        <v>302</v>
+        <v>9</v>
       </c>
       <c r="G724" s="1"/>
     </row>
     <row r="725" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A725" s="1" t="s">
-        <v>1911</v>
+        <v>1831</v>
       </c>
       <c r="B725" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C725" s="1" t="s">
-        <v>303</v>
+        <v>16</v>
       </c>
       <c r="D725" s="1" t="s">
-        <v>304</v>
+        <v>17</v>
       </c>
       <c r="E725" s="1" t="s">
-        <v>305</v>
+        <v>18</v>
       </c>
       <c r="F725" s="1" t="s">
-        <v>306</v>
+        <v>9</v>
       </c>
       <c r="G725" s="1"/>
     </row>
     <row r="726" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A726" s="1" t="s">
-        <v>1912</v>
+        <v>1832</v>
       </c>
       <c r="B726" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C726" s="1" t="s">
-        <v>307</v>
+        <v>19</v>
       </c>
       <c r="D726" s="1" t="s">
-        <v>308</v>
+        <v>20</v>
       </c>
       <c r="E726" s="1" t="s">
-        <v>309</v>
+        <v>21</v>
       </c>
       <c r="F726" s="1" t="s">
-        <v>310</v>
+        <v>9</v>
       </c>
       <c r="G726" s="1"/>
     </row>
     <row r="727" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A727" s="1" t="s">
-        <v>1913</v>
+        <v>1833</v>
       </c>
       <c r="B727" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C727" s="1" t="s">
-        <v>311</v>
+        <v>22</v>
       </c>
       <c r="D727" s="1" t="s">
-        <v>312</v>
+        <v>23</v>
       </c>
       <c r="E727" s="1" t="s">
-        <v>313</v>
+        <v>24</v>
       </c>
       <c r="F727" s="1" t="s">
-        <v>314</v>
+        <v>9</v>
       </c>
       <c r="G727" s="1"/>
     </row>
     <row r="728" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A728" s="1" t="s">
-        <v>1914</v>
+        <v>1834</v>
       </c>
       <c r="B728" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C728" s="1" t="s">
-        <v>315</v>
+        <v>25</v>
       </c>
       <c r="D728" s="1" t="s">
-        <v>316</v>
+        <v>26</v>
       </c>
       <c r="E728" s="1" t="s">
-        <v>317</v>
+        <v>27</v>
       </c>
       <c r="F728" s="1" t="s">
-        <v>318</v>
+        <v>9</v>
       </c>
       <c r="G728" s="1"/>
     </row>
     <row r="729" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A729" s="1" t="s">
-        <v>1915</v>
+        <v>1835</v>
       </c>
       <c r="B729" s="1">
+        <v>26</v>
+      </c>
+      <c r="C729" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C729" s="1" t="s">
-        <v>319</v>
-      </c>
       <c r="D729" s="1" t="s">
-        <v>320</v>
+        <v>29</v>
       </c>
       <c r="E729" s="1" t="s">
-        <v>321</v>
+        <v>30</v>
       </c>
       <c r="F729" s="1" t="s">
-        <v>322</v>
+        <v>9</v>
       </c>
       <c r="G729" s="1"/>
     </row>
     <row r="730" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A730" s="1" t="s">
-        <v>1916</v>
+        <v>1836</v>
       </c>
       <c r="B730" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C730" s="1" t="s">
-        <v>323</v>
+        <v>31</v>
       </c>
       <c r="D730" s="1" t="s">
-        <v>324</v>
+        <v>32</v>
       </c>
       <c r="E730" s="1" t="s">
-        <v>325</v>
+        <v>33</v>
       </c>
       <c r="F730" s="1" t="s">
-        <v>326</v>
+        <v>9</v>
       </c>
       <c r="G730" s="1"/>
     </row>
     <row r="731" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A731" s="1" t="s">
-        <v>1917</v>
+        <v>1837</v>
       </c>
       <c r="B731" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C731" s="1" t="s">
-        <v>327</v>
+        <v>34</v>
       </c>
       <c r="D731" s="1" t="s">
-        <v>328</v>
+        <v>35</v>
       </c>
       <c r="E731" s="1" t="s">
-        <v>329</v>
+        <v>36</v>
       </c>
       <c r="F731" s="1" t="s">
-        <v>330</v>
+        <v>9</v>
       </c>
       <c r="G731" s="1"/>
     </row>
     <row r="732" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A732" s="1" t="s">
-        <v>1918</v>
+        <v>1838</v>
       </c>
       <c r="B732" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C732" s="1" t="s">
-        <v>331</v>
+        <v>37</v>
       </c>
       <c r="D732" s="1" t="s">
-        <v>332</v>
+        <v>38</v>
       </c>
       <c r="E732" s="1" t="s">
-        <v>333</v>
+        <v>39</v>
       </c>
       <c r="F732" s="1" t="s">
-        <v>334</v>
+        <v>9</v>
       </c>
       <c r="G732" s="1"/>
     </row>
     <row r="733" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A733" s="1" t="s">
-        <v>1919</v>
+        <v>1839</v>
       </c>
       <c r="B733" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C733" s="1" t="s">
-        <v>335</v>
+        <v>40</v>
       </c>
       <c r="D733" s="1" t="s">
-        <v>336</v>
+        <v>41</v>
       </c>
       <c r="E733" s="1" t="s">
-        <v>337</v>
+        <v>42</v>
       </c>
       <c r="F733" s="1" t="s">
-        <v>338</v>
+        <v>9</v>
       </c>
       <c r="G733" s="1"/>
     </row>
     <row r="734" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A734" s="1" t="s">
-        <v>1920</v>
+        <v>1840</v>
       </c>
       <c r="B734" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C734" s="1" t="s">
-        <v>339</v>
+        <v>43</v>
       </c>
       <c r="D734" s="1" t="s">
-        <v>340</v>
+        <v>44</v>
       </c>
       <c r="E734" s="1" t="s">
-        <v>341</v>
+        <v>45</v>
       </c>
       <c r="F734" s="1" t="s">
-        <v>342</v>
+        <v>46</v>
       </c>
       <c r="G734" s="1"/>
     </row>
     <row r="735" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A735" s="1" t="s">
-        <v>1921</v>
+        <v>1841</v>
       </c>
       <c r="B735" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C735" s="1" t="s">
-        <v>343</v>
+        <v>47</v>
       </c>
       <c r="D735" s="1" t="s">
-        <v>344</v>
+        <v>48</v>
       </c>
       <c r="E735" s="1" t="s">
-        <v>345</v>
+        <v>49</v>
       </c>
       <c r="F735" s="1" t="s">
-        <v>346</v>
+        <v>9</v>
       </c>
       <c r="G735" s="1"/>
     </row>
     <row r="736" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A736" s="1" t="s">
-        <v>1922</v>
+        <v>1842</v>
       </c>
       <c r="B736" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C736" s="1" t="s">
-        <v>347</v>
+        <v>50</v>
       </c>
       <c r="D736" s="1" t="s">
-        <v>348</v>
+        <v>51</v>
       </c>
       <c r="E736" s="1" t="s">
-        <v>349</v>
+        <v>52</v>
       </c>
       <c r="F736" s="1" t="s">
-        <v>350</v>
+        <v>53</v>
       </c>
       <c r="G736" s="1"/>
     </row>
     <row r="737" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A737" s="1" t="s">
-        <v>1923</v>
+        <v>1843</v>
       </c>
       <c r="B737" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C737" s="1" t="s">
-        <v>351</v>
+        <v>54</v>
       </c>
       <c r="D737" s="1" t="s">
-        <v>352</v>
+        <v>55</v>
       </c>
       <c r="E737" s="1" t="s">
-        <v>353</v>
+        <v>56</v>
       </c>
       <c r="F737" s="1" t="s">
-        <v>354</v>
+        <v>9</v>
       </c>
       <c r="G737" s="1"/>
     </row>
     <row r="738" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A738" s="1" t="s">
-        <v>1924</v>
+        <v>1844</v>
       </c>
       <c r="B738" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C738" s="1" t="s">
-        <v>355</v>
+        <v>57</v>
       </c>
       <c r="D738" s="1" t="s">
-        <v>356</v>
+        <v>58</v>
       </c>
       <c r="E738" s="1" t="s">
-        <v>357</v>
+        <v>59</v>
       </c>
       <c r="F738" s="1" t="s">
-        <v>358</v>
+        <v>60</v>
       </c>
       <c r="G738" s="1"/>
     </row>
     <row r="739" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A739" s="1" t="s">
-        <v>1925</v>
+        <v>1845</v>
       </c>
       <c r="B739" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C739" s="1" t="s">
-        <v>359</v>
+        <v>61</v>
       </c>
       <c r="D739" s="1" t="s">
-        <v>360</v>
+        <v>62</v>
       </c>
       <c r="E739" s="1" t="s">
-        <v>361</v>
+        <v>63</v>
       </c>
       <c r="F739" s="1" t="s">
-        <v>362</v>
+        <v>9</v>
       </c>
       <c r="G739" s="1"/>
     </row>
     <row r="740" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A740" s="1" t="s">
-        <v>1926</v>
+        <v>1846</v>
       </c>
       <c r="B740" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C740" s="1" t="s">
-        <v>363</v>
+        <v>64</v>
       </c>
       <c r="D740" s="1" t="s">
-        <v>364</v>
+        <v>65</v>
       </c>
       <c r="E740" s="1" t="s">
-        <v>365</v>
+        <v>66</v>
       </c>
       <c r="F740" s="1" t="s">
-        <v>366</v>
+        <v>9</v>
       </c>
       <c r="G740" s="1"/>
     </row>
     <row r="741" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A741" s="1" t="s">
-        <v>1927</v>
+        <v>1847</v>
       </c>
       <c r="B741" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C741" s="1" t="s">
-        <v>367</v>
+        <v>67</v>
       </c>
       <c r="D741" s="1" t="s">
-        <v>368</v>
+        <v>68</v>
       </c>
       <c r="E741" s="1" t="s">
-        <v>369</v>
+        <v>69</v>
       </c>
       <c r="F741" s="1" t="s">
-        <v>370</v>
+        <v>70</v>
       </c>
       <c r="G741" s="1"/>
     </row>
     <row r="742" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A742" s="1" t="s">
-        <v>1928</v>
+        <v>1848</v>
       </c>
       <c r="B742" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C742" s="1" t="s">
-        <v>371</v>
+        <v>71</v>
       </c>
       <c r="D742" s="1" t="s">
-        <v>372</v>
+        <v>72</v>
       </c>
       <c r="E742" s="1" t="s">
-        <v>373</v>
+        <v>73</v>
       </c>
       <c r="F742" s="1" t="s">
-        <v>374</v>
+        <v>9</v>
       </c>
       <c r="G742" s="1"/>
     </row>
     <row r="743" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A743" s="1" t="s">
-        <v>1929</v>
+        <v>1849</v>
       </c>
       <c r="B743" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C743" s="1" t="s">
-        <v>375</v>
+        <v>74</v>
       </c>
       <c r="D743" s="1" t="s">
-        <v>376</v>
+        <v>75</v>
       </c>
       <c r="E743" s="1" t="s">
-        <v>377</v>
+        <v>76</v>
       </c>
       <c r="F743" s="1" t="s">
-        <v>378</v>
+        <v>9</v>
       </c>
       <c r="G743" s="1"/>
     </row>
     <row r="744" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A744" s="1" t="s">
-        <v>1930</v>
+        <v>1850</v>
       </c>
       <c r="B744" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C744" s="1" t="s">
-        <v>379</v>
+        <v>77</v>
       </c>
       <c r="D744" s="1" t="s">
-        <v>380</v>
+        <v>78</v>
       </c>
       <c r="E744" s="1" t="s">
-        <v>381</v>
+        <v>79</v>
       </c>
       <c r="F744" s="1" t="s">
-        <v>382</v>
+        <v>9</v>
       </c>
       <c r="G744" s="1"/>
     </row>
     <row r="745" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A745" s="1" t="s">
-        <v>1931</v>
+        <v>1851</v>
       </c>
       <c r="B745" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C745" s="1" t="s">
-        <v>383</v>
+        <v>80</v>
       </c>
       <c r="D745" s="1" t="s">
-        <v>384</v>
+        <v>81</v>
       </c>
       <c r="E745" s="1" t="s">
-        <v>385</v>
+        <v>82</v>
       </c>
       <c r="F745" s="1" t="s">
-        <v>386</v>
+        <v>9</v>
       </c>
       <c r="G745" s="1"/>
     </row>
     <row r="746" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A746" s="1" t="s">
-        <v>1932</v>
+        <v>1852</v>
       </c>
       <c r="B746" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C746" s="1" t="s">
-        <v>387</v>
+        <v>83</v>
       </c>
       <c r="D746" s="1" t="s">
-        <v>388</v>
+        <v>84</v>
       </c>
       <c r="E746" s="1" t="s">
-        <v>389</v>
+        <v>85</v>
       </c>
       <c r="F746" s="1" t="s">
-        <v>390</v>
+        <v>9</v>
       </c>
       <c r="G746" s="1"/>
     </row>
     <row r="747" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A747" s="1" t="s">
-        <v>1933</v>
+        <v>1853</v>
       </c>
       <c r="B747" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C747" s="1" t="s">
-        <v>391</v>
+        <v>86</v>
       </c>
       <c r="D747" s="1" t="s">
-        <v>392</v>
+        <v>87</v>
       </c>
       <c r="E747" s="1" t="s">
-        <v>393</v>
+        <v>88</v>
       </c>
       <c r="F747" s="1" t="s">
-        <v>394</v>
+        <v>89</v>
       </c>
       <c r="G747" s="1"/>
     </row>
     <row r="748" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A748" s="1" t="s">
-        <v>1934</v>
+        <v>1854</v>
       </c>
       <c r="B748" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C748" s="1" t="s">
-        <v>395</v>
+        <v>90</v>
       </c>
       <c r="D748" s="1" t="s">
-        <v>396</v>
+        <v>91</v>
       </c>
       <c r="E748" s="1" t="s">
-        <v>397</v>
+        <v>92</v>
       </c>
       <c r="F748" s="1" t="s">
-        <v>398</v>
+        <v>93</v>
       </c>
       <c r="G748" s="1"/>
     </row>
     <row r="749" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A749" s="1" t="s">
-        <v>1935</v>
+        <v>1855</v>
       </c>
       <c r="B749" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C749" s="1" t="s">
-        <v>399</v>
+        <v>94</v>
       </c>
       <c r="D749" s="1" t="s">
-        <v>400</v>
+        <v>95</v>
       </c>
       <c r="E749" s="1" t="s">
-        <v>401</v>
+        <v>96</v>
       </c>
       <c r="F749" s="1" t="s">
-        <v>402</v>
+        <v>9</v>
       </c>
       <c r="G749" s="1"/>
     </row>
     <row r="750" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A750" s="1" t="s">
-        <v>1936</v>
+        <v>1856</v>
       </c>
       <c r="B750" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C750" s="1" t="s">
-        <v>403</v>
+        <v>97</v>
       </c>
       <c r="D750" s="1" t="s">
-        <v>404</v>
+        <v>98</v>
       </c>
       <c r="E750" s="1" t="s">
-        <v>405</v>
+        <v>99</v>
       </c>
       <c r="F750" s="1" t="s">
-        <v>406</v>
+        <v>9</v>
       </c>
       <c r="G750" s="1"/>
     </row>
     <row r="751" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A751" s="1" t="s">
-        <v>1937</v>
+        <v>1857</v>
       </c>
       <c r="B751" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C751" s="1" t="s">
-        <v>407</v>
+        <v>100</v>
       </c>
       <c r="D751" s="1" t="s">
-        <v>408</v>
+        <v>101</v>
       </c>
       <c r="E751" s="1" t="s">
-        <v>409</v>
+        <v>102</v>
       </c>
       <c r="F751" s="1" t="s">
-        <v>410</v>
+        <v>9</v>
       </c>
       <c r="G751" s="1"/>
     </row>
     <row r="752" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A752" s="1" t="s">
-        <v>1938</v>
+        <v>1858</v>
       </c>
       <c r="B752" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C752" s="1" t="s">
-        <v>411</v>
+        <v>103</v>
       </c>
       <c r="D752" s="1" t="s">
-        <v>412</v>
+        <v>104</v>
       </c>
       <c r="E752" s="1" t="s">
-        <v>413</v>
+        <v>105</v>
       </c>
       <c r="F752" s="1" t="s">
-        <v>414</v>
+        <v>9</v>
       </c>
       <c r="G752" s="1"/>
     </row>
     <row r="753" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A753" s="1" t="s">
-        <v>1939</v>
+        <v>1859</v>
       </c>
       <c r="B753" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C753" s="1" t="s">
-        <v>415</v>
+        <v>106</v>
       </c>
       <c r="D753" s="1" t="s">
-        <v>416</v>
+        <v>107</v>
       </c>
       <c r="E753" s="1" t="s">
-        <v>417</v>
+        <v>108</v>
       </c>
       <c r="F753" s="1" t="s">
-        <v>418</v>
+        <v>9</v>
       </c>
       <c r="G753" s="1"/>
     </row>
     <row r="754" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A754" s="1" t="s">
-        <v>1940</v>
+        <v>1860</v>
       </c>
       <c r="B754" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C754" s="1" t="s">
-        <v>419</v>
+        <v>109</v>
       </c>
       <c r="D754" s="1" t="s">
-        <v>420</v>
+        <v>110</v>
       </c>
       <c r="E754" s="1" t="s">
-        <v>421</v>
+        <v>111</v>
       </c>
       <c r="F754" s="1" t="s">
-        <v>422</v>
+        <v>9</v>
       </c>
       <c r="G754" s="1"/>
     </row>
     <row r="755" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A755" s="1" t="s">
-        <v>1941</v>
+        <v>1861</v>
       </c>
       <c r="B755" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C755" s="1" t="s">
-        <v>423</v>
+        <v>112</v>
       </c>
       <c r="D755" s="1" t="s">
-        <v>424</v>
+        <v>113</v>
       </c>
       <c r="E755" s="1" t="s">
-        <v>425</v>
+        <v>114</v>
       </c>
       <c r="F755" s="1" t="s">
-        <v>426</v>
+        <v>9</v>
       </c>
       <c r="G755" s="1"/>
     </row>
     <row r="756" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A756" s="1" t="s">
-        <v>1942</v>
+        <v>1862</v>
       </c>
       <c r="B756" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C756" s="1" t="s">
-        <v>427</v>
+        <v>115</v>
       </c>
       <c r="D756" s="1" t="s">
-        <v>428</v>
+        <v>116</v>
       </c>
       <c r="E756" s="1" t="s">
-        <v>429</v>
+        <v>117</v>
       </c>
       <c r="F756" s="1" t="s">
-        <v>430</v>
+        <v>9</v>
       </c>
       <c r="G756" s="1"/>
     </row>
     <row r="757" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A757" s="1" t="s">
-        <v>1943</v>
+        <v>1863</v>
       </c>
       <c r="B757" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C757" s="1" t="s">
-        <v>431</v>
+        <v>118</v>
       </c>
       <c r="D757" s="1" t="s">
-        <v>432</v>
+        <v>119</v>
       </c>
       <c r="E757" s="1" t="s">
-        <v>433</v>
+        <v>120</v>
       </c>
       <c r="F757" s="1" t="s">
-        <v>434</v>
+        <v>9</v>
       </c>
       <c r="G757" s="1"/>
     </row>
     <row r="758" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A758" s="1" t="s">
-        <v>1944</v>
+        <v>1864</v>
       </c>
       <c r="B758" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C758" s="1" t="s">
-        <v>435</v>
+        <v>121</v>
       </c>
       <c r="D758" s="1" t="s">
-        <v>436</v>
+        <v>122</v>
       </c>
       <c r="E758" s="1" t="s">
-        <v>437</v>
+        <v>123</v>
       </c>
       <c r="F758" s="1" t="s">
-        <v>438</v>
+        <v>124</v>
       </c>
       <c r="G758" s="1"/>
     </row>
     <row r="759" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A759" s="1" t="s">
-        <v>1945</v>
+        <v>1865</v>
       </c>
       <c r="B759" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C759" s="1" t="s">
-        <v>439</v>
+        <v>125</v>
       </c>
       <c r="D759" s="1" t="s">
-        <v>440</v>
+        <v>126</v>
       </c>
       <c r="E759" s="1" t="s">
-        <v>441</v>
+        <v>127</v>
       </c>
       <c r="F759" s="1" t="s">
-        <v>442</v>
+        <v>128</v>
       </c>
       <c r="G759" s="1"/>
     </row>
     <row r="760" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A760" s="1" t="s">
-        <v>1946</v>
+        <v>1866</v>
       </c>
       <c r="B760" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C760" s="1" t="s">
-        <v>443</v>
+        <v>129</v>
       </c>
       <c r="D760" s="1" t="s">
-        <v>444</v>
+        <v>130</v>
       </c>
       <c r="E760" s="1" t="s">
-        <v>445</v>
+        <v>131</v>
       </c>
       <c r="F760" s="1" t="s">
-        <v>446</v>
+        <v>9</v>
       </c>
       <c r="G760" s="1"/>
     </row>
     <row r="761" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A761" s="1" t="s">
-        <v>1947</v>
+        <v>1867</v>
       </c>
       <c r="B761" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C761" s="1" t="s">
-        <v>447</v>
+        <v>132</v>
       </c>
       <c r="D761" s="1" t="s">
-        <v>448</v>
+        <v>133</v>
       </c>
       <c r="E761" s="1" t="s">
-        <v>449</v>
+        <v>134</v>
       </c>
       <c r="F761" s="1" t="s">
-        <v>450</v>
+        <v>135</v>
       </c>
       <c r="G761" s="1"/>
     </row>
     <row r="762" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A762" s="1" t="s">
-        <v>1948</v>
+        <v>1868</v>
       </c>
       <c r="B762" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C762" s="1" t="s">
-        <v>451</v>
+        <v>136</v>
       </c>
       <c r="D762" s="1" t="s">
-        <v>452</v>
+        <v>137</v>
       </c>
       <c r="E762" s="1" t="s">
-        <v>453</v>
+        <v>138</v>
       </c>
       <c r="F762" s="1" t="s">
-        <v>454</v>
+        <v>139</v>
       </c>
       <c r="G762" s="1"/>
     </row>
     <row r="763" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A763" s="1" t="s">
-        <v>1949</v>
+        <v>1869</v>
       </c>
       <c r="B763" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C763" s="1" t="s">
-        <v>455</v>
+        <v>140</v>
       </c>
       <c r="D763" s="1" t="s">
-        <v>456</v>
+        <v>141</v>
       </c>
       <c r="E763" s="1" t="s">
-        <v>457</v>
+        <v>142</v>
       </c>
       <c r="F763" s="1" t="s">
-        <v>458</v>
+        <v>143</v>
       </c>
       <c r="G763" s="1"/>
     </row>
     <row r="764" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A764" s="1" t="s">
-        <v>1950</v>
+        <v>1870</v>
       </c>
       <c r="B764" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C764" s="1" t="s">
-        <v>459</v>
+        <v>144</v>
       </c>
       <c r="D764" s="1" t="s">
-        <v>460</v>
+        <v>145</v>
       </c>
       <c r="E764" s="1" t="s">
-        <v>461</v>
+        <v>146</v>
       </c>
       <c r="F764" s="1" t="s">
-        <v>462</v>
+        <v>147</v>
       </c>
       <c r="G764" s="1"/>
     </row>
     <row r="765" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A765" s="1" t="s">
-        <v>1951</v>
+        <v>1871</v>
       </c>
       <c r="B765" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C765" s="1" t="s">
-        <v>463</v>
+        <v>148</v>
       </c>
       <c r="D765" s="1" t="s">
-        <v>464</v>
+        <v>149</v>
       </c>
       <c r="E765" s="1" t="s">
-        <v>465</v>
+        <v>150</v>
       </c>
       <c r="F765" s="1" t="s">
-        <v>466</v>
+        <v>151</v>
       </c>
       <c r="G765" s="1"/>
     </row>
     <row r="766" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A766" s="1" t="s">
-        <v>1952</v>
+        <v>1872</v>
       </c>
       <c r="B766" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C766" s="1" t="s">
-        <v>467</v>
+        <v>152</v>
       </c>
       <c r="D766" s="1" t="s">
-        <v>468</v>
+        <v>153</v>
       </c>
       <c r="E766" s="1" t="s">
-        <v>469</v>
+        <v>154</v>
       </c>
       <c r="F766" s="1" t="s">
-        <v>470</v>
+        <v>155</v>
       </c>
       <c r="G766" s="1"/>
     </row>
     <row r="767" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A767" s="1" t="s">
-        <v>1953</v>
+        <v>1873</v>
       </c>
       <c r="B767" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C767" s="1" t="s">
-        <v>471</v>
+        <v>156</v>
       </c>
       <c r="D767" s="1" t="s">
-        <v>472</v>
+        <v>157</v>
       </c>
       <c r="E767" s="1" t="s">
-        <v>473</v>
+        <v>158</v>
       </c>
       <c r="F767" s="1" t="s">
-        <v>474</v>
+        <v>159</v>
       </c>
       <c r="G767" s="1"/>
     </row>
     <row r="768" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A768" s="1" t="s">
-        <v>1954</v>
+        <v>1874</v>
       </c>
       <c r="B768" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C768" s="1" t="s">
-        <v>475</v>
+        <v>160</v>
       </c>
       <c r="D768" s="1" t="s">
-        <v>476</v>
+        <v>161</v>
       </c>
       <c r="E768" s="1" t="s">
-        <v>477</v>
+        <v>162</v>
       </c>
       <c r="F768" s="1" t="s">
-        <v>478</v>
+        <v>163</v>
       </c>
       <c r="G768" s="1"/>
     </row>
     <row r="769" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A769" s="1" t="s">
-        <v>1955</v>
+        <v>1875</v>
       </c>
       <c r="B769" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C769" s="1" t="s">
-        <v>479</v>
+        <v>164</v>
       </c>
       <c r="D769" s="1" t="s">
-        <v>480</v>
+        <v>165</v>
       </c>
       <c r="E769" s="1" t="s">
-        <v>481</v>
+        <v>166</v>
       </c>
       <c r="F769" s="1" t="s">
-        <v>482</v>
+        <v>167</v>
       </c>
       <c r="G769" s="1"/>
     </row>
     <row r="770" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A770" s="1" t="s">
-        <v>1956</v>
+        <v>1876</v>
       </c>
       <c r="B770" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C770" s="1" t="s">
-        <v>483</v>
+        <v>168</v>
       </c>
       <c r="D770" s="1" t="s">
-        <v>484</v>
+        <v>169</v>
       </c>
       <c r="E770" s="1" t="s">
-        <v>485</v>
+        <v>170</v>
       </c>
       <c r="F770" s="1" t="s">
-        <v>486</v>
+        <v>171</v>
       </c>
       <c r="G770" s="1"/>
     </row>
     <row r="771" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A771" s="1" t="s">
-        <v>1957</v>
+        <v>1877</v>
       </c>
       <c r="B771" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C771" s="1" t="s">
-        <v>487</v>
+        <v>172</v>
       </c>
       <c r="D771" s="1" t="s">
-        <v>488</v>
+        <v>173</v>
       </c>
       <c r="E771" s="1" t="s">
-        <v>489</v>
+        <v>174</v>
       </c>
       <c r="F771" s="1" t="s">
-        <v>490</v>
+        <v>175</v>
       </c>
       <c r="G771" s="1"/>
     </row>
     <row r="772" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A772" s="1" t="s">
-        <v>1958</v>
+        <v>1878</v>
       </c>
       <c r="B772" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C772" s="1" t="s">
-        <v>491</v>
+        <v>176</v>
       </c>
       <c r="D772" s="1" t="s">
-        <v>492</v>
+        <v>177</v>
       </c>
       <c r="E772" s="1" t="s">
-        <v>493</v>
+        <v>178</v>
       </c>
       <c r="F772" s="1" t="s">
-        <v>494</v>
+        <v>179</v>
       </c>
       <c r="G772" s="1"/>
     </row>
     <row r="773" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A773" s="1" t="s">
-        <v>1959</v>
+        <v>1879</v>
       </c>
       <c r="B773" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C773" s="1" t="s">
-        <v>495</v>
+        <v>180</v>
       </c>
       <c r="D773" s="1" t="s">
-        <v>496</v>
+        <v>181</v>
       </c>
       <c r="E773" s="1" t="s">
-        <v>497</v>
+        <v>182</v>
       </c>
       <c r="F773" s="1" t="s">
-        <v>498</v>
+        <v>183</v>
       </c>
       <c r="G773" s="1"/>
     </row>
     <row r="774" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A774" s="1" t="s">
-        <v>1960</v>
+        <v>1880</v>
       </c>
       <c r="B774" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C774" s="1" t="s">
-        <v>499</v>
+        <v>184</v>
       </c>
       <c r="D774" s="1" t="s">
-        <v>500</v>
+        <v>185</v>
       </c>
       <c r="E774" s="1" t="s">
-        <v>501</v>
+        <v>186</v>
       </c>
       <c r="F774" s="1" t="s">
-        <v>502</v>
+        <v>187</v>
       </c>
       <c r="G774" s="1"/>
     </row>
     <row r="775" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A775" s="1" t="s">
-        <v>1961</v>
+        <v>1881</v>
       </c>
       <c r="B775" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C775" s="1" t="s">
-        <v>503</v>
+        <v>188</v>
       </c>
       <c r="D775" s="1" t="s">
-        <v>504</v>
+        <v>189</v>
       </c>
       <c r="E775" s="1" t="s">
-        <v>505</v>
+        <v>190</v>
       </c>
       <c r="F775" s="1" t="s">
-        <v>506</v>
+        <v>191</v>
       </c>
       <c r="G775" s="1"/>
     </row>
     <row r="776" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A776" s="1" t="s">
-        <v>1962</v>
+        <v>1882</v>
       </c>
       <c r="B776" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C776" s="1" t="s">
-        <v>507</v>
+        <v>192</v>
       </c>
       <c r="D776" s="1" t="s">
-        <v>508</v>
+        <v>193</v>
       </c>
       <c r="E776" s="1" t="s">
-        <v>509</v>
+        <v>194</v>
       </c>
       <c r="F776" s="1" t="s">
-        <v>510</v>
+        <v>195</v>
       </c>
       <c r="G776" s="1"/>
     </row>
     <row r="777" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A777" s="1" t="s">
-        <v>1963</v>
+        <v>1883</v>
       </c>
       <c r="B777" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C777" s="1" t="s">
-        <v>511</v>
+        <v>196</v>
       </c>
       <c r="D777" s="1" t="s">
-        <v>512</v>
+        <v>197</v>
       </c>
       <c r="E777" s="1" t="s">
-        <v>513</v>
+        <v>198</v>
       </c>
       <c r="F777" s="1" t="s">
-        <v>514</v>
+        <v>199</v>
       </c>
       <c r="G777" s="1"/>
     </row>
     <row r="778" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A778" s="1" t="s">
-        <v>1964</v>
+        <v>1884</v>
       </c>
       <c r="B778" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C778" s="1" t="s">
-        <v>515</v>
+        <v>200</v>
       </c>
       <c r="D778" s="1" t="s">
-        <v>516</v>
+        <v>201</v>
       </c>
       <c r="E778" s="1" t="s">
-        <v>517</v>
+        <v>202</v>
       </c>
       <c r="F778" s="1" t="s">
-        <v>518</v>
+        <v>203</v>
       </c>
       <c r="G778" s="1"/>
     </row>
     <row r="779" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A779" s="1" t="s">
-        <v>1965</v>
+        <v>1885</v>
       </c>
       <c r="B779" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C779" s="1" t="s">
-        <v>519</v>
+        <v>204</v>
       </c>
       <c r="D779" s="1" t="s">
-        <v>520</v>
+        <v>205</v>
       </c>
       <c r="E779" s="1" t="s">
-        <v>521</v>
+        <v>206</v>
       </c>
       <c r="F779" s="1" t="s">
-        <v>522</v>
+        <v>207</v>
       </c>
       <c r="G779" s="1"/>
     </row>
     <row r="780" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A780" s="1" t="s">
-        <v>1966</v>
+        <v>1886</v>
       </c>
       <c r="B780" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C780" s="1" t="s">
-        <v>523</v>
+        <v>204</v>
       </c>
       <c r="D780" s="1" t="s">
-        <v>524</v>
+        <v>208</v>
       </c>
       <c r="E780" s="1" t="s">
-        <v>525</v>
+        <v>209</v>
       </c>
       <c r="F780" s="1" t="s">
-        <v>526</v>
+        <v>210</v>
       </c>
       <c r="G780" s="1"/>
     </row>
     <row r="781" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A781" s="1" t="s">
-        <v>1967</v>
+        <v>1887</v>
       </c>
       <c r="B781" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C781" s="1" t="s">
-        <v>527</v>
+        <v>211</v>
       </c>
       <c r="D781" s="1" t="s">
-        <v>528</v>
+        <v>212</v>
       </c>
       <c r="E781" s="1" t="s">
-        <v>529</v>
+        <v>213</v>
       </c>
       <c r="F781" s="1" t="s">
-        <v>530</v>
+        <v>214</v>
       </c>
       <c r="G781" s="1"/>
     </row>
     <row r="782" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A782" s="1" t="s">
-        <v>1968</v>
+        <v>1888</v>
       </c>
       <c r="B782" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C782" s="1" t="s">
-        <v>531</v>
+        <v>215</v>
       </c>
       <c r="D782" s="1" t="s">
-        <v>532</v>
+        <v>216</v>
       </c>
       <c r="E782" s="1" t="s">
-        <v>533</v>
+        <v>217</v>
       </c>
       <c r="F782" s="1" t="s">
-        <v>534</v>
+        <v>218</v>
       </c>
       <c r="G782" s="1"/>
     </row>
     <row r="783" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A783" s="1" t="s">
-        <v>1969</v>
+        <v>1889</v>
       </c>
       <c r="B783" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C783" s="1" t="s">
-        <v>535</v>
+        <v>219</v>
       </c>
       <c r="D783" s="1" t="s">
-        <v>536</v>
+        <v>220</v>
       </c>
       <c r="E783" s="1" t="s">
-        <v>537</v>
+        <v>221</v>
       </c>
       <c r="F783" s="1" t="s">
-        <v>538</v>
+        <v>222</v>
       </c>
       <c r="G783" s="1"/>
     </row>
     <row r="784" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A784" s="1" t="s">
-        <v>1970</v>
+        <v>1890</v>
       </c>
       <c r="B784" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C784" s="1" t="s">
-        <v>539</v>
+        <v>223</v>
       </c>
       <c r="D784" s="1" t="s">
-        <v>540</v>
+        <v>224</v>
       </c>
       <c r="E784" s="1" t="s">
-        <v>541</v>
+        <v>225</v>
       </c>
       <c r="F784" s="1" t="s">
-        <v>542</v>
+        <v>226</v>
       </c>
       <c r="G784" s="1"/>
     </row>
     <row r="785" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A785" s="1" t="s">
-        <v>1971</v>
+        <v>1891</v>
       </c>
       <c r="B785" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C785" s="1" t="s">
-        <v>543</v>
+        <v>227</v>
       </c>
       <c r="D785" s="1" t="s">
-        <v>544</v>
+        <v>228</v>
       </c>
       <c r="E785" s="1" t="s">
-        <v>545</v>
+        <v>229</v>
       </c>
       <c r="F785" s="1" t="s">
-        <v>546</v>
+        <v>230</v>
       </c>
       <c r="G785" s="1"/>
     </row>
     <row r="786" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A786" s="1" t="s">
-        <v>1972</v>
+        <v>1892</v>
       </c>
       <c r="B786" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C786" s="1" t="s">
-        <v>547</v>
+        <v>231</v>
       </c>
       <c r="D786" s="1" t="s">
-        <v>548</v>
+        <v>232</v>
       </c>
       <c r="E786" s="1" t="s">
-        <v>549</v>
+        <v>233</v>
       </c>
       <c r="F786" s="1" t="s">
-        <v>550</v>
+        <v>234</v>
       </c>
       <c r="G786" s="1"/>
     </row>
     <row r="787" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A787" s="1" t="s">
-        <v>1973</v>
+        <v>1893</v>
       </c>
       <c r="B787" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C787" s="1" t="s">
-        <v>551</v>
+        <v>235</v>
       </c>
       <c r="D787" s="1" t="s">
-        <v>552</v>
+        <v>236</v>
       </c>
       <c r="E787" s="1" t="s">
-        <v>553</v>
+        <v>237</v>
       </c>
       <c r="F787" s="1" t="s">
-        <v>554</v>
+        <v>238</v>
       </c>
       <c r="G787" s="1"/>
     </row>
     <row r="788" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A788" s="1" t="s">
-        <v>1974</v>
+        <v>1894</v>
       </c>
       <c r="B788" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C788" s="1" t="s">
-        <v>555</v>
+        <v>239</v>
       </c>
       <c r="D788" s="1" t="s">
-        <v>556</v>
+        <v>240</v>
       </c>
       <c r="E788" s="1" t="s">
-        <v>557</v>
+        <v>241</v>
       </c>
       <c r="F788" s="1" t="s">
-        <v>558</v>
+        <v>242</v>
       </c>
       <c r="G788" s="1"/>
     </row>
     <row r="789" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A789" s="1" t="s">
-        <v>1975</v>
+        <v>1895</v>
       </c>
       <c r="B789" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C789" s="1" t="s">
-        <v>559</v>
+        <v>243</v>
       </c>
       <c r="D789" s="1" t="s">
-        <v>560</v>
+        <v>244</v>
       </c>
       <c r="E789" s="1" t="s">
-        <v>561</v>
+        <v>245</v>
       </c>
       <c r="F789" s="1" t="s">
-        <v>562</v>
+        <v>246</v>
       </c>
       <c r="G789" s="1"/>
     </row>
     <row r="790" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A790" s="1" t="s">
-        <v>1976</v>
+        <v>1896</v>
       </c>
       <c r="B790" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C790" s="1" t="s">
-        <v>563</v>
+        <v>247</v>
       </c>
       <c r="D790" s="1" t="s">
-        <v>564</v>
+        <v>248</v>
       </c>
       <c r="E790" s="1" t="s">
-        <v>565</v>
+        <v>249</v>
       </c>
       <c r="F790" s="1" t="s">
-        <v>566</v>
+        <v>250</v>
       </c>
       <c r="G790" s="1"/>
     </row>
     <row r="791" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A791" s="1" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B791" s="1">
+        <v>28</v>
+      </c>
+      <c r="C791" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D791" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E791" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F791" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G791" s="1"/>
+    </row>
+    <row r="792" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A792" s="1" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B792" s="1">
+        <v>28</v>
+      </c>
+      <c r="C792" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D792" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E792" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F792" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G792" s="1"/>
+    </row>
+    <row r="793" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A793" s="1" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B793" s="1">
+        <v>28</v>
+      </c>
+      <c r="C793" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D793" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E793" s="1"/>
+      <c r="F793" s="1"/>
+      <c r="G793" s="1"/>
+    </row>
+    <row r="794" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A794" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B794" s="1">
+        <v>28</v>
+      </c>
+      <c r="C794" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D794" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E794" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F794" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G794" s="1"/>
+    </row>
+    <row r="795" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A795" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B795" s="1">
+        <v>28</v>
+      </c>
+      <c r="C795" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D795" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E795" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F795" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G795" s="1"/>
+    </row>
+    <row r="796" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A796" s="1" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B796" s="1">
+        <v>28</v>
+      </c>
+      <c r="C796" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D796" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E796" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F796" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G796" s="1"/>
+    </row>
+    <row r="797" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A797" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B797" s="1">
+        <v>28</v>
+      </c>
+      <c r="C797" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D797" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E797" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F797" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G797" s="1"/>
+    </row>
+    <row r="798" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A798" s="1" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B798" s="1">
+        <v>28</v>
+      </c>
+      <c r="C798" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D798" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E798" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F798" s="1"/>
+      <c r="G798" s="1"/>
+    </row>
+    <row r="799" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A799" s="1" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B799" s="1">
+        <v>28</v>
+      </c>
+      <c r="C799" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D799" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E799" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F799" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G799" s="1"/>
+    </row>
+    <row r="800" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A800" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B800" s="1">
+        <v>28</v>
+      </c>
+      <c r="C800" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D800" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E800" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F800" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G800" s="1"/>
+    </row>
+    <row r="801" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A801" s="1" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B801" s="1">
+        <v>28</v>
+      </c>
+      <c r="C801" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D801" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E801" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F801" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G801" s="1"/>
+    </row>
+    <row r="802" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A802" s="1" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B802" s="1">
+        <v>28</v>
+      </c>
+      <c r="C802" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D802" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E802" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F802" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G802" s="1"/>
+    </row>
+    <row r="803" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A803" s="1" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B803" s="1">
+        <v>28</v>
+      </c>
+      <c r="C803" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D803" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E803" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F803" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G803" s="1"/>
+    </row>
+    <row r="804" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A804" s="1" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B804" s="1">
+        <v>28</v>
+      </c>
+      <c r="C804" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D804" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E804" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F804" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G804" s="1"/>
+    </row>
+    <row r="805" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A805" s="1" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B805" s="1">
+        <v>28</v>
+      </c>
+      <c r="C805" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D805" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E805" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F805" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G805" s="1"/>
+    </row>
+    <row r="806" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A806" s="1" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B806" s="1">
+        <v>28</v>
+      </c>
+      <c r="C806" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D806" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E806" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F806" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G806" s="1"/>
+    </row>
+    <row r="807" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A807" s="1" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B807" s="1">
+        <v>28</v>
+      </c>
+      <c r="C807" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D807" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E807" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F807" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G807" s="1"/>
+    </row>
+    <row r="808" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A808" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B808" s="1">
+        <v>28</v>
+      </c>
+      <c r="C808" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D808" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E808" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F808" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G808" s="1"/>
+    </row>
+    <row r="809" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A809" s="1" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B809" s="1">
+        <v>28</v>
+      </c>
+      <c r="C809" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D809" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E809" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F809" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G809" s="1"/>
+    </row>
+    <row r="810" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A810" s="1" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B810" s="1">
+        <v>28</v>
+      </c>
+      <c r="C810" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D810" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E810" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F810" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G810" s="1"/>
+    </row>
+    <row r="811" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A811" s="1" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B811" s="1">
+        <v>28</v>
+      </c>
+      <c r="C811" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D811" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E811" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F811" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G811" s="1"/>
+    </row>
+    <row r="812" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A812" s="1" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B812" s="1">
+        <v>29</v>
+      </c>
+      <c r="C812" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D812" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E812" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F812" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G812" s="1"/>
+    </row>
+    <row r="813" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A813" s="1" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B813" s="1">
+        <v>29</v>
+      </c>
+      <c r="C813" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D813" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E813" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F813" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G813" s="1"/>
+    </row>
+    <row r="814" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A814" s="1" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B814" s="1">
+        <v>29</v>
+      </c>
+      <c r="C814" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D814" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E814" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F814" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G814" s="1"/>
+    </row>
+    <row r="815" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A815" s="1" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B815" s="1">
+        <v>29</v>
+      </c>
+      <c r="C815" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D815" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E815" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F815" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G815" s="1"/>
+    </row>
+    <row r="816" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A816" s="1" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B816" s="1">
+        <v>29</v>
+      </c>
+      <c r="C816" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D816" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E816" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F816" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G816" s="1"/>
+    </row>
+    <row r="817" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A817" s="1" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B817" s="1">
+        <v>29</v>
+      </c>
+      <c r="C817" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D817" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E817" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F817" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G817" s="1"/>
+    </row>
+    <row r="818" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A818" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B818" s="1">
+        <v>29</v>
+      </c>
+      <c r="C818" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D818" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E818" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F818" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G818" s="1"/>
+    </row>
+    <row r="819" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A819" s="1" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B819" s="1">
+        <v>29</v>
+      </c>
+      <c r="C819" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D819" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E819" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F819" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G819" s="1"/>
+    </row>
+    <row r="820" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A820" s="1" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B820" s="1">
+        <v>29</v>
+      </c>
+      <c r="C820" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D820" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E820" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F820" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G820" s="1"/>
+    </row>
+    <row r="821" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A821" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B821" s="1">
+        <v>29</v>
+      </c>
+      <c r="C821" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D821" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E821" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F821" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="G821" s="1"/>
+    </row>
+    <row r="822" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A822" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B822" s="1">
+        <v>29</v>
+      </c>
+      <c r="C822" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D822" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E822" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F822" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G822" s="1"/>
+    </row>
+    <row r="823" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A823" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B823" s="1">
+        <v>29</v>
+      </c>
+      <c r="C823" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D823" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E823" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F823" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G823" s="1"/>
+    </row>
+    <row r="824" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A824" s="1" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B824" s="1">
+        <v>29</v>
+      </c>
+      <c r="C824" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D824" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E824" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F824" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G824" s="1"/>
+    </row>
+    <row r="825" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A825" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B825" s="1">
+        <v>29</v>
+      </c>
+      <c r="C825" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D825" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E825" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F825" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="G825" s="1"/>
+    </row>
+    <row r="826" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A826" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B826" s="1">
+        <v>29</v>
+      </c>
+      <c r="C826" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D826" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E826" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F826" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="G826" s="1"/>
+    </row>
+    <row r="827" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A827" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B827" s="1">
+        <v>29</v>
+      </c>
+      <c r="C827" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D827" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E827" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F827" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G827" s="1"/>
+    </row>
+    <row r="828" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A828" s="1" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B828" s="1">
+        <v>29</v>
+      </c>
+      <c r="C828" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D828" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E828" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F828" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="G828" s="1"/>
+    </row>
+    <row r="829" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A829" s="1" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B829" s="1">
+        <v>29</v>
+      </c>
+      <c r="C829" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D829" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E829" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F829" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="G829" s="1"/>
+    </row>
+    <row r="830" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A830" s="1" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B830" s="1">
+        <v>29</v>
+      </c>
+      <c r="C830" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D830" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E830" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F830" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G830" s="1"/>
+    </row>
+    <row r="831" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A831" s="1" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B831" s="1">
+        <v>29</v>
+      </c>
+      <c r="C831" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D831" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E831" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F831" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G831" s="1"/>
+    </row>
+    <row r="832" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A832" s="1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B832" s="1">
+        <v>29</v>
+      </c>
+      <c r="C832" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D832" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E832" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F832" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="G832" s="1"/>
+    </row>
+    <row r="833" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A833" s="1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B833" s="1">
+        <v>29</v>
+      </c>
+      <c r="C833" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D833" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E833" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F833" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G833" s="1"/>
+    </row>
+    <row r="834" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A834" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B834" s="1">
+        <v>29</v>
+      </c>
+      <c r="C834" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D834" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E834" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F834" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G834" s="1"/>
+    </row>
+    <row r="835" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A835" s="1" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B835" s="1">
+        <v>29</v>
+      </c>
+      <c r="C835" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D835" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E835" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="F835" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="G835" s="1"/>
+    </row>
+    <row r="836" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A836" s="1" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B836" s="1">
+        <v>29</v>
+      </c>
+      <c r="C836" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D836" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E836" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="F836" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G836" s="1"/>
+    </row>
+    <row r="837" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A837" s="1" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B837" s="1">
+        <v>29</v>
+      </c>
+      <c r="C837" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D837" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E837" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="F837" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="G837" s="1"/>
+    </row>
+    <row r="838" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A838" s="1" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B838" s="1">
+        <v>29</v>
+      </c>
+      <c r="C838" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D838" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E838" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F838" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="G838" s="1"/>
+    </row>
+    <row r="839" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A839" s="1" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B839" s="1">
+        <v>29</v>
+      </c>
+      <c r="C839" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D839" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E839" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="F839" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="G839" s="1"/>
+    </row>
+    <row r="840" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A840" s="1" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B840" s="1">
+        <v>29</v>
+      </c>
+      <c r="C840" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D840" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E840" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F840" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G840" s="1"/>
+    </row>
+    <row r="841" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A841" s="1" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B841" s="1">
+        <v>29</v>
+      </c>
+      <c r="C841" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D841" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E841" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F841" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="G841" s="1"/>
+    </row>
+    <row r="842" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A842" s="1" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B842" s="1">
+        <v>30</v>
+      </c>
+      <c r="C842" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D842" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E842" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F842" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="G842" s="1"/>
+    </row>
+    <row r="843" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A843" s="1" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B843" s="1">
+        <v>30</v>
+      </c>
+      <c r="C843" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D843" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E843" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F843" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="G843" s="1"/>
+    </row>
+    <row r="844" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A844" s="1" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B844" s="1">
+        <v>30</v>
+      </c>
+      <c r="C844" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D844" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E844" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F844" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="G844" s="1"/>
+    </row>
+    <row r="845" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A845" s="1" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B845" s="1">
+        <v>30</v>
+      </c>
+      <c r="C845" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D845" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E845" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F845" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="G845" s="1"/>
+    </row>
+    <row r="846" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A846" s="1" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B846" s="1">
+        <v>30</v>
+      </c>
+      <c r="C846" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D846" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E846" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F846" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G846" s="1"/>
+    </row>
+    <row r="847" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A847" s="1" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B847" s="1">
+        <v>30</v>
+      </c>
+      <c r="C847" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D847" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E847" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F847" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G847" s="1"/>
+    </row>
+    <row r="848" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A848" s="1" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B848" s="1">
+        <v>30</v>
+      </c>
+      <c r="C848" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D848" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E848" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F848" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="G848" s="1"/>
+    </row>
+    <row r="849" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A849" s="1" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B849" s="1">
+        <v>30</v>
+      </c>
+      <c r="C849" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D849" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E849" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F849" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="G849" s="1"/>
+    </row>
+    <row r="850" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A850" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B850" s="1">
+        <v>30</v>
+      </c>
+      <c r="C850" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D850" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E850" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F850" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G850" s="1"/>
+    </row>
+    <row r="851" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A851" s="1" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B851" s="1">
+        <v>30</v>
+      </c>
+      <c r="C851" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D851" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E851" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F851" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G851" s="1"/>
+    </row>
+    <row r="852" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A852" s="1" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B852" s="1">
+        <v>30</v>
+      </c>
+      <c r="C852" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D852" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E852" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F852" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="G852" s="1"/>
+    </row>
+    <row r="853" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A853" s="1" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B853" s="1">
+        <v>30</v>
+      </c>
+      <c r="C853" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D853" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E853" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F853" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="G853" s="1"/>
+    </row>
+    <row r="854" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A854" s="1" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B854" s="1">
+        <v>30</v>
+      </c>
+      <c r="C854" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D854" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="E854" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F854" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="G854" s="1"/>
+    </row>
+    <row r="855" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A855" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B855" s="1">
+        <v>30</v>
+      </c>
+      <c r="C855" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D855" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E855" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F855" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G855" s="1"/>
+    </row>
+    <row r="856" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A856" s="1" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B856" s="1">
+        <v>30</v>
+      </c>
+      <c r="C856" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D856" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="E856" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F856" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="G856" s="1"/>
+    </row>
+    <row r="857" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A857" s="1" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B857" s="1">
+        <v>30</v>
+      </c>
+      <c r="C857" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D857" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E857" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F857" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="G857" s="1"/>
+    </row>
+    <row r="858" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A858" s="1" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B858" s="1">
+        <v>30</v>
+      </c>
+      <c r="C858" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D858" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E858" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="F858" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="G858" s="1"/>
+    </row>
+    <row r="859" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A859" s="1" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B859" s="1">
+        <v>30</v>
+      </c>
+      <c r="C859" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D859" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E859" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F859" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G859" s="1"/>
+    </row>
+    <row r="860" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A860" s="1" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B860" s="1">
+        <v>30</v>
+      </c>
+      <c r="C860" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D860" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E860" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="F860" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="G860" s="1"/>
+    </row>
+    <row r="861" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A861" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B861" s="1">
+        <v>30</v>
+      </c>
+      <c r="C861" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D861" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E861" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F861" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="G861" s="1"/>
+    </row>
+    <row r="862" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A862" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B862" s="1">
+        <v>30</v>
+      </c>
+      <c r="C862" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D862" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E862" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F862" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="G862" s="1"/>
+    </row>
+    <row r="863" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A863" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B863" s="1">
+        <v>30</v>
+      </c>
+      <c r="C863" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D863" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="E863" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F863" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="G863" s="1"/>
+    </row>
+    <row r="864" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A864" s="1" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B864" s="1">
+        <v>30</v>
+      </c>
+      <c r="C864" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D864" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E864" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="F864" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="G864" s="1"/>
+    </row>
+    <row r="865" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A865" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B865" s="1">
+        <v>30</v>
+      </c>
+      <c r="C865" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D865" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="E865" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F865" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="G865" s="1"/>
+    </row>
+    <row r="866" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A866" s="1" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B866" s="1">
+        <v>30</v>
+      </c>
+      <c r="C866" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D866" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E866" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F866" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="G866" s="1"/>
+    </row>
+    <row r="867" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A867" s="1" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B867" s="1">
+        <v>30</v>
+      </c>
+      <c r="C867" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D867" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E867" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F867" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="G867" s="1"/>
+    </row>
+    <row r="868" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A868" s="1" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B868" s="1">
+        <v>30</v>
+      </c>
+      <c r="C868" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D868" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E868" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F868" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="G868" s="1"/>
+    </row>
+    <row r="869" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A869" s="1" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B869" s="1">
+        <v>30</v>
+      </c>
+      <c r="C869" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D869" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E869" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F869" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="G869" s="1"/>
+    </row>
+    <row r="870" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A870" s="1" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B870" s="1">
+        <v>30</v>
+      </c>
+      <c r="C870" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D870" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E870" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F870" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="G870" s="1"/>
+    </row>
+    <row r="871" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A871" s="1" t="s">
         <v>1977</v>
       </c>
-      <c r="B791" s="1">
+      <c r="B871" s="1">
         <v>30</v>
       </c>
-      <c r="C791" s="1" t="s">
+      <c r="C871" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D791" s="1" t="s">
+      <c r="D871" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="E791" s="1" t="s">
+      <c r="E871" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="F791" s="1" t="s">
+      <c r="F871" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="G791" s="1"/>
+      <c r="G871" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/data/WordStudy.xlsx
+++ b/data/WordStudy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dom/Documents/Dom/english-app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5E1B7F-5FE6-F746-B13F-AD3F4CF56275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06F8F9F-D116-9244-BA32-D8837F9BDF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48660" yWindow="-3020" windowWidth="29840" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11540" yWindow="500" windowWidth="22060" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5074" uniqueCount="4295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5254" uniqueCount="4442">
   <si>
     <t>ID</t>
   </si>
@@ -12915,6 +12915,447 @@
   </si>
   <si>
     <t>a large amount of wealth / một lượng lớn của cải</t>
+  </si>
+  <si>
+    <t>U25_01</t>
+  </si>
+  <si>
+    <t>U25_02</t>
+  </si>
+  <si>
+    <t>U25_03</t>
+  </si>
+  <si>
+    <t>U25_04</t>
+  </si>
+  <si>
+    <t>U25_05</t>
+  </si>
+  <si>
+    <t>U25_06</t>
+  </si>
+  <si>
+    <t>U25_07</t>
+  </si>
+  <si>
+    <t>U25_08</t>
+  </si>
+  <si>
+    <t>U25_09</t>
+  </si>
+  <si>
+    <t>U25_10</t>
+  </si>
+  <si>
+    <t>U25_11</t>
+  </si>
+  <si>
+    <t>U25_12</t>
+  </si>
+  <si>
+    <t>U25_13</t>
+  </si>
+  <si>
+    <t>U25_14</t>
+  </si>
+  <si>
+    <t>U25_15</t>
+  </si>
+  <si>
+    <t>U25_16</t>
+  </si>
+  <si>
+    <t>U25_17</t>
+  </si>
+  <si>
+    <t>U25_18</t>
+  </si>
+  <si>
+    <t>U25_19</t>
+  </si>
+  <si>
+    <t>U25_20</t>
+  </si>
+  <si>
+    <t>U25_21</t>
+  </si>
+  <si>
+    <t>U25_22</t>
+  </si>
+  <si>
+    <t>U25_23</t>
+  </si>
+  <si>
+    <t>U25_24</t>
+  </si>
+  <si>
+    <t>U25_25</t>
+  </si>
+  <si>
+    <t>U25_26</t>
+  </si>
+  <si>
+    <t>U25_27</t>
+  </si>
+  <si>
+    <t>U25_28</t>
+  </si>
+  <si>
+    <t>U25_29</t>
+  </si>
+  <si>
+    <t>U25_30</t>
+  </si>
+  <si>
+    <t>Hướng dẫn sử dụng</t>
+  </si>
+  <si>
+    <t>manual</t>
+  </si>
+  <si>
+    <t>read the computer manual before use</t>
+  </si>
+  <si>
+    <t>A computer manual</t>
+  </si>
+  <si>
+    <t>Sửa</t>
+  </si>
+  <si>
+    <t>Repair</t>
+  </si>
+  <si>
+    <t>My father can repair any electronic device</t>
+  </si>
+  <si>
+    <t>repair something</t>
+  </si>
+  <si>
+    <t>Sự đa dạng</t>
+  </si>
+  <si>
+    <t>variety</t>
+  </si>
+  <si>
+    <t>He can cook a wide variety of food</t>
+  </si>
+  <si>
+    <t>a wide variety of something</t>
+  </si>
+  <si>
+    <t>Kích cỡ</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>He wants a large size studio</t>
+  </si>
+  <si>
+    <t>large size / cỡ lớn</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>I can only fit in medium-sized shirts</t>
+  </si>
+  <si>
+    <t>Medium-sized</t>
+  </si>
+  <si>
+    <t>Lớn</t>
+  </si>
+  <si>
+    <t>Huge</t>
+  </si>
+  <si>
+    <t>A huge amount of sugar is added</t>
+  </si>
+  <si>
+    <t>A huge amount of something</t>
+  </si>
+  <si>
+    <t>Độ dài</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>This table is two meters in length</t>
+  </si>
+  <si>
+    <t>in length</t>
+  </si>
+  <si>
+    <t>độ sâu</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>The depth of the atlantic ocean is over 8000m</t>
+  </si>
+  <si>
+    <t>the depth of something</t>
+  </si>
+  <si>
+    <t>Rộng</t>
+  </si>
+  <si>
+    <t>Wide</t>
+  </si>
+  <si>
+    <t>The supermarket sells a wide selection of goods</t>
+  </si>
+  <si>
+    <t>a wide selection of goods / nhiều lựa chọn các loại hàng hóa</t>
+  </si>
+  <si>
+    <t>Hẹp</t>
+  </si>
+  <si>
+    <t>Narrow</t>
+  </si>
+  <si>
+    <t>We cannot both fit in a narrow bed</t>
+  </si>
+  <si>
+    <t>a narrow bed</t>
+  </si>
+  <si>
+    <t>Trọng lượng</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>My body weight increases and decreases randomly</t>
+  </si>
+  <si>
+    <t>body weight</t>
+  </si>
+  <si>
+    <t>Nặng</t>
+  </si>
+  <si>
+    <t>heavy</t>
+  </si>
+  <si>
+    <t>She cannot carry a heavy box</t>
+  </si>
+  <si>
+    <t>a heavy box</t>
+  </si>
+  <si>
+    <t>mang vác</t>
+  </si>
+  <si>
+    <t>Carry</t>
+  </si>
+  <si>
+    <t>I can carry this chair with one hand</t>
+  </si>
+  <si>
+    <t>carry something / mang vác thứ gì đó</t>
+  </si>
+  <si>
+    <t>Loại bỏ</t>
+  </si>
+  <si>
+    <t>remove</t>
+  </si>
+  <si>
+    <t>She removes him from the group for inactivity</t>
+  </si>
+  <si>
+    <t>remove sb or sth</t>
+  </si>
+  <si>
+    <t>Phân chia, tách ra</t>
+  </si>
+  <si>
+    <t>Separate</t>
+  </si>
+  <si>
+    <t>Boy, please separate from the girls</t>
+  </si>
+  <si>
+    <t>separate from sb or sth</t>
+  </si>
+  <si>
+    <t>Kim loại</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>Please hand me a metal tool to crush this</t>
+  </si>
+  <si>
+    <t>a metal tool</t>
+  </si>
+  <si>
+    <t>Nhựa</t>
+  </si>
+  <si>
+    <t>Plastic</t>
+  </si>
+  <si>
+    <t>The leftovers are in a plastic container</t>
+  </si>
+  <si>
+    <t>a plastic container</t>
+  </si>
+  <si>
+    <t>Mất</t>
+  </si>
+  <si>
+    <t>Lose</t>
+  </si>
+  <si>
+    <t>I want to lose some weight after Tet</t>
+  </si>
+  <si>
+    <t>lose weight / giảm cân</t>
+  </si>
+  <si>
+    <t>Sắc</t>
+  </si>
+  <si>
+    <t>Sharp</t>
+  </si>
+  <si>
+    <t>A sharp knife can cut through bones</t>
+  </si>
+  <si>
+    <t>a sharp knife</t>
+  </si>
+  <si>
+    <t>Số lượng</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>She only eats a small quantity of food</t>
+  </si>
+  <si>
+    <t>A large or small quantity of something</t>
+  </si>
+  <si>
+    <t>Cái que</t>
+  </si>
+  <si>
+    <t>My sister uses popsicle sticks to build toy houses</t>
+  </si>
+  <si>
+    <t>Popsicle stick / que kem</t>
+  </si>
+  <si>
+    <t>Trống</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>An empty box is a playground to cats</t>
+  </si>
+  <si>
+    <t>an empty box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sâu </t>
+  </si>
+  <si>
+    <t>Deep</t>
+  </si>
+  <si>
+    <t>I am scared of deep water</t>
+  </si>
+  <si>
+    <t>deep water</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>The volume of demand is huge</t>
+  </si>
+  <si>
+    <t>volume of something</t>
+  </si>
+  <si>
+    <t>Chất lỏng</t>
+  </si>
+  <si>
+    <t>Liquid</t>
+  </si>
+  <si>
+    <t>A hot liquid is inside the cup</t>
+  </si>
+  <si>
+    <t>a hot or cold liquid</t>
+  </si>
+  <si>
+    <t>Vết nức</t>
+  </si>
+  <si>
+    <t>Crack</t>
+  </si>
+  <si>
+    <t>There are cracks in the wall</t>
+  </si>
+  <si>
+    <t>a crack in something</t>
+  </si>
+  <si>
+    <t>Bề mặt</t>
+  </si>
+  <si>
+    <t>Surface</t>
+  </si>
+  <si>
+    <t>We sit on a flat surface</t>
+  </si>
+  <si>
+    <t>a flat surface / một bề mặt phẳng</t>
+  </si>
+  <si>
+    <t>Chất liệu</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>My mother always likes items of natural materials</t>
+  </si>
+  <si>
+    <t>Natural materials</t>
+  </si>
+  <si>
+    <t>Thẳng</t>
+  </si>
+  <si>
+    <t>Straight</t>
+  </si>
+  <si>
+    <t>Go straight ahead and you will find the bus stop</t>
+  </si>
+  <si>
+    <t>Straight ahead / thẳng phía trước</t>
+  </si>
+  <si>
+    <t>Một cách rõ ràng</t>
+  </si>
+  <si>
+    <t>Clearly</t>
+  </si>
+  <si>
+    <t>Please speak clearly so I can understand</t>
+  </si>
+  <si>
+    <t>speak clearly</t>
   </si>
 </sst>
 </file>
@@ -13279,10 +13720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G871"/>
+  <dimension ref="A1:G901"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A706" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C722" sqref="C722"/>
+    <sheetView tabSelected="1" topLeftCell="A728" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C752" sqref="C752"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29880,649 +30321,709 @@
     </row>
     <row r="722" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A722" s="1" t="s">
-        <v>1828</v>
+        <v>4295</v>
       </c>
       <c r="B722" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C722" s="1" t="s">
-        <v>6</v>
+        <v>4325</v>
       </c>
       <c r="D722" s="1" t="s">
-        <v>7</v>
+        <v>4326</v>
       </c>
       <c r="E722" s="1" t="s">
-        <v>8</v>
+        <v>4327</v>
       </c>
       <c r="F722" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G722" s="1"/>
+        <v>4328</v>
+      </c>
+      <c r="G722" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="723" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A723" s="1" t="s">
-        <v>1829</v>
+        <v>4296</v>
       </c>
       <c r="B723" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C723" s="1" t="s">
-        <v>10</v>
+        <v>4329</v>
       </c>
       <c r="D723" s="1" t="s">
-        <v>11</v>
+        <v>4330</v>
       </c>
       <c r="E723" s="1" t="s">
-        <v>12</v>
+        <v>4331</v>
       </c>
       <c r="F723" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G723" s="1"/>
+        <v>4332</v>
+      </c>
+      <c r="G723" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="724" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A724" s="1" t="s">
-        <v>1830</v>
+        <v>4297</v>
       </c>
       <c r="B724" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C724" s="1" t="s">
-        <v>13</v>
+        <v>4333</v>
       </c>
       <c r="D724" s="1" t="s">
-        <v>14</v>
+        <v>4334</v>
       </c>
       <c r="E724" s="1" t="s">
-        <v>15</v>
+        <v>4335</v>
       </c>
       <c r="F724" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G724" s="1"/>
+        <v>4336</v>
+      </c>
+      <c r="G724" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="725" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A725" s="1" t="s">
-        <v>1831</v>
+        <v>4298</v>
       </c>
       <c r="B725" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C725" s="1" t="s">
-        <v>16</v>
+        <v>4337</v>
       </c>
       <c r="D725" s="1" t="s">
-        <v>17</v>
+        <v>4338</v>
       </c>
       <c r="E725" s="1" t="s">
-        <v>18</v>
+        <v>4339</v>
       </c>
       <c r="F725" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G725" s="1"/>
+        <v>4340</v>
+      </c>
+      <c r="G725" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="726" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A726" s="1" t="s">
-        <v>1832</v>
+        <v>4299</v>
       </c>
       <c r="B726" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C726" s="1" t="s">
-        <v>19</v>
+        <v>4283</v>
       </c>
       <c r="D726" s="1" t="s">
-        <v>20</v>
+        <v>4341</v>
       </c>
       <c r="E726" s="1" t="s">
-        <v>21</v>
+        <v>4342</v>
       </c>
       <c r="F726" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G726" s="1"/>
+        <v>4343</v>
+      </c>
+      <c r="G726" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="727" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A727" s="1" t="s">
-        <v>1833</v>
+        <v>4300</v>
       </c>
       <c r="B727" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C727" s="1" t="s">
-        <v>22</v>
+        <v>4344</v>
       </c>
       <c r="D727" s="1" t="s">
-        <v>23</v>
+        <v>4345</v>
       </c>
       <c r="E727" s="1" t="s">
-        <v>24</v>
+        <v>4346</v>
       </c>
       <c r="F727" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G727" s="1"/>
+        <v>4347</v>
+      </c>
+      <c r="G727" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="728" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A728" s="1" t="s">
-        <v>1834</v>
+        <v>4301</v>
       </c>
       <c r="B728" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C728" s="1" t="s">
-        <v>25</v>
+        <v>4348</v>
       </c>
       <c r="D728" s="1" t="s">
-        <v>26</v>
+        <v>4349</v>
       </c>
       <c r="E728" s="1" t="s">
-        <v>27</v>
+        <v>4350</v>
       </c>
       <c r="F728" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G728" s="1"/>
+        <v>4351</v>
+      </c>
+      <c r="G728" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="729" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A729" s="1" t="s">
-        <v>1835</v>
+        <v>4302</v>
       </c>
       <c r="B729" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C729" s="1" t="s">
-        <v>28</v>
+        <v>4352</v>
       </c>
       <c r="D729" s="1" t="s">
-        <v>29</v>
+        <v>4353</v>
       </c>
       <c r="E729" s="1" t="s">
-        <v>30</v>
+        <v>4354</v>
       </c>
       <c r="F729" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G729" s="1"/>
+        <v>4355</v>
+      </c>
+      <c r="G729" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="730" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A730" s="1" t="s">
-        <v>1836</v>
+        <v>4303</v>
       </c>
       <c r="B730" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C730" s="1" t="s">
-        <v>31</v>
+        <v>4356</v>
       </c>
       <c r="D730" s="1" t="s">
-        <v>32</v>
+        <v>4357</v>
       </c>
       <c r="E730" s="1" t="s">
-        <v>33</v>
+        <v>4358</v>
       </c>
       <c r="F730" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G730" s="1"/>
+        <v>4359</v>
+      </c>
+      <c r="G730" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="731" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A731" s="1" t="s">
-        <v>1837</v>
+        <v>4304</v>
       </c>
       <c r="B731" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C731" s="1" t="s">
-        <v>34</v>
+        <v>4360</v>
       </c>
       <c r="D731" s="1" t="s">
-        <v>35</v>
+        <v>4361</v>
       </c>
       <c r="E731" s="1" t="s">
-        <v>36</v>
+        <v>4362</v>
       </c>
       <c r="F731" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G731" s="1"/>
+        <v>4363</v>
+      </c>
+      <c r="G731" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="732" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A732" s="1" t="s">
-        <v>1838</v>
+        <v>4305</v>
       </c>
       <c r="B732" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C732" s="1" t="s">
-        <v>37</v>
+        <v>4364</v>
       </c>
       <c r="D732" s="1" t="s">
-        <v>38</v>
+        <v>4365</v>
       </c>
       <c r="E732" s="1" t="s">
-        <v>39</v>
+        <v>4366</v>
       </c>
       <c r="F732" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G732" s="1"/>
+        <v>4367</v>
+      </c>
+      <c r="G732" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="733" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A733" s="1" t="s">
-        <v>1839</v>
+        <v>4306</v>
       </c>
       <c r="B733" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C733" s="1" t="s">
-        <v>40</v>
+        <v>4368</v>
       </c>
       <c r="D733" s="1" t="s">
-        <v>41</v>
+        <v>4369</v>
       </c>
       <c r="E733" s="1" t="s">
-        <v>42</v>
+        <v>4370</v>
       </c>
       <c r="F733" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G733" s="1"/>
+        <v>4371</v>
+      </c>
+      <c r="G733" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="734" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A734" s="1" t="s">
-        <v>1840</v>
+        <v>4307</v>
       </c>
       <c r="B734" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C734" s="1" t="s">
-        <v>43</v>
+        <v>4372</v>
       </c>
       <c r="D734" s="1" t="s">
-        <v>44</v>
+        <v>4373</v>
       </c>
       <c r="E734" s="1" t="s">
-        <v>45</v>
+        <v>4374</v>
       </c>
       <c r="F734" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G734" s="1"/>
+        <v>4375</v>
+      </c>
+      <c r="G734" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="735" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A735" s="1" t="s">
-        <v>1841</v>
+        <v>4308</v>
       </c>
       <c r="B735" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C735" s="1" t="s">
-        <v>47</v>
+        <v>4376</v>
       </c>
       <c r="D735" s="1" t="s">
-        <v>48</v>
+        <v>4377</v>
       </c>
       <c r="E735" s="1" t="s">
-        <v>49</v>
+        <v>4378</v>
       </c>
       <c r="F735" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G735" s="1"/>
+        <v>4379</v>
+      </c>
+      <c r="G735" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="736" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A736" s="1" t="s">
-        <v>1842</v>
+        <v>4309</v>
       </c>
       <c r="B736" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C736" s="1" t="s">
-        <v>50</v>
+        <v>4380</v>
       </c>
       <c r="D736" s="1" t="s">
-        <v>51</v>
+        <v>4381</v>
       </c>
       <c r="E736" s="1" t="s">
-        <v>52</v>
+        <v>4382</v>
       </c>
       <c r="F736" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G736" s="1"/>
+        <v>4383</v>
+      </c>
+      <c r="G736" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="737" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A737" s="1" t="s">
-        <v>1843</v>
+        <v>4310</v>
       </c>
       <c r="B737" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C737" s="1" t="s">
-        <v>54</v>
+        <v>4384</v>
       </c>
       <c r="D737" s="1" t="s">
-        <v>55</v>
+        <v>4385</v>
       </c>
       <c r="E737" s="1" t="s">
-        <v>56</v>
+        <v>4386</v>
       </c>
       <c r="F737" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G737" s="1"/>
+        <v>4387</v>
+      </c>
+      <c r="G737" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="738" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A738" s="1" t="s">
-        <v>1844</v>
+        <v>4311</v>
       </c>
       <c r="B738" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C738" s="1" t="s">
-        <v>57</v>
+        <v>4388</v>
       </c>
       <c r="D738" s="1" t="s">
-        <v>58</v>
+        <v>4389</v>
       </c>
       <c r="E738" s="1" t="s">
-        <v>59</v>
+        <v>4390</v>
       </c>
       <c r="F738" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G738" s="1"/>
+        <v>4391</v>
+      </c>
+      <c r="G738" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="739" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A739" s="1" t="s">
-        <v>1845</v>
+        <v>4312</v>
       </c>
       <c r="B739" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C739" s="1" t="s">
-        <v>61</v>
+        <v>4392</v>
       </c>
       <c r="D739" s="1" t="s">
-        <v>62</v>
+        <v>4393</v>
       </c>
       <c r="E739" s="1" t="s">
-        <v>63</v>
+        <v>4394</v>
       </c>
       <c r="F739" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G739" s="1"/>
+        <v>4395</v>
+      </c>
+      <c r="G739" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="740" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A740" s="1" t="s">
-        <v>1846</v>
+        <v>4313</v>
       </c>
       <c r="B740" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C740" s="1" t="s">
-        <v>64</v>
+        <v>4396</v>
       </c>
       <c r="D740" s="1" t="s">
-        <v>65</v>
+        <v>4397</v>
       </c>
       <c r="E740" s="1" t="s">
-        <v>66</v>
+        <v>4398</v>
       </c>
       <c r="F740" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G740" s="1"/>
+        <v>4399</v>
+      </c>
+      <c r="G740" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="741" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A741" s="1" t="s">
-        <v>1847</v>
+        <v>4314</v>
       </c>
       <c r="B741" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C741" s="1" t="s">
-        <v>67</v>
+        <v>4400</v>
       </c>
       <c r="D741" s="1" t="s">
-        <v>68</v>
+        <v>4401</v>
       </c>
       <c r="E741" s="1" t="s">
-        <v>69</v>
+        <v>4402</v>
       </c>
       <c r="F741" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G741" s="1"/>
+        <v>4403</v>
+      </c>
+      <c r="G741" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="742" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A742" s="1" t="s">
-        <v>1848</v>
+        <v>4315</v>
       </c>
       <c r="B742" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C742" s="1" t="s">
-        <v>71</v>
+        <v>4404</v>
       </c>
       <c r="D742" s="1" t="s">
-        <v>72</v>
+        <v>3212</v>
       </c>
       <c r="E742" s="1" t="s">
-        <v>73</v>
+        <v>4405</v>
       </c>
       <c r="F742" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G742" s="1"/>
+        <v>4406</v>
+      </c>
+      <c r="G742" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="743" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A743" s="1" t="s">
-        <v>1849</v>
+        <v>4316</v>
       </c>
       <c r="B743" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C743" s="1" t="s">
-        <v>74</v>
+        <v>4407</v>
       </c>
       <c r="D743" s="1" t="s">
-        <v>75</v>
+        <v>4408</v>
       </c>
       <c r="E743" s="1" t="s">
-        <v>76</v>
+        <v>4409</v>
       </c>
       <c r="F743" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G743" s="1"/>
+        <v>4410</v>
+      </c>
+      <c r="G743" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="744" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A744" s="1" t="s">
-        <v>1850</v>
+        <v>4317</v>
       </c>
       <c r="B744" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C744" s="1" t="s">
-        <v>77</v>
+        <v>4411</v>
       </c>
       <c r="D744" s="1" t="s">
-        <v>78</v>
+        <v>4412</v>
       </c>
       <c r="E744" s="1" t="s">
-        <v>79</v>
+        <v>4413</v>
       </c>
       <c r="F744" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G744" s="1"/>
+        <v>4414</v>
+      </c>
+      <c r="G744" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="745" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A745" s="1" t="s">
-        <v>1851</v>
+        <v>4318</v>
       </c>
       <c r="B745" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C745" s="1" t="s">
-        <v>80</v>
+        <v>3397</v>
       </c>
       <c r="D745" s="1" t="s">
-        <v>81</v>
+        <v>4415</v>
       </c>
       <c r="E745" s="1" t="s">
-        <v>82</v>
+        <v>4416</v>
       </c>
       <c r="F745" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G745" s="1"/>
+        <v>4417</v>
+      </c>
+      <c r="G745" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="746" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A746" s="1" t="s">
-        <v>1852</v>
+        <v>4319</v>
       </c>
       <c r="B746" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C746" s="1" t="s">
-        <v>83</v>
+        <v>4418</v>
       </c>
       <c r="D746" s="1" t="s">
-        <v>84</v>
+        <v>4419</v>
       </c>
       <c r="E746" s="1" t="s">
-        <v>85</v>
+        <v>4420</v>
       </c>
       <c r="F746" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G746" s="1"/>
+        <v>4421</v>
+      </c>
+      <c r="G746" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="747" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A747" s="1" t="s">
-        <v>1853</v>
+        <v>4320</v>
       </c>
       <c r="B747" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C747" s="1" t="s">
-        <v>86</v>
+        <v>4422</v>
       </c>
       <c r="D747" s="1" t="s">
-        <v>87</v>
+        <v>4423</v>
       </c>
       <c r="E747" s="1" t="s">
-        <v>88</v>
+        <v>4424</v>
       </c>
       <c r="F747" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G747" s="1"/>
+        <v>4425</v>
+      </c>
+      <c r="G747" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="748" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A748" s="1" t="s">
-        <v>1854</v>
+        <v>4321</v>
       </c>
       <c r="B748" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C748" s="1" t="s">
-        <v>90</v>
+        <v>4426</v>
       </c>
       <c r="D748" s="1" t="s">
-        <v>91</v>
+        <v>4427</v>
       </c>
       <c r="E748" s="1" t="s">
-        <v>92</v>
+        <v>4428</v>
       </c>
       <c r="F748" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G748" s="1"/>
+        <v>4429</v>
+      </c>
+      <c r="G748" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="749" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A749" s="1" t="s">
-        <v>1855</v>
+        <v>4322</v>
       </c>
       <c r="B749" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C749" s="1" t="s">
-        <v>94</v>
+        <v>4430</v>
       </c>
       <c r="D749" s="1" t="s">
-        <v>95</v>
+        <v>4431</v>
       </c>
       <c r="E749" s="1" t="s">
-        <v>96</v>
+        <v>4432</v>
       </c>
       <c r="F749" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G749" s="1"/>
+        <v>4433</v>
+      </c>
+      <c r="G749" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="750" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A750" s="1" t="s">
-        <v>1856</v>
+        <v>4323</v>
       </c>
       <c r="B750" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C750" s="1" t="s">
-        <v>97</v>
+        <v>4434</v>
       </c>
       <c r="D750" s="1" t="s">
-        <v>98</v>
+        <v>4435</v>
       </c>
       <c r="E750" s="1" t="s">
-        <v>99</v>
+        <v>4436</v>
       </c>
       <c r="F750" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G750" s="1"/>
+        <v>4437</v>
+      </c>
+      <c r="G750" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="751" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A751" s="1" t="s">
-        <v>1857</v>
+        <v>4324</v>
       </c>
       <c r="B751" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C751" s="1" t="s">
-        <v>100</v>
+        <v>4438</v>
       </c>
       <c r="D751" s="1" t="s">
-        <v>101</v>
+        <v>4439</v>
       </c>
       <c r="E751" s="1" t="s">
-        <v>102</v>
+        <v>4440</v>
       </c>
       <c r="F751" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G751" s="1"/>
+        <v>4441</v>
+      </c>
+      <c r="G751" s="1" t="s">
+        <v>720</v>
+      </c>
     </row>
     <row r="752" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A752" s="1" t="s">
-        <v>1858</v>
+        <v>1828</v>
       </c>
       <c r="B752" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C752" s="1" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="D752" s="1" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="E752" s="1" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="F752" s="1" t="s">
         <v>9</v>
@@ -30531,19 +31032,19 @@
     </row>
     <row r="753" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A753" s="1" t="s">
-        <v>1859</v>
+        <v>1829</v>
       </c>
       <c r="B753" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C753" s="1" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="D753" s="1" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="E753" s="1" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="F753" s="1" t="s">
         <v>9</v>
@@ -30552,19 +31053,19 @@
     </row>
     <row r="754" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A754" s="1" t="s">
-        <v>1860</v>
+        <v>1830</v>
       </c>
       <c r="B754" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C754" s="1" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="D754" s="1" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="E754" s="1" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="F754" s="1" t="s">
         <v>9</v>
@@ -30573,19 +31074,19 @@
     </row>
     <row r="755" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A755" s="1" t="s">
-        <v>1861</v>
+        <v>1831</v>
       </c>
       <c r="B755" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C755" s="1" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="D755" s="1" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="E755" s="1" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="F755" s="1" t="s">
         <v>9</v>
@@ -30594,19 +31095,19 @@
     </row>
     <row r="756" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A756" s="1" t="s">
-        <v>1862</v>
+        <v>1832</v>
       </c>
       <c r="B756" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C756" s="1" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="D756" s="1" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="E756" s="1" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="F756" s="1" t="s">
         <v>9</v>
@@ -30615,19 +31116,19 @@
     </row>
     <row r="757" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A757" s="1" t="s">
-        <v>1863</v>
+        <v>1833</v>
       </c>
       <c r="B757" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C757" s="1" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="D757" s="1" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="E757" s="1" t="s">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="F757" s="1" t="s">
         <v>9</v>
@@ -30636,61 +31137,61 @@
     </row>
     <row r="758" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A758" s="1" t="s">
-        <v>1864</v>
+        <v>1834</v>
       </c>
       <c r="B758" s="1">
+        <v>26</v>
+      </c>
+      <c r="C758" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D758" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E758" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C758" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D758" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E758" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="F758" s="1" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="G758" s="1"/>
     </row>
     <row r="759" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A759" s="1" t="s">
-        <v>1865</v>
+        <v>1835</v>
       </c>
       <c r="B759" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C759" s="1" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="D759" s="1" t="s">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="E759" s="1" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="F759" s="1" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="G759" s="1"/>
     </row>
     <row r="760" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A760" s="1" t="s">
-        <v>1866</v>
+        <v>1836</v>
       </c>
       <c r="B760" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C760" s="1" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="D760" s="1" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="E760" s="1" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="F760" s="1" t="s">
         <v>9</v>
@@ -30699,2328 +31200,2958 @@
     </row>
     <row r="761" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A761" s="1" t="s">
-        <v>1867</v>
+        <v>1837</v>
       </c>
       <c r="B761" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C761" s="1" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="D761" s="1" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="E761" s="1" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="F761" s="1" t="s">
-        <v>135</v>
+        <v>9</v>
       </c>
       <c r="G761" s="1"/>
     </row>
     <row r="762" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A762" s="1" t="s">
-        <v>1868</v>
+        <v>1838</v>
       </c>
       <c r="B762" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C762" s="1" t="s">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="D762" s="1" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="E762" s="1" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="F762" s="1" t="s">
-        <v>139</v>
+        <v>9</v>
       </c>
       <c r="G762" s="1"/>
     </row>
     <row r="763" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A763" s="1" t="s">
-        <v>1869</v>
+        <v>1839</v>
       </c>
       <c r="B763" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C763" s="1" t="s">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D763" s="1" t="s">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="E763" s="1" t="s">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="F763" s="1" t="s">
-        <v>143</v>
+        <v>9</v>
       </c>
       <c r="G763" s="1"/>
     </row>
     <row r="764" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A764" s="1" t="s">
-        <v>1870</v>
+        <v>1840</v>
       </c>
       <c r="B764" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C764" s="1" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="D764" s="1" t="s">
-        <v>145</v>
+        <v>44</v>
       </c>
       <c r="E764" s="1" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="F764" s="1" t="s">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="G764" s="1"/>
     </row>
     <row r="765" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A765" s="1" t="s">
-        <v>1871</v>
+        <v>1841</v>
       </c>
       <c r="B765" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C765" s="1" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="D765" s="1" t="s">
-        <v>149</v>
+        <v>48</v>
       </c>
       <c r="E765" s="1" t="s">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="F765" s="1" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="G765" s="1"/>
     </row>
     <row r="766" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A766" s="1" t="s">
-        <v>1872</v>
+        <v>1842</v>
       </c>
       <c r="B766" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C766" s="1" t="s">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="D766" s="1" t="s">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="E766" s="1" t="s">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c r="F766" s="1" t="s">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="G766" s="1"/>
     </row>
     <row r="767" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A767" s="1" t="s">
-        <v>1873</v>
+        <v>1843</v>
       </c>
       <c r="B767" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C767" s="1" t="s">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="D767" s="1" t="s">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c r="E767" s="1" t="s">
-        <v>158</v>
+        <v>56</v>
       </c>
       <c r="F767" s="1" t="s">
-        <v>159</v>
+        <v>9</v>
       </c>
       <c r="G767" s="1"/>
     </row>
     <row r="768" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A768" s="1" t="s">
-        <v>1874</v>
+        <v>1844</v>
       </c>
       <c r="B768" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C768" s="1" t="s">
-        <v>160</v>
+        <v>57</v>
       </c>
       <c r="D768" s="1" t="s">
-        <v>161</v>
+        <v>58</v>
       </c>
       <c r="E768" s="1" t="s">
-        <v>162</v>
+        <v>59</v>
       </c>
       <c r="F768" s="1" t="s">
-        <v>163</v>
+        <v>60</v>
       </c>
       <c r="G768" s="1"/>
     </row>
     <row r="769" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A769" s="1" t="s">
-        <v>1875</v>
+        <v>1845</v>
       </c>
       <c r="B769" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C769" s="1" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
       <c r="D769" s="1" t="s">
-        <v>165</v>
+        <v>62</v>
       </c>
       <c r="E769" s="1" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="F769" s="1" t="s">
-        <v>167</v>
+        <v>9</v>
       </c>
       <c r="G769" s="1"/>
     </row>
     <row r="770" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A770" s="1" t="s">
-        <v>1876</v>
+        <v>1846</v>
       </c>
       <c r="B770" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C770" s="1" t="s">
-        <v>168</v>
+        <v>64</v>
       </c>
       <c r="D770" s="1" t="s">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="E770" s="1" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="F770" s="1" t="s">
-        <v>171</v>
+        <v>9</v>
       </c>
       <c r="G770" s="1"/>
     </row>
     <row r="771" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A771" s="1" t="s">
-        <v>1877</v>
+        <v>1847</v>
       </c>
       <c r="B771" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C771" s="1" t="s">
-        <v>172</v>
+        <v>67</v>
       </c>
       <c r="D771" s="1" t="s">
-        <v>173</v>
+        <v>68</v>
       </c>
       <c r="E771" s="1" t="s">
-        <v>174</v>
+        <v>69</v>
       </c>
       <c r="F771" s="1" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="G771" s="1"/>
     </row>
     <row r="772" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A772" s="1" t="s">
-        <v>1878</v>
+        <v>1848</v>
       </c>
       <c r="B772" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C772" s="1" t="s">
-        <v>176</v>
+        <v>71</v>
       </c>
       <c r="D772" s="1" t="s">
-        <v>177</v>
+        <v>72</v>
       </c>
       <c r="E772" s="1" t="s">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="F772" s="1" t="s">
-        <v>179</v>
+        <v>9</v>
       </c>
       <c r="G772" s="1"/>
     </row>
     <row r="773" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A773" s="1" t="s">
-        <v>1879</v>
+        <v>1849</v>
       </c>
       <c r="B773" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C773" s="1" t="s">
-        <v>180</v>
+        <v>74</v>
       </c>
       <c r="D773" s="1" t="s">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="E773" s="1" t="s">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="F773" s="1" t="s">
-        <v>183</v>
+        <v>9</v>
       </c>
       <c r="G773" s="1"/>
     </row>
     <row r="774" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A774" s="1" t="s">
-        <v>1880</v>
+        <v>1850</v>
       </c>
       <c r="B774" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C774" s="1" t="s">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="D774" s="1" t="s">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="E774" s="1" t="s">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="F774" s="1" t="s">
-        <v>187</v>
+        <v>9</v>
       </c>
       <c r="G774" s="1"/>
     </row>
     <row r="775" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A775" s="1" t="s">
-        <v>1881</v>
+        <v>1851</v>
       </c>
       <c r="B775" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C775" s="1" t="s">
-        <v>188</v>
+        <v>80</v>
       </c>
       <c r="D775" s="1" t="s">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="E775" s="1" t="s">
-        <v>190</v>
+        <v>82</v>
       </c>
       <c r="F775" s="1" t="s">
-        <v>191</v>
+        <v>9</v>
       </c>
       <c r="G775" s="1"/>
     </row>
     <row r="776" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A776" s="1" t="s">
-        <v>1882</v>
+        <v>1852</v>
       </c>
       <c r="B776" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C776" s="1" t="s">
-        <v>192</v>
+        <v>83</v>
       </c>
       <c r="D776" s="1" t="s">
-        <v>193</v>
+        <v>84</v>
       </c>
       <c r="E776" s="1" t="s">
-        <v>194</v>
+        <v>85</v>
       </c>
       <c r="F776" s="1" t="s">
-        <v>195</v>
+        <v>9</v>
       </c>
       <c r="G776" s="1"/>
     </row>
     <row r="777" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A777" s="1" t="s">
-        <v>1883</v>
+        <v>1853</v>
       </c>
       <c r="B777" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C777" s="1" t="s">
-        <v>196</v>
+        <v>86</v>
       </c>
       <c r="D777" s="1" t="s">
-        <v>197</v>
+        <v>87</v>
       </c>
       <c r="E777" s="1" t="s">
-        <v>198</v>
+        <v>88</v>
       </c>
       <c r="F777" s="1" t="s">
-        <v>199</v>
+        <v>89</v>
       </c>
       <c r="G777" s="1"/>
     </row>
     <row r="778" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A778" s="1" t="s">
-        <v>1884</v>
+        <v>1854</v>
       </c>
       <c r="B778" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C778" s="1" t="s">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="D778" s="1" t="s">
-        <v>201</v>
+        <v>91</v>
       </c>
       <c r="E778" s="1" t="s">
-        <v>202</v>
+        <v>92</v>
       </c>
       <c r="F778" s="1" t="s">
-        <v>203</v>
+        <v>93</v>
       </c>
       <c r="G778" s="1"/>
     </row>
     <row r="779" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A779" s="1" t="s">
-        <v>1885</v>
+        <v>1855</v>
       </c>
       <c r="B779" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C779" s="1" t="s">
-        <v>204</v>
+        <v>94</v>
       </c>
       <c r="D779" s="1" t="s">
-        <v>205</v>
+        <v>95</v>
       </c>
       <c r="E779" s="1" t="s">
-        <v>206</v>
+        <v>96</v>
       </c>
       <c r="F779" s="1" t="s">
-        <v>207</v>
+        <v>9</v>
       </c>
       <c r="G779" s="1"/>
     </row>
     <row r="780" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A780" s="1" t="s">
-        <v>1886</v>
+        <v>1856</v>
       </c>
       <c r="B780" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C780" s="1" t="s">
-        <v>204</v>
+        <v>97</v>
       </c>
       <c r="D780" s="1" t="s">
-        <v>208</v>
+        <v>98</v>
       </c>
       <c r="E780" s="1" t="s">
-        <v>209</v>
+        <v>99</v>
       </c>
       <c r="F780" s="1" t="s">
-        <v>210</v>
+        <v>9</v>
       </c>
       <c r="G780" s="1"/>
     </row>
     <row r="781" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A781" s="1" t="s">
-        <v>1887</v>
+        <v>1857</v>
       </c>
       <c r="B781" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C781" s="1" t="s">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="D781" s="1" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
       <c r="E781" s="1" t="s">
-        <v>213</v>
+        <v>102</v>
       </c>
       <c r="F781" s="1" t="s">
-        <v>214</v>
+        <v>9</v>
       </c>
       <c r="G781" s="1"/>
     </row>
     <row r="782" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A782" s="1" t="s">
-        <v>1888</v>
+        <v>1858</v>
       </c>
       <c r="B782" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C782" s="1" t="s">
-        <v>215</v>
+        <v>103</v>
       </c>
       <c r="D782" s="1" t="s">
-        <v>216</v>
+        <v>104</v>
       </c>
       <c r="E782" s="1" t="s">
-        <v>217</v>
+        <v>105</v>
       </c>
       <c r="F782" s="1" t="s">
-        <v>218</v>
+        <v>9</v>
       </c>
       <c r="G782" s="1"/>
     </row>
     <row r="783" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A783" s="1" t="s">
-        <v>1889</v>
+        <v>1859</v>
       </c>
       <c r="B783" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C783" s="1" t="s">
-        <v>219</v>
+        <v>106</v>
       </c>
       <c r="D783" s="1" t="s">
-        <v>220</v>
+        <v>107</v>
       </c>
       <c r="E783" s="1" t="s">
-        <v>221</v>
+        <v>108</v>
       </c>
       <c r="F783" s="1" t="s">
-        <v>222</v>
+        <v>9</v>
       </c>
       <c r="G783" s="1"/>
     </row>
     <row r="784" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A784" s="1" t="s">
-        <v>1890</v>
+        <v>1860</v>
       </c>
       <c r="B784" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C784" s="1" t="s">
-        <v>223</v>
+        <v>109</v>
       </c>
       <c r="D784" s="1" t="s">
-        <v>224</v>
+        <v>110</v>
       </c>
       <c r="E784" s="1" t="s">
-        <v>225</v>
+        <v>111</v>
       </c>
       <c r="F784" s="1" t="s">
-        <v>226</v>
+        <v>9</v>
       </c>
       <c r="G784" s="1"/>
     </row>
     <row r="785" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A785" s="1" t="s">
-        <v>1891</v>
+        <v>1861</v>
       </c>
       <c r="B785" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C785" s="1" t="s">
-        <v>227</v>
+        <v>112</v>
       </c>
       <c r="D785" s="1" t="s">
-        <v>228</v>
+        <v>113</v>
       </c>
       <c r="E785" s="1" t="s">
-        <v>229</v>
+        <v>114</v>
       </c>
       <c r="F785" s="1" t="s">
-        <v>230</v>
+        <v>9</v>
       </c>
       <c r="G785" s="1"/>
     </row>
     <row r="786" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A786" s="1" t="s">
-        <v>1892</v>
+        <v>1862</v>
       </c>
       <c r="B786" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C786" s="1" t="s">
-        <v>231</v>
+        <v>115</v>
       </c>
       <c r="D786" s="1" t="s">
-        <v>232</v>
+        <v>116</v>
       </c>
       <c r="E786" s="1" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="F786" s="1" t="s">
-        <v>234</v>
+        <v>9</v>
       </c>
       <c r="G786" s="1"/>
     </row>
     <row r="787" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A787" s="1" t="s">
-        <v>1893</v>
+        <v>1863</v>
       </c>
       <c r="B787" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C787" s="1" t="s">
-        <v>235</v>
+        <v>118</v>
       </c>
       <c r="D787" s="1" t="s">
-        <v>236</v>
+        <v>119</v>
       </c>
       <c r="E787" s="1" t="s">
-        <v>237</v>
+        <v>120</v>
       </c>
       <c r="F787" s="1" t="s">
-        <v>238</v>
+        <v>9</v>
       </c>
       <c r="G787" s="1"/>
     </row>
     <row r="788" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A788" s="1" t="s">
-        <v>1894</v>
+        <v>1864</v>
       </c>
       <c r="B788" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C788" s="1" t="s">
-        <v>239</v>
+        <v>121</v>
       </c>
       <c r="D788" s="1" t="s">
-        <v>240</v>
+        <v>122</v>
       </c>
       <c r="E788" s="1" t="s">
-        <v>241</v>
+        <v>123</v>
       </c>
       <c r="F788" s="1" t="s">
-        <v>242</v>
+        <v>124</v>
       </c>
       <c r="G788" s="1"/>
     </row>
     <row r="789" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A789" s="1" t="s">
-        <v>1895</v>
+        <v>1865</v>
       </c>
       <c r="B789" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C789" s="1" t="s">
-        <v>243</v>
+        <v>125</v>
       </c>
       <c r="D789" s="1" t="s">
-        <v>244</v>
+        <v>126</v>
       </c>
       <c r="E789" s="1" t="s">
-        <v>245</v>
+        <v>127</v>
       </c>
       <c r="F789" s="1" t="s">
-        <v>246</v>
+        <v>128</v>
       </c>
       <c r="G789" s="1"/>
     </row>
     <row r="790" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A790" s="1" t="s">
-        <v>1896</v>
+        <v>1866</v>
       </c>
       <c r="B790" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C790" s="1" t="s">
-        <v>247</v>
+        <v>129</v>
       </c>
       <c r="D790" s="1" t="s">
-        <v>248</v>
+        <v>130</v>
       </c>
       <c r="E790" s="1" t="s">
-        <v>249</v>
+        <v>131</v>
       </c>
       <c r="F790" s="1" t="s">
-        <v>250</v>
+        <v>9</v>
       </c>
       <c r="G790" s="1"/>
     </row>
     <row r="791" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A791" s="1" t="s">
-        <v>1897</v>
+        <v>1867</v>
       </c>
       <c r="B791" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C791" s="1" t="s">
-        <v>251</v>
+        <v>132</v>
       </c>
       <c r="D791" s="1" t="s">
-        <v>252</v>
+        <v>133</v>
       </c>
       <c r="E791" s="1" t="s">
-        <v>253</v>
+        <v>134</v>
       </c>
       <c r="F791" s="1" t="s">
-        <v>254</v>
+        <v>135</v>
       </c>
       <c r="G791" s="1"/>
     </row>
     <row r="792" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A792" s="1" t="s">
-        <v>1898</v>
+        <v>1868</v>
       </c>
       <c r="B792" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C792" s="1" t="s">
-        <v>255</v>
+        <v>136</v>
       </c>
       <c r="D792" s="1" t="s">
-        <v>256</v>
+        <v>137</v>
       </c>
       <c r="E792" s="1" t="s">
-        <v>257</v>
+        <v>138</v>
       </c>
       <c r="F792" s="1" t="s">
-        <v>258</v>
+        <v>139</v>
       </c>
       <c r="G792" s="1"/>
     </row>
     <row r="793" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A793" s="1" t="s">
-        <v>1899</v>
+        <v>1869</v>
       </c>
       <c r="B793" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C793" s="1" t="s">
-        <v>259</v>
+        <v>140</v>
       </c>
       <c r="D793" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E793" s="1"/>
-      <c r="F793" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="E793" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F793" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="G793" s="1"/>
     </row>
     <row r="794" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A794" s="1" t="s">
-        <v>1900</v>
+        <v>1870</v>
       </c>
       <c r="B794" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C794" s="1" t="s">
-        <v>261</v>
+        <v>144</v>
       </c>
       <c r="D794" s="1" t="s">
-        <v>262</v>
+        <v>145</v>
       </c>
       <c r="E794" s="1" t="s">
-        <v>263</v>
+        <v>146</v>
       </c>
       <c r="F794" s="1" t="s">
-        <v>264</v>
+        <v>147</v>
       </c>
       <c r="G794" s="1"/>
     </row>
     <row r="795" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A795" s="1" t="s">
-        <v>1901</v>
+        <v>1871</v>
       </c>
       <c r="B795" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C795" s="1" t="s">
-        <v>265</v>
+        <v>148</v>
       </c>
       <c r="D795" s="1" t="s">
-        <v>266</v>
+        <v>149</v>
       </c>
       <c r="E795" s="1" t="s">
-        <v>267</v>
+        <v>150</v>
       </c>
       <c r="F795" s="1" t="s">
-        <v>268</v>
+        <v>151</v>
       </c>
       <c r="G795" s="1"/>
     </row>
     <row r="796" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A796" s="1" t="s">
-        <v>1902</v>
+        <v>1872</v>
       </c>
       <c r="B796" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C796" s="1" t="s">
-        <v>269</v>
+        <v>152</v>
       </c>
       <c r="D796" s="1" t="s">
-        <v>270</v>
+        <v>153</v>
       </c>
       <c r="E796" s="1" t="s">
-        <v>271</v>
+        <v>154</v>
       </c>
       <c r="F796" s="1" t="s">
-        <v>272</v>
+        <v>155</v>
       </c>
       <c r="G796" s="1"/>
     </row>
     <row r="797" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A797" s="1" t="s">
-        <v>1903</v>
+        <v>1873</v>
       </c>
       <c r="B797" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C797" s="1" t="s">
-        <v>6</v>
+        <v>156</v>
       </c>
       <c r="D797" s="1" t="s">
-        <v>273</v>
+        <v>157</v>
       </c>
       <c r="E797" s="1" t="s">
-        <v>274</v>
+        <v>158</v>
       </c>
       <c r="F797" s="1" t="s">
-        <v>275</v>
+        <v>159</v>
       </c>
       <c r="G797" s="1"/>
     </row>
     <row r="798" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A798" s="1" t="s">
-        <v>1904</v>
+        <v>1874</v>
       </c>
       <c r="B798" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C798" s="1" t="s">
-        <v>276</v>
+        <v>160</v>
       </c>
       <c r="D798" s="1" t="s">
-        <v>277</v>
+        <v>161</v>
       </c>
       <c r="E798" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F798" s="1"/>
+        <v>162</v>
+      </c>
+      <c r="F798" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="G798" s="1"/>
     </row>
     <row r="799" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A799" s="1" t="s">
-        <v>1905</v>
+        <v>1875</v>
       </c>
       <c r="B799" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C799" s="1" t="s">
-        <v>279</v>
+        <v>164</v>
       </c>
       <c r="D799" s="1" t="s">
-        <v>280</v>
+        <v>165</v>
       </c>
       <c r="E799" s="1" t="s">
-        <v>281</v>
+        <v>166</v>
       </c>
       <c r="F799" s="1" t="s">
-        <v>282</v>
+        <v>167</v>
       </c>
       <c r="G799" s="1"/>
     </row>
     <row r="800" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A800" s="1" t="s">
-        <v>1906</v>
+        <v>1876</v>
       </c>
       <c r="B800" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C800" s="1" t="s">
-        <v>283</v>
+        <v>168</v>
       </c>
       <c r="D800" s="1" t="s">
-        <v>284</v>
+        <v>169</v>
       </c>
       <c r="E800" s="1" t="s">
-        <v>285</v>
+        <v>170</v>
       </c>
       <c r="F800" s="1" t="s">
-        <v>286</v>
+        <v>171</v>
       </c>
       <c r="G800" s="1"/>
     </row>
     <row r="801" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A801" s="1" t="s">
-        <v>1907</v>
+        <v>1877</v>
       </c>
       <c r="B801" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C801" s="1" t="s">
-        <v>287</v>
+        <v>172</v>
       </c>
       <c r="D801" s="1" t="s">
-        <v>288</v>
+        <v>173</v>
       </c>
       <c r="E801" s="1" t="s">
-        <v>289</v>
+        <v>174</v>
       </c>
       <c r="F801" s="1" t="s">
-        <v>290</v>
+        <v>175</v>
       </c>
       <c r="G801" s="1"/>
     </row>
     <row r="802" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A802" s="1" t="s">
-        <v>1908</v>
+        <v>1878</v>
       </c>
       <c r="B802" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C802" s="1" t="s">
-        <v>291</v>
+        <v>176</v>
       </c>
       <c r="D802" s="1" t="s">
-        <v>292</v>
+        <v>177</v>
       </c>
       <c r="E802" s="1" t="s">
-        <v>293</v>
+        <v>178</v>
       </c>
       <c r="F802" s="1" t="s">
-        <v>294</v>
+        <v>179</v>
       </c>
       <c r="G802" s="1"/>
     </row>
     <row r="803" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A803" s="1" t="s">
-        <v>1909</v>
+        <v>1879</v>
       </c>
       <c r="B803" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C803" s="1" t="s">
-        <v>295</v>
+        <v>180</v>
       </c>
       <c r="D803" s="1" t="s">
-        <v>296</v>
+        <v>181</v>
       </c>
       <c r="E803" s="1" t="s">
-        <v>297</v>
+        <v>182</v>
       </c>
       <c r="F803" s="1" t="s">
-        <v>298</v>
+        <v>183</v>
       </c>
       <c r="G803" s="1"/>
     </row>
     <row r="804" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A804" s="1" t="s">
-        <v>1910</v>
+        <v>1880</v>
       </c>
       <c r="B804" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C804" s="1" t="s">
-        <v>299</v>
+        <v>184</v>
       </c>
       <c r="D804" s="1" t="s">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="E804" s="1" t="s">
-        <v>301</v>
+        <v>186</v>
       </c>
       <c r="F804" s="1" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="G804" s="1"/>
     </row>
     <row r="805" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A805" s="1" t="s">
-        <v>1911</v>
+        <v>1881</v>
       </c>
       <c r="B805" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C805" s="1" t="s">
-        <v>303</v>
+        <v>188</v>
       </c>
       <c r="D805" s="1" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="E805" s="1" t="s">
-        <v>305</v>
+        <v>190</v>
       </c>
       <c r="F805" s="1" t="s">
-        <v>306</v>
+        <v>191</v>
       </c>
       <c r="G805" s="1"/>
     </row>
     <row r="806" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A806" s="1" t="s">
-        <v>1912</v>
+        <v>1882</v>
       </c>
       <c r="B806" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C806" s="1" t="s">
-        <v>307</v>
+        <v>192</v>
       </c>
       <c r="D806" s="1" t="s">
-        <v>308</v>
+        <v>193</v>
       </c>
       <c r="E806" s="1" t="s">
-        <v>309</v>
+        <v>194</v>
       </c>
       <c r="F806" s="1" t="s">
-        <v>310</v>
+        <v>195</v>
       </c>
       <c r="G806" s="1"/>
     </row>
     <row r="807" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A807" s="1" t="s">
-        <v>1913</v>
+        <v>1883</v>
       </c>
       <c r="B807" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C807" s="1" t="s">
-        <v>311</v>
+        <v>196</v>
       </c>
       <c r="D807" s="1" t="s">
-        <v>312</v>
+        <v>197</v>
       </c>
       <c r="E807" s="1" t="s">
-        <v>313</v>
+        <v>198</v>
       </c>
       <c r="F807" s="1" t="s">
-        <v>314</v>
+        <v>199</v>
       </c>
       <c r="G807" s="1"/>
     </row>
     <row r="808" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A808" s="1" t="s">
-        <v>1914</v>
+        <v>1884</v>
       </c>
       <c r="B808" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C808" s="1" t="s">
-        <v>315</v>
+        <v>200</v>
       </c>
       <c r="D808" s="1" t="s">
-        <v>316</v>
+        <v>201</v>
       </c>
       <c r="E808" s="1" t="s">
-        <v>317</v>
+        <v>202</v>
       </c>
       <c r="F808" s="1" t="s">
-        <v>318</v>
+        <v>203</v>
       </c>
       <c r="G808" s="1"/>
     </row>
     <row r="809" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A809" s="1" t="s">
-        <v>1915</v>
+        <v>1885</v>
       </c>
       <c r="B809" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C809" s="1" t="s">
-        <v>319</v>
+        <v>204</v>
       </c>
       <c r="D809" s="1" t="s">
-        <v>320</v>
+        <v>205</v>
       </c>
       <c r="E809" s="1" t="s">
-        <v>321</v>
+        <v>206</v>
       </c>
       <c r="F809" s="1" t="s">
-        <v>322</v>
+        <v>207</v>
       </c>
       <c r="G809" s="1"/>
     </row>
     <row r="810" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A810" s="1" t="s">
-        <v>1916</v>
+        <v>1886</v>
       </c>
       <c r="B810" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C810" s="1" t="s">
-        <v>323</v>
+        <v>204</v>
       </c>
       <c r="D810" s="1" t="s">
-        <v>324</v>
+        <v>208</v>
       </c>
       <c r="E810" s="1" t="s">
-        <v>325</v>
+        <v>209</v>
       </c>
       <c r="F810" s="1" t="s">
-        <v>326</v>
+        <v>210</v>
       </c>
       <c r="G810" s="1"/>
     </row>
     <row r="811" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A811" s="1" t="s">
-        <v>1917</v>
+        <v>1887</v>
       </c>
       <c r="B811" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C811" s="1" t="s">
-        <v>327</v>
+        <v>211</v>
       </c>
       <c r="D811" s="1" t="s">
-        <v>328</v>
+        <v>212</v>
       </c>
       <c r="E811" s="1" t="s">
-        <v>329</v>
+        <v>213</v>
       </c>
       <c r="F811" s="1" t="s">
-        <v>330</v>
+        <v>214</v>
       </c>
       <c r="G811" s="1"/>
     </row>
     <row r="812" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A812" s="1" t="s">
-        <v>1918</v>
+        <v>1888</v>
       </c>
       <c r="B812" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C812" s="1" t="s">
-        <v>331</v>
+        <v>215</v>
       </c>
       <c r="D812" s="1" t="s">
-        <v>332</v>
+        <v>216</v>
       </c>
       <c r="E812" s="1" t="s">
-        <v>333</v>
+        <v>217</v>
       </c>
       <c r="F812" s="1" t="s">
-        <v>334</v>
+        <v>218</v>
       </c>
       <c r="G812" s="1"/>
     </row>
     <row r="813" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A813" s="1" t="s">
-        <v>1919</v>
+        <v>1889</v>
       </c>
       <c r="B813" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C813" s="1" t="s">
-        <v>335</v>
+        <v>219</v>
       </c>
       <c r="D813" s="1" t="s">
-        <v>336</v>
+        <v>220</v>
       </c>
       <c r="E813" s="1" t="s">
-        <v>337</v>
+        <v>221</v>
       </c>
       <c r="F813" s="1" t="s">
-        <v>338</v>
+        <v>222</v>
       </c>
       <c r="G813" s="1"/>
     </row>
     <row r="814" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A814" s="1" t="s">
-        <v>1920</v>
+        <v>1890</v>
       </c>
       <c r="B814" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C814" s="1" t="s">
-        <v>339</v>
+        <v>223</v>
       </c>
       <c r="D814" s="1" t="s">
-        <v>340</v>
+        <v>224</v>
       </c>
       <c r="E814" s="1" t="s">
-        <v>341</v>
+        <v>225</v>
       </c>
       <c r="F814" s="1" t="s">
-        <v>342</v>
+        <v>226</v>
       </c>
       <c r="G814" s="1"/>
     </row>
     <row r="815" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A815" s="1" t="s">
-        <v>1921</v>
+        <v>1891</v>
       </c>
       <c r="B815" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C815" s="1" t="s">
-        <v>343</v>
+        <v>227</v>
       </c>
       <c r="D815" s="1" t="s">
-        <v>344</v>
+        <v>228</v>
       </c>
       <c r="E815" s="1" t="s">
-        <v>345</v>
+        <v>229</v>
       </c>
       <c r="F815" s="1" t="s">
-        <v>346</v>
+        <v>230</v>
       </c>
       <c r="G815" s="1"/>
     </row>
     <row r="816" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A816" s="1" t="s">
-        <v>1922</v>
+        <v>1892</v>
       </c>
       <c r="B816" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C816" s="1" t="s">
-        <v>347</v>
+        <v>231</v>
       </c>
       <c r="D816" s="1" t="s">
-        <v>348</v>
+        <v>232</v>
       </c>
       <c r="E816" s="1" t="s">
-        <v>349</v>
+        <v>233</v>
       </c>
       <c r="F816" s="1" t="s">
-        <v>350</v>
+        <v>234</v>
       </c>
       <c r="G816" s="1"/>
     </row>
     <row r="817" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A817" s="1" t="s">
-        <v>1923</v>
+        <v>1893</v>
       </c>
       <c r="B817" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C817" s="1" t="s">
-        <v>351</v>
+        <v>235</v>
       </c>
       <c r="D817" s="1" t="s">
-        <v>352</v>
+        <v>236</v>
       </c>
       <c r="E817" s="1" t="s">
-        <v>353</v>
+        <v>237</v>
       </c>
       <c r="F817" s="1" t="s">
-        <v>354</v>
+        <v>238</v>
       </c>
       <c r="G817" s="1"/>
     </row>
     <row r="818" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A818" s="1" t="s">
-        <v>1924</v>
+        <v>1894</v>
       </c>
       <c r="B818" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C818" s="1" t="s">
-        <v>355</v>
+        <v>239</v>
       </c>
       <c r="D818" s="1" t="s">
-        <v>356</v>
+        <v>240</v>
       </c>
       <c r="E818" s="1" t="s">
-        <v>357</v>
+        <v>241</v>
       </c>
       <c r="F818" s="1" t="s">
-        <v>358</v>
+        <v>242</v>
       </c>
       <c r="G818" s="1"/>
     </row>
     <row r="819" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A819" s="1" t="s">
-        <v>1925</v>
+        <v>1895</v>
       </c>
       <c r="B819" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C819" s="1" t="s">
-        <v>359</v>
+        <v>243</v>
       </c>
       <c r="D819" s="1" t="s">
-        <v>360</v>
+        <v>244</v>
       </c>
       <c r="E819" s="1" t="s">
-        <v>361</v>
+        <v>245</v>
       </c>
       <c r="F819" s="1" t="s">
-        <v>362</v>
+        <v>246</v>
       </c>
       <c r="G819" s="1"/>
     </row>
     <row r="820" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A820" s="1" t="s">
-        <v>1926</v>
+        <v>1896</v>
       </c>
       <c r="B820" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C820" s="1" t="s">
-        <v>363</v>
+        <v>247</v>
       </c>
       <c r="D820" s="1" t="s">
-        <v>364</v>
+        <v>248</v>
       </c>
       <c r="E820" s="1" t="s">
-        <v>365</v>
+        <v>249</v>
       </c>
       <c r="F820" s="1" t="s">
-        <v>366</v>
+        <v>250</v>
       </c>
       <c r="G820" s="1"/>
     </row>
     <row r="821" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A821" s="1" t="s">
-        <v>1927</v>
+        <v>1897</v>
       </c>
       <c r="B821" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C821" s="1" t="s">
-        <v>367</v>
+        <v>251</v>
       </c>
       <c r="D821" s="1" t="s">
-        <v>368</v>
+        <v>252</v>
       </c>
       <c r="E821" s="1" t="s">
-        <v>369</v>
+        <v>253</v>
       </c>
       <c r="F821" s="1" t="s">
-        <v>370</v>
+        <v>254</v>
       </c>
       <c r="G821" s="1"/>
     </row>
     <row r="822" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A822" s="1" t="s">
-        <v>1928</v>
+        <v>1898</v>
       </c>
       <c r="B822" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C822" s="1" t="s">
-        <v>371</v>
+        <v>255</v>
       </c>
       <c r="D822" s="1" t="s">
-        <v>372</v>
+        <v>256</v>
       </c>
       <c r="E822" s="1" t="s">
-        <v>373</v>
+        <v>257</v>
       </c>
       <c r="F822" s="1" t="s">
-        <v>374</v>
+        <v>258</v>
       </c>
       <c r="G822" s="1"/>
     </row>
     <row r="823" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A823" s="1" t="s">
-        <v>1929</v>
+        <v>1899</v>
       </c>
       <c r="B823" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C823" s="1" t="s">
-        <v>375</v>
+        <v>259</v>
       </c>
       <c r="D823" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="E823" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="F823" s="1" t="s">
-        <v>378</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="E823" s="1"/>
+      <c r="F823" s="1"/>
       <c r="G823" s="1"/>
     </row>
     <row r="824" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A824" s="1" t="s">
-        <v>1930</v>
+        <v>1900</v>
       </c>
       <c r="B824" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C824" s="1" t="s">
-        <v>379</v>
+        <v>261</v>
       </c>
       <c r="D824" s="1" t="s">
-        <v>380</v>
+        <v>262</v>
       </c>
       <c r="E824" s="1" t="s">
-        <v>381</v>
+        <v>263</v>
       </c>
       <c r="F824" s="1" t="s">
-        <v>382</v>
+        <v>264</v>
       </c>
       <c r="G824" s="1"/>
     </row>
     <row r="825" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A825" s="1" t="s">
-        <v>1931</v>
+        <v>1901</v>
       </c>
       <c r="B825" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C825" s="1" t="s">
-        <v>383</v>
+        <v>265</v>
       </c>
       <c r="D825" s="1" t="s">
-        <v>384</v>
+        <v>266</v>
       </c>
       <c r="E825" s="1" t="s">
-        <v>385</v>
+        <v>267</v>
       </c>
       <c r="F825" s="1" t="s">
-        <v>386</v>
+        <v>268</v>
       </c>
       <c r="G825" s="1"/>
     </row>
     <row r="826" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A826" s="1" t="s">
-        <v>1932</v>
+        <v>1902</v>
       </c>
       <c r="B826" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C826" s="1" t="s">
-        <v>387</v>
+        <v>269</v>
       </c>
       <c r="D826" s="1" t="s">
-        <v>388</v>
+        <v>270</v>
       </c>
       <c r="E826" s="1" t="s">
-        <v>389</v>
+        <v>271</v>
       </c>
       <c r="F826" s="1" t="s">
-        <v>390</v>
+        <v>272</v>
       </c>
       <c r="G826" s="1"/>
     </row>
     <row r="827" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A827" s="1" t="s">
-        <v>1933</v>
+        <v>1903</v>
       </c>
       <c r="B827" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C827" s="1" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
       <c r="D827" s="1" t="s">
-        <v>392</v>
+        <v>273</v>
       </c>
       <c r="E827" s="1" t="s">
-        <v>393</v>
+        <v>274</v>
       </c>
       <c r="F827" s="1" t="s">
-        <v>394</v>
+        <v>275</v>
       </c>
       <c r="G827" s="1"/>
     </row>
     <row r="828" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A828" s="1" t="s">
-        <v>1934</v>
+        <v>1904</v>
       </c>
       <c r="B828" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C828" s="1" t="s">
-        <v>395</v>
+        <v>276</v>
       </c>
       <c r="D828" s="1" t="s">
-        <v>396</v>
+        <v>277</v>
       </c>
       <c r="E828" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="F828" s="1" t="s">
-        <v>398</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="F828" s="1"/>
       <c r="G828" s="1"/>
     </row>
     <row r="829" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A829" s="1" t="s">
-        <v>1935</v>
+        <v>1905</v>
       </c>
       <c r="B829" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C829" s="1" t="s">
-        <v>399</v>
+        <v>279</v>
       </c>
       <c r="D829" s="1" t="s">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="E829" s="1" t="s">
-        <v>401</v>
+        <v>281</v>
       </c>
       <c r="F829" s="1" t="s">
-        <v>402</v>
+        <v>282</v>
       </c>
       <c r="G829" s="1"/>
     </row>
     <row r="830" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A830" s="1" t="s">
-        <v>1936</v>
+        <v>1906</v>
       </c>
       <c r="B830" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C830" s="1" t="s">
-        <v>403</v>
+        <v>283</v>
       </c>
       <c r="D830" s="1" t="s">
-        <v>404</v>
+        <v>284</v>
       </c>
       <c r="E830" s="1" t="s">
-        <v>405</v>
+        <v>285</v>
       </c>
       <c r="F830" s="1" t="s">
-        <v>406</v>
+        <v>286</v>
       </c>
       <c r="G830" s="1"/>
     </row>
     <row r="831" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A831" s="1" t="s">
-        <v>1937</v>
+        <v>1907</v>
       </c>
       <c r="B831" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C831" s="1" t="s">
-        <v>407</v>
+        <v>287</v>
       </c>
       <c r="D831" s="1" t="s">
-        <v>408</v>
+        <v>288</v>
       </c>
       <c r="E831" s="1" t="s">
-        <v>409</v>
+        <v>289</v>
       </c>
       <c r="F831" s="1" t="s">
-        <v>410</v>
+        <v>290</v>
       </c>
       <c r="G831" s="1"/>
     </row>
     <row r="832" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A832" s="1" t="s">
-        <v>1938</v>
+        <v>1908</v>
       </c>
       <c r="B832" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C832" s="1" t="s">
-        <v>411</v>
+        <v>291</v>
       </c>
       <c r="D832" s="1" t="s">
-        <v>412</v>
+        <v>292</v>
       </c>
       <c r="E832" s="1" t="s">
-        <v>413</v>
+        <v>293</v>
       </c>
       <c r="F832" s="1" t="s">
-        <v>414</v>
+        <v>294</v>
       </c>
       <c r="G832" s="1"/>
     </row>
     <row r="833" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A833" s="1" t="s">
-        <v>1939</v>
+        <v>1909</v>
       </c>
       <c r="B833" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C833" s="1" t="s">
-        <v>415</v>
+        <v>295</v>
       </c>
       <c r="D833" s="1" t="s">
-        <v>416</v>
+        <v>296</v>
       </c>
       <c r="E833" s="1" t="s">
-        <v>417</v>
+        <v>297</v>
       </c>
       <c r="F833" s="1" t="s">
-        <v>418</v>
+        <v>298</v>
       </c>
       <c r="G833" s="1"/>
     </row>
     <row r="834" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A834" s="1" t="s">
-        <v>1940</v>
+        <v>1910</v>
       </c>
       <c r="B834" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C834" s="1" t="s">
-        <v>419</v>
+        <v>299</v>
       </c>
       <c r="D834" s="1" t="s">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="E834" s="1" t="s">
-        <v>421</v>
+        <v>301</v>
       </c>
       <c r="F834" s="1" t="s">
-        <v>422</v>
+        <v>302</v>
       </c>
       <c r="G834" s="1"/>
     </row>
     <row r="835" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A835" s="1" t="s">
-        <v>1941</v>
+        <v>1911</v>
       </c>
       <c r="B835" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C835" s="1" t="s">
-        <v>423</v>
+        <v>303</v>
       </c>
       <c r="D835" s="1" t="s">
-        <v>424</v>
+        <v>304</v>
       </c>
       <c r="E835" s="1" t="s">
-        <v>425</v>
+        <v>305</v>
       </c>
       <c r="F835" s="1" t="s">
-        <v>426</v>
+        <v>306</v>
       </c>
       <c r="G835" s="1"/>
     </row>
     <row r="836" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A836" s="1" t="s">
-        <v>1942</v>
+        <v>1912</v>
       </c>
       <c r="B836" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C836" s="1" t="s">
-        <v>427</v>
+        <v>307</v>
       </c>
       <c r="D836" s="1" t="s">
-        <v>428</v>
+        <v>308</v>
       </c>
       <c r="E836" s="1" t="s">
-        <v>429</v>
+        <v>309</v>
       </c>
       <c r="F836" s="1" t="s">
-        <v>430</v>
+        <v>310</v>
       </c>
       <c r="G836" s="1"/>
     </row>
     <row r="837" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A837" s="1" t="s">
-        <v>1943</v>
+        <v>1913</v>
       </c>
       <c r="B837" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C837" s="1" t="s">
-        <v>431</v>
+        <v>311</v>
       </c>
       <c r="D837" s="1" t="s">
-        <v>432</v>
+        <v>312</v>
       </c>
       <c r="E837" s="1" t="s">
-        <v>433</v>
+        <v>313</v>
       </c>
       <c r="F837" s="1" t="s">
-        <v>434</v>
+        <v>314</v>
       </c>
       <c r="G837" s="1"/>
     </row>
     <row r="838" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A838" s="1" t="s">
-        <v>1944</v>
+        <v>1914</v>
       </c>
       <c r="B838" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C838" s="1" t="s">
-        <v>435</v>
+        <v>315</v>
       </c>
       <c r="D838" s="1" t="s">
-        <v>436</v>
+        <v>316</v>
       </c>
       <c r="E838" s="1" t="s">
-        <v>437</v>
+        <v>317</v>
       </c>
       <c r="F838" s="1" t="s">
-        <v>438</v>
+        <v>318</v>
       </c>
       <c r="G838" s="1"/>
     </row>
     <row r="839" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A839" s="1" t="s">
-        <v>1945</v>
+        <v>1915</v>
       </c>
       <c r="B839" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C839" s="1" t="s">
-        <v>439</v>
+        <v>319</v>
       </c>
       <c r="D839" s="1" t="s">
-        <v>440</v>
+        <v>320</v>
       </c>
       <c r="E839" s="1" t="s">
-        <v>441</v>
+        <v>321</v>
       </c>
       <c r="F839" s="1" t="s">
-        <v>442</v>
+        <v>322</v>
       </c>
       <c r="G839" s="1"/>
     </row>
     <row r="840" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A840" s="1" t="s">
-        <v>1946</v>
+        <v>1916</v>
       </c>
       <c r="B840" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C840" s="1" t="s">
-        <v>443</v>
+        <v>323</v>
       </c>
       <c r="D840" s="1" t="s">
-        <v>444</v>
+        <v>324</v>
       </c>
       <c r="E840" s="1" t="s">
-        <v>445</v>
+        <v>325</v>
       </c>
       <c r="F840" s="1" t="s">
-        <v>446</v>
+        <v>326</v>
       </c>
       <c r="G840" s="1"/>
     </row>
     <row r="841" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A841" s="1" t="s">
-        <v>1947</v>
+        <v>1917</v>
       </c>
       <c r="B841" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C841" s="1" t="s">
-        <v>447</v>
+        <v>327</v>
       </c>
       <c r="D841" s="1" t="s">
-        <v>448</v>
+        <v>328</v>
       </c>
       <c r="E841" s="1" t="s">
-        <v>449</v>
+        <v>329</v>
       </c>
       <c r="F841" s="1" t="s">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="G841" s="1"/>
     </row>
     <row r="842" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A842" s="1" t="s">
-        <v>1948</v>
+        <v>1918</v>
       </c>
       <c r="B842" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C842" s="1" t="s">
-        <v>451</v>
+        <v>331</v>
       </c>
       <c r="D842" s="1" t="s">
-        <v>452</v>
+        <v>332</v>
       </c>
       <c r="E842" s="1" t="s">
-        <v>453</v>
+        <v>333</v>
       </c>
       <c r="F842" s="1" t="s">
-        <v>454</v>
+        <v>334</v>
       </c>
       <c r="G842" s="1"/>
     </row>
     <row r="843" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A843" s="1" t="s">
-        <v>1949</v>
+        <v>1919</v>
       </c>
       <c r="B843" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C843" s="1" t="s">
-        <v>455</v>
+        <v>335</v>
       </c>
       <c r="D843" s="1" t="s">
-        <v>456</v>
+        <v>336</v>
       </c>
       <c r="E843" s="1" t="s">
-        <v>457</v>
+        <v>337</v>
       </c>
       <c r="F843" s="1" t="s">
-        <v>458</v>
+        <v>338</v>
       </c>
       <c r="G843" s="1"/>
     </row>
     <row r="844" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A844" s="1" t="s">
-        <v>1950</v>
+        <v>1920</v>
       </c>
       <c r="B844" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C844" s="1" t="s">
-        <v>459</v>
+        <v>339</v>
       </c>
       <c r="D844" s="1" t="s">
-        <v>460</v>
+        <v>340</v>
       </c>
       <c r="E844" s="1" t="s">
-        <v>461</v>
+        <v>341</v>
       </c>
       <c r="F844" s="1" t="s">
-        <v>462</v>
+        <v>342</v>
       </c>
       <c r="G844" s="1"/>
     </row>
     <row r="845" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A845" s="1" t="s">
-        <v>1951</v>
+        <v>1921</v>
       </c>
       <c r="B845" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C845" s="1" t="s">
-        <v>463</v>
+        <v>343</v>
       </c>
       <c r="D845" s="1" t="s">
-        <v>464</v>
+        <v>344</v>
       </c>
       <c r="E845" s="1" t="s">
-        <v>465</v>
+        <v>345</v>
       </c>
       <c r="F845" s="1" t="s">
-        <v>466</v>
+        <v>346</v>
       </c>
       <c r="G845" s="1"/>
     </row>
     <row r="846" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A846" s="1" t="s">
-        <v>1952</v>
+        <v>1922</v>
       </c>
       <c r="B846" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C846" s="1" t="s">
-        <v>467</v>
+        <v>347</v>
       </c>
       <c r="D846" s="1" t="s">
-        <v>468</v>
+        <v>348</v>
       </c>
       <c r="E846" s="1" t="s">
-        <v>469</v>
+        <v>349</v>
       </c>
       <c r="F846" s="1" t="s">
-        <v>470</v>
+        <v>350</v>
       </c>
       <c r="G846" s="1"/>
     </row>
     <row r="847" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A847" s="1" t="s">
-        <v>1953</v>
+        <v>1923</v>
       </c>
       <c r="B847" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C847" s="1" t="s">
-        <v>471</v>
+        <v>351</v>
       </c>
       <c r="D847" s="1" t="s">
-        <v>472</v>
+        <v>352</v>
       </c>
       <c r="E847" s="1" t="s">
-        <v>473</v>
+        <v>353</v>
       </c>
       <c r="F847" s="1" t="s">
-        <v>474</v>
+        <v>354</v>
       </c>
       <c r="G847" s="1"/>
     </row>
     <row r="848" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A848" s="1" t="s">
-        <v>1954</v>
+        <v>1924</v>
       </c>
       <c r="B848" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C848" s="1" t="s">
-        <v>475</v>
+        <v>355</v>
       </c>
       <c r="D848" s="1" t="s">
-        <v>476</v>
+        <v>356</v>
       </c>
       <c r="E848" s="1" t="s">
-        <v>477</v>
+        <v>357</v>
       </c>
       <c r="F848" s="1" t="s">
-        <v>478</v>
+        <v>358</v>
       </c>
       <c r="G848" s="1"/>
     </row>
     <row r="849" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A849" s="1" t="s">
-        <v>1955</v>
+        <v>1925</v>
       </c>
       <c r="B849" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C849" s="1" t="s">
-        <v>479</v>
+        <v>359</v>
       </c>
       <c r="D849" s="1" t="s">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="E849" s="1" t="s">
-        <v>481</v>
+        <v>361</v>
       </c>
       <c r="F849" s="1" t="s">
-        <v>482</v>
+        <v>362</v>
       </c>
       <c r="G849" s="1"/>
     </row>
     <row r="850" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A850" s="1" t="s">
-        <v>1956</v>
+        <v>1926</v>
       </c>
       <c r="B850" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C850" s="1" t="s">
-        <v>483</v>
+        <v>363</v>
       </c>
       <c r="D850" s="1" t="s">
-        <v>484</v>
+        <v>364</v>
       </c>
       <c r="E850" s="1" t="s">
-        <v>485</v>
+        <v>365</v>
       </c>
       <c r="F850" s="1" t="s">
-        <v>486</v>
+        <v>366</v>
       </c>
       <c r="G850" s="1"/>
     </row>
     <row r="851" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A851" s="1" t="s">
-        <v>1957</v>
+        <v>1927</v>
       </c>
       <c r="B851" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C851" s="1" t="s">
-        <v>487</v>
+        <v>367</v>
       </c>
       <c r="D851" s="1" t="s">
-        <v>488</v>
+        <v>368</v>
       </c>
       <c r="E851" s="1" t="s">
-        <v>489</v>
+        <v>369</v>
       </c>
       <c r="F851" s="1" t="s">
-        <v>490</v>
+        <v>370</v>
       </c>
       <c r="G851" s="1"/>
     </row>
     <row r="852" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A852" s="1" t="s">
-        <v>1958</v>
+        <v>1928</v>
       </c>
       <c r="B852" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C852" s="1" t="s">
-        <v>491</v>
+        <v>371</v>
       </c>
       <c r="D852" s="1" t="s">
-        <v>492</v>
+        <v>372</v>
       </c>
       <c r="E852" s="1" t="s">
-        <v>493</v>
+        <v>373</v>
       </c>
       <c r="F852" s="1" t="s">
-        <v>494</v>
+        <v>374</v>
       </c>
       <c r="G852" s="1"/>
     </row>
     <row r="853" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A853" s="1" t="s">
-        <v>1959</v>
+        <v>1929</v>
       </c>
       <c r="B853" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C853" s="1" t="s">
-        <v>495</v>
+        <v>375</v>
       </c>
       <c r="D853" s="1" t="s">
-        <v>496</v>
+        <v>376</v>
       </c>
       <c r="E853" s="1" t="s">
-        <v>497</v>
+        <v>377</v>
       </c>
       <c r="F853" s="1" t="s">
-        <v>498</v>
+        <v>378</v>
       </c>
       <c r="G853" s="1"/>
     </row>
     <row r="854" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A854" s="1" t="s">
-        <v>1960</v>
+        <v>1930</v>
       </c>
       <c r="B854" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C854" s="1" t="s">
-        <v>499</v>
+        <v>379</v>
       </c>
       <c r="D854" s="1" t="s">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="E854" s="1" t="s">
-        <v>501</v>
+        <v>381</v>
       </c>
       <c r="F854" s="1" t="s">
-        <v>502</v>
+        <v>382</v>
       </c>
       <c r="G854" s="1"/>
     </row>
     <row r="855" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A855" s="1" t="s">
-        <v>1961</v>
+        <v>1931</v>
       </c>
       <c r="B855" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C855" s="1" t="s">
-        <v>503</v>
+        <v>383</v>
       </c>
       <c r="D855" s="1" t="s">
-        <v>504</v>
+        <v>384</v>
       </c>
       <c r="E855" s="1" t="s">
-        <v>505</v>
+        <v>385</v>
       </c>
       <c r="F855" s="1" t="s">
-        <v>506</v>
+        <v>386</v>
       </c>
       <c r="G855" s="1"/>
     </row>
     <row r="856" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A856" s="1" t="s">
-        <v>1962</v>
+        <v>1932</v>
       </c>
       <c r="B856" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C856" s="1" t="s">
-        <v>507</v>
+        <v>387</v>
       </c>
       <c r="D856" s="1" t="s">
-        <v>508</v>
+        <v>388</v>
       </c>
       <c r="E856" s="1" t="s">
-        <v>509</v>
+        <v>389</v>
       </c>
       <c r="F856" s="1" t="s">
-        <v>510</v>
+        <v>390</v>
       </c>
       <c r="G856" s="1"/>
     </row>
     <row r="857" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A857" s="1" t="s">
-        <v>1963</v>
+        <v>1933</v>
       </c>
       <c r="B857" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C857" s="1" t="s">
-        <v>511</v>
+        <v>391</v>
       </c>
       <c r="D857" s="1" t="s">
-        <v>512</v>
+        <v>392</v>
       </c>
       <c r="E857" s="1" t="s">
-        <v>513</v>
+        <v>393</v>
       </c>
       <c r="F857" s="1" t="s">
-        <v>514</v>
+        <v>394</v>
       </c>
       <c r="G857" s="1"/>
     </row>
     <row r="858" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A858" s="1" t="s">
-        <v>1964</v>
+        <v>1934</v>
       </c>
       <c r="B858" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C858" s="1" t="s">
-        <v>515</v>
+        <v>395</v>
       </c>
       <c r="D858" s="1" t="s">
-        <v>516</v>
+        <v>396</v>
       </c>
       <c r="E858" s="1" t="s">
-        <v>517</v>
+        <v>397</v>
       </c>
       <c r="F858" s="1" t="s">
-        <v>518</v>
+        <v>398</v>
       </c>
       <c r="G858" s="1"/>
     </row>
     <row r="859" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A859" s="1" t="s">
-        <v>1965</v>
+        <v>1935</v>
       </c>
       <c r="B859" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C859" s="1" t="s">
-        <v>519</v>
+        <v>399</v>
       </c>
       <c r="D859" s="1" t="s">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="E859" s="1" t="s">
-        <v>521</v>
+        <v>401</v>
       </c>
       <c r="F859" s="1" t="s">
-        <v>522</v>
+        <v>402</v>
       </c>
       <c r="G859" s="1"/>
     </row>
     <row r="860" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A860" s="1" t="s">
-        <v>1966</v>
+        <v>1936</v>
       </c>
       <c r="B860" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C860" s="1" t="s">
-        <v>523</v>
+        <v>403</v>
       </c>
       <c r="D860" s="1" t="s">
-        <v>524</v>
+        <v>404</v>
       </c>
       <c r="E860" s="1" t="s">
-        <v>525</v>
+        <v>405</v>
       </c>
       <c r="F860" s="1" t="s">
-        <v>526</v>
+        <v>406</v>
       </c>
       <c r="G860" s="1"/>
     </row>
     <row r="861" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A861" s="1" t="s">
-        <v>1967</v>
+        <v>1937</v>
       </c>
       <c r="B861" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C861" s="1" t="s">
-        <v>527</v>
+        <v>407</v>
       </c>
       <c r="D861" s="1" t="s">
-        <v>528</v>
+        <v>408</v>
       </c>
       <c r="E861" s="1" t="s">
-        <v>529</v>
+        <v>409</v>
       </c>
       <c r="F861" s="1" t="s">
-        <v>530</v>
+        <v>410</v>
       </c>
       <c r="G861" s="1"/>
     </row>
     <row r="862" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A862" s="1" t="s">
-        <v>1968</v>
+        <v>1938</v>
       </c>
       <c r="B862" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C862" s="1" t="s">
-        <v>531</v>
+        <v>411</v>
       </c>
       <c r="D862" s="1" t="s">
-        <v>532</v>
+        <v>412</v>
       </c>
       <c r="E862" s="1" t="s">
-        <v>533</v>
+        <v>413</v>
       </c>
       <c r="F862" s="1" t="s">
-        <v>534</v>
+        <v>414</v>
       </c>
       <c r="G862" s="1"/>
     </row>
     <row r="863" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A863" s="1" t="s">
-        <v>1969</v>
+        <v>1939</v>
       </c>
       <c r="B863" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C863" s="1" t="s">
-        <v>535</v>
+        <v>415</v>
       </c>
       <c r="D863" s="1" t="s">
-        <v>536</v>
+        <v>416</v>
       </c>
       <c r="E863" s="1" t="s">
-        <v>537</v>
+        <v>417</v>
       </c>
       <c r="F863" s="1" t="s">
-        <v>538</v>
+        <v>418</v>
       </c>
       <c r="G863" s="1"/>
     </row>
     <row r="864" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A864" s="1" t="s">
-        <v>1970</v>
+        <v>1940</v>
       </c>
       <c r="B864" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C864" s="1" t="s">
-        <v>539</v>
+        <v>419</v>
       </c>
       <c r="D864" s="1" t="s">
-        <v>540</v>
+        <v>420</v>
       </c>
       <c r="E864" s="1" t="s">
-        <v>541</v>
+        <v>421</v>
       </c>
       <c r="F864" s="1" t="s">
-        <v>542</v>
+        <v>422</v>
       </c>
       <c r="G864" s="1"/>
     </row>
     <row r="865" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A865" s="1" t="s">
-        <v>1971</v>
+        <v>1941</v>
       </c>
       <c r="B865" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C865" s="1" t="s">
-        <v>543</v>
+        <v>423</v>
       </c>
       <c r="D865" s="1" t="s">
-        <v>544</v>
+        <v>424</v>
       </c>
       <c r="E865" s="1" t="s">
-        <v>545</v>
+        <v>425</v>
       </c>
       <c r="F865" s="1" t="s">
-        <v>546</v>
+        <v>426</v>
       </c>
       <c r="G865" s="1"/>
     </row>
     <row r="866" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A866" s="1" t="s">
-        <v>1972</v>
+        <v>1942</v>
       </c>
       <c r="B866" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C866" s="1" t="s">
-        <v>547</v>
+        <v>427</v>
       </c>
       <c r="D866" s="1" t="s">
-        <v>548</v>
+        <v>428</v>
       </c>
       <c r="E866" s="1" t="s">
-        <v>549</v>
+        <v>429</v>
       </c>
       <c r="F866" s="1" t="s">
-        <v>550</v>
+        <v>430</v>
       </c>
       <c r="G866" s="1"/>
     </row>
     <row r="867" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A867" s="1" t="s">
-        <v>1973</v>
+        <v>1943</v>
       </c>
       <c r="B867" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C867" s="1" t="s">
-        <v>551</v>
+        <v>431</v>
       </c>
       <c r="D867" s="1" t="s">
-        <v>552</v>
+        <v>432</v>
       </c>
       <c r="E867" s="1" t="s">
-        <v>553</v>
+        <v>433</v>
       </c>
       <c r="F867" s="1" t="s">
-        <v>554</v>
+        <v>434</v>
       </c>
       <c r="G867" s="1"/>
     </row>
     <row r="868" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A868" s="1" t="s">
-        <v>1974</v>
+        <v>1944</v>
       </c>
       <c r="B868" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C868" s="1" t="s">
-        <v>555</v>
+        <v>435</v>
       </c>
       <c r="D868" s="1" t="s">
-        <v>556</v>
+        <v>436</v>
       </c>
       <c r="E868" s="1" t="s">
-        <v>557</v>
+        <v>437</v>
       </c>
       <c r="F868" s="1" t="s">
-        <v>558</v>
+        <v>438</v>
       </c>
       <c r="G868" s="1"/>
     </row>
     <row r="869" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A869" s="1" t="s">
-        <v>1975</v>
+        <v>1945</v>
       </c>
       <c r="B869" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C869" s="1" t="s">
-        <v>559</v>
+        <v>439</v>
       </c>
       <c r="D869" s="1" t="s">
-        <v>560</v>
+        <v>440</v>
       </c>
       <c r="E869" s="1" t="s">
-        <v>561</v>
+        <v>441</v>
       </c>
       <c r="F869" s="1" t="s">
-        <v>562</v>
+        <v>442</v>
       </c>
       <c r="G869" s="1"/>
     </row>
     <row r="870" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A870" s="1" t="s">
-        <v>1976</v>
+        <v>1946</v>
       </c>
       <c r="B870" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C870" s="1" t="s">
-        <v>563</v>
+        <v>443</v>
       </c>
       <c r="D870" s="1" t="s">
-        <v>564</v>
+        <v>444</v>
       </c>
       <c r="E870" s="1" t="s">
-        <v>565</v>
+        <v>445</v>
       </c>
       <c r="F870" s="1" t="s">
-        <v>566</v>
+        <v>446</v>
       </c>
       <c r="G870" s="1"/>
     </row>
     <row r="871" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A871" s="1" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B871" s="1">
+        <v>29</v>
+      </c>
+      <c r="C871" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D871" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E871" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F871" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="G871" s="1"/>
+    </row>
+    <row r="872" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A872" s="1" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B872" s="1">
+        <v>30</v>
+      </c>
+      <c r="C872" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D872" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E872" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F872" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="G872" s="1"/>
+    </row>
+    <row r="873" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A873" s="1" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B873" s="1">
+        <v>30</v>
+      </c>
+      <c r="C873" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D873" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E873" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F873" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="G873" s="1"/>
+    </row>
+    <row r="874" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A874" s="1" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B874" s="1">
+        <v>30</v>
+      </c>
+      <c r="C874" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D874" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E874" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F874" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="G874" s="1"/>
+    </row>
+    <row r="875" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A875" s="1" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B875" s="1">
+        <v>30</v>
+      </c>
+      <c r="C875" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D875" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E875" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F875" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="G875" s="1"/>
+    </row>
+    <row r="876" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A876" s="1" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B876" s="1">
+        <v>30</v>
+      </c>
+      <c r="C876" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D876" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E876" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F876" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G876" s="1"/>
+    </row>
+    <row r="877" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A877" s="1" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B877" s="1">
+        <v>30</v>
+      </c>
+      <c r="C877" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D877" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E877" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F877" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G877" s="1"/>
+    </row>
+    <row r="878" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A878" s="1" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B878" s="1">
+        <v>30</v>
+      </c>
+      <c r="C878" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D878" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E878" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F878" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="G878" s="1"/>
+    </row>
+    <row r="879" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A879" s="1" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B879" s="1">
+        <v>30</v>
+      </c>
+      <c r="C879" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D879" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E879" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F879" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="G879" s="1"/>
+    </row>
+    <row r="880" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A880" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B880" s="1">
+        <v>30</v>
+      </c>
+      <c r="C880" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D880" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E880" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F880" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G880" s="1"/>
+    </row>
+    <row r="881" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A881" s="1" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B881" s="1">
+        <v>30</v>
+      </c>
+      <c r="C881" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D881" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E881" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F881" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G881" s="1"/>
+    </row>
+    <row r="882" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A882" s="1" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B882" s="1">
+        <v>30</v>
+      </c>
+      <c r="C882" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D882" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E882" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F882" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="G882" s="1"/>
+    </row>
+    <row r="883" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A883" s="1" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B883" s="1">
+        <v>30</v>
+      </c>
+      <c r="C883" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D883" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E883" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F883" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="G883" s="1"/>
+    </row>
+    <row r="884" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A884" s="1" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B884" s="1">
+        <v>30</v>
+      </c>
+      <c r="C884" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D884" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="E884" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F884" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="G884" s="1"/>
+    </row>
+    <row r="885" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A885" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B885" s="1">
+        <v>30</v>
+      </c>
+      <c r="C885" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D885" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E885" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F885" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G885" s="1"/>
+    </row>
+    <row r="886" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A886" s="1" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B886" s="1">
+        <v>30</v>
+      </c>
+      <c r="C886" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D886" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="E886" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F886" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="G886" s="1"/>
+    </row>
+    <row r="887" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A887" s="1" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B887" s="1">
+        <v>30</v>
+      </c>
+      <c r="C887" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D887" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E887" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F887" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="G887" s="1"/>
+    </row>
+    <row r="888" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A888" s="1" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B888" s="1">
+        <v>30</v>
+      </c>
+      <c r="C888" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D888" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E888" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="F888" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="G888" s="1"/>
+    </row>
+    <row r="889" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A889" s="1" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B889" s="1">
+        <v>30</v>
+      </c>
+      <c r="C889" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D889" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E889" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F889" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G889" s="1"/>
+    </row>
+    <row r="890" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A890" s="1" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B890" s="1">
+        <v>30</v>
+      </c>
+      <c r="C890" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D890" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E890" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="F890" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="G890" s="1"/>
+    </row>
+    <row r="891" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A891" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B891" s="1">
+        <v>30</v>
+      </c>
+      <c r="C891" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D891" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E891" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F891" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="G891" s="1"/>
+    </row>
+    <row r="892" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A892" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B892" s="1">
+        <v>30</v>
+      </c>
+      <c r="C892" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D892" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E892" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F892" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="G892" s="1"/>
+    </row>
+    <row r="893" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A893" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B893" s="1">
+        <v>30</v>
+      </c>
+      <c r="C893" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D893" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="E893" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F893" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="G893" s="1"/>
+    </row>
+    <row r="894" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A894" s="1" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B894" s="1">
+        <v>30</v>
+      </c>
+      <c r="C894" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D894" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E894" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="F894" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="G894" s="1"/>
+    </row>
+    <row r="895" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A895" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B895" s="1">
+        <v>30</v>
+      </c>
+      <c r="C895" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D895" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="E895" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F895" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="G895" s="1"/>
+    </row>
+    <row r="896" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A896" s="1" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B896" s="1">
+        <v>30</v>
+      </c>
+      <c r="C896" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D896" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E896" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F896" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="G896" s="1"/>
+    </row>
+    <row r="897" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A897" s="1" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B897" s="1">
+        <v>30</v>
+      </c>
+      <c r="C897" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D897" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E897" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F897" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="G897" s="1"/>
+    </row>
+    <row r="898" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A898" s="1" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B898" s="1">
+        <v>30</v>
+      </c>
+      <c r="C898" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D898" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E898" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F898" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="G898" s="1"/>
+    </row>
+    <row r="899" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A899" s="1" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B899" s="1">
+        <v>30</v>
+      </c>
+      <c r="C899" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D899" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E899" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F899" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="G899" s="1"/>
+    </row>
+    <row r="900" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A900" s="1" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B900" s="1">
+        <v>30</v>
+      </c>
+      <c r="C900" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D900" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E900" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F900" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="G900" s="1"/>
+    </row>
+    <row r="901" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A901" s="1" t="s">
         <v>1977</v>
       </c>
-      <c r="B871" s="1">
+      <c r="B901" s="1">
         <v>30</v>
       </c>
-      <c r="C871" s="1" t="s">
+      <c r="C901" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D871" s="1" t="s">
+      <c r="D901" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="E871" s="1" t="s">
+      <c r="E901" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="F871" s="1" t="s">
+      <c r="F901" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="G871" s="1"/>
+      <c r="G901" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/data/WordStudy.xlsx
+++ b/data/WordStudy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dom/Documents/Dom/english-app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06F8F9F-D116-9244-BA32-D8837F9BDF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9DC9B5-C07C-E748-8B8D-AB1C870F3F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11540" yWindow="500" windowWidth="22060" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12780" yWindow="500" windowWidth="20820" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5254" uniqueCount="4442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5434" uniqueCount="4592">
   <si>
     <t>ID</t>
   </si>
@@ -13356,6 +13356,456 @@
   </si>
   <si>
     <t>speak clearly</t>
+  </si>
+  <si>
+    <t>U31_01</t>
+  </si>
+  <si>
+    <t>Ví</t>
+  </si>
+  <si>
+    <t>Purse</t>
+  </si>
+  <si>
+    <t>You can carry your purse in the store</t>
+  </si>
+  <si>
+    <t>carry a purse / mang theo ví</t>
+  </si>
+  <si>
+    <t>U31_02</t>
+  </si>
+  <si>
+    <t>U31_03</t>
+  </si>
+  <si>
+    <t>U31_04</t>
+  </si>
+  <si>
+    <t>U31_05</t>
+  </si>
+  <si>
+    <t>U31_06</t>
+  </si>
+  <si>
+    <t>U31_07</t>
+  </si>
+  <si>
+    <t>U31_08</t>
+  </si>
+  <si>
+    <t>U31_09</t>
+  </si>
+  <si>
+    <t>U31_10</t>
+  </si>
+  <si>
+    <t>cắt giảm</t>
+  </si>
+  <si>
+    <t>Cut back on</t>
+  </si>
+  <si>
+    <t>The company has cut back on employees</t>
+  </si>
+  <si>
+    <t>cut back on something</t>
+  </si>
+  <si>
+    <t>Quà lưu niệm</t>
+  </si>
+  <si>
+    <t>Souvenir</t>
+  </si>
+  <si>
+    <t>Let's buy a gift at the souvenir shop</t>
+  </si>
+  <si>
+    <t>A souvenir shop</t>
+  </si>
+  <si>
+    <t>Món đồ</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>I'm missing an item in my order</t>
+  </si>
+  <si>
+    <t>missing an item / thiếu một món đồ</t>
+  </si>
+  <si>
+    <t>Trao đổi</t>
+  </si>
+  <si>
+    <t>Exchange</t>
+  </si>
+  <si>
+    <t>Can you exchange US dollars for Vietnamese dong?</t>
+  </si>
+  <si>
+    <t>exchange something for something</t>
+  </si>
+  <si>
+    <t>Lấy lại, nhận lại</t>
+  </si>
+  <si>
+    <t>Take back</t>
+  </si>
+  <si>
+    <t>the shop can take back faulty products</t>
+  </si>
+  <si>
+    <t>Take back something / nhận lại cái gì đó</t>
+  </si>
+  <si>
+    <t>Hoàn tiền</t>
+  </si>
+  <si>
+    <t>Refund</t>
+  </si>
+  <si>
+    <t>I will get a refund for the canceled flight</t>
+  </si>
+  <si>
+    <t>get a refund / được hoàn lại tiền</t>
+  </si>
+  <si>
+    <t>Nhập khẩu</t>
+  </si>
+  <si>
+    <t>Import</t>
+  </si>
+  <si>
+    <t>Our restaurant imports meat from overseas</t>
+  </si>
+  <si>
+    <t>import something from somewhere</t>
+  </si>
+  <si>
+    <t>Việc giao hàng</t>
+  </si>
+  <si>
+    <t>Delivery</t>
+  </si>
+  <si>
+    <t>Will you accept cash on delivery?</t>
+  </si>
+  <si>
+    <t>cash on delivery / thanh toán khi giao hàng</t>
+  </si>
+  <si>
+    <t>Nhận</t>
+  </si>
+  <si>
+    <t>Receive</t>
+  </si>
+  <si>
+    <t>They will receive the letter by tomorrow</t>
+  </si>
+  <si>
+    <t>Receive something</t>
+  </si>
+  <si>
+    <t>U31_11</t>
+  </si>
+  <si>
+    <t>U31_12</t>
+  </si>
+  <si>
+    <t>U31_13</t>
+  </si>
+  <si>
+    <t>U31_14</t>
+  </si>
+  <si>
+    <t>U31_15</t>
+  </si>
+  <si>
+    <t>U31_16</t>
+  </si>
+  <si>
+    <t>U31_17</t>
+  </si>
+  <si>
+    <t>U31_18</t>
+  </si>
+  <si>
+    <t>U31_19</t>
+  </si>
+  <si>
+    <t>U31_20</t>
+  </si>
+  <si>
+    <t>Trung tâm thương mại</t>
+  </si>
+  <si>
+    <t>Mall</t>
+  </si>
+  <si>
+    <t>The countryside only has one shopping mall</t>
+  </si>
+  <si>
+    <t>a shopping mall / một trung tâm mua sắm</t>
+  </si>
+  <si>
+    <t>Khuyến mãi, thỏa thuận</t>
+  </si>
+  <si>
+    <t>Business people make deals every day</t>
+  </si>
+  <si>
+    <t>deal</t>
+  </si>
+  <si>
+    <t>make a deal / đàm phán thỏa thuận</t>
+  </si>
+  <si>
+    <t>Đi khảo giá</t>
+  </si>
+  <si>
+    <t>Shop around</t>
+  </si>
+  <si>
+    <t>He takes his time shopping around for the best price</t>
+  </si>
+  <si>
+    <t>shop around for the best price / đi khảo giá để tìm mức giá tốt nhất</t>
+  </si>
+  <si>
+    <t>Chương trình khuyến mãi</t>
+  </si>
+  <si>
+    <t>Promotion</t>
+  </si>
+  <si>
+    <t>We are doing a special promotion</t>
+  </si>
+  <si>
+    <t>a special promotion</t>
+  </si>
+  <si>
+    <t>Chất lượng</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>My old shoes are of poor quality</t>
+  </si>
+  <si>
+    <t>poor quality / chất lượng kém</t>
+  </si>
+  <si>
+    <t>Giả</t>
+  </si>
+  <si>
+    <t>Fake</t>
+  </si>
+  <si>
+    <t>I accidentally bought a fake bag / tôi vô tình…</t>
+  </si>
+  <si>
+    <t>a fake bag</t>
+  </si>
+  <si>
+    <t>Mua</t>
+  </si>
+  <si>
+    <t>Purchase</t>
+  </si>
+  <si>
+    <t>They have enough money to purchase a car</t>
+  </si>
+  <si>
+    <t>purchase something</t>
+  </si>
+  <si>
+    <t>Khoản thanh toán</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>which payment method do you prefer?</t>
+  </si>
+  <si>
+    <t>Payment method</t>
+  </si>
+  <si>
+    <t>Phiếu giảm giá</t>
+  </si>
+  <si>
+    <t>Coupon</t>
+  </si>
+  <si>
+    <t>You can get discount coupons in the newspapers</t>
+  </si>
+  <si>
+    <t>a discount coupon</t>
+  </si>
+  <si>
+    <t>Bán hết sạch</t>
+  </si>
+  <si>
+    <t>Sell out</t>
+  </si>
+  <si>
+    <t>The theater quickly sold out of tickets</t>
+  </si>
+  <si>
+    <t>Sell out of tickets</t>
+  </si>
+  <si>
+    <t>U31_21</t>
+  </si>
+  <si>
+    <t>U31_22</t>
+  </si>
+  <si>
+    <t>U31_23</t>
+  </si>
+  <si>
+    <t>U31_24</t>
+  </si>
+  <si>
+    <t>U31_25</t>
+  </si>
+  <si>
+    <t>U31_26</t>
+  </si>
+  <si>
+    <t>U31_27</t>
+  </si>
+  <si>
+    <t>U31_28</t>
+  </si>
+  <si>
+    <t>U31_29</t>
+  </si>
+  <si>
+    <t>U31_30</t>
+  </si>
+  <si>
+    <t>Nhãn hàng</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Nike is a well-known brand for shoes</t>
+  </si>
+  <si>
+    <t>a well-known brand / một thương hiệu nổi tiếng</t>
+  </si>
+  <si>
+    <t>Gói hàng</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>A large package has arrived for you</t>
+  </si>
+  <si>
+    <t>A large package</t>
+  </si>
+  <si>
+    <t>Nhãn hiệu</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Always read the label carefully!</t>
+  </si>
+  <si>
+    <t>read the label / đọc nhãn hiệu</t>
+  </si>
+  <si>
+    <t>Lượng lớn, bó</t>
+  </si>
+  <si>
+    <t>Bunch</t>
+  </si>
+  <si>
+    <t>She bought a bunch of flowers for her mom</t>
+  </si>
+  <si>
+    <t>a bunch of something</t>
+  </si>
+  <si>
+    <t>Quầy thanh toán</t>
+  </si>
+  <si>
+    <t>Checkout</t>
+  </si>
+  <si>
+    <t>We pay for the items at the checkout</t>
+  </si>
+  <si>
+    <t>at the checkout / tại quầy thanh toán</t>
+  </si>
+  <si>
+    <t>yêu cầu</t>
+  </si>
+  <si>
+    <t>Request</t>
+  </si>
+  <si>
+    <t>I requested some information from the office</t>
+  </si>
+  <si>
+    <t>request something from somebody</t>
+  </si>
+  <si>
+    <t>Xếp hàng</t>
+  </si>
+  <si>
+    <t>Line up</t>
+  </si>
+  <si>
+    <t>The captain lined up the soldiers for the training</t>
+  </si>
+  <si>
+    <t>Line up something or somebody</t>
+  </si>
+  <si>
+    <t>Giỏ hàng</t>
+  </si>
+  <si>
+    <t>Cart</t>
+  </si>
+  <si>
+    <t>My shopping cart is full of food</t>
+  </si>
+  <si>
+    <t>A shopping cart</t>
+  </si>
+  <si>
+    <t>Nhân viên thu ngân</t>
+  </si>
+  <si>
+    <t>Cashier</t>
+  </si>
+  <si>
+    <t>You can checkout with the supermarket cashier</t>
+  </si>
+  <si>
+    <t>a supermarket cashier</t>
+  </si>
+  <si>
+    <t>Bán</t>
+  </si>
+  <si>
+    <t>Sell</t>
+  </si>
+  <si>
+    <t>He sells ice cream for children in our neighborhood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sell something </t>
   </si>
 </sst>
 </file>
@@ -13720,20 +14170,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G901"/>
+  <dimension ref="A1:G931"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A728" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C752" sqref="C752"/>
+    <sheetView tabSelected="1" topLeftCell="B903" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E932" sqref="E932"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -31028,9 +31479,8 @@
       <c r="F752" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G752" s="1"/>
-    </row>
-    <row r="753" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="753" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A753" s="1" t="s">
         <v>1829</v>
       </c>
@@ -31049,9 +31499,8 @@
       <c r="F753" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G753" s="1"/>
-    </row>
-    <row r="754" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="754" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A754" s="1" t="s">
         <v>1830</v>
       </c>
@@ -31070,9 +31519,8 @@
       <c r="F754" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G754" s="1"/>
-    </row>
-    <row r="755" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="755" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A755" s="1" t="s">
         <v>1831</v>
       </c>
@@ -31091,9 +31539,8 @@
       <c r="F755" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G755" s="1"/>
-    </row>
-    <row r="756" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="756" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A756" s="1" t="s">
         <v>1832</v>
       </c>
@@ -31112,9 +31559,8 @@
       <c r="F756" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G756" s="1"/>
-    </row>
-    <row r="757" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="757" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A757" s="1" t="s">
         <v>1833</v>
       </c>
@@ -31133,9 +31579,8 @@
       <c r="F757" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G757" s="1"/>
-    </row>
-    <row r="758" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="758" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A758" s="1" t="s">
         <v>1834</v>
       </c>
@@ -31154,9 +31599,8 @@
       <c r="F758" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G758" s="1"/>
-    </row>
-    <row r="759" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="759" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A759" s="1" t="s">
         <v>1835</v>
       </c>
@@ -31175,9 +31619,8 @@
       <c r="F759" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G759" s="1"/>
-    </row>
-    <row r="760" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="760" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A760" s="1" t="s">
         <v>1836</v>
       </c>
@@ -31196,9 +31639,8 @@
       <c r="F760" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G760" s="1"/>
-    </row>
-    <row r="761" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="761" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A761" s="1" t="s">
         <v>1837</v>
       </c>
@@ -31217,9 +31659,8 @@
       <c r="F761" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G761" s="1"/>
-    </row>
-    <row r="762" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="762" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A762" s="1" t="s">
         <v>1838</v>
       </c>
@@ -31238,9 +31679,8 @@
       <c r="F762" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G762" s="1"/>
-    </row>
-    <row r="763" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="763" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A763" s="1" t="s">
         <v>1839</v>
       </c>
@@ -31259,9 +31699,8 @@
       <c r="F763" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G763" s="1"/>
-    </row>
-    <row r="764" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="764" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A764" s="1" t="s">
         <v>1840</v>
       </c>
@@ -31280,9 +31719,8 @@
       <c r="F764" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G764" s="1"/>
-    </row>
-    <row r="765" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="765" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A765" s="1" t="s">
         <v>1841</v>
       </c>
@@ -31301,9 +31739,8 @@
       <c r="F765" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G765" s="1"/>
-    </row>
-    <row r="766" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="766" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A766" s="1" t="s">
         <v>1842</v>
       </c>
@@ -31322,9 +31759,8 @@
       <c r="F766" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G766" s="1"/>
-    </row>
-    <row r="767" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="767" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A767" s="1" t="s">
         <v>1843</v>
       </c>
@@ -31343,9 +31779,8 @@
       <c r="F767" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G767" s="1"/>
-    </row>
-    <row r="768" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="768" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A768" s="1" t="s">
         <v>1844</v>
       </c>
@@ -31364,9 +31799,8 @@
       <c r="F768" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G768" s="1"/>
-    </row>
-    <row r="769" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="769" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A769" s="1" t="s">
         <v>1845</v>
       </c>
@@ -31385,9 +31819,8 @@
       <c r="F769" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G769" s="1"/>
-    </row>
-    <row r="770" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="770" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A770" s="1" t="s">
         <v>1846</v>
       </c>
@@ -31406,9 +31839,8 @@
       <c r="F770" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G770" s="1"/>
-    </row>
-    <row r="771" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="771" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A771" s="1" t="s">
         <v>1847</v>
       </c>
@@ -31427,9 +31859,8 @@
       <c r="F771" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G771" s="1"/>
-    </row>
-    <row r="772" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="772" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A772" s="1" t="s">
         <v>1848</v>
       </c>
@@ -31448,9 +31879,8 @@
       <c r="F772" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G772" s="1"/>
-    </row>
-    <row r="773" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="773" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A773" s="1" t="s">
         <v>1849</v>
       </c>
@@ -31469,9 +31899,8 @@
       <c r="F773" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G773" s="1"/>
-    </row>
-    <row r="774" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="774" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A774" s="1" t="s">
         <v>1850</v>
       </c>
@@ -31490,9 +31919,8 @@
       <c r="F774" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G774" s="1"/>
-    </row>
-    <row r="775" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="775" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A775" s="1" t="s">
         <v>1851</v>
       </c>
@@ -31511,9 +31939,8 @@
       <c r="F775" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G775" s="1"/>
-    </row>
-    <row r="776" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="776" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A776" s="1" t="s">
         <v>1852</v>
       </c>
@@ -31532,9 +31959,8 @@
       <c r="F776" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G776" s="1"/>
-    </row>
-    <row r="777" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="777" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A777" s="1" t="s">
         <v>1853</v>
       </c>
@@ -31553,9 +31979,8 @@
       <c r="F777" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G777" s="1"/>
-    </row>
-    <row r="778" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="778" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A778" s="1" t="s">
         <v>1854</v>
       </c>
@@ -31574,9 +31999,8 @@
       <c r="F778" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G778" s="1"/>
-    </row>
-    <row r="779" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="779" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A779" s="1" t="s">
         <v>1855</v>
       </c>
@@ -31595,9 +32019,8 @@
       <c r="F779" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G779" s="1"/>
-    </row>
-    <row r="780" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="780" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A780" s="1" t="s">
         <v>1856</v>
       </c>
@@ -31616,9 +32039,8 @@
       <c r="F780" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G780" s="1"/>
-    </row>
-    <row r="781" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="781" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A781" s="1" t="s">
         <v>1857</v>
       </c>
@@ -31637,9 +32059,8 @@
       <c r="F781" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G781" s="1"/>
-    </row>
-    <row r="782" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="782" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A782" s="1" t="s">
         <v>1858</v>
       </c>
@@ -31658,9 +32079,8 @@
       <c r="F782" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G782" s="1"/>
-    </row>
-    <row r="783" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="783" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A783" s="1" t="s">
         <v>1859</v>
       </c>
@@ -31679,9 +32099,8 @@
       <c r="F783" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G783" s="1"/>
-    </row>
-    <row r="784" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="784" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A784" s="1" t="s">
         <v>1860</v>
       </c>
@@ -31700,9 +32119,8 @@
       <c r="F784" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G784" s="1"/>
-    </row>
-    <row r="785" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="785" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A785" s="1" t="s">
         <v>1861</v>
       </c>
@@ -31721,9 +32139,8 @@
       <c r="F785" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G785" s="1"/>
-    </row>
-    <row r="786" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="786" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A786" s="1" t="s">
         <v>1862</v>
       </c>
@@ -31742,9 +32159,8 @@
       <c r="F786" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G786" s="1"/>
-    </row>
-    <row r="787" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="787" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A787" s="1" t="s">
         <v>1863</v>
       </c>
@@ -31763,9 +32179,8 @@
       <c r="F787" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G787" s="1"/>
-    </row>
-    <row r="788" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="788" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A788" s="1" t="s">
         <v>1864</v>
       </c>
@@ -31784,9 +32199,8 @@
       <c r="F788" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G788" s="1"/>
-    </row>
-    <row r="789" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="789" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A789" s="1" t="s">
         <v>1865</v>
       </c>
@@ -31805,9 +32219,8 @@
       <c r="F789" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G789" s="1"/>
-    </row>
-    <row r="790" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="790" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A790" s="1" t="s">
         <v>1866</v>
       </c>
@@ -31826,9 +32239,8 @@
       <c r="F790" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G790" s="1"/>
-    </row>
-    <row r="791" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="791" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A791" s="1" t="s">
         <v>1867</v>
       </c>
@@ -31847,9 +32259,8 @@
       <c r="F791" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G791" s="1"/>
-    </row>
-    <row r="792" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="792" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A792" s="1" t="s">
         <v>1868</v>
       </c>
@@ -31868,9 +32279,8 @@
       <c r="F792" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G792" s="1"/>
-    </row>
-    <row r="793" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="793" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A793" s="1" t="s">
         <v>1869</v>
       </c>
@@ -31889,9 +32299,8 @@
       <c r="F793" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G793" s="1"/>
-    </row>
-    <row r="794" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="794" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A794" s="1" t="s">
         <v>1870</v>
       </c>
@@ -31910,9 +32319,8 @@
       <c r="F794" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G794" s="1"/>
-    </row>
-    <row r="795" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="795" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A795" s="1" t="s">
         <v>1871</v>
       </c>
@@ -31931,9 +32339,8 @@
       <c r="F795" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G795" s="1"/>
-    </row>
-    <row r="796" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="796" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A796" s="1" t="s">
         <v>1872</v>
       </c>
@@ -31952,9 +32359,8 @@
       <c r="F796" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G796" s="1"/>
-    </row>
-    <row r="797" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="797" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A797" s="1" t="s">
         <v>1873</v>
       </c>
@@ -31973,9 +32379,8 @@
       <c r="F797" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="G797" s="1"/>
-    </row>
-    <row r="798" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="798" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A798" s="1" t="s">
         <v>1874</v>
       </c>
@@ -31994,9 +32399,8 @@
       <c r="F798" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G798" s="1"/>
-    </row>
-    <row r="799" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="799" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A799" s="1" t="s">
         <v>1875</v>
       </c>
@@ -32015,9 +32419,8 @@
       <c r="F799" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G799" s="1"/>
-    </row>
-    <row r="800" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="800" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A800" s="1" t="s">
         <v>1876</v>
       </c>
@@ -32036,9 +32439,8 @@
       <c r="F800" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G800" s="1"/>
-    </row>
-    <row r="801" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="801" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A801" s="1" t="s">
         <v>1877</v>
       </c>
@@ -32057,9 +32459,8 @@
       <c r="F801" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="G801" s="1"/>
-    </row>
-    <row r="802" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="802" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A802" s="1" t="s">
         <v>1878</v>
       </c>
@@ -32078,9 +32479,8 @@
       <c r="F802" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="G802" s="1"/>
-    </row>
-    <row r="803" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="803" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A803" s="1" t="s">
         <v>1879</v>
       </c>
@@ -32099,9 +32499,8 @@
       <c r="F803" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="G803" s="1"/>
-    </row>
-    <row r="804" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="804" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A804" s="1" t="s">
         <v>1880</v>
       </c>
@@ -32120,9 +32519,8 @@
       <c r="F804" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="G804" s="1"/>
-    </row>
-    <row r="805" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="805" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A805" s="1" t="s">
         <v>1881</v>
       </c>
@@ -32141,9 +32539,8 @@
       <c r="F805" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G805" s="1"/>
-    </row>
-    <row r="806" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="806" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A806" s="1" t="s">
         <v>1882</v>
       </c>
@@ -32162,9 +32559,8 @@
       <c r="F806" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="G806" s="1"/>
-    </row>
-    <row r="807" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="807" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A807" s="1" t="s">
         <v>1883</v>
       </c>
@@ -32183,9 +32579,8 @@
       <c r="F807" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G807" s="1"/>
-    </row>
-    <row r="808" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="808" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A808" s="1" t="s">
         <v>1884</v>
       </c>
@@ -32204,9 +32599,8 @@
       <c r="F808" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G808" s="1"/>
-    </row>
-    <row r="809" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="809" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A809" s="1" t="s">
         <v>1885</v>
       </c>
@@ -32225,9 +32619,8 @@
       <c r="F809" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G809" s="1"/>
-    </row>
-    <row r="810" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="810" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A810" s="1" t="s">
         <v>1886</v>
       </c>
@@ -32246,9 +32639,8 @@
       <c r="F810" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G810" s="1"/>
-    </row>
-    <row r="811" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="811" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A811" s="1" t="s">
         <v>1887</v>
       </c>
@@ -32267,9 +32659,8 @@
       <c r="F811" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="G811" s="1"/>
-    </row>
-    <row r="812" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="812" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A812" s="1" t="s">
         <v>1888</v>
       </c>
@@ -32288,9 +32679,8 @@
       <c r="F812" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G812" s="1"/>
-    </row>
-    <row r="813" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="813" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A813" s="1" t="s">
         <v>1889</v>
       </c>
@@ -32309,9 +32699,8 @@
       <c r="F813" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="G813" s="1"/>
-    </row>
-    <row r="814" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="814" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A814" s="1" t="s">
         <v>1890</v>
       </c>
@@ -32330,9 +32719,8 @@
       <c r="F814" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G814" s="1"/>
-    </row>
-    <row r="815" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="815" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A815" s="1" t="s">
         <v>1891</v>
       </c>
@@ -32351,9 +32739,8 @@
       <c r="F815" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="G815" s="1"/>
-    </row>
-    <row r="816" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="816" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A816" s="1" t="s">
         <v>1892</v>
       </c>
@@ -32372,9 +32759,8 @@
       <c r="F816" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G816" s="1"/>
-    </row>
-    <row r="817" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="817" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A817" s="1" t="s">
         <v>1893</v>
       </c>
@@ -32393,9 +32779,8 @@
       <c r="F817" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="G817" s="1"/>
-    </row>
-    <row r="818" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="818" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A818" s="1" t="s">
         <v>1894</v>
       </c>
@@ -32414,9 +32799,8 @@
       <c r="F818" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="G818" s="1"/>
-    </row>
-    <row r="819" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="819" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A819" s="1" t="s">
         <v>1895</v>
       </c>
@@ -32435,9 +32819,8 @@
       <c r="F819" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="G819" s="1"/>
-    </row>
-    <row r="820" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="820" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A820" s="1" t="s">
         <v>1896</v>
       </c>
@@ -32456,9 +32839,8 @@
       <c r="F820" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G820" s="1"/>
-    </row>
-    <row r="821" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="821" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A821" s="1" t="s">
         <v>1897</v>
       </c>
@@ -32477,9 +32859,8 @@
       <c r="F821" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="G821" s="1"/>
-    </row>
-    <row r="822" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="822" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A822" s="1" t="s">
         <v>1898</v>
       </c>
@@ -32498,9 +32879,8 @@
       <c r="F822" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="G822" s="1"/>
-    </row>
-    <row r="823" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="823" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A823" s="1" t="s">
         <v>1899</v>
       </c>
@@ -32513,11 +32893,8 @@
       <c r="D823" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E823" s="1"/>
-      <c r="F823" s="1"/>
-      <c r="G823" s="1"/>
-    </row>
-    <row r="824" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="824" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A824" s="1" t="s">
         <v>1900</v>
       </c>
@@ -32536,9 +32913,8 @@
       <c r="F824" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="G824" s="1"/>
-    </row>
-    <row r="825" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="825" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A825" s="1" t="s">
         <v>1901</v>
       </c>
@@ -32557,9 +32933,8 @@
       <c r="F825" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="G825" s="1"/>
-    </row>
-    <row r="826" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="826" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A826" s="1" t="s">
         <v>1902</v>
       </c>
@@ -32578,9 +32953,8 @@
       <c r="F826" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="G826" s="1"/>
-    </row>
-    <row r="827" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="827" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A827" s="1" t="s">
         <v>1903</v>
       </c>
@@ -32599,9 +32973,8 @@
       <c r="F827" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="G827" s="1"/>
-    </row>
-    <row r="828" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="828" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A828" s="1" t="s">
         <v>1904</v>
       </c>
@@ -32617,10 +32990,8 @@
       <c r="E828" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="F828" s="1"/>
-      <c r="G828" s="1"/>
-    </row>
-    <row r="829" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="829" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A829" s="1" t="s">
         <v>1905</v>
       </c>
@@ -32639,9 +33010,8 @@
       <c r="F829" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="G829" s="1"/>
-    </row>
-    <row r="830" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="830" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A830" s="1" t="s">
         <v>1906</v>
       </c>
@@ -32660,9 +33030,8 @@
       <c r="F830" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="G830" s="1"/>
-    </row>
-    <row r="831" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="831" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A831" s="1" t="s">
         <v>1907</v>
       </c>
@@ -32681,9 +33050,8 @@
       <c r="F831" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="G831" s="1"/>
-    </row>
-    <row r="832" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="832" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A832" s="1" t="s">
         <v>1908</v>
       </c>
@@ -32702,9 +33070,8 @@
       <c r="F832" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="G832" s="1"/>
-    </row>
-    <row r="833" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="833" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A833" s="1" t="s">
         <v>1909</v>
       </c>
@@ -32723,9 +33090,8 @@
       <c r="F833" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="G833" s="1"/>
-    </row>
-    <row r="834" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="834" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A834" s="1" t="s">
         <v>1910</v>
       </c>
@@ -32744,9 +33110,8 @@
       <c r="F834" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="G834" s="1"/>
-    </row>
-    <row r="835" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="835" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A835" s="1" t="s">
         <v>1911</v>
       </c>
@@ -32765,9 +33130,8 @@
       <c r="F835" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="G835" s="1"/>
-    </row>
-    <row r="836" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="836" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A836" s="1" t="s">
         <v>1912</v>
       </c>
@@ -32786,9 +33150,8 @@
       <c r="F836" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="G836" s="1"/>
-    </row>
-    <row r="837" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="837" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A837" s="1" t="s">
         <v>1913</v>
       </c>
@@ -32807,9 +33170,8 @@
       <c r="F837" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="G837" s="1"/>
-    </row>
-    <row r="838" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="838" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A838" s="1" t="s">
         <v>1914</v>
       </c>
@@ -32828,9 +33190,8 @@
       <c r="F838" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="G838" s="1"/>
-    </row>
-    <row r="839" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="839" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A839" s="1" t="s">
         <v>1915</v>
       </c>
@@ -32849,9 +33210,8 @@
       <c r="F839" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="G839" s="1"/>
-    </row>
-    <row r="840" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="840" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A840" s="1" t="s">
         <v>1916</v>
       </c>
@@ -32870,9 +33230,8 @@
       <c r="F840" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="G840" s="1"/>
-    </row>
-    <row r="841" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="841" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A841" s="1" t="s">
         <v>1917</v>
       </c>
@@ -32891,9 +33250,8 @@
       <c r="F841" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="G841" s="1"/>
-    </row>
-    <row r="842" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="842" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A842" s="1" t="s">
         <v>1918</v>
       </c>
@@ -32912,9 +33270,8 @@
       <c r="F842" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G842" s="1"/>
-    </row>
-    <row r="843" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="843" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A843" s="1" t="s">
         <v>1919</v>
       </c>
@@ -32933,9 +33290,8 @@
       <c r="F843" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="G843" s="1"/>
-    </row>
-    <row r="844" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="844" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A844" s="1" t="s">
         <v>1920</v>
       </c>
@@ -32954,9 +33310,8 @@
       <c r="F844" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="G844" s="1"/>
-    </row>
-    <row r="845" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="845" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A845" s="1" t="s">
         <v>1921</v>
       </c>
@@ -32975,9 +33330,8 @@
       <c r="F845" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="G845" s="1"/>
-    </row>
-    <row r="846" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="846" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A846" s="1" t="s">
         <v>1922</v>
       </c>
@@ -32996,9 +33350,8 @@
       <c r="F846" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="G846" s="1"/>
-    </row>
-    <row r="847" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="847" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A847" s="1" t="s">
         <v>1923</v>
       </c>
@@ -33017,9 +33370,8 @@
       <c r="F847" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="G847" s="1"/>
-    </row>
-    <row r="848" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="848" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A848" s="1" t="s">
         <v>1924</v>
       </c>
@@ -33038,9 +33390,8 @@
       <c r="F848" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="G848" s="1"/>
-    </row>
-    <row r="849" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="849" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A849" s="1" t="s">
         <v>1925</v>
       </c>
@@ -33059,9 +33410,8 @@
       <c r="F849" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="G849" s="1"/>
-    </row>
-    <row r="850" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="850" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A850" s="1" t="s">
         <v>1926</v>
       </c>
@@ -33080,9 +33430,8 @@
       <c r="F850" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="G850" s="1"/>
-    </row>
-    <row r="851" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="851" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A851" s="1" t="s">
         <v>1927</v>
       </c>
@@ -33101,9 +33450,8 @@
       <c r="F851" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G851" s="1"/>
-    </row>
-    <row r="852" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="852" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A852" s="1" t="s">
         <v>1928</v>
       </c>
@@ -33122,9 +33470,8 @@
       <c r="F852" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="G852" s="1"/>
-    </row>
-    <row r="853" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="853" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A853" s="1" t="s">
         <v>1929</v>
       </c>
@@ -33143,9 +33490,8 @@
       <c r="F853" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="G853" s="1"/>
-    </row>
-    <row r="854" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="854" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A854" s="1" t="s">
         <v>1930</v>
       </c>
@@ -33164,9 +33510,8 @@
       <c r="F854" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="G854" s="1"/>
-    </row>
-    <row r="855" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="855" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A855" s="1" t="s">
         <v>1931</v>
       </c>
@@ -33185,9 +33530,8 @@
       <c r="F855" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="G855" s="1"/>
-    </row>
-    <row r="856" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="856" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A856" s="1" t="s">
         <v>1932</v>
       </c>
@@ -33206,9 +33550,8 @@
       <c r="F856" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="G856" s="1"/>
-    </row>
-    <row r="857" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="857" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A857" s="1" t="s">
         <v>1933</v>
       </c>
@@ -33227,9 +33570,8 @@
       <c r="F857" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="G857" s="1"/>
-    </row>
-    <row r="858" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="858" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A858" s="1" t="s">
         <v>1934</v>
       </c>
@@ -33248,9 +33590,8 @@
       <c r="F858" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="G858" s="1"/>
-    </row>
-    <row r="859" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="859" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A859" s="1" t="s">
         <v>1935</v>
       </c>
@@ -33269,9 +33610,8 @@
       <c r="F859" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="G859" s="1"/>
-    </row>
-    <row r="860" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="860" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A860" s="1" t="s">
         <v>1936</v>
       </c>
@@ -33290,9 +33630,8 @@
       <c r="F860" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="G860" s="1"/>
-    </row>
-    <row r="861" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="861" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A861" s="1" t="s">
         <v>1937</v>
       </c>
@@ -33311,9 +33650,8 @@
       <c r="F861" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G861" s="1"/>
-    </row>
-    <row r="862" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="862" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A862" s="1" t="s">
         <v>1938</v>
       </c>
@@ -33332,9 +33670,8 @@
       <c r="F862" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="G862" s="1"/>
-    </row>
-    <row r="863" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="863" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A863" s="1" t="s">
         <v>1939</v>
       </c>
@@ -33353,9 +33690,8 @@
       <c r="F863" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="G863" s="1"/>
-    </row>
-    <row r="864" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="864" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A864" s="1" t="s">
         <v>1940</v>
       </c>
@@ -33374,9 +33710,8 @@
       <c r="F864" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="G864" s="1"/>
-    </row>
-    <row r="865" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="865" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A865" s="1" t="s">
         <v>1941</v>
       </c>
@@ -33395,9 +33730,8 @@
       <c r="F865" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="G865" s="1"/>
-    </row>
-    <row r="866" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="866" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A866" s="1" t="s">
         <v>1942</v>
       </c>
@@ -33416,9 +33750,8 @@
       <c r="F866" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="G866" s="1"/>
-    </row>
-    <row r="867" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="867" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A867" s="1" t="s">
         <v>1943</v>
       </c>
@@ -33437,9 +33770,8 @@
       <c r="F867" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="G867" s="1"/>
-    </row>
-    <row r="868" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="868" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A868" s="1" t="s">
         <v>1944</v>
       </c>
@@ -33458,9 +33790,8 @@
       <c r="F868" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="G868" s="1"/>
-    </row>
-    <row r="869" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="869" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A869" s="1" t="s">
         <v>1945</v>
       </c>
@@ -33479,9 +33810,8 @@
       <c r="F869" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="G869" s="1"/>
-    </row>
-    <row r="870" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="870" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A870" s="1" t="s">
         <v>1946</v>
       </c>
@@ -33500,9 +33830,8 @@
       <c r="F870" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="G870" s="1"/>
-    </row>
-    <row r="871" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="871" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A871" s="1" t="s">
         <v>1947</v>
       </c>
@@ -33521,9 +33850,8 @@
       <c r="F871" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="G871" s="1"/>
-    </row>
-    <row r="872" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="872" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A872" s="1" t="s">
         <v>1948</v>
       </c>
@@ -33542,9 +33870,8 @@
       <c r="F872" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G872" s="1"/>
-    </row>
-    <row r="873" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="873" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A873" s="1" t="s">
         <v>1949</v>
       </c>
@@ -33563,9 +33890,8 @@
       <c r="F873" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="G873" s="1"/>
-    </row>
-    <row r="874" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="874" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A874" s="1" t="s">
         <v>1950</v>
       </c>
@@ -33584,9 +33910,8 @@
       <c r="F874" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="G874" s="1"/>
-    </row>
-    <row r="875" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="875" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A875" s="1" t="s">
         <v>1951</v>
       </c>
@@ -33605,9 +33930,8 @@
       <c r="F875" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="G875" s="1"/>
-    </row>
-    <row r="876" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="876" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A876" s="1" t="s">
         <v>1952</v>
       </c>
@@ -33626,9 +33950,8 @@
       <c r="F876" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="G876" s="1"/>
-    </row>
-    <row r="877" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="877" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A877" s="1" t="s">
         <v>1953</v>
       </c>
@@ -33647,9 +33970,8 @@
       <c r="F877" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="G877" s="1"/>
-    </row>
-    <row r="878" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="878" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A878" s="1" t="s">
         <v>1954</v>
       </c>
@@ -33668,9 +33990,8 @@
       <c r="F878" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="G878" s="1"/>
-    </row>
-    <row r="879" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="879" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A879" s="1" t="s">
         <v>1955</v>
       </c>
@@ -33689,9 +34010,8 @@
       <c r="F879" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="G879" s="1"/>
-    </row>
-    <row r="880" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="880" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A880" s="1" t="s">
         <v>1956</v>
       </c>
@@ -33710,9 +34030,8 @@
       <c r="F880" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="G880" s="1"/>
-    </row>
-    <row r="881" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="881" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A881" s="1" t="s">
         <v>1957</v>
       </c>
@@ -33731,9 +34050,8 @@
       <c r="F881" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="G881" s="1"/>
-    </row>
-    <row r="882" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="882" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A882" s="1" t="s">
         <v>1958</v>
       </c>
@@ -33752,9 +34070,8 @@
       <c r="F882" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="G882" s="1"/>
-    </row>
-    <row r="883" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="883" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A883" s="1" t="s">
         <v>1959</v>
       </c>
@@ -33773,9 +34090,8 @@
       <c r="F883" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="G883" s="1"/>
-    </row>
-    <row r="884" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="884" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A884" s="1" t="s">
         <v>1960</v>
       </c>
@@ -33794,9 +34110,8 @@
       <c r="F884" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="G884" s="1"/>
-    </row>
-    <row r="885" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="885" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A885" s="1" t="s">
         <v>1961</v>
       </c>
@@ -33815,9 +34130,8 @@
       <c r="F885" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="G885" s="1"/>
-    </row>
-    <row r="886" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="886" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A886" s="1" t="s">
         <v>1962</v>
       </c>
@@ -33836,9 +34150,8 @@
       <c r="F886" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="G886" s="1"/>
-    </row>
-    <row r="887" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="887" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A887" s="1" t="s">
         <v>1963</v>
       </c>
@@ -33857,9 +34170,8 @@
       <c r="F887" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="G887" s="1"/>
-    </row>
-    <row r="888" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="888" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A888" s="1" t="s">
         <v>1964</v>
       </c>
@@ -33878,9 +34190,8 @@
       <c r="F888" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="G888" s="1"/>
-    </row>
-    <row r="889" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="889" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A889" s="1" t="s">
         <v>1965</v>
       </c>
@@ -33899,9 +34210,8 @@
       <c r="F889" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="G889" s="1"/>
-    </row>
-    <row r="890" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="890" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A890" s="1" t="s">
         <v>1966</v>
       </c>
@@ -33920,9 +34230,8 @@
       <c r="F890" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="G890" s="1"/>
-    </row>
-    <row r="891" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="891" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A891" s="1" t="s">
         <v>1967</v>
       </c>
@@ -33941,9 +34250,8 @@
       <c r="F891" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="G891" s="1"/>
-    </row>
-    <row r="892" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="892" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A892" s="1" t="s">
         <v>1968</v>
       </c>
@@ -33962,9 +34270,8 @@
       <c r="F892" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="G892" s="1"/>
-    </row>
-    <row r="893" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="893" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A893" s="1" t="s">
         <v>1969</v>
       </c>
@@ -33983,9 +34290,8 @@
       <c r="F893" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="G893" s="1"/>
-    </row>
-    <row r="894" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="894" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A894" s="1" t="s">
         <v>1970</v>
       </c>
@@ -34004,9 +34310,8 @@
       <c r="F894" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="G894" s="1"/>
-    </row>
-    <row r="895" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="895" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A895" s="1" t="s">
         <v>1971</v>
       </c>
@@ -34025,9 +34330,8 @@
       <c r="F895" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="G895" s="1"/>
-    </row>
-    <row r="896" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="896" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A896" s="1" t="s">
         <v>1972</v>
       </c>
@@ -34046,7 +34350,6 @@
       <c r="F896" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="G896" s="1"/>
     </row>
     <row r="897" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A897" s="1" t="s">
@@ -34067,7 +34370,6 @@
       <c r="F897" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="G897" s="1"/>
     </row>
     <row r="898" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A898" s="1" t="s">
@@ -34088,7 +34390,6 @@
       <c r="F898" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="G898" s="1"/>
     </row>
     <row r="899" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A899" s="1" t="s">
@@ -34109,7 +34410,6 @@
       <c r="F899" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="G899" s="1"/>
     </row>
     <row r="900" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A900" s="1" t="s">
@@ -34130,7 +34430,6 @@
       <c r="F900" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="G900" s="1"/>
     </row>
     <row r="901" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A901" s="1" t="s">
@@ -34151,7 +34450,696 @@
       <c r="F901" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="G901" s="1"/>
+    </row>
+    <row r="902" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A902" s="1" t="s">
+        <v>4442</v>
+      </c>
+      <c r="B902" s="1">
+        <v>31</v>
+      </c>
+      <c r="C902" s="1" t="s">
+        <v>4443</v>
+      </c>
+      <c r="D902" s="1" t="s">
+        <v>4444</v>
+      </c>
+      <c r="E902" s="1" t="s">
+        <v>4445</v>
+      </c>
+      <c r="F902" s="1" t="s">
+        <v>4446</v>
+      </c>
+      <c r="G902" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="903" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A903" s="1" t="s">
+        <v>4447</v>
+      </c>
+      <c r="B903" s="1">
+        <v>31</v>
+      </c>
+      <c r="C903" s="1" t="s">
+        <v>4456</v>
+      </c>
+      <c r="D903" s="1" t="s">
+        <v>4457</v>
+      </c>
+      <c r="E903" s="1" t="s">
+        <v>4458</v>
+      </c>
+      <c r="F903" s="1" t="s">
+        <v>4459</v>
+      </c>
+      <c r="G903" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="904" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A904" s="1" t="s">
+        <v>4448</v>
+      </c>
+      <c r="B904" s="1">
+        <v>31</v>
+      </c>
+      <c r="C904" s="1" t="s">
+        <v>4460</v>
+      </c>
+      <c r="D904" s="1" t="s">
+        <v>4461</v>
+      </c>
+      <c r="E904" s="1" t="s">
+        <v>4462</v>
+      </c>
+      <c r="F904" s="1" t="s">
+        <v>4463</v>
+      </c>
+      <c r="G904" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="905" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A905" s="1" t="s">
+        <v>4449</v>
+      </c>
+      <c r="B905" s="1">
+        <v>31</v>
+      </c>
+      <c r="C905" s="1" t="s">
+        <v>4464</v>
+      </c>
+      <c r="D905" s="1" t="s">
+        <v>4465</v>
+      </c>
+      <c r="E905" s="1" t="s">
+        <v>4466</v>
+      </c>
+      <c r="F905" s="1" t="s">
+        <v>4467</v>
+      </c>
+      <c r="G905" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="906" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A906" s="1" t="s">
+        <v>4450</v>
+      </c>
+      <c r="B906" s="1">
+        <v>31</v>
+      </c>
+      <c r="C906" s="1" t="s">
+        <v>4468</v>
+      </c>
+      <c r="D906" s="1" t="s">
+        <v>4469</v>
+      </c>
+      <c r="E906" s="1" t="s">
+        <v>4470</v>
+      </c>
+      <c r="F906" s="1" t="s">
+        <v>4471</v>
+      </c>
+      <c r="G906" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="907" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A907" s="1" t="s">
+        <v>4451</v>
+      </c>
+      <c r="B907" s="1">
+        <v>31</v>
+      </c>
+      <c r="C907" s="1" t="s">
+        <v>4472</v>
+      </c>
+      <c r="D907" s="1" t="s">
+        <v>4473</v>
+      </c>
+      <c r="E907" s="1" t="s">
+        <v>4474</v>
+      </c>
+      <c r="F907" s="1" t="s">
+        <v>4475</v>
+      </c>
+      <c r="G907" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="908" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A908" s="1" t="s">
+        <v>4452</v>
+      </c>
+      <c r="B908" s="1">
+        <v>31</v>
+      </c>
+      <c r="C908" s="1" t="s">
+        <v>4476</v>
+      </c>
+      <c r="D908" s="1" t="s">
+        <v>4477</v>
+      </c>
+      <c r="E908" s="1" t="s">
+        <v>4478</v>
+      </c>
+      <c r="F908" s="1" t="s">
+        <v>4479</v>
+      </c>
+      <c r="G908" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="909" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A909" s="1" t="s">
+        <v>4453</v>
+      </c>
+      <c r="B909" s="1">
+        <v>31</v>
+      </c>
+      <c r="C909" s="1" t="s">
+        <v>4480</v>
+      </c>
+      <c r="D909" s="1" t="s">
+        <v>4481</v>
+      </c>
+      <c r="E909" s="1" t="s">
+        <v>4482</v>
+      </c>
+      <c r="F909" s="1" t="s">
+        <v>4483</v>
+      </c>
+      <c r="G909" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="910" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A910" s="1" t="s">
+        <v>4454</v>
+      </c>
+      <c r="B910" s="1">
+        <v>31</v>
+      </c>
+      <c r="C910" s="1" t="s">
+        <v>4484</v>
+      </c>
+      <c r="D910" s="1" t="s">
+        <v>4485</v>
+      </c>
+      <c r="E910" s="1" t="s">
+        <v>4486</v>
+      </c>
+      <c r="F910" s="1" t="s">
+        <v>4487</v>
+      </c>
+      <c r="G910" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="911" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A911" s="1" t="s">
+        <v>4455</v>
+      </c>
+      <c r="B911" s="1">
+        <v>31</v>
+      </c>
+      <c r="C911" s="1" t="s">
+        <v>4488</v>
+      </c>
+      <c r="D911" s="1" t="s">
+        <v>4489</v>
+      </c>
+      <c r="E911" s="1" t="s">
+        <v>4490</v>
+      </c>
+      <c r="F911" s="1" t="s">
+        <v>4491</v>
+      </c>
+      <c r="G911" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="912" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A912" s="1" t="s">
+        <v>4492</v>
+      </c>
+      <c r="B912" s="1">
+        <v>31</v>
+      </c>
+      <c r="C912" s="1" t="s">
+        <v>4502</v>
+      </c>
+      <c r="D912" s="1" t="s">
+        <v>4503</v>
+      </c>
+      <c r="E912" s="1" t="s">
+        <v>4504</v>
+      </c>
+      <c r="F912" s="1" t="s">
+        <v>4505</v>
+      </c>
+      <c r="G912" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="913" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A913" s="1" t="s">
+        <v>4493</v>
+      </c>
+      <c r="B913" s="1">
+        <v>31</v>
+      </c>
+      <c r="C913" s="1" t="s">
+        <v>4506</v>
+      </c>
+      <c r="D913" s="1" t="s">
+        <v>4508</v>
+      </c>
+      <c r="E913" s="1" t="s">
+        <v>4507</v>
+      </c>
+      <c r="F913" s="1" t="s">
+        <v>4509</v>
+      </c>
+      <c r="G913" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="914" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A914" s="1" t="s">
+        <v>4494</v>
+      </c>
+      <c r="B914" s="1">
+        <v>31</v>
+      </c>
+      <c r="C914" s="1" t="s">
+        <v>4510</v>
+      </c>
+      <c r="D914" s="1" t="s">
+        <v>4511</v>
+      </c>
+      <c r="E914" s="1" t="s">
+        <v>4512</v>
+      </c>
+      <c r="F914" s="1" t="s">
+        <v>4513</v>
+      </c>
+      <c r="G914" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="915" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A915" s="1" t="s">
+        <v>4495</v>
+      </c>
+      <c r="B915" s="1">
+        <v>31</v>
+      </c>
+      <c r="C915" s="1" t="s">
+        <v>4514</v>
+      </c>
+      <c r="D915" s="1" t="s">
+        <v>4515</v>
+      </c>
+      <c r="E915" s="1" t="s">
+        <v>4516</v>
+      </c>
+      <c r="F915" s="1" t="s">
+        <v>4517</v>
+      </c>
+      <c r="G915" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="916" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A916" s="1" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B916" s="1">
+        <v>31</v>
+      </c>
+      <c r="C916" s="1" t="s">
+        <v>4518</v>
+      </c>
+      <c r="D916" s="1" t="s">
+        <v>4519</v>
+      </c>
+      <c r="E916" s="1" t="s">
+        <v>4520</v>
+      </c>
+      <c r="F916" s="1" t="s">
+        <v>4521</v>
+      </c>
+      <c r="G916" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="917" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A917" s="1" t="s">
+        <v>4497</v>
+      </c>
+      <c r="B917" s="1">
+        <v>31</v>
+      </c>
+      <c r="C917" s="1" t="s">
+        <v>4522</v>
+      </c>
+      <c r="D917" s="1" t="s">
+        <v>4523</v>
+      </c>
+      <c r="E917" s="1" t="s">
+        <v>4524</v>
+      </c>
+      <c r="F917" s="1" t="s">
+        <v>4525</v>
+      </c>
+      <c r="G917" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="918" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A918" s="1" t="s">
+        <v>4498</v>
+      </c>
+      <c r="B918" s="1">
+        <v>31</v>
+      </c>
+      <c r="C918" s="1" t="s">
+        <v>4526</v>
+      </c>
+      <c r="D918" s="1" t="s">
+        <v>4527</v>
+      </c>
+      <c r="E918" s="1" t="s">
+        <v>4528</v>
+      </c>
+      <c r="F918" s="1" t="s">
+        <v>4529</v>
+      </c>
+      <c r="G918" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="919" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A919" s="1" t="s">
+        <v>4499</v>
+      </c>
+      <c r="B919" s="1">
+        <v>31</v>
+      </c>
+      <c r="C919" s="1" t="s">
+        <v>4530</v>
+      </c>
+      <c r="D919" s="1" t="s">
+        <v>4531</v>
+      </c>
+      <c r="E919" s="1" t="s">
+        <v>4532</v>
+      </c>
+      <c r="F919" s="1" t="s">
+        <v>4533</v>
+      </c>
+      <c r="G919" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="920" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A920" s="1" t="s">
+        <v>4500</v>
+      </c>
+      <c r="B920" s="1">
+        <v>31</v>
+      </c>
+      <c r="C920" s="1" t="s">
+        <v>4534</v>
+      </c>
+      <c r="D920" s="1" t="s">
+        <v>4535</v>
+      </c>
+      <c r="E920" s="1" t="s">
+        <v>4536</v>
+      </c>
+      <c r="F920" s="1" t="s">
+        <v>4537</v>
+      </c>
+      <c r="G920" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="921" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A921" s="1" t="s">
+        <v>4501</v>
+      </c>
+      <c r="B921" s="1">
+        <v>31</v>
+      </c>
+      <c r="C921" s="1" t="s">
+        <v>4538</v>
+      </c>
+      <c r="D921" s="1" t="s">
+        <v>4539</v>
+      </c>
+      <c r="E921" s="1" t="s">
+        <v>4540</v>
+      </c>
+      <c r="F921" s="1" t="s">
+        <v>4541</v>
+      </c>
+      <c r="G921" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="922" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A922" s="1" t="s">
+        <v>4542</v>
+      </c>
+      <c r="B922" s="1">
+        <v>31</v>
+      </c>
+      <c r="C922" s="1" t="s">
+        <v>4552</v>
+      </c>
+      <c r="D922" s="1" t="s">
+        <v>4553</v>
+      </c>
+      <c r="E922" s="1" t="s">
+        <v>4554</v>
+      </c>
+      <c r="F922" s="1" t="s">
+        <v>4555</v>
+      </c>
+      <c r="G922" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="923" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A923" s="1" t="s">
+        <v>4543</v>
+      </c>
+      <c r="B923" s="1">
+        <v>31</v>
+      </c>
+      <c r="C923" s="1" t="s">
+        <v>4556</v>
+      </c>
+      <c r="D923" s="1" t="s">
+        <v>4557</v>
+      </c>
+      <c r="E923" s="1" t="s">
+        <v>4558</v>
+      </c>
+      <c r="F923" s="1" t="s">
+        <v>4559</v>
+      </c>
+      <c r="G923" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="924" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A924" s="1" t="s">
+        <v>4544</v>
+      </c>
+      <c r="B924" s="1">
+        <v>31</v>
+      </c>
+      <c r="C924" s="1" t="s">
+        <v>4560</v>
+      </c>
+      <c r="D924" s="1" t="s">
+        <v>4561</v>
+      </c>
+      <c r="E924" s="1" t="s">
+        <v>4562</v>
+      </c>
+      <c r="F924" s="1" t="s">
+        <v>4563</v>
+      </c>
+      <c r="G924" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="925" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A925" s="1" t="s">
+        <v>4545</v>
+      </c>
+      <c r="B925" s="1">
+        <v>31</v>
+      </c>
+      <c r="C925" s="1" t="s">
+        <v>4564</v>
+      </c>
+      <c r="D925" s="1" t="s">
+        <v>4565</v>
+      </c>
+      <c r="E925" s="1" t="s">
+        <v>4566</v>
+      </c>
+      <c r="F925" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="G925" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="926" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A926" s="1" t="s">
+        <v>4546</v>
+      </c>
+      <c r="B926" s="1">
+        <v>31</v>
+      </c>
+      <c r="C926" s="1" t="s">
+        <v>4568</v>
+      </c>
+      <c r="D926" s="1" t="s">
+        <v>4569</v>
+      </c>
+      <c r="E926" s="1" t="s">
+        <v>4570</v>
+      </c>
+      <c r="F926" s="1" t="s">
+        <v>4571</v>
+      </c>
+      <c r="G926" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="927" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A927" s="1" t="s">
+        <v>4547</v>
+      </c>
+      <c r="B927" s="1">
+        <v>31</v>
+      </c>
+      <c r="C927" s="1" t="s">
+        <v>4572</v>
+      </c>
+      <c r="D927" s="1" t="s">
+        <v>4573</v>
+      </c>
+      <c r="E927" s="1" t="s">
+        <v>4574</v>
+      </c>
+      <c r="F927" s="1" t="s">
+        <v>4575</v>
+      </c>
+      <c r="G927" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="928" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A928" s="1" t="s">
+        <v>4548</v>
+      </c>
+      <c r="B928" s="1">
+        <v>31</v>
+      </c>
+      <c r="C928" s="1" t="s">
+        <v>4576</v>
+      </c>
+      <c r="D928" s="1" t="s">
+        <v>4577</v>
+      </c>
+      <c r="E928" s="1" t="s">
+        <v>4578</v>
+      </c>
+      <c r="F928" s="1" t="s">
+        <v>4579</v>
+      </c>
+      <c r="G928" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="929" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A929" s="1" t="s">
+        <v>4549</v>
+      </c>
+      <c r="B929" s="1">
+        <v>31</v>
+      </c>
+      <c r="C929" s="1" t="s">
+        <v>4580</v>
+      </c>
+      <c r="D929" s="1" t="s">
+        <v>4581</v>
+      </c>
+      <c r="E929" s="1" t="s">
+        <v>4582</v>
+      </c>
+      <c r="F929" s="1" t="s">
+        <v>4583</v>
+      </c>
+      <c r="G929" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="930" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A930" s="1" t="s">
+        <v>4550</v>
+      </c>
+      <c r="B930" s="1">
+        <v>31</v>
+      </c>
+      <c r="C930" s="1" t="s">
+        <v>4584</v>
+      </c>
+      <c r="D930" s="1" t="s">
+        <v>4585</v>
+      </c>
+      <c r="E930" s="1" t="s">
+        <v>4586</v>
+      </c>
+      <c r="F930" s="1" t="s">
+        <v>4587</v>
+      </c>
+      <c r="G930" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="931" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A931" s="1" t="s">
+        <v>4551</v>
+      </c>
+      <c r="B931" s="1">
+        <v>31</v>
+      </c>
+      <c r="C931" s="1" t="s">
+        <v>4588</v>
+      </c>
+      <c r="D931" s="1" t="s">
+        <v>4589</v>
+      </c>
+      <c r="E931" s="1" t="s">
+        <v>4590</v>
+      </c>
+      <c r="F931" s="1" t="s">
+        <v>4591</v>
+      </c>
+      <c r="G931" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/data/WordStudy.xlsx
+++ b/data/WordStudy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dom/Documents/Dom/english-app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9DC9B5-C07C-E748-8B8D-AB1C870F3F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A73661B-4D14-B144-9441-E8D6E08DD25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12780" yWindow="500" windowWidth="20820" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5434" uniqueCount="4592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5614" uniqueCount="4741">
   <si>
     <t>ID</t>
   </si>
@@ -13806,6 +13806,453 @@
   </si>
   <si>
     <t xml:space="preserve">sell something </t>
+  </si>
+  <si>
+    <t>U32_01</t>
+  </si>
+  <si>
+    <t>U32_02</t>
+  </si>
+  <si>
+    <t>U32_03</t>
+  </si>
+  <si>
+    <t>U32_04</t>
+  </si>
+  <si>
+    <t>U32_05</t>
+  </si>
+  <si>
+    <t>U32_06</t>
+  </si>
+  <si>
+    <t>U32_07</t>
+  </si>
+  <si>
+    <t>U32_08</t>
+  </si>
+  <si>
+    <t>U32_09</t>
+  </si>
+  <si>
+    <t>U32_10</t>
+  </si>
+  <si>
+    <t>U32_11</t>
+  </si>
+  <si>
+    <t>U32_12</t>
+  </si>
+  <si>
+    <t>U32_13</t>
+  </si>
+  <si>
+    <t>U32_14</t>
+  </si>
+  <si>
+    <t>U32_15</t>
+  </si>
+  <si>
+    <t>U32_16</t>
+  </si>
+  <si>
+    <t>U32_17</t>
+  </si>
+  <si>
+    <t>U32_18</t>
+  </si>
+  <si>
+    <t>U32_19</t>
+  </si>
+  <si>
+    <t>U32_20</t>
+  </si>
+  <si>
+    <t>U32_21</t>
+  </si>
+  <si>
+    <t>U32_22</t>
+  </si>
+  <si>
+    <t>U32_23</t>
+  </si>
+  <si>
+    <t>U32_24</t>
+  </si>
+  <si>
+    <t>U32_25</t>
+  </si>
+  <si>
+    <t>U32_26</t>
+  </si>
+  <si>
+    <t>U32_27</t>
+  </si>
+  <si>
+    <t>U32_28</t>
+  </si>
+  <si>
+    <t>U32_29</t>
+  </si>
+  <si>
+    <t>U32_30</t>
+  </si>
+  <si>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t>The ruler has a rectangular shape</t>
+  </si>
+  <si>
+    <t>a rectangular shape / hình chữ nhật</t>
+  </si>
+  <si>
+    <t>Cổ áo</t>
+  </si>
+  <si>
+    <t>Collar</t>
+  </si>
+  <si>
+    <t>a shirt collar</t>
+  </si>
+  <si>
+    <t>My shirt collar is stained / … bị ố</t>
+  </si>
+  <si>
+    <t>Đường cong</t>
+  </si>
+  <si>
+    <t>Curve</t>
+  </si>
+  <si>
+    <t>The fast car took a sharp curve</t>
+  </si>
+  <si>
+    <t>a sharp curve / khúc cua gấp</t>
+  </si>
+  <si>
+    <t>Khuy áo</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>One of your shirt buttons is missing</t>
+  </si>
+  <si>
+    <t>a shirt button / một cái khuy áo</t>
+  </si>
+  <si>
+    <t>Túi</t>
+  </si>
+  <si>
+    <t>Pocket</t>
+  </si>
+  <si>
+    <t>The keys are in my pocket</t>
+  </si>
+  <si>
+    <t>in one's pocket</t>
+  </si>
+  <si>
+    <t>Tay áo</t>
+  </si>
+  <si>
+    <t>Sleeve</t>
+  </si>
+  <si>
+    <t>His shirt has short sleeves</t>
+  </si>
+  <si>
+    <t>a short sleeve / áo cộc tay</t>
+  </si>
+  <si>
+    <t>Tủ quần áo</t>
+  </si>
+  <si>
+    <t>Closet</t>
+  </si>
+  <si>
+    <t>the child is hiding in the closet</t>
+  </si>
+  <si>
+    <t>in the closet</t>
+  </si>
+  <si>
+    <t>Tất</t>
+  </si>
+  <si>
+    <t>Sock</t>
+  </si>
+  <si>
+    <t>Your christmas gift is a pair of socks</t>
+  </si>
+  <si>
+    <t>a pair of socks</t>
+  </si>
+  <si>
+    <t>Trang sức</t>
+  </si>
+  <si>
+    <t>Juwelry</t>
+  </si>
+  <si>
+    <t>Gold jewelry is expensive</t>
+  </si>
+  <si>
+    <t>gold jewelry</t>
+  </si>
+  <si>
+    <t>Vòng tay</t>
+  </si>
+  <si>
+    <t>Bracelet</t>
+  </si>
+  <si>
+    <t>she wears a diamond bracelet on her wrist</t>
+  </si>
+  <si>
+    <t>a diamond bracelet</t>
+  </si>
+  <si>
+    <t>Cửa hàng</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>Apple now has retail stores in vietnam</t>
+  </si>
+  <si>
+    <t>a retail store / cửa hàng bán lẻ</t>
+  </si>
+  <si>
+    <t>Thắt</t>
+  </si>
+  <si>
+    <t>Tie</t>
+  </si>
+  <si>
+    <t>I don’t know how to tie a tie</t>
+  </si>
+  <si>
+    <t>tie a tie / thắt cà vạt</t>
+  </si>
+  <si>
+    <t>Da</t>
+  </si>
+  <si>
+    <t>Leather</t>
+  </si>
+  <si>
+    <t>Bikers usually wear leather jackets</t>
+  </si>
+  <si>
+    <t>a leather jacket / áo khoác da</t>
+  </si>
+  <si>
+    <t>Vẻ đẹp</t>
+  </si>
+  <si>
+    <t>Beauty</t>
+  </si>
+  <si>
+    <t>The beauty of this view amazes me</t>
+  </si>
+  <si>
+    <t>beauty of something or somebody</t>
+  </si>
+  <si>
+    <t>Hợp</t>
+  </si>
+  <si>
+    <t>Suit</t>
+  </si>
+  <si>
+    <t>This hat suits you well</t>
+  </si>
+  <si>
+    <t>suit somebody well</t>
+  </si>
+  <si>
+    <t>Thử đồ</t>
+  </si>
+  <si>
+    <t>Try on</t>
+  </si>
+  <si>
+    <t>Why don’t you try on the dress?</t>
+  </si>
+  <si>
+    <t>try on something</t>
+  </si>
+  <si>
+    <t>Lỏng</t>
+  </si>
+  <si>
+    <t>Loose</t>
+  </si>
+  <si>
+    <t>can you fix my shirt's loose button?</t>
+  </si>
+  <si>
+    <t>a loose button</t>
+  </si>
+  <si>
+    <t>Quần</t>
+  </si>
+  <si>
+    <t>Pants</t>
+  </si>
+  <si>
+    <t>You need a new pair of pants</t>
+  </si>
+  <si>
+    <t>a pair of pants / một chiếc quần dài</t>
+  </si>
+  <si>
+    <t>Chật</t>
+  </si>
+  <si>
+    <t>Tight</t>
+  </si>
+  <si>
+    <t>These pants are too tight for me</t>
+  </si>
+  <si>
+    <t>too tight for somebody</t>
+  </si>
+  <si>
+    <t>Phần eo</t>
+  </si>
+  <si>
+    <t>Waist</t>
+  </si>
+  <si>
+    <t>His clothes are wet from the waist down</t>
+  </si>
+  <si>
+    <t>from the waist down / từ thắt lưng trở xuống</t>
+  </si>
+  <si>
+    <t>Kim cương</t>
+  </si>
+  <si>
+    <t>Diamond</t>
+  </si>
+  <si>
+    <t>The diamond rind he gave her was huge</t>
+  </si>
+  <si>
+    <t>a diamond ring</t>
+  </si>
+  <si>
+    <t>Mẫu họa tiết</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>I like the pattern on your shirt</t>
+  </si>
+  <si>
+    <t>the pattern on something</t>
+  </si>
+  <si>
+    <t>Hợp với</t>
+  </si>
+  <si>
+    <t>Go with</t>
+  </si>
+  <si>
+    <t>My new shirt goes with my favorite watch</t>
+  </si>
+  <si>
+    <t>go with something</t>
+  </si>
+  <si>
+    <t>Mảnh</t>
+  </si>
+  <si>
+    <t>Piece</t>
+  </si>
+  <si>
+    <t>This purse can go with any piece of clothing</t>
+  </si>
+  <si>
+    <t>a piece of clothing / món đồ thời trang</t>
+  </si>
+  <si>
+    <t>Khoe mẽ</t>
+  </si>
+  <si>
+    <t>Show off</t>
+  </si>
+  <si>
+    <t>He is showing off his new watch</t>
+  </si>
+  <si>
+    <t>show off something</t>
+  </si>
+  <si>
+    <t>Ngầu</t>
+  </si>
+  <si>
+    <t>Cool</t>
+  </si>
+  <si>
+    <t>The new poster design looks cool</t>
+  </si>
+  <si>
+    <t>to look cool / trong thật ngầu</t>
+  </si>
+  <si>
+    <t>Nhiều màu sắc</t>
+  </si>
+  <si>
+    <t>Children always make the most colorful paintings</t>
+  </si>
+  <si>
+    <t>Colorful</t>
+  </si>
+  <si>
+    <t>A colorful painting / một bức tranh sặc sỡ</t>
+  </si>
+  <si>
+    <t>Thời trang</t>
+  </si>
+  <si>
+    <t>Fashion</t>
+  </si>
+  <si>
+    <t>She writes about the latest fashion trends</t>
+  </si>
+  <si>
+    <t>a fashion trend</t>
+  </si>
+  <si>
+    <t>Thanh lịch</t>
+  </si>
+  <si>
+    <t>Chic</t>
+  </si>
+  <si>
+    <t>The fashionista has a chic style</t>
+  </si>
+  <si>
+    <t>a chic style / phong cách thanh lịch</t>
+  </si>
+  <si>
+    <t>Gói lại</t>
+  </si>
+  <si>
+    <t>Wrap up</t>
+  </si>
+  <si>
+    <t>The cashier wrapped up the shirt for me</t>
+  </si>
+  <si>
+    <t>wrap up something</t>
   </si>
 </sst>
 </file>
@@ -14170,10 +14617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G931"/>
+  <dimension ref="A1:G961"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B903" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E932" sqref="E932"/>
+    <sheetView tabSelected="1" topLeftCell="B930" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C953" sqref="C953"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35141,6 +35588,696 @@
         <v>577</v>
       </c>
     </row>
+    <row r="932" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A932" s="1" t="s">
+        <v>4592</v>
+      </c>
+      <c r="B932" s="1">
+        <v>32</v>
+      </c>
+      <c r="C932" s="1" t="s">
+        <v>2872</v>
+      </c>
+      <c r="D932" s="1" t="s">
+        <v>4622</v>
+      </c>
+      <c r="E932" s="1" t="s">
+        <v>4623</v>
+      </c>
+      <c r="F932" s="1" t="s">
+        <v>4624</v>
+      </c>
+      <c r="G932" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="933" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A933" s="1" t="s">
+        <v>4593</v>
+      </c>
+      <c r="B933" s="1">
+        <v>32</v>
+      </c>
+      <c r="C933" s="1" t="s">
+        <v>4625</v>
+      </c>
+      <c r="D933" s="1" t="s">
+        <v>4626</v>
+      </c>
+      <c r="E933" s="1" t="s">
+        <v>4628</v>
+      </c>
+      <c r="F933" s="1" t="s">
+        <v>4627</v>
+      </c>
+      <c r="G933" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="934" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A934" s="1" t="s">
+        <v>4594</v>
+      </c>
+      <c r="B934" s="1">
+        <v>32</v>
+      </c>
+      <c r="C934" s="1" t="s">
+        <v>4629</v>
+      </c>
+      <c r="D934" s="1" t="s">
+        <v>4630</v>
+      </c>
+      <c r="E934" s="1" t="s">
+        <v>4631</v>
+      </c>
+      <c r="F934" s="1" t="s">
+        <v>4632</v>
+      </c>
+      <c r="G934" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="935" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A935" s="1" t="s">
+        <v>4595</v>
+      </c>
+      <c r="B935" s="1">
+        <v>32</v>
+      </c>
+      <c r="C935" s="1" t="s">
+        <v>4633</v>
+      </c>
+      <c r="D935" s="1" t="s">
+        <v>4634</v>
+      </c>
+      <c r="E935" s="1" t="s">
+        <v>4635</v>
+      </c>
+      <c r="F935" s="1" t="s">
+        <v>4636</v>
+      </c>
+      <c r="G935" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="936" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A936" s="1" t="s">
+        <v>4596</v>
+      </c>
+      <c r="B936" s="1">
+        <v>32</v>
+      </c>
+      <c r="C936" s="1" t="s">
+        <v>4637</v>
+      </c>
+      <c r="D936" s="1" t="s">
+        <v>4638</v>
+      </c>
+      <c r="E936" s="1" t="s">
+        <v>4639</v>
+      </c>
+      <c r="F936" s="1" t="s">
+        <v>4640</v>
+      </c>
+      <c r="G936" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="937" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A937" s="1" t="s">
+        <v>4597</v>
+      </c>
+      <c r="B937" s="1">
+        <v>32</v>
+      </c>
+      <c r="C937" s="1" t="s">
+        <v>4641</v>
+      </c>
+      <c r="D937" s="1" t="s">
+        <v>4642</v>
+      </c>
+      <c r="E937" s="1" t="s">
+        <v>4643</v>
+      </c>
+      <c r="F937" s="1" t="s">
+        <v>4644</v>
+      </c>
+      <c r="G937" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="938" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A938" s="1" t="s">
+        <v>4598</v>
+      </c>
+      <c r="B938" s="1">
+        <v>32</v>
+      </c>
+      <c r="C938" s="1" t="s">
+        <v>4645</v>
+      </c>
+      <c r="D938" s="1" t="s">
+        <v>4646</v>
+      </c>
+      <c r="E938" s="1" t="s">
+        <v>4647</v>
+      </c>
+      <c r="F938" s="1" t="s">
+        <v>4648</v>
+      </c>
+      <c r="G938" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="939" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A939" s="1" t="s">
+        <v>4599</v>
+      </c>
+      <c r="B939" s="1">
+        <v>32</v>
+      </c>
+      <c r="C939" s="1" t="s">
+        <v>4649</v>
+      </c>
+      <c r="D939" s="1" t="s">
+        <v>4650</v>
+      </c>
+      <c r="E939" s="1" t="s">
+        <v>4651</v>
+      </c>
+      <c r="F939" s="1" t="s">
+        <v>4652</v>
+      </c>
+      <c r="G939" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="940" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A940" s="1" t="s">
+        <v>4600</v>
+      </c>
+      <c r="B940" s="1">
+        <v>32</v>
+      </c>
+      <c r="C940" s="1" t="s">
+        <v>4653</v>
+      </c>
+      <c r="D940" s="1" t="s">
+        <v>4654</v>
+      </c>
+      <c r="E940" s="1" t="s">
+        <v>4655</v>
+      </c>
+      <c r="F940" s="1" t="s">
+        <v>4656</v>
+      </c>
+      <c r="G940" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="941" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A941" s="1" t="s">
+        <v>4601</v>
+      </c>
+      <c r="B941" s="1">
+        <v>32</v>
+      </c>
+      <c r="C941" s="1" t="s">
+        <v>4657</v>
+      </c>
+      <c r="D941" s="1" t="s">
+        <v>4658</v>
+      </c>
+      <c r="E941" s="1" t="s">
+        <v>4659</v>
+      </c>
+      <c r="F941" s="1" t="s">
+        <v>4660</v>
+      </c>
+      <c r="G941" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="942" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A942" s="1" t="s">
+        <v>4602</v>
+      </c>
+      <c r="B942" s="1">
+        <v>32</v>
+      </c>
+      <c r="C942" s="1" t="s">
+        <v>4661</v>
+      </c>
+      <c r="D942" s="1" t="s">
+        <v>4662</v>
+      </c>
+      <c r="E942" s="1" t="s">
+        <v>4663</v>
+      </c>
+      <c r="F942" s="1" t="s">
+        <v>4664</v>
+      </c>
+      <c r="G942" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="943" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A943" s="1" t="s">
+        <v>4603</v>
+      </c>
+      <c r="B943" s="1">
+        <v>32</v>
+      </c>
+      <c r="C943" s="1" t="s">
+        <v>4665</v>
+      </c>
+      <c r="D943" s="1" t="s">
+        <v>4666</v>
+      </c>
+      <c r="E943" s="1" t="s">
+        <v>4667</v>
+      </c>
+      <c r="F943" s="1" t="s">
+        <v>4668</v>
+      </c>
+      <c r="G943" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="944" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A944" s="1" t="s">
+        <v>4604</v>
+      </c>
+      <c r="B944" s="1">
+        <v>32</v>
+      </c>
+      <c r="C944" s="1" t="s">
+        <v>4669</v>
+      </c>
+      <c r="D944" s="1" t="s">
+        <v>4670</v>
+      </c>
+      <c r="E944" s="1" t="s">
+        <v>4671</v>
+      </c>
+      <c r="F944" s="1" t="s">
+        <v>4672</v>
+      </c>
+      <c r="G944" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="945" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A945" s="1" t="s">
+        <v>4605</v>
+      </c>
+      <c r="B945" s="1">
+        <v>32</v>
+      </c>
+      <c r="C945" s="1" t="s">
+        <v>4673</v>
+      </c>
+      <c r="D945" s="1" t="s">
+        <v>4674</v>
+      </c>
+      <c r="E945" s="1" t="s">
+        <v>4675</v>
+      </c>
+      <c r="F945" s="1" t="s">
+        <v>4676</v>
+      </c>
+      <c r="G945" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="946" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A946" s="1" t="s">
+        <v>4606</v>
+      </c>
+      <c r="B946" s="1">
+        <v>32</v>
+      </c>
+      <c r="C946" s="1" t="s">
+        <v>4677</v>
+      </c>
+      <c r="D946" s="1" t="s">
+        <v>4678</v>
+      </c>
+      <c r="E946" s="1" t="s">
+        <v>4679</v>
+      </c>
+      <c r="F946" s="1" t="s">
+        <v>4680</v>
+      </c>
+      <c r="G946" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="947" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A947" s="1" t="s">
+        <v>4607</v>
+      </c>
+      <c r="B947" s="1">
+        <v>32</v>
+      </c>
+      <c r="C947" s="1" t="s">
+        <v>4681</v>
+      </c>
+      <c r="D947" s="1" t="s">
+        <v>4682</v>
+      </c>
+      <c r="E947" s="1" t="s">
+        <v>4683</v>
+      </c>
+      <c r="F947" s="1" t="s">
+        <v>4684</v>
+      </c>
+      <c r="G947" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="948" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A948" s="1" t="s">
+        <v>4608</v>
+      </c>
+      <c r="B948" s="1">
+        <v>32</v>
+      </c>
+      <c r="C948" s="1" t="s">
+        <v>4685</v>
+      </c>
+      <c r="D948" s="1" t="s">
+        <v>4686</v>
+      </c>
+      <c r="E948" s="1" t="s">
+        <v>4687</v>
+      </c>
+      <c r="F948" s="1" t="s">
+        <v>4688</v>
+      </c>
+      <c r="G948" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="949" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A949" s="1" t="s">
+        <v>4609</v>
+      </c>
+      <c r="B949" s="1">
+        <v>32</v>
+      </c>
+      <c r="C949" s="1" t="s">
+        <v>4689</v>
+      </c>
+      <c r="D949" s="1" t="s">
+        <v>4690</v>
+      </c>
+      <c r="E949" s="1" t="s">
+        <v>4691</v>
+      </c>
+      <c r="F949" s="1" t="s">
+        <v>4692</v>
+      </c>
+      <c r="G949" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="950" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A950" s="1" t="s">
+        <v>4610</v>
+      </c>
+      <c r="B950" s="1">
+        <v>32</v>
+      </c>
+      <c r="C950" s="1" t="s">
+        <v>4693</v>
+      </c>
+      <c r="D950" s="1" t="s">
+        <v>4694</v>
+      </c>
+      <c r="E950" s="1" t="s">
+        <v>4695</v>
+      </c>
+      <c r="F950" s="1" t="s">
+        <v>4696</v>
+      </c>
+      <c r="G950" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="951" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A951" s="1" t="s">
+        <v>4611</v>
+      </c>
+      <c r="B951" s="1">
+        <v>32</v>
+      </c>
+      <c r="C951" s="1" t="s">
+        <v>4697</v>
+      </c>
+      <c r="D951" s="1" t="s">
+        <v>4698</v>
+      </c>
+      <c r="E951" s="1" t="s">
+        <v>4699</v>
+      </c>
+      <c r="F951" s="1" t="s">
+        <v>4700</v>
+      </c>
+      <c r="G951" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="952" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A952" s="1" t="s">
+        <v>4612</v>
+      </c>
+      <c r="B952" s="1">
+        <v>32</v>
+      </c>
+      <c r="C952" s="1" t="s">
+        <v>4701</v>
+      </c>
+      <c r="D952" s="1" t="s">
+        <v>4702</v>
+      </c>
+      <c r="E952" s="1" t="s">
+        <v>4703</v>
+      </c>
+      <c r="F952" s="1" t="s">
+        <v>4704</v>
+      </c>
+      <c r="G952" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="953" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A953" s="1" t="s">
+        <v>4613</v>
+      </c>
+      <c r="B953" s="1">
+        <v>32</v>
+      </c>
+      <c r="C953" s="1" t="s">
+        <v>4705</v>
+      </c>
+      <c r="D953" s="1" t="s">
+        <v>4706</v>
+      </c>
+      <c r="E953" s="1" t="s">
+        <v>4707</v>
+      </c>
+      <c r="F953" s="1" t="s">
+        <v>4708</v>
+      </c>
+      <c r="G953" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="954" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A954" s="1" t="s">
+        <v>4614</v>
+      </c>
+      <c r="B954" s="1">
+        <v>32</v>
+      </c>
+      <c r="C954" s="1" t="s">
+        <v>4709</v>
+      </c>
+      <c r="D954" s="1" t="s">
+        <v>4710</v>
+      </c>
+      <c r="E954" s="1" t="s">
+        <v>4711</v>
+      </c>
+      <c r="F954" s="1" t="s">
+        <v>4712</v>
+      </c>
+      <c r="G954" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="955" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A955" s="1" t="s">
+        <v>4615</v>
+      </c>
+      <c r="B955" s="1">
+        <v>32</v>
+      </c>
+      <c r="C955" s="1" t="s">
+        <v>4713</v>
+      </c>
+      <c r="D955" s="1" t="s">
+        <v>4714</v>
+      </c>
+      <c r="E955" s="1" t="s">
+        <v>4715</v>
+      </c>
+      <c r="F955" s="1" t="s">
+        <v>4716</v>
+      </c>
+      <c r="G955" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="956" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A956" s="1" t="s">
+        <v>4616</v>
+      </c>
+      <c r="B956" s="1">
+        <v>32</v>
+      </c>
+      <c r="C956" s="1" t="s">
+        <v>4717</v>
+      </c>
+      <c r="D956" s="1" t="s">
+        <v>4718</v>
+      </c>
+      <c r="E956" s="1" t="s">
+        <v>4719</v>
+      </c>
+      <c r="F956" s="1" t="s">
+        <v>4720</v>
+      </c>
+      <c r="G956" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="957" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A957" s="1" t="s">
+        <v>4617</v>
+      </c>
+      <c r="B957" s="1">
+        <v>32</v>
+      </c>
+      <c r="C957" s="1" t="s">
+        <v>4721</v>
+      </c>
+      <c r="D957" s="1" t="s">
+        <v>4722</v>
+      </c>
+      <c r="E957" s="1" t="s">
+        <v>4723</v>
+      </c>
+      <c r="F957" s="1" t="s">
+        <v>4724</v>
+      </c>
+      <c r="G957" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="958" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A958" s="1" t="s">
+        <v>4618</v>
+      </c>
+      <c r="B958" s="1">
+        <v>32</v>
+      </c>
+      <c r="C958" s="1" t="s">
+        <v>4725</v>
+      </c>
+      <c r="D958" s="1" t="s">
+        <v>4727</v>
+      </c>
+      <c r="E958" s="1" t="s">
+        <v>4726</v>
+      </c>
+      <c r="F958" s="1" t="s">
+        <v>4728</v>
+      </c>
+      <c r="G958" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="959" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A959" s="1" t="s">
+        <v>4619</v>
+      </c>
+      <c r="B959" s="1">
+        <v>32</v>
+      </c>
+      <c r="C959" s="1" t="s">
+        <v>4729</v>
+      </c>
+      <c r="D959" s="1" t="s">
+        <v>4730</v>
+      </c>
+      <c r="E959" s="1" t="s">
+        <v>4731</v>
+      </c>
+      <c r="F959" s="1" t="s">
+        <v>4732</v>
+      </c>
+      <c r="G959" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="960" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A960" s="1" t="s">
+        <v>4620</v>
+      </c>
+      <c r="B960" s="1">
+        <v>32</v>
+      </c>
+      <c r="C960" s="1" t="s">
+        <v>4733</v>
+      </c>
+      <c r="D960" s="1" t="s">
+        <v>4734</v>
+      </c>
+      <c r="E960" s="1" t="s">
+        <v>4735</v>
+      </c>
+      <c r="F960" s="1" t="s">
+        <v>4736</v>
+      </c>
+      <c r="G960" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="961" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A961" s="1" t="s">
+        <v>4621</v>
+      </c>
+      <c r="B961" s="1">
+        <v>32</v>
+      </c>
+      <c r="C961" s="1" t="s">
+        <v>4737</v>
+      </c>
+      <c r="D961" s="1" t="s">
+        <v>4738</v>
+      </c>
+      <c r="E961" s="1" t="s">
+        <v>4739</v>
+      </c>
+      <c r="F961" s="1" t="s">
+        <v>4740</v>
+      </c>
+      <c r="G961" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/WordStudy.xlsx
+++ b/data/WordStudy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dom/Documents/Dom/english-app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF67DFF7-E784-DF48-A53F-49D5827979B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369FBD00-BA72-EC4E-ACAF-8BDA287E272C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12780" yWindow="500" windowWidth="20820" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5794" uniqueCount="4889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5974" uniqueCount="5038">
   <si>
     <t>ID</t>
   </si>
@@ -14697,6 +14697,453 @@
   </si>
   <si>
     <t>legend has it that / truyền thuyết kể lại rằng</t>
+  </si>
+  <si>
+    <t>U34_01</t>
+  </si>
+  <si>
+    <t>U34_02</t>
+  </si>
+  <si>
+    <t>U34_03</t>
+  </si>
+  <si>
+    <t>U34_04</t>
+  </si>
+  <si>
+    <t>U34_05</t>
+  </si>
+  <si>
+    <t>U34_06</t>
+  </si>
+  <si>
+    <t>U34_07</t>
+  </si>
+  <si>
+    <t>U34_08</t>
+  </si>
+  <si>
+    <t>U34_09</t>
+  </si>
+  <si>
+    <t>U34_10</t>
+  </si>
+  <si>
+    <t>U34_11</t>
+  </si>
+  <si>
+    <t>U34_12</t>
+  </si>
+  <si>
+    <t>U34_13</t>
+  </si>
+  <si>
+    <t>U34_14</t>
+  </si>
+  <si>
+    <t>U34_15</t>
+  </si>
+  <si>
+    <t>U34_16</t>
+  </si>
+  <si>
+    <t>U34_17</t>
+  </si>
+  <si>
+    <t>U34_18</t>
+  </si>
+  <si>
+    <t>U34_19</t>
+  </si>
+  <si>
+    <t>U34_20</t>
+  </si>
+  <si>
+    <t>U34_21</t>
+  </si>
+  <si>
+    <t>U34_22</t>
+  </si>
+  <si>
+    <t>U34_23</t>
+  </si>
+  <si>
+    <t>U34_24</t>
+  </si>
+  <si>
+    <t>U34_25</t>
+  </si>
+  <si>
+    <t>U34_26</t>
+  </si>
+  <si>
+    <t>U34_27</t>
+  </si>
+  <si>
+    <t>U34_28</t>
+  </si>
+  <si>
+    <t>U34_29</t>
+  </si>
+  <si>
+    <t>U34_30</t>
+  </si>
+  <si>
+    <t>Pháo hoa</t>
+  </si>
+  <si>
+    <t>Firework</t>
+  </si>
+  <si>
+    <t>We watch fireworks displays together every year</t>
+  </si>
+  <si>
+    <t>a fireworks display / màn trình diễn pháo hoa</t>
+  </si>
+  <si>
+    <t>Ăn mừng, tán dương</t>
+  </si>
+  <si>
+    <t>Celebrate</t>
+  </si>
+  <si>
+    <t>Let's celebrate your promotion this Friday!</t>
+  </si>
+  <si>
+    <t>Celebrate somebody or something</t>
+  </si>
+  <si>
+    <t>Phần lớn, chủ yếu</t>
+  </si>
+  <si>
+    <t>Mostly</t>
+  </si>
+  <si>
+    <t>The sauce is mostly cream.</t>
+  </si>
+  <si>
+    <t>To be mostly something / chủ yếu là thứ gì đó</t>
+  </si>
+  <si>
+    <t>Phong bì</t>
+  </si>
+  <si>
+    <t>Envelope</t>
+  </si>
+  <si>
+    <t>"Li xi" is a red envelope of money</t>
+  </si>
+  <si>
+    <t>an envelope of something</t>
+  </si>
+  <si>
+    <t>Kỳ lạ</t>
+  </si>
+  <si>
+    <t>Strange</t>
+  </si>
+  <si>
+    <t>There is a strange object in the sky</t>
+  </si>
+  <si>
+    <t>A strange object / một vật thể kỳ lạ</t>
+  </si>
+  <si>
+    <t>Hào phóng</t>
+  </si>
+  <si>
+    <t>Generous</t>
+  </si>
+  <si>
+    <t>My dad is generous with giving gifts.</t>
+  </si>
+  <si>
+    <t>to be generous with something / hào phóng trong chuyện gì đó</t>
+  </si>
+  <si>
+    <t>Thay vì</t>
+  </si>
+  <si>
+    <t>Instead</t>
+  </si>
+  <si>
+    <t>Instead of doing homework, she watched TV</t>
+  </si>
+  <si>
+    <t>Instead of doing something</t>
+  </si>
+  <si>
+    <t>Quần áo, trang phục</t>
+  </si>
+  <si>
+    <t>Clothing</t>
+  </si>
+  <si>
+    <t>We can wear casual clothing to work</t>
+  </si>
+  <si>
+    <t>casual clothing / trang phục đời thường</t>
+  </si>
+  <si>
+    <t>Trưng bày</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>display something</t>
+  </si>
+  <si>
+    <t>We display furniture (đồ nội thất) in our store.</t>
+  </si>
+  <si>
+    <t>Hoàng gia</t>
+  </si>
+  <si>
+    <t>Royal</t>
+  </si>
+  <si>
+    <t>The royal family in Britain is well-known</t>
+  </si>
+  <si>
+    <t>The royal family / gia đình hoàng gia</t>
+  </si>
+  <si>
+    <t>Problem</t>
+  </si>
+  <si>
+    <t>The team came across a serious problem</t>
+  </si>
+  <si>
+    <t>a serious problem</t>
+  </si>
+  <si>
+    <t>Phản cảm</t>
+  </si>
+  <si>
+    <t>Offensive</t>
+  </si>
+  <si>
+    <t>The show was offensive to certain people</t>
+  </si>
+  <si>
+    <t>to be offensive to someone / gây phản cảm cho ai đó</t>
+  </si>
+  <si>
+    <t>Quốc ca</t>
+  </si>
+  <si>
+    <t>Anthem</t>
+  </si>
+  <si>
+    <t>Can you sing our country's national anthem?</t>
+  </si>
+  <si>
+    <t>The national anthem</t>
+  </si>
+  <si>
+    <t>Điểm nổi bật</t>
+  </si>
+  <si>
+    <t>Highlight</t>
+  </si>
+  <si>
+    <t>The highlight of the trip was seeing the Taj Mahal.</t>
+  </si>
+  <si>
+    <t>The highlight of something / điểm nhấn của cái gì đó</t>
+  </si>
+  <si>
+    <t>Mất dần đi, mai một</t>
+  </si>
+  <si>
+    <t>die out</t>
+  </si>
+  <si>
+    <t>Many family traditions are dying out.</t>
+  </si>
+  <si>
+    <t>traditions die out  / truyền thống mai một dần</t>
+  </si>
+  <si>
+    <t>Cưới</t>
+  </si>
+  <si>
+    <t>Marry</t>
+  </si>
+  <si>
+    <t>I want to marry her because I love her</t>
+  </si>
+  <si>
+    <t>Marry somebody</t>
+  </si>
+  <si>
+    <t>Truyền lại</t>
+  </si>
+  <si>
+    <t>Pass down</t>
+  </si>
+  <si>
+    <t>My grandparents passes down family stories to us</t>
+  </si>
+  <si>
+    <t>Pass down something</t>
+  </si>
+  <si>
+    <t>Tiệc</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>you are invited to my birthday party.</t>
+  </si>
+  <si>
+    <t>A birthday party</t>
+  </si>
+  <si>
+    <t>Nhẫn</t>
+  </si>
+  <si>
+    <t>Ring</t>
+  </si>
+  <si>
+    <t>He bought an expensive wedding ring.</t>
+  </si>
+  <si>
+    <t>A wedding ring</t>
+  </si>
+  <si>
+    <t>Mặt nạ</t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>You must breathe through the gas mask.</t>
+  </si>
+  <si>
+    <t>a gas mask / mặt nạ phòng độc</t>
+  </si>
+  <si>
+    <t>Xã hội</t>
+  </si>
+  <si>
+    <t>Society</t>
+  </si>
+  <si>
+    <t>There are many problems in modern society</t>
+  </si>
+  <si>
+    <t>a modern society</t>
+  </si>
+  <si>
+    <t>Nghi lễ, buổi lễ</t>
+  </si>
+  <si>
+    <t>Ceremony</t>
+  </si>
+  <si>
+    <t>Our daughter's graduation ceremony is this Sunday</t>
+  </si>
+  <si>
+    <t>a graduation ceremony / buổi lể tốt nghiệp</t>
+  </si>
+  <si>
+    <t>Sự để tâm, sự kính trọng</t>
+  </si>
+  <si>
+    <t>Regard</t>
+  </si>
+  <si>
+    <t>has regard for somebody or something</t>
+  </si>
+  <si>
+    <t>He has no regard for my feelings. / Anh ta không để tâm cảm xúc của tôi chút nào</t>
+  </si>
+  <si>
+    <t>Nến</t>
+  </si>
+  <si>
+    <t>Candle</t>
+  </si>
+  <si>
+    <t>Make a wish on the burning candle</t>
+  </si>
+  <si>
+    <t>a buring candle / ngon nến đang cháy</t>
+  </si>
+  <si>
+    <t>Cái chết</t>
+  </si>
+  <si>
+    <t>Death</t>
+  </si>
+  <si>
+    <t>The anniversary of our grandmother's death was yesterday</t>
+  </si>
+  <si>
+    <t>The anniversary of somebody's death</t>
+  </si>
+  <si>
+    <t>Nhiều</t>
+  </si>
+  <si>
+    <t>Various</t>
+  </si>
+  <si>
+    <t>Cakes come in various shapes and sizes</t>
+  </si>
+  <si>
+    <t>Various shapes and sizes</t>
+  </si>
+  <si>
+    <t>Cờ</t>
+  </si>
+  <si>
+    <t>Flag</t>
+  </si>
+  <si>
+    <t>Vietnam's flag has a big yellow star</t>
+  </si>
+  <si>
+    <t>A country's flag / lá cờ của một quốc gia</t>
+  </si>
+  <si>
+    <t>Sự khó khăn</t>
+  </si>
+  <si>
+    <t>Difficulty</t>
+  </si>
+  <si>
+    <t>Old people have difficulty in reading small work</t>
+  </si>
+  <si>
+    <t>Have difficulty in doing something</t>
+  </si>
+  <si>
+    <t>Nhỏ</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>The minor incident didn't hurt me.</t>
+  </si>
+  <si>
+    <t>a minor incident</t>
+  </si>
+  <si>
+    <t>Đạo đức</t>
+  </si>
+  <si>
+    <t>Moral</t>
+  </si>
+  <si>
+    <t>To steal or not is a moral issue.</t>
+  </si>
+  <si>
+    <t>a moral issues / vấn đề đạo đức</t>
   </si>
 </sst>
 </file>
@@ -14750,10 +15197,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15068,10 +15516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G991"/>
+  <dimension ref="A1:G1021"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B972" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C992" sqref="C992"/>
+    <sheetView tabSelected="1" topLeftCell="B1001" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C1022" sqref="C1022"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -37572,6 +38020,696 @@
         <v>593</v>
       </c>
     </row>
+    <row r="992" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A992" s="2" t="s">
+        <v>4889</v>
+      </c>
+      <c r="B992" s="2">
+        <v>34</v>
